--- a/sample.xlsx
+++ b/sample.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="260">
   <si>
     <t>Address</t>
   </si>
@@ -34,24 +34,12 @@
     <t>#2501 -80 ABSOLUTE AVE|Mississauga, Ontario L4Z0A5</t>
   </si>
   <si>
-    <t>1 + 1</t>
-  </si>
-  <si>
-    <t>Apartment</t>
-  </si>
-  <si>
     <t>#1204 -3695 KANEFF CRES|Mississauga, Ontario L5A4B6</t>
   </si>
   <si>
-    <t>2 + 1</t>
-  </si>
-  <si>
     <t>#503 -360 SQUARE ONE DR|Mississauga, Ontario L5B0E6</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>#1312 -360 SQUARE ONE DR|Mississauga, Ontario L5B0E6</t>
   </si>
   <si>
@@ -61,21 +49,21 @@
     <t>#408 -360 SQUARE ONE DR|Mississauga, Ontario L5B0E6</t>
   </si>
   <si>
+    <t>#2202 -4470 TUCANA CRT|Mississauga, Ontario L5R3K8</t>
+  </si>
+  <si>
+    <t>#1902 -4470 TUCANA CRT|Mississauga, Ontario L5R3K8</t>
+  </si>
+  <si>
     <t>#2604 -360 SQUARE ONE DR|Mississauga, Ontario L5B0G7</t>
   </si>
   <si>
-    <t>#1902 -4470 TUCANA CRT|Mississauga, Ontario L5R3K8</t>
-  </si>
-  <si>
-    <t>#2202 -4470 TUCANA CRT|Mississauga, Ontario L5R3K8</t>
+    <t>#912 -115 HILLCREST AVE|Mississauga, Ontario L5B3Y9</t>
   </si>
   <si>
     <t>#1911 -1580 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3T8</t>
   </si>
   <si>
-    <t>#912 -115 HILLCREST AVE|Mississauga, Ontario L5B3Y9</t>
-  </si>
-  <si>
     <t>#410 -3985 GRAND PARK DR|Mississauga, Ontario L5B0H8</t>
   </si>
   <si>
@@ -85,81 +73,72 @@
     <t>#3203 -4070 CONFEDERATION PKWY|Mississauga, Ontario L5B0E9</t>
   </si>
   <si>
+    <t>#1604 -4470 TUCANA CRT|Mississauga, Ontario L5R3K8</t>
+  </si>
+  <si>
     <t>#220 -250 WEBB DR|Mississauga, Ontario L5B3Z4</t>
   </si>
   <si>
-    <t>#1604 -4470 TUCANA CRT|Mississauga, Ontario L5R3K8</t>
+    <t>#311 -50 ELM DR E|Mississauga, Ontario L5A3X2</t>
   </si>
   <si>
     <t>#205 -3700 KANEFF CRES|Mississauga, Ontario L5A4B8</t>
   </si>
   <si>
+    <t>#1201 -4085 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
+  </si>
+  <si>
     <t>#1804 -20 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3S1</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>#311 -50 ELM DR E|Mississauga, Ontario L5A3X2</t>
-  </si>
-  <si>
-    <t>#1201 -4085 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
-  </si>
-  <si>
     <t>3695 KANEFF Crescent Unit# 1202|Mississauga, Ontario L5A4B6</t>
   </si>
   <si>
-    <t>0 + 2</t>
-  </si>
-  <si>
     <t>#1202 -3695  KANEFF  CRES|Mississauga, Ontario L5A4B6</t>
   </si>
   <si>
     <t>#801 -1 ELM DR W|Mississauga, Ontario L5B4M1</t>
   </si>
   <si>
+    <t>#611 -339 RATHBURN RD W|Mississauga, Ontario L5B0C8</t>
+  </si>
+  <si>
     <t>#1703 -50 ELM DR E|Mississauga, Ontario L5A3X2</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>#611 -339 RATHBURN RD W|Mississauga, Ontario L5B0C8</t>
-  </si>
-  <si>
     <t>#2008 -3100 KIRWIN AVE|Mississauga, Ontario L5A3S6</t>
   </si>
   <si>
     <t>#1201 -3590 KANEFF CRES|Mississauga, Ontario L5A3X3</t>
   </si>
   <si>
+    <t>#802 -156 ENFIELD PL|Mississauga, Ontario L5B4L8</t>
+  </si>
+  <si>
+    <t>#401 -80 ABSOLUTE AVE|Mississauga, Ontario L4Z0A5</t>
+  </si>
+  <si>
     <t>#2610 -80 ABSOLUTE AVE|Mississauga, Ontario L4Z0A5</t>
   </si>
   <si>
-    <t>#401 -80 ABSOLUTE AVE|Mississauga, Ontario L4Z0A5</t>
-  </si>
-  <si>
-    <t>#802 -156 ENFIELD PL|Mississauga, Ontario L5B4L8</t>
-  </si>
-  <si>
     <t>#1212 -50 KINGSBRIDGE GARDEN CIRC|Mississauga, Ontario L5R1Y2</t>
   </si>
   <si>
+    <t>#1205 -330 RATHBURN RD|Mississauga, Ontario L5B3Y2</t>
+  </si>
+  <si>
     <t>#3805 -208 ENFIELD PL|Mississauga, Ontario L5B0B8</t>
   </si>
   <si>
+    <t>#713 -115 HILLCREST AVE|Mississauga, Ontario L5B3Y9</t>
+  </si>
+  <si>
+    <t>#1111 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
+  </si>
+  <si>
     <t>#2710 -360 SQUARE ONE DR|Mississauga, Ontario L5B0G7</t>
   </si>
   <si>
-    <t>#713 -115 HILLCREST AVE|Mississauga, Ontario L5B3Y9</t>
-  </si>
-  <si>
-    <t>#1111 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
-  </si>
-  <si>
-    <t>#1205 -330 RATHBURN RD|Mississauga, Ontario L5B3Y2</t>
-  </si>
-  <si>
     <t>#530 -4085 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
   </si>
   <si>
@@ -175,18 +154,15 @@
     <t>3939 DUKE OF YORK BLVD Boulevard Unit# 2606|Mississauga, Ontario L5B4N2</t>
   </si>
   <si>
-    <t>1 + 0</t>
-  </si>
-  <si>
     <t>#508 -50 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
   </si>
   <si>
+    <t>#2201 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
+  </si>
+  <si>
     <t>#1602 -4470 TUCANA CRT|Mississauga, Ontario L5R3K8</t>
   </si>
   <si>
-    <t>#2201 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
-  </si>
-  <si>
     <t>#205 -4070 CONFEDERATION PKWY|Mississauga, Ontario</t>
   </si>
   <si>
@@ -208,27 +184,24 @@
     <t>#1306 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
   </si>
   <si>
+    <t>#411 -310 BURNHAMTHORPE RD|Mississauga, Ontario L5B4P9</t>
+  </si>
+  <si>
+    <t>#707 -365 PRINCE OF WALES DR|Mississauga, Ontario L5B0G6</t>
+  </si>
+  <si>
     <t>#1211 -4011 BRICKSTONE MEWS|Mississauga, Ontario L5B0G3</t>
   </si>
   <si>
-    <t>#411 -310 BURNHAMTHORPE RD|Mississauga, Ontario L5B4P9</t>
-  </si>
-  <si>
-    <t>#707 -365 PRINCE OF WALES DR|Mississauga, Ontario L5B0G6</t>
+    <t>810 SCOLLARD Court Unit# 808|Mississauga, Ontario L5V0A4</t>
+  </si>
+  <si>
+    <t>#808 -810 SCOLLARD CRT|Mississauga, Ontario L5V0A2</t>
   </si>
   <si>
     <t>##1405 -330 RATHBURN RD W|Mississauga, Ontario L5B3Y1</t>
   </si>
   <si>
-    <t>#808 -810 SCOLLARD CRT|Mississauga, Ontario L5V0A2</t>
-  </si>
-  <si>
-    <t>810 SCOLLARD Court Unit# 808|Mississauga, Ontario L5V0A4</t>
-  </si>
-  <si>
-    <t>2 + 0</t>
-  </si>
-  <si>
     <t>#405 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
   </si>
   <si>
@@ -253,15 +226,15 @@
     <t>#1106 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
   </si>
   <si>
+    <t>#2106 -33 ELM DR W|Mississauga, Ontario L5B4M2</t>
+  </si>
+  <si>
     <t>#311 -3605 KARIYA DR|Mississauga, Ontario L5B3J4</t>
   </si>
   <si>
     <t>#PH13 -3590 KANEFF CRES|Mississauga, Ontario L5A3X3</t>
   </si>
   <si>
-    <t>#2106 -33 ELM DR W|Mississauga, Ontario L5B4M2</t>
-  </si>
-  <si>
     <t>#1101 -330 BURNHAMTHORPE RD W|Mississauga, Ontario L5B0E1</t>
   </si>
   <si>
@@ -295,12 +268,15 @@
     <t>#3201 -510 CURRAN PL|Mississauga, Ontario L5B0J8</t>
   </si>
   <si>
+    <t>#214 -4011 BRICKSTONE MEWS|Mississauga, Ontario L5B0E3</t>
+  </si>
+  <si>
+    <t>#1210 -350 WEBB DR|Mississauga, Ontario L5B3W4</t>
+  </si>
+  <si>
     <t>#511 -510 CURRAN PL|Mississauga, Ontario</t>
   </si>
   <si>
-    <t>#1210 -350 WEBB DR|Mississauga, Ontario L5B3W4</t>
-  </si>
-  <si>
     <t>#205 -75 KING ST E|Mississauga, Ontario L5A4G5</t>
   </si>
   <si>
@@ -313,24 +289,24 @@
     <t>#1712 -349 RATHBURN RD|Mississauga, Ontario L5B0G9</t>
   </si>
   <si>
+    <t>#802 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
+  </si>
+  <si>
+    <t>#1408 -335 WEBB DR|Mississauga, Ontario L5B4A1</t>
+  </si>
+  <si>
+    <t>#1210 -20 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3S1</t>
+  </si>
+  <si>
+    <t>#208 -285 ENFIELD PL|Mississauga, Ontario L5B4L8</t>
+  </si>
+  <si>
     <t>220 BURNHAMTHORPE Road Unit# 1703|Mississauga, Ontario L5B4N5</t>
   </si>
   <si>
     <t>#1703 -220 BURNHAMTHORPE RD|Mississauga, Ontario L5B4N4</t>
   </si>
   <si>
-    <t>#1408 -335 WEBB DR|Mississauga, Ontario L5B4A1</t>
-  </si>
-  <si>
-    <t>#1210 -20 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3S1</t>
-  </si>
-  <si>
-    <t>#208 -285 ENFIELD PL|Mississauga, Ontario L5B4L8</t>
-  </si>
-  <si>
-    <t>#802 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
-  </si>
-  <si>
     <t>#602 -90 ABSOLUTE AVE|Mississauga, Ontario L4Z0A1</t>
   </si>
   <si>
@@ -346,25 +322,28 @@
     <t>#1008 -3525 KARIYA DR|Mississauga, Ontario L5B0C2</t>
   </si>
   <si>
+    <t>#406 -90 ABSOLUTE AVE|Mississauga, Ontario L4Z0A3</t>
+  </si>
+  <si>
     <t>#PH11 -300 WEBB DR|Mississauga, Ontario L5B3W3</t>
   </si>
   <si>
-    <t>#406 -90 ABSOLUTE AVE|Mississauga, Ontario L4Z0A3</t>
-  </si>
-  <si>
     <t>#1301 -60 ABSOLUTE AVE|Mississauga, Ontario L4T0A9</t>
   </si>
   <si>
     <t>#1605 -385 PRINCE OF WALES DR|Mississauga, Ontario L5B0C6</t>
   </si>
   <si>
+    <t>#1905 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
+  </si>
+  <si>
+    <t>#3903 -510 CURRAN PL|Mississauga, Ontario L5B0J8</t>
+  </si>
+  <si>
     <t>#2312 -3605 KARIYA DR|Mississauga, Ontario L5B3J4</t>
   </si>
   <si>
-    <t>#1905 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
-  </si>
-  <si>
-    <t>#3903 -510 CURRAN PL|Mississauga, Ontario L5B0J8</t>
+    <t>#906 -250 WEBB DR|Mississauga, Ontario L5B3Z4</t>
   </si>
   <si>
     <t>#303 -335 WEBB DR|Mississauga, Ontario L5B4A1</t>
@@ -373,9 +352,6 @@
     <t>#202 -3975 GRAND PARK DR|Mississauga, Ontario L5B0K4</t>
   </si>
   <si>
-    <t>#906 -250 WEBB DR|Mississauga, Ontario L5B3Z4</t>
-  </si>
-  <si>
     <t>#1204 -285 ENFIELD PL|Mississauga, Ontario L5B3Y6</t>
   </si>
   <si>
@@ -385,37 +361,37 @@
     <t>#1411 -300 WEBB DR|Mississauga, Ontario L5B3W3</t>
   </si>
   <si>
+    <t>#104 -1 ELM DR|Mississauga, Ontario L5B4M1</t>
+  </si>
+  <si>
     <t>#603 -349 RATHBURN RD|Mississauga, Ontario L5B0G9</t>
   </si>
   <si>
-    <t>#104 -1 ELM DR|Mississauga, Ontario L5B4M1</t>
-  </si>
-  <si>
     <t>#4106 -50 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
   </si>
   <si>
     <t>#412 -115 HILLCREST AVE|Mississauga, Ontario L5B3Y9</t>
   </si>
   <si>
-    <t>2 + 2</t>
-  </si>
-  <si>
     <t>#612 -3880 DUKE OF YORK BLVD|Mississauga, Ontario L5B4M7</t>
   </si>
   <si>
+    <t>#2410 -550 WEBB DR|Mississauga, Ontario L5B3Y4</t>
+  </si>
+  <si>
+    <t>#3303 -3975 GRAND PARK DR|Mississauga, Ontario L5B0K4</t>
+  </si>
+  <si>
+    <t>#1808 -1 ELM DR W|Mississauga, Ontario L5B4M1</t>
+  </si>
+  <si>
     <t>3939 DUKE OF YORK Boulevard Unit# 905|Mississauga, Ontario L5B4N2</t>
   </si>
   <si>
     <t>#905 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
   </si>
   <si>
-    <t>#2410 -550 WEBB DR|Mississauga, Ontario L5B3Y4</t>
-  </si>
-  <si>
-    <t>#3303 -3975 GRAND PARK DR|Mississauga, Ontario L5B0K4</t>
-  </si>
-  <si>
-    <t>#1808 -1 ELM DR W|Mississauga, Ontario L5B4M1</t>
+    <t>#2204 -220 BURNHAMTHORPE RD W|Mississauga, Ontario L5B4N4</t>
   </si>
   <si>
     <t>4070 CONFEDERATION Parkway Unit# 608|Mississauga, Ontario L5B0E9</t>
@@ -424,9 +400,6 @@
     <t>#608 -4070 CONFEDERATION PKWY|Mississauga, Ontario L5B0E9</t>
   </si>
   <si>
-    <t>#2204 -220 BURNHAMTHORPE RD W|Mississauga, Ontario L5B4N4</t>
-  </si>
-  <si>
     <t>#606 -350 WEBB DR|Mississauga, Ontario L5B3W4</t>
   </si>
   <si>
@@ -442,33 +415,30 @@
     <t>#2108 -3525 KARIYA DR|Mississauga, Ontario L5B0C2</t>
   </si>
   <si>
+    <t>#2501 -4080 LIVING ARTS DR|Mississauga, Ontario L5B4N3</t>
+  </si>
+  <si>
+    <t>#2202 -4065 BRICKSTONE MEWS|Mississauga, Ontario L5B0G3</t>
+  </si>
+  <si>
+    <t>#2316 -4055 PARKSIDE DR|Mississauga, Ontario L5B0K2</t>
+  </si>
+  <si>
+    <t>#920 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
+  </si>
+  <si>
     <t>#1111 -223 WEBB DR|Mississauga, Ontario L5B0E8</t>
   </si>
   <si>
-    <t>#920 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
-  </si>
-  <si>
-    <t>#2501 -4080 LIVING ARTS DR|Mississauga, Ontario L5B4N3</t>
-  </si>
-  <si>
-    <t>#2202 -4065 BRICKSTONE MEWS|Mississauga, Ontario L5B0G3</t>
-  </si>
-  <si>
-    <t>#2316 -4055 PARKSIDE DR|Mississauga, Ontario L5B0K2</t>
-  </si>
-  <si>
     <t>#402 -285 ENFIELD PL|Mississauga, Ontario L5B3Y6</t>
   </si>
   <si>
+    <t>Address not available</t>
+  </si>
+  <si>
     <t>#163 -1250 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3R6</t>
   </si>
   <si>
-    <t>Row / Townhouse</t>
-  </si>
-  <si>
-    <t>Address not available</t>
-  </si>
-  <si>
     <t>163 1250 Mississauga Valley Boulevard|Mississauga, Ontario L5A3R6</t>
   </si>
   <si>
@@ -481,39 +451,39 @@
     <t>#103 -3175 KIRWIN AVE|Mississauga, Ontario L5A3M4</t>
   </si>
   <si>
+    <t>#1611 -135 HILLCREST AVE|Mississauga, Ontario L5B4B1</t>
+  </si>
+  <si>
+    <t>#2212 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
+  </si>
+  <si>
+    <t>#512 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
+  </si>
+  <si>
     <t>#403 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
   </si>
   <si>
-    <t>#1611 -135 HILLCREST AVE|Mississauga, Ontario L5B4B1</t>
-  </si>
-  <si>
-    <t>#2212 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
-  </si>
-  <si>
-    <t>#512 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
+    <t>#508 -1300 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3S9</t>
+  </si>
+  <si>
+    <t>#110 -90 ABSOLUTE AVE|Mississauga, Ontario L4Z0A1</t>
   </si>
   <si>
     <t>#911 -1 ELM DR|Mississauga, Ontario L5B4M1</t>
   </si>
   <si>
-    <t>#110 -90 ABSOLUTE AVE|Mississauga, Ontario L4Z0A1</t>
-  </si>
-  <si>
-    <t>#508 -1300 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3S9</t>
-  </si>
-  <si>
     <t>#1802 -4065 BRICKSTONE MEWS|Mississauga, Ontario L5B0G3</t>
   </si>
   <si>
+    <t>#1103 -700 CONSTELLATION DR|Mississauga, Ontario L5R3G8</t>
+  </si>
+  <si>
+    <t>3304 3939 DUKE OF YORK Boulevard|Mississauga, Ontario L5B4N2</t>
+  </si>
+  <si>
     <t>#3304 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
   </si>
   <si>
-    <t>3304 3939 DUKE OF YORK Boulevard|Mississauga, Ontario L5B4N2</t>
-  </si>
-  <si>
-    <t>#1103 -700 CONSTELLATION DR|Mississauga, Ontario L5R3G8</t>
-  </si>
-  <si>
     <t>#2305 -335 RATHBURN RD W|Mississauga, Ontario L5B0C8</t>
   </si>
   <si>
@@ -523,9 +493,6 @@
     <t>#1004 -220 BURNHAMTHORPE RD|Mississauga, Ontario L5B4N4</t>
   </si>
   <si>
-    <t>1 + 2</t>
-  </si>
-  <si>
     <t>#104 -3605 KARIYA DR|Mississauga, Ontario L5B3J2</t>
   </si>
   <si>
@@ -556,24 +523,24 @@
     <t>#1618 -4055 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K8</t>
   </si>
   <si>
+    <t>#1104 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
+  </si>
+  <si>
+    <t>#2002 -3700 KANEFF CRES|Mississauga, Ontario L5A4B8</t>
+  </si>
+  <si>
+    <t>#906 -339 RATHBURN RD W|Mississauga, Ontario L5B9K6</t>
+  </si>
+  <si>
+    <t>#2905 -70 ABSOLUTE AVE|Mississauga, Ontario L4Z0A4</t>
+  </si>
+  <si>
+    <t>#3307 -50 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
+  </si>
+  <si>
     <t>#1513 -3880 DUKE OF YORK BLVD|Mississauga, Ontario L5B4M7</t>
   </si>
   <si>
-    <t>#1104 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
-  </si>
-  <si>
-    <t>#2905 -70 ABSOLUTE AVE|Mississauga, Ontario L4Z0A4</t>
-  </si>
-  <si>
-    <t>#3307 -50 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
-  </si>
-  <si>
-    <t>#2002 -3700 KANEFF CRES|Mississauga, Ontario L5A4B8</t>
-  </si>
-  <si>
-    <t>#906 -339 RATHBURN RD W|Mississauga, Ontario L5B9K6</t>
-  </si>
-  <si>
     <t>#2710 -3504 HURONTARIO ST|Mississauga, Ontario L5B1P2</t>
   </si>
   <si>
@@ -598,27 +565,27 @@
     <t>#209 -350 RATHBURN RD W|Mississauga, Ontario L5B3Y2</t>
   </si>
   <si>
+    <t>#2102 -360 SQUARE ONE DR|Mississauga, Ontario L5B0E6</t>
+  </si>
+  <si>
     <t>#3103 -4099 BRICKSTONE MEWS|Mississauga, Ontario L5B0G2</t>
   </si>
   <si>
-    <t>#2102 -360 SQUARE ONE DR|Mississauga, Ontario L5B0E6</t>
+    <t>#2212 -4055 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
+  </si>
+  <si>
+    <t>#1512 -4055 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
   </si>
   <si>
     <t>#2115 -339 RATHBURN RD W|Mississauga, Ontario L5B0K6</t>
   </si>
   <si>
-    <t>#2212 -4055 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
-  </si>
-  <si>
-    <t>#1512 -4055 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
+    <t>#4102 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
   </si>
   <si>
     <t>#1808 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
   </si>
   <si>
-    <t>#4102 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
-  </si>
-  <si>
     <t>#2409 -223 WEBB DR|Mississauga, Ontario L5B0E8</t>
   </si>
   <si>
@@ -646,36 +613,36 @@
     <t>388 PRINCE OF WALES Drive Unit# 406|Mississauga, Ontario L5B0A1</t>
   </si>
   <si>
+    <t>#3406 -4065 BRICKSTONE MEWS|Mississauga, Ontario</t>
+  </si>
+  <si>
     <t>#1809 -4085 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
   </si>
   <si>
-    <t>#3406 -4065 BRICKSTONE MEWS|Mississauga, Ontario</t>
-  </si>
-  <si>
     <t>#2631 -3888 DUKE OF YORK BLVD|Mississauga, Ontario L5B4P5</t>
   </si>
   <si>
     <t>#1402 -4070 CONFEDERATION PKWY|Mississauga, Ontario</t>
   </si>
   <si>
+    <t>#1606 -349 RATHBURN RD|Mississauga, Ontario L5B0C8</t>
+  </si>
+  <si>
     <t>#2701 -4080 LIVING ARTS DR|Mississauga, Ontario L5B4M8</t>
   </si>
   <si>
-    <t>#1606 -349 RATHBURN RD|Mississauga, Ontario L5B0C8</t>
-  </si>
-  <si>
     <t>#207 -3650 KANEFF CRES|Mississauga, Ontario L5A4A1</t>
   </si>
   <si>
     <t>349 RATHBURN  RD W|Mississauga, Ontario L5B0G9</t>
   </si>
   <si>
+    <t>#UPH 07 -90 ABSOLUTE AVE|Mississauga, Ontario L4Z0A3</t>
+  </si>
+  <si>
     <t>#4714 -3960 CONFEDERATION PKWY|Mississauga, Ontario</t>
   </si>
   <si>
-    <t>#UPH 07 -90 ABSOLUTE AVE|Mississauga, Ontario L4Z0A3</t>
-  </si>
-  <si>
     <t>#311 -3351 CAWTHRA RD|Mississauga, Ontario L5A4N5</t>
   </si>
   <si>
@@ -688,15 +655,9 @@
     <t>#62 -60 HANSON RD|Mississauga, Ontario L5B2P6</t>
   </si>
   <si>
-    <t>3 + 1</t>
-  </si>
-  <si>
     <t>#48 -725 VERMOUTH AVE|Mississauga, Ontario L5A3X5</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>#504 -510 CURRAN PL|Mississauga, Ontario L5B0J8</t>
   </si>
   <si>
@@ -709,27 +670,27 @@
     <t>#2015 -349 RATHBURN RD|Mississauga, Ontario L5B0C8</t>
   </si>
   <si>
+    <t>#2306 -3880 DUKE OF YORK BLVD|Mississauga, Ontario L5B4M7</t>
+  </si>
+  <si>
+    <t>#1506 -3880 DUKE OF YORK BLVD|Mississauga, Ontario L5B4M7</t>
+  </si>
+  <si>
+    <t>#30 -5030 HEATHERLEIGH AVE|Mississauga, Ontario L5V2G7</t>
+  </si>
+  <si>
     <t>#LPH2 -220 BURNHAMTHORPE RD W|Mississauga, Ontario L5B3Y5</t>
   </si>
   <si>
-    <t>#2306 -3880 DUKE OF YORK BLVD|Mississauga, Ontario L5B4M7</t>
-  </si>
-  <si>
-    <t>#1506 -3880 DUKE OF YORK BLVD|Mississauga, Ontario L5B4M7</t>
-  </si>
-  <si>
-    <t>#30 -5030 HEATHERLEIGH AVE|Mississauga, Ontario L5V2G7</t>
+    <t>#1107 -200 ROBERT SPECK PKWY|Mississauga, Ontario L4Z1S3</t>
+  </si>
+  <si>
+    <t>#PH 3605 -3525 KARIYA DR|Mississauga, Ontario L5B0C2</t>
   </si>
   <si>
     <t>#27 -3395 CLIFF RD N|Mississauga, Ontario L5A3M7</t>
   </si>
   <si>
-    <t>#1107 -200 ROBERT SPECK PKWY|Mississauga, Ontario L4Z1S3</t>
-  </si>
-  <si>
-    <t>#PH 3605 -3525 KARIYA DR|Mississauga, Ontario L5B0C2</t>
-  </si>
-  <si>
     <t>#2804 -330 BURNHAMTHORPE RD|Mississauga, Ontario L5B0E1</t>
   </si>
   <si>
@@ -751,9 +712,6 @@
     <t>374 LARA WOODS|Mississauga, Ontario L5A3A9</t>
   </si>
   <si>
-    <t>House</t>
-  </si>
-  <si>
     <t>#101 -3975 GRAND PARK  DR|Mississauga, Ontario L5B4M6</t>
   </si>
   <si>
@@ -778,9 +736,6 @@
     <t>4049 CHICORY CRT|Mississauga, Ontario L5C3S8</t>
   </si>
   <si>
-    <t>4 + 2</t>
-  </si>
-  <si>
     <t>4164 TEA GARDEN CIRC|Mississauga, Ontario L5B2W8</t>
   </si>
   <si>
@@ -796,9 +751,6 @@
     <t>3470 COPERNICUS DR|Mississauga, Ontario L5B3K5</t>
   </si>
   <si>
-    <t>4 + 4</t>
-  </si>
-  <si>
     <t>4151 SHIPP DR|Mississauga, Ontario L4Z0A7</t>
   </si>
   <si>
@@ -814,9 +766,6 @@
     <t>3369 CAWTHRA RD|Mississauga, Ontario L5A2X8</t>
   </si>
   <si>
-    <t>3 + 4</t>
-  </si>
-  <si>
     <t>PH5501 60 ABSOLUTE Drive|Mississauga, Ontario L4Z0A8</t>
   </si>
   <si>
@@ -826,9 +775,6 @@
     <t>4625 SANDFORD FARM DR|Mississauga, Ontario L5V0C1</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>3373 CAWTHRA RD|Mississauga, Ontario L5A2X8</t>
   </si>
   <si>
@@ -842,9 +788,6 @@
   </si>
   <si>
     <t>3122 GIVEN RD|Mississauga, Ontario L5A2N3</t>
-  </si>
-  <si>
-    <t>4 + 1</t>
   </si>
   <si>
     <t>2530 SHEPARD AVE|Mississauga, Ontario L5A2H6</t>
@@ -1228,7 +1171,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F255"/>
+  <dimension ref="A1:F256"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1255,14 +1198,14 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
+      <c r="B2">
+        <v>2</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1273,16 +1216,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1293,16 +1236,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1313,16 +1256,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1333,16 +1276,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
         <v>10</v>
       </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1353,16 +1296,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1373,16 +1316,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1393,16 +1336,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
-        <v>8</v>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1413,16 +1356,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1433,16 +1376,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
-        <v>8</v>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1453,16 +1396,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
-        <v>8</v>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1473,16 +1416,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
-        <v>8</v>
+      <c r="D13">
+        <v>1</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1493,16 +1436,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
-        <v>8</v>
+      <c r="D14">
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1513,16 +1456,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
-        <v>8</v>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1533,19 +1476,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
-        <v>8</v>
+      <c r="D16">
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>514900</v>
@@ -1553,19 +1496,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
-        <v>8</v>
+      <c r="D17">
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>514900</v>
@@ -1573,19 +1516,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>515000</v>
@@ -1593,16 +1536,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1613,19 +1556,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>515000</v>
@@ -1633,16 +1576,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1653,19 +1596,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" t="s">
-        <v>8</v>
+      <c r="D22">
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>515900</v>
@@ -1673,16 +1616,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" t="s">
-        <v>8</v>
+      <c r="D23">
+        <v>1</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1693,16 +1636,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" t="s">
-        <v>8</v>
+      <c r="D24">
+        <v>1</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1713,16 +1656,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
-        <v>8</v>
+      <c r="D25">
+        <v>1</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1733,16 +1676,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" t="s">
-        <v>8</v>
+      <c r="D26">
+        <v>1</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1753,16 +1696,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" t="s">
-        <v>8</v>
+      <c r="D27">
+        <v>1</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -1773,16 +1716,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" t="s">
-        <v>8</v>
+      <c r="D28">
+        <v>1</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -1793,19 +1736,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>519000</v>
@@ -1813,16 +1756,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
-        <v>8</v>
+      <c r="D30">
+        <v>1</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1833,19 +1776,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>519000</v>
@@ -1853,16 +1796,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
-      <c r="D32" t="s">
-        <v>8</v>
+      <c r="D32">
+        <v>1</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -1873,16 +1816,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1893,16 +1836,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" t="s">
-        <v>8</v>
+      <c r="D34">
+        <v>1</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1913,16 +1856,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" t="s">
-        <v>8</v>
+      <c r="D35">
+        <v>1</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1933,16 +1876,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" t="s">
-        <v>8</v>
+      <c r="D36">
+        <v>1</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1953,16 +1896,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1973,16 +1916,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" t="s">
-        <v>8</v>
+      <c r="D38">
+        <v>1</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1993,16 +1936,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" t="s">
-        <v>8</v>
+      <c r="D39">
+        <v>1</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2013,16 +1956,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40" t="s">
-        <v>8</v>
+      <c r="D40">
+        <v>1</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2033,16 +1976,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41" t="s">
-        <v>8</v>
+      <c r="D41">
+        <v>1</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2053,19 +1996,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
-      <c r="D42" t="s">
-        <v>8</v>
+      <c r="D42">
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>521999</v>
@@ -2073,16 +2016,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" t="s">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
-      <c r="D43" t="s">
-        <v>8</v>
+      <c r="D43">
+        <v>1</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2093,16 +2036,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
-      <c r="D44" t="s">
-        <v>8</v>
+      <c r="D44">
+        <v>1</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2113,16 +2056,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
-      <c r="D45" t="s">
-        <v>8</v>
+      <c r="D45">
+        <v>1</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2133,16 +2076,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" t="s">
-        <v>7</v>
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
-      <c r="D46" t="s">
-        <v>8</v>
+      <c r="D46">
+        <v>1</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2153,16 +2096,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" t="s">
-        <v>7</v>
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
-      <c r="D47" t="s">
-        <v>8</v>
+      <c r="D47">
+        <v>1</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2173,16 +2116,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
-      <c r="D48" t="s">
-        <v>8</v>
+      <c r="D48">
+        <v>1</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2193,16 +2136,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" t="s">
-        <v>7</v>
+        <v>53</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
-      <c r="D49" t="s">
-        <v>8</v>
+      <c r="D49">
+        <v>1</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2213,16 +2156,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" t="s">
-        <v>28</v>
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
-      <c r="D50" t="s">
-        <v>8</v>
+      <c r="D50">
+        <v>1</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2233,16 +2176,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" t="s">
-        <v>36</v>
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
-      <c r="D51" t="s">
-        <v>8</v>
+      <c r="D51">
+        <v>1</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2253,16 +2196,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" t="s">
-        <v>7</v>
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
-      <c r="D52" t="s">
-        <v>8</v>
+      <c r="D52">
+        <v>1</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2273,16 +2216,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" t="s">
-        <v>7</v>
+        <v>57</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
-      <c r="D53" t="s">
-        <v>8</v>
+      <c r="D53">
+        <v>1</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2293,16 +2236,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" t="s">
-        <v>36</v>
+        <v>58</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
-      <c r="D54" t="s">
-        <v>8</v>
+      <c r="D54">
+        <v>1</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2313,16 +2256,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" t="s">
-        <v>12</v>
+        <v>59</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
-      <c r="D55" t="s">
-        <v>8</v>
+      <c r="D55">
+        <v>1</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2333,19 +2276,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" t="s">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
-      <c r="D56" t="s">
-        <v>8</v>
+      <c r="D56">
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>530000</v>
@@ -2353,16 +2296,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" t="s">
-        <v>36</v>
+        <v>61</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
-      <c r="D57" t="s">
-        <v>8</v>
+      <c r="D57">
+        <v>1</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2373,19 +2316,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" t="s">
-        <v>71</v>
+        <v>62</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
-      <c r="D58" t="s">
-        <v>8</v>
+      <c r="D58">
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>NaN</v>
+        <v>2</v>
       </c>
       <c r="F58">
         <v>530000</v>
@@ -2393,16 +2336,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" t="s">
-        <v>36</v>
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
-      <c r="D59" t="s">
-        <v>8</v>
+      <c r="D59">
+        <v>1</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2413,16 +2356,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" t="s">
-        <v>7</v>
+        <v>64</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
-      <c r="D60" t="s">
-        <v>8</v>
+      <c r="D60">
+        <v>1</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2433,16 +2376,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" t="s">
-        <v>36</v>
+        <v>65</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
-      <c r="D61" t="s">
-        <v>8</v>
+      <c r="D61">
+        <v>1</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2453,16 +2396,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" t="s">
-        <v>7</v>
+        <v>66</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
-      <c r="D62" t="s">
-        <v>8</v>
+      <c r="D62">
+        <v>1</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2473,16 +2416,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>76</v>
-      </c>
-      <c r="B63" t="s">
-        <v>7</v>
+        <v>67</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
-      <c r="D63" t="s">
-        <v>8</v>
+      <c r="D63">
+        <v>1</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -2493,16 +2436,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>77</v>
-      </c>
-      <c r="B64" t="s">
-        <v>36</v>
+        <v>68</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
-      <c r="D64" t="s">
-        <v>8</v>
+      <c r="D64">
+        <v>1</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2513,16 +2456,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65" t="s">
-        <v>7</v>
+        <v>69</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
-      <c r="D65" t="s">
-        <v>8</v>
+      <c r="D65">
+        <v>1</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2533,16 +2476,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>79</v>
-      </c>
-      <c r="B66" t="s">
-        <v>10</v>
+        <v>70</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
-      <c r="D66" t="s">
-        <v>8</v>
+      <c r="D66">
+        <v>1</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2553,16 +2496,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>80</v>
-      </c>
-      <c r="B67" t="s">
-        <v>10</v>
+        <v>71</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
-      <c r="D67" t="s">
-        <v>8</v>
+      <c r="D67">
+        <v>1</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2573,19 +2516,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>81</v>
-      </c>
-      <c r="B68" t="s">
-        <v>10</v>
+        <v>72</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68">
         <v>539000</v>
@@ -2593,19 +2536,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69" t="s">
-        <v>36</v>
+        <v>73</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
       </c>
       <c r="C69">
-        <v>2</v>
-      </c>
-      <c r="D69" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69">
         <v>539000</v>
@@ -2613,16 +2556,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70" t="s">
-        <v>7</v>
+        <v>74</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
-      <c r="D70" t="s">
-        <v>8</v>
+      <c r="D70">
+        <v>1</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -2633,16 +2576,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>84</v>
-      </c>
-      <c r="B71" t="s">
-        <v>10</v>
+        <v>75</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
-      <c r="D71" t="s">
-        <v>8</v>
+      <c r="D71">
+        <v>1</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -2653,16 +2596,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>85</v>
-      </c>
-      <c r="B72" t="s">
-        <v>7</v>
+        <v>76</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
-      <c r="D72" t="s">
-        <v>8</v>
+      <c r="D72">
+        <v>1</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -2673,16 +2616,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>86</v>
-      </c>
-      <c r="B73" t="s">
-        <v>7</v>
+        <v>77</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
-      <c r="D73" t="s">
-        <v>8</v>
+      <c r="D73">
+        <v>1</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -2693,16 +2636,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>87</v>
-      </c>
-      <c r="B74" t="s">
-        <v>36</v>
+        <v>78</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
-      <c r="D74" t="s">
-        <v>8</v>
+      <c r="D74">
+        <v>1</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -2713,16 +2656,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>88</v>
-      </c>
-      <c r="B75" t="s">
-        <v>36</v>
+        <v>79</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
-      <c r="D75" t="s">
-        <v>8</v>
+      <c r="D75">
+        <v>1</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -2733,16 +2676,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>89</v>
-      </c>
-      <c r="B76" t="s">
-        <v>7</v>
+        <v>80</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
-      <c r="D76" t="s">
-        <v>8</v>
+      <c r="D76">
+        <v>1</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -2753,16 +2696,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>90</v>
-      </c>
-      <c r="B77" t="s">
-        <v>12</v>
+        <v>81</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
-      <c r="D77" t="s">
-        <v>8</v>
+      <c r="D77">
+        <v>1</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2773,16 +2716,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>91</v>
-      </c>
-      <c r="B78" t="s">
-        <v>28</v>
+        <v>82</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
-      <c r="D78" t="s">
-        <v>8</v>
+      <c r="D78">
+        <v>1</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -2793,16 +2736,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>92</v>
-      </c>
-      <c r="B79" t="s">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
-      <c r="D79" t="s">
-        <v>8</v>
+      <c r="D79">
+        <v>1</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -2813,16 +2756,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>93</v>
-      </c>
-      <c r="B80" t="s">
-        <v>7</v>
+        <v>84</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
-      <c r="D80" t="s">
-        <v>8</v>
+      <c r="D80">
+        <v>1</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -2833,36 +2776,36 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>94</v>
-      </c>
-      <c r="B81" t="s">
-        <v>7</v>
+        <v>85</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
-      <c r="D81" t="s">
-        <v>8</v>
+      <c r="D81">
+        <v>1</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81">
-        <v>549000</v>
+        <v>548800</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>95</v>
-      </c>
-      <c r="B82" t="s">
-        <v>10</v>
+        <v>86</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
-      <c r="D82" t="s">
-        <v>8</v>
+      <c r="D82">
+        <v>1</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -2873,16 +2816,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>96</v>
-      </c>
-      <c r="B83" t="s">
-        <v>36</v>
+        <v>87</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
       </c>
       <c r="C83">
-        <v>2</v>
-      </c>
-      <c r="D83" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -2893,16 +2836,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>97</v>
-      </c>
-      <c r="B84" t="s">
-        <v>36</v>
+        <v>88</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -2913,16 +2856,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>98</v>
-      </c>
-      <c r="B85" t="s">
-        <v>36</v>
+        <v>89</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
-      <c r="D85" t="s">
-        <v>8</v>
+      <c r="D85">
+        <v>1</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -2933,16 +2876,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>99</v>
-      </c>
-      <c r="B86" t="s">
-        <v>7</v>
+        <v>90</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
-      <c r="D86" t="s">
-        <v>8</v>
+      <c r="D86">
+        <v>1</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -2953,36 +2896,36 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>100</v>
-      </c>
-      <c r="B87" t="s">
-        <v>54</v>
+        <v>91</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
       </c>
       <c r="C87">
-        <v>2</v>
-      </c>
-      <c r="D87" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>NaN</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>549900</v>
+        <v>549000</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>101</v>
-      </c>
-      <c r="B88" t="s">
-        <v>7</v>
+        <v>92</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
-      <c r="D88" t="s">
-        <v>8</v>
+      <c r="D88">
+        <v>1</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -2993,16 +2936,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>102</v>
-      </c>
-      <c r="B89" t="s">
-        <v>10</v>
+        <v>93</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
       </c>
       <c r="C89">
         <v>2</v>
       </c>
-      <c r="D89" t="s">
-        <v>8</v>
+      <c r="D89">
+        <v>1</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -3013,16 +2956,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>103</v>
-      </c>
-      <c r="B90" t="s">
-        <v>28</v>
+        <v>94</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
-      <c r="D90" t="s">
-        <v>8</v>
+      <c r="D90">
+        <v>1</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -3033,19 +2976,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>104</v>
-      </c>
-      <c r="B91" t="s">
-        <v>36</v>
+        <v>95</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
-      <c r="D91" t="s">
-        <v>8</v>
+      <c r="D91">
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>549900</v>
@@ -3053,19 +2996,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>105</v>
-      </c>
-      <c r="B92" t="s">
-        <v>10</v>
+        <v>96</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
-      <c r="D92" t="s">
-        <v>8</v>
+      <c r="D92">
+        <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
         <v>549900</v>
@@ -3073,136 +3016,136 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>106</v>
-      </c>
-      <c r="B93" t="s">
-        <v>36</v>
+        <v>97</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
       </c>
       <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93">
-        <v>549998</v>
+        <v>549900</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>107</v>
-      </c>
-      <c r="B94" t="s">
-        <v>7</v>
+        <v>98</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
-      <c r="D94" t="s">
-        <v>8</v>
+      <c r="D94">
+        <v>1</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94">
-        <v>549999</v>
+        <v>549998</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>108</v>
-      </c>
-      <c r="B95" t="s">
-        <v>7</v>
+        <v>99</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
       </c>
       <c r="C95">
-        <v>2</v>
-      </c>
-      <c r="D95" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
       <c r="F95">
-        <v>550000</v>
+        <v>549999</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>109</v>
-      </c>
-      <c r="B96" t="s">
-        <v>7</v>
+        <v>100</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
       </c>
       <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96">
-        <v>552800</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>110</v>
-      </c>
-      <c r="B97" t="s">
-        <v>10</v>
+        <v>101</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
       </c>
       <c r="C97">
-        <v>2</v>
-      </c>
-      <c r="D97" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
       <c r="F97">
-        <v>554988</v>
+        <v>552800</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>111</v>
-      </c>
-      <c r="B98" t="s">
-        <v>10</v>
+        <v>102</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
       </c>
       <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98">
-        <v>555000</v>
+        <v>554988</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>112</v>
-      </c>
-      <c r="B99" t="s">
-        <v>36</v>
+        <v>103</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
-      <c r="D99" t="s">
-        <v>8</v>
+      <c r="D99">
+        <v>1</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -3213,16 +3156,16 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>113</v>
-      </c>
-      <c r="B100" t="s">
-        <v>36</v>
+        <v>104</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
       </c>
       <c r="C100">
-        <v>2</v>
-      </c>
-      <c r="D100" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -3233,56 +3176,56 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>114</v>
-      </c>
-      <c r="B101" t="s">
-        <v>7</v>
+        <v>105</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
-      <c r="D101" t="s">
-        <v>8</v>
+      <c r="D101">
+        <v>1</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101">
-        <v>558800</v>
+        <v>555000</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>115</v>
-      </c>
-      <c r="B102" t="s">
-        <v>10</v>
+        <v>106</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
-      <c r="D102" t="s">
-        <v>8</v>
+      <c r="D102">
+        <v>1</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
       <c r="F102">
-        <v>559000</v>
+        <v>558800</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>116</v>
-      </c>
-      <c r="B103" t="s">
-        <v>36</v>
+        <v>107</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
-      <c r="D103" t="s">
-        <v>8</v>
+      <c r="D103">
+        <v>1</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -3293,16 +3236,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>117</v>
-      </c>
-      <c r="B104" t="s">
-        <v>12</v>
+        <v>108</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
-      <c r="D104" t="s">
-        <v>8</v>
+      <c r="D104">
+        <v>1</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -3313,39 +3256,39 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>118</v>
-      </c>
-      <c r="B105" t="s">
-        <v>36</v>
+        <v>109</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
-      <c r="D105" t="s">
-        <v>8</v>
+      <c r="D105">
+        <v>1</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
       <c r="F105">
-        <v>559900</v>
+        <v>559000</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>119</v>
-      </c>
-      <c r="B106" t="s">
-        <v>7</v>
+        <v>110</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
       </c>
       <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F106">
         <v>559900</v>
@@ -3353,19 +3296,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>120</v>
-      </c>
-      <c r="B107" t="s">
-        <v>10</v>
+        <v>111</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
-      <c r="D107" t="s">
-        <v>8</v>
+      <c r="D107">
+        <v>1</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F107">
         <v>559900</v>
@@ -3373,36 +3316,36 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>121</v>
-      </c>
-      <c r="B108" t="s">
-        <v>10</v>
+        <v>112</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
       </c>
       <c r="C108">
-        <v>2</v>
-      </c>
-      <c r="D108" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
       <c r="F108">
-        <v>559999</v>
+        <v>559900</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>122</v>
-      </c>
-      <c r="B109" t="s">
-        <v>10</v>
+        <v>113</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
       </c>
       <c r="C109">
         <v>2</v>
       </c>
-      <c r="D109" t="s">
-        <v>8</v>
+      <c r="D109">
+        <v>1</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -3413,56 +3356,56 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>123</v>
-      </c>
-      <c r="B110" t="s">
-        <v>36</v>
+        <v>114</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
       </c>
       <c r="C110">
-        <v>1</v>
-      </c>
-      <c r="D110" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
       <c r="F110">
-        <v>564900</v>
+        <v>559999</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>124</v>
-      </c>
-      <c r="B111" t="s">
-        <v>36</v>
+        <v>115</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
       </c>
       <c r="C111">
-        <v>2</v>
-      </c>
-      <c r="D111" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111">
-        <v>565000</v>
+        <v>564900</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>125</v>
-      </c>
-      <c r="B112" t="s">
-        <v>36</v>
+        <v>116</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
-      <c r="D112" t="s">
-        <v>8</v>
+      <c r="D112">
+        <v>1</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -3473,16 +3416,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>126</v>
-      </c>
-      <c r="B113" t="s">
-        <v>36</v>
+        <v>117</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
-      <c r="D113" t="s">
-        <v>8</v>
+      <c r="D113">
+        <v>1</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -3493,76 +3436,76 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>127</v>
-      </c>
-      <c r="B114" t="s">
-        <v>128</v>
+        <v>118</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
       </c>
       <c r="C114">
         <v>2</v>
       </c>
-      <c r="D114" t="s">
-        <v>8</v>
+      <c r="D114">
+        <v>1</v>
       </c>
       <c r="E114">
         <v>1</v>
       </c>
       <c r="F114">
-        <v>569000</v>
+        <v>565000</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>129</v>
-      </c>
-      <c r="B115" t="s">
-        <v>10</v>
+        <v>119</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
-      <c r="D115" t="s">
-        <v>8</v>
+      <c r="D115">
+        <v>1</v>
       </c>
       <c r="E115">
         <v>1</v>
       </c>
       <c r="F115">
-        <v>569800</v>
+        <v>569000</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>130</v>
-      </c>
-      <c r="B116" t="s">
-        <v>54</v>
+        <v>120</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
-      <c r="D116" t="s">
-        <v>8</v>
+      <c r="D116">
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>NaN</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>569900</v>
+        <v>569800</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>131</v>
-      </c>
-      <c r="B117" t="s">
-        <v>7</v>
+        <v>121</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
-      <c r="D117" t="s">
-        <v>8</v>
+      <c r="D117">
+        <v>1</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -3573,16 +3516,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>132</v>
-      </c>
-      <c r="B118" t="s">
-        <v>36</v>
+        <v>122</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
       </c>
       <c r="C118">
-        <v>2</v>
-      </c>
-      <c r="D118" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -3593,16 +3536,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>133</v>
-      </c>
-      <c r="B119" t="s">
-        <v>7</v>
+        <v>123</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
       </c>
       <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -3613,19 +3556,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>134</v>
-      </c>
-      <c r="B120" t="s">
-        <v>36</v>
+        <v>124</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
-      <c r="D120" t="s">
-        <v>8</v>
+      <c r="D120">
+        <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
         <v>569900</v>
@@ -3633,36 +3576,36 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>135</v>
-      </c>
-      <c r="B121" t="s">
-        <v>71</v>
+        <v>125</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
-      <c r="D121" t="s">
-        <v>8</v>
+      <c r="D121">
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>NaN</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>574900</v>
+        <v>569900</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>136</v>
-      </c>
-      <c r="B122" t="s">
-        <v>36</v>
+        <v>126</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
       </c>
       <c r="C122">
         <v>2</v>
       </c>
-      <c r="D122" t="s">
-        <v>8</v>
+      <c r="D122">
+        <v>1</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -3673,19 +3616,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>137</v>
-      </c>
-      <c r="B123" t="s">
-        <v>7</v>
+        <v>127</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
       </c>
       <c r="C123">
         <v>2</v>
       </c>
-      <c r="D123" t="s">
-        <v>8</v>
+      <c r="D123">
+        <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
         <v>574900</v>
@@ -3693,56 +3636,56 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>138</v>
-      </c>
-      <c r="B124" t="s">
-        <v>10</v>
+        <v>128</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
       </c>
       <c r="C124">
         <v>2</v>
       </c>
-      <c r="D124" t="s">
-        <v>8</v>
+      <c r="D124">
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>574999</v>
+        <v>574900</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>139</v>
-      </c>
-      <c r="B125" t="s">
-        <v>10</v>
+        <v>129</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
       </c>
       <c r="C125">
         <v>2</v>
       </c>
-      <c r="D125" t="s">
-        <v>8</v>
+      <c r="D125">
+        <v>1</v>
       </c>
       <c r="E125">
         <v>2</v>
       </c>
       <c r="F125">
-        <v>575000</v>
+        <v>574999</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>140</v>
-      </c>
-      <c r="B126" t="s">
-        <v>28</v>
+        <v>130</v>
+      </c>
+      <c r="B126">
+        <v>3</v>
       </c>
       <c r="C126">
         <v>2</v>
       </c>
-      <c r="D126" t="s">
-        <v>8</v>
+      <c r="D126">
+        <v>1</v>
       </c>
       <c r="E126">
         <v>2</v>
@@ -3753,19 +3696,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>141</v>
-      </c>
-      <c r="B127" t="s">
-        <v>7</v>
+        <v>131</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
       </c>
       <c r="C127">
-        <v>1</v>
-      </c>
-      <c r="D127" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F127">
         <v>575000</v>
@@ -3773,16 +3716,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>142</v>
-      </c>
-      <c r="B128" t="s">
-        <v>10</v>
+        <v>132</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
       </c>
       <c r="C128">
-        <v>2</v>
-      </c>
-      <c r="D128" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -3793,36 +3736,36 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>143</v>
-      </c>
-      <c r="B129" t="s">
-        <v>36</v>
+        <v>133</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
-      <c r="D129" t="s">
-        <v>8</v>
+      <c r="D129">
+        <v>1</v>
       </c>
       <c r="E129">
         <v>1</v>
       </c>
       <c r="F129">
-        <v>579000</v>
+        <v>575000</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>144</v>
-      </c>
-      <c r="B130" t="s">
-        <v>7</v>
+        <v>134</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
-      <c r="D130" t="s">
-        <v>8</v>
+      <c r="D130">
+        <v>1</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -3833,16 +3776,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>145</v>
-      </c>
-      <c r="B131" t="s">
-        <v>36</v>
+        <v>135</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
-      <c r="D131" t="s">
-        <v>8</v>
+      <c r="D131">
+        <v>1</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -3853,16 +3796,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>146</v>
-      </c>
-      <c r="B132" t="s">
-        <v>36</v>
+        <v>136</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
-      <c r="D132" t="s">
-        <v>8</v>
+      <c r="D132">
+        <v>1</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -3873,16 +3816,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>147</v>
-      </c>
-      <c r="B133" t="s">
-        <v>36</v>
+        <v>137</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
-      <c r="D133" t="s">
-        <v>8</v>
+      <c r="D133">
+        <v>1</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -3893,16 +3836,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>148</v>
-      </c>
-      <c r="B134" t="s">
-        <v>10</v>
+        <v>138</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
-      <c r="D134" t="s">
-        <v>8</v>
+      <c r="D134">
+        <v>1</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -3913,36 +3856,36 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>149</v>
-      </c>
-      <c r="B135" t="s">
-        <v>28</v>
+        <v>139</v>
+      </c>
+      <c r="B135">
+        <v>3</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
-      <c r="D135" t="s">
-        <v>150</v>
+      <c r="D135">
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>579900</v>
+        <v>579000</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>151</v>
-      </c>
-      <c r="B136" t="s">
-        <v>28</v>
+        <v>140</v>
+      </c>
+      <c r="B136">
+        <v>3</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
-      <c r="D136" t="s">
-        <v>150</v>
+      <c r="D136">
+        <v>0</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -3953,16 +3896,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>152</v>
-      </c>
-      <c r="B137" t="s">
-        <v>28</v>
+        <v>141</v>
+      </c>
+      <c r="B137">
+        <v>3</v>
       </c>
       <c r="C137">
         <v>2</v>
       </c>
-      <c r="D137" t="s">
-        <v>150</v>
+      <c r="D137">
+        <v>0</v>
       </c>
       <c r="E137">
         <v>2</v>
@@ -3973,19 +3916,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>153</v>
-      </c>
-      <c r="B138" t="s">
-        <v>36</v>
+        <v>142</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
-      <c r="D138" t="s">
-        <v>8</v>
+      <c r="D138">
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F138">
         <v>579900</v>
@@ -3993,76 +3936,76 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>154</v>
-      </c>
-      <c r="B139" t="s">
-        <v>7</v>
+        <v>143</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
-      <c r="D139" t="s">
-        <v>8</v>
+      <c r="D139">
+        <v>1</v>
       </c>
       <c r="E139">
         <v>1</v>
       </c>
       <c r="F139">
-        <v>585000</v>
+        <v>579900</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>155</v>
-      </c>
-      <c r="B140" t="s">
-        <v>28</v>
+        <v>144</v>
+      </c>
+      <c r="B140">
+        <v>2</v>
       </c>
       <c r="C140">
         <v>2</v>
       </c>
-      <c r="D140" t="s">
-        <v>150</v>
+      <c r="D140">
+        <v>1</v>
       </c>
       <c r="E140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>588800</v>
+        <v>585000</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>156</v>
-      </c>
-      <c r="B141" t="s">
-        <v>36</v>
+        <v>145</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
       </c>
       <c r="C141">
         <v>2</v>
       </c>
-      <c r="D141" t="s">
-        <v>8</v>
+      <c r="D141">
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F141">
-        <v>589000</v>
+        <v>588800</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>157</v>
-      </c>
-      <c r="B142" t="s">
-        <v>10</v>
+        <v>146</v>
+      </c>
+      <c r="B142">
+        <v>3</v>
       </c>
       <c r="C142">
         <v>2</v>
       </c>
-      <c r="D142" t="s">
-        <v>8</v>
+      <c r="D142">
+        <v>1</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -4073,16 +4016,16 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>158</v>
-      </c>
-      <c r="B143" t="s">
-        <v>36</v>
+        <v>147</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
       </c>
       <c r="C143">
         <v>2</v>
       </c>
-      <c r="D143" t="s">
-        <v>8</v>
+      <c r="D143">
+        <v>1</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -4093,16 +4036,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>159</v>
-      </c>
-      <c r="B144" t="s">
-        <v>36</v>
+        <v>148</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
       </c>
       <c r="C144">
         <v>2</v>
       </c>
-      <c r="D144" t="s">
-        <v>8</v>
+      <c r="D144">
+        <v>1</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -4113,16 +4056,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>160</v>
-      </c>
-      <c r="B145" t="s">
-        <v>36</v>
+        <v>149</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
       </c>
       <c r="C145">
         <v>2</v>
       </c>
-      <c r="D145" t="s">
-        <v>8</v>
+      <c r="D145">
+        <v>1</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -4133,16 +4076,16 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>161</v>
-      </c>
-      <c r="B146" t="s">
-        <v>28</v>
+        <v>150</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
       </c>
       <c r="C146">
-        <v>3</v>
-      </c>
-      <c r="D146" t="s">
-        <v>150</v>
+        <v>2</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -4153,16 +4096,16 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>162</v>
-      </c>
-      <c r="B147" t="s">
-        <v>28</v>
+        <v>151</v>
+      </c>
+      <c r="B147">
+        <v>3</v>
       </c>
       <c r="C147">
-        <v>2</v>
-      </c>
-      <c r="D147" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -4173,56 +4116,56 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>163</v>
-      </c>
-      <c r="B148" t="s">
-        <v>36</v>
+        <v>152</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
       </c>
       <c r="C148">
         <v>2</v>
       </c>
-      <c r="D148" t="s">
-        <v>8</v>
+      <c r="D148">
+        <v>1</v>
       </c>
       <c r="E148">
         <v>1</v>
       </c>
       <c r="F148">
-        <v>589800</v>
+        <v>589000</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>164</v>
-      </c>
-      <c r="B149" t="s">
-        <v>7</v>
+        <v>153</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
       </c>
       <c r="C149">
         <v>2</v>
       </c>
-      <c r="D149" t="s">
-        <v>8</v>
+      <c r="D149">
+        <v>1</v>
       </c>
       <c r="E149">
         <v>1</v>
       </c>
       <c r="F149">
-        <v>589900</v>
+        <v>589800</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>165</v>
-      </c>
-      <c r="B150" t="s">
-        <v>12</v>
+        <v>154</v>
+      </c>
+      <c r="B150">
+        <v>3</v>
       </c>
       <c r="C150">
         <v>2</v>
       </c>
-      <c r="D150" t="s">
-        <v>8</v>
+      <c r="D150">
+        <v>1</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -4233,16 +4176,16 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>166</v>
-      </c>
-      <c r="B151" t="s">
-        <v>10</v>
+        <v>155</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
       </c>
       <c r="C151">
         <v>2</v>
       </c>
-      <c r="D151" t="s">
-        <v>8</v>
+      <c r="D151">
+        <v>1</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -4253,119 +4196,119 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>167</v>
-      </c>
-      <c r="B152" t="s">
-        <v>36</v>
+        <v>156</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
       </c>
       <c r="C152">
         <v>2</v>
       </c>
-      <c r="D152" t="s">
-        <v>8</v>
+      <c r="D152">
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>590000</v>
+        <v>589900</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>168</v>
-      </c>
-      <c r="B153" t="s">
-        <v>10</v>
+        <v>157</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
       </c>
       <c r="C153">
         <v>2</v>
       </c>
-      <c r="D153" t="s">
-        <v>8</v>
+      <c r="D153">
+        <v>1</v>
       </c>
       <c r="E153">
         <v>2</v>
       </c>
       <c r="F153">
-        <v>596500</v>
+        <v>590000</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>169</v>
-      </c>
-      <c r="B154" t="s">
-        <v>170</v>
+        <v>158</v>
+      </c>
+      <c r="B154">
+        <v>3</v>
       </c>
       <c r="C154">
         <v>2</v>
       </c>
-      <c r="D154" t="s">
-        <v>8</v>
+      <c r="D154">
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F154">
-        <v>598888</v>
+        <v>596500</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>171</v>
-      </c>
-      <c r="B155" t="s">
-        <v>10</v>
+        <v>159</v>
+      </c>
+      <c r="B155">
+        <v>3</v>
       </c>
       <c r="C155">
         <v>2</v>
       </c>
-      <c r="D155" t="s">
-        <v>8</v>
+      <c r="D155">
+        <v>1</v>
       </c>
       <c r="E155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>598900</v>
+        <v>598888</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>172</v>
-      </c>
-      <c r="B156" t="s">
-        <v>36</v>
+        <v>160</v>
+      </c>
+      <c r="B156">
+        <v>3</v>
       </c>
       <c r="C156">
-        <v>3</v>
-      </c>
-      <c r="D156" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
       </c>
       <c r="E156">
         <v>2</v>
       </c>
       <c r="F156">
-        <v>599000</v>
+        <v>598900</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>173</v>
-      </c>
-      <c r="B157" t="s">
-        <v>10</v>
+        <v>161</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
       </c>
       <c r="C157">
-        <v>2</v>
-      </c>
-      <c r="D157" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F157">
         <v>599000</v>
@@ -4373,16 +4316,16 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>174</v>
-      </c>
-      <c r="B158" t="s">
-        <v>36</v>
+        <v>162</v>
+      </c>
+      <c r="B158">
+        <v>3</v>
       </c>
       <c r="C158">
         <v>2</v>
       </c>
-      <c r="D158" t="s">
-        <v>8</v>
+      <c r="D158">
+        <v>1</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -4393,16 +4336,16 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>175</v>
-      </c>
-      <c r="B159" t="s">
-        <v>10</v>
+        <v>163</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
       </c>
       <c r="C159">
         <v>2</v>
       </c>
-      <c r="D159" t="s">
-        <v>8</v>
+      <c r="D159">
+        <v>1</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -4413,16 +4356,16 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>176</v>
-      </c>
-      <c r="B160" t="s">
-        <v>10</v>
+        <v>164</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
       </c>
       <c r="C160">
         <v>2</v>
       </c>
-      <c r="D160" t="s">
-        <v>8</v>
+      <c r="D160">
+        <v>1</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -4433,16 +4376,16 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>177</v>
-      </c>
-      <c r="B161" t="s">
-        <v>10</v>
+        <v>165</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
       </c>
       <c r="C161">
         <v>2</v>
       </c>
-      <c r="D161" t="s">
-        <v>8</v>
+      <c r="D161">
+        <v>1</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -4453,39 +4396,39 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>178</v>
-      </c>
-      <c r="B162" t="s">
-        <v>10</v>
+        <v>166</v>
+      </c>
+      <c r="B162">
+        <v>3</v>
       </c>
       <c r="C162">
         <v>2</v>
       </c>
-      <c r="D162" t="s">
-        <v>8</v>
+      <c r="D162">
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>599900</v>
+        <v>599000</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>179</v>
-      </c>
-      <c r="B163" t="s">
-        <v>36</v>
+        <v>167</v>
+      </c>
+      <c r="B163">
+        <v>3</v>
       </c>
       <c r="C163">
         <v>2</v>
       </c>
-      <c r="D163" t="s">
-        <v>8</v>
+      <c r="D163">
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F163">
         <v>599900</v>
@@ -4493,16 +4436,16 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>180</v>
-      </c>
-      <c r="B164" t="s">
-        <v>36</v>
+        <v>168</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
       </c>
       <c r="C164">
         <v>2</v>
       </c>
-      <c r="D164" t="s">
-        <v>8</v>
+      <c r="D164">
+        <v>1</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -4513,16 +4456,16 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>181</v>
-      </c>
-      <c r="B165" t="s">
-        <v>36</v>
+        <v>169</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
       </c>
       <c r="C165">
         <v>2</v>
       </c>
-      <c r="D165" t="s">
-        <v>8</v>
+      <c r="D165">
+        <v>1</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -4533,16 +4476,16 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>182</v>
-      </c>
-      <c r="B166" t="s">
-        <v>7</v>
+        <v>170</v>
+      </c>
+      <c r="B166">
+        <v>2</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
-      <c r="D166" t="s">
-        <v>8</v>
+      <c r="D166">
+        <v>1</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -4553,16 +4496,16 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>183</v>
-      </c>
-      <c r="B167" t="s">
-        <v>10</v>
+        <v>171</v>
+      </c>
+      <c r="B167">
+        <v>3</v>
       </c>
       <c r="C167">
         <v>2</v>
       </c>
-      <c r="D167" t="s">
-        <v>8</v>
+      <c r="D167">
+        <v>1</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -4573,16 +4516,16 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>183</v>
-      </c>
-      <c r="B168" t="s">
-        <v>10</v>
+        <v>172</v>
+      </c>
+      <c r="B168">
+        <v>3</v>
       </c>
       <c r="C168">
         <v>2</v>
       </c>
-      <c r="D168" t="s">
-        <v>8</v>
+      <c r="D168">
+        <v>1</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -4593,19 +4536,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>184</v>
-      </c>
-      <c r="B169" t="s">
-        <v>36</v>
+        <v>173</v>
+      </c>
+      <c r="B169">
+        <v>3</v>
       </c>
       <c r="C169">
         <v>2</v>
       </c>
-      <c r="D169" t="s">
-        <v>8</v>
+      <c r="D169">
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F169">
         <v>599900</v>
@@ -4613,19 +4556,19 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>185</v>
-      </c>
-      <c r="B170" t="s">
-        <v>10</v>
+        <v>174</v>
+      </c>
+      <c r="B170">
+        <v>2</v>
       </c>
       <c r="C170">
         <v>2</v>
       </c>
-      <c r="D170" t="s">
-        <v>8</v>
+      <c r="D170">
+        <v>1</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F170">
         <v>599900</v>
@@ -4633,16 +4576,16 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>186</v>
-      </c>
-      <c r="B171" t="s">
-        <v>10</v>
+        <v>175</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
       </c>
       <c r="C171">
         <v>2</v>
       </c>
-      <c r="D171" t="s">
-        <v>8</v>
+      <c r="D171">
+        <v>1</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -4653,16 +4596,16 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>187</v>
-      </c>
-      <c r="B172" t="s">
-        <v>10</v>
+        <v>173</v>
+      </c>
+      <c r="B172">
+        <v>3</v>
       </c>
       <c r="C172">
         <v>2</v>
       </c>
-      <c r="D172" t="s">
-        <v>8</v>
+      <c r="D172">
+        <v>1</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -4673,36 +4616,36 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>188</v>
-      </c>
-      <c r="B173" t="s">
-        <v>36</v>
+        <v>176</v>
+      </c>
+      <c r="B173">
+        <v>3</v>
       </c>
       <c r="C173">
         <v>2</v>
       </c>
-      <c r="D173" t="s">
-        <v>8</v>
+      <c r="D173">
+        <v>1</v>
       </c>
       <c r="E173">
         <v>1</v>
       </c>
       <c r="F173">
-        <v>599999</v>
+        <v>599900</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>189</v>
-      </c>
-      <c r="B174" t="s">
-        <v>36</v>
+        <v>177</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
       </c>
       <c r="C174">
         <v>2</v>
       </c>
-      <c r="D174" t="s">
-        <v>8</v>
+      <c r="D174">
+        <v>1</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -4713,99 +4656,99 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>190</v>
-      </c>
-      <c r="B175" t="s">
-        <v>36</v>
+        <v>178</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
       </c>
       <c r="C175">
         <v>2</v>
       </c>
-      <c r="D175" t="s">
-        <v>8</v>
+      <c r="D175">
+        <v>1</v>
       </c>
       <c r="E175">
         <v>1</v>
       </c>
       <c r="F175">
-        <v>600000</v>
+        <v>599999</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>191</v>
-      </c>
-      <c r="B176" t="s">
-        <v>10</v>
+        <v>179</v>
+      </c>
+      <c r="B176">
+        <v>2</v>
       </c>
       <c r="C176">
         <v>2</v>
       </c>
-      <c r="D176" t="s">
-        <v>8</v>
+      <c r="D176">
+        <v>1</v>
       </c>
       <c r="E176">
         <v>1</v>
       </c>
       <c r="F176">
-        <v>606000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>192</v>
-      </c>
-      <c r="B177" t="s">
-        <v>10</v>
+        <v>180</v>
+      </c>
+      <c r="B177">
+        <v>3</v>
       </c>
       <c r="C177">
         <v>2</v>
       </c>
-      <c r="D177" t="s">
-        <v>8</v>
+      <c r="D177">
+        <v>1</v>
       </c>
       <c r="E177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>612000</v>
+        <v>606000</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>193</v>
-      </c>
-      <c r="B178" t="s">
-        <v>71</v>
+        <v>181</v>
+      </c>
+      <c r="B178">
+        <v>3</v>
       </c>
       <c r="C178">
         <v>2</v>
       </c>
-      <c r="D178" t="s">
-        <v>8</v>
+      <c r="D178">
+        <v>1</v>
       </c>
       <c r="E178">
         <v>2</v>
       </c>
       <c r="F178">
-        <v>615000</v>
+        <v>612000</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>194</v>
-      </c>
-      <c r="B179" t="s">
-        <v>36</v>
+        <v>182</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
       </c>
       <c r="C179">
         <v>2</v>
       </c>
-      <c r="D179" t="s">
-        <v>8</v>
+      <c r="D179">
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>NaN</v>
+        <v>2</v>
       </c>
       <c r="F179">
         <v>615000</v>
@@ -4813,36 +4756,36 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>195</v>
-      </c>
-      <c r="B180" t="s">
-        <v>10</v>
+        <v>183</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
       </c>
       <c r="C180">
         <v>2</v>
       </c>
-      <c r="D180" t="s">
-        <v>8</v>
+      <c r="D180">
+        <v>1</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>619000</v>
+        <v>615000</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>196</v>
-      </c>
-      <c r="B181" t="s">
-        <v>36</v>
+        <v>184</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
       </c>
       <c r="C181">
         <v>2</v>
       </c>
-      <c r="D181" t="s">
-        <v>8</v>
+      <c r="D181">
+        <v>1</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -4853,36 +4796,36 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>197</v>
-      </c>
-      <c r="B182" t="s">
-        <v>10</v>
+        <v>185</v>
+      </c>
+      <c r="B182">
+        <v>3</v>
       </c>
       <c r="C182">
         <v>2</v>
       </c>
-      <c r="D182" t="s">
-        <v>8</v>
+      <c r="D182">
+        <v>1</v>
       </c>
       <c r="E182">
         <v>1</v>
       </c>
       <c r="F182">
-        <v>619900</v>
+        <v>619000</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>198</v>
-      </c>
-      <c r="B183" t="s">
-        <v>10</v>
+        <v>186</v>
+      </c>
+      <c r="B183">
+        <v>3</v>
       </c>
       <c r="C183">
         <v>2</v>
       </c>
-      <c r="D183" t="s">
-        <v>8</v>
+      <c r="D183">
+        <v>1</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -4893,16 +4836,16 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>199</v>
-      </c>
-      <c r="B184" t="s">
-        <v>10</v>
+        <v>187</v>
+      </c>
+      <c r="B184">
+        <v>3</v>
       </c>
       <c r="C184">
         <v>2</v>
       </c>
-      <c r="D184" t="s">
-        <v>8</v>
+      <c r="D184">
+        <v>1</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -4913,36 +4856,36 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>200</v>
-      </c>
-      <c r="B185" t="s">
-        <v>36</v>
+        <v>188</v>
+      </c>
+      <c r="B185">
+        <v>3</v>
       </c>
       <c r="C185">
         <v>2</v>
       </c>
-      <c r="D185" t="s">
-        <v>8</v>
+      <c r="D185">
+        <v>1</v>
       </c>
       <c r="E185">
         <v>1</v>
       </c>
       <c r="F185">
-        <v>620000</v>
+        <v>619900</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>201</v>
-      </c>
-      <c r="B186" t="s">
-        <v>10</v>
+        <v>189</v>
+      </c>
+      <c r="B186">
+        <v>3</v>
       </c>
       <c r="C186">
         <v>2</v>
       </c>
-      <c r="D186" t="s">
-        <v>8</v>
+      <c r="D186">
+        <v>1</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -4953,153 +4896,156 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>202</v>
-      </c>
-      <c r="B187" t="s">
-        <v>36</v>
+        <v>190</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
       </c>
       <c r="C187">
         <v>2</v>
       </c>
-      <c r="D187" t="s">
-        <v>8</v>
+      <c r="D187">
+        <v>1</v>
       </c>
       <c r="E187">
         <v>1</v>
       </c>
       <c r="F187">
-        <v>624999</v>
+        <v>620000</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>203</v>
-      </c>
-      <c r="B188" t="s">
-        <v>10</v>
+        <v>191</v>
+      </c>
+      <c r="B188">
+        <v>2</v>
       </c>
       <c r="C188">
         <v>2</v>
       </c>
-      <c r="D188" t="s">
-        <v>8</v>
+      <c r="D188">
+        <v>1</v>
       </c>
       <c r="E188">
         <v>1</v>
       </c>
       <c r="F188">
-        <v>625000</v>
+        <v>624999</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>204</v>
-      </c>
-      <c r="B189" t="s">
-        <v>10</v>
+        <v>192</v>
+      </c>
+      <c r="B189">
+        <v>3</v>
       </c>
       <c r="C189">
         <v>2</v>
       </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
       <c r="E189">
         <v>1</v>
       </c>
       <c r="F189">
-        <v>629000</v>
+        <v>625000</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>205</v>
-      </c>
-      <c r="B190" t="s">
-        <v>36</v>
+        <v>193</v>
+      </c>
+      <c r="B190">
+        <v>3</v>
       </c>
       <c r="C190">
         <v>2</v>
       </c>
-      <c r="D190" t="s">
-        <v>8</v>
+      <c r="D190">
+        <v>0</v>
       </c>
       <c r="E190">
         <v>1</v>
       </c>
       <c r="F190">
-        <v>629900</v>
+        <v>629000</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>206</v>
-      </c>
-      <c r="B191" t="s">
-        <v>36</v>
+        <v>194</v>
+      </c>
+      <c r="B191">
+        <v>2</v>
       </c>
       <c r="C191">
         <v>2</v>
       </c>
-      <c r="D191" t="s">
-        <v>8</v>
+      <c r="D191">
+        <v>1</v>
       </c>
       <c r="E191">
         <v>1</v>
       </c>
       <c r="F191">
-        <v>629999</v>
+        <v>629900</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>207</v>
-      </c>
-      <c r="B192" t="s">
-        <v>71</v>
+        <v>195</v>
+      </c>
+      <c r="B192">
+        <v>2</v>
       </c>
       <c r="C192">
         <v>2</v>
       </c>
-      <c r="D192" t="s">
-        <v>8</v>
+      <c r="D192">
+        <v>1</v>
       </c>
       <c r="E192">
         <v>1</v>
       </c>
       <c r="F192">
-        <v>632000</v>
+        <v>629999</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>208</v>
-      </c>
-      <c r="B193" t="s">
-        <v>36</v>
+        <v>196</v>
+      </c>
+      <c r="B193">
+        <v>2</v>
       </c>
       <c r="C193">
         <v>2</v>
       </c>
-      <c r="D193" t="s">
-        <v>8</v>
+      <c r="D193">
+        <v>1</v>
       </c>
       <c r="E193">
         <v>1</v>
       </c>
       <c r="F193">
-        <v>639000</v>
+        <v>632000</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>209</v>
-      </c>
-      <c r="B194" t="s">
-        <v>10</v>
+        <v>197</v>
+      </c>
+      <c r="B194">
+        <v>2</v>
       </c>
       <c r="C194">
         <v>2</v>
       </c>
-      <c r="D194" t="s">
-        <v>8</v>
+      <c r="D194">
+        <v>1</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -5110,56 +5056,56 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>210</v>
-      </c>
-      <c r="B195" t="s">
-        <v>71</v>
+        <v>198</v>
+      </c>
+      <c r="B195">
+        <v>3</v>
       </c>
       <c r="C195">
         <v>2</v>
       </c>
-      <c r="D195" t="s">
-        <v>8</v>
+      <c r="D195">
+        <v>1</v>
       </c>
       <c r="E195">
         <v>1</v>
       </c>
       <c r="F195">
-        <v>639999</v>
+        <v>639000</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>211</v>
-      </c>
-      <c r="B196" t="s">
-        <v>10</v>
+        <v>199</v>
+      </c>
+      <c r="B196">
+        <v>2</v>
       </c>
       <c r="C196">
         <v>2</v>
       </c>
-      <c r="D196" t="s">
-        <v>8</v>
+      <c r="D196">
+        <v>1</v>
       </c>
       <c r="E196">
         <v>1</v>
       </c>
       <c r="F196">
-        <v>645000</v>
+        <v>639999</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>212</v>
-      </c>
-      <c r="B197" t="s">
-        <v>10</v>
+        <v>200</v>
+      </c>
+      <c r="B197">
+        <v>3</v>
       </c>
       <c r="C197">
         <v>2</v>
       </c>
-      <c r="D197" t="s">
-        <v>8</v>
+      <c r="D197">
+        <v>1</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -5170,56 +5116,56 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>213</v>
-      </c>
-      <c r="B198" t="s">
-        <v>10</v>
+        <v>201</v>
+      </c>
+      <c r="B198">
+        <v>3</v>
       </c>
       <c r="C198">
         <v>2</v>
       </c>
-      <c r="D198" t="s">
-        <v>8</v>
+      <c r="D198">
+        <v>1</v>
       </c>
       <c r="E198">
         <v>1</v>
       </c>
       <c r="F198">
-        <v>649000</v>
+        <v>645000</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>214</v>
-      </c>
-      <c r="B199" t="s">
-        <v>10</v>
+        <v>202</v>
+      </c>
+      <c r="B199">
+        <v>3</v>
       </c>
       <c r="C199">
         <v>2</v>
       </c>
-      <c r="D199" t="s">
-        <v>8</v>
+      <c r="D199">
+        <v>1</v>
       </c>
       <c r="E199">
         <v>1</v>
       </c>
       <c r="F199">
-        <v>649900</v>
+        <v>649000</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>215</v>
-      </c>
-      <c r="B200" t="s">
-        <v>10</v>
+        <v>203</v>
+      </c>
+      <c r="B200">
+        <v>3</v>
       </c>
       <c r="C200">
         <v>2</v>
       </c>
-      <c r="D200" t="s">
-        <v>8</v>
+      <c r="D200">
+        <v>1</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -5230,16 +5176,16 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>216</v>
-      </c>
-      <c r="B201" t="s">
-        <v>10</v>
+        <v>204</v>
+      </c>
+      <c r="B201">
+        <v>3</v>
       </c>
       <c r="C201">
         <v>2</v>
       </c>
-      <c r="D201" t="s">
-        <v>8</v>
+      <c r="D201">
+        <v>1</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -5250,19 +5196,19 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>217</v>
-      </c>
-      <c r="B202" t="s">
-        <v>28</v>
+        <v>205</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
       </c>
       <c r="C202">
         <v>2</v>
       </c>
-      <c r="D202" t="s">
-        <v>8</v>
+      <c r="D202">
+        <v>1</v>
       </c>
       <c r="E202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F202">
         <v>649900</v>
@@ -5270,56 +5216,56 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>218</v>
-      </c>
-      <c r="B203" t="s">
-        <v>36</v>
+        <v>206</v>
+      </c>
+      <c r="B203">
+        <v>3</v>
       </c>
       <c r="C203">
         <v>2</v>
       </c>
-      <c r="D203" t="s">
-        <v>8</v>
+      <c r="D203">
+        <v>1</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F203">
-        <v>649999</v>
+        <v>649900</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>219</v>
-      </c>
-      <c r="B204" t="s">
-        <v>10</v>
+        <v>207</v>
+      </c>
+      <c r="B204">
+        <v>2</v>
       </c>
       <c r="C204">
         <v>2</v>
       </c>
-      <c r="D204" t="s">
-        <v>8</v>
+      <c r="D204">
+        <v>1</v>
       </c>
       <c r="E204">
         <v>1</v>
       </c>
       <c r="F204">
-        <v>650000</v>
+        <v>649999</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>220</v>
-      </c>
-      <c r="B205" t="s">
-        <v>10</v>
+        <v>208</v>
+      </c>
+      <c r="B205">
+        <v>3</v>
       </c>
       <c r="C205">
         <v>2</v>
       </c>
-      <c r="D205" t="s">
-        <v>8</v>
+      <c r="D205">
+        <v>1</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -5330,216 +5276,216 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>221</v>
-      </c>
-      <c r="B206" t="s">
-        <v>36</v>
+        <v>209</v>
+      </c>
+      <c r="B206">
+        <v>3</v>
       </c>
       <c r="C206">
         <v>2</v>
       </c>
-      <c r="D206" t="s">
-        <v>8</v>
+      <c r="D206">
+        <v>1</v>
       </c>
       <c r="E206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F206">
-        <v>670000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>222</v>
-      </c>
-      <c r="B207" t="s">
-        <v>10</v>
+        <v>210</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
       </c>
       <c r="C207">
         <v>2</v>
       </c>
-      <c r="D207" t="s">
-        <v>8</v>
+      <c r="D207">
+        <v>1</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F207">
-        <v>673900</v>
+        <v>670000</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>223</v>
-      </c>
-      <c r="B208" t="s">
-        <v>28</v>
+        <v>211</v>
+      </c>
+      <c r="B208">
+        <v>3</v>
       </c>
       <c r="C208">
-        <v>4</v>
-      </c>
-      <c r="D208" t="s">
-        <v>150</v>
+        <v>2</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
       </c>
       <c r="E208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F208">
-        <v>674900</v>
+        <v>673900</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>224</v>
-      </c>
-      <c r="B209" t="s">
-        <v>225</v>
+        <v>212</v>
+      </c>
+      <c r="B209">
+        <v>3</v>
       </c>
       <c r="C209">
         <v>4</v>
       </c>
-      <c r="D209" t="s">
-        <v>150</v>
+      <c r="D209">
+        <v>0</v>
       </c>
       <c r="E209">
         <v>2</v>
       </c>
       <c r="F209">
-        <v>679000</v>
+        <v>674900</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>226</v>
-      </c>
-      <c r="B210" t="s">
-        <v>227</v>
+        <v>213</v>
+      </c>
+      <c r="B210">
+        <v>4</v>
       </c>
       <c r="C210">
-        <v>3</v>
-      </c>
-      <c r="D210" t="s">
-        <v>150</v>
+        <v>4</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
       </c>
       <c r="E210">
         <v>2</v>
       </c>
       <c r="F210">
-        <v>679900</v>
+        <v>679000</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>228</v>
-      </c>
-      <c r="B211" t="s">
-        <v>28</v>
+        <v>214</v>
+      </c>
+      <c r="B211">
+        <v>4</v>
       </c>
       <c r="C211">
-        <v>2</v>
-      </c>
-      <c r="D211" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F211">
-        <v>685000</v>
+        <v>679900</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>229</v>
-      </c>
-      <c r="B212" t="s">
-        <v>28</v>
+        <v>215</v>
+      </c>
+      <c r="B212">
+        <v>3</v>
       </c>
       <c r="C212">
-        <v>3</v>
-      </c>
-      <c r="D212" t="s">
-        <v>150</v>
+        <v>2</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
       </c>
       <c r="E212">
         <v>1</v>
       </c>
       <c r="F212">
-        <v>689000</v>
+        <v>685000</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>230</v>
-      </c>
-      <c r="B213" t="s">
-        <v>10</v>
+        <v>216</v>
+      </c>
+      <c r="B213">
+        <v>3</v>
       </c>
       <c r="C213">
-        <v>2</v>
-      </c>
-      <c r="D213" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
       </c>
       <c r="E213">
         <v>1</v>
       </c>
       <c r="F213">
-        <v>689900</v>
+        <v>689000</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>231</v>
-      </c>
-      <c r="B214" t="s">
-        <v>10</v>
+        <v>217</v>
+      </c>
+      <c r="B214">
+        <v>3</v>
       </c>
       <c r="C214">
         <v>2</v>
       </c>
-      <c r="D214" t="s">
-        <v>8</v>
+      <c r="D214">
+        <v>1</v>
       </c>
       <c r="E214">
         <v>1</v>
       </c>
       <c r="F214">
-        <v>695000</v>
+        <v>689900</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>232</v>
-      </c>
-      <c r="B215" t="s">
-        <v>10</v>
+        <v>218</v>
+      </c>
+      <c r="B215">
+        <v>3</v>
       </c>
       <c r="C215">
         <v>2</v>
       </c>
-      <c r="D215" t="s">
-        <v>8</v>
+      <c r="D215">
+        <v>1</v>
       </c>
       <c r="E215">
         <v>1</v>
       </c>
       <c r="F215">
-        <v>699000</v>
+        <v>695000</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>233</v>
-      </c>
-      <c r="B216" t="s">
-        <v>28</v>
+        <v>219</v>
+      </c>
+      <c r="B216">
+        <v>3</v>
       </c>
       <c r="C216">
         <v>2</v>
       </c>
-      <c r="D216" t="s">
-        <v>8</v>
+      <c r="D216">
+        <v>1</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -5550,16 +5496,16 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>234</v>
-      </c>
-      <c r="B217" t="s">
-        <v>28</v>
+        <v>220</v>
+      </c>
+      <c r="B217">
+        <v>3</v>
       </c>
       <c r="C217">
         <v>2</v>
       </c>
-      <c r="D217" t="s">
-        <v>8</v>
+      <c r="D217">
+        <v>1</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -5570,16 +5516,16 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>235</v>
-      </c>
-      <c r="B218" t="s">
-        <v>28</v>
+        <v>221</v>
+      </c>
+      <c r="B218">
+        <v>3</v>
       </c>
       <c r="C218">
         <v>2</v>
       </c>
-      <c r="D218" t="s">
-        <v>150</v>
+      <c r="D218">
+        <v>0</v>
       </c>
       <c r="E218">
         <v>2</v>
@@ -5590,36 +5536,36 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>236</v>
-      </c>
-      <c r="B219" t="s">
-        <v>28</v>
+        <v>222</v>
+      </c>
+      <c r="B219">
+        <v>3</v>
       </c>
       <c r="C219">
-        <v>3</v>
-      </c>
-      <c r="D219" t="s">
-        <v>150</v>
+        <v>2</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
       </c>
       <c r="E219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>699900</v>
+        <v>699000</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>237</v>
-      </c>
-      <c r="B220" t="s">
-        <v>225</v>
+        <v>223</v>
+      </c>
+      <c r="B220">
+        <v>4</v>
       </c>
       <c r="C220">
         <v>2</v>
       </c>
-      <c r="D220" t="s">
-        <v>8</v>
+      <c r="D220">
+        <v>1</v>
       </c>
       <c r="E220">
         <v>2</v>
@@ -5630,16 +5576,16 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>238</v>
-      </c>
-      <c r="B221" t="s">
-        <v>36</v>
+        <v>224</v>
+      </c>
+      <c r="B221">
+        <v>2</v>
       </c>
       <c r="C221">
         <v>2</v>
       </c>
-      <c r="D221" t="s">
-        <v>8</v>
+      <c r="D221">
+        <v>1</v>
       </c>
       <c r="E221">
         <v>2</v>
@@ -5650,681 +5596,701 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>239</v>
-      </c>
-      <c r="B222" t="s">
-        <v>10</v>
+        <v>225</v>
+      </c>
+      <c r="B222">
+        <v>3</v>
       </c>
       <c r="C222">
-        <v>2</v>
-      </c>
-      <c r="D222" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F222">
-        <v>710000</v>
+        <v>699900</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>240</v>
-      </c>
-      <c r="B223" t="s">
-        <v>10</v>
+        <v>226</v>
+      </c>
+      <c r="B223">
+        <v>3</v>
       </c>
       <c r="C223">
         <v>2</v>
       </c>
-      <c r="D223" t="s">
-        <v>8</v>
+      <c r="D223">
+        <v>1</v>
       </c>
       <c r="E223">
-        <v>NaN</v>
+        <v>1</v>
       </c>
       <c r="F223">
-        <v>739000</v>
+        <v>710000</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>241</v>
-      </c>
-      <c r="B224" t="s">
-        <v>28</v>
+        <v>227</v>
+      </c>
+      <c r="B224">
+        <v>3</v>
       </c>
       <c r="C224">
         <v>2</v>
       </c>
-      <c r="D224" t="s">
-        <v>150</v>
+      <c r="D224">
+        <v>1</v>
       </c>
       <c r="E224">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>775000</v>
+        <v>739000</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>242</v>
-      </c>
-      <c r="B225" t="s">
-        <v>10</v>
+        <v>228</v>
+      </c>
+      <c r="B225">
+        <v>3</v>
       </c>
       <c r="C225">
         <v>2</v>
       </c>
-      <c r="D225" t="s">
-        <v>8</v>
+      <c r="D225">
+        <v>0</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>789000</v>
+        <v>775000</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>243</v>
-      </c>
-      <c r="B226" t="s">
-        <v>128</v>
+        <v>229</v>
+      </c>
+      <c r="B226">
+        <v>3</v>
       </c>
       <c r="C226">
-        <v>3</v>
-      </c>
-      <c r="D226" t="s">
-        <v>150</v>
+        <v>2</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
       </c>
       <c r="E226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>796800</v>
+        <v>789000</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>244</v>
-      </c>
-      <c r="B227" t="s">
-        <v>36</v>
+        <v>230</v>
+      </c>
+      <c r="B227">
+        <v>4</v>
       </c>
       <c r="C227">
-        <v>2</v>
-      </c>
-      <c r="D227" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
       </c>
       <c r="E227">
         <v>2</v>
       </c>
       <c r="F227">
-        <v>799000</v>
+        <v>796800</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>245</v>
-      </c>
-      <c r="B228" t="s">
-        <v>28</v>
+        <v>231</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
       </c>
       <c r="C228">
         <v>2</v>
       </c>
-      <c r="D228" t="s">
-        <v>246</v>
+      <c r="D228">
+        <v>1</v>
       </c>
       <c r="E228">
-        <v>NaN</v>
+        <v>2</v>
       </c>
       <c r="F228">
-        <v>799900</v>
+        <v>799000</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>247</v>
-      </c>
-      <c r="B229" t="s">
-        <v>36</v>
+        <v>232</v>
+      </c>
+      <c r="B229">
+        <v>3</v>
       </c>
       <c r="C229">
-        <v>3</v>
-      </c>
-      <c r="D229" t="s">
-        <v>150</v>
+        <v>2</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>819900</v>
+        <v>799900</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>248</v>
-      </c>
-      <c r="B230" t="s">
-        <v>10</v>
+        <v>233</v>
+      </c>
+      <c r="B230">
+        <v>2</v>
       </c>
       <c r="C230">
-        <v>2</v>
-      </c>
-      <c r="D230" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
       </c>
       <c r="E230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F230">
-        <v>849999</v>
+        <v>819900</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>249</v>
-      </c>
-      <c r="B231" t="s">
-        <v>28</v>
+        <v>234</v>
+      </c>
+      <c r="B231">
+        <v>3</v>
       </c>
       <c r="C231">
-        <v>3</v>
-      </c>
-      <c r="D231" t="s">
-        <v>150</v>
+        <v>2</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
       </c>
       <c r="E231">
         <v>2</v>
       </c>
       <c r="F231">
-        <v>880000</v>
+        <v>849999</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>250</v>
-      </c>
-      <c r="B232" t="s">
-        <v>28</v>
+        <v>235</v>
+      </c>
+      <c r="B232">
+        <v>3</v>
       </c>
       <c r="C232">
         <v>3</v>
       </c>
-      <c r="D232" t="s">
-        <v>150</v>
+      <c r="D232">
+        <v>0</v>
       </c>
       <c r="E232">
         <v>2</v>
       </c>
       <c r="F232">
-        <v>899900</v>
+        <v>880000</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>251</v>
-      </c>
-      <c r="B233" t="s">
-        <v>225</v>
+        <v>236</v>
+      </c>
+      <c r="B233">
+        <v>3</v>
       </c>
       <c r="C233">
-        <v>4</v>
-      </c>
-      <c r="D233" t="s">
-        <v>246</v>
+        <v>3</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
       </c>
       <c r="E233">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F233">
-        <v>929000</v>
+        <v>899900</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>252</v>
-      </c>
-      <c r="B234" t="s">
-        <v>28</v>
+        <v>237</v>
+      </c>
+      <c r="B234">
+        <v>4</v>
       </c>
       <c r="C234">
-        <v>3</v>
-      </c>
-      <c r="D234" t="s">
-        <v>246</v>
+        <v>4</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
       </c>
       <c r="E234">
         <v>4</v>
       </c>
       <c r="F234">
-        <v>939000</v>
+        <v>929000</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>253</v>
-      </c>
-      <c r="B235" t="s">
-        <v>28</v>
+        <v>238</v>
+      </c>
+      <c r="B235">
+        <v>3</v>
       </c>
       <c r="C235">
         <v>3</v>
       </c>
-      <c r="D235" t="s">
-        <v>8</v>
+      <c r="D235">
+        <v>0</v>
       </c>
       <c r="E235">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F235">
-        <v>948800</v>
+        <v>939000</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>254</v>
-      </c>
-      <c r="B236" t="s">
-        <v>255</v>
+        <v>239</v>
+      </c>
+      <c r="B236">
+        <v>3</v>
       </c>
       <c r="C236">
-        <v>4</v>
-      </c>
-      <c r="D236" t="s">
-        <v>246</v>
+        <v>3</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
       </c>
       <c r="E236">
         <v>3</v>
       </c>
       <c r="F236">
-        <v>949900</v>
+        <v>948800</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>256</v>
-      </c>
-      <c r="B237" t="s">
-        <v>225</v>
+        <v>240</v>
+      </c>
+      <c r="B237">
+        <v>6</v>
       </c>
       <c r="C237">
-        <v>3</v>
-      </c>
-      <c r="D237" t="s">
-        <v>246</v>
+        <v>4</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
       </c>
       <c r="E237">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F237">
-        <v>999000</v>
+        <v>949900</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>257</v>
-      </c>
-      <c r="B238" t="s">
-        <v>225</v>
+        <v>241</v>
+      </c>
+      <c r="B238">
+        <v>4</v>
       </c>
       <c r="C238">
         <v>3</v>
       </c>
-      <c r="D238" t="s">
-        <v>246</v>
+      <c r="D238">
+        <v>0</v>
       </c>
       <c r="E238">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F238">
-        <v>1098000</v>
+        <v>999000</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>258</v>
-      </c>
-      <c r="B239" t="s">
-        <v>255</v>
+        <v>242</v>
+      </c>
+      <c r="B239">
+        <v>4</v>
       </c>
       <c r="C239">
         <v>3</v>
       </c>
-      <c r="D239" t="s">
-        <v>246</v>
+      <c r="D239">
+        <v>0</v>
       </c>
       <c r="E239">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F239">
-        <v>1099000</v>
+        <v>1098000</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>259</v>
-      </c>
-      <c r="B240" t="s">
-        <v>225</v>
+        <v>243</v>
+      </c>
+      <c r="B240">
+        <v>6</v>
       </c>
       <c r="C240">
-        <v>4</v>
-      </c>
-      <c r="D240" t="s">
-        <v>246</v>
+        <v>3</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
       </c>
       <c r="E240">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F240">
-        <v>1199900</v>
+        <v>1099000</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>260</v>
-      </c>
-      <c r="B241" t="s">
-        <v>261</v>
+        <v>244</v>
+      </c>
+      <c r="B241">
+        <v>4</v>
       </c>
       <c r="C241">
-        <v>7</v>
-      </c>
-      <c r="D241" t="s">
-        <v>246</v>
+        <v>4</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
       </c>
       <c r="E241">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F241">
-        <v>1200000</v>
+        <v>1199900</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>262</v>
-      </c>
-      <c r="B242" t="s">
-        <v>227</v>
+        <v>245</v>
+      </c>
+      <c r="B242">
+        <v>8</v>
       </c>
       <c r="C242">
-        <v>4</v>
-      </c>
-      <c r="D242" t="s">
-        <v>150</v>
+        <v>7</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
       </c>
       <c r="E242">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F242">
-        <v>1329786</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>263</v>
-      </c>
-      <c r="B243" t="s">
-        <v>227</v>
+        <v>246</v>
+      </c>
+      <c r="B243">
+        <v>4</v>
       </c>
       <c r="C243">
         <v>4</v>
       </c>
-      <c r="D243" t="s">
-        <v>150</v>
+      <c r="D243">
+        <v>0</v>
       </c>
       <c r="E243">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F243">
-        <v>1349900</v>
+        <v>1329786</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>264</v>
-      </c>
-      <c r="B244" t="s">
-        <v>255</v>
+        <v>247</v>
+      </c>
+      <c r="B244">
+        <v>4</v>
       </c>
       <c r="C244">
         <v>4</v>
       </c>
-      <c r="D244" t="s">
-        <v>246</v>
+      <c r="D244">
+        <v>0</v>
       </c>
       <c r="E244">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F244">
-        <v>1399900</v>
+        <v>1349900</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>265</v>
-      </c>
-      <c r="B245" t="s">
-        <v>227</v>
+        <v>248</v>
+      </c>
+      <c r="B245">
+        <v>6</v>
       </c>
       <c r="C245">
         <v>4</v>
       </c>
-      <c r="D245" t="s">
-        <v>246</v>
+      <c r="D245">
+        <v>0</v>
       </c>
       <c r="E245">
         <v>6</v>
       </c>
       <c r="F245">
-        <v>1429900</v>
+        <v>1399900</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>266</v>
-      </c>
-      <c r="B246" t="s">
-        <v>267</v>
+        <v>249</v>
+      </c>
+      <c r="B246">
+        <v>4</v>
       </c>
       <c r="C246">
-        <v>3</v>
-      </c>
-      <c r="D246" t="s">
-        <v>246</v>
+        <v>4</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
       </c>
       <c r="E246">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F246">
-        <v>1499800</v>
+        <v>1429900</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>268</v>
-      </c>
-      <c r="B247" t="s">
-        <v>28</v>
+        <v>250</v>
+      </c>
+      <c r="B247">
+        <v>7</v>
       </c>
       <c r="C247">
         <v>3</v>
       </c>
-      <c r="D247" t="s">
-        <v>8</v>
+      <c r="D247">
+        <v>0</v>
       </c>
       <c r="E247">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F247">
-        <v>1549990</v>
+        <v>1499800</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>269</v>
-      </c>
-      <c r="B248" t="s">
-        <v>255</v>
+        <v>251</v>
+      </c>
+      <c r="B248">
+        <v>3</v>
       </c>
       <c r="C248">
-        <v>5</v>
-      </c>
-      <c r="D248" t="s">
-        <v>246</v>
+        <v>3</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
       </c>
       <c r="E248">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F248">
-        <v>1598000</v>
+        <v>1549990</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>270</v>
-      </c>
-      <c r="B249" t="s">
-        <v>271</v>
+        <v>252</v>
+      </c>
+      <c r="B249">
+        <v>6</v>
       </c>
       <c r="C249">
-        <v>6</v>
-      </c>
-      <c r="D249" t="s">
-        <v>246</v>
+        <v>5</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
       </c>
       <c r="E249">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F249">
-        <v>1699999</v>
+        <v>1598000</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>272</v>
-      </c>
-      <c r="B250" t="s">
-        <v>225</v>
+        <v>253</v>
+      </c>
+      <c r="B250">
+        <v>5</v>
       </c>
       <c r="C250">
-        <v>2</v>
-      </c>
-      <c r="D250" t="s">
-        <v>246</v>
+        <v>6</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
       </c>
       <c r="E250">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F250">
-        <v>1785800</v>
+        <v>1699999</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>273</v>
-      </c>
-      <c r="B251" t="s">
-        <v>36</v>
+        <v>254</v>
+      </c>
+      <c r="B251">
+        <v>4</v>
       </c>
       <c r="C251">
-        <v>1</v>
-      </c>
-      <c r="D251" t="s">
-        <v>246</v>
+        <v>2</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
       </c>
       <c r="E251">
-        <v>NaN</v>
+        <v>15</v>
       </c>
       <c r="F251">
-        <v>2099900</v>
+        <v>1785800</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>274</v>
-      </c>
-      <c r="B252" t="s">
-        <v>227</v>
+        <v>255</v>
+      </c>
+      <c r="B252">
+        <v>2</v>
       </c>
       <c r="C252">
-        <v>4</v>
-      </c>
-      <c r="D252" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
       </c>
       <c r="E252">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>2299900</v>
+        <v>2099900</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>275</v>
-      </c>
-      <c r="B253" t="s">
-        <v>227</v>
+        <v>256</v>
+      </c>
+      <c r="B253">
+        <v>4</v>
       </c>
       <c r="C253">
-        <v>5</v>
-      </c>
-      <c r="D253" t="s">
-        <v>246</v>
+        <v>4</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
       </c>
       <c r="E253">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F253">
-        <v>2345000</v>
+        <v>2299900</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>276</v>
-      </c>
-      <c r="B254" t="s">
-        <v>277</v>
+        <v>257</v>
+      </c>
+      <c r="B254">
+        <v>4</v>
       </c>
       <c r="C254">
         <v>5</v>
       </c>
-      <c r="D254" t="s">
-        <v>246</v>
+      <c r="D254">
+        <v>0</v>
       </c>
       <c r="E254">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F254">
-        <v>2988800</v>
+        <v>2345000</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>278</v>
-      </c>
-      <c r="B255" t="s">
-        <v>227</v>
+        <v>258</v>
+      </c>
+      <c r="B255">
+        <v>5</v>
       </c>
       <c r="C255">
-        <v>3</v>
-      </c>
-      <c r="D255" t="s">
-        <v>246</v>
+        <v>5</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
       </c>
       <c r="E255">
+        <v>6</v>
+      </c>
+      <c r="F255">
+        <v>2988800</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>259</v>
+      </c>
+      <c r="B256">
+        <v>4</v>
+      </c>
+      <c r="C256">
+        <v>3</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
         <v>8</v>
       </c>
-      <c r="F255">
+      <c r="F256">
         <v>3999999</v>
       </c>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E0CB4D-F430-4029-9F8E-A65106092EFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="test" state="visible" r:id="rId4"/>
+    <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="291">
   <si>
     <t>Address</t>
   </si>
@@ -791,22 +805,131 @@
   </si>
   <si>
     <t>2530 SHEPARD AVE|Mississauga, Ontario L5A2H6</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>RESIDUAL OUTPUT</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Predicted Price</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
+  <si>
+    <t>predicted</t>
+  </si>
+  <si>
+    <t>deviation</t>
+  </si>
+  <si>
+    <t>average error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -817,7 +940,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -825,13 +948,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1170,11 +1322,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F256"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S282"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="66.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,8 +1367,28 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="K1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1213,8 +1407,20 @@
       <c r="F2">
         <v>504900</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>$L$17+(B2*$L$18)+(C2*$L$19)+(D2*$L$20)+(E2*$L$21)</f>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H2">
+        <f>ABS(F2-G2)</f>
+        <v>90570.461681939545</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(H2:H256)</f>
+        <v>100609.13073419336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1233,8 +1439,20 @@
       <c r="F3">
         <v>505900</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="0">$L$17+(B3*$L$18)+(C3*$L$19)+(D3*$L$20)+(E3*$L$21)</f>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="1">ABS(F3-G3)</f>
+        <v>77761.790764270001</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1253,8 +1471,22 @@
       <c r="F4">
         <v>508000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>519801.95098057948</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>11801.950980579481</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.7510559951875283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1273,8 +1505,22 @@
       <c r="F5">
         <v>508800</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>806.71993709006347</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.56408510790712851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1293,8 +1539,22 @@
       <c r="F6">
         <v>509000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>702022.74867517385</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>193022.74867517385</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.55711046963364252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1313,8 +1573,22 @@
       <c r="F7">
         <v>509000</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>638162.90889148344</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>129162.90889148344</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="L7" s="2">
+        <v>246310.8102374908</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1333,8 +1607,22 @@
       <c r="F8">
         <v>509900</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>73761.790764270001</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="L8" s="3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1353,8 +1641,16 @@
       <c r="F9">
         <v>509900</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>73761.790764270001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1373,8 +1669,19 @@
       <c r="F10">
         <v>509900</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>1906.7199370900635</v>
+      </c>
+      <c r="K10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1393,8 +1700,32 @@
       <c r="F11">
         <v>509990</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>73671.790764270001</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1413,8 +1744,34 @@
       <c r="F12">
         <v>509990</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>73671.790764270001</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="L12" s="2">
+        <v>4</v>
+      </c>
+      <c r="M12" s="2">
+        <v>19626817429822.098</v>
+      </c>
+      <c r="N12" s="2">
+        <v>4906704357455.5244</v>
+      </c>
+      <c r="O12" s="2">
+        <v>80.876611200253265</v>
+      </c>
+      <c r="P12" s="2">
+        <v>6.0198255576003311E-44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1433,8 +1790,30 @@
       <c r="F13">
         <v>510000</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>2006.7199370900635</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L13" s="2">
+        <v>250</v>
+      </c>
+      <c r="M13" s="2">
+        <v>15167253809962.301</v>
+      </c>
+      <c r="N13" s="2">
+        <v>60669015239.849205</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1453,8 +1832,28 @@
       <c r="F14">
         <v>510000</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>519801.95098057948</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>9801.9509805794805</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="L14" s="3">
+        <v>254</v>
+      </c>
+      <c r="M14" s="3">
+        <v>34794071239784.398</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1473,8 +1872,16 @@
       <c r="F15">
         <v>513000</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>5006.7199370900635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1493,8 +1900,41 @@
       <c r="F16">
         <v>514900</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>68761.790764270001</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1513,8 +1953,43 @@
       <c r="F17">
         <v>514900</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>702022.74867517385</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>187122.74867517385</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="L17" s="2">
+        <v>483498.92095004092</v>
+      </c>
+      <c r="M17" s="2">
+        <v>99808.850610765789</v>
+      </c>
+      <c r="N17" s="2">
+        <v>4.8442489618038822</v>
+      </c>
+      <c r="O17" s="2">
+        <v>2.2307488839846449E-6</v>
+      </c>
+      <c r="P17" s="2">
+        <v>286925.55002292636</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>680072.29187715543</v>
+      </c>
+      <c r="R17" s="2">
+        <v>286925.55002292636</v>
+      </c>
+      <c r="S17" s="2">
+        <v>680072.29187715543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1533,8 +2008,43 @@
       <c r="F18">
         <v>515000</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>702022.74867517385</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>187022.74867517385</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>-11808.670917669595</v>
+      </c>
+      <c r="M18" s="2">
+        <v>25281.368612779694</v>
+      </c>
+      <c r="N18" s="2">
+        <v>-0.46708985967240435</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.64084241771712036</v>
+      </c>
+      <c r="P18" s="2">
+        <v>-61600.28578402703</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>37982.94394868784</v>
+      </c>
+      <c r="R18" s="2">
+        <v>-61600.28578402703</v>
+      </c>
+      <c r="S18" s="2">
+        <v>37982.94394868784</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1553,8 +2063,43 @@
       <c r="F19">
         <v>515000</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>7006.7199370900635</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="2">
+        <v>87477.181619029696</v>
+      </c>
+      <c r="M19" s="2">
+        <v>29484.341009642074</v>
+      </c>
+      <c r="N19" s="2">
+        <v>2.966903061880291</v>
+      </c>
+      <c r="O19" s="2">
+        <v>3.299726519456779E-3</v>
+      </c>
+      <c r="P19" s="2">
+        <v>29407.819369458375</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>145546.54386860103</v>
+      </c>
+      <c r="R19" s="2">
+        <v>29407.819369458375</v>
+      </c>
+      <c r="S19" s="2">
+        <v>145546.54386860103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1573,8 +2118,43 @@
       <c r="F20">
         <v>515000</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>7006.7199370900635</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="2">
+        <v>-157726.43858172547</v>
+      </c>
+      <c r="M20" s="2">
+        <v>60465.658832864036</v>
+      </c>
+      <c r="N20" s="2">
+        <v>-2.6085292317363895</v>
+      </c>
+      <c r="O20" s="2">
+        <v>9.6408174766255024E-3</v>
+      </c>
+      <c r="P20" s="2">
+        <v>-276813.45651020238</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>-38639.420653248526</v>
+      </c>
+      <c r="R20" s="2">
+        <v>-276813.45651020238</v>
+      </c>
+      <c r="S20" s="2">
+        <v>-38639.420653248526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +2173,43 @@
       <c r="F21">
         <v>515000</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>68661.790764270001</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
+        <v>118360.95791090393</v>
+      </c>
+      <c r="M21" s="3">
+        <v>12376.388476021399</v>
+      </c>
+      <c r="N21" s="3">
+        <v>9.5634488316379258</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1.1457581770138349E-18</v>
+      </c>
+      <c r="P21" s="3">
+        <v>93985.680691023779</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>142736.23513078407</v>
+      </c>
+      <c r="R21" s="3">
+        <v>93985.680691023779</v>
+      </c>
+      <c r="S21" s="3">
+        <v>142736.23513078407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1613,8 +2228,16 @@
       <c r="F22">
         <v>515900</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>477109.50377103558</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>38790.496228964417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1633,8 +2256,16 @@
       <c r="F23">
         <v>515900</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>67761.790764270001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1653,8 +2284,16 @@
       <c r="F24">
         <v>516000</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>79470.461681939545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1673,8 +2312,19 @@
       <c r="F25">
         <v>518888</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>10894.719937090063</v>
+      </c>
+      <c r="K25" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1693,8 +2343,16 @@
       <c r="F26">
         <v>518888</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>10894.719937090063</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1713,8 +2371,25 @@
       <c r="F27">
         <v>518900</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>702022.74867517385</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>183122.74867517385</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1733,8 +2408,25 @@
       <c r="F28">
         <v>518995</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>702022.74867517385</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>183027.74867517385</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M28" s="2">
+        <v>-90570.461681939545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1753,8 +2445,25 @@
       <c r="F29">
         <v>519000</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>626354.2379738139</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>107354.2379738139</v>
+      </c>
+      <c r="K29" s="2">
+        <v>2</v>
+      </c>
+      <c r="L29" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M29" s="2">
+        <v>-77761.790764270001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1773,8 +2482,25 @@
       <c r="F30">
         <v>519000</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>76470.461681939545</v>
+      </c>
+      <c r="K30" s="2">
+        <v>3</v>
+      </c>
+      <c r="L30" s="2">
+        <v>519801.95098057948</v>
+      </c>
+      <c r="M30" s="2">
+        <v>-11801.950980579481</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1793,8 +2519,25 @@
       <c r="F31">
         <v>519000</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>76470.461681939545</v>
+      </c>
+      <c r="K31" s="2">
+        <v>4</v>
+      </c>
+      <c r="L31" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M31" s="2">
+        <v>806.71993709006347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1813,8 +2556,25 @@
       <c r="F32">
         <v>519700</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>702022.74867517385</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>182322.74867517385</v>
+      </c>
+      <c r="K32" s="2">
+        <v>5</v>
+      </c>
+      <c r="L32" s="2">
+        <v>702022.74867517385</v>
+      </c>
+      <c r="M32" s="2">
+        <v>-193022.74867517385</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1833,8 +2593,25 @@
       <c r="F33">
         <v>519900</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>75570.461681939545</v>
+      </c>
+      <c r="K33" s="2">
+        <v>6</v>
+      </c>
+      <c r="L33" s="2">
+        <v>638162.90889148344</v>
+      </c>
+      <c r="M33" s="2">
+        <v>-129162.90889148344</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1853,8 +2630,25 @@
       <c r="F34">
         <v>519900</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>11906.719937090063</v>
+      </c>
+      <c r="K34" s="2">
+        <v>7</v>
+      </c>
+      <c r="L34" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M34" s="2">
+        <v>-73761.790764270001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1873,8 +2667,25 @@
       <c r="F35">
         <v>519900</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>75570.461681939545</v>
+      </c>
+      <c r="K35" s="2">
+        <v>8</v>
+      </c>
+      <c r="L35" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M35" s="2">
+        <v>-73761.790764270001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1893,8 +2704,25 @@
       <c r="F36">
         <v>519900</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>63761.790764270001</v>
+      </c>
+      <c r="K36" s="2">
+        <v>9</v>
+      </c>
+      <c r="L36" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1906.7199370900635</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1913,8 +2741,25 @@
       <c r="F37">
         <v>519900</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>11906.719937090063</v>
+      </c>
+      <c r="K37" s="2">
+        <v>10</v>
+      </c>
+      <c r="L37" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M37" s="2">
+        <v>-73671.790764270001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1933,8 +2778,25 @@
       <c r="F38">
         <v>520000</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>12006.719937090063</v>
+      </c>
+      <c r="K38" s="2">
+        <v>11</v>
+      </c>
+      <c r="L38" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M38" s="2">
+        <v>-73671.790764270001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1953,8 +2815,25 @@
       <c r="F39">
         <v>520000</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>12006.719937090063</v>
+      </c>
+      <c r="K39" s="2">
+        <v>12</v>
+      </c>
+      <c r="L39" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M39" s="2">
+        <v>2006.7199370900635</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1973,8 +2852,25 @@
       <c r="F40">
         <v>520000</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>519801.95098057948</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>198.04901942051947</v>
+      </c>
+      <c r="K40" s="2">
+        <v>13</v>
+      </c>
+      <c r="L40" s="2">
+        <v>519801.95098057948</v>
+      </c>
+      <c r="M40" s="2">
+        <v>-9801.9509805794805</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1993,8 +2889,25 @@
       <c r="F41">
         <v>520000</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>12006.719937090063</v>
+      </c>
+      <c r="K41" s="2">
+        <v>14</v>
+      </c>
+      <c r="L41" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M41" s="2">
+        <v>5006.7199370900635</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2013,8 +2926,25 @@
       <c r="F42">
         <v>521999</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>488918.17468870524</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>33080.825311294757</v>
+      </c>
+      <c r="K42" s="2">
+        <v>15</v>
+      </c>
+      <c r="L42" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M42" s="2">
+        <v>-68761.790764270001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -2033,8 +2963,25 @@
       <c r="F43">
         <v>524000</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>71470.461681939545</v>
+      </c>
+      <c r="K43" s="2">
+        <v>16</v>
+      </c>
+      <c r="L43" s="2">
+        <v>702022.74867517385</v>
+      </c>
+      <c r="M43" s="2">
+        <v>-187122.74867517385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2053,8 +3000,25 @@
       <c r="F44">
         <v>524900</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>70570.461681939545</v>
+      </c>
+      <c r="K44" s="2">
+        <v>17</v>
+      </c>
+      <c r="L44" s="2">
+        <v>702022.74867517385</v>
+      </c>
+      <c r="M44" s="2">
+        <v>-187022.74867517385</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -2073,8 +3037,25 @@
       <c r="F45">
         <v>524900</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>58761.790764270001</v>
+      </c>
+      <c r="K45" s="2">
+        <v>18</v>
+      </c>
+      <c r="L45" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M45" s="2">
+        <v>7006.7199370900635</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2093,8 +3074,25 @@
       <c r="F46">
         <v>524999</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>17005.719937090063</v>
+      </c>
+      <c r="K46" s="2">
+        <v>19</v>
+      </c>
+      <c r="L46" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M46" s="2">
+        <v>7006.7199370900635</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -2113,8 +3111,25 @@
       <c r="F47">
         <v>525000</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>17006.719937090063</v>
+      </c>
+      <c r="K47" s="2">
+        <v>20</v>
+      </c>
+      <c r="L47" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M47" s="2">
+        <v>-68661.790764270001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -2133,8 +3148,25 @@
       <c r="F48">
         <v>525000</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>17006.719937090063</v>
+      </c>
+      <c r="K48" s="2">
+        <v>21</v>
+      </c>
+      <c r="L48" s="2">
+        <v>477109.50377103558</v>
+      </c>
+      <c r="M48" s="2">
+        <v>38790.496228964417</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -2153,8 +3185,25 @@
       <c r="F49">
         <v>525000</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>17006.719937090063</v>
+      </c>
+      <c r="K49" s="2">
+        <v>22</v>
+      </c>
+      <c r="L49" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M49" s="2">
+        <v>-67761.790764270001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -2173,8 +3222,25 @@
       <c r="F50">
         <v>525000</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>58661.790764270001</v>
+      </c>
+      <c r="K50" s="2">
+        <v>23</v>
+      </c>
+      <c r="L50" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M50" s="2">
+        <v>-79470.461681939545</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -2193,8 +3259,25 @@
       <c r="F51">
         <v>528800</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>66670.461681939545</v>
+      </c>
+      <c r="K51" s="2">
+        <v>24</v>
+      </c>
+      <c r="L51" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M51" s="2">
+        <v>10894.719937090063</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -2213,8 +3296,25 @@
       <c r="F52">
         <v>529000</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>66470.461681939545</v>
+      </c>
+      <c r="K52" s="2">
+        <v>25</v>
+      </c>
+      <c r="L52" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M52" s="2">
+        <v>10894.719937090063</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -2233,8 +3333,25 @@
       <c r="F53">
         <v>529900</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>21906.719937090063</v>
+      </c>
+      <c r="K53" s="2">
+        <v>26</v>
+      </c>
+      <c r="L53" s="2">
+        <v>702022.74867517385</v>
+      </c>
+      <c r="M53" s="2">
+        <v>-183122.74867517385</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -2253,8 +3370,25 @@
       <c r="F54">
         <v>529900</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>519801.95098057948</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>10098.049019420519</v>
+      </c>
+      <c r="K54" s="2">
+        <v>27</v>
+      </c>
+      <c r="L54" s="2">
+        <v>702022.74867517385</v>
+      </c>
+      <c r="M54" s="2">
+        <v>-183027.74867517385</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -2273,8 +3407,25 @@
       <c r="F55">
         <v>529900</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>21906.719937090063</v>
+      </c>
+      <c r="K55" s="2">
+        <v>28</v>
+      </c>
+      <c r="L55" s="2">
+        <v>626354.2379738139</v>
+      </c>
+      <c r="M55" s="2">
+        <v>-107354.2379738139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +3444,25 @@
       <c r="F56">
         <v>530000</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>477109.50377103558</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>52890.496228964417</v>
+      </c>
+      <c r="K56" s="2">
+        <v>29</v>
+      </c>
+      <c r="L56" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M56" s="2">
+        <v>-76470.461681939545</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -2313,8 +3481,25 @@
       <c r="F57">
         <v>530000</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>65470.461681939545</v>
+      </c>
+      <c r="K57" s="2">
+        <v>30</v>
+      </c>
+      <c r="L57" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M57" s="2">
+        <v>-76470.461681939545</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -2333,8 +3518,25 @@
       <c r="F58">
         <v>530000</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>702022.74867517385</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>172022.74867517385</v>
+      </c>
+      <c r="K58" s="2">
+        <v>31</v>
+      </c>
+      <c r="L58" s="2">
+        <v>702022.74867517385</v>
+      </c>
+      <c r="M58" s="2">
+        <v>-182322.74867517385</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -2353,8 +3555,25 @@
       <c r="F59">
         <v>532000</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="1"/>
+        <v>63470.461681939545</v>
+      </c>
+      <c r="K59" s="2">
+        <v>32</v>
+      </c>
+      <c r="L59" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M59" s="2">
+        <v>-75570.461681939545</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -2373,8 +3592,25 @@
       <c r="F60">
         <v>534000</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="1"/>
+        <v>61470.461681939545</v>
+      </c>
+      <c r="K60" s="2">
+        <v>33</v>
+      </c>
+      <c r="L60" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M60" s="2">
+        <v>11906.719937090063</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -2393,8 +3629,25 @@
       <c r="F61">
         <v>534900</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="1"/>
+        <v>26906.719937090063</v>
+      </c>
+      <c r="K61" s="2">
+        <v>34</v>
+      </c>
+      <c r="L61" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M61" s="2">
+        <v>-75570.461681939545</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -2413,8 +3666,25 @@
       <c r="F62">
         <v>535900</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="1"/>
+        <v>27906.719937090063</v>
+      </c>
+      <c r="K62" s="2">
+        <v>35</v>
+      </c>
+      <c r="L62" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M62" s="2">
+        <v>-63761.790764270001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -2433,8 +3703,25 @@
       <c r="F63">
         <v>537000</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>713831.41959284339</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="1"/>
+        <v>176831.41959284339</v>
+      </c>
+      <c r="K63" s="2">
+        <v>36</v>
+      </c>
+      <c r="L63" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M63" s="2">
+        <v>11906.719937090063</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -2453,8 +3740,25 @@
       <c r="F64">
         <v>538900</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="1"/>
+        <v>56570.461681939545</v>
+      </c>
+      <c r="K64" s="2">
+        <v>37</v>
+      </c>
+      <c r="L64" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M64" s="2">
+        <v>12006.719937090063</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -2473,8 +3777,25 @@
       <c r="F65">
         <v>539000</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="1"/>
+        <v>31006.719937090063</v>
+      </c>
+      <c r="K65" s="2">
+        <v>38</v>
+      </c>
+      <c r="L65" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M65" s="2">
+        <v>12006.719937090063</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2493,8 +3814,25 @@
       <c r="F66">
         <v>539000</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="1"/>
+        <v>44661.790764270001</v>
+      </c>
+      <c r="K66" s="2">
+        <v>39</v>
+      </c>
+      <c r="L66" s="2">
+        <v>519801.95098057948</v>
+      </c>
+      <c r="M66" s="2">
+        <v>198.04901942051947</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2513,8 +3851,25 @@
       <c r="F67">
         <v>539000</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <f t="shared" ref="G67:G130" si="2">$L$17+(B67*$L$18)+(C67*$L$19)+(D67*$L$20)+(E67*$L$21)</f>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="3">ABS(F67-G67)</f>
+        <v>56470.461681939545</v>
+      </c>
+      <c r="K67" s="2">
+        <v>40</v>
+      </c>
+      <c r="L67" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M67" s="2">
+        <v>12006.719937090063</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2533,8 +3888,25 @@
       <c r="F68">
         <v>539000</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <f t="shared" si="2"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="3"/>
+        <v>44661.790764270001</v>
+      </c>
+      <c r="K68" s="2">
+        <v>41</v>
+      </c>
+      <c r="L68" s="2">
+        <v>488918.17468870524</v>
+      </c>
+      <c r="M68" s="2">
+        <v>33080.825311294757</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2553,8 +3925,25 @@
       <c r="F69">
         <v>539000</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <f t="shared" si="2"/>
+        <v>614545.56705614412</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="3"/>
+        <v>75545.567056144122</v>
+      </c>
+      <c r="K69" s="2">
+        <v>42</v>
+      </c>
+      <c r="L69" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M69" s="2">
+        <v>-71470.461681939545</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -2573,8 +3962,25 @@
       <c r="F70">
         <v>539500</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <f t="shared" si="2"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="3"/>
+        <v>31506.719937090063</v>
+      </c>
+      <c r="K70" s="2">
+        <v>43</v>
+      </c>
+      <c r="L70" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M70" s="2">
+        <v>-70570.461681939545</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2593,8 +3999,25 @@
       <c r="F71">
         <v>539800</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <f t="shared" si="2"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="3"/>
+        <v>43861.790764270001</v>
+      </c>
+      <c r="K71" s="2">
+        <v>44</v>
+      </c>
+      <c r="L71" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M71" s="2">
+        <v>-58761.790764270001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -2613,8 +4036,25 @@
       <c r="F72">
         <v>539888</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <f t="shared" si="2"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="3"/>
+        <v>55582.461681939545</v>
+      </c>
+      <c r="K72" s="2">
+        <v>45</v>
+      </c>
+      <c r="L72" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M72" s="2">
+        <v>17005.719937090063</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -2633,8 +4073,25 @@
       <c r="F73">
         <v>539900</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <f t="shared" si="2"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="3"/>
+        <v>31906.719937090063</v>
+      </c>
+      <c r="K73" s="2">
+        <v>46</v>
+      </c>
+      <c r="L73" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M73" s="2">
+        <v>17006.719937090063</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2653,8 +4110,25 @@
       <c r="F74">
         <v>539900</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <f t="shared" si="2"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="3"/>
+        <v>55570.461681939545</v>
+      </c>
+      <c r="K74" s="2">
+        <v>47</v>
+      </c>
+      <c r="L74" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M74" s="2">
+        <v>17006.719937090063</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2673,8 +4147,25 @@
       <c r="F75">
         <v>539900</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <f t="shared" si="2"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="3"/>
+        <v>55570.461681939545</v>
+      </c>
+      <c r="K75" s="2">
+        <v>48</v>
+      </c>
+      <c r="L75" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M75" s="2">
+        <v>17006.719937090063</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -2693,8 +4184,25 @@
       <c r="F76">
         <v>540000</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <f t="shared" si="2"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="3"/>
+        <v>55470.461681939545</v>
+      </c>
+      <c r="K76" s="2">
+        <v>49</v>
+      </c>
+      <c r="L76" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M76" s="2">
+        <v>-58661.790764270001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -2713,8 +4221,25 @@
       <c r="F77">
         <v>544900</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <f t="shared" si="2"/>
+        <v>519801.95098057948</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="3"/>
+        <v>25098.049019420519</v>
+      </c>
+      <c r="K77" s="2">
+        <v>50</v>
+      </c>
+      <c r="L77" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M77" s="2">
+        <v>-66670.461681939545</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -2733,8 +4258,25 @@
       <c r="F78">
         <v>544900</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <f t="shared" si="2"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="3"/>
+        <v>38761.790764270001</v>
+      </c>
+      <c r="K78" s="2">
+        <v>51</v>
+      </c>
+      <c r="L78" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M78" s="2">
+        <v>-66470.461681939545</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2753,8 +4295,25 @@
       <c r="F79">
         <v>545000</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <f t="shared" si="2"/>
+        <v>614545.56705614412</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="3"/>
+        <v>69545.567056144122</v>
+      </c>
+      <c r="K79" s="2">
+        <v>52</v>
+      </c>
+      <c r="L79" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M79" s="2">
+        <v>21906.719937090063</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2773,8 +4332,25 @@
       <c r="F80">
         <v>548000</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <f t="shared" si="2"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="3"/>
+        <v>40006.719937090063</v>
+      </c>
+      <c r="K80" s="2">
+        <v>53</v>
+      </c>
+      <c r="L80" s="2">
+        <v>519801.95098057948</v>
+      </c>
+      <c r="M80" s="2">
+        <v>10098.049019420519</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2793,8 +4369,25 @@
       <c r="F81">
         <v>548800</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <f t="shared" si="2"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="3"/>
+        <v>40806.719937090063</v>
+      </c>
+      <c r="K81" s="2">
+        <v>54</v>
+      </c>
+      <c r="L81" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M81" s="2">
+        <v>21906.719937090063</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2813,8 +4406,25 @@
       <c r="F82">
         <v>549000</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <f t="shared" si="2"/>
+        <v>702022.74867517385</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="3"/>
+        <v>153022.74867517385</v>
+      </c>
+      <c r="K82" s="2">
+        <v>55</v>
+      </c>
+      <c r="L82" s="2">
+        <v>477109.50377103558</v>
+      </c>
+      <c r="M82" s="2">
+        <v>52890.496228964417</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -2833,8 +4443,25 @@
       <c r="F83">
         <v>549000</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <f t="shared" si="2"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="3"/>
+        <v>41006.719937090063</v>
+      </c>
+      <c r="K83" s="2">
+        <v>56</v>
+      </c>
+      <c r="L83" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M83" s="2">
+        <v>-65470.461681939545</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -2853,8 +4480,25 @@
       <c r="F84">
         <v>549000</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <f t="shared" si="2"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="3"/>
+        <v>46470.461681939545</v>
+      </c>
+      <c r="K84" s="2">
+        <v>57</v>
+      </c>
+      <c r="L84" s="2">
+        <v>702022.74867517385</v>
+      </c>
+      <c r="M84" s="2">
+        <v>-172022.74867517385</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2873,8 +4517,25 @@
       <c r="F85">
         <v>549000</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <f t="shared" si="2"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="3"/>
+        <v>41006.719937090063</v>
+      </c>
+      <c r="K85" s="2">
+        <v>58</v>
+      </c>
+      <c r="L85" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M85" s="2">
+        <v>-63470.461681939545</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -2893,8 +4554,25 @@
       <c r="F86">
         <v>549000</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <f t="shared" si="2"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="3"/>
+        <v>41006.719937090063</v>
+      </c>
+      <c r="K86" s="2">
+        <v>59</v>
+      </c>
+      <c r="L86" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M86" s="2">
+        <v>-61470.461681939545</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -2913,8 +4591,25 @@
       <c r="F87">
         <v>549000</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <f t="shared" si="2"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="3"/>
+        <v>41006.719937090063</v>
+      </c>
+      <c r="K87" s="2">
+        <v>60</v>
+      </c>
+      <c r="L87" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M87" s="2">
+        <v>26906.719937090063</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -2933,8 +4628,25 @@
       <c r="F88">
         <v>549900</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <f t="shared" si="2"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="3"/>
+        <v>33761.790764270001</v>
+      </c>
+      <c r="K88" s="2">
+        <v>61</v>
+      </c>
+      <c r="L88" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M88" s="2">
+        <v>27906.719937090063</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -2953,8 +4665,25 @@
       <c r="F89">
         <v>549900</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <f t="shared" si="2"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="3"/>
+        <v>33761.790764270001</v>
+      </c>
+      <c r="K89" s="2">
+        <v>62</v>
+      </c>
+      <c r="L89" s="2">
+        <v>713831.41959284339</v>
+      </c>
+      <c r="M89" s="2">
+        <v>-176831.41959284339</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2973,8 +4702,25 @@
       <c r="F90">
         <v>549900</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <f t="shared" si="2"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="3"/>
+        <v>33761.790764270001</v>
+      </c>
+      <c r="K90" s="2">
+        <v>63</v>
+      </c>
+      <c r="L90" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M90" s="2">
+        <v>-56570.461681939545</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -2993,8 +4739,25 @@
       <c r="F91">
         <v>549900</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <f t="shared" si="2"/>
+        <v>477109.50377103558</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="3"/>
+        <v>72790.496228964417</v>
+      </c>
+      <c r="K91" s="2">
+        <v>64</v>
+      </c>
+      <c r="L91" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M91" s="2">
+        <v>31006.719937090063</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -3013,8 +4776,25 @@
       <c r="F92">
         <v>549900</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <f t="shared" si="2"/>
+        <v>488918.17468870524</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="3"/>
+        <v>60981.825311294757</v>
+      </c>
+      <c r="K92" s="2">
+        <v>65</v>
+      </c>
+      <c r="L92" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M92" s="2">
+        <v>-44661.790764270001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -3033,8 +4813,25 @@
       <c r="F93">
         <v>549900</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <f t="shared" si="2"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="3"/>
+        <v>45570.461681939545</v>
+      </c>
+      <c r="K93" s="2">
+        <v>66</v>
+      </c>
+      <c r="L93" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M93" s="2">
+        <v>-56470.461681939545</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -3053,8 +4850,25 @@
       <c r="F94">
         <v>549998</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <f t="shared" si="2"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="3"/>
+        <v>42004.719937090063</v>
+      </c>
+      <c r="K94" s="2">
+        <v>67</v>
+      </c>
+      <c r="L94" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M94" s="2">
+        <v>-44661.790764270001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -3073,8 +4887,25 @@
       <c r="F95">
         <v>549999</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <f t="shared" si="2"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="3"/>
+        <v>42005.719937090063</v>
+      </c>
+      <c r="K95" s="2">
+        <v>68</v>
+      </c>
+      <c r="L95" s="2">
+        <v>614545.56705614412</v>
+      </c>
+      <c r="M95" s="2">
+        <v>-75545.567056144122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -3093,8 +4924,25 @@
       <c r="F96">
         <v>550000</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <f t="shared" si="2"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="3"/>
+        <v>45470.461681939545</v>
+      </c>
+      <c r="K96" s="2">
+        <v>69</v>
+      </c>
+      <c r="L96" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M96" s="2">
+        <v>31506.719937090063</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -3113,8 +4961,25 @@
       <c r="F97">
         <v>552800</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <f t="shared" si="2"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="3"/>
+        <v>44806.719937090063</v>
+      </c>
+      <c r="K97" s="2">
+        <v>70</v>
+      </c>
+      <c r="L97" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M97" s="2">
+        <v>-43861.790764270001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -3133,8 +4998,25 @@
       <c r="F98">
         <v>554988</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98">
+        <f t="shared" si="2"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="3"/>
+        <v>28673.790764270001</v>
+      </c>
+      <c r="K98" s="2">
+        <v>71</v>
+      </c>
+      <c r="L98" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M98" s="2">
+        <v>-55582.461681939545</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -3153,8 +5035,25 @@
       <c r="F99">
         <v>555000</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99">
+        <f t="shared" si="2"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="3"/>
+        <v>40470.461681939545</v>
+      </c>
+      <c r="K99" s="2">
+        <v>72</v>
+      </c>
+      <c r="L99" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M99" s="2">
+        <v>31906.719937090063</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -3173,8 +5072,25 @@
       <c r="F100">
         <v>555000</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100">
+        <f t="shared" si="2"/>
+        <v>496184.60914524028</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="3"/>
+        <v>58815.390854759724</v>
+      </c>
+      <c r="K100" s="2">
+        <v>73</v>
+      </c>
+      <c r="L100" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M100" s="2">
+        <v>-55570.461681939545</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -3193,8 +5109,25 @@
       <c r="F101">
         <v>555000</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <f t="shared" si="2"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="3"/>
+        <v>40470.461681939545</v>
+      </c>
+      <c r="K101" s="2">
+        <v>74</v>
+      </c>
+      <c r="L101" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M101" s="2">
+        <v>-55570.461681939545</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -3213,8 +5146,25 @@
       <c r="F102">
         <v>558800</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102">
+        <f t="shared" si="2"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="3"/>
+        <v>36670.461681939545</v>
+      </c>
+      <c r="K102" s="2">
+        <v>75</v>
+      </c>
+      <c r="L102" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M102" s="2">
+        <v>-55470.461681939545</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -3233,8 +5183,25 @@
       <c r="F103">
         <v>559000</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103">
+        <f t="shared" si="2"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="3"/>
+        <v>36470.461681939545</v>
+      </c>
+      <c r="K103" s="2">
+        <v>76</v>
+      </c>
+      <c r="L103" s="2">
+        <v>519801.95098057948</v>
+      </c>
+      <c r="M103" s="2">
+        <v>25098.049019420519</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -3253,8 +5220,25 @@
       <c r="F104">
         <v>559000</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <f t="shared" si="2"/>
+        <v>519801.95098057948</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="3"/>
+        <v>39198.049019420519</v>
+      </c>
+      <c r="K104" s="2">
+        <v>77</v>
+      </c>
+      <c r="L104" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M104" s="2">
+        <v>-38761.790764270001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -3273,8 +5257,25 @@
       <c r="F105">
         <v>559000</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105">
+        <f t="shared" si="2"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="3"/>
+        <v>24661.790764270001</v>
+      </c>
+      <c r="K105" s="2">
+        <v>78</v>
+      </c>
+      <c r="L105" s="2">
+        <v>614545.56705614412</v>
+      </c>
+      <c r="M105" s="2">
+        <v>-69545.567056144122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>110</v>
       </c>
@@ -3293,8 +5294,25 @@
       <c r="F106">
         <v>559900</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106">
+        <f t="shared" si="2"/>
+        <v>702022.74867517385</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="3"/>
+        <v>142122.74867517385</v>
+      </c>
+      <c r="K106" s="2">
+        <v>79</v>
+      </c>
+      <c r="L106" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M106" s="2">
+        <v>40006.719937090063</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>111</v>
       </c>
@@ -3313,8 +5331,25 @@
       <c r="F107">
         <v>559900</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107">
+        <f t="shared" si="2"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="3"/>
+        <v>35570.461681939545</v>
+      </c>
+      <c r="K107" s="2">
+        <v>80</v>
+      </c>
+      <c r="L107" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M107" s="2">
+        <v>40806.719937090063</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -3333,8 +5368,25 @@
       <c r="F108">
         <v>559900</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108">
+        <f t="shared" si="2"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="3"/>
+        <v>51906.719937090063</v>
+      </c>
+      <c r="K108" s="2">
+        <v>81</v>
+      </c>
+      <c r="L108" s="2">
+        <v>702022.74867517385</v>
+      </c>
+      <c r="M108" s="2">
+        <v>-153022.74867517385</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -3353,8 +5405,25 @@
       <c r="F109">
         <v>559999</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109">
+        <f t="shared" si="2"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="3"/>
+        <v>23662.790764270001</v>
+      </c>
+      <c r="K109" s="2">
+        <v>82</v>
+      </c>
+      <c r="L109" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M109" s="2">
+        <v>41006.719937090063</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -3373,8 +5442,25 @@
       <c r="F110">
         <v>559999</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110">
+        <f t="shared" si="2"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="3"/>
+        <v>23662.790764270001</v>
+      </c>
+      <c r="K110" s="2">
+        <v>83</v>
+      </c>
+      <c r="L110" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M110" s="2">
+        <v>-46470.461681939545</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -3393,8 +5479,25 @@
       <c r="F111">
         <v>564900</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111">
+        <f t="shared" si="2"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="3"/>
+        <v>56906.719937090063</v>
+      </c>
+      <c r="K111" s="2">
+        <v>84</v>
+      </c>
+      <c r="L111" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M111" s="2">
+        <v>41006.719937090063</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -3413,8 +5516,25 @@
       <c r="F112">
         <v>565000</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112">
+        <f t="shared" si="2"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="3"/>
+        <v>30470.461681939545</v>
+      </c>
+      <c r="K112" s="2">
+        <v>85</v>
+      </c>
+      <c r="L112" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M112" s="2">
+        <v>41006.719937090063</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -3433,8 +5553,25 @@
       <c r="F113">
         <v>565000</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113">
+        <f t="shared" si="2"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="3"/>
+        <v>30470.461681939545</v>
+      </c>
+      <c r="K113" s="2">
+        <v>86</v>
+      </c>
+      <c r="L113" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M113" s="2">
+        <v>41006.719937090063</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -3453,8 +5590,25 @@
       <c r="F114">
         <v>565000</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114">
+        <f t="shared" si="2"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="3"/>
+        <v>30470.461681939545</v>
+      </c>
+      <c r="K114" s="2">
+        <v>87</v>
+      </c>
+      <c r="L114" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M114" s="2">
+        <v>-33761.790764270001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>119</v>
       </c>
@@ -3473,8 +5627,25 @@
       <c r="F115">
         <v>569000</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115">
+        <f t="shared" si="2"/>
+        <v>571853.11984660046</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="3"/>
+        <v>2853.1198466004571</v>
+      </c>
+      <c r="K115" s="2">
+        <v>88</v>
+      </c>
+      <c r="L115" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M115" s="2">
+        <v>-33761.790764270001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>120</v>
       </c>
@@ -3493,8 +5664,25 @@
       <c r="F116">
         <v>569800</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116">
+        <f t="shared" si="2"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="3"/>
+        <v>13861.790764270001</v>
+      </c>
+      <c r="K116" s="2">
+        <v>89</v>
+      </c>
+      <c r="L116" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M116" s="2">
+        <v>-33761.790764270001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>121</v>
       </c>
@@ -3513,8 +5701,25 @@
       <c r="F117">
         <v>569900</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117">
+        <f t="shared" si="2"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="3"/>
+        <v>25570.461681939545</v>
+      </c>
+      <c r="K117" s="2">
+        <v>90</v>
+      </c>
+      <c r="L117" s="2">
+        <v>477109.50377103558</v>
+      </c>
+      <c r="M117" s="2">
+        <v>72790.496228964417</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>122</v>
       </c>
@@ -3533,8 +5738,25 @@
       <c r="F118">
         <v>569900</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118">
+        <f t="shared" si="2"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="3"/>
+        <v>61906.719937090063</v>
+      </c>
+      <c r="K118" s="2">
+        <v>91</v>
+      </c>
+      <c r="L118" s="2">
+        <v>488918.17468870524</v>
+      </c>
+      <c r="M118" s="2">
+        <v>60981.825311294757</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>123</v>
       </c>
@@ -3553,8 +5775,25 @@
       <c r="F119">
         <v>569900</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119">
+        <f t="shared" si="2"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="3"/>
+        <v>25570.461681939545</v>
+      </c>
+      <c r="K119" s="2">
+        <v>92</v>
+      </c>
+      <c r="L119" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M119" s="2">
+        <v>-45570.461681939545</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>124</v>
       </c>
@@ -3573,8 +5812,25 @@
       <c r="F120">
         <v>569900</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120">
+        <f t="shared" si="2"/>
+        <v>488918.17468870524</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="3"/>
+        <v>80981.825311294757</v>
+      </c>
+      <c r="K120" s="2">
+        <v>93</v>
+      </c>
+      <c r="L120" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M120" s="2">
+        <v>42004.719937090063</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>125</v>
       </c>
@@ -3593,8 +5849,25 @@
       <c r="F121">
         <v>569900</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121">
+        <f t="shared" si="2"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="3"/>
+        <v>25570.461681939545</v>
+      </c>
+      <c r="K121" s="2">
+        <v>94</v>
+      </c>
+      <c r="L121" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M121" s="2">
+        <v>42005.719937090063</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>126</v>
       </c>
@@ -3613,8 +5886,25 @@
       <c r="F122">
         <v>574900</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122">
+        <f t="shared" si="2"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="3"/>
+        <v>20570.461681939545</v>
+      </c>
+      <c r="K122" s="2">
+        <v>95</v>
+      </c>
+      <c r="L122" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M122" s="2">
+        <v>-45470.461681939545</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>127</v>
       </c>
@@ -3633,8 +5923,25 @@
       <c r="F123">
         <v>574900</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123">
+        <f t="shared" si="2"/>
+        <v>477109.50377103558</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="3"/>
+        <v>97790.496228964417</v>
+      </c>
+      <c r="K123" s="2">
+        <v>96</v>
+      </c>
+      <c r="L123" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M123" s="2">
+        <v>44806.719937090063</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>128</v>
       </c>
@@ -3653,8 +5960,25 @@
       <c r="F124">
         <v>574900</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124">
+        <f t="shared" si="2"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="3"/>
+        <v>20570.461681939545</v>
+      </c>
+      <c r="K124" s="2">
+        <v>97</v>
+      </c>
+      <c r="L124" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M124" s="2">
+        <v>-28673.790764270001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>129</v>
       </c>
@@ -3673,8 +5997,25 @@
       <c r="F125">
         <v>574999</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125">
+        <f t="shared" si="2"/>
+        <v>702022.74867517385</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="3"/>
+        <v>127023.74867517385</v>
+      </c>
+      <c r="K125" s="2">
+        <v>98</v>
+      </c>
+      <c r="L125" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M125" s="2">
+        <v>-40470.461681939545</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>130</v>
       </c>
@@ -3693,8 +6034,25 @@
       <c r="F126">
         <v>575000</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126">
+        <f t="shared" si="2"/>
+        <v>702022.74867517385</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="3"/>
+        <v>127022.74867517385</v>
+      </c>
+      <c r="K126" s="2">
+        <v>99</v>
+      </c>
+      <c r="L126" s="2">
+        <v>496184.60914524028</v>
+      </c>
+      <c r="M126" s="2">
+        <v>58815.390854759724</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>131</v>
       </c>
@@ -3713,8 +6071,25 @@
       <c r="F127">
         <v>575000</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127">
+        <f t="shared" si="2"/>
+        <v>702022.74867517385</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="3"/>
+        <v>127022.74867517385</v>
+      </c>
+      <c r="K127" s="2">
+        <v>100</v>
+      </c>
+      <c r="L127" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M127" s="2">
+        <v>-40470.461681939545</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>132</v>
       </c>
@@ -3733,8 +6108,25 @@
       <c r="F128">
         <v>575000</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128">
+        <f t="shared" si="2"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="3"/>
+        <v>67006.719937090063</v>
+      </c>
+      <c r="K128" s="2">
+        <v>101</v>
+      </c>
+      <c r="L128" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M128" s="2">
+        <v>-36670.461681939545</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>133</v>
       </c>
@@ -3753,8 +6145,25 @@
       <c r="F129">
         <v>575000</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129">
+        <f t="shared" si="2"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="3"/>
+        <v>8661.7907642700011</v>
+      </c>
+      <c r="K129" s="2">
+        <v>102</v>
+      </c>
+      <c r="L129" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M129" s="2">
+        <v>-36470.461681939545</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>134</v>
       </c>
@@ -3773,8 +6182,25 @@
       <c r="F130">
         <v>579000</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130">
+        <f t="shared" si="2"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="3"/>
+        <v>16470.461681939545</v>
+      </c>
+      <c r="K130" s="2">
+        <v>103</v>
+      </c>
+      <c r="L130" s="2">
+        <v>519801.95098057948</v>
+      </c>
+      <c r="M130" s="2">
+        <v>39198.049019420519</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>135</v>
       </c>
@@ -3793,8 +6219,25 @@
       <c r="F131">
         <v>579000</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131">
+        <f t="shared" ref="G131:G194" si="4">$L$17+(B131*$L$18)+(C131*$L$19)+(D131*$L$20)+(E131*$L$21)</f>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H131">
+        <f t="shared" ref="H131:H194" si="5">ABS(F131-G131)</f>
+        <v>16470.461681939545</v>
+      </c>
+      <c r="K131" s="2">
+        <v>104</v>
+      </c>
+      <c r="L131" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M131" s="2">
+        <v>-24661.790764270001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>136</v>
       </c>
@@ -3813,8 +6256,25 @@
       <c r="F132">
         <v>579000</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132">
+        <f t="shared" si="4"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="5"/>
+        <v>16470.461681939545</v>
+      </c>
+      <c r="K132" s="2">
+        <v>105</v>
+      </c>
+      <c r="L132" s="2">
+        <v>702022.74867517385</v>
+      </c>
+      <c r="M132" s="2">
+        <v>-142122.74867517385</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>137</v>
       </c>
@@ -3833,8 +6293,25 @@
       <c r="F133">
         <v>579000</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133">
+        <f t="shared" si="4"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="5"/>
+        <v>16470.461681939545</v>
+      </c>
+      <c r="K133" s="2">
+        <v>106</v>
+      </c>
+      <c r="L133" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M133" s="2">
+        <v>-35570.461681939545</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>138</v>
       </c>
@@ -3853,8 +6330,25 @@
       <c r="F134">
         <v>579000</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134">
+        <f t="shared" si="4"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="5"/>
+        <v>16470.461681939545</v>
+      </c>
+      <c r="K134" s="2">
+        <v>107</v>
+      </c>
+      <c r="L134" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M134" s="2">
+        <v>51906.719937090063</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>139</v>
       </c>
@@ -3873,8 +6367,25 @@
       <c r="F135">
         <v>579000</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135">
+        <f t="shared" si="4"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="5"/>
+        <v>4661.7907642700011</v>
+      </c>
+      <c r="K135" s="2">
+        <v>108</v>
+      </c>
+      <c r="L135" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M135" s="2">
+        <v>-23662.790764270001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>140</v>
       </c>
@@ -3893,8 +6404,25 @@
       <c r="F136">
         <v>579900</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136">
+        <f t="shared" si="4"/>
+        <v>741388.22934599547</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="5"/>
+        <v>161488.22934599547</v>
+      </c>
+      <c r="K136" s="2">
+        <v>109</v>
+      </c>
+      <c r="L136" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M136" s="2">
+        <v>-23662.790764270001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>141</v>
       </c>
@@ -3913,8 +6441,25 @@
       <c r="F137">
         <v>579900</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137">
+        <f t="shared" si="4"/>
+        <v>859749.18725689943</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="5"/>
+        <v>279849.18725689943</v>
+      </c>
+      <c r="K137" s="2">
+        <v>110</v>
+      </c>
+      <c r="L137" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M137" s="2">
+        <v>56906.719937090063</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>142</v>
       </c>
@@ -3933,8 +6478,25 @@
       <c r="F138">
         <v>579900</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138">
+        <f t="shared" si="4"/>
+        <v>859749.18725689943</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="5"/>
+        <v>279849.18725689943</v>
+      </c>
+      <c r="K138" s="2">
+        <v>111</v>
+      </c>
+      <c r="L138" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M138" s="2">
+        <v>-30470.461681939545</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>143</v>
       </c>
@@ -3953,8 +6515,25 @@
       <c r="F139">
         <v>579900</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139">
+        <f t="shared" si="4"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="5"/>
+        <v>15570.461681939545</v>
+      </c>
+      <c r="K139" s="2">
+        <v>112</v>
+      </c>
+      <c r="L139" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M139" s="2">
+        <v>-30470.461681939545</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>144</v>
       </c>
@@ -3973,8 +6552,25 @@
       <c r="F140">
         <v>585000</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140">
+        <f t="shared" si="4"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="5"/>
+        <v>10470.461681939545</v>
+      </c>
+      <c r="K140" s="2">
+        <v>113</v>
+      </c>
+      <c r="L140" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M140" s="2">
+        <v>-30470.461681939545</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>145</v>
       </c>
@@ -3993,8 +6589,25 @@
       <c r="F141">
         <v>588800</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141">
+        <f t="shared" si="4"/>
+        <v>859749.18725689943</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="5"/>
+        <v>270949.18725689943</v>
+      </c>
+      <c r="K141" s="2">
+        <v>114</v>
+      </c>
+      <c r="L141" s="2">
+        <v>571853.11984660046</v>
+      </c>
+      <c r="M141" s="2">
+        <v>-2853.1198466004571</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>146</v>
       </c>
@@ -4013,8 +6626,25 @@
       <c r="F142">
         <v>589000</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142">
+        <f t="shared" si="4"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="5"/>
+        <v>5338.2092357299989</v>
+      </c>
+      <c r="K142" s="2">
+        <v>115</v>
+      </c>
+      <c r="L142" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M142" s="2">
+        <v>-13861.790764270001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>147</v>
       </c>
@@ -4033,8 +6663,25 @@
       <c r="F143">
         <v>589000</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143">
+        <f t="shared" si="4"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="5"/>
+        <v>6470.4616819395451</v>
+      </c>
+      <c r="K143" s="2">
+        <v>116</v>
+      </c>
+      <c r="L143" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M143" s="2">
+        <v>-25570.461681939545</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>148</v>
       </c>
@@ -4053,8 +6700,25 @@
       <c r="F144">
         <v>589000</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144">
+        <f t="shared" si="4"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="5"/>
+        <v>6470.4616819395451</v>
+      </c>
+      <c r="K144" s="2">
+        <v>117</v>
+      </c>
+      <c r="L144" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M144" s="2">
+        <v>61906.719937090063</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>149</v>
       </c>
@@ -4073,8 +6737,25 @@
       <c r="F145">
         <v>589000</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145">
+        <f t="shared" si="4"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="5"/>
+        <v>6470.4616819395451</v>
+      </c>
+      <c r="K145" s="2">
+        <v>118</v>
+      </c>
+      <c r="L145" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M145" s="2">
+        <v>-25570.461681939545</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>150</v>
       </c>
@@ -4093,8 +6774,25 @@
       <c r="F146">
         <v>589000</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146">
+        <f t="shared" si="4"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="5"/>
+        <v>5338.2092357299989</v>
+      </c>
+      <c r="K146" s="2">
+        <v>119</v>
+      </c>
+      <c r="L146" s="2">
+        <v>488918.17468870524</v>
+      </c>
+      <c r="M146" s="2">
+        <v>80981.825311294757</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>151</v>
       </c>
@@ -4113,8 +6811,25 @@
       <c r="F147">
         <v>589000</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147">
+        <f t="shared" si="4"/>
+        <v>828865.41096502519</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="5"/>
+        <v>239865.41096502519</v>
+      </c>
+      <c r="K147" s="2">
+        <v>120</v>
+      </c>
+      <c r="L147" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M147" s="2">
+        <v>-25570.461681939545</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>152</v>
       </c>
@@ -4133,8 +6848,25 @@
       <c r="F148">
         <v>589000</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148">
+        <f t="shared" si="4"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="5"/>
+        <v>6470.4616819395451</v>
+      </c>
+      <c r="K148" s="2">
+        <v>121</v>
+      </c>
+      <c r="L148" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M148" s="2">
+        <v>-20570.461681939545</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>153</v>
       </c>
@@ -4153,8 +6885,25 @@
       <c r="F149">
         <v>589800</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149">
+        <f t="shared" si="4"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="5"/>
+        <v>5670.4616819395451</v>
+      </c>
+      <c r="K149" s="2">
+        <v>122</v>
+      </c>
+      <c r="L149" s="2">
+        <v>477109.50377103558</v>
+      </c>
+      <c r="M149" s="2">
+        <v>97790.496228964417</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>154</v>
       </c>
@@ -4173,8 +6922,25 @@
       <c r="F150">
         <v>589900</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150">
+        <f t="shared" si="4"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="5"/>
+        <v>6238.2092357299989</v>
+      </c>
+      <c r="K150" s="2">
+        <v>123</v>
+      </c>
+      <c r="L150" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M150" s="2">
+        <v>-20570.461681939545</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>155</v>
       </c>
@@ -4193,8 +6959,25 @@
       <c r="F151">
         <v>589900</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151">
+        <f t="shared" si="4"/>
+        <v>607279.13259960921</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="5"/>
+        <v>17379.132599609205</v>
+      </c>
+      <c r="K151" s="2">
+        <v>124</v>
+      </c>
+      <c r="L151" s="2">
+        <v>702022.74867517385</v>
+      </c>
+      <c r="M151" s="2">
+        <v>-127023.74867517385</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>156</v>
       </c>
@@ -4213,8 +6996,25 @@
       <c r="F152">
         <v>589900</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152">
+        <f t="shared" si="4"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="5"/>
+        <v>5570.4616819395451</v>
+      </c>
+      <c r="K152" s="2">
+        <v>125</v>
+      </c>
+      <c r="L152" s="2">
+        <v>702022.74867517385</v>
+      </c>
+      <c r="M152" s="2">
+        <v>-127022.74867517385</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>157</v>
       </c>
@@ -4233,8 +7033,25 @@
       <c r="F153">
         <v>590000</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153">
+        <f t="shared" si="4"/>
+        <v>713831.41959284339</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="5"/>
+        <v>123831.41959284339</v>
+      </c>
+      <c r="K153" s="2">
+        <v>126</v>
+      </c>
+      <c r="L153" s="2">
+        <v>702022.74867517385</v>
+      </c>
+      <c r="M153" s="2">
+        <v>-127022.74867517385</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>158</v>
       </c>
@@ -4253,8 +7070,25 @@
       <c r="F154">
         <v>596500</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154">
+        <f t="shared" si="4"/>
+        <v>702022.74867517385</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="5"/>
+        <v>105522.74867517385</v>
+      </c>
+      <c r="K154" s="2">
+        <v>127</v>
+      </c>
+      <c r="L154" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M154" s="2">
+        <v>67006.719937090063</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>159</v>
       </c>
@@ -4273,8 +7107,25 @@
       <c r="F155">
         <v>598888</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155">
+        <f t="shared" si="4"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="5"/>
+        <v>15226.209235729999</v>
+      </c>
+      <c r="K155" s="2">
+        <v>128</v>
+      </c>
+      <c r="L155" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M155" s="2">
+        <v>-8661.7907642700011</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>160</v>
       </c>
@@ -4293,8 +7144,25 @@
       <c r="F156">
         <v>598900</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G156">
+        <f t="shared" si="4"/>
+        <v>702022.74867517385</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="5"/>
+        <v>103122.74867517385</v>
+      </c>
+      <c r="K156" s="2">
+        <v>129</v>
+      </c>
+      <c r="L156" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M156" s="2">
+        <v>-16470.461681939545</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>161</v>
       </c>
@@ -4313,8 +7181,25 @@
       <c r="F157">
         <v>599000</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157">
+        <f t="shared" si="4"/>
+        <v>801308.60121187312</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="5"/>
+        <v>202308.60121187312</v>
+      </c>
+      <c r="K157" s="2">
+        <v>130</v>
+      </c>
+      <c r="L157" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M157" s="2">
+        <v>-16470.461681939545</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>162</v>
       </c>
@@ -4333,8 +7218,25 @@
       <c r="F158">
         <v>599000</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158">
+        <f t="shared" si="4"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="5"/>
+        <v>15338.209235729999</v>
+      </c>
+      <c r="K158" s="2">
+        <v>131</v>
+      </c>
+      <c r="L158" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M158" s="2">
+        <v>-16470.461681939545</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>163</v>
       </c>
@@ -4353,8 +7255,25 @@
       <c r="F159">
         <v>599000</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G159">
+        <f t="shared" si="4"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="5"/>
+        <v>3529.5383180604549</v>
+      </c>
+      <c r="K159" s="2">
+        <v>132</v>
+      </c>
+      <c r="L159" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M159" s="2">
+        <v>-16470.461681939545</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>164</v>
       </c>
@@ -4373,8 +7292,25 @@
       <c r="F160">
         <v>599000</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160">
+        <f t="shared" si="4"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="5"/>
+        <v>15338.209235729999</v>
+      </c>
+      <c r="K160" s="2">
+        <v>133</v>
+      </c>
+      <c r="L160" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M160" s="2">
+        <v>-16470.461681939545</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>165</v>
       </c>
@@ -4393,8 +7329,25 @@
       <c r="F161">
         <v>599000</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161">
+        <f t="shared" si="4"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="5"/>
+        <v>15338.209235729999</v>
+      </c>
+      <c r="K161" s="2">
+        <v>134</v>
+      </c>
+      <c r="L161" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M161" s="2">
+        <v>-4661.7907642700011</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>166</v>
       </c>
@@ -4413,8 +7366,25 @@
       <c r="F162">
         <v>599000</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162">
+        <f t="shared" si="4"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="5"/>
+        <v>15338.209235729999</v>
+      </c>
+      <c r="K162" s="2">
+        <v>135</v>
+      </c>
+      <c r="L162" s="2">
+        <v>741388.22934599547</v>
+      </c>
+      <c r="M162" s="2">
+        <v>-161488.22934599547</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>167</v>
       </c>
@@ -4433,8 +7403,25 @@
       <c r="F163">
         <v>599900</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163">
+        <f t="shared" si="4"/>
+        <v>702022.74867517385</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="5"/>
+        <v>102122.74867517385</v>
+      </c>
+      <c r="K163" s="2">
+        <v>136</v>
+      </c>
+      <c r="L163" s="2">
+        <v>859749.18725689943</v>
+      </c>
+      <c r="M163" s="2">
+        <v>-279849.18725689943</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>168</v>
       </c>
@@ -4453,8 +7440,25 @@
       <c r="F164">
         <v>599900</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164">
+        <f t="shared" si="4"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="5"/>
+        <v>4429.5383180604549</v>
+      </c>
+      <c r="K164" s="2">
+        <v>137</v>
+      </c>
+      <c r="L164" s="2">
+        <v>859749.18725689943</v>
+      </c>
+      <c r="M164" s="2">
+        <v>-279849.18725689943</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>169</v>
       </c>
@@ -4473,8 +7477,25 @@
       <c r="F165">
         <v>599900</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165">
+        <f t="shared" si="4"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="5"/>
+        <v>4429.5383180604549</v>
+      </c>
+      <c r="K165" s="2">
+        <v>138</v>
+      </c>
+      <c r="L165" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M165" s="2">
+        <v>-15570.461681939545</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>170</v>
       </c>
@@ -4493,8 +7514,25 @@
       <c r="F166">
         <v>599900</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166">
+        <f t="shared" si="4"/>
+        <v>507993.28006290994</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="5"/>
+        <v>91906.719937090063</v>
+      </c>
+      <c r="K166" s="2">
+        <v>139</v>
+      </c>
+      <c r="L166" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M166" s="2">
+        <v>-10470.461681939545</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>171</v>
       </c>
@@ -4513,8 +7551,25 @@
       <c r="F167">
         <v>599900</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167">
+        <f t="shared" si="4"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="5"/>
+        <v>16238.209235729999</v>
+      </c>
+      <c r="K167" s="2">
+        <v>140</v>
+      </c>
+      <c r="L167" s="2">
+        <v>859749.18725689943</v>
+      </c>
+      <c r="M167" s="2">
+        <v>-270949.18725689943</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>172</v>
       </c>
@@ -4533,8 +7588,25 @@
       <c r="F168">
         <v>599900</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168">
+        <f t="shared" si="4"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="5"/>
+        <v>16238.209235729999</v>
+      </c>
+      <c r="K168" s="2">
+        <v>141</v>
+      </c>
+      <c r="L168" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M168" s="2">
+        <v>5338.2092357299989</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>173</v>
       </c>
@@ -4553,8 +7625,25 @@
       <c r="F169">
         <v>599900</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169">
+        <f t="shared" si="4"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="5"/>
+        <v>16238.209235729999</v>
+      </c>
+      <c r="K169" s="2">
+        <v>142</v>
+      </c>
+      <c r="L169" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M169" s="2">
+        <v>-6470.4616819395451</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>174</v>
       </c>
@@ -4573,8 +7662,25 @@
       <c r="F170">
         <v>599900</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170">
+        <f t="shared" si="4"/>
+        <v>713831.41959284339</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="5"/>
+        <v>113931.41959284339</v>
+      </c>
+      <c r="K170" s="2">
+        <v>143</v>
+      </c>
+      <c r="L170" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M170" s="2">
+        <v>-6470.4616819395451</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>175</v>
       </c>
@@ -4593,8 +7699,25 @@
       <c r="F171">
         <v>599900</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171">
+        <f t="shared" si="4"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="5"/>
+        <v>4429.5383180604549</v>
+      </c>
+      <c r="K171" s="2">
+        <v>144</v>
+      </c>
+      <c r="L171" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M171" s="2">
+        <v>-6470.4616819395451</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>173</v>
       </c>
@@ -4613,8 +7736,25 @@
       <c r="F172">
         <v>599900</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G172">
+        <f t="shared" si="4"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="5"/>
+        <v>16238.209235729999</v>
+      </c>
+      <c r="K172" s="2">
+        <v>145</v>
+      </c>
+      <c r="L172" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M172" s="2">
+        <v>5338.2092357299989</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>176</v>
       </c>
@@ -4633,8 +7773,25 @@
       <c r="F173">
         <v>599900</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G173">
+        <f t="shared" si="4"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="5"/>
+        <v>16238.209235729999</v>
+      </c>
+      <c r="K173" s="2">
+        <v>146</v>
+      </c>
+      <c r="L173" s="2">
+        <v>828865.41096502519</v>
+      </c>
+      <c r="M173" s="2">
+        <v>-239865.41096502519</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>177</v>
       </c>
@@ -4653,8 +7810,25 @@
       <c r="F174">
         <v>599999</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G174">
+        <f t="shared" si="4"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="5"/>
+        <v>4528.5383180604549</v>
+      </c>
+      <c r="K174" s="2">
+        <v>147</v>
+      </c>
+      <c r="L174" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M174" s="2">
+        <v>-6470.4616819395451</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>178</v>
       </c>
@@ -4673,8 +7847,25 @@
       <c r="F175">
         <v>599999</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G175">
+        <f t="shared" si="4"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="5"/>
+        <v>4528.5383180604549</v>
+      </c>
+      <c r="K175" s="2">
+        <v>148</v>
+      </c>
+      <c r="L175" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M175" s="2">
+        <v>-5670.4616819395451</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>179</v>
       </c>
@@ -4693,8 +7884,25 @@
       <c r="F176">
         <v>600000</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G176">
+        <f t="shared" si="4"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="5"/>
+        <v>4529.5383180604549</v>
+      </c>
+      <c r="K176" s="2">
+        <v>149</v>
+      </c>
+      <c r="L176" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M176" s="2">
+        <v>6238.2092357299989</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>180</v>
       </c>
@@ -4713,8 +7921,25 @@
       <c r="F177">
         <v>606000</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177">
+        <f t="shared" si="4"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="5"/>
+        <v>22338.209235729999</v>
+      </c>
+      <c r="K177" s="2">
+        <v>150</v>
+      </c>
+      <c r="L177" s="2">
+        <v>607279.13259960921</v>
+      </c>
+      <c r="M177" s="2">
+        <v>-17379.132599609205</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>181</v>
       </c>
@@ -4733,8 +7958,25 @@
       <c r="F178">
         <v>612000</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G178">
+        <f t="shared" si="4"/>
+        <v>702022.74867517385</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="5"/>
+        <v>90022.748675173847</v>
+      </c>
+      <c r="K178" s="2">
+        <v>151</v>
+      </c>
+      <c r="L178" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M178" s="2">
+        <v>-5570.4616819395451</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>182</v>
       </c>
@@ -4753,8 +7995,25 @@
       <c r="F179">
         <v>615000</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G179">
+        <f t="shared" si="4"/>
+        <v>713831.41959284339</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="5"/>
+        <v>98831.419592843391</v>
+      </c>
+      <c r="K179" s="2">
+        <v>152</v>
+      </c>
+      <c r="L179" s="2">
+        <v>713831.41959284339</v>
+      </c>
+      <c r="M179" s="2">
+        <v>-123831.41959284339</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>183</v>
       </c>
@@ -4773,8 +8032,25 @@
       <c r="F180">
         <v>615000</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G180">
+        <f t="shared" si="4"/>
+        <v>477109.50377103558</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="5"/>
+        <v>137890.49622896442</v>
+      </c>
+      <c r="K180" s="2">
+        <v>153</v>
+      </c>
+      <c r="L180" s="2">
+        <v>702022.74867517385</v>
+      </c>
+      <c r="M180" s="2">
+        <v>-105522.74867517385</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>184</v>
       </c>
@@ -4793,8 +8069,25 @@
       <c r="F181">
         <v>619000</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G181">
+        <f t="shared" si="4"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="5"/>
+        <v>23529.538318060455</v>
+      </c>
+      <c r="K181" s="2">
+        <v>154</v>
+      </c>
+      <c r="L181" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M181" s="2">
+        <v>15226.209235729999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>185</v>
       </c>
@@ -4813,8 +8106,25 @@
       <c r="F182">
         <v>619000</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G182">
+        <f t="shared" si="4"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="5"/>
+        <v>35338.209235729999</v>
+      </c>
+      <c r="K182" s="2">
+        <v>155</v>
+      </c>
+      <c r="L182" s="2">
+        <v>702022.74867517385</v>
+      </c>
+      <c r="M182" s="2">
+        <v>-103122.74867517385</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>186</v>
       </c>
@@ -4833,8 +8143,25 @@
       <c r="F183">
         <v>619900</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G183">
+        <f t="shared" si="4"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="5"/>
+        <v>36238.209235729999</v>
+      </c>
+      <c r="K183" s="2">
+        <v>156</v>
+      </c>
+      <c r="L183" s="2">
+        <v>801308.60121187312</v>
+      </c>
+      <c r="M183" s="2">
+        <v>-202308.60121187312</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>187</v>
       </c>
@@ -4853,8 +8180,25 @@
       <c r="F184">
         <v>619900</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G184">
+        <f t="shared" si="4"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="5"/>
+        <v>36238.209235729999</v>
+      </c>
+      <c r="K184" s="2">
+        <v>157</v>
+      </c>
+      <c r="L184" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M184" s="2">
+        <v>15338.209235729999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>188</v>
       </c>
@@ -4873,8 +8217,25 @@
       <c r="F185">
         <v>619900</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G185">
+        <f t="shared" si="4"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="5"/>
+        <v>36238.209235729999</v>
+      </c>
+      <c r="K185" s="2">
+        <v>158</v>
+      </c>
+      <c r="L185" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M185" s="2">
+        <v>3529.5383180604549</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>189</v>
       </c>
@@ -4893,8 +8254,25 @@
       <c r="F186">
         <v>620000</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G186">
+        <f t="shared" si="4"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H186">
+        <f t="shared" si="5"/>
+        <v>36338.209235729999</v>
+      </c>
+      <c r="K186" s="2">
+        <v>159</v>
+      </c>
+      <c r="L186" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M186" s="2">
+        <v>15338.209235729999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>190</v>
       </c>
@@ -4913,8 +8291,25 @@
       <c r="F187">
         <v>620000</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G187">
+        <f t="shared" si="4"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="5"/>
+        <v>24529.538318060455</v>
+      </c>
+      <c r="K187" s="2">
+        <v>160</v>
+      </c>
+      <c r="L187" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M187" s="2">
+        <v>15338.209235729999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>191</v>
       </c>
@@ -4933,8 +8328,25 @@
       <c r="F188">
         <v>624999</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G188">
+        <f t="shared" si="4"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="5"/>
+        <v>29528.538318060455</v>
+      </c>
+      <c r="K188" s="2">
+        <v>161</v>
+      </c>
+      <c r="L188" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M188" s="2">
+        <v>15338.209235729999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>192</v>
       </c>
@@ -4953,8 +8365,25 @@
       <c r="F189">
         <v>625000</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G189">
+        <f t="shared" si="4"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="5"/>
+        <v>41338.209235729999</v>
+      </c>
+      <c r="K189" s="2">
+        <v>162</v>
+      </c>
+      <c r="L189" s="2">
+        <v>702022.74867517385</v>
+      </c>
+      <c r="M189" s="2">
+        <v>-102122.74867517385</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>193</v>
       </c>
@@ -4973,8 +8402,25 @@
       <c r="F190">
         <v>629000</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G190">
+        <f t="shared" si="4"/>
+        <v>741388.22934599547</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="5"/>
+        <v>112388.22934599547</v>
+      </c>
+      <c r="K190" s="2">
+        <v>163</v>
+      </c>
+      <c r="L190" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M190" s="2">
+        <v>4429.5383180604549</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>194</v>
       </c>
@@ -4993,8 +8439,25 @@
       <c r="F191">
         <v>629900</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G191">
+        <f t="shared" si="4"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="5"/>
+        <v>34429.538318060455</v>
+      </c>
+      <c r="K191" s="2">
+        <v>164</v>
+      </c>
+      <c r="L191" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M191" s="2">
+        <v>4429.5383180604549</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>195</v>
       </c>
@@ -5013,8 +8476,25 @@
       <c r="F192">
         <v>629999</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G192">
+        <f t="shared" si="4"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H192">
+        <f t="shared" si="5"/>
+        <v>34528.538318060455</v>
+      </c>
+      <c r="K192" s="2">
+        <v>165</v>
+      </c>
+      <c r="L192" s="2">
+        <v>507993.28006290994</v>
+      </c>
+      <c r="M192" s="2">
+        <v>91906.719937090063</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>196</v>
       </c>
@@ -5033,8 +8513,25 @@
       <c r="F193">
         <v>632000</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G193">
+        <f t="shared" si="4"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H193">
+        <f t="shared" si="5"/>
+        <v>36529.538318060455</v>
+      </c>
+      <c r="K193" s="2">
+        <v>166</v>
+      </c>
+      <c r="L193" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M193" s="2">
+        <v>16238.209235729999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>197</v>
       </c>
@@ -5053,8 +8550,25 @@
       <c r="F194">
         <v>639000</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G194">
+        <f t="shared" si="4"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H194">
+        <f t="shared" si="5"/>
+        <v>43529.538318060455</v>
+      </c>
+      <c r="K194" s="2">
+        <v>167</v>
+      </c>
+      <c r="L194" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M194" s="2">
+        <v>16238.209235729999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>198</v>
       </c>
@@ -5073,8 +8587,25 @@
       <c r="F195">
         <v>639000</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G195">
+        <f t="shared" ref="G195:G256" si="6">$L$17+(B195*$L$18)+(C195*$L$19)+(D195*$L$20)+(E195*$L$21)</f>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H195">
+        <f t="shared" ref="H195:H256" si="7">ABS(F195-G195)</f>
+        <v>55338.209235729999</v>
+      </c>
+      <c r="K195" s="2">
+        <v>168</v>
+      </c>
+      <c r="L195" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M195" s="2">
+        <v>16238.209235729999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>199</v>
       </c>
@@ -5093,8 +8624,25 @@
       <c r="F196">
         <v>639999</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G196">
+        <f t="shared" si="6"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H196">
+        <f t="shared" si="7"/>
+        <v>44528.538318060455</v>
+      </c>
+      <c r="K196" s="2">
+        <v>169</v>
+      </c>
+      <c r="L196" s="2">
+        <v>713831.41959284339</v>
+      </c>
+      <c r="M196" s="2">
+        <v>-113931.41959284339</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>200</v>
       </c>
@@ -5113,8 +8661,25 @@
       <c r="F197">
         <v>645000</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G197">
+        <f t="shared" si="6"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H197">
+        <f t="shared" si="7"/>
+        <v>61338.209235729999</v>
+      </c>
+      <c r="K197" s="2">
+        <v>170</v>
+      </c>
+      <c r="L197" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M197" s="2">
+        <v>4429.5383180604549</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>201</v>
       </c>
@@ -5133,8 +8698,25 @@
       <c r="F198">
         <v>645000</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G198">
+        <f t="shared" si="6"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H198">
+        <f t="shared" si="7"/>
+        <v>61338.209235729999</v>
+      </c>
+      <c r="K198" s="2">
+        <v>171</v>
+      </c>
+      <c r="L198" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M198" s="2">
+        <v>16238.209235729999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>202</v>
       </c>
@@ -5153,8 +8735,25 @@
       <c r="F199">
         <v>649000</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G199">
+        <f t="shared" si="6"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H199">
+        <f t="shared" si="7"/>
+        <v>65338.209235729999</v>
+      </c>
+      <c r="K199" s="2">
+        <v>172</v>
+      </c>
+      <c r="L199" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M199" s="2">
+        <v>16238.209235729999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>203</v>
       </c>
@@ -5173,8 +8772,25 @@
       <c r="F200">
         <v>649900</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G200">
+        <f t="shared" si="6"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H200">
+        <f t="shared" si="7"/>
+        <v>66238.209235729999</v>
+      </c>
+      <c r="K200" s="2">
+        <v>173</v>
+      </c>
+      <c r="L200" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M200" s="2">
+        <v>4528.5383180604549</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>204</v>
       </c>
@@ -5193,8 +8809,25 @@
       <c r="F201">
         <v>649900</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G201">
+        <f t="shared" si="6"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H201">
+        <f t="shared" si="7"/>
+        <v>66238.209235729999</v>
+      </c>
+      <c r="K201" s="2">
+        <v>174</v>
+      </c>
+      <c r="L201" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M201" s="2">
+        <v>4528.5383180604549</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>205</v>
       </c>
@@ -5213,8 +8846,25 @@
       <c r="F202">
         <v>649900</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G202">
+        <f t="shared" si="6"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H202">
+        <f t="shared" si="7"/>
+        <v>66238.209235729999</v>
+      </c>
+      <c r="K202" s="2">
+        <v>175</v>
+      </c>
+      <c r="L202" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M202" s="2">
+        <v>4529.5383180604549</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>206</v>
       </c>
@@ -5233,8 +8883,25 @@
       <c r="F203">
         <v>649900</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G203">
+        <f t="shared" si="6"/>
+        <v>702022.74867517385</v>
+      </c>
+      <c r="H203">
+        <f t="shared" si="7"/>
+        <v>52122.748675173847</v>
+      </c>
+      <c r="K203" s="2">
+        <v>176</v>
+      </c>
+      <c r="L203" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M203" s="2">
+        <v>22338.209235729999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>207</v>
       </c>
@@ -5253,8 +8920,25 @@
       <c r="F204">
         <v>649999</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G204">
+        <f t="shared" si="6"/>
+        <v>595470.46168193955</v>
+      </c>
+      <c r="H204">
+        <f t="shared" si="7"/>
+        <v>54528.538318060455</v>
+      </c>
+      <c r="K204" s="2">
+        <v>177</v>
+      </c>
+      <c r="L204" s="2">
+        <v>702022.74867517385</v>
+      </c>
+      <c r="M204" s="2">
+        <v>-90022.748675173847</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>208</v>
       </c>
@@ -5273,8 +8957,25 @@
       <c r="F205">
         <v>650000</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G205">
+        <f t="shared" si="6"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H205">
+        <f t="shared" si="7"/>
+        <v>66338.209235729999</v>
+      </c>
+      <c r="K205" s="2">
+        <v>178</v>
+      </c>
+      <c r="L205" s="2">
+        <v>713831.41959284339</v>
+      </c>
+      <c r="M205" s="2">
+        <v>-98831.419592843391</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>209</v>
       </c>
@@ -5293,8 +8994,25 @@
       <c r="F206">
         <v>650000</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G206">
+        <f t="shared" si="6"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H206">
+        <f t="shared" si="7"/>
+        <v>66338.209235729999</v>
+      </c>
+      <c r="K206" s="2">
+        <v>179</v>
+      </c>
+      <c r="L206" s="2">
+        <v>477109.50377103558</v>
+      </c>
+      <c r="M206" s="2">
+        <v>137890.49622896442</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>210</v>
       </c>
@@ -5313,8 +9031,25 @@
       <c r="F207">
         <v>670000</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G207">
+        <f t="shared" si="6"/>
+        <v>713831.41959284339</v>
+      </c>
+      <c r="H207">
+        <f t="shared" si="7"/>
+        <v>43831.419592843391</v>
+      </c>
+      <c r="K207" s="2">
+        <v>180</v>
+      </c>
+      <c r="L207" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M207" s="2">
+        <v>23529.538318060455</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>211</v>
       </c>
@@ -5333,8 +9068,25 @@
       <c r="F208">
         <v>673900</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G208">
+        <f t="shared" si="6"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H208">
+        <f t="shared" si="7"/>
+        <v>90238.209235729999</v>
+      </c>
+      <c r="K208" s="2">
+        <v>181</v>
+      </c>
+      <c r="L208" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M208" s="2">
+        <v>35338.209235729999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>212</v>
       </c>
@@ -5353,8 +9105,25 @@
       <c r="F209">
         <v>674900</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G209">
+        <f t="shared" si="6"/>
+        <v>1034703.5504949589</v>
+      </c>
+      <c r="H209">
+        <f t="shared" si="7"/>
+        <v>359803.55049495888</v>
+      </c>
+      <c r="K209" s="2">
+        <v>182</v>
+      </c>
+      <c r="L209" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M209" s="2">
+        <v>36238.209235729999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>213</v>
       </c>
@@ -5373,8 +9142,25 @@
       <c r="F210">
         <v>679000</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G210">
+        <f t="shared" si="6"/>
+        <v>1022894.8795772891</v>
+      </c>
+      <c r="H210">
+        <f t="shared" si="7"/>
+        <v>343894.8795772891</v>
+      </c>
+      <c r="K210" s="2">
+        <v>183</v>
+      </c>
+      <c r="L210" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M210" s="2">
+        <v>36238.209235729999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>214</v>
       </c>
@@ -5393,8 +9179,25 @@
       <c r="F211">
         <v>679900</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G211">
+        <f t="shared" si="6"/>
+        <v>935417.69795825938</v>
+      </c>
+      <c r="H211">
+        <f t="shared" si="7"/>
+        <v>255517.69795825938</v>
+      </c>
+      <c r="K211" s="2">
+        <v>184</v>
+      </c>
+      <c r="L211" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M211" s="2">
+        <v>36238.209235729999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>215</v>
       </c>
@@ -5413,8 +9216,25 @@
       <c r="F212">
         <v>685000</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G212">
+        <f t="shared" si="6"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H212">
+        <f t="shared" si="7"/>
+        <v>101338.20923573</v>
+      </c>
+      <c r="K212" s="2">
+        <v>185</v>
+      </c>
+      <c r="L212" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M212" s="2">
+        <v>36338.209235729999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>216</v>
       </c>
@@ -5433,8 +9253,25 @@
       <c r="F213">
         <v>689000</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G213">
+        <f t="shared" si="6"/>
+        <v>828865.41096502519</v>
+      </c>
+      <c r="H213">
+        <f t="shared" si="7"/>
+        <v>139865.41096502519</v>
+      </c>
+      <c r="K213" s="2">
+        <v>186</v>
+      </c>
+      <c r="L213" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M213" s="2">
+        <v>24529.538318060455</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>217</v>
       </c>
@@ -5453,8 +9290,25 @@
       <c r="F214">
         <v>689900</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G214">
+        <f t="shared" si="6"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H214">
+        <f t="shared" si="7"/>
+        <v>106238.20923573</v>
+      </c>
+      <c r="K214" s="2">
+        <v>187</v>
+      </c>
+      <c r="L214" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M214" s="2">
+        <v>29528.538318060455</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>218</v>
       </c>
@@ -5473,8 +9327,25 @@
       <c r="F215">
         <v>695000</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G215">
+        <f t="shared" si="6"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H215">
+        <f t="shared" si="7"/>
+        <v>111338.20923573</v>
+      </c>
+      <c r="K215" s="2">
+        <v>188</v>
+      </c>
+      <c r="L215" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M215" s="2">
+        <v>41338.209235729999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>219</v>
       </c>
@@ -5493,8 +9364,25 @@
       <c r="F216">
         <v>699000</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G216">
+        <f t="shared" si="6"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H216">
+        <f t="shared" si="7"/>
+        <v>115338.20923573</v>
+      </c>
+      <c r="K216" s="2">
+        <v>189</v>
+      </c>
+      <c r="L216" s="2">
+        <v>741388.22934599547</v>
+      </c>
+      <c r="M216" s="2">
+        <v>-112388.22934599547</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>220</v>
       </c>
@@ -5513,8 +9401,25 @@
       <c r="F217">
         <v>699000</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G217">
+        <f t="shared" si="6"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H217">
+        <f t="shared" si="7"/>
+        <v>115338.20923573</v>
+      </c>
+      <c r="K217" s="2">
+        <v>190</v>
+      </c>
+      <c r="L217" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M217" s="2">
+        <v>34429.538318060455</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>221</v>
       </c>
@@ -5533,8 +9438,25 @@
       <c r="F218">
         <v>699000</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G218">
+        <f t="shared" si="6"/>
+        <v>859749.18725689943</v>
+      </c>
+      <c r="H218">
+        <f t="shared" si="7"/>
+        <v>160749.18725689943</v>
+      </c>
+      <c r="K218" s="2">
+        <v>191</v>
+      </c>
+      <c r="L218" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M218" s="2">
+        <v>34528.538318060455</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>222</v>
       </c>
@@ -5553,8 +9475,25 @@
       <c r="F219">
         <v>699000</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G219">
+        <f t="shared" si="6"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H219">
+        <f t="shared" si="7"/>
+        <v>115338.20923573</v>
+      </c>
+      <c r="K219" s="2">
+        <v>192</v>
+      </c>
+      <c r="L219" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M219" s="2">
+        <v>36529.538318060455</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>223</v>
       </c>
@@ -5573,8 +9512,25 @@
       <c r="F220">
         <v>699900</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G220">
+        <f t="shared" si="6"/>
+        <v>690214.0777575043</v>
+      </c>
+      <c r="H220">
+        <f t="shared" si="7"/>
+        <v>9685.922242495697</v>
+      </c>
+      <c r="K220" s="2">
+        <v>193</v>
+      </c>
+      <c r="L220" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M220" s="2">
+        <v>43529.538318060455</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>224</v>
       </c>
@@ -5593,8 +9549,25 @@
       <c r="F221">
         <v>699900</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G221">
+        <f t="shared" si="6"/>
+        <v>713831.41959284339</v>
+      </c>
+      <c r="H221">
+        <f t="shared" si="7"/>
+        <v>13931.419592843391</v>
+      </c>
+      <c r="K221" s="2">
+        <v>194</v>
+      </c>
+      <c r="L221" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M221" s="2">
+        <v>55338.209235729999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>225</v>
       </c>
@@ -5613,8 +9586,25 @@
       <c r="F222">
         <v>699900</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G222">
+        <f t="shared" si="6"/>
+        <v>947226.36887592915</v>
+      </c>
+      <c r="H222">
+        <f t="shared" si="7"/>
+        <v>247326.36887592915</v>
+      </c>
+      <c r="K222" s="2">
+        <v>195</v>
+      </c>
+      <c r="L222" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M222" s="2">
+        <v>44528.538318060455</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>226</v>
       </c>
@@ -5633,8 +9623,25 @@
       <c r="F223">
         <v>710000</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G223">
+        <f t="shared" si="6"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H223">
+        <f t="shared" si="7"/>
+        <v>126338.20923573</v>
+      </c>
+      <c r="K223" s="2">
+        <v>196</v>
+      </c>
+      <c r="L223" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M223" s="2">
+        <v>61338.209235729999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>227</v>
       </c>
@@ -5653,8 +9660,25 @@
       <c r="F224">
         <v>739000</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G224">
+        <f t="shared" si="6"/>
+        <v>465300.83285336604</v>
+      </c>
+      <c r="H224">
+        <f t="shared" si="7"/>
+        <v>273699.16714663396</v>
+      </c>
+      <c r="K224" s="2">
+        <v>197</v>
+      </c>
+      <c r="L224" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M224" s="2">
+        <v>61338.209235729999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>228</v>
       </c>
@@ -5673,8 +9697,25 @@
       <c r="F225">
         <v>775000</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G225">
+        <f t="shared" si="6"/>
+        <v>623027.2714350915</v>
+      </c>
+      <c r="H225">
+        <f t="shared" si="7"/>
+        <v>151972.7285649085</v>
+      </c>
+      <c r="K225" s="2">
+        <v>198</v>
+      </c>
+      <c r="L225" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M225" s="2">
+        <v>65338.209235729999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>229</v>
       </c>
@@ -5693,8 +9734,25 @@
       <c r="F226">
         <v>789000</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G226">
+        <f t="shared" si="6"/>
+        <v>583661.79076427</v>
+      </c>
+      <c r="H226">
+        <f t="shared" si="7"/>
+        <v>205338.20923573</v>
+      </c>
+      <c r="K226" s="2">
+        <v>199</v>
+      </c>
+      <c r="L226" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M226" s="2">
+        <v>66238.209235729999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>230</v>
       </c>
@@ -5713,8 +9771,25 @@
       <c r="F227">
         <v>796800</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G227">
+        <f t="shared" si="6"/>
+        <v>935417.69795825938</v>
+      </c>
+      <c r="H227">
+        <f t="shared" si="7"/>
+        <v>138617.69795825938</v>
+      </c>
+      <c r="K227" s="2">
+        <v>200</v>
+      </c>
+      <c r="L227" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M227" s="2">
+        <v>66238.209235729999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>231</v>
       </c>
@@ -5733,8 +9808,25 @@
       <c r="F228">
         <v>799000</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G228">
+        <f t="shared" si="6"/>
+        <v>713831.41959284339</v>
+      </c>
+      <c r="H228">
+        <f t="shared" si="7"/>
+        <v>85168.580407156609</v>
+      </c>
+      <c r="K228" s="2">
+        <v>201</v>
+      </c>
+      <c r="L228" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M228" s="2">
+        <v>66238.209235729999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>232</v>
       </c>
@@ -5753,8 +9845,25 @@
       <c r="F229">
         <v>799900</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G229">
+        <f t="shared" si="6"/>
+        <v>623027.2714350915</v>
+      </c>
+      <c r="H229">
+        <f t="shared" si="7"/>
+        <v>176872.7285649085</v>
+      </c>
+      <c r="K229" s="2">
+        <v>202</v>
+      </c>
+      <c r="L229" s="2">
+        <v>702022.74867517385</v>
+      </c>
+      <c r="M229" s="2">
+        <v>-52122.748675173847</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>233</v>
       </c>
@@ -5773,8 +9882,25 @@
       <c r="F230">
         <v>819900</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G230">
+        <f t="shared" si="6"/>
+        <v>840674.08188269474</v>
+      </c>
+      <c r="H230">
+        <f t="shared" si="7"/>
+        <v>20774.081882694736</v>
+      </c>
+      <c r="K230" s="2">
+        <v>203</v>
+      </c>
+      <c r="L230" s="2">
+        <v>595470.46168193955</v>
+      </c>
+      <c r="M230" s="2">
+        <v>54528.538318060455</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>234</v>
       </c>
@@ -5793,8 +9919,25 @@
       <c r="F231">
         <v>849999</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G231">
+        <f t="shared" si="6"/>
+        <v>702022.74867517385</v>
+      </c>
+      <c r="H231">
+        <f t="shared" si="7"/>
+        <v>147976.25132482615</v>
+      </c>
+      <c r="K231" s="2">
+        <v>204</v>
+      </c>
+      <c r="L231" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M231" s="2">
+        <v>66338.209235729999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>235</v>
       </c>
@@ -5813,8 +9956,25 @@
       <c r="F232">
         <v>880000</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G232">
+        <f t="shared" si="6"/>
+        <v>947226.36887592915</v>
+      </c>
+      <c r="H232">
+        <f t="shared" si="7"/>
+        <v>67226.368875929154</v>
+      </c>
+      <c r="K232" s="2">
+        <v>205</v>
+      </c>
+      <c r="L232" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M232" s="2">
+        <v>66338.209235729999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>236</v>
       </c>
@@ -5833,8 +9993,25 @@
       <c r="F233">
         <v>899900</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G233">
+        <f t="shared" si="6"/>
+        <v>947226.36887592915</v>
+      </c>
+      <c r="H233">
+        <f t="shared" si="7"/>
+        <v>47326.368875929154</v>
+      </c>
+      <c r="K233" s="2">
+        <v>206</v>
+      </c>
+      <c r="L233" s="2">
+        <v>713831.41959284339</v>
+      </c>
+      <c r="M233" s="2">
+        <v>-43831.419592843391</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>237</v>
       </c>
@@ -5853,8 +10030,25 @@
       <c r="F234">
         <v>929000</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G234">
+        <f t="shared" si="6"/>
+        <v>1259616.795399097</v>
+      </c>
+      <c r="H234">
+        <f t="shared" si="7"/>
+        <v>330616.79539909703</v>
+      </c>
+      <c r="K234" s="2">
+        <v>207</v>
+      </c>
+      <c r="L234" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M234" s="2">
+        <v>90238.209235729999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>238</v>
       </c>
@@ -5873,8 +10067,25 @@
       <c r="F235">
         <v>939000</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G235">
+        <f t="shared" si="6"/>
+        <v>1183948.2846977371</v>
+      </c>
+      <c r="H235">
+        <f t="shared" si="7"/>
+        <v>244948.28469773708</v>
+      </c>
+      <c r="K235" s="2">
+        <v>208</v>
+      </c>
+      <c r="L235" s="2">
+        <v>1034703.5504949589</v>
+      </c>
+      <c r="M235" s="2">
+        <v>-359803.55049495888</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>239</v>
       </c>
@@ -5893,8 +10104,25 @@
       <c r="F236">
         <v>948800</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G236">
+        <f t="shared" si="6"/>
+        <v>907860.88820510753</v>
+      </c>
+      <c r="H236">
+        <f t="shared" si="7"/>
+        <v>40939.111794892466</v>
+      </c>
+      <c r="K236" s="2">
+        <v>209</v>
+      </c>
+      <c r="L236" s="2">
+        <v>1022894.8795772891</v>
+      </c>
+      <c r="M236" s="2">
+        <v>-343894.8795772891</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>240</v>
       </c>
@@ -5913,8 +10141,25 @@
       <c r="F237">
         <v>949900</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G237">
+        <f t="shared" si="6"/>
+        <v>1117638.495652854</v>
+      </c>
+      <c r="H237">
+        <f t="shared" si="7"/>
+        <v>167738.49565285398</v>
+      </c>
+      <c r="K237" s="2">
+        <v>210</v>
+      </c>
+      <c r="L237" s="2">
+        <v>935417.69795825938</v>
+      </c>
+      <c r="M237" s="2">
+        <v>-255517.69795825938</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>241</v>
       </c>
@@ -5933,8 +10178,25 @@
       <c r="F238">
         <v>999000</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G238">
+        <f t="shared" si="6"/>
+        <v>1172139.6137800673</v>
+      </c>
+      <c r="H238">
+        <f t="shared" si="7"/>
+        <v>173139.6137800673</v>
+      </c>
+      <c r="K238" s="2">
+        <v>211</v>
+      </c>
+      <c r="L238" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M238" s="2">
+        <v>101338.20923573</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>242</v>
       </c>
@@ -5953,8 +10215,25 @@
       <c r="F239">
         <v>1098000</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G239">
+        <f t="shared" si="6"/>
+        <v>1290500.5716909713</v>
+      </c>
+      <c r="H239">
+        <f t="shared" si="7"/>
+        <v>192500.57169097126</v>
+      </c>
+      <c r="K239" s="2">
+        <v>212</v>
+      </c>
+      <c r="L239" s="2">
+        <v>828865.41096502519</v>
+      </c>
+      <c r="M239" s="2">
+        <v>-139865.41096502519</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>243</v>
       </c>
@@ -5973,8 +10252,25 @@
       <c r="F240">
         <v>1099000</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G240">
+        <f t="shared" si="6"/>
+        <v>1030161.3140338241</v>
+      </c>
+      <c r="H240">
+        <f t="shared" si="7"/>
+        <v>68838.685966175864</v>
+      </c>
+      <c r="K240" s="2">
+        <v>213</v>
+      </c>
+      <c r="L240" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M240" s="2">
+        <v>106238.20923573</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>244</v>
       </c>
@@ -5993,8 +10289,25 @@
       <c r="F241">
         <v>1199900</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G241">
+        <f t="shared" si="6"/>
+        <v>1259616.795399097</v>
+      </c>
+      <c r="H241">
+        <f t="shared" si="7"/>
+        <v>59716.795399097027</v>
+      </c>
+      <c r="K241" s="2">
+        <v>214</v>
+      </c>
+      <c r="L241" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M241" s="2">
+        <v>111338.20923573</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>245</v>
       </c>
@@ -6013,8 +10326,25 @@
       <c r="F242">
         <v>1200000</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G242">
+        <f t="shared" si="6"/>
+        <v>1711535.5724073155</v>
+      </c>
+      <c r="H242">
+        <f t="shared" si="7"/>
+        <v>511535.57240731549</v>
+      </c>
+      <c r="K242" s="2">
+        <v>215</v>
+      </c>
+      <c r="L242" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M242" s="2">
+        <v>115338.20923573</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>246</v>
       </c>
@@ -6033,8 +10363,25 @@
       <c r="F243">
         <v>1329786</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G243">
+        <f t="shared" si="6"/>
+        <v>1377977.753310001</v>
+      </c>
+      <c r="H243">
+        <f t="shared" si="7"/>
+        <v>48191.75331000099</v>
+      </c>
+      <c r="K243" s="2">
+        <v>216</v>
+      </c>
+      <c r="L243" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M243" s="2">
+        <v>115338.20923573</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>247</v>
       </c>
@@ -6053,8 +10400,25 @@
       <c r="F244">
         <v>1349900</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G244">
+        <f t="shared" si="6"/>
+        <v>1259616.795399097</v>
+      </c>
+      <c r="H244">
+        <f t="shared" si="7"/>
+        <v>90283.204600902973</v>
+      </c>
+      <c r="K244" s="2">
+        <v>217</v>
+      </c>
+      <c r="L244" s="2">
+        <v>859749.18725689943</v>
+      </c>
+      <c r="M244" s="2">
+        <v>-160749.18725689943</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>248</v>
       </c>
@@ -6073,8 +10437,25 @@
       <c r="F245">
         <v>1399900</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G245">
+        <f t="shared" si="6"/>
+        <v>1472721.3693855656</v>
+      </c>
+      <c r="H245">
+        <f t="shared" si="7"/>
+        <v>72821.369385565631</v>
+      </c>
+      <c r="K245" s="2">
+        <v>218</v>
+      </c>
+      <c r="L245" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M245" s="2">
+        <v>115338.20923573</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>249</v>
       </c>
@@ -6093,8 +10474,25 @@
       <c r="F246">
         <v>1429900</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G246">
+        <f t="shared" si="6"/>
+        <v>1496338.7112209047</v>
+      </c>
+      <c r="H246">
+        <f t="shared" si="7"/>
+        <v>66438.711220904719</v>
+      </c>
+      <c r="K246" s="2">
+        <v>219</v>
+      </c>
+      <c r="L246" s="2">
+        <v>690214.0777575043</v>
+      </c>
+      <c r="M246" s="2">
+        <v>9685.922242495697</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>250</v>
       </c>
@@ -6113,8 +10511,25 @@
       <c r="F247">
         <v>1499800</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G247">
+        <f t="shared" si="6"/>
+        <v>1491796.4747597703</v>
+      </c>
+      <c r="H247">
+        <f t="shared" si="7"/>
+        <v>8003.5252402296755</v>
+      </c>
+      <c r="K247" s="2">
+        <v>220</v>
+      </c>
+      <c r="L247" s="2">
+        <v>713831.41959284339</v>
+      </c>
+      <c r="M247" s="2">
+        <v>-13931.419592843391</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>251</v>
       </c>
@@ -6133,8 +10548,25 @@
       <c r="F248">
         <v>1549990</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G248">
+        <f t="shared" si="6"/>
+        <v>907860.88820510753</v>
+      </c>
+      <c r="H248">
+        <f t="shared" si="7"/>
+        <v>642129.11179489247</v>
+      </c>
+      <c r="K248" s="2">
+        <v>221</v>
+      </c>
+      <c r="L248" s="2">
+        <v>947226.36887592915</v>
+      </c>
+      <c r="M248" s="2">
+        <v>-247326.36887592915</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>252</v>
       </c>
@@ -6153,8 +10585,25 @@
       <c r="F249">
         <v>1598000</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G249">
+        <f t="shared" si="6"/>
+        <v>1915281.4247373072</v>
+      </c>
+      <c r="H249">
+        <f t="shared" si="7"/>
+        <v>317281.42473730724</v>
+      </c>
+      <c r="K249" s="2">
+        <v>222</v>
+      </c>
+      <c r="L249" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M249" s="2">
+        <v>126338.20923573</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>253</v>
       </c>
@@ -6173,8 +10622,25 @@
       <c r="F250">
         <v>1699999</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G250">
+        <f t="shared" si="6"/>
+        <v>1422762.4877194869</v>
+      </c>
+      <c r="H250">
+        <f t="shared" si="7"/>
+        <v>277236.51228051307</v>
+      </c>
+      <c r="K250" s="2">
+        <v>223</v>
+      </c>
+      <c r="L250" s="2">
+        <v>465300.83285336604</v>
+      </c>
+      <c r="M250" s="2">
+        <v>273699.16714663396</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>254</v>
       </c>
@@ -6193,8 +10659,25 @@
       <c r="F251">
         <v>1785800</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G251">
+        <f t="shared" si="6"/>
+        <v>2386632.9691809807</v>
+      </c>
+      <c r="H251">
+        <f t="shared" si="7"/>
+        <v>600832.9691809807</v>
+      </c>
+      <c r="K251" s="2">
+        <v>224</v>
+      </c>
+      <c r="L251" s="2">
+        <v>623027.2714350915</v>
+      </c>
+      <c r="M251" s="2">
+        <v>151972.7285649085</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>255</v>
       </c>
@@ -6213,8 +10696,25 @@
       <c r="F252">
         <v>2099900</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G252">
+        <f t="shared" si="6"/>
+        <v>547358.76073373144</v>
+      </c>
+      <c r="H252">
+        <f t="shared" si="7"/>
+        <v>1552541.2392662684</v>
+      </c>
+      <c r="K252" s="2">
+        <v>225</v>
+      </c>
+      <c r="L252" s="2">
+        <v>583661.79076427</v>
+      </c>
+      <c r="M252" s="2">
+        <v>205338.20923573</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>256</v>
       </c>
@@ -6233,8 +10733,25 @@
       <c r="F253">
         <v>2299900</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G253">
+        <f t="shared" si="6"/>
+        <v>983529.3989064676</v>
+      </c>
+      <c r="H253">
+        <f t="shared" si="7"/>
+        <v>1316370.6010935325</v>
+      </c>
+      <c r="K253" s="2">
+        <v>226</v>
+      </c>
+      <c r="L253" s="2">
+        <v>935417.69795825938</v>
+      </c>
+      <c r="M253" s="2">
+        <v>-138617.69795825938</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>257</v>
       </c>
@@ -6253,8 +10770,25 @@
       <c r="F254">
         <v>2345000</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G254">
+        <f t="shared" si="6"/>
+        <v>2530703.5561271659</v>
+      </c>
+      <c r="H254">
+        <f t="shared" si="7"/>
+        <v>185703.55612716591</v>
+      </c>
+      <c r="K254" s="2">
+        <v>227</v>
+      </c>
+      <c r="L254" s="2">
+        <v>713831.41959284339</v>
+      </c>
+      <c r="M254" s="2">
+        <v>85168.580407156609</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>258</v>
       </c>
@@ -6273,8 +10807,25 @@
       <c r="F255">
         <v>2988800</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G255">
+        <f t="shared" si="6"/>
+        <v>1572007.2219222649</v>
+      </c>
+      <c r="H255">
+        <f t="shared" si="7"/>
+        <v>1416792.7780777351</v>
+      </c>
+      <c r="K255" s="2">
+        <v>228</v>
+      </c>
+      <c r="L255" s="2">
+        <v>623027.2714350915</v>
+      </c>
+      <c r="M255" s="2">
+        <v>176872.7285649085</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>259</v>
       </c>
@@ -6293,9 +10844,312 @@
       <c r="F256">
         <v>3999999</v>
       </c>
+      <c r="G256">
+        <f t="shared" si="6"/>
+        <v>1645583.4454236832</v>
+      </c>
+      <c r="H256">
+        <f t="shared" si="7"/>
+        <v>2354415.5545763168</v>
+      </c>
+      <c r="K256" s="2">
+        <v>229</v>
+      </c>
+      <c r="L256" s="2">
+        <v>840674.08188269474</v>
+      </c>
+      <c r="M256" s="2">
+        <v>-20774.081882694736</v>
+      </c>
+    </row>
+    <row r="257" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K257" s="2">
+        <v>230</v>
+      </c>
+      <c r="L257" s="2">
+        <v>702022.74867517385</v>
+      </c>
+      <c r="M257" s="2">
+        <v>147976.25132482615</v>
+      </c>
+    </row>
+    <row r="258" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K258" s="2">
+        <v>231</v>
+      </c>
+      <c r="L258" s="2">
+        <v>947226.36887592915</v>
+      </c>
+      <c r="M258" s="2">
+        <v>-67226.368875929154</v>
+      </c>
+    </row>
+    <row r="259" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K259" s="2">
+        <v>232</v>
+      </c>
+      <c r="L259" s="2">
+        <v>947226.36887592915</v>
+      </c>
+      <c r="M259" s="2">
+        <v>-47326.368875929154</v>
+      </c>
+    </row>
+    <row r="260" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K260" s="2">
+        <v>233</v>
+      </c>
+      <c r="L260" s="2">
+        <v>1259616.795399097</v>
+      </c>
+      <c r="M260" s="2">
+        <v>-330616.79539909703</v>
+      </c>
+    </row>
+    <row r="261" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K261" s="2">
+        <v>234</v>
+      </c>
+      <c r="L261" s="2">
+        <v>1183948.2846977371</v>
+      </c>
+      <c r="M261" s="2">
+        <v>-244948.28469773708</v>
+      </c>
+    </row>
+    <row r="262" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K262" s="2">
+        <v>235</v>
+      </c>
+      <c r="L262" s="2">
+        <v>907860.88820510753</v>
+      </c>
+      <c r="M262" s="2">
+        <v>40939.111794892466</v>
+      </c>
+    </row>
+    <row r="263" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K263" s="2">
+        <v>236</v>
+      </c>
+      <c r="L263" s="2">
+        <v>1117638.495652854</v>
+      </c>
+      <c r="M263" s="2">
+        <v>-167738.49565285398</v>
+      </c>
+    </row>
+    <row r="264" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K264" s="2">
+        <v>237</v>
+      </c>
+      <c r="L264" s="2">
+        <v>1172139.6137800673</v>
+      </c>
+      <c r="M264" s="2">
+        <v>-173139.6137800673</v>
+      </c>
+    </row>
+    <row r="265" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K265" s="2">
+        <v>238</v>
+      </c>
+      <c r="L265" s="2">
+        <v>1290500.5716909713</v>
+      </c>
+      <c r="M265" s="2">
+        <v>-192500.57169097126</v>
+      </c>
+    </row>
+    <row r="266" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K266" s="2">
+        <v>239</v>
+      </c>
+      <c r="L266" s="2">
+        <v>1030161.3140338241</v>
+      </c>
+      <c r="M266" s="2">
+        <v>68838.685966175864</v>
+      </c>
+    </row>
+    <row r="267" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K267" s="2">
+        <v>240</v>
+      </c>
+      <c r="L267" s="2">
+        <v>1259616.795399097</v>
+      </c>
+      <c r="M267" s="2">
+        <v>-59716.795399097027</v>
+      </c>
+    </row>
+    <row r="268" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K268" s="2">
+        <v>241</v>
+      </c>
+      <c r="L268" s="2">
+        <v>1711535.5724073155</v>
+      </c>
+      <c r="M268" s="2">
+        <v>-511535.57240731549</v>
+      </c>
+    </row>
+    <row r="269" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K269" s="2">
+        <v>242</v>
+      </c>
+      <c r="L269" s="2">
+        <v>1377977.753310001</v>
+      </c>
+      <c r="M269" s="2">
+        <v>-48191.75331000099</v>
+      </c>
+    </row>
+    <row r="270" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K270" s="2">
+        <v>243</v>
+      </c>
+      <c r="L270" s="2">
+        <v>1259616.795399097</v>
+      </c>
+      <c r="M270" s="2">
+        <v>90283.204600902973</v>
+      </c>
+    </row>
+    <row r="271" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K271" s="2">
+        <v>244</v>
+      </c>
+      <c r="L271" s="2">
+        <v>1472721.3693855656</v>
+      </c>
+      <c r="M271" s="2">
+        <v>-72821.369385565631</v>
+      </c>
+    </row>
+    <row r="272" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K272" s="2">
+        <v>245</v>
+      </c>
+      <c r="L272" s="2">
+        <v>1496338.7112209047</v>
+      </c>
+      <c r="M272" s="2">
+        <v>-66438.711220904719</v>
+      </c>
+    </row>
+    <row r="273" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K273" s="2">
+        <v>246</v>
+      </c>
+      <c r="L273" s="2">
+        <v>1491796.4747597703</v>
+      </c>
+      <c r="M273" s="2">
+        <v>8003.5252402296755</v>
+      </c>
+    </row>
+    <row r="274" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K274" s="2">
+        <v>247</v>
+      </c>
+      <c r="L274" s="2">
+        <v>907860.88820510753</v>
+      </c>
+      <c r="M274" s="2">
+        <v>642129.11179489247</v>
+      </c>
+    </row>
+    <row r="275" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K275" s="2">
+        <v>248</v>
+      </c>
+      <c r="L275" s="2">
+        <v>1915281.4247373072</v>
+      </c>
+      <c r="M275" s="2">
+        <v>-317281.42473730724</v>
+      </c>
+    </row>
+    <row r="276" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K276" s="2">
+        <v>249</v>
+      </c>
+      <c r="L276" s="2">
+        <v>1422762.4877194869</v>
+      </c>
+      <c r="M276" s="2">
+        <v>277236.51228051307</v>
+      </c>
+    </row>
+    <row r="277" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K277" s="2">
+        <v>250</v>
+      </c>
+      <c r="L277" s="2">
+        <v>2386632.9691809807</v>
+      </c>
+      <c r="M277" s="2">
+        <v>-600832.9691809807</v>
+      </c>
+    </row>
+    <row r="278" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K278" s="2">
+        <v>251</v>
+      </c>
+      <c r="L278" s="2">
+        <v>547358.76073373144</v>
+      </c>
+      <c r="M278" s="2">
+        <v>1552541.2392662684</v>
+      </c>
+    </row>
+    <row r="279" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K279" s="2">
+        <v>252</v>
+      </c>
+      <c r="L279" s="2">
+        <v>983529.3989064676</v>
+      </c>
+      <c r="M279" s="2">
+        <v>1316370.6010935325</v>
+      </c>
+    </row>
+    <row r="280" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K280" s="2">
+        <v>253</v>
+      </c>
+      <c r="L280" s="2">
+        <v>2530703.5561271659</v>
+      </c>
+      <c r="M280" s="2">
+        <v>-185703.55612716591</v>
+      </c>
+    </row>
+    <row r="281" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K281" s="2">
+        <v>254</v>
+      </c>
+      <c r="L281" s="2">
+        <v>1572007.2219222649</v>
+      </c>
+      <c r="M281" s="2">
+        <v>1416792.7780777351</v>
+      </c>
+    </row>
+    <row r="282" spans="11:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K282" s="3">
+        <v>255</v>
+      </c>
+      <c r="L282" s="3">
+        <v>1645583.4454236832</v>
+      </c>
+      <c r="M282" s="3">
+        <v>2354415.5545763168</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8E4310-CCFD-4407-AC49-E7FF6A01D65C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD99D7D-C9C5-4A0C-B2E9-F8673D8B38A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="1383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="1404">
   <si>
     <t>Address</t>
   </si>
@@ -23,6 +23,9 @@
     <t>Price</t>
   </si>
   <si>
+    <t>Total Size</t>
+  </si>
+  <si>
     <t>#2501 -80 ABSOLUTE AVE|Mississauga, Ontario L4Z0A5</t>
   </si>
   <si>
@@ -1898,6 +1901,9 @@
     <t>3939 DUKE OF YORK Boulevard Unit# 905|Mississauga, Ontario L5B4N2</t>
   </si>
   <si>
+    <t>under 1/2 acre</t>
+  </si>
+  <si>
     <t>20' x 23'</t>
   </si>
   <si>
@@ -2396,6 +2402,9 @@
     <t>3304 3939 DUKE OF YORK Boulevard|Mississauga, Ontario L5B4N2</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>6' 0'' x 5' 0''</t>
   </si>
   <si>
@@ -3554,6 +3563,9 @@
     <t>374 LARA WOODS|Mississauga, Ontario L5A3A9</t>
   </si>
   <si>
+    <t>30 x 170 FT</t>
+  </si>
+  <si>
     <t>6.6 m x 3.8 m</t>
   </si>
   <si>
@@ -3623,6 +3635,9 @@
     <t>4324 BEACON LANE|Mississauga, Ontario L5C3V9</t>
   </si>
   <si>
+    <t>50.92 x 147.81 FT</t>
+  </si>
+  <si>
     <t>4.63 m x 4.11 m</t>
   </si>
   <si>
@@ -3650,6 +3665,9 @@
     <t>3094 SALMONA CRT|Mississauga, Ontario L5B4G3</t>
   </si>
   <si>
+    <t>23.31 x 91.92 FT</t>
+  </si>
+  <si>
     <t>6.7 m x 3.65 m</t>
   </si>
   <si>
@@ -3698,6 +3716,9 @@
     <t>4164 TEA GARDEN CIRC|Mississauga, Ontario L5B2W8</t>
   </si>
   <si>
+    <t>24.77 x 100.39 FT</t>
+  </si>
+  <si>
     <t>4.06 m x 3 m</t>
   </si>
   <si>
@@ -3725,6 +3746,9 @@
     <t>625 MINETTE CIRC|Mississauga, Ontario L5A3B9</t>
   </si>
   <si>
+    <t>50.32 x 120.17 FT</t>
+  </si>
+  <si>
     <t>3.73 m x 3.38 m</t>
   </si>
   <si>
@@ -3749,6 +3773,9 @@
     <t>417 LOLITA GDNS|Mississauga, Ontario L5A2A8</t>
   </si>
   <si>
+    <t>50 x 120 FT</t>
+  </si>
+  <si>
     <t>5.3 m x 2.96 m</t>
   </si>
   <si>
@@ -3788,6 +3815,9 @@
     <t>3488 PALGRAVE Road|Mississauga, Ontario L5B2H1</t>
   </si>
   <si>
+    <t>50 x 120|under 1/2 acre</t>
+  </si>
+  <si>
     <t>10' 7'' x 9' 4''</t>
   </si>
   <si>
@@ -3827,6 +3857,9 @@
     <t>3470 COPERNICUS DR|Mississauga, Ontario L5B3K5</t>
   </si>
   <si>
+    <t>37.63 x 136.32 FT</t>
+  </si>
+  <si>
     <t>5.31 m x 3.18 m</t>
   </si>
   <si>
@@ -3902,6 +3935,9 @@
     <t>966 SILVERSMITH DR|Mississauga, Ontario L5V1E7</t>
   </si>
   <si>
+    <t>45.93 x 120.01 FT</t>
+  </si>
+  <si>
     <t>5.12 m x 3.29 m</t>
   </si>
   <si>
@@ -3920,6 +3956,9 @@
     <t>171 WHITCHURCH MEWS|Mississauga, Ontario L5A4B2</t>
   </si>
   <si>
+    <t>60.89 x 99.44 FT</t>
+  </si>
+  <si>
     <t>5.18 m x 3.95 m</t>
   </si>
   <si>
@@ -3956,6 +3995,9 @@
     <t>3369 CAWTHRA RD|Mississauga, Ontario L5A2X8</t>
   </si>
   <si>
+    <t>50 x 150 FT</t>
+  </si>
+  <si>
     <t>4.23 m x 3.62 m</t>
   </si>
   <si>
@@ -3986,6 +4028,9 @@
     <t>429 SEARLES CRT|Mississauga, Ontario L5R2C6</t>
   </si>
   <si>
+    <t>39.14 x 135.2 FT</t>
+  </si>
+  <si>
     <t>6.34 m x 4.27 m</t>
   </si>
   <si>
@@ -4019,9 +4064,15 @@
     <t>4625 SANDFORD FARM DR|Mississauga, Ontario L5V0C1</t>
   </si>
   <si>
+    <t>46.1 x 105.91 FT</t>
+  </si>
+  <si>
     <t>3373 CAWTHRA RD|Mississauga, Ontario L5A2X8</t>
   </si>
   <si>
+    <t>75 x 150 FT</t>
+  </si>
+  <si>
     <t>3.3 m x 3.4 m</t>
   </si>
   <si>
@@ -4052,6 +4103,9 @@
     <t>3078 PARKERHILL RD|Mississauga, Ontario L5B1V5</t>
   </si>
   <si>
+    <t>96 x 299 FT</t>
+  </si>
+  <si>
     <t>3.55 m x 5.1 m</t>
   </si>
   <si>
@@ -4094,6 +4148,9 @@
     <t>3575 JOAN DR|Mississauga, Ontario L5B1T9</t>
   </si>
   <si>
+    <t>60 x 196.65 FT</t>
+  </si>
+  <si>
     <t>5.38 m x 3.99 m</t>
   </si>
   <si>
@@ -4133,6 +4190,9 @@
     <t>3122 GIVEN RD|Mississauga, Ontario L5A2N3</t>
   </si>
   <si>
+    <t>50 x 227.46 FT ; *Part 2 Plan 43R38949 City Of Mississaug</t>
+  </si>
+  <si>
     <t>6.1 m x 5.06 m</t>
   </si>
   <si>
@@ -4164,6 +4224,9 @@
   </si>
   <si>
     <t>2530 SHEPARD AVE|Mississauga, Ontario L5A2H6</t>
+  </si>
+  <si>
+    <t>71.12 x 184.67 FT</t>
   </si>
 </sst>
 </file>
@@ -4546,44 +4609,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S248"/>
+  <dimension ref="A1:T248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="66.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>504900</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
@@ -4599,19 +4663,19 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>505900</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -4628,19 +4692,19 @@
       <c r="I3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>508000</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -4648,19 +4712,19 @@
       <c r="F4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>508800</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -4669,24 +4733,24 @@
         <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>509000</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -4697,19 +4761,19 @@
       <c r="H6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>509000</v>
       </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
@@ -4717,19 +4781,19 @@
       <c r="F7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>509900</v>
       </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -4740,19 +4804,19 @@
       <c r="G8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>509900</v>
       </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
         <v>41</v>
@@ -4766,19 +4830,19 @@
       <c r="H9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>509900</v>
       </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
         <v>47</v>
@@ -4792,17 +4856,17 @@
       <c r="H10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>509990</v>
       </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
       <c r="D11" t="s">
         <v>53</v>
       </c>
@@ -4824,17 +4888,17 @@
       <c r="J11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12">
         <v>509990</v>
       </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
       <c r="D12" t="s">
         <v>62</v>
       </c>
@@ -4851,24 +4915,24 @@
         <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B13">
         <v>510000</v>
       </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
         <v>69</v>
@@ -4879,19 +4943,19 @@
       <c r="G13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14">
         <v>510000</v>
       </c>
-      <c r="C14" t="s">
-        <v>73</v>
-      </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
         <v>74</v>
@@ -4902,19 +4966,19 @@
       <c r="G14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B15">
         <v>513000</v>
       </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
         <v>79</v>
@@ -4925,19 +4989,19 @@
       <c r="G15" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16">
         <v>514900</v>
       </c>
-      <c r="C16" t="s">
-        <v>83</v>
-      </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
         <v>84</v>
@@ -4949,21 +5013,21 @@
         <v>86</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B17">
         <v>514900</v>
       </c>
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
         <v>89</v>
@@ -4980,17 +5044,17 @@
       <c r="I17" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B18">
         <v>515000</v>
       </c>
-      <c r="C18" t="s">
-        <v>95</v>
-      </c>
       <c r="D18" t="s">
         <v>96</v>
       </c>
@@ -5013,19 +5077,19 @@
         <v>102</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B19">
         <v>515000</v>
       </c>
-      <c r="C19" t="s">
-        <v>104</v>
-      </c>
       <c r="D19" t="s">
         <v>105</v>
       </c>
@@ -5044,17 +5108,17 @@
       <c r="I19" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B20">
         <v>515000</v>
       </c>
-      <c r="C20" t="s">
-        <v>112</v>
-      </c>
       <c r="D20" t="s">
         <v>113</v>
       </c>
@@ -5067,42 +5131,42 @@
       <c r="G20" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B21">
         <v>515000</v>
       </c>
-      <c r="C21" t="s">
-        <v>118</v>
-      </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22">
         <v>515000</v>
       </c>
-      <c r="C22" t="s">
-        <v>122</v>
-      </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
         <v>123</v>
@@ -5116,17 +5180,17 @@
       <c r="H22" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B23">
         <v>515900</v>
       </c>
-      <c r="C23" t="s">
-        <v>128</v>
-      </c>
       <c r="D23" t="s">
         <v>129</v>
       </c>
@@ -5143,27 +5207,27 @@
         <v>133</v>
       </c>
       <c r="I23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="J23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B24">
         <v>515900</v>
       </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
         <v>136</v>
@@ -5180,19 +5244,19 @@
       <c r="K24" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B25">
         <v>516000</v>
       </c>
-      <c r="C25" t="s">
-        <v>142</v>
-      </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E25" t="s">
         <v>143</v>
@@ -5204,22 +5268,22 @@
         <v>145</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="I25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B26">
         <v>518888</v>
       </c>
-      <c r="C26" t="s">
-        <v>147</v>
-      </c>
       <c r="D26" t="s">
         <v>148</v>
       </c>
@@ -5233,24 +5297,24 @@
         <v>151</v>
       </c>
       <c r="H26" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" t="s">
+        <v>152</v>
+      </c>
+      <c r="J26" t="s">
         <v>151</v>
       </c>
-      <c r="I26" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B27">
         <v>518888</v>
       </c>
-      <c r="C27" t="s">
-        <v>153</v>
-      </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E27" t="s">
         <v>154</v>
@@ -5262,19 +5326,19 @@
         <v>156</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B28">
         <v>518900</v>
       </c>
-      <c r="C28" t="s">
-        <v>158</v>
-      </c>
       <c r="D28" t="s">
         <v>159</v>
       </c>
@@ -5287,17 +5351,17 @@
       <c r="G28" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B29">
         <v>518995</v>
       </c>
-      <c r="C29" t="s">
-        <v>164</v>
-      </c>
       <c r="D29" t="s">
         <v>165</v>
       </c>
@@ -5316,17 +5380,17 @@
       <c r="I29" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B30">
         <v>519000</v>
       </c>
-      <c r="C30" t="s">
-        <v>172</v>
-      </c>
       <c r="D30" t="s">
         <v>173</v>
       </c>
@@ -5342,19 +5406,19 @@
       <c r="H30" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B31">
         <v>519000</v>
       </c>
-      <c r="C31" t="s">
-        <v>179</v>
-      </c>
       <c r="D31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E31" t="s">
         <v>180</v>
@@ -5365,19 +5429,19 @@
       <c r="G31" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B32">
         <v>519000</v>
       </c>
-      <c r="C32" t="s">
-        <v>184</v>
-      </c>
       <c r="D32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E32" t="s">
         <v>185</v>
@@ -5388,17 +5452,17 @@
       <c r="G32" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B33">
         <v>519700</v>
       </c>
-      <c r="C33" t="s">
-        <v>189</v>
-      </c>
       <c r="D33" t="s">
         <v>190</v>
       </c>
@@ -5414,19 +5478,19 @@
       <c r="H33" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B34">
         <v>519900</v>
       </c>
-      <c r="C34" t="s">
-        <v>196</v>
-      </c>
       <c r="D34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E34" t="s">
         <v>197</v>
@@ -5437,19 +5501,19 @@
       <c r="G34" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B35">
         <v>519900</v>
       </c>
-      <c r="C35" t="s">
-        <v>201</v>
-      </c>
       <c r="D35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E35" t="s">
         <v>202</v>
@@ -5460,17 +5524,17 @@
       <c r="G35" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B36">
         <v>519900</v>
       </c>
-      <c r="C36" t="s">
-        <v>206</v>
-      </c>
       <c r="D36" t="s">
         <v>207</v>
       </c>
@@ -5490,19 +5554,19 @@
         <v>212</v>
       </c>
       <c r="J36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+      <c r="K36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B37">
         <v>519900</v>
       </c>
-      <c r="C37" t="s">
-        <v>214</v>
-      </c>
       <c r="D37" t="s">
         <v>215</v>
       </c>
@@ -5518,17 +5582,17 @@
       <c r="H37" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B38">
         <v>519900</v>
       </c>
-      <c r="C38" t="s">
-        <v>221</v>
-      </c>
       <c r="D38" t="s">
         <v>222</v>
       </c>
@@ -5541,79 +5605,79 @@
       <c r="G38" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B39">
         <v>520000</v>
       </c>
-      <c r="C39" t="s">
-        <v>227</v>
-      </c>
       <c r="D39" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="F39" t="s">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B40">
         <v>520000</v>
       </c>
-      <c r="C40" t="s">
-        <v>231</v>
-      </c>
       <c r="D40" t="s">
         <v>232</v>
       </c>
       <c r="E40" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B41">
         <v>520000</v>
       </c>
-      <c r="C41" t="s">
-        <v>235</v>
-      </c>
       <c r="D41" t="s">
         <v>236</v>
       </c>
       <c r="E41" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F41" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+      <c r="G41" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B42">
         <v>520000</v>
       </c>
-      <c r="C42" t="s">
-        <v>239</v>
-      </c>
       <c r="D42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E42" t="s">
         <v>240</v>
@@ -5624,19 +5688,19 @@
       <c r="G42" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B43">
         <v>521999</v>
       </c>
-      <c r="C43" t="s">
-        <v>244</v>
-      </c>
       <c r="D43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E43" t="s">
         <v>245</v>
@@ -5647,19 +5711,19 @@
       <c r="G43" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B44">
         <v>524000</v>
       </c>
-      <c r="C44" t="s">
-        <v>249</v>
-      </c>
       <c r="D44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E44" t="s">
         <v>250</v>
@@ -5670,45 +5734,45 @@
       <c r="G44" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B45">
         <v>524900</v>
       </c>
-      <c r="C45" t="s">
-        <v>40</v>
-      </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E45" t="s">
         <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
         <v>44</v>
       </c>
       <c r="H45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="I45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B46">
         <v>524900</v>
       </c>
-      <c r="C46" t="s">
-        <v>255</v>
-      </c>
       <c r="D46" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E46" t="s">
         <v>256</v>
@@ -5719,40 +5783,40 @@
       <c r="G46" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B47">
         <v>524999</v>
       </c>
-      <c r="C47" t="s">
-        <v>260</v>
-      </c>
       <c r="D47" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E47" t="s">
         <v>261</v>
       </c>
       <c r="F47" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="G47" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+      <c r="H47" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B48">
         <v>525000</v>
       </c>
-      <c r="C48" t="s">
-        <v>264</v>
-      </c>
       <c r="D48" t="s">
         <v>265</v>
       </c>
@@ -5768,19 +5832,19 @@
       <c r="H48" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I48" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B49">
         <v>525000</v>
       </c>
-      <c r="C49" t="s">
-        <v>271</v>
-      </c>
       <c r="D49" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E49" t="s">
         <v>272</v>
@@ -5791,17 +5855,17 @@
       <c r="G49" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H49" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B50">
         <v>525000</v>
       </c>
-      <c r="C50" t="s">
-        <v>276</v>
-      </c>
       <c r="D50" t="s">
         <v>277</v>
       </c>
@@ -5817,17 +5881,17 @@
       <c r="H50" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I50" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B51">
         <v>525000</v>
       </c>
-      <c r="C51" t="s">
-        <v>283</v>
-      </c>
       <c r="D51" t="s">
         <v>284</v>
       </c>
@@ -5843,17 +5907,17 @@
       <c r="H51" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B52">
         <v>528800</v>
       </c>
-      <c r="C52" t="s">
-        <v>290</v>
-      </c>
       <c r="D52" t="s">
         <v>291</v>
       </c>
@@ -5869,17 +5933,17 @@
       <c r="H52" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I52" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B53">
         <v>529000</v>
       </c>
-      <c r="C53" t="s">
-        <v>297</v>
-      </c>
       <c r="D53" t="s">
         <v>298</v>
       </c>
@@ -5889,19 +5953,19 @@
       <c r="F53" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B54">
         <v>529900</v>
       </c>
-      <c r="C54" t="s">
-        <v>302</v>
-      </c>
       <c r="D54" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E54" t="s">
         <v>303</v>
@@ -5910,24 +5974,24 @@
         <v>304</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>305</v>
       </c>
       <c r="H54" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B55">
         <v>529900</v>
       </c>
-      <c r="C55" t="s">
-        <v>307</v>
-      </c>
       <c r="D55" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E55" t="s">
         <v>308</v>
@@ -5938,43 +6002,43 @@
       <c r="G55" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H55" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B56">
         <v>529900</v>
       </c>
-      <c r="C56" t="s">
-        <v>312</v>
-      </c>
       <c r="D56" t="s">
         <v>313</v>
       </c>
       <c r="E56" t="s">
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="F56" t="s">
-        <v>314</v>
+        <v>234</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>315</v>
       </c>
       <c r="H56" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B57">
         <v>530000</v>
       </c>
-      <c r="C57" t="s">
-        <v>316</v>
-      </c>
       <c r="D57" t="s">
         <v>317</v>
       </c>
@@ -5988,19 +6052,19 @@
         <v>320</v>
       </c>
       <c r="H57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="I57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B58">
         <v>530000</v>
       </c>
-      <c r="C58" t="s">
-        <v>322</v>
-      </c>
       <c r="D58" t="s">
         <v>323</v>
       </c>
@@ -6011,25 +6075,25 @@
         <v>325</v>
       </c>
       <c r="G58" t="s">
-        <v>138</v>
+        <v>326</v>
       </c>
       <c r="H58" t="s">
-        <v>326</v>
+        <v>139</v>
       </c>
       <c r="I58" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B59">
         <v>532000</v>
       </c>
-      <c r="C59" t="s">
-        <v>329</v>
-      </c>
       <c r="D59" t="s">
         <v>330</v>
       </c>
@@ -6043,21 +6107,21 @@
         <v>333</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="I59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B60">
         <v>534000</v>
       </c>
-      <c r="C60" t="s">
-        <v>335</v>
-      </c>
       <c r="D60" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E60" t="s">
         <v>336</v>
@@ -6068,19 +6132,19 @@
       <c r="G60" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H60" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B61">
         <v>534900</v>
       </c>
-      <c r="C61" t="s">
-        <v>340</v>
-      </c>
       <c r="D61" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E61" t="s">
         <v>341</v>
@@ -6091,40 +6155,40 @@
       <c r="G61" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H61" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B62">
         <v>535900</v>
       </c>
-      <c r="C62" t="s">
-        <v>345</v>
-      </c>
       <c r="D62" t="s">
         <v>346</v>
       </c>
       <c r="E62" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F62" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="G62" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+      <c r="H62" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B63">
         <v>538900</v>
       </c>
-      <c r="C63" t="s">
-        <v>349</v>
-      </c>
       <c r="D63" t="s">
         <v>350</v>
       </c>
@@ -6137,17 +6201,17 @@
       <c r="G63" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H63" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B64">
         <v>539000</v>
       </c>
-      <c r="C64" t="s">
-        <v>355</v>
-      </c>
       <c r="D64" t="s">
         <v>356</v>
       </c>
@@ -6163,19 +6227,19 @@
       <c r="H64" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I64" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B65">
         <v>539000</v>
       </c>
-      <c r="C65" t="s">
-        <v>362</v>
-      </c>
       <c r="D65" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E65" t="s">
         <v>363</v>
@@ -6186,19 +6250,19 @@
       <c r="G65" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H65" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B66">
         <v>539000</v>
       </c>
-      <c r="C66" t="s">
-        <v>367</v>
-      </c>
       <c r="D66" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E66" t="s">
         <v>368</v>
@@ -6212,19 +6276,19 @@
       <c r="H66" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I66" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B67">
         <v>539000</v>
       </c>
-      <c r="C67" t="s">
-        <v>373</v>
-      </c>
       <c r="D67" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E67" t="s">
         <v>374</v>
@@ -6235,17 +6299,17 @@
       <c r="G67" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H67" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B68">
         <v>539000</v>
       </c>
-      <c r="C68" t="s">
-        <v>378</v>
-      </c>
       <c r="D68" t="s">
         <v>379</v>
       </c>
@@ -6267,45 +6331,45 @@
       <c r="J68" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K68" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B69">
         <v>539500</v>
       </c>
-      <c r="C69" t="s">
-        <v>387</v>
-      </c>
       <c r="D69" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E69" t="s">
-        <v>272</v>
+        <v>388</v>
       </c>
       <c r="F69" t="s">
-        <v>388</v>
+        <v>273</v>
       </c>
       <c r="G69" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="H69" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B70">
         <v>539800</v>
       </c>
-      <c r="C70" t="s">
-        <v>390</v>
-      </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>391</v>
       </c>
       <c r="E70" t="s">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="F70" t="s">
         <v>392</v>
@@ -6316,17 +6380,17 @@
       <c r="H70" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I70" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B71">
         <v>539888</v>
       </c>
-      <c r="C71" t="s">
-        <v>396</v>
-      </c>
       <c r="D71" t="s">
         <v>397</v>
       </c>
@@ -6345,19 +6409,19 @@
       <c r="I71" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J71" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B72">
         <v>539900</v>
       </c>
-      <c r="C72" t="s">
-        <v>404</v>
-      </c>
       <c r="D72" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E72" t="s">
         <v>405</v>
@@ -6368,17 +6432,17 @@
       <c r="G72" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H72" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B73">
         <v>539900</v>
       </c>
-      <c r="C73" t="s">
-        <v>409</v>
-      </c>
       <c r="D73" t="s">
         <v>410</v>
       </c>
@@ -6392,27 +6456,27 @@
         <v>413</v>
       </c>
       <c r="H73" t="s">
-        <v>18</v>
+        <v>414</v>
       </c>
       <c r="I73" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B74">
         <v>539900</v>
       </c>
-      <c r="C74" t="s">
-        <v>415</v>
-      </c>
       <c r="D74" t="s">
-        <v>287</v>
+        <v>416</v>
       </c>
       <c r="E74" t="s">
-        <v>416</v>
+        <v>288</v>
       </c>
       <c r="F74" t="s">
         <v>417</v>
@@ -6420,22 +6484,22 @@
       <c r="G74" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H74" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B75">
         <v>540000</v>
       </c>
-      <c r="C75" t="s">
-        <v>420</v>
-      </c>
       <c r="D75" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E75" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F75" t="s">
         <v>421</v>
@@ -6443,17 +6507,17 @@
       <c r="G75" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H75" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B76">
         <v>544900</v>
       </c>
-      <c r="C76" t="s">
-        <v>424</v>
-      </c>
       <c r="D76" t="s">
         <v>425</v>
       </c>
@@ -6472,17 +6536,17 @@
       <c r="I76" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J76" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B77">
         <v>544900</v>
       </c>
-      <c r="C77" t="s">
-        <v>432</v>
-      </c>
       <c r="D77" t="s">
         <v>433</v>
       </c>
@@ -6492,17 +6556,17 @@
       <c r="F77" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G77" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B78">
         <v>545000</v>
       </c>
-      <c r="C78" t="s">
-        <v>437</v>
-      </c>
       <c r="D78" t="s">
         <v>438</v>
       </c>
@@ -6518,19 +6582,19 @@
       <c r="H78" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I78" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B79">
         <v>548000</v>
       </c>
-      <c r="C79" t="s">
-        <v>444</v>
-      </c>
       <c r="D79" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E79" t="s">
         <v>445</v>
@@ -6541,69 +6605,69 @@
       <c r="G79" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H79" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B81">
         <v>549000</v>
       </c>
-      <c r="C81" t="s">
-        <v>449</v>
-      </c>
       <c r="D81" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E81" t="s">
         <v>450</v>
       </c>
       <c r="F81" t="s">
-        <v>240</v>
+        <v>451</v>
       </c>
       <c r="G81" t="s">
-        <v>451</v>
+        <v>241</v>
       </c>
       <c r="H81" t="s">
         <v>452</v>
       </c>
       <c r="I81" t="s">
-        <v>240</v>
+        <v>453</v>
       </c>
       <c r="J81" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+      <c r="K81" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B82">
         <v>549000</v>
       </c>
-      <c r="C82" t="s">
-        <v>455</v>
-      </c>
       <c r="D82" t="s">
         <v>456</v>
       </c>
       <c r="E82" t="s">
-        <v>309</v>
+        <v>457</v>
       </c>
       <c r="F82" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+      <c r="G82" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B83">
         <v>549000</v>
       </c>
-      <c r="C83" t="s">
-        <v>459</v>
-      </c>
       <c r="D83" t="s">
         <v>460</v>
       </c>
@@ -6622,17 +6686,17 @@
       <c r="I83" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J83" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B84">
         <v>549000</v>
       </c>
-      <c r="C84" t="s">
-        <v>467</v>
-      </c>
       <c r="D84" t="s">
         <v>468</v>
       </c>
@@ -6648,19 +6712,19 @@
       <c r="H84" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I84" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B85">
         <v>549000</v>
       </c>
-      <c r="C85" t="s">
-        <v>474</v>
-      </c>
       <c r="D85" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E85" t="s">
         <v>475</v>
@@ -6672,47 +6736,47 @@
         <v>477</v>
       </c>
       <c r="H85" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+      <c r="I85" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B86">
         <v>549000</v>
       </c>
-      <c r="C86" t="s">
-        <v>18</v>
-      </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G86" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="H86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B87">
         <v>549900</v>
       </c>
-      <c r="C87" t="s">
-        <v>18</v>
-      </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E87" t="s">
-        <v>480</v>
+        <v>19</v>
       </c>
       <c r="F87" t="s">
         <v>481</v>
@@ -6724,21 +6788,21 @@
         <v>483</v>
       </c>
       <c r="I87" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+      <c r="J87" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B88">
         <v>549900</v>
       </c>
-      <c r="C88" t="s">
-        <v>485</v>
-      </c>
       <c r="D88" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E88" t="s">
         <v>486</v>
@@ -6749,19 +6813,19 @@
       <c r="G88" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H88" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B89">
         <v>549900</v>
       </c>
-      <c r="C89" t="s">
-        <v>490</v>
-      </c>
       <c r="D89" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E89" t="s">
         <v>491</v>
@@ -6775,17 +6839,17 @@
       <c r="H89" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I89" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B90">
         <v>549900</v>
       </c>
-      <c r="C90" t="s">
-        <v>496</v>
-      </c>
       <c r="D90" t="s">
         <v>497</v>
       </c>
@@ -6804,17 +6868,17 @@
       <c r="I90" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J90" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B91">
         <v>549900</v>
       </c>
-      <c r="C91" t="s">
-        <v>504</v>
-      </c>
       <c r="D91" t="s">
         <v>505</v>
       </c>
@@ -6830,25 +6894,25 @@
       <c r="H91" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I91" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B92">
         <v>549900</v>
       </c>
-      <c r="C92" t="s">
-        <v>511</v>
-      </c>
       <c r="D92" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E92" t="s">
         <v>512</v>
       </c>
       <c r="F92" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G92" t="s">
         <v>513</v>
@@ -6856,40 +6920,40 @@
       <c r="H92" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I92" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B95">
         <v>550000</v>
       </c>
-      <c r="C95" t="s">
-        <v>516</v>
-      </c>
       <c r="D95" t="s">
         <v>517</v>
       </c>
       <c r="E95" t="s">
-        <v>18</v>
+        <v>518</v>
       </c>
       <c r="F95" t="s">
-        <v>518</v>
+        <v>19</v>
       </c>
       <c r="G95" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H95" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B96">
         <v>552800</v>
       </c>
-      <c r="C96" t="s">
-        <v>521</v>
-      </c>
       <c r="D96" t="s">
         <v>522</v>
       </c>
@@ -6897,53 +6961,53 @@
         <v>523</v>
       </c>
       <c r="F96" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G96" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H96" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B97">
         <v>554988</v>
       </c>
-      <c r="C97" t="s">
-        <v>526</v>
-      </c>
       <c r="D97" t="s">
         <v>527</v>
       </c>
       <c r="E97" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F97" t="s">
         <v>528</v>
       </c>
       <c r="G97" t="s">
-        <v>70</v>
+        <v>529</v>
       </c>
       <c r="H97" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="I97" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B98">
         <v>555000</v>
       </c>
-      <c r="C98" t="s">
-        <v>18</v>
-      </c>
       <c r="D98" t="s">
-        <v>530</v>
+        <v>19</v>
       </c>
       <c r="E98" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F98" t="s">
         <v>531</v>
@@ -6963,17 +7027,17 @@
       <c r="K98" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L98" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B99">
         <v>555000</v>
       </c>
-      <c r="C99" t="s">
-        <v>538</v>
-      </c>
       <c r="D99" t="s">
         <v>539</v>
       </c>
@@ -6992,17 +7056,17 @@
       <c r="I99" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J99" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B100">
         <v>555000</v>
       </c>
-      <c r="C100" t="s">
-        <v>546</v>
-      </c>
       <c r="D100" t="s">
         <v>547</v>
       </c>
@@ -7010,24 +7074,24 @@
         <v>548</v>
       </c>
       <c r="F100" t="s">
-        <v>441</v>
+        <v>549</v>
       </c>
       <c r="G100" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="H100" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B101">
         <v>558800</v>
       </c>
-      <c r="C101" t="s">
-        <v>551</v>
-      </c>
       <c r="D101" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E101" t="s">
         <v>552</v>
@@ -7038,17 +7102,17 @@
       <c r="G101" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H101" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B102">
         <v>559000</v>
       </c>
-      <c r="C102" t="s">
-        <v>556</v>
-      </c>
       <c r="D102" t="s">
         <v>557</v>
       </c>
@@ -7061,39 +7125,39 @@
       <c r="G102" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H102" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B103">
         <v>559000</v>
       </c>
-      <c r="C103" t="s">
-        <v>74</v>
-      </c>
       <c r="D103" t="s">
-        <v>562</v>
+        <v>75</v>
       </c>
       <c r="E103" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F103" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G103" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B104">
         <v>559000</v>
       </c>
-      <c r="C104" t="s">
-        <v>565</v>
-      </c>
       <c r="D104" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E104" t="s">
         <v>566</v>
@@ -7104,17 +7168,17 @@
       <c r="G104" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H104" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B105">
         <v>559900</v>
       </c>
-      <c r="C105" t="s">
-        <v>570</v>
-      </c>
       <c r="D105" t="s">
         <v>571</v>
       </c>
@@ -7127,40 +7191,40 @@
       <c r="G105" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H105" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B106">
         <v>559900</v>
       </c>
-      <c r="C106" t="s">
-        <v>18</v>
-      </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E106" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G106" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="H106" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B107">
         <v>559900</v>
       </c>
-      <c r="C107" t="s">
-        <v>577</v>
-      </c>
       <c r="D107" t="s">
         <v>578</v>
       </c>
@@ -7176,17 +7240,17 @@
       <c r="H107" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I107" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B108">
         <v>559999</v>
       </c>
-      <c r="C108" t="s">
-        <v>584</v>
-      </c>
       <c r="D108" t="s">
         <v>585</v>
       </c>
@@ -7197,24 +7261,24 @@
         <v>587</v>
       </c>
       <c r="G108" t="s">
-        <v>285</v>
+        <v>588</v>
       </c>
       <c r="H108" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+      <c r="I108" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B109">
         <v>559999</v>
       </c>
-      <c r="C109" t="s">
-        <v>590</v>
-      </c>
       <c r="D109" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E109" t="s">
         <v>591</v>
@@ -7231,17 +7295,17 @@
       <c r="I109" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J109" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B110">
         <v>564900</v>
       </c>
-      <c r="C110" t="s">
-        <v>597</v>
-      </c>
       <c r="D110" t="s">
         <v>598</v>
       </c>
@@ -7257,43 +7321,43 @@
       <c r="H110" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I110" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B111">
         <v>565000</v>
       </c>
-      <c r="C111" t="s">
-        <v>18</v>
-      </c>
       <c r="D111" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E111" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G111" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H111" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I111" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B112">
         <v>565000</v>
       </c>
-      <c r="C112" t="s">
-        <v>605</v>
-      </c>
       <c r="D112" t="s">
         <v>606</v>
       </c>
@@ -7309,42 +7373,42 @@
       <c r="H112" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I112" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B113">
         <v>565000</v>
       </c>
-      <c r="C113" t="s">
-        <v>612</v>
-      </c>
       <c r="D113" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E113" t="s">
-        <v>18</v>
+        <v>613</v>
       </c>
       <c r="F113" t="s">
-        <v>613</v>
+        <v>19</v>
       </c>
       <c r="G113" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H113" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B114">
         <v>569000</v>
       </c>
-      <c r="C114" t="s">
-        <v>27</v>
-      </c>
       <c r="D114" t="s">
-        <v>616</v>
+        <v>28</v>
       </c>
       <c r="E114" t="s">
         <v>617</v>
@@ -7356,24 +7420,24 @@
         <v>619</v>
       </c>
       <c r="H114" t="s">
-        <v>307</v>
+        <v>620</v>
       </c>
       <c r="I114" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+      <c r="J114" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B115">
         <v>569800</v>
       </c>
-      <c r="C115" t="s">
-        <v>621</v>
-      </c>
       <c r="D115" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E115" t="s">
         <v>622</v>
@@ -7387,3789 +7451,3858 @@
       <c r="H115" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I115" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B116">
         <v>569900</v>
       </c>
       <c r="C116" t="s">
-        <v>18</v>
+        <v>628</v>
       </c>
       <c r="D116" t="s">
-        <v>627</v>
+        <v>19</v>
       </c>
       <c r="E116" t="s">
-        <v>18</v>
+        <v>629</v>
       </c>
       <c r="F116" t="s">
-        <v>628</v>
+        <v>19</v>
       </c>
       <c r="G116" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H116" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+      <c r="I116" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B117">
         <v>569900</v>
       </c>
-      <c r="C117" t="s">
-        <v>632</v>
-      </c>
       <c r="D117" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E117" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F117" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G117" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+      <c r="H117" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B118">
         <v>569900</v>
       </c>
-      <c r="C118" t="s">
-        <v>637</v>
-      </c>
       <c r="D118" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E118" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F118" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G118" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H118" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+        <v>642</v>
+      </c>
+      <c r="I118" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B119">
         <v>569900</v>
       </c>
-      <c r="C119" t="s">
-        <v>643</v>
-      </c>
       <c r="D119" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E119" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F119" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="G119" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H119" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+      <c r="I119" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B120">
         <v>569900</v>
       </c>
-      <c r="C120" t="s">
-        <v>648</v>
-      </c>
       <c r="D120" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E120" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F120" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G120" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+        <v>652</v>
+      </c>
+      <c r="H120" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B121">
         <v>574900</v>
       </c>
-      <c r="C121" t="s">
-        <v>18</v>
-      </c>
       <c r="D121" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E121" t="s">
-        <v>653</v>
+        <v>19</v>
       </c>
       <c r="F121" t="s">
-        <v>138</v>
+        <v>655</v>
       </c>
       <c r="G121" t="s">
-        <v>654</v>
+        <v>139</v>
       </c>
       <c r="H121" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="I121" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+        <v>656</v>
+      </c>
+      <c r="J121" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B122">
         <v>574900</v>
       </c>
-      <c r="C122" t="s">
-        <v>79</v>
-      </c>
       <c r="D122" t="s">
-        <v>657</v>
+        <v>80</v>
       </c>
       <c r="E122" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F122" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G122" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+      <c r="H122" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B123">
         <v>574900</v>
       </c>
-      <c r="C123" t="s">
-        <v>660</v>
-      </c>
       <c r="D123" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E123" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F123" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G123" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H123" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+        <v>665</v>
+      </c>
+      <c r="I123" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B124">
         <v>574999</v>
       </c>
-      <c r="C124" t="s">
-        <v>666</v>
-      </c>
       <c r="D124" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E124" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F124" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G124" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H124" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+        <v>671</v>
+      </c>
+      <c r="I124" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B125">
         <v>575000</v>
       </c>
-      <c r="C125" t="s">
-        <v>672</v>
-      </c>
       <c r="D125" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E125" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F125" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G125" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H125" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+      <c r="I125" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B126">
         <v>575000</v>
       </c>
-      <c r="C126" t="s">
-        <v>678</v>
-      </c>
       <c r="D126" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E126" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F126" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G126" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H126" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="I126" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+      <c r="J126" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B127">
         <v>575000</v>
       </c>
-      <c r="C127" t="s">
-        <v>685</v>
-      </c>
       <c r="D127" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E127" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F127" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G127" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+        <v>689</v>
+      </c>
+      <c r="H127" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B128">
         <v>575000</v>
       </c>
-      <c r="C128" t="s">
-        <v>690</v>
-      </c>
       <c r="D128" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="E128" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F128" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G128" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H128" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+        <v>695</v>
+      </c>
+      <c r="I128" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B129">
         <v>579000</v>
       </c>
-      <c r="C129" t="s">
-        <v>696</v>
-      </c>
       <c r="D129" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E129" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F129" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G129" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+        <v>701</v>
+      </c>
+      <c r="H129" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B130">
         <v>579000</v>
       </c>
-      <c r="C130" t="s">
-        <v>702</v>
-      </c>
       <c r="D130" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E130" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F130" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G130" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H130" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+        <v>708</v>
+      </c>
+      <c r="I130" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B131">
         <v>579000</v>
       </c>
-      <c r="C131" t="s">
-        <v>18</v>
-      </c>
       <c r="D131" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E131" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G131" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="H131" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B132">
         <v>579000</v>
       </c>
-      <c r="C132" t="s">
-        <v>710</v>
-      </c>
       <c r="D132" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E132" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F132" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G132" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+        <v>713</v>
+      </c>
+      <c r="H132" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B133">
         <v>579000</v>
       </c>
-      <c r="C133" t="s">
-        <v>714</v>
-      </c>
       <c r="D133" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E133" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F133" t="s">
-        <v>587</v>
+        <v>718</v>
       </c>
       <c r="G133" t="s">
-        <v>717</v>
+        <v>588</v>
       </c>
       <c r="H133" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+        <v>719</v>
+      </c>
+      <c r="I133" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B134">
         <v>579900</v>
       </c>
-      <c r="C134" t="s">
-        <v>720</v>
-      </c>
       <c r="D134" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E134" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F134" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G134" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H134" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="I134" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="J134" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K134" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+      <c r="L134" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B135">
         <v>579900</v>
       </c>
-      <c r="C135" t="s">
-        <v>730</v>
-      </c>
       <c r="D135" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E135" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F135" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G135" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+        <v>734</v>
+      </c>
+      <c r="H135" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B136">
         <v>585000</v>
       </c>
-      <c r="C136" t="s">
-        <v>735</v>
-      </c>
       <c r="D136" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="E136" t="s">
-        <v>18</v>
+        <v>737</v>
       </c>
       <c r="F136" t="s">
-        <v>736</v>
+        <v>19</v>
       </c>
       <c r="G136" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H136" t="s">
-        <v>18</v>
+        <v>739</v>
       </c>
       <c r="I136" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J136" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B137">
         <v>588800</v>
       </c>
-      <c r="C137" t="s">
-        <v>739</v>
-      </c>
       <c r="D137" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E137" t="s">
-        <v>18</v>
+        <v>742</v>
       </c>
       <c r="F137" t="s">
-        <v>741</v>
+        <v>19</v>
       </c>
       <c r="G137" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H137" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="I137" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="J137" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+        <v>746</v>
+      </c>
+      <c r="K137" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B138">
         <v>589000</v>
       </c>
-      <c r="C138" t="s">
-        <v>746</v>
-      </c>
       <c r="D138" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E138" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F138" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G138" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H138" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+      <c r="I138" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B139">
         <v>589000</v>
       </c>
-      <c r="C139" t="s">
-        <v>753</v>
-      </c>
       <c r="D139" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E139" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F139" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G139" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H139" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+        <v>759</v>
+      </c>
+      <c r="I139" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B140">
         <v>589000</v>
       </c>
-      <c r="C140" t="s">
-        <v>760</v>
-      </c>
       <c r="D140" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E140" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F140" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G140" t="s">
-        <v>370</v>
+        <v>765</v>
       </c>
       <c r="H140" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+      <c r="I140" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B141">
         <v>589000</v>
       </c>
-      <c r="C141" t="s">
-        <v>760</v>
-      </c>
       <c r="D141" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E141" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F141" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G141" t="s">
-        <v>370</v>
+        <v>765</v>
       </c>
       <c r="H141" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+      <c r="I141" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B142">
         <v>589000</v>
       </c>
-      <c r="C142" t="s">
-        <v>766</v>
-      </c>
       <c r="D142" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E142" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F142" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G142" t="s">
-        <v>309</v>
+        <v>771</v>
       </c>
       <c r="H142" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+      <c r="I142" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B143">
         <v>589000</v>
       </c>
-      <c r="C143" t="s">
-        <v>772</v>
-      </c>
       <c r="D143" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E143" t="s">
-        <v>198</v>
+        <v>775</v>
       </c>
       <c r="F143" t="s">
-        <v>609</v>
+        <v>199</v>
       </c>
       <c r="G143" t="s">
-        <v>410</v>
+        <v>610</v>
       </c>
       <c r="H143" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+      <c r="I143" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B144">
         <v>589000</v>
       </c>
-      <c r="C144" t="s">
-        <v>776</v>
-      </c>
       <c r="D144" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E144" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F144" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G144" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H144" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="I144" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+      <c r="J144" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B145">
         <v>589800</v>
       </c>
-      <c r="C145" t="s">
-        <v>79</v>
-      </c>
       <c r="D145" t="s">
-        <v>784</v>
+        <v>80</v>
       </c>
       <c r="E145" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="F145" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G145" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+      <c r="H145" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B146">
         <v>589900</v>
       </c>
-      <c r="C146" t="s">
-        <v>788</v>
-      </c>
       <c r="D146" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E146" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
+        <v>792</v>
       </c>
       <c r="G146" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H146" t="s">
-        <v>791</v>
+        <v>19</v>
       </c>
       <c r="I146" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+        <v>793</v>
+      </c>
+      <c r="J146" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B147">
         <v>589900</v>
       </c>
       <c r="C147" t="s">
-        <v>18</v>
+        <v>795</v>
       </c>
       <c r="D147" t="s">
-        <v>793</v>
+        <v>19</v>
       </c>
       <c r="E147" t="s">
-        <v>18</v>
+        <v>796</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G147" t="s">
-        <v>794</v>
+        <v>19</v>
       </c>
       <c r="H147" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="I147" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+        <v>798</v>
+      </c>
+      <c r="J147" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B148">
         <v>589900</v>
       </c>
-      <c r="C148" t="s">
-        <v>798</v>
-      </c>
       <c r="D148" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="E148" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="F148" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="G148" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="H148" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+        <v>805</v>
+      </c>
+      <c r="I148" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B149">
         <v>590000</v>
       </c>
-      <c r="C149" t="s">
-        <v>804</v>
-      </c>
       <c r="D149" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="E149" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="F149" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G149" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+        <v>809</v>
+      </c>
+      <c r="H149" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B150">
         <v>596500</v>
       </c>
-      <c r="C150" t="s">
-        <v>18</v>
-      </c>
       <c r="D150" t="s">
-        <v>809</v>
+        <v>19</v>
       </c>
       <c r="E150" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
+        <v>813</v>
       </c>
       <c r="G150" t="s">
-        <v>811</v>
+        <v>19</v>
       </c>
       <c r="H150" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="I150" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="J150" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+        <v>816</v>
+      </c>
+      <c r="K150" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="B151">
         <v>598900</v>
       </c>
-      <c r="C151" t="s">
-        <v>815</v>
-      </c>
       <c r="D151" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="E151" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="F151" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="G151" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="H151" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="I151" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="J151" t="s">
-        <v>18</v>
+        <v>824</v>
       </c>
       <c r="K151" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="L151" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B152">
         <v>599000</v>
       </c>
-      <c r="C152" t="s">
-        <v>824</v>
-      </c>
       <c r="D152" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="E152" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="F152" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="G152" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="H152" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+        <v>830</v>
+      </c>
+      <c r="I152" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="B153">
         <v>599000</v>
       </c>
-      <c r="C153" t="s">
-        <v>830</v>
-      </c>
       <c r="D153" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="E153" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="F153" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="G153" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+        <v>835</v>
+      </c>
+      <c r="H153" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="B154">
         <v>599000</v>
       </c>
-      <c r="C154" t="s">
-        <v>834</v>
-      </c>
       <c r="D154" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E154" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="F154" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="G154" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="H154" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+        <v>841</v>
+      </c>
+      <c r="I154" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="B155">
         <v>599000</v>
       </c>
-      <c r="C155" t="s">
-        <v>760</v>
-      </c>
       <c r="D155" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E155" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F155" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G155" t="s">
-        <v>370</v>
+        <v>765</v>
       </c>
       <c r="H155" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+      <c r="I155" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B156">
         <v>599000</v>
       </c>
-      <c r="C156" t="s">
-        <v>474</v>
-      </c>
       <c r="D156" t="s">
-        <v>307</v>
+        <v>475</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F156" t="s">
-        <v>843</v>
+        <v>308</v>
       </c>
       <c r="G156" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H156" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+        <v>847</v>
+      </c>
+      <c r="I156" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="B157">
         <v>599000</v>
       </c>
-      <c r="C157" t="s">
-        <v>847</v>
-      </c>
       <c r="D157" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>850</v>
       </c>
       <c r="F157" t="s">
-        <v>848</v>
+        <v>310</v>
       </c>
       <c r="G157" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+        <v>851</v>
+      </c>
+      <c r="H157" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B158">
         <v>599900</v>
       </c>
-      <c r="C158" t="s">
-        <v>851</v>
-      </c>
       <c r="D158" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E158" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="F158" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="G158" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+        <v>857</v>
+      </c>
+      <c r="H158" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B161">
         <v>599900</v>
       </c>
-      <c r="C161" t="s">
-        <v>856</v>
-      </c>
       <c r="D161" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="E161" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="F161" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="G161" t="s">
-        <v>827</v>
+        <v>862</v>
       </c>
       <c r="H161" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+        <v>830</v>
+      </c>
+      <c r="I161" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="B162">
         <v>599900</v>
       </c>
-      <c r="C162" t="s">
-        <v>862</v>
-      </c>
       <c r="D162" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="E162" t="s">
-        <v>74</v>
+        <v>865</v>
       </c>
       <c r="F162" t="s">
-        <v>863</v>
+        <v>75</v>
       </c>
       <c r="G162" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="H162" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+        <v>867</v>
+      </c>
+      <c r="I162" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B163">
         <v>599900</v>
       </c>
-      <c r="C163" t="s">
-        <v>867</v>
-      </c>
       <c r="D163" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="E163" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="F163" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="G163" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="H163" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+        <v>873</v>
+      </c>
+      <c r="I163" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="B164">
         <v>599900</v>
       </c>
-      <c r="C164" t="s">
-        <v>873</v>
-      </c>
       <c r="D164" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="E164" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="F164" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="G164" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="H164" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="I164" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="J164" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+        <v>881</v>
+      </c>
+      <c r="K164" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="B165">
         <v>599900</v>
       </c>
-      <c r="C165" t="s">
-        <v>881</v>
-      </c>
       <c r="D165" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="E165" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="F165" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="G165" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="H165" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+        <v>887</v>
+      </c>
+      <c r="I165" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="B166">
         <v>599900</v>
       </c>
-      <c r="C166" t="s">
-        <v>881</v>
-      </c>
       <c r="D166" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="E166" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="F166" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="G166" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="H166" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+        <v>887</v>
+      </c>
+      <c r="I166" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="B167">
         <v>599900</v>
       </c>
-      <c r="C167" t="s">
-        <v>830</v>
-      </c>
       <c r="D167" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="E167" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="F167" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="G167" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+        <v>835</v>
+      </c>
+      <c r="H167" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="B168">
         <v>599900</v>
       </c>
-      <c r="C168" t="s">
-        <v>888</v>
-      </c>
       <c r="D168" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="E168" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="F168" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="G168" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="H168" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+        <v>894</v>
+      </c>
+      <c r="I168" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="B169">
         <v>599999</v>
       </c>
-      <c r="C169" t="s">
-        <v>894</v>
-      </c>
       <c r="D169" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="E169" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="F169" t="s">
-        <v>308</v>
+        <v>898</v>
       </c>
       <c r="G169" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+      <c r="H169" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="B170">
         <v>599999</v>
       </c>
       <c r="C170" t="s">
-        <v>898</v>
+        <v>795</v>
       </c>
       <c r="D170" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="E170" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="F170" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="G170" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="H170" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+        <v>904</v>
+      </c>
+      <c r="I170" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="B171">
         <v>600000</v>
       </c>
-      <c r="C171" t="s">
-        <v>904</v>
-      </c>
       <c r="D171" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="E171" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="F171" t="s">
-        <v>308</v>
+        <v>908</v>
       </c>
       <c r="G171" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+      <c r="H171" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="B172">
         <v>606000</v>
       </c>
-      <c r="C172" t="s">
-        <v>908</v>
-      </c>
       <c r="D172" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="E172" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="F172" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="G172" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="H172" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+        <v>914</v>
+      </c>
+      <c r="I172" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="B173">
         <v>612000</v>
       </c>
-      <c r="C173" t="s">
-        <v>914</v>
-      </c>
       <c r="D173" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="E173" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="F173" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="G173" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="H173" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+        <v>921</v>
+      </c>
+      <c r="I173" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="B174">
         <v>615000</v>
       </c>
-      <c r="C174" t="s">
-        <v>920</v>
-      </c>
       <c r="D174" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="E174" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="F174" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="G174" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="H174" t="s">
-        <v>18</v>
+        <v>927</v>
       </c>
       <c r="I174" t="s">
-        <v>925</v>
+        <v>19</v>
       </c>
       <c r="J174" t="s">
-        <v>18</v>
+        <v>928</v>
       </c>
       <c r="K174" t="s">
-        <v>926</v>
+        <v>19</v>
       </c>
       <c r="L174" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+        <v>929</v>
+      </c>
+      <c r="M174" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="B175">
         <v>615000</v>
       </c>
-      <c r="C175" t="s">
-        <v>309</v>
-      </c>
       <c r="D175" t="s">
-        <v>929</v>
+        <v>310</v>
       </c>
       <c r="E175" t="s">
-        <v>18</v>
+        <v>932</v>
       </c>
       <c r="F175" t="s">
-        <v>930</v>
+        <v>19</v>
       </c>
       <c r="G175" t="s">
-        <v>18</v>
+        <v>933</v>
       </c>
       <c r="H175" t="s">
-        <v>931</v>
+        <v>19</v>
       </c>
       <c r="I175" t="s">
-        <v>578</v>
+        <v>934</v>
       </c>
       <c r="J175" t="s">
-        <v>932</v>
+        <v>579</v>
       </c>
       <c r="K175" t="s">
-        <v>40</v>
+        <v>935</v>
       </c>
       <c r="L175" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="M175" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="B176">
         <v>619000</v>
       </c>
-      <c r="C176" t="s">
-        <v>934</v>
-      </c>
       <c r="D176" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="E176" t="s">
-        <v>187</v>
+        <v>937</v>
       </c>
       <c r="F176" t="s">
-        <v>935</v>
+        <v>188</v>
       </c>
       <c r="G176" t="s">
-        <v>287</v>
+        <v>938</v>
       </c>
       <c r="H176" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+      <c r="I176" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="B177">
         <v>619000</v>
       </c>
-      <c r="C177" t="s">
-        <v>938</v>
-      </c>
       <c r="D177" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="E177" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="F177" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="G177" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+        <v>943</v>
+      </c>
+      <c r="H177" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="B178">
         <v>619900</v>
       </c>
-      <c r="C178" t="s">
-        <v>943</v>
-      </c>
       <c r="D178" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="E178" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="F178" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="G178" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="H178" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+        <v>949</v>
+      </c>
+      <c r="I178" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="B179">
         <v>619900</v>
       </c>
-      <c r="C179" t="s">
-        <v>949</v>
-      </c>
       <c r="D179" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="E179" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="F179" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="G179" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="H179" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+        <v>955</v>
+      </c>
+      <c r="I179" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="B180">
         <v>619900</v>
       </c>
-      <c r="C180" t="s">
-        <v>949</v>
-      </c>
       <c r="D180" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="E180" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="F180" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="G180" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="H180" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+        <v>955</v>
+      </c>
+      <c r="I180" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B181">
         <v>620000</v>
       </c>
-      <c r="C181" t="s">
-        <v>956</v>
-      </c>
       <c r="D181" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="E181" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="F181" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="G181" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+        <v>961</v>
+      </c>
+      <c r="H181" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="B182">
         <v>620000</v>
       </c>
-      <c r="C182" t="s">
-        <v>960</v>
-      </c>
       <c r="D182" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="E182" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="F182" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="G182" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H182" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+        <v>966</v>
+      </c>
+      <c r="I182" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="B183">
         <v>624999</v>
       </c>
-      <c r="C183" t="s">
-        <v>966</v>
-      </c>
       <c r="D183" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="E183" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="F183" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="G183" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+        <v>972</v>
+      </c>
+      <c r="H183" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="B184">
         <v>625000</v>
       </c>
-      <c r="C184" t="s">
-        <v>949</v>
-      </c>
       <c r="D184" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="E184" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="F184" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="G184" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="H184" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+        <v>955</v>
+      </c>
+      <c r="I184" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="B185">
         <v>629000</v>
       </c>
-      <c r="C185" t="s">
-        <v>973</v>
-      </c>
       <c r="D185" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E185" t="s">
-        <v>79</v>
+        <v>977</v>
       </c>
       <c r="F185" t="s">
-        <v>975</v>
+        <v>80</v>
       </c>
       <c r="G185" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="H185" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+        <v>979</v>
+      </c>
+      <c r="I185" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="B186">
         <v>629900</v>
       </c>
-      <c r="C186" t="s">
-        <v>18</v>
-      </c>
       <c r="D186" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E186" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F186" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G186" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="H186" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="B187">
         <v>629999</v>
       </c>
-      <c r="C187" t="s">
-        <v>980</v>
-      </c>
       <c r="D187" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="E187" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="F187" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="G187" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+        <v>985</v>
+      </c>
+      <c r="H187" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="B188">
         <v>632000</v>
       </c>
-      <c r="C188" t="s">
-        <v>18</v>
-      </c>
       <c r="D188" t="s">
-        <v>985</v>
+        <v>19</v>
       </c>
       <c r="E188" t="s">
-        <v>18</v>
+        <v>988</v>
       </c>
       <c r="F188" t="s">
-        <v>986</v>
+        <v>19</v>
       </c>
       <c r="G188" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="I188" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+        <v>991</v>
+      </c>
+      <c r="J188" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="B189">
         <v>639000</v>
       </c>
-      <c r="C189" t="s">
-        <v>991</v>
-      </c>
       <c r="D189" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="E189" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="F189" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="G189" t="s">
-        <v>742</v>
+        <v>996</v>
       </c>
       <c r="H189" t="s">
-        <v>994</v>
+        <v>744</v>
       </c>
       <c r="I189" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+        <v>997</v>
+      </c>
+      <c r="J189" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B190">
         <v>639000</v>
       </c>
-      <c r="C190" t="s">
-        <v>997</v>
-      </c>
       <c r="D190" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="E190" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="F190" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="G190" t="s">
-        <v>832</v>
+        <v>1002</v>
       </c>
       <c r="H190" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+        <v>835</v>
+      </c>
+      <c r="I190" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="B191">
         <v>639999</v>
       </c>
-      <c r="C191" t="s">
-        <v>18</v>
-      </c>
       <c r="D191" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E191" t="s">
-        <v>1002</v>
+        <v>19</v>
       </c>
       <c r="F191" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="G191" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="H191" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="I191" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1008</v>
+      </c>
+      <c r="J191" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B192">
         <v>645000</v>
       </c>
-      <c r="C192" t="s">
-        <v>1008</v>
-      </c>
       <c r="D192" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="E192" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="F192" t="s">
-        <v>951</v>
+        <v>1012</v>
       </c>
       <c r="G192" t="s">
-        <v>1010</v>
+        <v>954</v>
       </c>
       <c r="H192" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1013</v>
+      </c>
+      <c r="I192" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="B193">
         <v>645000</v>
       </c>
-      <c r="C193" t="s">
-        <v>18</v>
-      </c>
       <c r="D193" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E193" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F193" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G193" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H193" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I193" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J193" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="B194">
         <v>649000</v>
       </c>
-      <c r="C194" t="s">
-        <v>1014</v>
-      </c>
       <c r="D194" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="E194" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="F194" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="G194" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="H194" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1020</v>
+      </c>
+      <c r="I194" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="B195">
         <v>649900</v>
       </c>
-      <c r="C195" t="s">
-        <v>1020</v>
-      </c>
       <c r="D195" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E195" t="s">
-        <v>79</v>
+        <v>1023</v>
       </c>
       <c r="F195" t="s">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="G195" t="s">
-        <v>1021</v>
+        <v>343</v>
       </c>
       <c r="H195" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1024</v>
+      </c>
+      <c r="I195" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="B196">
         <v>649900</v>
       </c>
-      <c r="C196" t="s">
-        <v>1024</v>
-      </c>
       <c r="D196" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="E196" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="F196" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="G196" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1030</v>
+      </c>
+      <c r="H196" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="B197">
         <v>649900</v>
       </c>
-      <c r="C197" t="s">
-        <v>1030</v>
-      </c>
       <c r="D197" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="E197" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F197" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="G197" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="H197" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1036</v>
+      </c>
+      <c r="I197" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B198">
         <v>649900</v>
       </c>
-      <c r="C198" t="s">
-        <v>1036</v>
-      </c>
       <c r="D198" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E198" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="F198" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="G198" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="H198" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="I198" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="J198" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1045</v>
+      </c>
+      <c r="K198" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="B199">
         <v>649999</v>
       </c>
-      <c r="C199" t="s">
-        <v>1044</v>
-      </c>
       <c r="D199" t="s">
-        <v>868</v>
+        <v>1047</v>
       </c>
       <c r="E199" t="s">
-        <v>1045</v>
+        <v>871</v>
       </c>
       <c r="F199" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="G199" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1049</v>
+      </c>
+      <c r="H199" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="B200">
         <v>650000</v>
       </c>
-      <c r="C200" t="s">
-        <v>18</v>
-      </c>
       <c r="D200" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E200" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F200" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G200" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="H200" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="B201">
         <v>650000</v>
       </c>
-      <c r="C201" t="s">
-        <v>1050</v>
-      </c>
       <c r="D201" t="s">
-        <v>761</v>
+        <v>1053</v>
       </c>
       <c r="E201" t="s">
-        <v>1051</v>
+        <v>763</v>
       </c>
       <c r="F201" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="G201" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="H201" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="I201" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1057</v>
+      </c>
+      <c r="J201" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="B202">
         <v>670000</v>
       </c>
-      <c r="C202" t="s">
-        <v>1057</v>
-      </c>
       <c r="D202" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="E202" t="s">
-        <v>724</v>
+        <v>1061</v>
       </c>
       <c r="F202" t="s">
-        <v>1059</v>
+        <v>726</v>
       </c>
       <c r="G202" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="H202" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1063</v>
+      </c>
+      <c r="I202" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="B203">
         <v>673900</v>
       </c>
-      <c r="C203" t="s">
-        <v>1063</v>
-      </c>
       <c r="D203" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="E203" t="s">
-        <v>309</v>
+        <v>1066</v>
       </c>
       <c r="F203" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="G203" t="s">
-        <v>1064</v>
+        <v>286</v>
       </c>
       <c r="H203" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1067</v>
+      </c>
+      <c r="I203" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="B204">
         <v>674900</v>
       </c>
-      <c r="C204" t="s">
-        <v>1067</v>
-      </c>
       <c r="D204" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="E204" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="F204" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="G204" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="H204" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="I204" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="J204" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1076</v>
+      </c>
+      <c r="K204" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="B205">
         <v>679000</v>
       </c>
-      <c r="C205" t="s">
-        <v>1075</v>
-      </c>
       <c r="D205" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="E205" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="F205" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="G205" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="H205" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="I205" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1083</v>
+      </c>
+      <c r="J205" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="B206">
         <v>685000</v>
       </c>
-      <c r="C206" t="s">
-        <v>1083</v>
-      </c>
       <c r="D206" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="E206" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="F206" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="G206" t="s">
-        <v>18</v>
+        <v>1089</v>
       </c>
       <c r="H206" t="s">
-        <v>1087</v>
+        <v>19</v>
       </c>
       <c r="I206" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1090</v>
+      </c>
+      <c r="J206" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="B207">
         <v>689000</v>
       </c>
-      <c r="C207" t="s">
-        <v>1089</v>
-      </c>
       <c r="D207" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="E207" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="F207" t="s">
-        <v>18</v>
+        <v>1094</v>
       </c>
       <c r="G207" t="s">
-        <v>1092</v>
+        <v>19</v>
       </c>
       <c r="H207" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="I207" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1096</v>
+      </c>
+      <c r="J207" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="B208">
         <v>689900</v>
       </c>
-      <c r="C208" t="s">
-        <v>1096</v>
-      </c>
       <c r="D208" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="E208" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="F208" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="G208" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="H208" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1102</v>
+      </c>
+      <c r="I208" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="B209">
         <v>695000</v>
       </c>
-      <c r="C209" t="s">
-        <v>1101</v>
-      </c>
       <c r="D209" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="E209" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="F209" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="G209" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="H209" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1107</v>
+      </c>
+      <c r="I209" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="B210">
         <v>699000</v>
       </c>
-      <c r="C210" t="s">
-        <v>1107</v>
-      </c>
       <c r="D210" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="E210" t="s">
-        <v>572</v>
+        <v>1111</v>
       </c>
       <c r="F210" t="s">
-        <v>1109</v>
+        <v>573</v>
       </c>
       <c r="G210" t="s">
-        <v>572</v>
+        <v>1112</v>
       </c>
       <c r="H210" t="s">
-        <v>1110</v>
+        <v>573</v>
       </c>
       <c r="I210" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1113</v>
+      </c>
+      <c r="J210" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="B211">
         <v>699000</v>
       </c>
-      <c r="C211" t="s">
-        <v>1113</v>
-      </c>
       <c r="D211" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="E211" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="F211" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="G211" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H211" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="I211" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="J211" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1121</v>
+      </c>
+      <c r="K211" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="B212">
         <v>699000</v>
       </c>
-      <c r="C212" t="s">
-        <v>1120</v>
-      </c>
       <c r="D212" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="E212" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="F212" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="G212" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="H212" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1127</v>
+      </c>
+      <c r="I212" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="B213">
         <v>699900</v>
       </c>
-      <c r="C213" t="s">
-        <v>1127</v>
-      </c>
       <c r="D213" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="E213" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="F213" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="G213" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="H213" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="I213" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="J213" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1136</v>
+      </c>
+      <c r="K213" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="B214">
         <v>699900</v>
       </c>
-      <c r="C214" t="s">
-        <v>1136</v>
-      </c>
       <c r="D214" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="E214" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="F214" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="G214" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="H214" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="I214" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1144</v>
+      </c>
+      <c r="J214" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="B215">
         <v>699900</v>
       </c>
-      <c r="C215" t="s">
-        <v>1144</v>
-      </c>
       <c r="D215" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="E215" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="F215" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="G215" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="H215" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="I215" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1152</v>
+      </c>
+      <c r="J215" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="B216">
         <v>710000</v>
       </c>
-      <c r="C216" t="s">
-        <v>1152</v>
-      </c>
       <c r="D216" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="E216" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="F216" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="G216" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="H216" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1158</v>
+      </c>
+      <c r="I216" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="B217">
         <v>739000</v>
       </c>
-      <c r="C217" t="s">
-        <v>18</v>
-      </c>
       <c r="D217" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E217" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F217" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G217" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H217" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I217" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="B218">
         <v>775000</v>
       </c>
-      <c r="C218" t="s">
-        <v>18</v>
-      </c>
       <c r="D218" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E218" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F218" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G218" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H218" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I218" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J218" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="K218" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="B219">
         <v>789000</v>
       </c>
-      <c r="C219" t="s">
-        <v>1160</v>
-      </c>
       <c r="D219" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="E219" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="F219" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="G219" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="H219" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1167</v>
+      </c>
+      <c r="I219" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="B220">
         <v>796800</v>
       </c>
-      <c r="C220" t="s">
-        <v>1167</v>
-      </c>
       <c r="D220" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="E220" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="F220" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="G220" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="H220" t="s">
-        <v>154</v>
+        <v>1173</v>
       </c>
       <c r="I220" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="J220" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B221">
         <v>799000</v>
       </c>
-      <c r="C221" t="s">
-        <v>1173</v>
-      </c>
       <c r="D221" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="E221" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="F221" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="G221" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="H221" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1179</v>
+      </c>
+      <c r="I221" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="B222">
         <v>799900</v>
       </c>
       <c r="C222" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="D222" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="E222" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="F222" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="G222" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="H222" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="I222" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="J222" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="K222" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1190</v>
+      </c>
+      <c r="L222" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="B223">
         <v>819900</v>
       </c>
-      <c r="C223" t="s">
-        <v>18</v>
-      </c>
       <c r="D223" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E223" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F223" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G223" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H223" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I223" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
       <c r="B224">
         <v>849999</v>
       </c>
-      <c r="C224" t="s">
-        <v>1190</v>
-      </c>
       <c r="D224" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="E224" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="F224" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="G224" t="s">
-        <v>80</v>
+        <v>1196</v>
       </c>
       <c r="H224" t="s">
-        <v>1193</v>
+        <v>81</v>
       </c>
       <c r="I224" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1197</v>
+      </c>
+      <c r="J224" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="B225">
         <v>880000</v>
       </c>
-      <c r="C225" t="s">
-        <v>1195</v>
-      </c>
       <c r="D225" t="s">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="E225" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="F225" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="G225" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="H225" t="s">
-        <v>733</v>
+        <v>1202</v>
       </c>
       <c r="I225" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+        <v>735</v>
+      </c>
+      <c r="J225" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>1200</v>
+        <v>1204</v>
       </c>
       <c r="B226">
         <v>899900</v>
       </c>
-      <c r="C226" t="s">
-        <v>1195</v>
-      </c>
       <c r="D226" t="s">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="E226" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="F226" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="G226" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="H226" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1202</v>
+      </c>
+      <c r="I226" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="B227">
         <v>929000</v>
       </c>
       <c r="C227" t="s">
-        <v>1202</v>
+        <v>1206</v>
       </c>
       <c r="D227" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="E227" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="F227" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="G227" t="s">
-        <v>1206</v>
+        <v>1210</v>
       </c>
       <c r="H227" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="I227" t="s">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="J227" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1213</v>
+      </c>
+      <c r="K227" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>1210</v>
+        <v>1215</v>
       </c>
       <c r="B228">
         <v>939000</v>
       </c>
       <c r="C228" t="s">
-        <v>1211</v>
+        <v>1216</v>
       </c>
       <c r="D228" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="E228" t="s">
-        <v>1212</v>
+        <v>1217</v>
       </c>
       <c r="F228" t="s">
-        <v>1213</v>
+        <v>1218</v>
       </c>
       <c r="G228" t="s">
-        <v>1214</v>
+        <v>1219</v>
       </c>
       <c r="H228" t="s">
-        <v>1215</v>
+        <v>1220</v>
       </c>
       <c r="I228" t="s">
-        <v>1216</v>
+        <v>1221</v>
       </c>
       <c r="J228" t="s">
-        <v>1217</v>
+        <v>1222</v>
       </c>
       <c r="K228" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1223</v>
+      </c>
+      <c r="L228" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="B229">
         <v>948800</v>
       </c>
-      <c r="C229" t="s">
-        <v>1220</v>
-      </c>
       <c r="D229" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="E229" t="s">
-        <v>1221</v>
+        <v>1226</v>
       </c>
       <c r="F229" t="s">
-        <v>1222</v>
+        <v>1227</v>
       </c>
       <c r="G229" t="s">
-        <v>1223</v>
+        <v>1228</v>
       </c>
       <c r="H229" t="s">
-        <v>80</v>
+        <v>1229</v>
       </c>
       <c r="I229" t="s">
-        <v>1224</v>
+        <v>81</v>
       </c>
       <c r="J229" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1230</v>
+      </c>
+      <c r="K229" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>1226</v>
+        <v>1232</v>
       </c>
       <c r="B230">
         <v>999000</v>
       </c>
       <c r="C230" t="s">
-        <v>1227</v>
+        <v>1233</v>
       </c>
       <c r="D230" t="s">
-        <v>1228</v>
+        <v>1234</v>
       </c>
       <c r="E230" t="s">
-        <v>1229</v>
+        <v>1235</v>
       </c>
       <c r="F230" t="s">
-        <v>1230</v>
+        <v>1236</v>
       </c>
       <c r="G230" t="s">
-        <v>1231</v>
+        <v>1237</v>
       </c>
       <c r="H230" t="s">
-        <v>1232</v>
+        <v>1238</v>
       </c>
       <c r="I230" t="s">
-        <v>1233</v>
+        <v>1239</v>
       </c>
       <c r="J230" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1240</v>
+      </c>
+      <c r="K230" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>1235</v>
+        <v>1242</v>
       </c>
       <c r="B231">
         <v>1098000</v>
       </c>
       <c r="C231" t="s">
-        <v>1236</v>
+        <v>1243</v>
       </c>
       <c r="D231" t="s">
-        <v>1237</v>
+        <v>1244</v>
       </c>
       <c r="E231" t="s">
-        <v>869</v>
+        <v>1245</v>
       </c>
       <c r="F231" t="s">
-        <v>1238</v>
+        <v>872</v>
       </c>
       <c r="G231" t="s">
-        <v>1239</v>
+        <v>1246</v>
       </c>
       <c r="H231" t="s">
-        <v>18</v>
+        <v>1247</v>
       </c>
       <c r="I231" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J231" t="s">
-        <v>1240</v>
+        <v>19</v>
       </c>
       <c r="K231" t="s">
-        <v>1240</v>
+        <v>1248</v>
       </c>
       <c r="L231" t="s">
-        <v>1241</v>
+        <v>1248</v>
       </c>
       <c r="M231" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1249</v>
+      </c>
+      <c r="N231" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>1243</v>
+        <v>1251</v>
       </c>
       <c r="B232">
         <v>1099000</v>
       </c>
       <c r="C232" t="s">
-        <v>1244</v>
+        <v>1252</v>
       </c>
       <c r="D232" t="s">
-        <v>1245</v>
+        <v>1253</v>
       </c>
       <c r="E232" t="s">
-        <v>1246</v>
+        <v>1254</v>
       </c>
       <c r="F232" t="s">
-        <v>1247</v>
+        <v>1255</v>
       </c>
       <c r="G232" t="s">
-        <v>1248</v>
+        <v>1256</v>
       </c>
       <c r="H232" t="s">
-        <v>1249</v>
+        <v>1257</v>
       </c>
       <c r="I232" t="s">
-        <v>1250</v>
+        <v>1258</v>
       </c>
       <c r="J232" t="s">
-        <v>1251</v>
+        <v>1259</v>
       </c>
       <c r="K232" t="s">
-        <v>1252</v>
+        <v>1260</v>
       </c>
       <c r="L232" t="s">
-        <v>1253</v>
+        <v>1261</v>
       </c>
       <c r="M232" t="s">
-        <v>1254</v>
+        <v>1262</v>
       </c>
       <c r="N232" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1263</v>
+      </c>
+      <c r="O232" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>1256</v>
+        <v>1265</v>
       </c>
       <c r="B233">
         <v>1199900</v>
       </c>
       <c r="C233" t="s">
-        <v>1257</v>
+        <v>1266</v>
       </c>
       <c r="D233" t="s">
-        <v>1258</v>
+        <v>1267</v>
       </c>
       <c r="E233" t="s">
-        <v>18</v>
+        <v>1268</v>
       </c>
       <c r="F233" t="s">
-        <v>1259</v>
+        <v>19</v>
       </c>
       <c r="G233" t="s">
-        <v>18</v>
+        <v>1269</v>
       </c>
       <c r="H233" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I233" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J233" t="s">
-        <v>1260</v>
+        <v>19</v>
       </c>
       <c r="K233" t="s">
-        <v>1261</v>
+        <v>1270</v>
       </c>
       <c r="L233" t="s">
-        <v>18</v>
+        <v>1271</v>
       </c>
       <c r="M233" t="s">
-        <v>1262</v>
+        <v>19</v>
       </c>
       <c r="N233" t="s">
-        <v>1263</v>
+        <v>1272</v>
       </c>
       <c r="O233" t="s">
-        <v>1264</v>
+        <v>1273</v>
       </c>
       <c r="P233" t="s">
-        <v>1265</v>
+        <v>1274</v>
       </c>
       <c r="Q233" t="s">
-        <v>1266</v>
+        <v>1275</v>
       </c>
       <c r="R233" t="s">
-        <v>1267</v>
+        <v>1276</v>
       </c>
       <c r="S233" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1277</v>
+      </c>
+      <c r="T233" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>1269</v>
+        <v>1279</v>
       </c>
       <c r="B234">
         <v>1200000</v>
       </c>
       <c r="C234" t="s">
-        <v>1270</v>
+        <v>1280</v>
       </c>
       <c r="D234" t="s">
-        <v>309</v>
+        <v>1281</v>
       </c>
       <c r="E234" t="s">
-        <v>1271</v>
+        <v>310</v>
       </c>
       <c r="F234" t="s">
-        <v>1272</v>
+        <v>1282</v>
       </c>
       <c r="G234" t="s">
-        <v>18</v>
+        <v>1283</v>
       </c>
       <c r="H234" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I234" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J234" t="s">
-        <v>1273</v>
+        <v>19</v>
       </c>
       <c r="K234" t="s">
-        <v>1274</v>
+        <v>1284</v>
       </c>
       <c r="L234" t="s">
-        <v>1275</v>
+        <v>1285</v>
       </c>
       <c r="M234" t="s">
-        <v>1276</v>
+        <v>1286</v>
       </c>
       <c r="N234" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1287</v>
+      </c>
+      <c r="O234" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>1278</v>
+        <v>1289</v>
       </c>
       <c r="B235">
         <v>1329786</v>
       </c>
-      <c r="C235" t="s">
-        <v>1279</v>
-      </c>
       <c r="D235" t="s">
-        <v>1279</v>
+        <v>1290</v>
       </c>
       <c r="E235" t="s">
-        <v>1280</v>
+        <v>1290</v>
       </c>
       <c r="F235" t="s">
-        <v>1280</v>
+        <v>1291</v>
       </c>
       <c r="G235" t="s">
-        <v>18</v>
+        <v>1291</v>
       </c>
       <c r="H235" t="s">
-        <v>1281</v>
+        <v>19</v>
       </c>
       <c r="I235" t="s">
-        <v>993</v>
+        <v>1292</v>
       </c>
       <c r="J235" t="s">
-        <v>1282</v>
+        <v>996</v>
       </c>
       <c r="K235" t="s">
-        <v>1283</v>
+        <v>1293</v>
       </c>
       <c r="L235" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1294</v>
+      </c>
+      <c r="M235" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>1284</v>
+        <v>1295</v>
       </c>
       <c r="B236">
         <v>1349900</v>
       </c>
-      <c r="C236" t="s">
-        <v>1285</v>
-      </c>
       <c r="D236" t="s">
-        <v>1286</v>
+        <v>1296</v>
       </c>
       <c r="E236" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
       <c r="F236" t="s">
-        <v>1288</v>
+        <v>1298</v>
       </c>
       <c r="G236" t="s">
-        <v>1289</v>
+        <v>1299</v>
       </c>
       <c r="H236" t="s">
-        <v>1290</v>
+        <v>1300</v>
       </c>
       <c r="I236" t="s">
-        <v>1291</v>
+        <v>1301</v>
       </c>
       <c r="J236" t="s">
-        <v>1292</v>
+        <v>1302</v>
       </c>
       <c r="K236" t="s">
-        <v>1293</v>
+        <v>1303</v>
       </c>
       <c r="L236" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1304</v>
+      </c>
+      <c r="M236" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="B237">
         <v>1399900</v>
       </c>
       <c r="C237" t="s">
-        <v>18</v>
+        <v>1306</v>
       </c>
       <c r="D237" t="s">
-        <v>974</v>
+        <v>19</v>
       </c>
       <c r="E237" t="s">
-        <v>1295</v>
+        <v>977</v>
       </c>
       <c r="F237" t="s">
-        <v>1296</v>
+        <v>1307</v>
       </c>
       <c r="G237" t="s">
-        <v>455</v>
+        <v>1308</v>
       </c>
       <c r="H237" t="s">
-        <v>964</v>
+        <v>456</v>
       </c>
       <c r="I237" t="s">
-        <v>1297</v>
+        <v>967</v>
       </c>
       <c r="J237" t="s">
-        <v>1298</v>
+        <v>1309</v>
       </c>
       <c r="K237" t="s">
-        <v>105</v>
+        <v>1310</v>
       </c>
       <c r="L237" t="s">
-        <v>1299</v>
+        <v>106</v>
       </c>
       <c r="M237" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1311</v>
+      </c>
+      <c r="N237" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>1300</v>
+        <v>1312</v>
       </c>
       <c r="B238">
         <v>1429900</v>
       </c>
       <c r="C238" t="s">
-        <v>1301</v>
+        <v>1313</v>
       </c>
       <c r="D238" t="s">
-        <v>1302</v>
+        <v>1314</v>
       </c>
       <c r="E238" t="s">
-        <v>1303</v>
+        <v>1315</v>
       </c>
       <c r="F238" t="s">
-        <v>1304</v>
+        <v>1316</v>
       </c>
       <c r="G238" t="s">
-        <v>1305</v>
+        <v>1317</v>
       </c>
       <c r="H238" t="s">
-        <v>1306</v>
+        <v>1318</v>
       </c>
       <c r="I238" t="s">
-        <v>1307</v>
+        <v>1319</v>
       </c>
       <c r="J238" t="s">
-        <v>1308</v>
+        <v>1320</v>
       </c>
       <c r="K238" t="s">
-        <v>1309</v>
+        <v>1321</v>
       </c>
       <c r="L238" t="s">
-        <v>1310</v>
+        <v>1322</v>
       </c>
       <c r="M238" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1323</v>
+      </c>
+      <c r="N238" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>1312</v>
+        <v>1325</v>
       </c>
       <c r="B239">
         <v>1499800</v>
       </c>
       <c r="C239" t="s">
-        <v>18</v>
+        <v>1326</v>
       </c>
       <c r="D239" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E239" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F239" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G239" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H239" t="s">
-        <v>1313</v>
+        <v>19</v>
       </c>
       <c r="I239" t="s">
-        <v>1313</v>
+        <v>1327</v>
       </c>
       <c r="J239" t="s">
-        <v>12</v>
+        <v>1327</v>
       </c>
       <c r="K239" t="s">
-        <v>1314</v>
+        <v>13</v>
       </c>
       <c r="L239" t="s">
-        <v>1041</v>
+        <v>1328</v>
       </c>
       <c r="M239" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1044</v>
+      </c>
+      <c r="N239" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>1316</v>
+        <v>1330</v>
       </c>
       <c r="B240">
         <v>1549990</v>
       </c>
       <c r="C240" t="s">
-        <v>18</v>
+        <v>795</v>
       </c>
       <c r="D240" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E240" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F240" t="s">
-        <v>1317</v>
+        <v>19</v>
       </c>
       <c r="G240" t="s">
-        <v>1318</v>
+        <v>1331</v>
       </c>
       <c r="H240" t="s">
-        <v>1319</v>
+        <v>1332</v>
       </c>
       <c r="I240" t="s">
-        <v>18</v>
+        <v>1333</v>
       </c>
       <c r="J240" t="s">
-        <v>1320</v>
+        <v>19</v>
       </c>
       <c r="K240" t="s">
-        <v>1321</v>
+        <v>1334</v>
       </c>
       <c r="L240" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1335</v>
+      </c>
+      <c r="M240" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>1322</v>
+        <v>1336</v>
       </c>
       <c r="B241">
         <v>1598000</v>
       </c>
       <c r="C241" t="s">
-        <v>1323</v>
+        <v>1337</v>
       </c>
       <c r="D241" t="s">
-        <v>1324</v>
+        <v>1338</v>
       </c>
       <c r="E241" t="s">
-        <v>1325</v>
+        <v>1339</v>
       </c>
       <c r="F241" t="s">
-        <v>1326</v>
+        <v>1340</v>
       </c>
       <c r="G241" t="s">
-        <v>1327</v>
+        <v>1341</v>
       </c>
       <c r="H241" t="s">
-        <v>1328</v>
+        <v>1342</v>
       </c>
       <c r="I241" t="s">
-        <v>1329</v>
+        <v>1343</v>
       </c>
       <c r="J241" t="s">
-        <v>1330</v>
+        <v>1344</v>
       </c>
       <c r="K241" t="s">
-        <v>929</v>
+        <v>1345</v>
       </c>
       <c r="L241" t="s">
-        <v>732</v>
+        <v>932</v>
       </c>
       <c r="M241" t="s">
-        <v>1331</v>
+        <v>734</v>
       </c>
       <c r="N241" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1346</v>
+      </c>
+      <c r="O241" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>1333</v>
+        <v>1348</v>
       </c>
       <c r="B242">
         <v>1699999</v>
       </c>
       <c r="C242" t="s">
-        <v>18</v>
+        <v>1349</v>
       </c>
       <c r="D242" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E242" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F242" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G242" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H242" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I242" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J242" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K242" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L242" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M242" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="N242" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>1334</v>
+        <v>1350</v>
       </c>
       <c r="B243">
         <v>1785800</v>
       </c>
       <c r="C243" t="s">
-        <v>1335</v>
+        <v>1351</v>
       </c>
       <c r="D243" t="s">
-        <v>1336</v>
+        <v>1352</v>
       </c>
       <c r="E243" t="s">
-        <v>1337</v>
+        <v>1353</v>
       </c>
       <c r="F243" t="s">
-        <v>1338</v>
+        <v>1354</v>
       </c>
       <c r="G243" t="s">
-        <v>1339</v>
+        <v>1355</v>
       </c>
       <c r="H243" t="s">
-        <v>1108</v>
+        <v>1356</v>
       </c>
       <c r="I243" t="s">
-        <v>1340</v>
+        <v>1111</v>
       </c>
       <c r="J243" t="s">
-        <v>1341</v>
+        <v>1357</v>
       </c>
       <c r="K243" t="s">
-        <v>1341</v>
+        <v>1358</v>
       </c>
       <c r="L243" t="s">
-        <v>1342</v>
+        <v>1358</v>
       </c>
       <c r="M243" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1359</v>
+      </c>
+      <c r="N243" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>1344</v>
+        <v>1361</v>
       </c>
       <c r="B244">
         <v>2099900</v>
       </c>
       <c r="C244" t="s">
-        <v>1345</v>
+        <v>1362</v>
       </c>
       <c r="D244" t="s">
-        <v>1346</v>
+        <v>1363</v>
       </c>
       <c r="E244" t="s">
-        <v>1347</v>
+        <v>1364</v>
       </c>
       <c r="F244" t="s">
-        <v>1348</v>
+        <v>1365</v>
       </c>
       <c r="G244" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1366</v>
+      </c>
+      <c r="H244" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>1350</v>
+        <v>1368</v>
       </c>
       <c r="B245">
         <v>2299900</v>
       </c>
-      <c r="C245" t="s">
-        <v>1351</v>
-      </c>
       <c r="D245" t="s">
-        <v>1352</v>
+        <v>1369</v>
       </c>
       <c r="E245" t="s">
-        <v>1353</v>
+        <v>1370</v>
       </c>
       <c r="F245" t="s">
-        <v>1354</v>
+        <v>1371</v>
       </c>
       <c r="G245" t="s">
-        <v>1355</v>
+        <v>1372</v>
       </c>
       <c r="H245" t="s">
-        <v>1356</v>
+        <v>1373</v>
       </c>
       <c r="I245" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1374</v>
+      </c>
+      <c r="J245" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>1358</v>
+        <v>1376</v>
       </c>
       <c r="B246">
         <v>2345000</v>
       </c>
       <c r="C246" t="s">
-        <v>1359</v>
+        <v>1377</v>
       </c>
       <c r="D246" t="s">
-        <v>1360</v>
+        <v>1378</v>
       </c>
       <c r="E246" t="s">
-        <v>1361</v>
+        <v>1379</v>
       </c>
       <c r="F246" t="s">
-        <v>1362</v>
+        <v>1380</v>
       </c>
       <c r="G246" t="s">
-        <v>1363</v>
+        <v>1381</v>
       </c>
       <c r="H246" t="s">
-        <v>1364</v>
+        <v>1382</v>
       </c>
       <c r="I246" t="s">
-        <v>1365</v>
+        <v>1383</v>
       </c>
       <c r="J246" t="s">
-        <v>1366</v>
+        <v>1384</v>
       </c>
       <c r="K246" t="s">
-        <v>1367</v>
+        <v>1385</v>
       </c>
       <c r="L246" t="s">
-        <v>1368</v>
+        <v>1386</v>
       </c>
       <c r="M246" t="s">
-        <v>1369</v>
+        <v>1387</v>
       </c>
       <c r="N246" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1388</v>
+      </c>
+      <c r="O246" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>1371</v>
+        <v>1390</v>
       </c>
       <c r="B247">
         <v>2988800</v>
       </c>
       <c r="C247" t="s">
-        <v>1372</v>
+        <v>1391</v>
       </c>
       <c r="D247" t="s">
-        <v>1373</v>
+        <v>1392</v>
       </c>
       <c r="E247" t="s">
-        <v>1116</v>
+        <v>1393</v>
       </c>
       <c r="F247" t="s">
-        <v>1374</v>
+        <v>1119</v>
       </c>
       <c r="G247" t="s">
-        <v>1375</v>
+        <v>1394</v>
       </c>
       <c r="H247" t="s">
-        <v>1376</v>
+        <v>1395</v>
       </c>
       <c r="I247" t="s">
-        <v>1377</v>
+        <v>1396</v>
       </c>
       <c r="J247" t="s">
-        <v>1378</v>
+        <v>1397</v>
       </c>
       <c r="K247" t="s">
-        <v>1379</v>
+        <v>1398</v>
       </c>
       <c r="L247" t="s">
-        <v>1380</v>
+        <v>1399</v>
       </c>
       <c r="M247" t="s">
-        <v>198</v>
+        <v>1400</v>
       </c>
       <c r="N247" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="O247" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>1382</v>
+        <v>1402</v>
       </c>
       <c r="B248">
         <v>3999999</v>
       </c>
       <c r="C248" t="s">
-        <v>18</v>
+        <v>1403</v>
       </c>
       <c r="D248" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E248" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F248" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G248" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H248" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I248" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J248" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K248" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L248" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M248" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N248" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="250">
   <si>
     <t>Address</t>
   </si>
@@ -62,6 +62,705 @@
   </si>
   <si>
     <t>#2202 -4470 TUCANA CRT|Mississauga, Ontario L5R3K8</t>
+  </si>
+  <si>
+    <t>#1911 -1580 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3T8</t>
+  </si>
+  <si>
+    <t>#912 -115 HILLCREST AVE|Mississauga, Ontario L5B3Y9</t>
+  </si>
+  <si>
+    <t>#410 -3985 GRAND PARK DR|Mississauga, Ontario L5B0H8</t>
+  </si>
+  <si>
+    <t>#2503 -4011 BRICKSTONE MEWS|Mississauga, Ontario L5B0G3</t>
+  </si>
+  <si>
+    <t>#3203 -4070 CONFEDERATION PKWY|Mississauga, Ontario L5B0E9</t>
+  </si>
+  <si>
+    <t>#220 -250 WEBB DR|Mississauga, Ontario L5B3Z4</t>
+  </si>
+  <si>
+    <t>#1604 -4470 TUCANA CRT|Mississauga, Ontario L5R3K8</t>
+  </si>
+  <si>
+    <t>#205 -3700 KANEFF CRES|Mississauga, Ontario L5A4B8</t>
+  </si>
+  <si>
+    <t>#1804 -20 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3S1</t>
+  </si>
+  <si>
+    <t>#311 -50 ELM DR E|Mississauga, Ontario L5A3X2</t>
+  </si>
+  <si>
+    <t>#1201 -4085 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
+  </si>
+  <si>
+    <t>#2601 -550 WEBB DR|Mississauga, Ontario L5B3Y4</t>
+  </si>
+  <si>
+    <t>#1202 -3695  KANEFF  CRES|Mississauga, Ontario L5A4B6</t>
+  </si>
+  <si>
+    <t>#801 -1 ELM DR W|Mississauga, Ontario L5B4M1</t>
+  </si>
+  <si>
+    <t>#1703 -50 ELM DR E|Mississauga, Ontario L5A3X2</t>
+  </si>
+  <si>
+    <t>#611 -339 RATHBURN RD W|Mississauga, Ontario L5B0C8</t>
+  </si>
+  <si>
+    <t>#2008 -3100 KIRWIN AVE|Mississauga, Ontario L5A3S6</t>
+  </si>
+  <si>
+    <t>#802 -156 ENFIELD PL|Mississauga, Ontario L5B4L8</t>
+  </si>
+  <si>
+    <t>#2610 -80 ABSOLUTE AVE|Mississauga, Ontario L4Z0A5</t>
+  </si>
+  <si>
+    <t>#401 -80 ABSOLUTE AVE|Mississauga, Ontario L4Z0A5</t>
+  </si>
+  <si>
+    <t>#1212 -50 KINGSBRIDGE GARDEN CIRC|Mississauga, Ontario L5R1Y2</t>
+  </si>
+  <si>
+    <t>#3805 -208 ENFIELD PL|Mississauga, Ontario L5B0B8</t>
+  </si>
+  <si>
+    <t>#2710 -360 SQUARE ONE DR|Mississauga, Ontario L5B0G7</t>
+  </si>
+  <si>
+    <t>#713 -115 HILLCREST AVE|Mississauga, Ontario L5B3Y9</t>
+  </si>
+  <si>
+    <t>#1111 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
+  </si>
+  <si>
+    <t>#1205 -330 RATHBURN RD|Mississauga, Ontario L5B3Y2</t>
+  </si>
+  <si>
+    <t>#530 -4085 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
+  </si>
+  <si>
+    <t>#1110 -330 BURNHAMTHORPE RD W|Mississauga, Ontario L5B0E1</t>
+  </si>
+  <si>
+    <t>#2603 -4070 CONFEDERATION  PKWY|Mississauga, Ontario L5B0E9</t>
+  </si>
+  <si>
+    <t>#2403 -510 CURRAN PL|Mississauga, Ontario L5B0J8</t>
+  </si>
+  <si>
+    <t>3939 DUKE OF YORK BLVD Boulevard Unit# 2606|Mississauga, Ontario L5B4N2</t>
+  </si>
+  <si>
+    <t>#508 -50 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
+  </si>
+  <si>
+    <t>#1602 -4470 TUCANA CRT|Mississauga, Ontario L5R3K8</t>
+  </si>
+  <si>
+    <t>#2201 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
+  </si>
+  <si>
+    <t>#205 -4070 CONFEDERATION PKWY|Mississauga, Ontario</t>
+  </si>
+  <si>
+    <t>#2110 -330 BURNHAMTHORPE RD|Mississauga, Ontario L5B0E1</t>
+  </si>
+  <si>
+    <t>#1208 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
+  </si>
+  <si>
+    <t>#2206 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
+  </si>
+  <si>
+    <t>#719 -50 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3S2</t>
+  </si>
+  <si>
+    <t>#2113 -135 HILLCREST AVE|Mississauga, Ontario L5B4B1</t>
+  </si>
+  <si>
+    <t>#1306 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
+  </si>
+  <si>
+    <t>#707 -365 PRINCE OF WALES DR|Mississauga, Ontario L5B0G6</t>
+  </si>
+  <si>
+    <t>#1211 -4011 BRICKSTONE MEWS|Mississauga, Ontario L5B0G3</t>
+  </si>
+  <si>
+    <t>#411 -310 BURNHAMTHORPE RD|Mississauga, Ontario L5B4P9</t>
+  </si>
+  <si>
+    <t>#808 -810 SCOLLARD CRT|Mississauga, Ontario L5V0A2</t>
+  </si>
+  <si>
+    <t>810 SCOLLARD Court Unit# 808|Mississauga, Ontario L5V0A4</t>
+  </si>
+  <si>
+    <t>#405 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
+  </si>
+  <si>
+    <t>#1109 -388 PRINCE OF WALES DR|Mississauga, Ontario L5B0A1</t>
+  </si>
+  <si>
+    <t>#2008 -4065 BRICKSTONE MEWS|Mississauga, Ontario L5B0G3</t>
+  </si>
+  <si>
+    <t>#2805 -510 CURRAN PL|Mississauga, Ontario L5B0J8</t>
+  </si>
+  <si>
+    <t>#707 -350 PRINCESS ROYAL DR|Mississauga, Ontario L5B4N1</t>
+  </si>
+  <si>
+    <t>#1610 -385 PRINCE OF WALES DR|Mississauga, Ontario L5B0C6</t>
+  </si>
+  <si>
+    <t>#1106 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
+  </si>
+  <si>
+    <t>#PH13 -3590 KANEFF CRES|Mississauga, Ontario L5A3X3</t>
+  </si>
+  <si>
+    <t>#311 -3605 KARIYA DR|Mississauga, Ontario L5B3J4</t>
+  </si>
+  <si>
+    <t>#2106 -33 ELM DR W|Mississauga, Ontario L5B4M2</t>
+  </si>
+  <si>
+    <t>#1101 -330 BURNHAMTHORPE RD W|Mississauga, Ontario L5B0E1</t>
+  </si>
+  <si>
+    <t>#605 -350 RATHBURN RD|Mississauga, Ontario L5B3Y2</t>
+  </si>
+  <si>
+    <t>#3209 -385 PRINCE OF WALES DR|Mississauga, Ontario L5B0C6</t>
+  </si>
+  <si>
+    <t>#2009 -349 RATHBURN RD|Mississauga, Ontario L5B0C8</t>
+  </si>
+  <si>
+    <t>#1005 -350 PRINCESS ROYAL DR|Mississauga, Ontario L5B4N1</t>
+  </si>
+  <si>
+    <t>#1803 -335 WEBB DR|Mississauga, Ontario L5B4A1</t>
+  </si>
+  <si>
+    <t>#2104 -385 PRINCE OF WALES DR|Mississauga, Ontario L5B0C6</t>
+  </si>
+  <si>
+    <t>#1709 -20 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3S2</t>
+  </si>
+  <si>
+    <t>#809 -360 SQUARE ONE DR|Mississauga, Ontario L5B0G7</t>
+  </si>
+  <si>
+    <t>#914 -550 WEBB DR|Mississauga, Ontario L5B3Y4</t>
+  </si>
+  <si>
+    <t>#3201 -510 CURRAN PL|Mississauga, Ontario L5B0J8</t>
+  </si>
+  <si>
+    <t>#1210 -350 WEBB DR|Mississauga, Ontario L5B3W4</t>
+  </si>
+  <si>
+    <t>#511 -510 CURRAN PL|Mississauga, Ontario</t>
+  </si>
+  <si>
+    <t>#205 -75 KING ST E|Mississauga, Ontario L5A4G5</t>
+  </si>
+  <si>
+    <t>#414 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
+  </si>
+  <si>
+    <t>#209 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
+  </si>
+  <si>
+    <t>#1712 -349 RATHBURN RD|Mississauga, Ontario L5B0G9</t>
+  </si>
+  <si>
+    <t>220 BURNHAMTHORPE Road Unit# 1703|Mississauga, Ontario L5B4N5</t>
+  </si>
+  <si>
+    <t>#1703 -220 BURNHAMTHORPE RD|Mississauga, Ontario L5B4N4</t>
+  </si>
+  <si>
+    <t>#1408 -335 WEBB DR|Mississauga, Ontario L5B4A1</t>
+  </si>
+  <si>
+    <t>#1210 -20 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3S1</t>
+  </si>
+  <si>
+    <t>#208 -285 ENFIELD PL|Mississauga, Ontario L5B4L8</t>
+  </si>
+  <si>
+    <t>#802 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
+  </si>
+  <si>
+    <t>#306 -360 SQUARE ONE DR|Mississauga, Ontario L5B0G7</t>
+  </si>
+  <si>
+    <t>#1601 -3975 GRAND PARK DR|Mississauga, Ontario L5B4M6</t>
+  </si>
+  <si>
+    <t>#1008 -3525 KARIYA DR|Mississauga, Ontario L5B0C2</t>
+  </si>
+  <si>
+    <t>#PH11 -300 WEBB DR|Mississauga, Ontario L5B3W3</t>
+  </si>
+  <si>
+    <t>#406 -90 ABSOLUTE AVE|Mississauga, Ontario L4Z0A3</t>
+  </si>
+  <si>
+    <t>#1301 -60 ABSOLUTE AVE|Mississauga, Ontario L4T0A9</t>
+  </si>
+  <si>
+    <t>#1605 -385 PRINCE OF WALES DR|Mississauga, Ontario L5B0C6</t>
+  </si>
+  <si>
+    <t>#3903 -510 CURRAN PL|Mississauga, Ontario L5B0J8</t>
+  </si>
+  <si>
+    <t>#1905 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
+  </si>
+  <si>
+    <t>#2312 -3605 KARIYA DR|Mississauga, Ontario L5B3J4</t>
+  </si>
+  <si>
+    <t>#303 -335 WEBB DR|Mississauga, Ontario L5B4A1</t>
+  </si>
+  <si>
+    <t>#202 -3975 GRAND PARK DR|Mississauga, Ontario L5B0K4</t>
+  </si>
+  <si>
+    <t>#906 -250 WEBB DR|Mississauga, Ontario L5B3Z4</t>
+  </si>
+  <si>
+    <t>#1204 -285 ENFIELD PL|Mississauga, Ontario L5B3Y6</t>
+  </si>
+  <si>
+    <t>#709 -4460 TUCANA CRT|Mississauga, Ontario L5R3K9</t>
+  </si>
+  <si>
+    <t>#1411 -300 WEBB DR|Mississauga, Ontario L5B3W3</t>
+  </si>
+  <si>
+    <t>#603 -349 RATHBURN RD|Mississauga, Ontario L5B0G9</t>
+  </si>
+  <si>
+    <t>#104 -1 ELM DR|Mississauga, Ontario L5B4M1</t>
+  </si>
+  <si>
+    <t>#4106 -50 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
+  </si>
+  <si>
+    <t>#412 -115 HILLCREST AVE|Mississauga, Ontario L5B3Y9</t>
+  </si>
+  <si>
+    <t>#612 -3880 DUKE OF YORK BLVD|Mississauga, Ontario L5B4M7</t>
+  </si>
+  <si>
+    <t>3939 DUKE OF YORK Boulevard Unit# 905|Mississauga, Ontario L5B4N2</t>
+  </si>
+  <si>
+    <t>#905 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
+  </si>
+  <si>
+    <t>#3303 -3975 GRAND PARK DR|Mississauga, Ontario L5B0K4</t>
+  </si>
+  <si>
+    <t>#2410 -550 WEBB DR|Mississauga, Ontario L5B3Y4</t>
+  </si>
+  <si>
+    <t>#1808 -1 ELM DR W|Mississauga, Ontario L5B4M1</t>
+  </si>
+  <si>
+    <t>#2204 -220 BURNHAMTHORPE RD W|Mississauga, Ontario L5B4N4</t>
+  </si>
+  <si>
+    <t>4070 CONFEDERATION Parkway Unit# 608|Mississauga, Ontario L5B0E9</t>
+  </si>
+  <si>
+    <t>#608 -4070 CONFEDERATION PKWY|Mississauga, Ontario L5B0E9</t>
+  </si>
+  <si>
+    <t>#606 -350 WEBB DR|Mississauga, Ontario L5B3W4</t>
+  </si>
+  <si>
+    <t>#308 -400 WEBB DR|Mississauga, Ontario L5B3Z7</t>
+  </si>
+  <si>
+    <t>#3703 -3975 GRAND PARK DR|Mississauga, Ontario L5B0K4</t>
+  </si>
+  <si>
+    <t>#207 -330 BURNHAMTHORPE RD W|Mississauga, Ontario L5B0E1</t>
+  </si>
+  <si>
+    <t>#2108 -3525 KARIYA DR|Mississauga, Ontario L5B0C2</t>
+  </si>
+  <si>
+    <t>#920 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
+  </si>
+  <si>
+    <t>#1111 -223 WEBB DR|Mississauga, Ontario L5B0E8</t>
+  </si>
+  <si>
+    <t>#2316 -4055 PARKSIDE DR|Mississauga, Ontario L5B0K2</t>
+  </si>
+  <si>
+    <t>#2501 -4080 LIVING ARTS DR|Mississauga, Ontario L5B4N3</t>
+  </si>
+  <si>
+    <t>#2202 -4065 BRICKSTONE MEWS|Mississauga, Ontario L5B0G3</t>
+  </si>
+  <si>
+    <t>#402 -285 ENFIELD PL|Mississauga, Ontario L5B3Y6</t>
+  </si>
+  <si>
+    <t>Address not available</t>
+  </si>
+  <si>
+    <t>Row / Townhouse</t>
+  </si>
+  <si>
+    <t>#2909 -310 BURNHAMTHORPE RD|Mississauga, Ontario L5B4P9</t>
+  </si>
+  <si>
+    <t>#1708 -360 SQUARE ONE DR|Mississauga, Ontario L5B0G7</t>
+  </si>
+  <si>
+    <t>#911 -1 ELM DR|Mississauga, Ontario L5B4M1</t>
+  </si>
+  <si>
+    <t>#110 -90 ABSOLUTE AVE|Mississauga, Ontario L4Z0A1</t>
+  </si>
+  <si>
+    <t>#508 -1300 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3S9</t>
+  </si>
+  <si>
+    <t>#403 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
+  </si>
+  <si>
+    <t>#2212 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
+  </si>
+  <si>
+    <t>#512 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
+  </si>
+  <si>
+    <t>#1611 -135 HILLCREST AVE|Mississauga, Ontario L5B4B1</t>
+  </si>
+  <si>
+    <t>#1802 -4065 BRICKSTONE MEWS|Mississauga, Ontario L5B0G3</t>
+  </si>
+  <si>
+    <t>#3304 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
+  </si>
+  <si>
+    <t>3304 3939 DUKE OF YORK Boulevard|Mississauga, Ontario L5B4N2</t>
+  </si>
+  <si>
+    <t>#1103 -700 CONSTELLATION DR|Mississauga, Ontario L5R3G8</t>
+  </si>
+  <si>
+    <t>#2305 -335 RATHBURN RD W|Mississauga, Ontario L5B0C8</t>
+  </si>
+  <si>
+    <t>#201 -223 WEBB DR|Mississauga, Ontario L5B0E8</t>
+  </si>
+  <si>
+    <t>#104 -3605 KARIYA DR|Mississauga, Ontario L5B3J2</t>
+  </si>
+  <si>
+    <t>#608 -200 BURNHAMTHORPE RD|Mississauga, Ontario L5A4L4</t>
+  </si>
+  <si>
+    <t>#402 -220 BURNHAMTHORPE RD W|Mississauga, Ontario L5B4N4</t>
+  </si>
+  <si>
+    <t>#1502 -310 BURNHAMTHORPE RD W|Mississauga, Ontario L5B4P9</t>
+  </si>
+  <si>
+    <t>#1213 -3880 DUKE OF YORK BLVD|Mississauga, Ontario L5B4M7</t>
+  </si>
+  <si>
+    <t>#312 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
+  </si>
+  <si>
+    <t>#303 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
+  </si>
+  <si>
+    <t>#310 -350 WEBB DR|Mississauga, Ontario L5B3W4</t>
+  </si>
+  <si>
+    <t>#3115 -4055 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
+  </si>
+  <si>
+    <t>#1618 -4055 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K8</t>
+  </si>
+  <si>
+    <t>#1513 -3880 DUKE OF YORK BLVD|Mississauga, Ontario L5B4M7</t>
+  </si>
+  <si>
+    <t>#1104 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
+  </si>
+  <si>
+    <t>#906 -339 RATHBURN RD W|Mississauga, Ontario L5B9K6</t>
+  </si>
+  <si>
+    <t>#2002 -3700 KANEFF CRES|Mississauga, Ontario L5A4B8</t>
+  </si>
+  <si>
+    <t>#3307 -50 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
+  </si>
+  <si>
+    <t>#2710 -3504 HURONTARIO ST|Mississauga, Ontario L5B1P2</t>
+  </si>
+  <si>
+    <t>#717 -339 RATHBURN RD|Mississauga, Ontario L5B0C8</t>
+  </si>
+  <si>
+    <t>717 339 RATHBURN Road W|Mississauga, Ontario L5B0K6</t>
+  </si>
+  <si>
+    <t>#1817 -349 RATHBURN RD|Mississauga, Ontario L5B0C8</t>
+  </si>
+  <si>
+    <t>#704 -223 WEBB DR|Mississauga, Ontario L5B0E8</t>
+  </si>
+  <si>
+    <t>#1504 -3605 KARIYA DR|Mississauga, Ontario L5B3J2</t>
+  </si>
+  <si>
+    <t>350 RATHBURN Road W Unit# 209|Mississauga, Ontario L5B3Y2</t>
+  </si>
+  <si>
+    <t>#209 -350 RATHBURN RD W|Mississauga, Ontario L5B3Y2</t>
+  </si>
+  <si>
+    <t>#3103 -4099 BRICKSTONE MEWS|Mississauga, Ontario L5B0G2</t>
+  </si>
+  <si>
+    <t>#2102 -360 SQUARE ONE DR|Mississauga, Ontario L5B0E6</t>
+  </si>
+  <si>
+    <t>#2115 -339 RATHBURN RD W|Mississauga, Ontario L5B0K6</t>
+  </si>
+  <si>
+    <t>#2212 -4055 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
+  </si>
+  <si>
+    <t>#1512 -4055 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
+  </si>
+  <si>
+    <t>#1808 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
+  </si>
+  <si>
+    <t>#4102 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
+  </si>
+  <si>
+    <t>#3212 -4055 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
+  </si>
+  <si>
+    <t>#3506 -4099 BRICKSTONE MEWS|Mississauga, Ontario L5B0G2</t>
+  </si>
+  <si>
+    <t>#3810 -208 ENFIELD PL|Mississauga, Ontario L5B0B8</t>
+  </si>
+  <si>
+    <t>#201 -3975 GRAND PARK DR N|Mississauga, Ontario L5B0K4</t>
+  </si>
+  <si>
+    <t>3975 GRAND PARK Drive Unit# 0205|Mississauga, Ontario L5B0K4</t>
+  </si>
+  <si>
+    <t>#LPH04 -4065 BRICKSTONE MEWS|Mississauga, Ontario L5B0G3</t>
+  </si>
+  <si>
+    <t>#5103 -60  ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
+  </si>
+  <si>
+    <t>388 PRINCE OF WALES Drive Unit# 406|Mississauga, Ontario L5B0A1</t>
+  </si>
+  <si>
+    <t>#1809 -4085 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
+  </si>
+  <si>
+    <t>#3406 -4065 BRICKSTONE MEWS|Mississauga, Ontario</t>
+  </si>
+  <si>
+    <t>#2631 -3888 DUKE OF YORK BLVD|Mississauga, Ontario L5B4P5</t>
+  </si>
+  <si>
+    <t>#2701 -4080 LIVING ARTS DR|Mississauga, Ontario L5B4M8</t>
+  </si>
+  <si>
+    <t>#1402 -4070 CONFEDERATION PKWY|Mississauga, Ontario</t>
+  </si>
+  <si>
+    <t>#1606 -349 RATHBURN RD|Mississauga, Ontario L5B0C8</t>
+  </si>
+  <si>
+    <t>349 RATHBURN  RD W|Mississauga, Ontario L5B0G9</t>
+  </si>
+  <si>
+    <t>#4714 -3960 CONFEDERATION PKWY|Mississauga, Ontario</t>
+  </si>
+  <si>
+    <t>#UPH 07 -90 ABSOLUTE AVE|Mississauga, Ontario L4Z0A3</t>
+  </si>
+  <si>
+    <t>#311 -3351 CAWTHRA RD|Mississauga, Ontario L5A4N5</t>
+  </si>
+  <si>
+    <t>#4007 -510 CURRAN PL|Mississauga, Ontario L5B0J8</t>
+  </si>
+  <si>
+    <t>#106 -1180 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3M9</t>
+  </si>
+  <si>
+    <t>#62 -60 HANSON RD|Mississauga, Ontario L5B2P6</t>
+  </si>
+  <si>
+    <t>#504 -510 CURRAN PL|Mississauga, Ontario L5B0J8</t>
+  </si>
+  <si>
+    <t>#109 -90 ABSOLUTE AVE|Mississauga, Ontario L4Z0A1</t>
+  </si>
+  <si>
+    <t>#5303 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
+  </si>
+  <si>
+    <t>#2015 -349 RATHBURN RD|Mississauga, Ontario L5B0C8</t>
+  </si>
+  <si>
+    <t>#LPH2 -220 BURNHAMTHORPE RD W|Mississauga, Ontario L5B3Y5</t>
+  </si>
+  <si>
+    <t>#2306 -3880 DUKE OF YORK BLVD|Mississauga, Ontario L5B4M7</t>
+  </si>
+  <si>
+    <t>#1506 -3880 DUKE OF YORK BLVD|Mississauga, Ontario L5B4M7</t>
+  </si>
+  <si>
+    <t>#PH 3605 -3525 KARIYA DR|Mississauga, Ontario L5B0C2</t>
+  </si>
+  <si>
+    <t>#27 -3395 CLIFF RD N|Mississauga, Ontario L5A3M7</t>
+  </si>
+  <si>
+    <t>#1107 -200 ROBERT SPECK PKWY|Mississauga, Ontario L4Z1S3</t>
+  </si>
+  <si>
+    <t>#2804 -330 BURNHAMTHORPE RD|Mississauga, Ontario L5B0E1</t>
+  </si>
+  <si>
+    <t>#4904 -3980 CONFEDERATION PKWY|Mississauga, Ontario L5B0K7</t>
+  </si>
+  <si>
+    <t>#523 -4055 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
+  </si>
+  <si>
+    <t>#2706 -223 WEBB DR|Mississauga, Ontario L5B0E8</t>
+  </si>
+  <si>
+    <t>#TH 5 -4011 BRICKSTONE MEWS|Mississauga, Ontario L5B0J7</t>
+  </si>
+  <si>
+    <t>#3107 -4090 LIVING ARTS DR|Mississauga, Ontario L5B4M8</t>
+  </si>
+  <si>
+    <t>374 LARA WOODS|Mississauga, Ontario L5A3A9</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>#101 -3975 GRAND PARK  DR|Mississauga, Ontario L5B4M6</t>
+  </si>
+  <si>
+    <t>#4 -4070 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
+  </si>
+  <si>
+    <t>#PH4 -4070 CONFEDERATION PKWY|Mississauga, Ontario L5B0E9</t>
+  </si>
+  <si>
+    <t>#4 -4050 PARKSIDE VILLAGE DR|Mississauga, Ontario</t>
+  </si>
+  <si>
+    <t>#TH 7 -4080 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
+  </si>
+  <si>
+    <t>4049 CHICORY CRT|Mississauga, Ontario L5C3S8</t>
+  </si>
+  <si>
+    <t>4324 BEACON LANE|Mississauga, Ontario L5C3V9</t>
+  </si>
+  <si>
+    <t>3094 SALMONA CRT|Mississauga, Ontario L5B4G3</t>
+  </si>
+  <si>
+    <t>#GPH33 -3888 DUKE OF YORK DR|Mississauga, Ontario L5B4P5</t>
+  </si>
+  <si>
+    <t>4164 TEA GARDEN CIRC|Mississauga, Ontario L5B2W8</t>
+  </si>
+  <si>
+    <t>625 MINETTE CIRC|Mississauga, Ontario L5A3B9</t>
+  </si>
+  <si>
+    <t>417 LOLITA GDNS|Mississauga, Ontario L5A2A8</t>
+  </si>
+  <si>
+    <t>3488 PALGRAVE Road|Mississauga, Ontario L5B2H1</t>
+  </si>
+  <si>
+    <t>3470 COPERNICUS DR|Mississauga, Ontario L5B3K5</t>
+  </si>
+  <si>
+    <t>4151 SHIPP DR|Mississauga, Ontario L4Z0A7</t>
+  </si>
+  <si>
+    <t>#15 -4135 SHIPP DR|Mississauga, Ontario L4Z0A7</t>
+  </si>
+  <si>
+    <t>966 SILVERSMITH DR|Mississauga, Ontario L5V1E7</t>
+  </si>
+  <si>
+    <t>171 WHITCHURCH MEWS|Mississauga, Ontario L5A4B2</t>
+  </si>
+  <si>
+    <t>3369 CAWTHRA RD|Mississauga, Ontario L5A2X8</t>
+  </si>
+  <si>
+    <t>PH5501 60 ABSOLUTE Drive|Mississauga, Ontario L4Z0A8</t>
+  </si>
+  <si>
+    <t>429 SEARLES CRT|Mississauga, Ontario L5R2C6</t>
+  </si>
+  <si>
+    <t>4625 SANDFORD FARM DR|Mississauga, Ontario L5V0C1</t>
+  </si>
+  <si>
+    <t>3373 CAWTHRA RD|Mississauga, Ontario L5A2X8</t>
+  </si>
+  <si>
+    <t>3078 PARKERHILL RD|Mississauga, Ontario L5B1V5</t>
+  </si>
+  <si>
+    <t>#PH5503 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
+  </si>
+  <si>
+    <t>3575 JOAN DR|Mississauga, Ontario L5B1T9</t>
+  </si>
+  <si>
+    <t>3122 GIVEN RD|Mississauga, Ontario L5A2N3</t>
+  </si>
+  <si>
+    <t>2530 SHEPARD AVE|Mississauga, Ontario L5A2H6</t>
   </si>
 </sst>
 </file>
@@ -442,7 +1141,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:W247"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -822,6 +1521,9099 @@
       </c>
       <c r="L11">
         <v>7.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>509990</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>87.41</v>
+      </c>
+      <c r="G12">
+        <v>5.98</v>
+      </c>
+      <c r="H12">
+        <v>5.43</v>
+      </c>
+      <c r="I12">
+        <v>8.68</v>
+      </c>
+      <c r="J12">
+        <v>19.72</v>
+      </c>
+      <c r="K12">
+        <v>14.72</v>
+      </c>
+      <c r="L12">
+        <v>10.82</v>
+      </c>
+      <c r="M12">
+        <v>11.76</v>
+      </c>
+      <c r="N12">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>509990</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>60.699999999999996</v>
+      </c>
+      <c r="G13">
+        <v>14.25</v>
+      </c>
+      <c r="H13">
+        <v>6.24</v>
+      </c>
+      <c r="I13">
+        <v>8.79</v>
+      </c>
+      <c r="J13">
+        <v>12.19</v>
+      </c>
+      <c r="K13">
+        <v>9.08</v>
+      </c>
+      <c r="L13">
+        <v>10.15</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>510000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>41</v>
+      </c>
+      <c r="G14">
+        <v>9.39</v>
+      </c>
+      <c r="H14">
+        <v>9.39</v>
+      </c>
+      <c r="I14">
+        <v>6.41</v>
+      </c>
+      <c r="J14">
+        <v>11.13</v>
+      </c>
+      <c r="K14">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>510000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>56.72</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>5.9</v>
+      </c>
+      <c r="J15">
+        <v>10.18</v>
+      </c>
+      <c r="K15">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>513000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>57.370000000000005</v>
+      </c>
+      <c r="G16">
+        <v>18.06</v>
+      </c>
+      <c r="H16">
+        <v>18.06</v>
+      </c>
+      <c r="I16">
+        <v>5.95</v>
+      </c>
+      <c r="J16">
+        <v>11.16</v>
+      </c>
+      <c r="K16">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>514900</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>67.48</v>
+      </c>
+      <c r="G17">
+        <v>18.67</v>
+      </c>
+      <c r="H17">
+        <v>18.67</v>
+      </c>
+      <c r="I17">
+        <v>5.92</v>
+      </c>
+      <c r="J17">
+        <v>13.58</v>
+      </c>
+      <c r="K17">
+        <v>10.64</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>514900</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>96.82000000000001</v>
+      </c>
+      <c r="G18">
+        <v>23.31</v>
+      </c>
+      <c r="H18">
+        <v>23.31</v>
+      </c>
+      <c r="I18">
+        <v>7.23</v>
+      </c>
+      <c r="J18">
+        <v>17.09</v>
+      </c>
+      <c r="K18">
+        <v>12.14</v>
+      </c>
+      <c r="L18">
+        <v>5.95</v>
+      </c>
+      <c r="M18">
+        <v>7.79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>515000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>61.03</v>
+      </c>
+      <c r="G19">
+        <v>18.08</v>
+      </c>
+      <c r="H19">
+        <v>8.21</v>
+      </c>
+      <c r="I19">
+        <v>8.78</v>
+      </c>
+      <c r="J19">
+        <v>15.37</v>
+      </c>
+      <c r="K19">
+        <v>10.59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>515000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>92.57000000000001</v>
+      </c>
+      <c r="G20">
+        <v>27.27</v>
+      </c>
+      <c r="H20">
+        <v>11.9</v>
+      </c>
+      <c r="I20">
+        <v>10.88</v>
+      </c>
+      <c r="J20">
+        <v>17.76</v>
+      </c>
+      <c r="K20">
+        <v>7.67</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>515000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>88.85000000000001</v>
+      </c>
+      <c r="G21">
+        <v>20.11</v>
+      </c>
+      <c r="H21">
+        <v>8.49</v>
+      </c>
+      <c r="I21">
+        <v>7.74</v>
+      </c>
+      <c r="J21">
+        <v>6.32</v>
+      </c>
+      <c r="K21">
+        <v>11.57</v>
+      </c>
+      <c r="L21">
+        <v>13.98</v>
+      </c>
+      <c r="M21">
+        <v>11.22</v>
+      </c>
+      <c r="N21">
+        <v>9.42</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>515000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>57.29</v>
+      </c>
+      <c r="G22">
+        <v>18.24</v>
+      </c>
+      <c r="H22">
+        <v>18.24</v>
+      </c>
+      <c r="I22">
+        <v>5.9</v>
+      </c>
+      <c r="J22">
+        <v>10.03</v>
+      </c>
+      <c r="K22">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>515000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>75.1</v>
+      </c>
+      <c r="G23">
+        <v>19.38</v>
+      </c>
+      <c r="H23">
+        <v>19.38</v>
+      </c>
+      <c r="I23">
+        <v>7.78</v>
+      </c>
+      <c r="J23">
+        <v>7.33</v>
+      </c>
+      <c r="K23">
+        <v>12.02</v>
+      </c>
+      <c r="L23">
+        <v>9.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>515900</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>78.49</v>
+      </c>
+      <c r="G24">
+        <v>22.32</v>
+      </c>
+      <c r="H24">
+        <v>7.33</v>
+      </c>
+      <c r="I24">
+        <v>10.01</v>
+      </c>
+      <c r="J24">
+        <v>12.97</v>
+      </c>
+      <c r="K24">
+        <v>16.98</v>
+      </c>
+      <c r="L24">
+        <v>8.88</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>516000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>56.760000000000005</v>
+      </c>
+      <c r="G25">
+        <v>16.51</v>
+      </c>
+      <c r="H25">
+        <v>16.51</v>
+      </c>
+      <c r="I25">
+        <v>6.68</v>
+      </c>
+      <c r="J25">
+        <v>12.1</v>
+      </c>
+      <c r="K25">
+        <v>4.96</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>518888</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>73.5</v>
+      </c>
+      <c r="G26">
+        <v>17.88</v>
+      </c>
+      <c r="H26">
+        <v>8.7</v>
+      </c>
+      <c r="I26">
+        <v>6.74</v>
+      </c>
+      <c r="J26">
+        <v>5.01</v>
+      </c>
+      <c r="K26">
+        <v>15.08</v>
+      </c>
+      <c r="L26">
+        <v>15.08</v>
+      </c>
+      <c r="M26">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>518888</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>63.45</v>
+      </c>
+      <c r="G27">
+        <v>19.59</v>
+      </c>
+      <c r="H27">
+        <v>19.59</v>
+      </c>
+      <c r="I27">
+        <v>6.69</v>
+      </c>
+      <c r="J27">
+        <v>11.02</v>
+      </c>
+      <c r="K27">
+        <v>6.56</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>518900</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>77.32000000000001</v>
+      </c>
+      <c r="G28">
+        <v>10.92</v>
+      </c>
+      <c r="H28">
+        <v>26.02</v>
+      </c>
+      <c r="I28">
+        <v>12.38</v>
+      </c>
+      <c r="J28">
+        <v>14.3</v>
+      </c>
+      <c r="K28">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>519000</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>58.88</v>
+      </c>
+      <c r="G29">
+        <v>3.52</v>
+      </c>
+      <c r="H29">
+        <v>10.84</v>
+      </c>
+      <c r="I29">
+        <v>10.16</v>
+      </c>
+      <c r="J29">
+        <v>8.01</v>
+      </c>
+      <c r="K29">
+        <v>15.89</v>
+      </c>
+      <c r="L29">
+        <v>10.46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>519000</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>64.03</v>
+      </c>
+      <c r="G30">
+        <v>17.18</v>
+      </c>
+      <c r="H30">
+        <v>17.18</v>
+      </c>
+      <c r="I30">
+        <v>5.74</v>
+      </c>
+      <c r="J30">
+        <v>12.8</v>
+      </c>
+      <c r="K30">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>519000</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>57.959999999999994</v>
+      </c>
+      <c r="G31">
+        <v>16.96</v>
+      </c>
+      <c r="H31">
+        <v>16.96</v>
+      </c>
+      <c r="I31">
+        <v>6.8</v>
+      </c>
+      <c r="J31">
+        <v>10.58</v>
+      </c>
+      <c r="K31">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>519700</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>54.900000000000006</v>
+      </c>
+      <c r="G32">
+        <v>17.64</v>
+      </c>
+      <c r="H32">
+        <v>5.94</v>
+      </c>
+      <c r="I32">
+        <v>6.5</v>
+      </c>
+      <c r="J32">
+        <v>13.28</v>
+      </c>
+      <c r="K32">
+        <v>7.13</v>
+      </c>
+      <c r="L32">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>519900</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>63.24</v>
+      </c>
+      <c r="G33">
+        <v>21.19</v>
+      </c>
+      <c r="H33">
+        <v>21.19</v>
+      </c>
+      <c r="I33">
+        <v>2.6</v>
+      </c>
+      <c r="J33">
+        <v>13.27</v>
+      </c>
+      <c r="K33">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>519900</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>56.24</v>
+      </c>
+      <c r="G34">
+        <v>15.58</v>
+      </c>
+      <c r="H34">
+        <v>15.58</v>
+      </c>
+      <c r="I34">
+        <v>8.33</v>
+      </c>
+      <c r="J34">
+        <v>12.71</v>
+      </c>
+      <c r="K34">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>519900</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>59.83</v>
+      </c>
+      <c r="G35">
+        <v>15.89</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <v>8.08</v>
+      </c>
+      <c r="J35">
+        <v>11.33</v>
+      </c>
+      <c r="K35">
+        <v>8.93</v>
+      </c>
+      <c r="L35">
+        <v>6.16</v>
+      </c>
+      <c r="M35">
+        <v>3.44</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>519900</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>60.9</v>
+      </c>
+      <c r="G36">
+        <v>15.1</v>
+      </c>
+      <c r="H36">
+        <v>10.4</v>
+      </c>
+      <c r="I36">
+        <v>5.27</v>
+      </c>
+      <c r="J36">
+        <v>7.62</v>
+      </c>
+      <c r="K36">
+        <v>14.01</v>
+      </c>
+      <c r="L36">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>519900</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>76.38000000000001</v>
+      </c>
+      <c r="G37">
+        <v>19.17</v>
+      </c>
+      <c r="H37">
+        <v>9.23</v>
+      </c>
+      <c r="I37">
+        <v>12.91</v>
+      </c>
+      <c r="J37">
+        <v>23.23</v>
+      </c>
+      <c r="K37">
+        <v>11.84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>520000</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>61.14</v>
+      </c>
+      <c r="G38">
+        <v>19.22</v>
+      </c>
+      <c r="H38">
+        <v>19.22</v>
+      </c>
+      <c r="I38">
+        <v>5.95</v>
+      </c>
+      <c r="J38">
+        <v>11.13</v>
+      </c>
+      <c r="K38">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>520000</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>54.78</v>
+      </c>
+      <c r="G39">
+        <v>14.63</v>
+      </c>
+      <c r="H39">
+        <v>14.63</v>
+      </c>
+      <c r="I39">
+        <v>7.39</v>
+      </c>
+      <c r="J39">
+        <v>12.49</v>
+      </c>
+      <c r="K39">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>520000</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>34.25</v>
+      </c>
+      <c r="G40">
+        <v>17.97</v>
+      </c>
+      <c r="H40">
+        <v>5.18</v>
+      </c>
+      <c r="I40">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>520000</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>43.27</v>
+      </c>
+      <c r="G41">
+        <v>9.88</v>
+      </c>
+      <c r="H41">
+        <v>12.57</v>
+      </c>
+      <c r="I41">
+        <v>9.88</v>
+      </c>
+      <c r="J41">
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>521999</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>2250256</v>
+      </c>
+      <c r="G42">
+        <v>400000</v>
+      </c>
+      <c r="H42">
+        <v>400000</v>
+      </c>
+      <c r="I42">
+        <v>250000</v>
+      </c>
+      <c r="J42">
+        <v>256</v>
+      </c>
+      <c r="K42">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>524000</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>72.25</v>
+      </c>
+      <c r="G43">
+        <v>19.06</v>
+      </c>
+      <c r="H43">
+        <v>19.06</v>
+      </c>
+      <c r="I43">
+        <v>8.94</v>
+      </c>
+      <c r="J43">
+        <v>12.25</v>
+      </c>
+      <c r="K43">
+        <v>12.94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>524900</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>83.1</v>
+      </c>
+      <c r="G44">
+        <v>21.44</v>
+      </c>
+      <c r="H44">
+        <v>21.44</v>
+      </c>
+      <c r="I44">
+        <v>8.78</v>
+      </c>
+      <c r="J44">
+        <v>14.51</v>
+      </c>
+      <c r="K44">
+        <v>9.16</v>
+      </c>
+      <c r="L44">
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>524900</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>55.79</v>
+      </c>
+      <c r="G45">
+        <v>16.37</v>
+      </c>
+      <c r="H45">
+        <v>16.37</v>
+      </c>
+      <c r="I45">
+        <v>5.78</v>
+      </c>
+      <c r="J45">
+        <v>12.2</v>
+      </c>
+      <c r="K45">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>524999</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>53.27</v>
+      </c>
+      <c r="G46">
+        <v>17.12</v>
+      </c>
+      <c r="H46">
+        <v>17.12</v>
+      </c>
+      <c r="I46">
+        <v>5.7</v>
+      </c>
+      <c r="J46">
+        <v>11.1</v>
+      </c>
+      <c r="K46">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>525000</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>54.56</v>
+      </c>
+      <c r="G47">
+        <v>14.58</v>
+      </c>
+      <c r="H47">
+        <v>14.58</v>
+      </c>
+      <c r="I47">
+        <v>7.44</v>
+      </c>
+      <c r="J47">
+        <v>5.58</v>
+      </c>
+      <c r="K47">
+        <v>12.38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>525000</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>58.69</v>
+      </c>
+      <c r="G48">
+        <v>14.18</v>
+      </c>
+      <c r="H48">
+        <v>9.44</v>
+      </c>
+      <c r="I48">
+        <v>7.69</v>
+      </c>
+      <c r="J48">
+        <v>11.43</v>
+      </c>
+      <c r="K48">
+        <v>10.2</v>
+      </c>
+      <c r="L48">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>525000</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>56.970000000000006</v>
+      </c>
+      <c r="G49">
+        <v>16.26</v>
+      </c>
+      <c r="H49">
+        <v>8.36</v>
+      </c>
+      <c r="I49">
+        <v>6.69</v>
+      </c>
+      <c r="J49">
+        <v>10.85</v>
+      </c>
+      <c r="K49">
+        <v>8.77</v>
+      </c>
+      <c r="L49">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>525000</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>79.14</v>
+      </c>
+      <c r="G50">
+        <v>20.6</v>
+      </c>
+      <c r="H50">
+        <v>10.35</v>
+      </c>
+      <c r="I50">
+        <v>11.26</v>
+      </c>
+      <c r="J50">
+        <v>15.84</v>
+      </c>
+      <c r="K50">
+        <v>12.56</v>
+      </c>
+      <c r="L50">
+        <v>8.53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>528800</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>60.53</v>
+      </c>
+      <c r="G51">
+        <v>16.28</v>
+      </c>
+      <c r="H51">
+        <v>8.38</v>
+      </c>
+      <c r="I51">
+        <v>7.38</v>
+      </c>
+      <c r="J51">
+        <v>11.6</v>
+      </c>
+      <c r="K51">
+        <v>10.59</v>
+      </c>
+      <c r="L51">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>529000</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>463.5</v>
+      </c>
+      <c r="G52">
+        <v>130.5</v>
+      </c>
+      <c r="H52">
+        <v>94.6</v>
+      </c>
+      <c r="I52">
+        <v>58.4</v>
+      </c>
+      <c r="J52">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>529900</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>65.55</v>
+      </c>
+      <c r="G53">
+        <v>19.58</v>
+      </c>
+      <c r="H53">
+        <v>19.58</v>
+      </c>
+      <c r="I53">
+        <v>8.76</v>
+      </c>
+      <c r="J53">
+        <v>13.7</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>529900</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>50.75000000000001</v>
+      </c>
+      <c r="G54">
+        <v>10.22</v>
+      </c>
+      <c r="H54">
+        <v>10.22</v>
+      </c>
+      <c r="I54">
+        <v>12.08</v>
+      </c>
+      <c r="J54">
+        <v>9.3</v>
+      </c>
+      <c r="K54">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>529900</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>59.370000000000005</v>
+      </c>
+      <c r="G55">
+        <v>17.23</v>
+      </c>
+      <c r="H55">
+        <v>6.97</v>
+      </c>
+      <c r="I55">
+        <v>11.1</v>
+      </c>
+      <c r="J55">
+        <v>6.84</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>17.23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>530000</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>65.78</v>
+      </c>
+      <c r="G56">
+        <v>14.4</v>
+      </c>
+      <c r="H56">
+        <v>14.18</v>
+      </c>
+      <c r="I56">
+        <v>10.14</v>
+      </c>
+      <c r="J56">
+        <v>13.6</v>
+      </c>
+      <c r="K56">
+        <v>13.46</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>530000</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>88098</v>
+      </c>
+      <c r="G57">
+        <v>143</v>
+      </c>
+      <c r="H57">
+        <v>55776</v>
+      </c>
+      <c r="I57">
+        <v>31625</v>
+      </c>
+      <c r="J57">
+        <v>140</v>
+      </c>
+      <c r="K57">
+        <v>110</v>
+      </c>
+      <c r="L57">
+        <v>150</v>
+      </c>
+      <c r="M57">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>532000</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>49.45</v>
+      </c>
+      <c r="G58">
+        <v>11.63</v>
+      </c>
+      <c r="H58">
+        <v>6.67</v>
+      </c>
+      <c r="I58">
+        <v>15.78</v>
+      </c>
+      <c r="J58">
+        <v>8.63</v>
+      </c>
+      <c r="K58">
+        <v>6.74</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>534000</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>56.78</v>
+      </c>
+      <c r="G59">
+        <v>15.8</v>
+      </c>
+      <c r="H59">
+        <v>15.8</v>
+      </c>
+      <c r="I59">
+        <v>6.86</v>
+      </c>
+      <c r="J59">
+        <v>11.53</v>
+      </c>
+      <c r="K59">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>534900</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>72.13</v>
+      </c>
+      <c r="G60">
+        <v>22.05</v>
+      </c>
+      <c r="H60">
+        <v>22.05</v>
+      </c>
+      <c r="I60">
+        <v>8.48</v>
+      </c>
+      <c r="J60">
+        <v>11.16</v>
+      </c>
+      <c r="K60">
+        <v>8.39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>535900</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>46.59000000000001</v>
+      </c>
+      <c r="G61">
+        <v>11.71</v>
+      </c>
+      <c r="H61">
+        <v>10.13</v>
+      </c>
+      <c r="I61">
+        <v>10.13</v>
+      </c>
+      <c r="J61">
+        <v>9.3</v>
+      </c>
+      <c r="K61">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>538900</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>57.60000000000001</v>
+      </c>
+      <c r="G62">
+        <v>14.53</v>
+      </c>
+      <c r="H62">
+        <v>12.21</v>
+      </c>
+      <c r="I62">
+        <v>5.52</v>
+      </c>
+      <c r="J62">
+        <v>13.95</v>
+      </c>
+      <c r="K62">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>539000</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>52.34</v>
+      </c>
+      <c r="G63">
+        <v>14.22</v>
+      </c>
+      <c r="H63">
+        <v>14.22</v>
+      </c>
+      <c r="I63">
+        <v>6.73</v>
+      </c>
+      <c r="J63">
+        <v>11</v>
+      </c>
+      <c r="K63">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>539000</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>71.35</v>
+      </c>
+      <c r="G64">
+        <v>18.6</v>
+      </c>
+      <c r="H64">
+        <v>18.6</v>
+      </c>
+      <c r="I64">
+        <v>5.86</v>
+      </c>
+      <c r="J64">
+        <v>12.66</v>
+      </c>
+      <c r="K64">
+        <v>8.91</v>
+      </c>
+      <c r="L64">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>539000</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>73.86999999999999</v>
+      </c>
+      <c r="G65">
+        <v>17.65</v>
+      </c>
+      <c r="H65">
+        <v>7.32</v>
+      </c>
+      <c r="I65">
+        <v>7.08</v>
+      </c>
+      <c r="J65">
+        <v>13.69</v>
+      </c>
+      <c r="K65">
+        <v>12.61</v>
+      </c>
+      <c r="L65">
+        <v>8.35</v>
+      </c>
+      <c r="M65">
+        <v>3.95</v>
+      </c>
+      <c r="N65">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>539000</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>85.07000000000001</v>
+      </c>
+      <c r="G66">
+        <v>17.06</v>
+      </c>
+      <c r="H66">
+        <v>19.62</v>
+      </c>
+      <c r="I66">
+        <v>10.43</v>
+      </c>
+      <c r="J66">
+        <v>15.1</v>
+      </c>
+      <c r="K66">
+        <v>13.13</v>
+      </c>
+      <c r="L66">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>539000</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>51.300000000000004</v>
+      </c>
+      <c r="G67">
+        <v>12.63</v>
+      </c>
+      <c r="H67">
+        <v>12.63</v>
+      </c>
+      <c r="I67">
+        <v>6.53</v>
+      </c>
+      <c r="J67">
+        <v>9.41</v>
+      </c>
+      <c r="K67">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>539500</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>55.01</v>
+      </c>
+      <c r="G68">
+        <v>14.68</v>
+      </c>
+      <c r="H68">
+        <v>14.68</v>
+      </c>
+      <c r="I68">
+        <v>7.44</v>
+      </c>
+      <c r="J68">
+        <v>12.57</v>
+      </c>
+      <c r="K68">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>539800</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>72.27</v>
+      </c>
+      <c r="G69">
+        <v>21.73</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>8.56</v>
+      </c>
+      <c r="J69">
+        <v>19.2</v>
+      </c>
+      <c r="K69">
+        <v>10.18</v>
+      </c>
+      <c r="L69">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>539888</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>49.97</v>
+      </c>
+      <c r="G70">
+        <v>9.29</v>
+      </c>
+      <c r="H70">
+        <v>10.01</v>
+      </c>
+      <c r="I70">
+        <v>7.55</v>
+      </c>
+      <c r="J70">
+        <v>12.59</v>
+      </c>
+      <c r="K70">
+        <v>4.08</v>
+      </c>
+      <c r="L70">
+        <v>4.78</v>
+      </c>
+      <c r="M70">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>539900</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>61.49</v>
+      </c>
+      <c r="G71">
+        <v>19.53</v>
+      </c>
+      <c r="H71">
+        <v>19.53</v>
+      </c>
+      <c r="I71">
+        <v>6.05</v>
+      </c>
+      <c r="J71">
+        <v>10.28</v>
+      </c>
+      <c r="K71">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>539900</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>57.849999999999994</v>
+      </c>
+      <c r="G72">
+        <v>22.33</v>
+      </c>
+      <c r="H72">
+        <v>6.7</v>
+      </c>
+      <c r="I72">
+        <v>8.24</v>
+      </c>
+      <c r="J72">
+        <v>11.37</v>
+      </c>
+      <c r="K72">
+        <v>9.21</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <v>539900</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>60.67</v>
+      </c>
+      <c r="G73">
+        <v>16.28</v>
+      </c>
+      <c r="H73">
+        <v>8.77</v>
+      </c>
+      <c r="I73">
+        <v>7.57</v>
+      </c>
+      <c r="J73">
+        <v>13.8</v>
+      </c>
+      <c r="K73">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74">
+        <v>540000</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>64.02</v>
+      </c>
+      <c r="G74">
+        <v>14.74</v>
+      </c>
+      <c r="H74">
+        <v>14.74</v>
+      </c>
+      <c r="I74">
+        <v>14.74</v>
+      </c>
+      <c r="J74">
+        <v>11.2</v>
+      </c>
+      <c r="K74">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>544900</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>85.79999999999998</v>
+      </c>
+      <c r="G75">
+        <v>26.24</v>
+      </c>
+      <c r="H75">
+        <v>11.69</v>
+      </c>
+      <c r="I75">
+        <v>11.34</v>
+      </c>
+      <c r="J75">
+        <v>16.09</v>
+      </c>
+      <c r="K75">
+        <v>8.49</v>
+      </c>
+      <c r="L75">
+        <v>10.07</v>
+      </c>
+      <c r="M75">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>544900</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>53.78</v>
+      </c>
+      <c r="G76">
+        <v>18.13</v>
+      </c>
+      <c r="H76">
+        <v>18.13</v>
+      </c>
+      <c r="I76">
+        <v>10.92</v>
+      </c>
+      <c r="J76">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>545000</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>68.49000000000001</v>
+      </c>
+      <c r="G77">
+        <v>18.53</v>
+      </c>
+      <c r="H77">
+        <v>6.56</v>
+      </c>
+      <c r="I77">
+        <v>5.62</v>
+      </c>
+      <c r="J77">
+        <v>17.92</v>
+      </c>
+      <c r="K77">
+        <v>11.06</v>
+      </c>
+      <c r="L77">
+        <v>8.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>548000</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>57.34</v>
+      </c>
+      <c r="G78">
+        <v>13.6</v>
+      </c>
+      <c r="H78">
+        <v>13.6</v>
+      </c>
+      <c r="I78">
+        <v>14.26</v>
+      </c>
+      <c r="J78">
+        <v>9.85</v>
+      </c>
+      <c r="K78">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80">
+        <v>549000</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>97.53000000000002</v>
+      </c>
+      <c r="G80">
+        <v>22.81</v>
+      </c>
+      <c r="H80">
+        <v>22.81</v>
+      </c>
+      <c r="I80">
+        <v>9.02</v>
+      </c>
+      <c r="J80">
+        <v>7.39</v>
+      </c>
+      <c r="K80">
+        <v>8.95</v>
+      </c>
+      <c r="L80">
+        <v>15.23</v>
+      </c>
+      <c r="M80">
+        <v>7.39</v>
+      </c>
+      <c r="N80">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81">
+        <v>549000</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>38.809999999999995</v>
+      </c>
+      <c r="G81">
+        <v>11.02</v>
+      </c>
+      <c r="H81">
+        <v>13.03</v>
+      </c>
+      <c r="I81">
+        <v>9.3</v>
+      </c>
+      <c r="J81">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82">
+        <v>549000</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>69.89</v>
+      </c>
+      <c r="G82">
+        <v>2.44</v>
+      </c>
+      <c r="H82">
+        <v>12.12</v>
+      </c>
+      <c r="I82">
+        <v>11.93</v>
+      </c>
+      <c r="J82">
+        <v>12.97</v>
+      </c>
+      <c r="K82">
+        <v>14.21</v>
+      </c>
+      <c r="L82">
+        <v>9.63</v>
+      </c>
+      <c r="M82">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83">
+        <v>549000</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>57.940000000000005</v>
+      </c>
+      <c r="G83">
+        <v>13.64</v>
+      </c>
+      <c r="H83">
+        <v>8.4</v>
+      </c>
+      <c r="I83">
+        <v>9.3</v>
+      </c>
+      <c r="J83">
+        <v>10.8</v>
+      </c>
+      <c r="K83">
+        <v>9.6</v>
+      </c>
+      <c r="L83">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84">
+        <v>549000</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>71.55</v>
+      </c>
+      <c r="G84">
+        <v>13.94</v>
+      </c>
+      <c r="H84">
+        <v>13.94</v>
+      </c>
+      <c r="I84">
+        <v>14.51</v>
+      </c>
+      <c r="J84">
+        <v>11.44</v>
+      </c>
+      <c r="K84">
+        <v>11.68</v>
+      </c>
+      <c r="L84">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85">
+        <v>549000</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86">
+        <v>549900</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>622</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>56</v>
+      </c>
+      <c r="J86">
+        <v>140</v>
+      </c>
+      <c r="K86">
+        <v>66</v>
+      </c>
+      <c r="L86">
+        <v>180</v>
+      </c>
+      <c r="M86">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87">
+        <v>549900</v>
+      </c>
+      <c r="C87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>59.099999999999994</v>
+      </c>
+      <c r="G87">
+        <v>17.45</v>
+      </c>
+      <c r="H87">
+        <v>17.45</v>
+      </c>
+      <c r="I87">
+        <v>6.4</v>
+      </c>
+      <c r="J87">
+        <v>12.8</v>
+      </c>
+      <c r="K87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88">
+        <v>549900</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>87.73000000000002</v>
+      </c>
+      <c r="G88">
+        <v>25.35</v>
+      </c>
+      <c r="H88">
+        <v>25.35</v>
+      </c>
+      <c r="I88">
+        <v>5.24</v>
+      </c>
+      <c r="J88">
+        <v>15.36</v>
+      </c>
+      <c r="K88">
+        <v>10.11</v>
+      </c>
+      <c r="L88">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89">
+        <v>549900</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>87.00000000000001</v>
+      </c>
+      <c r="G89">
+        <v>26.01</v>
+      </c>
+      <c r="H89">
+        <v>11.09</v>
+      </c>
+      <c r="I89">
+        <v>11.88</v>
+      </c>
+      <c r="J89">
+        <v>15.62</v>
+      </c>
+      <c r="K89">
+        <v>10.17</v>
+      </c>
+      <c r="L89">
+        <v>8.5</v>
+      </c>
+      <c r="M89">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90">
+        <v>549900</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>58.14</v>
+      </c>
+      <c r="G90">
+        <v>3.16</v>
+      </c>
+      <c r="H90">
+        <v>5.47</v>
+      </c>
+      <c r="I90">
+        <v>19.84</v>
+      </c>
+      <c r="J90">
+        <v>7.18</v>
+      </c>
+      <c r="K90">
+        <v>14.44</v>
+      </c>
+      <c r="L90">
+        <v>8.05</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91">
+        <v>549900</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <v>77.84</v>
+      </c>
+      <c r="G91">
+        <v>20.77</v>
+      </c>
+      <c r="H91">
+        <v>20.77</v>
+      </c>
+      <c r="I91">
+        <v>5.98</v>
+      </c>
+      <c r="J91">
+        <v>5.98</v>
+      </c>
+      <c r="K91">
+        <v>14.42</v>
+      </c>
+      <c r="L91">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94">
+        <v>550000</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <v>41.629999999999995</v>
+      </c>
+      <c r="G94">
+        <v>5.49</v>
+      </c>
+      <c r="H94">
+        <v>17.81</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>12.14</v>
+      </c>
+      <c r="K94">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95">
+        <v>552800</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>46.730000000000004</v>
+      </c>
+      <c r="G95">
+        <v>4.74</v>
+      </c>
+      <c r="H95">
+        <v>6.1</v>
+      </c>
+      <c r="I95">
+        <v>13.11</v>
+      </c>
+      <c r="J95">
+        <v>13.11</v>
+      </c>
+      <c r="K95">
+        <v>9.67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96">
+        <v>554988</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>65.19</v>
+      </c>
+      <c r="G96">
+        <v>7.2</v>
+      </c>
+      <c r="H96">
+        <v>17.2</v>
+      </c>
+      <c r="I96">
+        <v>17.2</v>
+      </c>
+      <c r="J96">
+        <v>4.1</v>
+      </c>
+      <c r="K96">
+        <v>11.13</v>
+      </c>
+      <c r="L96">
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97">
+        <v>555000</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>109.96</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>32.32</v>
+      </c>
+      <c r="I97">
+        <v>32.32</v>
+      </c>
+      <c r="J97">
+        <v>8.15</v>
+      </c>
+      <c r="K97">
+        <v>6.18</v>
+      </c>
+      <c r="L97">
+        <v>13.29</v>
+      </c>
+      <c r="M97">
+        <v>9.97</v>
+      </c>
+      <c r="N97">
+        <v>4.11</v>
+      </c>
+      <c r="O97">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98">
+        <v>555000</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98">
+        <v>60.45</v>
+      </c>
+      <c r="G98">
+        <v>12.72</v>
+      </c>
+      <c r="H98">
+        <v>8.51</v>
+      </c>
+      <c r="I98">
+        <v>6.81</v>
+      </c>
+      <c r="J98">
+        <v>2.71</v>
+      </c>
+      <c r="K98">
+        <v>8.69</v>
+      </c>
+      <c r="L98">
+        <v>1.25</v>
+      </c>
+      <c r="M98">
+        <v>19.76</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99">
+        <v>555000</v>
+      </c>
+      <c r="C99" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <v>53.21000000000001</v>
+      </c>
+      <c r="G99">
+        <v>15.6</v>
+      </c>
+      <c r="H99">
+        <v>8.29</v>
+      </c>
+      <c r="I99">
+        <v>7.99</v>
+      </c>
+      <c r="J99">
+        <v>11.06</v>
+      </c>
+      <c r="K99">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100">
+        <v>558800</v>
+      </c>
+      <c r="C100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100">
+        <v>49.37</v>
+      </c>
+      <c r="G100">
+        <v>14.28</v>
+      </c>
+      <c r="H100">
+        <v>14.28</v>
+      </c>
+      <c r="I100">
+        <v>7.03</v>
+      </c>
+      <c r="J100">
+        <v>9.24</v>
+      </c>
+      <c r="K100">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101">
+        <v>559000</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>54.54</v>
+      </c>
+      <c r="G101">
+        <v>5.9</v>
+      </c>
+      <c r="H101">
+        <v>19.46</v>
+      </c>
+      <c r="I101">
+        <v>19.46</v>
+      </c>
+      <c r="J101">
+        <v>9.72</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102">
+        <v>559000</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>65.17</v>
+      </c>
+      <c r="G102">
+        <v>19.4</v>
+      </c>
+      <c r="H102">
+        <v>19.4</v>
+      </c>
+      <c r="I102">
+        <v>8.2</v>
+      </c>
+      <c r="J102">
+        <v>11.07</v>
+      </c>
+      <c r="K102">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103">
+        <v>559000</v>
+      </c>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103">
+        <v>60.15</v>
+      </c>
+      <c r="G103">
+        <v>20.79</v>
+      </c>
+      <c r="H103">
+        <v>8.24</v>
+      </c>
+      <c r="I103">
+        <v>7.93</v>
+      </c>
+      <c r="J103">
+        <v>14.4</v>
+      </c>
+      <c r="K103">
+        <v>8.79</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104">
+        <v>559900</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>57.85000000000001</v>
+      </c>
+      <c r="G104">
+        <v>16.4</v>
+      </c>
+      <c r="H104">
+        <v>8.8</v>
+      </c>
+      <c r="I104">
+        <v>7.25</v>
+      </c>
+      <c r="J104">
+        <v>14.95</v>
+      </c>
+      <c r="K104">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105">
+        <v>559900</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106">
+        <v>559900</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
+        <v>60.97</v>
+      </c>
+      <c r="G106">
+        <v>12.26</v>
+      </c>
+      <c r="H106">
+        <v>8.17</v>
+      </c>
+      <c r="I106">
+        <v>5.88</v>
+      </c>
+      <c r="J106">
+        <v>18.59</v>
+      </c>
+      <c r="K106">
+        <v>10.3</v>
+      </c>
+      <c r="L106">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107">
+        <v>559999</v>
+      </c>
+      <c r="C107" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>48.269999999999996</v>
+      </c>
+      <c r="G107">
+        <v>9.25</v>
+      </c>
+      <c r="H107">
+        <v>8.18</v>
+      </c>
+      <c r="I107">
+        <v>4.9</v>
+      </c>
+      <c r="J107">
+        <v>13.57</v>
+      </c>
+      <c r="K107">
+        <v>6.69</v>
+      </c>
+      <c r="L107">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108">
+        <v>559999</v>
+      </c>
+      <c r="C108" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>97.32000000000001</v>
+      </c>
+      <c r="G108">
+        <v>21.78</v>
+      </c>
+      <c r="H108">
+        <v>21.78</v>
+      </c>
+      <c r="I108">
+        <v>14.84</v>
+      </c>
+      <c r="J108">
+        <v>16.54</v>
+      </c>
+      <c r="K108">
+        <v>11.18</v>
+      </c>
+      <c r="L108">
+        <v>6.58</v>
+      </c>
+      <c r="M108">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109">
+        <v>564900</v>
+      </c>
+      <c r="C109" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>61.76</v>
+      </c>
+      <c r="G109">
+        <v>11.15</v>
+      </c>
+      <c r="H109">
+        <v>9.63</v>
+      </c>
+      <c r="I109">
+        <v>8.17</v>
+      </c>
+      <c r="J109">
+        <v>17.54</v>
+      </c>
+      <c r="K109">
+        <v>10.47</v>
+      </c>
+      <c r="L109">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110">
+        <v>565000</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111">
+        <v>565000</v>
+      </c>
+      <c r="C111" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111">
+        <v>61.75</v>
+      </c>
+      <c r="G111">
+        <v>17.08</v>
+      </c>
+      <c r="H111">
+        <v>8.16</v>
+      </c>
+      <c r="I111">
+        <v>8.2</v>
+      </c>
+      <c r="J111">
+        <v>14</v>
+      </c>
+      <c r="K111">
+        <v>10.22</v>
+      </c>
+      <c r="L111">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112">
+        <v>565000</v>
+      </c>
+      <c r="C112" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>92.99000000000001</v>
+      </c>
+      <c r="G112">
+        <v>35.46</v>
+      </c>
+      <c r="H112">
+        <v>35.46</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>11.39</v>
+      </c>
+      <c r="K112">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113">
+        <v>569000</v>
+      </c>
+      <c r="C113" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113">
+        <v>4</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <v>67.27</v>
+      </c>
+      <c r="G113">
+        <v>14.25</v>
+      </c>
+      <c r="H113">
+        <v>6.15</v>
+      </c>
+      <c r="I113">
+        <v>9</v>
+      </c>
+      <c r="J113">
+        <v>12.4</v>
+      </c>
+      <c r="K113">
+        <v>9.05</v>
+      </c>
+      <c r="L113">
+        <v>10.22</v>
+      </c>
+      <c r="M113">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114">
+        <v>569800</v>
+      </c>
+      <c r="C114" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114">
+        <v>64.92</v>
+      </c>
+      <c r="G114">
+        <v>16.59</v>
+      </c>
+      <c r="H114">
+        <v>16.59</v>
+      </c>
+      <c r="I114">
+        <v>3.81</v>
+      </c>
+      <c r="J114">
+        <v>7.94</v>
+      </c>
+      <c r="K114">
+        <v>11.54</v>
+      </c>
+      <c r="L114">
+        <v>8.45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115">
+        <v>569900</v>
+      </c>
+      <c r="C115" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115">
+        <v>780</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>460</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>96</v>
+      </c>
+      <c r="K115">
+        <v>80</v>
+      </c>
+      <c r="L115">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116">
+        <v>569900</v>
+      </c>
+      <c r="C116" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116">
+        <v>75.25</v>
+      </c>
+      <c r="G116">
+        <v>13.84</v>
+      </c>
+      <c r="H116">
+        <v>7.98</v>
+      </c>
+      <c r="I116">
+        <v>10.07</v>
+      </c>
+      <c r="J116">
+        <v>43.36</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117">
+        <v>569900</v>
+      </c>
+      <c r="C117" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>59.419999999999995</v>
+      </c>
+      <c r="G117">
+        <v>4.47</v>
+      </c>
+      <c r="H117">
+        <v>5.95</v>
+      </c>
+      <c r="I117">
+        <v>18.91</v>
+      </c>
+      <c r="J117">
+        <v>18.91</v>
+      </c>
+      <c r="K117">
+        <v>11.18</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118">
+        <v>569900</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118">
+        <v>90.43</v>
+      </c>
+      <c r="G118">
+        <v>23.54</v>
+      </c>
+      <c r="H118">
+        <v>23.54</v>
+      </c>
+      <c r="I118">
+        <v>10.36</v>
+      </c>
+      <c r="J118">
+        <v>6.31</v>
+      </c>
+      <c r="K118">
+        <v>15.34</v>
+      </c>
+      <c r="L118">
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119">
+        <v>569900</v>
+      </c>
+      <c r="C119" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <v>53.970000000000006</v>
+      </c>
+      <c r="G119">
+        <v>11.18</v>
+      </c>
+      <c r="H119">
+        <v>11.18</v>
+      </c>
+      <c r="I119">
+        <v>13.1</v>
+      </c>
+      <c r="J119">
+        <v>11.8</v>
+      </c>
+      <c r="K119">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120">
+        <v>574900</v>
+      </c>
+      <c r="C120" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="F120">
+        <v>69.97</v>
+      </c>
+      <c r="G120">
+        <v>19.22</v>
+      </c>
+      <c r="H120">
+        <v>19.22</v>
+      </c>
+      <c r="I120">
+        <v>10.68</v>
+      </c>
+      <c r="J120">
+        <v>13.06</v>
+      </c>
+      <c r="K120">
+        <v>4.77</v>
+      </c>
+      <c r="L120">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121">
+        <v>574900</v>
+      </c>
+      <c r="C121" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <v>662</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>88</v>
+      </c>
+      <c r="J121">
+        <v>110</v>
+      </c>
+      <c r="K121">
+        <v>200</v>
+      </c>
+      <c r="L121">
+        <v>200</v>
+      </c>
+      <c r="M121">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122">
+        <v>574900</v>
+      </c>
+      <c r="C122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <v>63.45</v>
+      </c>
+      <c r="G122">
+        <v>5.95</v>
+      </c>
+      <c r="H122">
+        <v>18.97</v>
+      </c>
+      <c r="I122">
+        <v>18.97</v>
+      </c>
+      <c r="J122">
+        <v>11.07</v>
+      </c>
+      <c r="K122">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123">
+        <v>574999</v>
+      </c>
+      <c r="C123" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>92.58</v>
+      </c>
+      <c r="G123">
+        <v>26.43</v>
+      </c>
+      <c r="H123">
+        <v>26.43</v>
+      </c>
+      <c r="I123">
+        <v>7.64</v>
+      </c>
+      <c r="J123">
+        <v>6</v>
+      </c>
+      <c r="K123">
+        <v>14.94</v>
+      </c>
+      <c r="L123">
+        <v>11.14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124">
+        <v>575000</v>
+      </c>
+      <c r="C124" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124">
+        <v>73.49999999999999</v>
+      </c>
+      <c r="G124">
+        <v>20</v>
+      </c>
+      <c r="H124">
+        <v>8.08</v>
+      </c>
+      <c r="I124">
+        <v>10.21</v>
+      </c>
+      <c r="J124">
+        <v>13.86</v>
+      </c>
+      <c r="K124">
+        <v>12.86</v>
+      </c>
+      <c r="L124">
+        <v>8.49</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125">
+        <v>575000</v>
+      </c>
+      <c r="C125" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>607.85</v>
+      </c>
+      <c r="G125">
+        <v>190</v>
+      </c>
+      <c r="H125">
+        <v>190</v>
+      </c>
+      <c r="I125">
+        <v>65.6</v>
+      </c>
+      <c r="J125">
+        <v>115</v>
+      </c>
+      <c r="K125">
+        <v>47.25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126">
+        <v>575000</v>
+      </c>
+      <c r="C126" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126">
+        <v>3</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126">
+        <v>76.16000000000001</v>
+      </c>
+      <c r="G126">
+        <v>7.78</v>
+      </c>
+      <c r="H126">
+        <v>20.05</v>
+      </c>
+      <c r="I126">
+        <v>20.05</v>
+      </c>
+      <c r="J126">
+        <v>12.26</v>
+      </c>
+      <c r="K126">
+        <v>8.51</v>
+      </c>
+      <c r="L126">
+        <v>7.51</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127">
+        <v>575000</v>
+      </c>
+      <c r="C127" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127">
+        <v>3</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="F127">
+        <v>66.01</v>
+      </c>
+      <c r="G127">
+        <v>17.17</v>
+      </c>
+      <c r="H127">
+        <v>17.17</v>
+      </c>
+      <c r="I127">
+        <v>6.34</v>
+      </c>
+      <c r="J127">
+        <v>11.13</v>
+      </c>
+      <c r="K127">
+        <v>10</v>
+      </c>
+      <c r="L127">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128">
+        <v>579000</v>
+      </c>
+      <c r="C128" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="F128">
+        <v>60.879999999999995</v>
+      </c>
+      <c r="G128">
+        <v>12.54</v>
+      </c>
+      <c r="H128">
+        <v>10.4</v>
+      </c>
+      <c r="I128">
+        <v>0.77</v>
+      </c>
+      <c r="J128">
+        <v>7.49</v>
+      </c>
+      <c r="K128">
+        <v>8.13</v>
+      </c>
+      <c r="L128">
+        <v>21.55</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129">
+        <v>579000</v>
+      </c>
+      <c r="C129" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+      <c r="F129">
+        <v>55.410000000000004</v>
+      </c>
+      <c r="G129">
+        <v>14.19</v>
+      </c>
+      <c r="H129">
+        <v>9.83</v>
+      </c>
+      <c r="I129">
+        <v>9.07</v>
+      </c>
+      <c r="J129">
+        <v>13.2</v>
+      </c>
+      <c r="K129">
+        <v>9.12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130">
+        <v>579000</v>
+      </c>
+      <c r="C130" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="F130">
+        <v>897.8</v>
+      </c>
+      <c r="G130">
+        <v>237</v>
+      </c>
+      <c r="H130">
+        <v>237</v>
+      </c>
+      <c r="I130">
+        <v>237</v>
+      </c>
+      <c r="J130">
+        <v>110</v>
+      </c>
+      <c r="K130">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131">
+        <v>579000</v>
+      </c>
+      <c r="C131" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="F131">
+        <v>57.379999999999995</v>
+      </c>
+      <c r="G131">
+        <v>17.4</v>
+      </c>
+      <c r="H131">
+        <v>17.4</v>
+      </c>
+      <c r="I131">
+        <v>6.69</v>
+      </c>
+      <c r="J131">
+        <v>8.55</v>
+      </c>
+      <c r="K131">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132">
+        <v>579000</v>
+      </c>
+      <c r="C132" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133">
+        <v>579000</v>
+      </c>
+      <c r="C133" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133">
+        <v>3</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+      <c r="F133">
+        <v>52.94</v>
+      </c>
+      <c r="G133">
+        <v>13.28</v>
+      </c>
+      <c r="H133">
+        <v>7.67</v>
+      </c>
+      <c r="I133">
+        <v>5.02</v>
+      </c>
+      <c r="J133">
+        <v>13.57</v>
+      </c>
+      <c r="K133">
+        <v>6.71</v>
+      </c>
+      <c r="L133">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134">
+        <v>579900</v>
+      </c>
+      <c r="C134" t="s">
+        <v>137</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+      <c r="F134">
+        <v>138.48</v>
+      </c>
+      <c r="G134">
+        <v>23.1</v>
+      </c>
+      <c r="H134">
+        <v>19.72</v>
+      </c>
+      <c r="I134">
+        <v>11.51</v>
+      </c>
+      <c r="J134">
+        <v>21.53</v>
+      </c>
+      <c r="K134">
+        <v>8.5</v>
+      </c>
+      <c r="L134">
+        <v>10.89</v>
+      </c>
+      <c r="M134">
+        <v>23</v>
+      </c>
+      <c r="N134">
+        <v>10.54</v>
+      </c>
+      <c r="O134">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135">
+        <v>579900</v>
+      </c>
+      <c r="C135" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+      <c r="F135">
+        <v>65.95</v>
+      </c>
+      <c r="G135">
+        <v>19.62</v>
+      </c>
+      <c r="H135">
+        <v>19.62</v>
+      </c>
+      <c r="I135">
+        <v>5.88</v>
+      </c>
+      <c r="J135">
+        <v>10.8</v>
+      </c>
+      <c r="K135">
+        <v>10.03</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136">
+        <v>585000</v>
+      </c>
+      <c r="C136" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="F136">
+        <v>48.330000000000005</v>
+      </c>
+      <c r="G136">
+        <v>17.17</v>
+      </c>
+      <c r="H136">
+        <v>17.17</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>4.21</v>
+      </c>
+      <c r="K136">
+        <v>9.78</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137">
+        <v>589000</v>
+      </c>
+      <c r="C137" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+      <c r="F137">
+        <v>68.53999999999999</v>
+      </c>
+      <c r="G137">
+        <v>10.86</v>
+      </c>
+      <c r="H137">
+        <v>15.76</v>
+      </c>
+      <c r="I137">
+        <v>10.48</v>
+      </c>
+      <c r="J137">
+        <v>15.68</v>
+      </c>
+      <c r="K137">
+        <v>9.3</v>
+      </c>
+      <c r="L137">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138">
+        <v>589000</v>
+      </c>
+      <c r="C138" t="s">
+        <v>137</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+      <c r="E138">
+        <v>3</v>
+      </c>
+      <c r="F138">
+        <v>55.39000000000001</v>
+      </c>
+      <c r="G138">
+        <v>11.62</v>
+      </c>
+      <c r="H138">
+        <v>8.09</v>
+      </c>
+      <c r="I138">
+        <v>13.27</v>
+      </c>
+      <c r="J138">
+        <v>10.22</v>
+      </c>
+      <c r="K138">
+        <v>6.7</v>
+      </c>
+      <c r="L138">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139">
+        <v>589000</v>
+      </c>
+      <c r="C139" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139">
+        <v>80.70999999999998</v>
+      </c>
+      <c r="G139">
+        <v>17.65</v>
+      </c>
+      <c r="H139">
+        <v>11.22</v>
+      </c>
+      <c r="I139">
+        <v>6.96</v>
+      </c>
+      <c r="J139">
+        <v>15.41</v>
+      </c>
+      <c r="K139">
+        <v>13.74</v>
+      </c>
+      <c r="L139">
+        <v>9.52</v>
+      </c>
+      <c r="M139">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140">
+        <v>589000</v>
+      </c>
+      <c r="C140" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+      <c r="F140">
+        <v>87.43999999999998</v>
+      </c>
+      <c r="G140">
+        <v>17.09</v>
+      </c>
+      <c r="H140">
+        <v>22.98</v>
+      </c>
+      <c r="I140">
+        <v>22.98</v>
+      </c>
+      <c r="J140">
+        <v>6.96</v>
+      </c>
+      <c r="K140">
+        <v>5.85</v>
+      </c>
+      <c r="L140">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141">
+        <v>589000</v>
+      </c>
+      <c r="C141" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+      <c r="F141">
+        <v>61.11</v>
+      </c>
+      <c r="G141">
+        <v>14.57</v>
+      </c>
+      <c r="H141">
+        <v>10.23</v>
+      </c>
+      <c r="I141">
+        <v>8.99</v>
+      </c>
+      <c r="J141">
+        <v>12.21</v>
+      </c>
+      <c r="K141">
+        <v>8.91</v>
+      </c>
+      <c r="L141">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142">
+        <v>589000</v>
+      </c>
+      <c r="C142" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+      <c r="F142">
+        <v>61.11</v>
+      </c>
+      <c r="G142">
+        <v>14.57</v>
+      </c>
+      <c r="H142">
+        <v>10.23</v>
+      </c>
+      <c r="I142">
+        <v>8.99</v>
+      </c>
+      <c r="J142">
+        <v>12.21</v>
+      </c>
+      <c r="K142">
+        <v>8.91</v>
+      </c>
+      <c r="L142">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143">
+        <v>589000</v>
+      </c>
+      <c r="C143" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+      <c r="F143">
+        <v>61.98</v>
+      </c>
+      <c r="G143">
+        <v>15.54</v>
+      </c>
+      <c r="H143">
+        <v>8.12</v>
+      </c>
+      <c r="I143">
+        <v>9.01</v>
+      </c>
+      <c r="J143">
+        <v>6.51</v>
+      </c>
+      <c r="K143">
+        <v>13.59</v>
+      </c>
+      <c r="L143">
+        <v>9.21</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144">
+        <v>589800</v>
+      </c>
+      <c r="C144" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+      <c r="F144">
+        <v>59.88</v>
+      </c>
+      <c r="G144">
+        <v>5.95</v>
+      </c>
+      <c r="H144">
+        <v>18.21</v>
+      </c>
+      <c r="I144">
+        <v>18.21</v>
+      </c>
+      <c r="J144">
+        <v>10.19</v>
+      </c>
+      <c r="K144">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145">
+        <v>589900</v>
+      </c>
+      <c r="C145" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+      <c r="F145">
+        <v>37.21</v>
+      </c>
+      <c r="G145">
+        <v>15.84</v>
+      </c>
+      <c r="H145">
+        <v>5.1</v>
+      </c>
+      <c r="I145">
+        <v>13.49</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>2.78</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146">
+        <v>589900</v>
+      </c>
+      <c r="C146" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>2</v>
+      </c>
+      <c r="F146">
+        <v>40496</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>3000</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>14688</v>
+      </c>
+      <c r="L146">
+        <v>5544</v>
+      </c>
+      <c r="M146">
+        <v>17264</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147">
+        <v>589900</v>
+      </c>
+      <c r="C147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147">
+        <v>2</v>
+      </c>
+      <c r="F147">
+        <v>79.2</v>
+      </c>
+      <c r="G147">
+        <v>23.94</v>
+      </c>
+      <c r="H147">
+        <v>10.05</v>
+      </c>
+      <c r="I147">
+        <v>13.88</v>
+      </c>
+      <c r="J147">
+        <v>13.7</v>
+      </c>
+      <c r="K147">
+        <v>17.63</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148">
+        <v>590000</v>
+      </c>
+      <c r="C148" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+      <c r="F148">
+        <v>78.67</v>
+      </c>
+      <c r="G148">
+        <v>20.47</v>
+      </c>
+      <c r="H148">
+        <v>14.32</v>
+      </c>
+      <c r="I148">
+        <v>20.47</v>
+      </c>
+      <c r="J148">
+        <v>13.66</v>
+      </c>
+      <c r="K148">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149">
+        <v>596500</v>
+      </c>
+      <c r="C149" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="F149">
+        <v>76.11</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>21.33</v>
+      </c>
+      <c r="I149">
+        <v>28.69</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>11.91</v>
+      </c>
+      <c r="L149">
+        <v>8.87</v>
+      </c>
+      <c r="M149">
+        <v>5.31</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150">
+        <v>598900</v>
+      </c>
+      <c r="C150" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150">
+        <v>3</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="F150">
+        <v>96.03</v>
+      </c>
+      <c r="G150">
+        <v>12.95</v>
+      </c>
+      <c r="H150">
+        <v>14.66</v>
+      </c>
+      <c r="I150">
+        <v>11.25</v>
+      </c>
+      <c r="J150">
+        <v>23.21</v>
+      </c>
+      <c r="K150">
+        <v>13.09</v>
+      </c>
+      <c r="L150">
+        <v>7.98</v>
+      </c>
+      <c r="M150">
+        <v>5.8</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151">
+        <v>599000</v>
+      </c>
+      <c r="C151" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151">
+        <v>3</v>
+      </c>
+      <c r="F151">
+        <v>137.61999999999998</v>
+      </c>
+      <c r="G151">
+        <v>46.48</v>
+      </c>
+      <c r="H151">
+        <v>46.48</v>
+      </c>
+      <c r="I151">
+        <v>9.3</v>
+      </c>
+      <c r="J151">
+        <v>21.19</v>
+      </c>
+      <c r="K151">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152">
+        <v>599000</v>
+      </c>
+      <c r="C152" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152">
+        <v>3</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="F152">
+        <v>93.80000000000001</v>
+      </c>
+      <c r="G152">
+        <v>28.86</v>
+      </c>
+      <c r="H152">
+        <v>28.86</v>
+      </c>
+      <c r="I152">
+        <v>6.3</v>
+      </c>
+      <c r="J152">
+        <v>15.12</v>
+      </c>
+      <c r="K152">
+        <v>9.09</v>
+      </c>
+      <c r="L152">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153">
+        <v>599000</v>
+      </c>
+      <c r="C153" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153">
+        <v>3</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153">
+        <v>77.08999999999999</v>
+      </c>
+      <c r="G153">
+        <v>23.67</v>
+      </c>
+      <c r="H153">
+        <v>16.24</v>
+      </c>
+      <c r="I153">
+        <v>11.04</v>
+      </c>
+      <c r="J153">
+        <v>12.64</v>
+      </c>
+      <c r="K153">
+        <v>11.2</v>
+      </c>
+      <c r="L153">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154">
+        <v>599000</v>
+      </c>
+      <c r="C154" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+      <c r="F154">
+        <v>70.00000000000001</v>
+      </c>
+      <c r="G154">
+        <v>20.35</v>
+      </c>
+      <c r="H154">
+        <v>20.35</v>
+      </c>
+      <c r="I154">
+        <v>6.23</v>
+      </c>
+      <c r="J154">
+        <v>13.95</v>
+      </c>
+      <c r="K154">
+        <v>9.12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155">
+        <v>599000</v>
+      </c>
+      <c r="C155" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155">
+        <v>3</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="F155">
+        <v>61.11</v>
+      </c>
+      <c r="G155">
+        <v>14.57</v>
+      </c>
+      <c r="H155">
+        <v>10.23</v>
+      </c>
+      <c r="I155">
+        <v>8.99</v>
+      </c>
+      <c r="J155">
+        <v>12.21</v>
+      </c>
+      <c r="K155">
+        <v>8.91</v>
+      </c>
+      <c r="L155">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156">
+        <v>599000</v>
+      </c>
+      <c r="C156" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156">
+        <v>3</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+      <c r="F156">
+        <v>67.25</v>
+      </c>
+      <c r="G156">
+        <v>13.94</v>
+      </c>
+      <c r="H156">
+        <v>10.22</v>
+      </c>
+      <c r="I156">
+        <v>10.22</v>
+      </c>
+      <c r="J156">
+        <v>13.04</v>
+      </c>
+      <c r="K156">
+        <v>8.19</v>
+      </c>
+      <c r="L156">
+        <v>11.64</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157">
+        <v>599900</v>
+      </c>
+      <c r="C157" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157">
+        <v>3</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <v>106.44</v>
+      </c>
+      <c r="G157">
+        <v>23.73</v>
+      </c>
+      <c r="H157">
+        <v>23.73</v>
+      </c>
+      <c r="I157">
+        <v>8.29</v>
+      </c>
+      <c r="J157">
+        <v>13.23</v>
+      </c>
+      <c r="K157">
+        <v>19.21</v>
+      </c>
+      <c r="L157">
+        <v>7.92</v>
+      </c>
+      <c r="M157">
+        <v>4.41</v>
+      </c>
+      <c r="N157">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158">
+        <v>599900</v>
+      </c>
+      <c r="C158" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+      <c r="F158">
+        <v>61.44</v>
+      </c>
+      <c r="G158">
+        <v>17.95</v>
+      </c>
+      <c r="H158">
+        <v>17.95</v>
+      </c>
+      <c r="I158">
+        <v>6</v>
+      </c>
+      <c r="J158">
+        <v>10.39</v>
+      </c>
+      <c r="K158">
+        <v>9.15</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159">
+        <v>599900</v>
+      </c>
+      <c r="C159" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159">
+        <v>61.44</v>
+      </c>
+      <c r="G159">
+        <v>17.95</v>
+      </c>
+      <c r="H159">
+        <v>17.95</v>
+      </c>
+      <c r="I159">
+        <v>6</v>
+      </c>
+      <c r="J159">
+        <v>10.39</v>
+      </c>
+      <c r="K159">
+        <v>9.15</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160">
+        <v>599900</v>
+      </c>
+      <c r="C160" t="s">
+        <v>7</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160">
+        <v>2</v>
+      </c>
+      <c r="F160">
+        <v>70.00000000000001</v>
+      </c>
+      <c r="G160">
+        <v>20.35</v>
+      </c>
+      <c r="H160">
+        <v>20.35</v>
+      </c>
+      <c r="I160">
+        <v>6.23</v>
+      </c>
+      <c r="J160">
+        <v>13.95</v>
+      </c>
+      <c r="K160">
+        <v>9.12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161">
+        <v>599900</v>
+      </c>
+      <c r="C161" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>95.85</v>
+      </c>
+      <c r="G161">
+        <v>29.37</v>
+      </c>
+      <c r="H161">
+        <v>29.37</v>
+      </c>
+      <c r="I161">
+        <v>10.54</v>
+      </c>
+      <c r="J161">
+        <v>4.66</v>
+      </c>
+      <c r="K161">
+        <v>11.8</v>
+      </c>
+      <c r="L161">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162">
+        <v>599900</v>
+      </c>
+      <c r="C162" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162">
+        <v>3</v>
+      </c>
+      <c r="E162">
+        <v>2</v>
+      </c>
+      <c r="F162">
+        <v>77.21000000000001</v>
+      </c>
+      <c r="G162">
+        <v>19.44</v>
+      </c>
+      <c r="H162">
+        <v>19.44</v>
+      </c>
+      <c r="I162">
+        <v>12.57</v>
+      </c>
+      <c r="J162">
+        <v>10.31</v>
+      </c>
+      <c r="K162">
+        <v>8.88</v>
+      </c>
+      <c r="L162">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163">
+        <v>599900</v>
+      </c>
+      <c r="C163" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163">
+        <v>3</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+      <c r="F163">
+        <v>74.25999999999999</v>
+      </c>
+      <c r="G163">
+        <v>22.04</v>
+      </c>
+      <c r="H163">
+        <v>10.14</v>
+      </c>
+      <c r="I163">
+        <v>8.94</v>
+      </c>
+      <c r="J163">
+        <v>17.08</v>
+      </c>
+      <c r="K163">
+        <v>9.09</v>
+      </c>
+      <c r="L163">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164">
+        <v>599900</v>
+      </c>
+      <c r="C164" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+      <c r="F164">
+        <v>59.269999999999996</v>
+      </c>
+      <c r="G164">
+        <v>20.13</v>
+      </c>
+      <c r="H164">
+        <v>11.04</v>
+      </c>
+      <c r="I164">
+        <v>5.73</v>
+      </c>
+      <c r="J164">
+        <v>12.37</v>
+      </c>
+      <c r="K164">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167">
+        <v>599900</v>
+      </c>
+      <c r="C167" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167">
+        <v>3</v>
+      </c>
+      <c r="E167">
+        <v>2</v>
+      </c>
+      <c r="F167">
+        <v>70.79</v>
+      </c>
+      <c r="G167">
+        <v>20</v>
+      </c>
+      <c r="H167">
+        <v>20</v>
+      </c>
+      <c r="I167">
+        <v>5.9</v>
+      </c>
+      <c r="J167">
+        <v>10.5</v>
+      </c>
+      <c r="K167">
+        <v>8.22</v>
+      </c>
+      <c r="L167">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168">
+        <v>599999</v>
+      </c>
+      <c r="C168" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="E168">
+        <v>2</v>
+      </c>
+      <c r="F168">
+        <v>62.27</v>
+      </c>
+      <c r="G168">
+        <v>17.92</v>
+      </c>
+      <c r="H168">
+        <v>17.92</v>
+      </c>
+      <c r="I168">
+        <v>4.99</v>
+      </c>
+      <c r="J168">
+        <v>12.08</v>
+      </c>
+      <c r="K168">
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169">
+        <v>599999</v>
+      </c>
+      <c r="C169" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+      <c r="F169">
+        <v>NaN</v>
+      </c>
+      <c r="G169">
+        <v>NaN</v>
+      </c>
+      <c r="H169">
+        <v>NaN</v>
+      </c>
+      <c r="I169">
+        <v>10989</v>
+      </c>
+      <c r="J169">
+        <v>120</v>
+      </c>
+      <c r="K169">
+        <v>525</v>
+      </c>
+      <c r="L169">
+        <v>20048</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170">
+        <v>600000</v>
+      </c>
+      <c r="C170" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+      <c r="F170">
+        <v>63.08</v>
+      </c>
+      <c r="G170">
+        <v>17.82</v>
+      </c>
+      <c r="H170">
+        <v>17.82</v>
+      </c>
+      <c r="I170">
+        <v>5.59</v>
+      </c>
+      <c r="J170">
+        <v>12.08</v>
+      </c>
+      <c r="K170">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171">
+        <v>606000</v>
+      </c>
+      <c r="C171" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171">
+        <v>3</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+      <c r="F171">
+        <v>79.23</v>
+      </c>
+      <c r="G171">
+        <v>20.9</v>
+      </c>
+      <c r="H171">
+        <v>20.9</v>
+      </c>
+      <c r="I171">
+        <v>11.98</v>
+      </c>
+      <c r="J171">
+        <v>9.57</v>
+      </c>
+      <c r="K171">
+        <v>5.36</v>
+      </c>
+      <c r="L171">
+        <v>10.52</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172">
+        <v>612000</v>
+      </c>
+      <c r="C172" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172">
+        <v>3</v>
+      </c>
+      <c r="E172">
+        <v>2</v>
+      </c>
+      <c r="F172">
+        <v>94.33999999999999</v>
+      </c>
+      <c r="G172">
+        <v>25.74</v>
+      </c>
+      <c r="H172">
+        <v>9.91</v>
+      </c>
+      <c r="I172">
+        <v>17.09</v>
+      </c>
+      <c r="J172">
+        <v>18.36</v>
+      </c>
+      <c r="K172">
+        <v>14.24</v>
+      </c>
+      <c r="L172">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173">
+        <v>615000</v>
+      </c>
+      <c r="C173" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+      <c r="F173">
+        <v>9629907</v>
+      </c>
+      <c r="G173">
+        <v>236400</v>
+      </c>
+      <c r="H173">
+        <v>2302458</v>
+      </c>
+      <c r="I173">
+        <v>1029996</v>
+      </c>
+      <c r="J173">
+        <v>842886</v>
+      </c>
+      <c r="K173">
+        <v>573534</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>2104326</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <v>1467180</v>
+      </c>
+      <c r="P173">
+        <v>1073127</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174">
+        <v>615000</v>
+      </c>
+      <c r="C174" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+      <c r="E174">
+        <v>2</v>
+      </c>
+      <c r="F174">
+        <v>88.06000000000002</v>
+      </c>
+      <c r="G174">
+        <v>9.3</v>
+      </c>
+      <c r="H174">
+        <v>13.02</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>19.52</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>5.2</v>
+      </c>
+      <c r="M174">
+        <v>8.17</v>
+      </c>
+      <c r="N174">
+        <v>9.18</v>
+      </c>
+      <c r="O174">
+        <v>21.44</v>
+      </c>
+      <c r="P174">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175">
+        <v>619000</v>
+      </c>
+      <c r="C175" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175">
+        <v>3</v>
+      </c>
+      <c r="E175">
+        <v>2</v>
+      </c>
+      <c r="F175">
+        <v>73.28999999999999</v>
+      </c>
+      <c r="G175">
+        <v>19.9</v>
+      </c>
+      <c r="H175">
+        <v>19.9</v>
+      </c>
+      <c r="I175">
+        <v>6.66</v>
+      </c>
+      <c r="J175">
+        <v>11.65</v>
+      </c>
+      <c r="K175">
+        <v>8.77</v>
+      </c>
+      <c r="L175">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176">
+        <v>619000</v>
+      </c>
+      <c r="C176" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+      <c r="F176">
+        <v>61.3</v>
+      </c>
+      <c r="G176">
+        <v>16.56</v>
+      </c>
+      <c r="H176">
+        <v>16.56</v>
+      </c>
+      <c r="I176">
+        <v>8.06</v>
+      </c>
+      <c r="J176">
+        <v>11.03</v>
+      </c>
+      <c r="K176">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177">
+        <v>619900</v>
+      </c>
+      <c r="C177" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177">
+        <v>3</v>
+      </c>
+      <c r="E177">
+        <v>2</v>
+      </c>
+      <c r="F177">
+        <v>76.50999999999999</v>
+      </c>
+      <c r="G177">
+        <v>19.25</v>
+      </c>
+      <c r="H177">
+        <v>19.25</v>
+      </c>
+      <c r="I177">
+        <v>12.51</v>
+      </c>
+      <c r="J177">
+        <v>11</v>
+      </c>
+      <c r="K177">
+        <v>9.06</v>
+      </c>
+      <c r="L177">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178">
+        <v>619900</v>
+      </c>
+      <c r="C178" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178">
+        <v>3</v>
+      </c>
+      <c r="E178">
+        <v>2</v>
+      </c>
+      <c r="F178">
+        <v>64.01</v>
+      </c>
+      <c r="G178">
+        <v>17.7</v>
+      </c>
+      <c r="H178">
+        <v>17.7</v>
+      </c>
+      <c r="I178">
+        <v>6.95</v>
+      </c>
+      <c r="J178">
+        <v>9.24</v>
+      </c>
+      <c r="K178">
+        <v>8.33</v>
+      </c>
+      <c r="L178">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179">
+        <v>619900</v>
+      </c>
+      <c r="C179" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179">
+        <v>3</v>
+      </c>
+      <c r="E179">
+        <v>2</v>
+      </c>
+      <c r="F179">
+        <v>64.01</v>
+      </c>
+      <c r="G179">
+        <v>17.7</v>
+      </c>
+      <c r="H179">
+        <v>17.7</v>
+      </c>
+      <c r="I179">
+        <v>6.95</v>
+      </c>
+      <c r="J179">
+        <v>9.24</v>
+      </c>
+      <c r="K179">
+        <v>8.33</v>
+      </c>
+      <c r="L179">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180">
+        <v>620000</v>
+      </c>
+      <c r="C180" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180">
+        <v>2</v>
+      </c>
+      <c r="F180">
+        <v>74.09</v>
+      </c>
+      <c r="G180">
+        <v>22.69</v>
+      </c>
+      <c r="H180">
+        <v>22.69</v>
+      </c>
+      <c r="I180">
+        <v>6.99</v>
+      </c>
+      <c r="J180">
+        <v>13.36</v>
+      </c>
+      <c r="K180">
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181">
+        <v>620000</v>
+      </c>
+      <c r="C181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181">
+        <v>3</v>
+      </c>
+      <c r="E181">
+        <v>2</v>
+      </c>
+      <c r="F181">
+        <v>154.70999999999998</v>
+      </c>
+      <c r="G181">
+        <v>21.42</v>
+      </c>
+      <c r="H181">
+        <v>21.42</v>
+      </c>
+      <c r="I181">
+        <v>5.69</v>
+      </c>
+      <c r="J181">
+        <v>16.32</v>
+      </c>
+      <c r="K181">
+        <v>77</v>
+      </c>
+      <c r="L181">
+        <v>12.86</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182">
+        <v>625000</v>
+      </c>
+      <c r="C182" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182">
+        <v>3</v>
+      </c>
+      <c r="E182">
+        <v>2</v>
+      </c>
+      <c r="F182">
+        <v>64.01</v>
+      </c>
+      <c r="G182">
+        <v>17.7</v>
+      </c>
+      <c r="H182">
+        <v>17.7</v>
+      </c>
+      <c r="I182">
+        <v>6.95</v>
+      </c>
+      <c r="J182">
+        <v>9.24</v>
+      </c>
+      <c r="K182">
+        <v>8.33</v>
+      </c>
+      <c r="L182">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183">
+        <v>629000</v>
+      </c>
+      <c r="D183">
+        <v>3</v>
+      </c>
+      <c r="E183">
+        <v>2</v>
+      </c>
+      <c r="F183">
+        <v>71.97</v>
+      </c>
+      <c r="G183">
+        <v>18.43</v>
+      </c>
+      <c r="H183">
+        <v>18.39</v>
+      </c>
+      <c r="I183">
+        <v>5.95</v>
+      </c>
+      <c r="J183">
+        <v>13.32</v>
+      </c>
+      <c r="K183">
+        <v>8.63</v>
+      </c>
+      <c r="L183">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184">
+        <v>629900</v>
+      </c>
+      <c r="C184" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184">
+        <v>2</v>
+      </c>
+      <c r="E184">
+        <v>2</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185">
+        <v>629999</v>
+      </c>
+      <c r="C185" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185">
+        <v>2</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+      <c r="F185">
+        <v>57.54</v>
+      </c>
+      <c r="G185">
+        <v>13.53</v>
+      </c>
+      <c r="H185">
+        <v>13.53</v>
+      </c>
+      <c r="I185">
+        <v>10.8</v>
+      </c>
+      <c r="J185">
+        <v>8.37</v>
+      </c>
+      <c r="K185">
+        <v>11.31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186">
+        <v>632000</v>
+      </c>
+      <c r="C186" t="s">
+        <v>7</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
+      </c>
+      <c r="E186">
+        <v>2</v>
+      </c>
+      <c r="F186">
+        <v>4956300</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>882000</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>1001000</v>
+      </c>
+      <c r="K186">
+        <v>1150000</v>
+      </c>
+      <c r="L186">
+        <v>1507200</v>
+      </c>
+      <c r="M186">
+        <v>416100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187">
+        <v>639000</v>
+      </c>
+      <c r="C187" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+      <c r="F187">
+        <v>88.05000000000001</v>
+      </c>
+      <c r="G187">
+        <v>23.1</v>
+      </c>
+      <c r="H187">
+        <v>23.1</v>
+      </c>
+      <c r="I187">
+        <v>7.29</v>
+      </c>
+      <c r="J187">
+        <v>10.8</v>
+      </c>
+      <c r="K187">
+        <v>8.64</v>
+      </c>
+      <c r="L187">
+        <v>4.81</v>
+      </c>
+      <c r="M187">
+        <v>10.31</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188">
+        <v>639000</v>
+      </c>
+      <c r="C188" t="s">
+        <v>7</v>
+      </c>
+      <c r="D188">
+        <v>3</v>
+      </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
+      <c r="F188">
+        <v>89.45</v>
+      </c>
+      <c r="G188">
+        <v>19.04</v>
+      </c>
+      <c r="H188">
+        <v>19.04</v>
+      </c>
+      <c r="I188">
+        <v>6.9</v>
+      </c>
+      <c r="J188">
+        <v>14.18</v>
+      </c>
+      <c r="K188">
+        <v>13.95</v>
+      </c>
+      <c r="L188">
+        <v>16.34</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189">
+        <v>639999</v>
+      </c>
+      <c r="C189" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189">
+        <v>2</v>
+      </c>
+      <c r="E189">
+        <v>2</v>
+      </c>
+      <c r="F189">
+        <v>5491800</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>456000</v>
+      </c>
+      <c r="J189">
+        <v>960000</v>
+      </c>
+      <c r="K189">
+        <v>1875800</v>
+      </c>
+      <c r="L189">
+        <v>990000</v>
+      </c>
+      <c r="M189">
+        <v>1210000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190">
+        <v>645000</v>
+      </c>
+      <c r="C190" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190">
+        <v>3</v>
+      </c>
+      <c r="E190">
+        <v>2</v>
+      </c>
+      <c r="F190">
+        <v>67.17999999999999</v>
+      </c>
+      <c r="G190">
+        <v>19.38</v>
+      </c>
+      <c r="H190">
+        <v>19.38</v>
+      </c>
+      <c r="I190">
+        <v>6.86</v>
+      </c>
+      <c r="J190">
+        <v>9.24</v>
+      </c>
+      <c r="K190">
+        <v>8.33</v>
+      </c>
+      <c r="L190">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191">
+        <v>645000</v>
+      </c>
+      <c r="C191" t="s">
+        <v>7</v>
+      </c>
+      <c r="D191">
+        <v>3</v>
+      </c>
+      <c r="E191">
+        <v>2</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192">
+        <v>649000</v>
+      </c>
+      <c r="C192" t="s">
+        <v>7</v>
+      </c>
+      <c r="D192">
+        <v>3</v>
+      </c>
+      <c r="E192">
+        <v>2</v>
+      </c>
+      <c r="F192">
+        <v>82.28</v>
+      </c>
+      <c r="G192">
+        <v>23.7</v>
+      </c>
+      <c r="H192">
+        <v>23.7</v>
+      </c>
+      <c r="I192">
+        <v>8.06</v>
+      </c>
+      <c r="J192">
+        <v>11.69</v>
+      </c>
+      <c r="K192">
+        <v>8.66</v>
+      </c>
+      <c r="L192">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193">
+        <v>649900</v>
+      </c>
+      <c r="C193" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193">
+        <v>3</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
+      <c r="F193">
+        <v>54.33999999999999</v>
+      </c>
+      <c r="G193">
+        <v>18.79</v>
+      </c>
+      <c r="H193">
+        <v>6.02</v>
+      </c>
+      <c r="I193">
+        <v>12.93</v>
+      </c>
+      <c r="J193">
+        <v>10.66</v>
+      </c>
+      <c r="K193">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194">
+        <v>649900</v>
+      </c>
+      <c r="C194" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194">
+        <v>3</v>
+      </c>
+      <c r="E194">
+        <v>2</v>
+      </c>
+      <c r="F194">
+        <v>76.02000000000001</v>
+      </c>
+      <c r="G194">
+        <v>22.88</v>
+      </c>
+      <c r="H194">
+        <v>22.88</v>
+      </c>
+      <c r="I194">
+        <v>5.95</v>
+      </c>
+      <c r="J194">
+        <v>11.16</v>
+      </c>
+      <c r="K194">
+        <v>9.01</v>
+      </c>
+      <c r="L194">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195">
+        <v>649900</v>
+      </c>
+      <c r="C195" t="s">
+        <v>7</v>
+      </c>
+      <c r="D195">
+        <v>3</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+      <c r="F195">
+        <v>67.78</v>
+      </c>
+      <c r="G195">
+        <v>19.22</v>
+      </c>
+      <c r="H195">
+        <v>19.22</v>
+      </c>
+      <c r="I195">
+        <v>6.29</v>
+      </c>
+      <c r="J195">
+        <v>3.91</v>
+      </c>
+      <c r="K195">
+        <v>11.39</v>
+      </c>
+      <c r="L195">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196">
+        <v>649999</v>
+      </c>
+      <c r="C196" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196">
+        <v>2</v>
+      </c>
+      <c r="E196">
+        <v>2</v>
+      </c>
+      <c r="F196">
+        <v>56.77</v>
+      </c>
+      <c r="G196">
+        <v>19.34</v>
+      </c>
+      <c r="H196">
+        <v>12.57</v>
+      </c>
+      <c r="I196">
+        <v>10.31</v>
+      </c>
+      <c r="J196">
+        <v>9.09</v>
+      </c>
+      <c r="K196">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197">
+        <v>650000</v>
+      </c>
+      <c r="C197" t="s">
+        <v>7</v>
+      </c>
+      <c r="D197">
+        <v>3</v>
+      </c>
+      <c r="E197">
+        <v>2</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198">
+        <v>650000</v>
+      </c>
+      <c r="C198" t="s">
+        <v>7</v>
+      </c>
+      <c r="D198">
+        <v>3</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
+      </c>
+      <c r="F198">
+        <v>71.98</v>
+      </c>
+      <c r="G198">
+        <v>12.97</v>
+      </c>
+      <c r="H198">
+        <v>10.23</v>
+      </c>
+      <c r="I198">
+        <v>6.77</v>
+      </c>
+      <c r="J198">
+        <v>14.02</v>
+      </c>
+      <c r="K198">
+        <v>10.22</v>
+      </c>
+      <c r="L198">
+        <v>6.8</v>
+      </c>
+      <c r="M198">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199">
+        <v>670000</v>
+      </c>
+      <c r="C199" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199">
+        <v>2</v>
+      </c>
+      <c r="E199">
+        <v>2</v>
+      </c>
+      <c r="F199">
+        <v>67.76</v>
+      </c>
+      <c r="G199">
+        <v>19.6</v>
+      </c>
+      <c r="H199">
+        <v>6.93</v>
+      </c>
+      <c r="I199">
+        <v>8.5</v>
+      </c>
+      <c r="J199">
+        <v>3.4</v>
+      </c>
+      <c r="K199">
+        <v>15.05</v>
+      </c>
+      <c r="L199">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200">
+        <v>673900</v>
+      </c>
+      <c r="C200" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200">
+        <v>3</v>
+      </c>
+      <c r="E200">
+        <v>2</v>
+      </c>
+      <c r="F200">
+        <v>74.95</v>
+      </c>
+      <c r="G200">
+        <v>23.24</v>
+      </c>
+      <c r="H200">
+        <v>23.24</v>
+      </c>
+      <c r="I200">
+        <v>9.3</v>
+      </c>
+      <c r="J200">
+        <v>6.69</v>
+      </c>
+      <c r="K200">
+        <v>8.36</v>
+      </c>
+      <c r="L200">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201">
+        <v>674900</v>
+      </c>
+      <c r="C201" t="s">
+        <v>137</v>
+      </c>
+      <c r="D201">
+        <v>3</v>
+      </c>
+      <c r="E201">
+        <v>4</v>
+      </c>
+      <c r="F201">
+        <v>123.63000000000001</v>
+      </c>
+      <c r="G201">
+        <v>20.94</v>
+      </c>
+      <c r="H201">
+        <v>11.84</v>
+      </c>
+      <c r="I201">
+        <v>8.82</v>
+      </c>
+      <c r="J201">
+        <v>25.49</v>
+      </c>
+      <c r="K201">
+        <v>10.47</v>
+      </c>
+      <c r="L201">
+        <v>7.51</v>
+      </c>
+      <c r="M201">
+        <v>19.28</v>
+      </c>
+      <c r="N201">
+        <v>19.28</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202">
+        <v>679000</v>
+      </c>
+      <c r="C202" t="s">
+        <v>137</v>
+      </c>
+      <c r="D202">
+        <v>4</v>
+      </c>
+      <c r="E202">
+        <v>4</v>
+      </c>
+      <c r="F202">
+        <v>83.78</v>
+      </c>
+      <c r="G202">
+        <v>16.78</v>
+      </c>
+      <c r="H202">
+        <v>12.08</v>
+      </c>
+      <c r="I202">
+        <v>8.98</v>
+      </c>
+      <c r="J202">
+        <v>12.56</v>
+      </c>
+      <c r="K202">
+        <v>8.92</v>
+      </c>
+      <c r="L202">
+        <v>16.52</v>
+      </c>
+      <c r="M202">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203">
+        <v>685000</v>
+      </c>
+      <c r="C203" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203">
+        <v>3</v>
+      </c>
+      <c r="E203">
+        <v>2</v>
+      </c>
+      <c r="F203">
+        <v>106.51</v>
+      </c>
+      <c r="G203">
+        <v>17.4</v>
+      </c>
+      <c r="H203">
+        <v>9.11</v>
+      </c>
+      <c r="I203">
+        <v>10.61</v>
+      </c>
+      <c r="J203">
+        <v>67.53</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>1.86</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204">
+        <v>689000</v>
+      </c>
+      <c r="C204" t="s">
+        <v>137</v>
+      </c>
+      <c r="D204">
+        <v>3</v>
+      </c>
+      <c r="E204">
+        <v>3</v>
+      </c>
+      <c r="F204">
+        <v>75.66</v>
+      </c>
+      <c r="G204">
+        <v>11.35</v>
+      </c>
+      <c r="H204">
+        <v>7.59</v>
+      </c>
+      <c r="I204">
+        <v>12.36</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>20.58</v>
+      </c>
+      <c r="L204">
+        <v>17.4</v>
+      </c>
+      <c r="M204">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205">
+        <v>689900</v>
+      </c>
+      <c r="C205" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205">
+        <v>3</v>
+      </c>
+      <c r="E205">
+        <v>2</v>
+      </c>
+      <c r="F205">
+        <v>72.56</v>
+      </c>
+      <c r="G205">
+        <v>17.26</v>
+      </c>
+      <c r="H205">
+        <v>17.26</v>
+      </c>
+      <c r="I205">
+        <v>10.14</v>
+      </c>
+      <c r="J205">
+        <v>4.19</v>
+      </c>
+      <c r="K205">
+        <v>14.62</v>
+      </c>
+      <c r="L205">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206">
+        <v>695000</v>
+      </c>
+      <c r="C206" t="s">
+        <v>7</v>
+      </c>
+      <c r="D206">
+        <v>3</v>
+      </c>
+      <c r="E206">
+        <v>2</v>
+      </c>
+      <c r="F206">
+        <v>819.36</v>
+      </c>
+      <c r="G206">
+        <v>208.08</v>
+      </c>
+      <c r="H206">
+        <v>208.08</v>
+      </c>
+      <c r="I206">
+        <v>135.2</v>
+      </c>
+      <c r="J206">
+        <v>111</v>
+      </c>
+      <c r="K206">
+        <v>98</v>
+      </c>
+      <c r="L206">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207">
+        <v>699000</v>
+      </c>
+      <c r="C207" t="s">
+        <v>7</v>
+      </c>
+      <c r="D207">
+        <v>3</v>
+      </c>
+      <c r="E207">
+        <v>2</v>
+      </c>
+      <c r="F207">
+        <v>82.30000000000001</v>
+      </c>
+      <c r="G207">
+        <v>20.64</v>
+      </c>
+      <c r="H207">
+        <v>11.92</v>
+      </c>
+      <c r="I207">
+        <v>7.25</v>
+      </c>
+      <c r="J207">
+        <v>9.35</v>
+      </c>
+      <c r="K207">
+        <v>7.25</v>
+      </c>
+      <c r="L207">
+        <v>15.97</v>
+      </c>
+      <c r="M207">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208">
+        <v>699000</v>
+      </c>
+      <c r="C208" t="s">
+        <v>7</v>
+      </c>
+      <c r="D208">
+        <v>3</v>
+      </c>
+      <c r="E208">
+        <v>2</v>
+      </c>
+      <c r="F208">
+        <v>87.14999999999999</v>
+      </c>
+      <c r="G208">
+        <v>18.65</v>
+      </c>
+      <c r="H208">
+        <v>12.14</v>
+      </c>
+      <c r="I208">
+        <v>10.52</v>
+      </c>
+      <c r="J208">
+        <v>10.52</v>
+      </c>
+      <c r="K208">
+        <v>15.44</v>
+      </c>
+      <c r="L208">
+        <v>10.39</v>
+      </c>
+      <c r="M208">
+        <v>9.49</v>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209">
+        <v>699000</v>
+      </c>
+      <c r="C209" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209">
+        <v>3</v>
+      </c>
+      <c r="E209">
+        <v>2</v>
+      </c>
+      <c r="F209">
+        <v>75.98</v>
+      </c>
+      <c r="G209">
+        <v>18.13</v>
+      </c>
+      <c r="H209">
+        <v>12.75</v>
+      </c>
+      <c r="I209">
+        <v>11.5</v>
+      </c>
+      <c r="J209">
+        <v>13.86</v>
+      </c>
+      <c r="K209">
+        <v>10.32</v>
+      </c>
+      <c r="L209">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210">
+        <v>699900</v>
+      </c>
+      <c r="C210" t="s">
+        <v>7</v>
+      </c>
+      <c r="D210">
+        <v>2</v>
+      </c>
+      <c r="E210">
+        <v>2</v>
+      </c>
+      <c r="F210">
+        <v>55.15</v>
+      </c>
+      <c r="G210">
+        <v>10.16</v>
+      </c>
+      <c r="H210">
+        <v>8.29</v>
+      </c>
+      <c r="I210">
+        <v>8.09</v>
+      </c>
+      <c r="J210">
+        <v>11.67</v>
+      </c>
+      <c r="K210">
+        <v>9.33</v>
+      </c>
+      <c r="L210">
+        <v>3.39</v>
+      </c>
+      <c r="M210">
+        <v>3.39</v>
+      </c>
+      <c r="N210">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211">
+        <v>699900</v>
+      </c>
+      <c r="C211" t="s">
+        <v>137</v>
+      </c>
+      <c r="D211">
+        <v>3</v>
+      </c>
+      <c r="E211">
+        <v>3</v>
+      </c>
+      <c r="F211">
+        <v>95.53999999999999</v>
+      </c>
+      <c r="G211">
+        <v>19.36</v>
+      </c>
+      <c r="H211">
+        <v>10.53</v>
+      </c>
+      <c r="I211">
+        <v>7.75</v>
+      </c>
+      <c r="J211">
+        <v>24.7</v>
+      </c>
+      <c r="K211">
+        <v>13.5</v>
+      </c>
+      <c r="L211">
+        <v>8.99</v>
+      </c>
+      <c r="M211">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212">
+        <v>699900</v>
+      </c>
+      <c r="C212" t="s">
+        <v>7</v>
+      </c>
+      <c r="D212">
+        <v>4</v>
+      </c>
+      <c r="E212">
+        <v>2</v>
+      </c>
+      <c r="F212">
+        <v>94.01</v>
+      </c>
+      <c r="G212">
+        <v>8.98</v>
+      </c>
+      <c r="H212">
+        <v>16.03</v>
+      </c>
+      <c r="I212">
+        <v>28.52</v>
+      </c>
+      <c r="J212">
+        <v>14.62</v>
+      </c>
+      <c r="K212">
+        <v>10.33</v>
+      </c>
+      <c r="L212">
+        <v>9.16</v>
+      </c>
+      <c r="M212">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213">
+        <v>710000</v>
+      </c>
+      <c r="C213" t="s">
+        <v>7</v>
+      </c>
+      <c r="D213">
+        <v>3</v>
+      </c>
+      <c r="E213">
+        <v>2</v>
+      </c>
+      <c r="F213">
+        <v>66.02000000000001</v>
+      </c>
+      <c r="G213">
+        <v>18.18</v>
+      </c>
+      <c r="H213">
+        <v>18.18</v>
+      </c>
+      <c r="I213">
+        <v>6.68</v>
+      </c>
+      <c r="J213">
+        <v>9.3</v>
+      </c>
+      <c r="K213">
+        <v>8.42</v>
+      </c>
+      <c r="L213">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214">
+        <v>739000</v>
+      </c>
+      <c r="C214" t="s">
+        <v>7</v>
+      </c>
+      <c r="D214">
+        <v>3</v>
+      </c>
+      <c r="E214">
+        <v>2</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215">
+        <v>775000</v>
+      </c>
+      <c r="C215" t="s">
+        <v>137</v>
+      </c>
+      <c r="D215">
+        <v>3</v>
+      </c>
+      <c r="E215">
+        <v>2</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216">
+        <v>789000</v>
+      </c>
+      <c r="C216" t="s">
+        <v>7</v>
+      </c>
+      <c r="D216">
+        <v>3</v>
+      </c>
+      <c r="E216">
+        <v>2</v>
+      </c>
+      <c r="F216">
+        <v>81.69000000000001</v>
+      </c>
+      <c r="G216">
+        <v>23.6</v>
+      </c>
+      <c r="H216">
+        <v>23.53</v>
+      </c>
+      <c r="I216">
+        <v>11.73</v>
+      </c>
+      <c r="J216">
+        <v>11.75</v>
+      </c>
+      <c r="K216">
+        <v>9.15</v>
+      </c>
+      <c r="L216">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217">
+        <v>796800</v>
+      </c>
+      <c r="C217" t="s">
+        <v>137</v>
+      </c>
+      <c r="D217">
+        <v>4</v>
+      </c>
+      <c r="E217">
+        <v>3</v>
+      </c>
+      <c r="F217">
+        <v>98.06</v>
+      </c>
+      <c r="G217">
+        <v>9.7</v>
+      </c>
+      <c r="H217">
+        <v>9.36</v>
+      </c>
+      <c r="I217">
+        <v>6.56</v>
+      </c>
+      <c r="J217">
+        <v>29.53</v>
+      </c>
+      <c r="K217">
+        <v>29.53</v>
+      </c>
+      <c r="L217">
+        <v>6.69</v>
+      </c>
+      <c r="M217">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218">
+        <v>799000</v>
+      </c>
+      <c r="C218" t="s">
+        <v>7</v>
+      </c>
+      <c r="D218">
+        <v>2</v>
+      </c>
+      <c r="E218">
+        <v>2</v>
+      </c>
+      <c r="F218">
+        <v>77.25</v>
+      </c>
+      <c r="G218">
+        <v>21.81</v>
+      </c>
+      <c r="H218">
+        <v>21.81</v>
+      </c>
+      <c r="I218">
+        <v>8.28</v>
+      </c>
+      <c r="J218">
+        <v>4.34</v>
+      </c>
+      <c r="K218">
+        <v>11.92</v>
+      </c>
+      <c r="L218">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219">
+        <v>799900</v>
+      </c>
+      <c r="C219" t="s">
+        <v>221</v>
+      </c>
+      <c r="D219">
+        <v>3</v>
+      </c>
+      <c r="E219">
+        <v>2</v>
+      </c>
+      <c r="F219">
+        <v>119.94</v>
+      </c>
+      <c r="G219">
+        <v>25.08</v>
+      </c>
+      <c r="H219">
+        <v>13.85</v>
+      </c>
+      <c r="I219">
+        <v>7.04</v>
+      </c>
+      <c r="J219">
+        <v>13.54</v>
+      </c>
+      <c r="K219">
+        <v>9.72</v>
+      </c>
+      <c r="L219">
+        <v>9.36</v>
+      </c>
+      <c r="M219">
+        <v>15.54</v>
+      </c>
+      <c r="N219">
+        <v>10.08</v>
+      </c>
+      <c r="O219">
+        <v>15.73</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>222</v>
+      </c>
+      <c r="B220">
+        <v>819900</v>
+      </c>
+      <c r="C220" t="s">
+        <v>137</v>
+      </c>
+      <c r="D220">
+        <v>2</v>
+      </c>
+      <c r="E220">
+        <v>3</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>223</v>
+      </c>
+      <c r="B221">
+        <v>848000</v>
+      </c>
+      <c r="C221" t="s">
+        <v>137</v>
+      </c>
+      <c r="D221">
+        <v>3</v>
+      </c>
+      <c r="E221">
+        <v>3</v>
+      </c>
+      <c r="F221">
+        <v>88.44000000000001</v>
+      </c>
+      <c r="G221">
+        <v>10.05</v>
+      </c>
+      <c r="H221">
+        <v>10.05</v>
+      </c>
+      <c r="I221">
+        <v>16.99</v>
+      </c>
+      <c r="J221">
+        <v>15.23</v>
+      </c>
+      <c r="K221">
+        <v>10.03</v>
+      </c>
+      <c r="L221">
+        <v>10.03</v>
+      </c>
+      <c r="M221">
+        <v>16.06</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>224</v>
+      </c>
+      <c r="B222">
+        <v>849999</v>
+      </c>
+      <c r="C222" t="s">
+        <v>7</v>
+      </c>
+      <c r="D222">
+        <v>3</v>
+      </c>
+      <c r="E222">
+        <v>2</v>
+      </c>
+      <c r="F222">
+        <v>90.88000000000001</v>
+      </c>
+      <c r="G222">
+        <v>26.7</v>
+      </c>
+      <c r="H222">
+        <v>26.7</v>
+      </c>
+      <c r="I222">
+        <v>7.41</v>
+      </c>
+      <c r="J222">
+        <v>6.53</v>
+      </c>
+      <c r="K222">
+        <v>11.16</v>
+      </c>
+      <c r="L222">
+        <v>8.45</v>
+      </c>
+      <c r="M222">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>225</v>
+      </c>
+      <c r="B223">
+        <v>880000</v>
+      </c>
+      <c r="C223" t="s">
+        <v>137</v>
+      </c>
+      <c r="D223">
+        <v>3</v>
+      </c>
+      <c r="E223">
+        <v>3</v>
+      </c>
+      <c r="F223">
+        <v>84.35000000000001</v>
+      </c>
+      <c r="G223">
+        <v>9.28</v>
+      </c>
+      <c r="H223">
+        <v>9.28</v>
+      </c>
+      <c r="I223">
+        <v>17.03</v>
+      </c>
+      <c r="J223">
+        <v>7.44</v>
+      </c>
+      <c r="K223">
+        <v>15.23</v>
+      </c>
+      <c r="L223">
+        <v>10.03</v>
+      </c>
+      <c r="M223">
+        <v>16.06</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>226</v>
+      </c>
+      <c r="B224">
+        <v>899900</v>
+      </c>
+      <c r="C224" t="s">
+        <v>137</v>
+      </c>
+      <c r="D224">
+        <v>3</v>
+      </c>
+      <c r="E224">
+        <v>3</v>
+      </c>
+      <c r="F224">
+        <v>68.29</v>
+      </c>
+      <c r="G224">
+        <v>9.28</v>
+      </c>
+      <c r="H224">
+        <v>9.28</v>
+      </c>
+      <c r="I224">
+        <v>17.03</v>
+      </c>
+      <c r="J224">
+        <v>7.44</v>
+      </c>
+      <c r="K224">
+        <v>15.23</v>
+      </c>
+      <c r="L224">
+        <v>10.03</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>227</v>
+      </c>
+      <c r="B225">
+        <v>899999</v>
+      </c>
+      <c r="C225" t="s">
+        <v>221</v>
+      </c>
+      <c r="D225">
+        <v>6</v>
+      </c>
+      <c r="E225">
+        <v>4</v>
+      </c>
+      <c r="F225">
+        <v>138.57</v>
+      </c>
+      <c r="G225">
+        <v>15.28</v>
+      </c>
+      <c r="H225">
+        <v>11.66</v>
+      </c>
+      <c r="I225">
+        <v>9.52</v>
+      </c>
+      <c r="J225">
+        <v>7.44</v>
+      </c>
+      <c r="K225">
+        <v>21.47</v>
+      </c>
+      <c r="L225">
+        <v>11.22</v>
+      </c>
+      <c r="M225">
+        <v>8.2</v>
+      </c>
+      <c r="N225">
+        <v>5.27</v>
+      </c>
+      <c r="O225">
+        <v>16.64</v>
+      </c>
+      <c r="P225">
+        <v>7.32</v>
+      </c>
+      <c r="Q225">
+        <v>16.65</v>
+      </c>
+      <c r="R225">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>228</v>
+      </c>
+      <c r="B226">
+        <v>929000</v>
+      </c>
+      <c r="C226" t="s">
+        <v>221</v>
+      </c>
+      <c r="D226">
+        <v>4</v>
+      </c>
+      <c r="E226">
+        <v>4</v>
+      </c>
+      <c r="F226">
+        <v>136.78</v>
+      </c>
+      <c r="G226">
+        <v>19.03</v>
+      </c>
+      <c r="H226">
+        <v>13.06</v>
+      </c>
+      <c r="I226">
+        <v>8.47</v>
+      </c>
+      <c r="J226">
+        <v>33.7</v>
+      </c>
+      <c r="K226">
+        <v>14.77</v>
+      </c>
+      <c r="L226">
+        <v>10.22</v>
+      </c>
+      <c r="M226">
+        <v>20.38</v>
+      </c>
+      <c r="N226">
+        <v>17.15</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>229</v>
+      </c>
+      <c r="B227">
+        <v>939000</v>
+      </c>
+      <c r="C227" t="s">
+        <v>221</v>
+      </c>
+      <c r="D227">
+        <v>3</v>
+      </c>
+      <c r="E227">
+        <v>3</v>
+      </c>
+      <c r="F227">
+        <v>131.67000000000002</v>
+      </c>
+      <c r="G227">
+        <v>24.46</v>
+      </c>
+      <c r="H227">
+        <v>24.46</v>
+      </c>
+      <c r="I227">
+        <v>11.48</v>
+      </c>
+      <c r="J227">
+        <v>17.78</v>
+      </c>
+      <c r="K227">
+        <v>5.36</v>
+      </c>
+      <c r="L227">
+        <v>14.88</v>
+      </c>
+      <c r="M227">
+        <v>11.26</v>
+      </c>
+      <c r="N227">
+        <v>8.94</v>
+      </c>
+      <c r="O227">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>230</v>
+      </c>
+      <c r="B228">
+        <v>948800</v>
+      </c>
+      <c r="C228" t="s">
+        <v>7</v>
+      </c>
+      <c r="D228">
+        <v>3</v>
+      </c>
+      <c r="E228">
+        <v>3</v>
+      </c>
+      <c r="F228">
+        <v>146.71</v>
+      </c>
+      <c r="G228">
+        <v>39.04</v>
+      </c>
+      <c r="H228">
+        <v>39.04</v>
+      </c>
+      <c r="I228">
+        <v>10.17</v>
+      </c>
+      <c r="J228">
+        <v>11.74</v>
+      </c>
+      <c r="K228">
+        <v>19.03</v>
+      </c>
+      <c r="L228">
+        <v>11.16</v>
+      </c>
+      <c r="M228">
+        <v>10.98</v>
+      </c>
+      <c r="N228">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>231</v>
+      </c>
+      <c r="B229">
+        <v>999000</v>
+      </c>
+      <c r="C229" t="s">
+        <v>221</v>
+      </c>
+      <c r="D229">
+        <v>4</v>
+      </c>
+      <c r="E229">
+        <v>3</v>
+      </c>
+      <c r="F229">
+        <v>95.03999999999999</v>
+      </c>
+      <c r="G229">
+        <v>12.18</v>
+      </c>
+      <c r="H229">
+        <v>11.25</v>
+      </c>
+      <c r="I229">
+        <v>8.41</v>
+      </c>
+      <c r="J229">
+        <v>25.3</v>
+      </c>
+      <c r="K229">
+        <v>13.16</v>
+      </c>
+      <c r="L229">
+        <v>9.13</v>
+      </c>
+      <c r="M229">
+        <v>3.8</v>
+      </c>
+      <c r="N229">
+        <v>11.81</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>232</v>
+      </c>
+      <c r="B230">
+        <v>1098000</v>
+      </c>
+      <c r="C230" t="s">
+        <v>221</v>
+      </c>
+      <c r="D230">
+        <v>4</v>
+      </c>
+      <c r="E230">
+        <v>3</v>
+      </c>
+      <c r="F230">
+        <v>157.93</v>
+      </c>
+      <c r="G230">
+        <v>12.61</v>
+      </c>
+      <c r="H230">
+        <v>10.99</v>
+      </c>
+      <c r="I230">
+        <v>10.31</v>
+      </c>
+      <c r="J230">
+        <v>33.81</v>
+      </c>
+      <c r="K230">
+        <v>12.93</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>29.7</v>
+      </c>
+      <c r="O230">
+        <v>29.7</v>
+      </c>
+      <c r="P230">
+        <v>10.41</v>
+      </c>
+      <c r="Q230">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>233</v>
+      </c>
+      <c r="B231">
+        <v>1099000</v>
+      </c>
+      <c r="C231" t="s">
+        <v>221</v>
+      </c>
+      <c r="D231">
+        <v>6</v>
+      </c>
+      <c r="E231">
+        <v>3</v>
+      </c>
+      <c r="F231">
+        <v>134.64999999999998</v>
+      </c>
+      <c r="G231">
+        <v>15.69</v>
+      </c>
+      <c r="H231">
+        <v>13.29</v>
+      </c>
+      <c r="I231">
+        <v>9.64</v>
+      </c>
+      <c r="J231">
+        <v>9.06</v>
+      </c>
+      <c r="K231">
+        <v>7.25</v>
+      </c>
+      <c r="L231">
+        <v>15.45</v>
+      </c>
+      <c r="M231">
+        <v>9.56</v>
+      </c>
+      <c r="N231">
+        <v>16.04</v>
+      </c>
+      <c r="O231">
+        <v>8.59</v>
+      </c>
+      <c r="P231">
+        <v>9.24</v>
+      </c>
+      <c r="Q231">
+        <v>13.34</v>
+      </c>
+      <c r="R231">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>234</v>
+      </c>
+      <c r="B232">
+        <v>1199900</v>
+      </c>
+      <c r="C232" t="s">
+        <v>221</v>
+      </c>
+      <c r="D232">
+        <v>4</v>
+      </c>
+      <c r="E232">
+        <v>4</v>
+      </c>
+      <c r="F232">
+        <v>192062</v>
+      </c>
+      <c r="G232">
+        <v>10058</v>
+      </c>
+      <c r="H232">
+        <v>18688</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>19608</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>16758</v>
+      </c>
+      <c r="O232">
+        <v>26691</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>6695</v>
+      </c>
+      <c r="R232">
+        <v>18585</v>
+      </c>
+      <c r="S232">
+        <v>7140</v>
+      </c>
+      <c r="T232">
+        <v>11543</v>
+      </c>
+      <c r="U232">
+        <v>13392</v>
+      </c>
+      <c r="V232">
+        <v>19012</v>
+      </c>
+      <c r="W232">
+        <v>23892</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>235</v>
+      </c>
+      <c r="B233">
+        <v>1200000</v>
+      </c>
+      <c r="C233" t="s">
+        <v>221</v>
+      </c>
+      <c r="D233">
+        <v>8</v>
+      </c>
+      <c r="E233">
+        <v>7</v>
+      </c>
+      <c r="F233">
+        <v>99.89</v>
+      </c>
+      <c r="G233">
+        <v>16.89</v>
+      </c>
+      <c r="H233">
+        <v>9.3</v>
+      </c>
+      <c r="I233">
+        <v>7.86</v>
+      </c>
+      <c r="J233">
+        <v>14.37</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>15.5</v>
+      </c>
+      <c r="O233">
+        <v>9.06</v>
+      </c>
+      <c r="P233">
+        <v>14.43</v>
+      </c>
+      <c r="Q233">
+        <v>7.09</v>
+      </c>
+      <c r="R233">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>236</v>
+      </c>
+      <c r="B234">
+        <v>1329786</v>
+      </c>
+      <c r="C234" t="s">
+        <v>137</v>
+      </c>
+      <c r="D234">
+        <v>4</v>
+      </c>
+      <c r="E234">
+        <v>4</v>
+      </c>
+      <c r="F234">
+        <v>226.57000000000005</v>
+      </c>
+      <c r="G234">
+        <v>30.53</v>
+      </c>
+      <c r="H234">
+        <v>30.53</v>
+      </c>
+      <c r="I234">
+        <v>50.37</v>
+      </c>
+      <c r="J234">
+        <v>50.37</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>25.55</v>
+      </c>
+      <c r="M234">
+        <v>10.8</v>
+      </c>
+      <c r="N234">
+        <v>13.18</v>
+      </c>
+      <c r="O234">
+        <v>15.24</v>
+      </c>
+      <c r="P234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>237</v>
+      </c>
+      <c r="B235">
+        <v>1349900</v>
+      </c>
+      <c r="C235" t="s">
+        <v>137</v>
+      </c>
+      <c r="D235">
+        <v>4</v>
+      </c>
+      <c r="E235">
+        <v>4</v>
+      </c>
+      <c r="F235">
+        <v>180.85999999999999</v>
+      </c>
+      <c r="G235">
+        <v>20.02</v>
+      </c>
+      <c r="H235">
+        <v>14.42</v>
+      </c>
+      <c r="I235">
+        <v>21.92</v>
+      </c>
+      <c r="J235">
+        <v>13.55</v>
+      </c>
+      <c r="K235">
+        <v>15.78</v>
+      </c>
+      <c r="L235">
+        <v>31.39</v>
+      </c>
+      <c r="M235">
+        <v>6.42</v>
+      </c>
+      <c r="N235">
+        <v>29.66</v>
+      </c>
+      <c r="O235">
+        <v>13.85</v>
+      </c>
+      <c r="P235">
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>238</v>
+      </c>
+      <c r="B236">
+        <v>1399900</v>
+      </c>
+      <c r="C236" t="s">
+        <v>221</v>
+      </c>
+      <c r="D236">
+        <v>6</v>
+      </c>
+      <c r="E236">
+        <v>4</v>
+      </c>
+      <c r="F236">
+        <v>147.83</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>18.39</v>
+      </c>
+      <c r="I236">
+        <v>16.84</v>
+      </c>
+      <c r="J236">
+        <v>19.4</v>
+      </c>
+      <c r="K236">
+        <v>11.02</v>
+      </c>
+      <c r="L236">
+        <v>12.86</v>
+      </c>
+      <c r="M236">
+        <v>8.33</v>
+      </c>
+      <c r="N236">
+        <v>24.17</v>
+      </c>
+      <c r="O236">
+        <v>11.9</v>
+      </c>
+      <c r="P236">
+        <v>12.66</v>
+      </c>
+      <c r="Q236">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>239</v>
+      </c>
+      <c r="B237">
+        <v>1429900</v>
+      </c>
+      <c r="C237" t="s">
+        <v>221</v>
+      </c>
+      <c r="D237">
+        <v>4</v>
+      </c>
+      <c r="E237">
+        <v>4</v>
+      </c>
+      <c r="F237">
+        <v>196.17</v>
+      </c>
+      <c r="G237">
+        <v>20.46</v>
+      </c>
+      <c r="H237">
+        <v>15.44</v>
+      </c>
+      <c r="I237">
+        <v>15.34</v>
+      </c>
+      <c r="J237">
+        <v>11.02</v>
+      </c>
+      <c r="K237">
+        <v>36.98</v>
+      </c>
+      <c r="L237">
+        <v>11.66</v>
+      </c>
+      <c r="M237">
+        <v>20.94</v>
+      </c>
+      <c r="N237">
+        <v>13.05</v>
+      </c>
+      <c r="O237">
+        <v>22.96</v>
+      </c>
+      <c r="P237">
+        <v>17.23</v>
+      </c>
+      <c r="Q237">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>240</v>
+      </c>
+      <c r="B238">
+        <v>1499800</v>
+      </c>
+      <c r="C238" t="s">
+        <v>221</v>
+      </c>
+      <c r="D238">
+        <v>7</v>
+      </c>
+      <c r="E238">
+        <v>3</v>
+      </c>
+      <c r="F238">
+        <v>83.78</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>15.31</v>
+      </c>
+      <c r="M238">
+        <v>15.31</v>
+      </c>
+      <c r="N238">
+        <v>16.66</v>
+      </c>
+      <c r="O238">
+        <v>14.96</v>
+      </c>
+      <c r="P238">
+        <v>11.1</v>
+      </c>
+      <c r="Q238">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>241</v>
+      </c>
+      <c r="B239">
+        <v>1549990</v>
+      </c>
+      <c r="C239" t="s">
+        <v>7</v>
+      </c>
+      <c r="D239">
+        <v>3</v>
+      </c>
+      <c r="E239">
+        <v>3</v>
+      </c>
+      <c r="F239">
+        <v>141110</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>30798</v>
+      </c>
+      <c r="K239">
+        <v>16638</v>
+      </c>
+      <c r="L239">
+        <v>22925</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239">
+        <v>25376</v>
+      </c>
+      <c r="O239">
+        <v>45373</v>
+      </c>
+      <c r="P239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>242</v>
+      </c>
+      <c r="B240">
+        <v>1598000</v>
+      </c>
+      <c r="C240" t="s">
+        <v>221</v>
+      </c>
+      <c r="D240">
+        <v>6</v>
+      </c>
+      <c r="E240">
+        <v>5</v>
+      </c>
+      <c r="F240">
+        <v>185.82000000000002</v>
+      </c>
+      <c r="G240">
+        <v>27.07</v>
+      </c>
+      <c r="H240">
+        <v>12.44</v>
+      </c>
+      <c r="I240">
+        <v>14.59</v>
+      </c>
+      <c r="J240">
+        <v>16.64</v>
+      </c>
+      <c r="K240">
+        <v>20.67</v>
+      </c>
+      <c r="L240">
+        <v>7.46</v>
+      </c>
+      <c r="M240">
+        <v>14.53</v>
+      </c>
+      <c r="N240">
+        <v>14.88</v>
+      </c>
+      <c r="O240">
+        <v>13.02</v>
+      </c>
+      <c r="P240">
+        <v>10.8</v>
+      </c>
+      <c r="Q240">
+        <v>14.1</v>
+      </c>
+      <c r="R240">
+        <v>19.62</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>243</v>
+      </c>
+      <c r="B241">
+        <v>1699999</v>
+      </c>
+      <c r="C241" t="s">
+        <v>221</v>
+      </c>
+      <c r="D241">
+        <v>5</v>
+      </c>
+      <c r="E241">
+        <v>6</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>0</v>
+      </c>
+      <c r="O241">
+        <v>0</v>
+      </c>
+      <c r="P241">
+        <v>0</v>
+      </c>
+      <c r="Q241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>244</v>
+      </c>
+      <c r="B242">
+        <v>1785800</v>
+      </c>
+      <c r="C242" t="s">
+        <v>221</v>
+      </c>
+      <c r="D242">
+        <v>4</v>
+      </c>
+      <c r="E242">
+        <v>2</v>
+      </c>
+      <c r="F242">
+        <v>196.92</v>
+      </c>
+      <c r="G242">
+        <v>11.22</v>
+      </c>
+      <c r="H242">
+        <v>12</v>
+      </c>
+      <c r="I242">
+        <v>16.5</v>
+      </c>
+      <c r="J242">
+        <v>16.35</v>
+      </c>
+      <c r="K242">
+        <v>18.23</v>
+      </c>
+      <c r="L242">
+        <v>11.92</v>
+      </c>
+      <c r="M242">
+        <v>18</v>
+      </c>
+      <c r="N242">
+        <v>38.86</v>
+      </c>
+      <c r="O242">
+        <v>38.86</v>
+      </c>
+      <c r="P242">
+        <v>6.7</v>
+      </c>
+      <c r="Q242">
+        <v>8.28</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>245</v>
+      </c>
+      <c r="B243">
+        <v>2099900</v>
+      </c>
+      <c r="C243" t="s">
+        <v>221</v>
+      </c>
+      <c r="D243">
+        <v>2</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>62.72</v>
+      </c>
+      <c r="G243">
+        <v>18.1</v>
+      </c>
+      <c r="H243">
+        <v>9.21</v>
+      </c>
+      <c r="I243">
+        <v>9.92</v>
+      </c>
+      <c r="J243">
+        <v>14.33</v>
+      </c>
+      <c r="K243">
+        <v>11.16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>246</v>
+      </c>
+      <c r="B244">
+        <v>2299900</v>
+      </c>
+      <c r="C244" t="s">
+        <v>7</v>
+      </c>
+      <c r="D244">
+        <v>4</v>
+      </c>
+      <c r="E244">
+        <v>4</v>
+      </c>
+      <c r="F244">
+        <v>2284.52</v>
+      </c>
+      <c r="G244">
+        <v>830.18</v>
+      </c>
+      <c r="H244">
+        <v>412</v>
+      </c>
+      <c r="I244">
+        <v>143</v>
+      </c>
+      <c r="J244">
+        <v>350.24</v>
+      </c>
+      <c r="K244">
+        <v>230.89</v>
+      </c>
+      <c r="L244">
+        <v>160.59</v>
+      </c>
+      <c r="M244">
+        <v>157.62</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>247</v>
+      </c>
+      <c r="B245">
+        <v>2345000</v>
+      </c>
+      <c r="C245" t="s">
+        <v>221</v>
+      </c>
+      <c r="D245">
+        <v>4</v>
+      </c>
+      <c r="E245">
+        <v>5</v>
+      </c>
+      <c r="F245">
+        <v>354.3</v>
+      </c>
+      <c r="G245">
+        <v>21.47</v>
+      </c>
+      <c r="H245">
+        <v>17.04</v>
+      </c>
+      <c r="I245">
+        <v>20.03</v>
+      </c>
+      <c r="J245">
+        <v>22.94</v>
+      </c>
+      <c r="K245">
+        <v>150.44</v>
+      </c>
+      <c r="L245">
+        <v>23.01</v>
+      </c>
+      <c r="M245">
+        <v>15.92</v>
+      </c>
+      <c r="N245">
+        <v>18.23</v>
+      </c>
+      <c r="O245">
+        <v>12.09</v>
+      </c>
+      <c r="P245">
+        <v>17.02</v>
+      </c>
+      <c r="Q245">
+        <v>18.45</v>
+      </c>
+      <c r="R245">
+        <v>17.66</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>248</v>
+      </c>
+      <c r="B246">
+        <v>2988800</v>
+      </c>
+      <c r="C246" t="s">
+        <v>221</v>
+      </c>
+      <c r="D246">
+        <v>5</v>
+      </c>
+      <c r="E246">
+        <v>5</v>
+      </c>
+      <c r="F246">
+        <v>281.71</v>
+      </c>
+      <c r="G246">
+        <v>30.87</v>
+      </c>
+      <c r="H246">
+        <v>20.61</v>
+      </c>
+      <c r="I246">
+        <v>15.44</v>
+      </c>
+      <c r="J246">
+        <v>15.21</v>
+      </c>
+      <c r="K246">
+        <v>55.72</v>
+      </c>
+      <c r="L246">
+        <v>16.86</v>
+      </c>
+      <c r="M246">
+        <v>17.8</v>
+      </c>
+      <c r="N246">
+        <v>15.48</v>
+      </c>
+      <c r="O246">
+        <v>20.21</v>
+      </c>
+      <c r="P246">
+        <v>33.41</v>
+      </c>
+      <c r="Q246">
+        <v>13.27</v>
+      </c>
+      <c r="R246">
+        <v>26.83</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>249</v>
+      </c>
+      <c r="B247">
+        <v>3999999</v>
+      </c>
+      <c r="C247" t="s">
+        <v>221</v>
+      </c>
+      <c r="D247">
+        <v>4</v>
+      </c>
+      <c r="E247">
+        <v>3</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>0</v>
+      </c>
+      <c r="O247">
+        <v>0</v>
+      </c>
+      <c r="P247">
+        <v>0</v>
+      </c>
+      <c r="Q247">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="249">
   <si>
     <t>Address</t>
   </si>
@@ -55,27 +55,27 @@
     <t>#408 -360 SQUARE ONE DR|Mississauga, Ontario L5B0E6</t>
   </si>
   <si>
+    <t>#2202 -4470 TUCANA CRT|Mississauga, Ontario L5R3K8</t>
+  </si>
+  <si>
+    <t>#1902 -4470 TUCANA CRT|Mississauga, Ontario L5R3K8</t>
+  </si>
+  <si>
     <t>#2604 -360 SQUARE ONE DR|Mississauga, Ontario L5B0G7</t>
   </si>
   <si>
-    <t>#1902 -4470 TUCANA CRT|Mississauga, Ontario L5R3K8</t>
-  </si>
-  <si>
-    <t>#2202 -4470 TUCANA CRT|Mississauga, Ontario L5R3K8</t>
+    <t>#912 -115 HILLCREST AVE|Mississauga, Ontario L5B3Y9</t>
   </si>
   <si>
     <t>#1911 -1580 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3T8</t>
   </si>
   <si>
-    <t>#912 -115 HILLCREST AVE|Mississauga, Ontario L5B3Y9</t>
+    <t>#2503 -4011 BRICKSTONE MEWS|Mississauga, Ontario L5B0G3</t>
   </si>
   <si>
     <t>#410 -3985 GRAND PARK DR|Mississauga, Ontario L5B0H8</t>
   </si>
   <si>
-    <t>#2503 -4011 BRICKSTONE MEWS|Mississauga, Ontario L5B0G3</t>
-  </si>
-  <si>
     <t>#3203 -4070 CONFEDERATION PKWY|Mississauga, Ontario L5B0E9</t>
   </si>
   <si>
@@ -85,69 +85,69 @@
     <t>#1604 -4470 TUCANA CRT|Mississauga, Ontario L5R3K8</t>
   </si>
   <si>
+    <t>#311 -50 ELM DR E|Mississauga, Ontario L5A3X2</t>
+  </si>
+  <si>
     <t>#205 -3700 KANEFF CRES|Mississauga, Ontario L5A4B8</t>
   </si>
   <si>
+    <t>#2601 -550 WEBB DR|Mississauga, Ontario L5B3Y4</t>
+  </si>
+  <si>
     <t>#1804 -20 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3S1</t>
   </si>
   <si>
-    <t>#311 -50 ELM DR E|Mississauga, Ontario L5A3X2</t>
-  </si>
-  <si>
     <t>#1201 -4085 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
   </si>
   <si>
-    <t>#2601 -550 WEBB DR|Mississauga, Ontario L5B3Y4</t>
-  </si>
-  <si>
     <t>#1202 -3695  KANEFF  CRES|Mississauga, Ontario L5A4B6</t>
   </si>
   <si>
     <t>#801 -1 ELM DR W|Mississauga, Ontario L5B4M1</t>
   </si>
   <si>
+    <t>#611 -339 RATHBURN RD W|Mississauga, Ontario L5B0C8</t>
+  </si>
+  <si>
     <t>#1703 -50 ELM DR E|Mississauga, Ontario L5A3X2</t>
   </si>
   <si>
-    <t>#611 -339 RATHBURN RD W|Mississauga, Ontario L5B0C8</t>
-  </si>
-  <si>
     <t>#2008 -3100 KIRWIN AVE|Mississauga, Ontario L5A3S6</t>
   </si>
   <si>
+    <t>#2610 -80 ABSOLUTE AVE|Mississauga, Ontario L4Z0A5</t>
+  </si>
+  <si>
+    <t>#401 -80 ABSOLUTE AVE|Mississauga, Ontario L4Z0A5</t>
+  </si>
+  <si>
     <t>#802 -156 ENFIELD PL|Mississauga, Ontario L5B4L8</t>
   </si>
   <si>
-    <t>#2610 -80 ABSOLUTE AVE|Mississauga, Ontario L4Z0A5</t>
-  </si>
-  <si>
-    <t>#401 -80 ABSOLUTE AVE|Mississauga, Ontario L4Z0A5</t>
-  </si>
-  <si>
     <t>#1212 -50 KINGSBRIDGE GARDEN CIRC|Mississauga, Ontario L5R1Y2</t>
   </si>
   <si>
+    <t>#1111 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
+  </si>
+  <si>
+    <t>#2710 -360 SQUARE ONE DR|Mississauga, Ontario L5B0G7</t>
+  </si>
+  <si>
+    <t>#713 -115 HILLCREST AVE|Mississauga, Ontario L5B3Y9</t>
+  </si>
+  <si>
+    <t>#1205 -330 RATHBURN RD|Mississauga, Ontario L5B3Y2</t>
+  </si>
+  <si>
     <t>#3805 -208 ENFIELD PL|Mississauga, Ontario L5B0B8</t>
   </si>
   <si>
-    <t>#2710 -360 SQUARE ONE DR|Mississauga, Ontario L5B0G7</t>
-  </si>
-  <si>
-    <t>#713 -115 HILLCREST AVE|Mississauga, Ontario L5B3Y9</t>
-  </si>
-  <si>
-    <t>#1111 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
-  </si>
-  <si>
-    <t>#1205 -330 RATHBURN RD|Mississauga, Ontario L5B3Y2</t>
+    <t>#1110 -330 BURNHAMTHORPE RD W|Mississauga, Ontario L5B0E1</t>
   </si>
   <si>
     <t>#530 -4085 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
   </si>
   <si>
-    <t>#1110 -330 BURNHAMTHORPE RD W|Mississauga, Ontario L5B0E1</t>
-  </si>
-  <si>
     <t>#2603 -4070 CONFEDERATION  PKWY|Mississauga, Ontario L5B0E9</t>
   </si>
   <si>
@@ -169,18 +169,18 @@
     <t>#205 -4070 CONFEDERATION PKWY|Mississauga, Ontario</t>
   </si>
   <si>
+    <t>#719 -50 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3S2</t>
+  </si>
+  <si>
     <t>#2110 -330 BURNHAMTHORPE RD|Mississauga, Ontario L5B0E1</t>
   </si>
   <si>
+    <t>#2206 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
+  </si>
+  <si>
     <t>#1208 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
   </si>
   <si>
-    <t>#2206 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
-  </si>
-  <si>
-    <t>#719 -50 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3S2</t>
-  </si>
-  <si>
     <t>#2113 -135 HILLCREST AVE|Mississauga, Ontario L5B4B1</t>
   </si>
   <si>
@@ -190,18 +190,18 @@
     <t>#707 -365 PRINCE OF WALES DR|Mississauga, Ontario L5B0G6</t>
   </si>
   <si>
+    <t>#411 -310 BURNHAMTHORPE RD|Mississauga, Ontario L5B4P9</t>
+  </si>
+  <si>
     <t>#1211 -4011 BRICKSTONE MEWS|Mississauga, Ontario L5B0G3</t>
   </si>
   <si>
-    <t>#411 -310 BURNHAMTHORPE RD|Mississauga, Ontario L5B4P9</t>
+    <t>810 SCOLLARD Court Unit# 808|Mississauga, Ontario L5V0A4</t>
   </si>
   <si>
     <t>#808 -810 SCOLLARD CRT|Mississauga, Ontario L5V0A2</t>
   </si>
   <si>
-    <t>810 SCOLLARD Court Unit# 808|Mississauga, Ontario L5V0A4</t>
-  </si>
-  <si>
     <t>#405 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
   </si>
   <si>
@@ -223,15 +223,15 @@
     <t>#1106 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
   </si>
   <si>
+    <t>#2106 -33 ELM DR W|Mississauga, Ontario L5B4M2</t>
+  </si>
+  <si>
+    <t>#311 -3605 KARIYA DR|Mississauga, Ontario L5B3J4</t>
+  </si>
+  <si>
     <t>#PH13 -3590 KANEFF CRES|Mississauga, Ontario L5A3X3</t>
   </si>
   <si>
-    <t>#311 -3605 KARIYA DR|Mississauga, Ontario L5B3J4</t>
-  </si>
-  <si>
-    <t>#2106 -33 ELM DR W|Mississauga, Ontario L5B4M2</t>
-  </si>
-  <si>
     <t>#1101 -330 BURNHAMTHORPE RD W|Mississauga, Ontario L5B0E1</t>
   </si>
   <si>
@@ -241,66 +241,66 @@
     <t>#3209 -385 PRINCE OF WALES DR|Mississauga, Ontario L5B0C6</t>
   </si>
   <si>
+    <t>#1005 -350 PRINCESS ROYAL DR|Mississauga, Ontario L5B4N1</t>
+  </si>
+  <si>
     <t>#2009 -349 RATHBURN RD|Mississauga, Ontario L5B0C8</t>
   </si>
   <si>
-    <t>#1005 -350 PRINCESS ROYAL DR|Mississauga, Ontario L5B4N1</t>
-  </si>
-  <si>
     <t>#1803 -335 WEBB DR|Mississauga, Ontario L5B4A1</t>
   </si>
   <si>
     <t>#2104 -385 PRINCE OF WALES DR|Mississauga, Ontario L5B0C6</t>
   </si>
   <si>
+    <t>#809 -360 SQUARE ONE DR|Mississauga, Ontario L5B0G7</t>
+  </si>
+  <si>
     <t>#1709 -20 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3S2</t>
   </si>
   <si>
-    <t>#809 -360 SQUARE ONE DR|Mississauga, Ontario L5B0G7</t>
-  </si>
-  <si>
     <t>#914 -550 WEBB DR|Mississauga, Ontario L5B3Y4</t>
   </si>
   <si>
     <t>#3201 -510 CURRAN PL|Mississauga, Ontario L5B0J8</t>
   </si>
   <si>
+    <t>#209 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
+  </si>
+  <si>
+    <t>#511 -510 CURRAN PL|Mississauga, Ontario</t>
+  </si>
+  <si>
+    <t>#205 -75 KING ST E|Mississauga, Ontario L5A4G5</t>
+  </si>
+  <si>
+    <t>#414 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
+  </si>
+  <si>
     <t>#1210 -350 WEBB DR|Mississauga, Ontario L5B3W4</t>
   </si>
   <si>
-    <t>#511 -510 CURRAN PL|Mississauga, Ontario</t>
-  </si>
-  <si>
-    <t>#205 -75 KING ST E|Mississauga, Ontario L5A4G5</t>
-  </si>
-  <si>
-    <t>#414 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
-  </si>
-  <si>
-    <t>#209 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
-  </si>
-  <si>
     <t>#1712 -349 RATHBURN RD|Mississauga, Ontario L5B0G9</t>
   </si>
   <si>
+    <t>#802 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
+  </si>
+  <si>
+    <t>#1210 -20 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3S1</t>
+  </si>
+  <si>
+    <t>#1408 -335 WEBB DR|Mississauga, Ontario L5B4A1</t>
+  </si>
+  <si>
     <t>220 BURNHAMTHORPE Road Unit# 1703|Mississauga, Ontario L5B4N5</t>
   </si>
   <si>
     <t>#1703 -220 BURNHAMTHORPE RD|Mississauga, Ontario L5B4N4</t>
   </si>
   <si>
-    <t>#1408 -335 WEBB DR|Mississauga, Ontario L5B4A1</t>
-  </si>
-  <si>
-    <t>#1210 -20 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3S1</t>
-  </si>
-  <si>
     <t>#208 -285 ENFIELD PL|Mississauga, Ontario L5B4L8</t>
   </si>
   <si>
-    <t>#802 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
-  </si>
-  <si>
     <t>#306 -360 SQUARE ONE DR|Mississauga, Ontario L5B0G7</t>
   </si>
   <si>
@@ -310,36 +310,36 @@
     <t>#1008 -3525 KARIYA DR|Mississauga, Ontario L5B0C2</t>
   </si>
   <si>
+    <t>#406 -90 ABSOLUTE AVE|Mississauga, Ontario L4Z0A3</t>
+  </si>
+  <si>
+    <t>#1301 -60 ABSOLUTE AVE|Mississauga, Ontario L4T0A9</t>
+  </si>
+  <si>
     <t>#PH11 -300 WEBB DR|Mississauga, Ontario L5B3W3</t>
   </si>
   <si>
-    <t>#406 -90 ABSOLUTE AVE|Mississauga, Ontario L4Z0A3</t>
-  </si>
-  <si>
-    <t>#1301 -60 ABSOLUTE AVE|Mississauga, Ontario L4T0A9</t>
-  </si>
-  <si>
     <t>#1605 -385 PRINCE OF WALES DR|Mississauga, Ontario L5B0C6</t>
   </si>
   <si>
+    <t>#1905 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
+  </si>
+  <si>
+    <t>#2312 -3605 KARIYA DR|Mississauga, Ontario L5B3J4</t>
+  </si>
+  <si>
     <t>#3903 -510 CURRAN PL|Mississauga, Ontario L5B0J8</t>
   </si>
   <si>
-    <t>#1905 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
-  </si>
-  <si>
-    <t>#2312 -3605 KARIYA DR|Mississauga, Ontario L5B3J4</t>
+    <t>#906 -250 WEBB DR|Mississauga, Ontario L5B3Z4</t>
+  </si>
+  <si>
+    <t>#202 -3975 GRAND PARK DR|Mississauga, Ontario L5B0K4</t>
   </si>
   <si>
     <t>#303 -335 WEBB DR|Mississauga, Ontario L5B4A1</t>
   </si>
   <si>
-    <t>#202 -3975 GRAND PARK DR|Mississauga, Ontario L5B0K4</t>
-  </si>
-  <si>
-    <t>#906 -250 WEBB DR|Mississauga, Ontario L5B3Z4</t>
-  </si>
-  <si>
     <t>#1204 -285 ENFIELD PL|Mississauga, Ontario L5B3Y6</t>
   </si>
   <si>
@@ -349,12 +349,12 @@
     <t>#1411 -300 WEBB DR|Mississauga, Ontario L5B3W3</t>
   </si>
   <si>
+    <t>#104 -1 ELM DR|Mississauga, Ontario L5B4M1</t>
+  </si>
+  <si>
     <t>#603 -349 RATHBURN RD|Mississauga, Ontario L5B0G9</t>
   </si>
   <si>
-    <t>#104 -1 ELM DR|Mississauga, Ontario L5B4M1</t>
-  </si>
-  <si>
     <t>#4106 -50 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
   </si>
   <si>
@@ -364,43 +364,49 @@
     <t>#612 -3880 DUKE OF YORK BLVD|Mississauga, Ontario L5B4M7</t>
   </si>
   <si>
+    <t>#2410 -550 WEBB DR|Mississauga, Ontario L5B3Y4</t>
+  </si>
+  <si>
+    <t>#1808 -1 ELM DR W|Mississauga, Ontario L5B4M1</t>
+  </si>
+  <si>
+    <t>#3303 -3975 GRAND PARK DR|Mississauga, Ontario L5B0K4</t>
+  </si>
+  <si>
     <t>3939 DUKE OF YORK Boulevard Unit# 905|Mississauga, Ontario L5B4N2</t>
   </si>
   <si>
     <t>#905 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
   </si>
   <si>
-    <t>#3303 -3975 GRAND PARK DR|Mississauga, Ontario L5B0K4</t>
-  </si>
-  <si>
-    <t>#2410 -550 WEBB DR|Mississauga, Ontario L5B3Y4</t>
-  </si>
-  <si>
-    <t>#1808 -1 ELM DR W|Mississauga, Ontario L5B4M1</t>
+    <t>4070 CONFEDERATION Parkway Unit# 608|Mississauga, Ontario L5B0E9</t>
+  </si>
+  <si>
+    <t>#608 -4070 CONFEDERATION PKWY|Mississauga, Ontario L5B0E9</t>
   </si>
   <si>
     <t>#2204 -220 BURNHAMTHORPE RD W|Mississauga, Ontario L5B4N4</t>
   </si>
   <si>
-    <t>4070 CONFEDERATION Parkway Unit# 608|Mississauga, Ontario L5B0E9</t>
-  </si>
-  <si>
-    <t>#608 -4070 CONFEDERATION PKWY|Mississauga, Ontario L5B0E9</t>
-  </si>
-  <si>
     <t>#606 -350 WEBB DR|Mississauga, Ontario L5B3W4</t>
   </si>
   <si>
+    <t>#3703 -3975 GRAND PARK DR|Mississauga, Ontario L5B0K4</t>
+  </si>
+  <si>
+    <t>#2108 -3525 KARIYA DR|Mississauga, Ontario L5B0C2</t>
+  </si>
+  <si>
+    <t>#207 -330 BURNHAMTHORPE RD W|Mississauga, Ontario L5B0E1</t>
+  </si>
+  <si>
     <t>#308 -400 WEBB DR|Mississauga, Ontario L5B3Z7</t>
   </si>
   <si>
-    <t>#3703 -3975 GRAND PARK DR|Mississauga, Ontario L5B0K4</t>
-  </si>
-  <si>
-    <t>#207 -330 BURNHAMTHORPE RD W|Mississauga, Ontario L5B0E1</t>
-  </si>
-  <si>
-    <t>#2108 -3525 KARIYA DR|Mississauga, Ontario L5B0C2</t>
+    <t>#2202 -4065 BRICKSTONE MEWS|Mississauga, Ontario L5B0G3</t>
+  </si>
+  <si>
+    <t>#2316 -4055 PARKSIDE DR|Mississauga, Ontario L5B0K2</t>
   </si>
   <si>
     <t>#920 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
@@ -409,18 +415,12 @@
     <t>#1111 -223 WEBB DR|Mississauga, Ontario L5B0E8</t>
   </si>
   <si>
-    <t>#2316 -4055 PARKSIDE DR|Mississauga, Ontario L5B0K2</t>
+    <t>#402 -285 ENFIELD PL|Mississauga, Ontario L5B3Y6</t>
   </si>
   <si>
     <t>#2501 -4080 LIVING ARTS DR|Mississauga, Ontario L5B4N3</t>
   </si>
   <si>
-    <t>#2202 -4065 BRICKSTONE MEWS|Mississauga, Ontario L5B0G3</t>
-  </si>
-  <si>
-    <t>#402 -285 ENFIELD PL|Mississauga, Ontario L5B3Y6</t>
-  </si>
-  <si>
     <t>Address not available</t>
   </si>
   <si>
@@ -433,36 +433,36 @@
     <t>#1708 -360 SQUARE ONE DR|Mississauga, Ontario L5B0G7</t>
   </si>
   <si>
+    <t>#2212 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
+  </si>
+  <si>
+    <t>#512 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
+  </si>
+  <si>
+    <t>#403 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
+  </si>
+  <si>
+    <t>#110 -90 ABSOLUTE AVE|Mississauga, Ontario L4Z0A1</t>
+  </si>
+  <si>
+    <t>#508 -1300 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3S9</t>
+  </si>
+  <si>
     <t>#911 -1 ELM DR|Mississauga, Ontario L5B4M1</t>
   </si>
   <si>
-    <t>#110 -90 ABSOLUTE AVE|Mississauga, Ontario L4Z0A1</t>
-  </si>
-  <si>
-    <t>#508 -1300 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3S9</t>
-  </si>
-  <si>
-    <t>#403 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
-  </si>
-  <si>
-    <t>#2212 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
-  </si>
-  <si>
-    <t>#512 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
-  </si>
-  <si>
     <t>#1611 -135 HILLCREST AVE|Mississauga, Ontario L5B4B1</t>
   </si>
   <si>
     <t>#1802 -4065 BRICKSTONE MEWS|Mississauga, Ontario L5B0G3</t>
   </si>
   <si>
+    <t>3304 3939 DUKE OF YORK Boulevard|Mississauga, Ontario L5B4N2</t>
+  </si>
+  <si>
     <t>#3304 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
   </si>
   <si>
-    <t>3304 3939 DUKE OF YORK Boulevard|Mississauga, Ontario L5B4N2</t>
-  </si>
-  <si>
     <t>#1103 -700 CONSTELLATION DR|Mississauga, Ontario L5R3G8</t>
   </si>
   <si>
@@ -475,57 +475,54 @@
     <t>#104 -3605 KARIYA DR|Mississauga, Ontario L5B3J2</t>
   </si>
   <si>
+    <t>#303 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
+  </si>
+  <si>
+    <t>#1502 -310 BURNHAMTHORPE RD W|Mississauga, Ontario L5B4P9</t>
+  </si>
+  <si>
+    <t>#312 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
+  </si>
+  <si>
+    <t>#1213 -3880 DUKE OF YORK BLVD|Mississauga, Ontario L5B4M7</t>
+  </si>
+  <si>
+    <t>#402 -220 BURNHAMTHORPE RD W|Mississauga, Ontario L5B4N4</t>
+  </si>
+  <si>
     <t>#608 -200 BURNHAMTHORPE RD|Mississauga, Ontario L5A4L4</t>
   </si>
   <si>
-    <t>#402 -220 BURNHAMTHORPE RD W|Mississauga, Ontario L5B4N4</t>
-  </si>
-  <si>
-    <t>#1502 -310 BURNHAMTHORPE RD W|Mississauga, Ontario L5B4P9</t>
-  </si>
-  <si>
-    <t>#1213 -3880 DUKE OF YORK BLVD|Mississauga, Ontario L5B4M7</t>
-  </si>
-  <si>
-    <t>#312 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
-  </si>
-  <si>
-    <t>#303 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
+    <t>#1618 -4055 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K8</t>
+  </si>
+  <si>
+    <t>#906 -339 RATHBURN RD W|Mississauga, Ontario L5B9K6</t>
+  </si>
+  <si>
+    <t>#2002 -3700 KANEFF CRES|Mississauga, Ontario L5A4B8</t>
+  </si>
+  <si>
+    <t>#3307 -50 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
+  </si>
+  <si>
+    <t>#3115 -4055 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
+  </si>
+  <si>
+    <t>#1513 -3880 DUKE OF YORK BLVD|Mississauga, Ontario L5B4M7</t>
+  </si>
+  <si>
+    <t>#2710 -3504 HURONTARIO ST|Mississauga, Ontario L5B1P2</t>
   </si>
   <si>
     <t>#310 -350 WEBB DR|Mississauga, Ontario L5B3W4</t>
   </si>
   <si>
-    <t>#3115 -4055 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
-  </si>
-  <si>
-    <t>#1618 -4055 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K8</t>
-  </si>
-  <si>
-    <t>#1513 -3880 DUKE OF YORK BLVD|Mississauga, Ontario L5B4M7</t>
-  </si>
-  <si>
     <t>#1104 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
   </si>
   <si>
-    <t>#906 -339 RATHBURN RD W|Mississauga, Ontario L5B9K6</t>
-  </si>
-  <si>
-    <t>#2002 -3700 KANEFF CRES|Mississauga, Ontario L5A4B8</t>
-  </si>
-  <si>
-    <t>#3307 -50 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
-  </si>
-  <si>
-    <t>#2710 -3504 HURONTARIO ST|Mississauga, Ontario L5B1P2</t>
-  </si>
-  <si>
     <t>#717 -339 RATHBURN RD|Mississauga, Ontario L5B0C8</t>
   </si>
   <si>
-    <t>717 339 RATHBURN Road W|Mississauga, Ontario L5B0K6</t>
-  </si>
-  <si>
     <t>#1817 -349 RATHBURN RD|Mississauga, Ontario L5B0C8</t>
   </si>
   <si>
@@ -541,27 +538,27 @@
     <t>#209 -350 RATHBURN RD W|Mississauga, Ontario L5B3Y2</t>
   </si>
   <si>
+    <t>#2102 -360 SQUARE ONE DR|Mississauga, Ontario L5B0E6</t>
+  </si>
+  <si>
     <t>#3103 -4099 BRICKSTONE MEWS|Mississauga, Ontario L5B0G2</t>
   </si>
   <si>
-    <t>#2102 -360 SQUARE ONE DR|Mississauga, Ontario L5B0E6</t>
-  </si>
-  <si>
     <t>#2115 -339 RATHBURN RD W|Mississauga, Ontario L5B0K6</t>
   </si>
   <si>
+    <t>#1512 -4055 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
+  </si>
+  <si>
     <t>#2212 -4055 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
   </si>
   <si>
-    <t>#1512 -4055 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
+    <t>#4102 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
   </si>
   <si>
     <t>#1808 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
   </si>
   <si>
-    <t>#4102 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
-  </si>
-  <si>
     <t>#3212 -4055 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
   </si>
   <si>
@@ -586,33 +583,33 @@
     <t>388 PRINCE OF WALES Drive Unit# 406|Mississauga, Ontario L5B0A1</t>
   </si>
   <si>
+    <t>#3406 -4065 BRICKSTONE MEWS|Mississauga, Ontario</t>
+  </si>
+  <si>
     <t>#1809 -4085 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
   </si>
   <si>
-    <t>#3406 -4065 BRICKSTONE MEWS|Mississauga, Ontario</t>
-  </si>
-  <si>
     <t>#2631 -3888 DUKE OF YORK BLVD|Mississauga, Ontario L5B4P5</t>
   </si>
   <si>
+    <t>#1606 -349 RATHBURN RD|Mississauga, Ontario L5B0C8</t>
+  </si>
+  <si>
     <t>#2701 -4080 LIVING ARTS DR|Mississauga, Ontario L5B4M8</t>
   </si>
   <si>
     <t>#1402 -4070 CONFEDERATION PKWY|Mississauga, Ontario</t>
   </si>
   <si>
-    <t>#1606 -349 RATHBURN RD|Mississauga, Ontario L5B0C8</t>
-  </si>
-  <si>
     <t>349 RATHBURN  RD W|Mississauga, Ontario L5B0G9</t>
   </si>
   <si>
+    <t>#UPH 07 -90 ABSOLUTE AVE|Mississauga, Ontario L4Z0A3</t>
+  </si>
+  <si>
     <t>#4714 -3960 CONFEDERATION PKWY|Mississauga, Ontario</t>
   </si>
   <si>
-    <t>#UPH 07 -90 ABSOLUTE AVE|Mississauga, Ontario L4Z0A3</t>
-  </si>
-  <si>
     <t>#311 -3351 CAWTHRA RD|Mississauga, Ontario L5A4N5</t>
   </si>
   <si>
@@ -637,22 +634,22 @@
     <t>#2015 -349 RATHBURN RD|Mississauga, Ontario L5B0C8</t>
   </si>
   <si>
+    <t>#2306 -3880 DUKE OF YORK BLVD|Mississauga, Ontario L5B4M7</t>
+  </si>
+  <si>
+    <t>#1506 -3880 DUKE OF YORK BLVD|Mississauga, Ontario L5B4M7</t>
+  </si>
+  <si>
     <t>#LPH2 -220 BURNHAMTHORPE RD W|Mississauga, Ontario L5B3Y5</t>
   </si>
   <si>
-    <t>#2306 -3880 DUKE OF YORK BLVD|Mississauga, Ontario L5B4M7</t>
-  </si>
-  <si>
-    <t>#1506 -3880 DUKE OF YORK BLVD|Mississauga, Ontario L5B4M7</t>
+    <t>#1107 -200 ROBERT SPECK PKWY|Mississauga, Ontario L4Z1S3</t>
   </si>
   <si>
     <t>#PH 3605 -3525 KARIYA DR|Mississauga, Ontario L5B0C2</t>
   </si>
   <si>
     <t>#27 -3395 CLIFF RD N|Mississauga, Ontario L5A3M7</t>
-  </si>
-  <si>
-    <t>#1107 -200 ROBERT SPECK PKWY|Mississauga, Ontario L4Z1S3</t>
   </si>
   <si>
     <t>#2804 -330 BURNHAMTHORPE RD|Mississauga, Ontario L5B0E1</t>
@@ -1219,7 +1216,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>93.66999999999999</v>
+        <v>93.67</v>
       </c>
       <c r="G3">
         <v>25.16</v>
@@ -1292,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>54.870000000000005</v>
+        <v>54.87</v>
       </c>
       <c r="G5">
         <v>14.97</v>
@@ -1412,7 +1409,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1423,28 +1420,31 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>55.66</v>
+        <v>83.56</v>
       </c>
       <c r="G9">
-        <v>15.56</v>
+        <v>21.78</v>
       </c>
       <c r="H9">
-        <v>15.56</v>
+        <v>21.78</v>
       </c>
       <c r="I9">
-        <v>7.27</v>
+        <v>9.53</v>
       </c>
       <c r="J9">
-        <v>6.54</v>
+        <v>14.67</v>
       </c>
       <c r="K9">
-        <v>10.73</v>
+        <v>8.42</v>
+      </c>
+      <c r="L9">
+        <v>7.38</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1464,7 +1464,7 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>83.10000000000001</v>
+        <v>83.1</v>
       </c>
       <c r="G10">
         <v>21.44</v>
@@ -1485,7 +1485,7 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1496,31 +1496,28 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>83.56</v>
+        <v>55.66</v>
       </c>
       <c r="G11">
-        <v>21.78</v>
+        <v>15.56</v>
       </c>
       <c r="H11">
-        <v>21.78</v>
+        <v>15.56</v>
       </c>
       <c r="I11">
-        <v>9.53</v>
+        <v>7.27</v>
       </c>
       <c r="J11">
-        <v>14.67</v>
+        <v>6.54</v>
       </c>
       <c r="K11">
-        <v>8.42</v>
-      </c>
-      <c r="L11">
-        <v>7.38</v>
+        <v>10.73</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1540,31 +1537,31 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>87.41</v>
+        <v>60.7</v>
       </c>
       <c r="G12">
-        <v>5.98</v>
+        <v>14.25</v>
       </c>
       <c r="H12">
-        <v>5.43</v>
+        <v>6.24</v>
       </c>
       <c r="I12">
-        <v>8.68</v>
+        <v>8.79</v>
       </c>
       <c r="J12">
-        <v>19.72</v>
+        <v>12.19</v>
       </c>
       <c r="K12">
-        <v>14.72</v>
+        <v>9.08</v>
       </c>
       <c r="L12">
-        <v>10.82</v>
+        <v>10.15</v>
       </c>
       <c r="M12">
-        <v>11.76</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>10.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1584,31 +1581,31 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>60.699999999999996</v>
+        <v>87.41</v>
       </c>
       <c r="G13">
-        <v>14.25</v>
+        <v>5.98</v>
       </c>
       <c r="H13">
-        <v>6.24</v>
+        <v>5.43</v>
       </c>
       <c r="I13">
-        <v>8.79</v>
+        <v>8.68</v>
       </c>
       <c r="J13">
-        <v>12.19</v>
+        <v>19.72</v>
       </c>
       <c r="K13">
-        <v>9.08</v>
+        <v>14.72</v>
       </c>
       <c r="L13">
-        <v>10.15</v>
+        <v>10.82</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.76</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1622,28 +1619,28 @@
         <v>7</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>41</v>
+        <v>56.72</v>
       </c>
       <c r="G14">
-        <v>9.39</v>
+        <v>20</v>
       </c>
       <c r="H14">
-        <v>9.39</v>
+        <v>20</v>
       </c>
       <c r="I14">
-        <v>6.41</v>
+        <v>5.9</v>
       </c>
       <c r="J14">
-        <v>11.13</v>
+        <v>10.18</v>
       </c>
       <c r="K14">
-        <v>4.68</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1657,28 +1654,28 @@
         <v>7</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>56.72</v>
+        <v>41</v>
       </c>
       <c r="G15">
-        <v>20</v>
+        <v>9.39</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>9.39</v>
       </c>
       <c r="I15">
-        <v>5.9</v>
+        <v>6.41</v>
       </c>
       <c r="J15">
-        <v>10.18</v>
+        <v>11.13</v>
       </c>
       <c r="K15">
-        <v>0.64</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1698,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>57.370000000000005</v>
+        <v>57.37</v>
       </c>
       <c r="G16">
         <v>18.06</v>
@@ -1771,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>96.82000000000001</v>
+        <v>96.82</v>
       </c>
       <c r="G18">
         <v>23.31</v>
@@ -1795,7 +1792,7 @@
         <v>7.79</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1806,31 +1803,43 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>61.03</v>
+        <v>88.85</v>
       </c>
       <c r="G19">
-        <v>18.08</v>
+        <v>20.11</v>
       </c>
       <c r="H19">
-        <v>8.21</v>
+        <v>8.49</v>
       </c>
       <c r="I19">
-        <v>8.78</v>
+        <v>7.74</v>
       </c>
       <c r="J19">
-        <v>15.37</v>
+        <v>6.32</v>
       </c>
       <c r="K19">
-        <v>10.59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>11.57</v>
+      </c>
+      <c r="L19">
+        <v>13.98</v>
+      </c>
+      <c r="M19">
+        <v>11.22</v>
+      </c>
+      <c r="N19">
+        <v>9.42</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1841,37 +1850,31 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>92.57000000000001</v>
+        <v>61.03</v>
       </c>
       <c r="G20">
-        <v>27.27</v>
+        <v>18.08</v>
       </c>
       <c r="H20">
-        <v>11.9</v>
+        <v>8.21</v>
       </c>
       <c r="I20">
-        <v>10.88</v>
+        <v>8.78</v>
       </c>
       <c r="J20">
-        <v>17.76</v>
+        <v>15.37</v>
       </c>
       <c r="K20">
-        <v>7.67</v>
-      </c>
-      <c r="L20">
-        <v>10</v>
-      </c>
-      <c r="M20">
-        <v>7.09</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10.59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1882,43 +1885,34 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>88.85000000000001</v>
+        <v>75.1</v>
       </c>
       <c r="G21">
-        <v>20.11</v>
+        <v>19.38</v>
       </c>
       <c r="H21">
-        <v>8.49</v>
+        <v>19.38</v>
       </c>
       <c r="I21">
-        <v>7.74</v>
+        <v>7.78</v>
       </c>
       <c r="J21">
-        <v>6.32</v>
+        <v>7.33</v>
       </c>
       <c r="K21">
-        <v>11.57</v>
+        <v>12.02</v>
       </c>
       <c r="L21">
-        <v>13.98</v>
-      </c>
-      <c r="M21">
-        <v>11.22</v>
-      </c>
-      <c r="N21">
-        <v>9.42</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9.21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1929,31 +1923,37 @@
         <v>7</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>57.29</v>
+        <v>92.57</v>
       </c>
       <c r="G22">
-        <v>18.24</v>
+        <v>27.27</v>
       </c>
       <c r="H22">
-        <v>18.24</v>
+        <v>11.9</v>
       </c>
       <c r="I22">
-        <v>5.9</v>
+        <v>10.88</v>
       </c>
       <c r="J22">
-        <v>10.03</v>
+        <v>17.76</v>
       </c>
       <c r="K22">
-        <v>4.88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.67</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1970,25 +1970,22 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>75.1</v>
+        <v>57.29</v>
       </c>
       <c r="G23">
-        <v>19.38</v>
+        <v>18.24</v>
       </c>
       <c r="H23">
-        <v>19.38</v>
+        <v>18.24</v>
       </c>
       <c r="I23">
-        <v>7.78</v>
+        <v>5.9</v>
       </c>
       <c r="J23">
-        <v>7.33</v>
+        <v>10.03</v>
       </c>
       <c r="K23">
-        <v>12.02</v>
-      </c>
-      <c r="L23">
-        <v>9.21</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2049,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <v>56.760000000000005</v>
+        <v>56.76</v>
       </c>
       <c r="G25">
         <v>16.51</v>
@@ -2073,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2090,31 +2087,28 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>73.5</v>
+        <v>63.45</v>
       </c>
       <c r="G26">
-        <v>17.88</v>
+        <v>19.59</v>
       </c>
       <c r="H26">
-        <v>8.7</v>
+        <v>19.59</v>
       </c>
       <c r="I26">
-        <v>6.74</v>
+        <v>6.69</v>
       </c>
       <c r="J26">
-        <v>5.01</v>
+        <v>11.02</v>
       </c>
       <c r="K26">
-        <v>15.08</v>
+        <v>6.56</v>
       </c>
       <c r="L26">
-        <v>15.08</v>
-      </c>
-      <c r="M26">
-        <v>5.01</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2131,25 +2125,28 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>63.45</v>
+        <v>73.5</v>
       </c>
       <c r="G27">
-        <v>19.59</v>
+        <v>17.88</v>
       </c>
       <c r="H27">
-        <v>19.59</v>
+        <v>8.7</v>
       </c>
       <c r="I27">
-        <v>6.69</v>
+        <v>6.74</v>
       </c>
       <c r="J27">
-        <v>11.02</v>
+        <v>5.01</v>
       </c>
       <c r="K27">
-        <v>6.56</v>
+        <v>15.08</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>15.08</v>
+      </c>
+      <c r="M27">
+        <v>5.01</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2169,7 +2166,7 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>77.32000000000001</v>
+        <v>77.32</v>
       </c>
       <c r="G28">
         <v>10.92</v>
@@ -2187,7 +2184,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -2201,28 +2198,25 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>58.88</v>
+        <v>64.03</v>
       </c>
       <c r="G29">
-        <v>3.52</v>
+        <v>17.18</v>
       </c>
       <c r="H29">
-        <v>10.84</v>
+        <v>17.18</v>
       </c>
       <c r="I29">
-        <v>10.16</v>
+        <v>5.74</v>
       </c>
       <c r="J29">
-        <v>8.01</v>
+        <v>12.8</v>
       </c>
       <c r="K29">
-        <v>15.89</v>
-      </c>
-      <c r="L29">
-        <v>10.46</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2242,25 +2236,25 @@
         <v>2</v>
       </c>
       <c r="F30">
-        <v>64.03</v>
+        <v>57.96</v>
       </c>
       <c r="G30">
-        <v>17.18</v>
+        <v>16.96</v>
       </c>
       <c r="H30">
-        <v>17.18</v>
+        <v>16.96</v>
       </c>
       <c r="I30">
-        <v>5.74</v>
+        <v>6.8</v>
       </c>
       <c r="J30">
-        <v>12.8</v>
+        <v>10.58</v>
       </c>
       <c r="K30">
-        <v>11.13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -2274,25 +2268,28 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>57.959999999999994</v>
+        <v>58.88</v>
       </c>
       <c r="G31">
-        <v>16.96</v>
+        <v>3.52</v>
       </c>
       <c r="H31">
-        <v>16.96</v>
+        <v>10.84</v>
       </c>
       <c r="I31">
-        <v>6.8</v>
+        <v>10.16</v>
       </c>
       <c r="J31">
-        <v>10.58</v>
+        <v>8.01</v>
       </c>
       <c r="K31">
-        <v>6.66</v>
+        <v>15.89</v>
+      </c>
+      <c r="L31">
+        <v>10.46</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2312,7 +2309,7 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <v>54.900000000000006</v>
+        <v>54.9</v>
       </c>
       <c r="G32">
         <v>17.64</v>
@@ -2333,7 +2330,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -2344,28 +2341,31 @@
         <v>7</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>63.24</v>
+        <v>60.9</v>
       </c>
       <c r="G33">
-        <v>21.19</v>
+        <v>15.1</v>
       </c>
       <c r="H33">
-        <v>21.19</v>
+        <v>10.4</v>
       </c>
       <c r="I33">
-        <v>2.6</v>
+        <v>5.27</v>
       </c>
       <c r="J33">
-        <v>13.27</v>
+        <v>7.62</v>
       </c>
       <c r="K33">
-        <v>4.99</v>
+        <v>14.01</v>
+      </c>
+      <c r="L33">
+        <v>8.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -2458,31 +2458,28 @@
         <v>7</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36">
-        <v>60.9</v>
+        <v>76.38</v>
       </c>
       <c r="G36">
-        <v>15.1</v>
+        <v>19.17</v>
       </c>
       <c r="H36">
-        <v>10.4</v>
+        <v>9.23</v>
       </c>
       <c r="I36">
-        <v>5.27</v>
+        <v>12.91</v>
       </c>
       <c r="J36">
-        <v>7.62</v>
+        <v>23.23</v>
       </c>
       <c r="K36">
-        <v>14.01</v>
-      </c>
-      <c r="L36">
-        <v>8.5</v>
+        <v>11.84</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2499,25 +2496,25 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>76.38000000000001</v>
+        <v>63.24</v>
       </c>
       <c r="G37">
-        <v>19.17</v>
+        <v>21.19</v>
       </c>
       <c r="H37">
-        <v>9.23</v>
+        <v>21.19</v>
       </c>
       <c r="I37">
-        <v>12.91</v>
+        <v>2.6</v>
       </c>
       <c r="J37">
-        <v>23.23</v>
+        <v>13.27</v>
       </c>
       <c r="K37">
-        <v>11.84</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2537,22 +2534,22 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>61.14</v>
+        <v>54.78</v>
       </c>
       <c r="G38">
-        <v>19.22</v>
+        <v>14.63</v>
       </c>
       <c r="H38">
-        <v>19.22</v>
+        <v>14.63</v>
       </c>
       <c r="I38">
-        <v>5.95</v>
+        <v>7.39</v>
       </c>
       <c r="J38">
-        <v>11.13</v>
+        <v>12.49</v>
       </c>
       <c r="K38">
-        <v>5.62</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2572,22 +2569,22 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>54.78</v>
+        <v>61.14</v>
       </c>
       <c r="G39">
-        <v>14.63</v>
+        <v>19.22</v>
       </c>
       <c r="H39">
-        <v>14.63</v>
+        <v>19.22</v>
       </c>
       <c r="I39">
-        <v>7.39</v>
+        <v>5.95</v>
       </c>
       <c r="J39">
-        <v>12.49</v>
+        <v>11.13</v>
       </c>
       <c r="K39">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2668,22 +2665,22 @@
         <v>2</v>
       </c>
       <c r="F42">
-        <v>2250256</v>
+        <v>44.69</v>
       </c>
       <c r="G42">
-        <v>400000</v>
+        <v>3.72</v>
       </c>
       <c r="H42">
-        <v>400000</v>
+        <v>3.72</v>
       </c>
       <c r="I42">
-        <v>250000</v>
+        <v>2.32</v>
       </c>
       <c r="J42">
-        <v>256</v>
+        <v>23.78</v>
       </c>
       <c r="K42">
-        <v>1200000</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2829,7 +2826,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -2840,31 +2837,34 @@
         <v>7</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47">
-        <v>54.56</v>
+        <v>79.14</v>
       </c>
       <c r="G47">
-        <v>14.58</v>
+        <v>20.6</v>
       </c>
       <c r="H47">
-        <v>14.58</v>
+        <v>10.35</v>
       </c>
       <c r="I47">
-        <v>7.44</v>
+        <v>11.26</v>
       </c>
       <c r="J47">
-        <v>5.58</v>
+        <v>15.84</v>
       </c>
       <c r="K47">
-        <v>12.38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>12.56</v>
+      </c>
+      <c r="L47">
+        <v>8.53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -2881,25 +2881,22 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>58.69</v>
+        <v>54.56</v>
       </c>
       <c r="G48">
-        <v>14.18</v>
+        <v>14.58</v>
       </c>
       <c r="H48">
-        <v>9.44</v>
+        <v>14.58</v>
       </c>
       <c r="I48">
-        <v>7.69</v>
+        <v>7.44</v>
       </c>
       <c r="J48">
-        <v>11.43</v>
+        <v>5.58</v>
       </c>
       <c r="K48">
-        <v>10.2</v>
-      </c>
-      <c r="L48">
-        <v>5.75</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2919,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>56.970000000000006</v>
+        <v>56.97</v>
       </c>
       <c r="G49">
         <v>16.26</v>
@@ -2951,31 +2948,31 @@
         <v>7</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>79.14</v>
+        <v>58.69</v>
       </c>
       <c r="G50">
-        <v>20.6</v>
+        <v>14.18</v>
       </c>
       <c r="H50">
-        <v>10.35</v>
+        <v>9.44</v>
       </c>
       <c r="I50">
-        <v>11.26</v>
+        <v>7.69</v>
       </c>
       <c r="J50">
-        <v>15.84</v>
+        <v>11.43</v>
       </c>
       <c r="K50">
-        <v>12.56</v>
+        <v>10.2</v>
       </c>
       <c r="L50">
-        <v>8.53</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3086,7 +3083,7 @@
         <v>3.93</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -3103,25 +3100,28 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>50.75000000000001</v>
+        <v>59.37</v>
       </c>
       <c r="G54">
-        <v>10.22</v>
+        <v>17.23</v>
       </c>
       <c r="H54">
-        <v>10.22</v>
+        <v>6.97</v>
       </c>
       <c r="I54">
-        <v>12.08</v>
+        <v>11.1</v>
       </c>
       <c r="J54">
-        <v>9.3</v>
+        <v>6.84</v>
       </c>
       <c r="K54">
-        <v>8.93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>17.23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -3138,28 +3138,25 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>59.370000000000005</v>
+        <v>50.75</v>
       </c>
       <c r="G55">
-        <v>17.23</v>
+        <v>10.22</v>
       </c>
       <c r="H55">
-        <v>6.97</v>
+        <v>10.22</v>
       </c>
       <c r="I55">
-        <v>11.1</v>
+        <v>12.08</v>
       </c>
       <c r="J55">
-        <v>6.84</v>
+        <v>9.3</v>
       </c>
       <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>17.23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -3176,28 +3173,31 @@
         <v>2</v>
       </c>
       <c r="F56">
-        <v>65.78</v>
+        <v>70.12</v>
       </c>
       <c r="G56">
-        <v>14.4</v>
+        <v>13.29</v>
       </c>
       <c r="H56">
-        <v>14.18</v>
+        <v>3.51</v>
       </c>
       <c r="I56">
-        <v>10.14</v>
+        <v>1.84</v>
       </c>
       <c r="J56">
-        <v>13.6</v>
+        <v>13.01</v>
       </c>
       <c r="K56">
-        <v>13.46</v>
+        <v>10.22</v>
       </c>
       <c r="L56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+        <v>13.94</v>
+      </c>
+      <c r="M56">
+        <v>14.31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -3214,28 +3214,25 @@
         <v>2</v>
       </c>
       <c r="F57">
-        <v>88098</v>
+        <v>65.78</v>
       </c>
       <c r="G57">
-        <v>143</v>
+        <v>14.4</v>
       </c>
       <c r="H57">
-        <v>55776</v>
+        <v>14.18</v>
       </c>
       <c r="I57">
-        <v>31625</v>
+        <v>10.14</v>
       </c>
       <c r="J57">
-        <v>140</v>
+        <v>13.6</v>
       </c>
       <c r="K57">
-        <v>110</v>
+        <v>13.46</v>
       </c>
       <c r="L57">
-        <v>150</v>
-      </c>
-      <c r="M57">
-        <v>154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -3363,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>46.59000000000001</v>
+        <v>46.59</v>
       </c>
       <c r="G61">
         <v>11.71</v>
@@ -3398,7 +3395,7 @@
         <v>2</v>
       </c>
       <c r="F62">
-        <v>57.60000000000001</v>
+        <v>57.6</v>
       </c>
       <c r="G62">
         <v>14.53</v>
@@ -3489,7 +3486,7 @@
         <v>6.72</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -3500,37 +3497,28 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65">
-        <v>73.86999999999999</v>
+        <v>51.3</v>
       </c>
       <c r="G65">
-        <v>17.65</v>
+        <v>12.63</v>
       </c>
       <c r="H65">
-        <v>7.32</v>
+        <v>12.63</v>
       </c>
       <c r="I65">
-        <v>7.08</v>
+        <v>6.53</v>
       </c>
       <c r="J65">
-        <v>13.69</v>
+        <v>9.41</v>
       </c>
       <c r="K65">
-        <v>12.61</v>
-      </c>
-      <c r="L65">
-        <v>8.35</v>
-      </c>
-      <c r="M65">
-        <v>3.95</v>
-      </c>
-      <c r="N65">
-        <v>3.22</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3550,7 +3538,7 @@
         <v>2</v>
       </c>
       <c r="F66">
-        <v>85.07000000000001</v>
+        <v>85.07</v>
       </c>
       <c r="G66">
         <v>17.06</v>
@@ -3571,7 +3559,7 @@
         <v>9.73</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -3582,28 +3570,37 @@
         <v>7</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>51.300000000000004</v>
+        <v>73.87</v>
       </c>
       <c r="G67">
-        <v>12.63</v>
+        <v>17.65</v>
       </c>
       <c r="H67">
-        <v>12.63</v>
+        <v>7.32</v>
       </c>
       <c r="I67">
-        <v>6.53</v>
+        <v>7.08</v>
       </c>
       <c r="J67">
-        <v>9.41</v>
+        <v>13.69</v>
       </c>
       <c r="K67">
-        <v>10.1</v>
+        <v>12.61</v>
+      </c>
+      <c r="L67">
+        <v>8.35</v>
+      </c>
+      <c r="M67">
+        <v>3.95</v>
+      </c>
+      <c r="N67">
+        <v>3.22</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3720,7 +3717,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -3734,28 +3731,34 @@
         <v>2</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71">
-        <v>61.49</v>
+        <v>57.85</v>
       </c>
       <c r="G71">
-        <v>19.53</v>
+        <v>22.33</v>
       </c>
       <c r="H71">
-        <v>19.53</v>
+        <v>6.7</v>
       </c>
       <c r="I71">
-        <v>6.05</v>
+        <v>8.24</v>
       </c>
       <c r="J71">
-        <v>10.28</v>
+        <v>11.37</v>
       </c>
       <c r="K71">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9.21</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -3769,31 +3772,25 @@
         <v>2</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>57.849999999999994</v>
+        <v>61.49</v>
       </c>
       <c r="G72">
-        <v>22.33</v>
+        <v>19.53</v>
       </c>
       <c r="H72">
-        <v>6.7</v>
+        <v>19.53</v>
       </c>
       <c r="I72">
-        <v>8.24</v>
+        <v>6.05</v>
       </c>
       <c r="J72">
-        <v>11.37</v>
+        <v>10.28</v>
       </c>
       <c r="K72">
-        <v>9.21</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -3866,7 +3863,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -3877,37 +3874,28 @@
         <v>7</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>85.79999999999998</v>
+        <v>53.78</v>
       </c>
       <c r="G75">
-        <v>26.24</v>
+        <v>18.13</v>
       </c>
       <c r="H75">
-        <v>11.69</v>
+        <v>18.13</v>
       </c>
       <c r="I75">
-        <v>11.34</v>
+        <v>10.92</v>
       </c>
       <c r="J75">
-        <v>16.09</v>
-      </c>
-      <c r="K75">
-        <v>8.49</v>
-      </c>
-      <c r="L75">
-        <v>10.07</v>
-      </c>
-      <c r="M75">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -3918,25 +3906,34 @@
         <v>7</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76">
-        <v>53.78</v>
+        <v>85.8</v>
       </c>
       <c r="G76">
-        <v>18.13</v>
+        <v>26.24</v>
       </c>
       <c r="H76">
-        <v>18.13</v>
+        <v>11.69</v>
       </c>
       <c r="I76">
-        <v>10.92</v>
+        <v>11.34</v>
       </c>
       <c r="J76">
-        <v>6.6</v>
+        <v>16.09</v>
+      </c>
+      <c r="K76">
+        <v>8.49</v>
+      </c>
+      <c r="L76">
+        <v>10.07</v>
+      </c>
+      <c r="M76">
+        <v>1.88</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3956,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <v>68.49000000000001</v>
+        <v>68.49</v>
       </c>
       <c r="G77">
         <v>18.53</v>
@@ -4012,7 +4009,7 @@
         <v>6.03</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -4023,37 +4020,31 @@
         <v>7</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>97.53000000000002</v>
+        <v>71.55</v>
       </c>
       <c r="G80">
-        <v>22.81</v>
+        <v>13.94</v>
       </c>
       <c r="H80">
-        <v>22.81</v>
+        <v>13.94</v>
       </c>
       <c r="I80">
-        <v>9.02</v>
+        <v>14.51</v>
       </c>
       <c r="J80">
-        <v>7.39</v>
+        <v>11.44</v>
       </c>
       <c r="K80">
-        <v>8.95</v>
+        <v>11.68</v>
       </c>
       <c r="L80">
-        <v>15.23</v>
-      </c>
-      <c r="M80">
-        <v>7.39</v>
-      </c>
-      <c r="N80">
-        <v>3.93</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4073,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="F81">
-        <v>38.809999999999995</v>
+        <v>38.81</v>
       </c>
       <c r="G81">
         <v>11.02</v>
@@ -4146,7 +4137,7 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <v>57.940000000000005</v>
+        <v>57.94</v>
       </c>
       <c r="G83">
         <v>13.64</v>
@@ -4167,7 +4158,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -4178,31 +4169,37 @@
         <v>7</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84">
-        <v>71.55</v>
+        <v>97.53</v>
       </c>
       <c r="G84">
-        <v>13.94</v>
+        <v>22.81</v>
       </c>
       <c r="H84">
-        <v>13.94</v>
+        <v>22.81</v>
       </c>
       <c r="I84">
-        <v>14.51</v>
+        <v>9.02</v>
       </c>
       <c r="J84">
-        <v>11.44</v>
+        <v>7.39</v>
       </c>
       <c r="K84">
-        <v>11.68</v>
+        <v>8.95</v>
       </c>
       <c r="L84">
-        <v>6.04</v>
+        <v>15.23</v>
+      </c>
+      <c r="M84">
+        <v>7.39</v>
+      </c>
+      <c r="N84">
+        <v>3.93</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4240,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -4251,37 +4248,34 @@
         <v>7</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E86">
         <v>2</v>
       </c>
       <c r="F86">
-        <v>622</v>
+        <v>77.84</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>20.77</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>20.77</v>
       </c>
       <c r="I86">
-        <v>56</v>
+        <v>5.98</v>
       </c>
       <c r="J86">
-        <v>140</v>
+        <v>5.98</v>
       </c>
       <c r="K86">
-        <v>66</v>
+        <v>14.42</v>
       </c>
       <c r="L86">
-        <v>180</v>
-      </c>
-      <c r="M86">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -4292,28 +4286,34 @@
         <v>7</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E87">
         <v>2</v>
       </c>
       <c r="F87">
-        <v>59.099999999999994</v>
+        <v>87</v>
       </c>
       <c r="G87">
-        <v>17.45</v>
+        <v>26.01</v>
       </c>
       <c r="H87">
-        <v>17.45</v>
+        <v>11.09</v>
       </c>
       <c r="I87">
-        <v>6.4</v>
+        <v>11.88</v>
       </c>
       <c r="J87">
-        <v>12.8</v>
+        <v>15.62</v>
       </c>
       <c r="K87">
-        <v>5</v>
+        <v>10.17</v>
+      </c>
+      <c r="L87">
+        <v>8.5</v>
+      </c>
+      <c r="M87">
+        <v>3.73</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -4333,7 +4333,7 @@
         <v>2</v>
       </c>
       <c r="F88">
-        <v>87.73000000000002</v>
+        <v>87.73</v>
       </c>
       <c r="G88">
         <v>25.35</v>
@@ -4365,37 +4365,37 @@
         <v>7</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E89">
         <v>2</v>
       </c>
       <c r="F89">
-        <v>87.00000000000001</v>
+        <v>57.78</v>
       </c>
       <c r="G89">
-        <v>26.01</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>11.09</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>11.88</v>
+        <v>5.2</v>
       </c>
       <c r="J89">
-        <v>15.62</v>
+        <v>13.01</v>
       </c>
       <c r="K89">
-        <v>10.17</v>
+        <v>6.13</v>
       </c>
       <c r="L89">
-        <v>8.5</v>
+        <v>16.72</v>
       </c>
       <c r="M89">
-        <v>3.73</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+        <v>16.72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -4412,25 +4412,22 @@
         <v>2</v>
       </c>
       <c r="F90">
-        <v>58.14</v>
+        <v>59.1</v>
       </c>
       <c r="G90">
-        <v>3.16</v>
+        <v>17.45</v>
       </c>
       <c r="H90">
-        <v>5.47</v>
+        <v>17.45</v>
       </c>
       <c r="I90">
-        <v>19.84</v>
+        <v>6.4</v>
       </c>
       <c r="J90">
-        <v>7.18</v>
+        <v>12.8</v>
       </c>
       <c r="K90">
-        <v>14.44</v>
-      </c>
-      <c r="L90">
-        <v>8.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -4444,31 +4441,31 @@
         <v>7</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E91">
         <v>2</v>
       </c>
       <c r="F91">
-        <v>77.84</v>
+        <v>58.14</v>
       </c>
       <c r="G91">
-        <v>20.77</v>
+        <v>3.16</v>
       </c>
       <c r="H91">
-        <v>20.77</v>
+        <v>5.47</v>
       </c>
       <c r="I91">
-        <v>5.98</v>
+        <v>19.84</v>
       </c>
       <c r="J91">
-        <v>5.98</v>
+        <v>7.18</v>
       </c>
       <c r="K91">
-        <v>14.42</v>
+        <v>14.44</v>
       </c>
       <c r="L91">
-        <v>9.92</v>
+        <v>8.05</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4488,7 +4485,7 @@
         <v>2</v>
       </c>
       <c r="F94">
-        <v>41.629999999999995</v>
+        <v>41.63</v>
       </c>
       <c r="G94">
         <v>5.49</v>
@@ -4523,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="F95">
-        <v>46.730000000000004</v>
+        <v>46.73</v>
       </c>
       <c r="G95">
         <v>4.74</v>
@@ -4579,7 +4576,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -4590,43 +4587,37 @@
         <v>7</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F97">
-        <v>109.96</v>
+        <v>60.45</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>12.72</v>
       </c>
       <c r="H97">
-        <v>32.32</v>
+        <v>8.51</v>
       </c>
       <c r="I97">
-        <v>32.32</v>
+        <v>6.81</v>
       </c>
       <c r="J97">
-        <v>8.15</v>
+        <v>2.71</v>
       </c>
       <c r="K97">
-        <v>6.18</v>
+        <v>8.69</v>
       </c>
       <c r="L97">
-        <v>13.29</v>
+        <v>1.25</v>
       </c>
       <c r="M97">
-        <v>9.97</v>
-      </c>
-      <c r="N97">
-        <v>4.11</v>
-      </c>
-      <c r="O97">
-        <v>3.62</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19.76</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -4643,31 +4634,25 @@
         <v>2</v>
       </c>
       <c r="F98">
-        <v>60.45</v>
+        <v>53.21</v>
       </c>
       <c r="G98">
-        <v>12.72</v>
+        <v>15.6</v>
       </c>
       <c r="H98">
-        <v>8.51</v>
+        <v>8.29</v>
       </c>
       <c r="I98">
-        <v>6.81</v>
+        <v>7.99</v>
       </c>
       <c r="J98">
-        <v>2.71</v>
+        <v>11.06</v>
       </c>
       <c r="K98">
-        <v>8.69</v>
-      </c>
-      <c r="L98">
-        <v>1.25</v>
-      </c>
-      <c r="M98">
-        <v>19.76</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -4678,28 +4663,40 @@
         <v>7</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>53.21000000000001</v>
+        <v>109.96</v>
       </c>
       <c r="G99">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>8.29</v>
+        <v>32.32</v>
       </c>
       <c r="I99">
-        <v>7.99</v>
+        <v>32.32</v>
       </c>
       <c r="J99">
-        <v>11.06</v>
+        <v>8.15</v>
       </c>
       <c r="K99">
-        <v>10.27</v>
+        <v>6.18</v>
+      </c>
+      <c r="L99">
+        <v>13.29</v>
+      </c>
+      <c r="M99">
+        <v>9.97</v>
+      </c>
+      <c r="N99">
+        <v>4.11</v>
+      </c>
+      <c r="O99">
+        <v>3.62</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -4737,7 +4734,7 @@
         <v>4.54</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -4748,25 +4745,28 @@
         <v>7</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F101">
-        <v>54.54</v>
+        <v>65.17</v>
       </c>
       <c r="G101">
-        <v>5.9</v>
+        <v>19.4</v>
       </c>
       <c r="H101">
-        <v>19.46</v>
+        <v>19.4</v>
       </c>
       <c r="I101">
-        <v>19.46</v>
+        <v>8.2</v>
       </c>
       <c r="J101">
-        <v>9.72</v>
+        <v>11.07</v>
+      </c>
+      <c r="K101">
+        <v>7.1</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -4780,31 +4780,31 @@
         <v>7</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E102">
         <v>2</v>
       </c>
       <c r="F102">
-        <v>65.17</v>
+        <v>60.15</v>
       </c>
       <c r="G102">
-        <v>19.4</v>
+        <v>20.79</v>
       </c>
       <c r="H102">
-        <v>19.4</v>
+        <v>8.24</v>
       </c>
       <c r="I102">
-        <v>8.2</v>
+        <v>7.93</v>
       </c>
       <c r="J102">
-        <v>11.07</v>
+        <v>14.4</v>
       </c>
       <c r="K102">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8.79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -4815,31 +4815,28 @@
         <v>7</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>60.15</v>
+        <v>54.54</v>
       </c>
       <c r="G103">
-        <v>20.79</v>
+        <v>5.9</v>
       </c>
       <c r="H103">
-        <v>8.24</v>
+        <v>19.46</v>
       </c>
       <c r="I103">
-        <v>7.93</v>
+        <v>19.46</v>
       </c>
       <c r="J103">
-        <v>14.4</v>
-      </c>
-      <c r="K103">
-        <v>8.79</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9.72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -4850,28 +4847,31 @@
         <v>7</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E104">
         <v>2</v>
       </c>
       <c r="F104">
-        <v>57.85000000000001</v>
+        <v>60.97</v>
       </c>
       <c r="G104">
-        <v>16.4</v>
+        <v>12.26</v>
       </c>
       <c r="H104">
-        <v>8.8</v>
+        <v>8.17</v>
       </c>
       <c r="I104">
-        <v>7.25</v>
+        <v>5.88</v>
       </c>
       <c r="J104">
-        <v>14.95</v>
+        <v>18.59</v>
       </c>
       <c r="K104">
-        <v>10.45</v>
+        <v>10.3</v>
+      </c>
+      <c r="L104">
+        <v>5.77</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4909,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -4920,31 +4920,28 @@
         <v>7</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E106">
         <v>2</v>
       </c>
       <c r="F106">
-        <v>60.97</v>
+        <v>57.85</v>
       </c>
       <c r="G106">
-        <v>12.26</v>
+        <v>16.4</v>
       </c>
       <c r="H106">
-        <v>8.17</v>
+        <v>8.8</v>
       </c>
       <c r="I106">
-        <v>5.88</v>
+        <v>7.25</v>
       </c>
       <c r="J106">
-        <v>18.59</v>
+        <v>14.95</v>
       </c>
       <c r="K106">
-        <v>10.3</v>
-      </c>
-      <c r="L106">
-        <v>5.77</v>
+        <v>10.45</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -4964,7 +4961,7 @@
         <v>2</v>
       </c>
       <c r="F107">
-        <v>48.269999999999996</v>
+        <v>48.27</v>
       </c>
       <c r="G107">
         <v>9.25</v>
@@ -5002,7 +4999,7 @@
         <v>2</v>
       </c>
       <c r="F108">
-        <v>97.32000000000001</v>
+        <v>97.32</v>
       </c>
       <c r="G108">
         <v>21.78</v>
@@ -5081,25 +5078,25 @@
         <v>2</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>61.75</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>17.08</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>8.16</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>8.2</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>10.22</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -5119,25 +5116,25 @@
         <v>2</v>
       </c>
       <c r="F111">
-        <v>61.75</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>17.08</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>8.16</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>8.2</v>
+        <v>0</v>
       </c>
       <c r="J111">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K111">
-        <v>10.22</v>
+        <v>0</v>
       </c>
       <c r="L111">
-        <v>4.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -5157,7 +5154,7 @@
         <v>2</v>
       </c>
       <c r="F112">
-        <v>92.99000000000001</v>
+        <v>92.99</v>
       </c>
       <c r="G112">
         <v>35.46</v>
@@ -5265,31 +5262,31 @@
         <v>7</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E115">
         <v>2</v>
       </c>
       <c r="F115">
-        <v>780</v>
+        <v>90.43</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>23.54</v>
       </c>
       <c r="H115">
-        <v>460</v>
+        <v>23.54</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>10.36</v>
       </c>
       <c r="J115">
-        <v>96</v>
+        <v>6.31</v>
       </c>
       <c r="K115">
-        <v>80</v>
+        <v>15.34</v>
       </c>
       <c r="L115">
-        <v>144</v>
+        <v>11.34</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -5309,22 +5306,22 @@
         <v>2</v>
       </c>
       <c r="F116">
-        <v>75.25</v>
+        <v>53.97</v>
       </c>
       <c r="G116">
-        <v>13.84</v>
+        <v>11.18</v>
       </c>
       <c r="H116">
-        <v>7.98</v>
+        <v>11.18</v>
       </c>
       <c r="I116">
-        <v>10.07</v>
+        <v>13.1</v>
       </c>
       <c r="J116">
-        <v>43.36</v>
+        <v>11.8</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -5344,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>59.419999999999995</v>
+        <v>59.42</v>
       </c>
       <c r="G117">
         <v>4.47</v>
@@ -5376,31 +5373,31 @@
         <v>7</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E118">
         <v>2</v>
       </c>
       <c r="F118">
-        <v>90.43</v>
+        <v>72.47</v>
       </c>
       <c r="G118">
-        <v>23.54</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>23.54</v>
+        <v>42.74</v>
       </c>
       <c r="I118">
-        <v>10.36</v>
+        <v>0</v>
       </c>
       <c r="J118">
-        <v>6.31</v>
+        <v>8.92</v>
       </c>
       <c r="K118">
-        <v>15.34</v>
+        <v>7.43</v>
       </c>
       <c r="L118">
-        <v>11.34</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -5420,25 +5417,25 @@
         <v>2</v>
       </c>
       <c r="F119">
-        <v>53.970000000000006</v>
+        <v>75.25</v>
       </c>
       <c r="G119">
-        <v>11.18</v>
+        <v>13.84</v>
       </c>
       <c r="H119">
-        <v>11.18</v>
+        <v>7.98</v>
       </c>
       <c r="I119">
-        <v>13.1</v>
+        <v>10.07</v>
       </c>
       <c r="J119">
-        <v>11.8</v>
+        <v>43.36</v>
       </c>
       <c r="K119">
-        <v>6.71</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -5455,28 +5452,31 @@
         <v>2</v>
       </c>
       <c r="F120">
-        <v>69.97</v>
+        <v>61.51</v>
       </c>
       <c r="G120">
-        <v>19.22</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>19.22</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>10.68</v>
+        <v>8.18</v>
       </c>
       <c r="J120">
-        <v>13.06</v>
+        <v>10.22</v>
       </c>
       <c r="K120">
-        <v>4.77</v>
+        <v>18.58</v>
       </c>
       <c r="L120">
-        <v>3.02</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18.58</v>
+      </c>
+      <c r="M120">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -5493,31 +5493,25 @@
         <v>2</v>
       </c>
       <c r="F121">
-        <v>662</v>
+        <v>63.45</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>5.95</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>18.97</v>
       </c>
       <c r="I121">
-        <v>88</v>
+        <v>18.97</v>
       </c>
       <c r="J121">
-        <v>110</v>
+        <v>11.07</v>
       </c>
       <c r="K121">
-        <v>200</v>
-      </c>
-      <c r="L121">
-        <v>200</v>
-      </c>
-      <c r="M121">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -5534,22 +5528,25 @@
         <v>2</v>
       </c>
       <c r="F122">
-        <v>63.45</v>
+        <v>69.97</v>
       </c>
       <c r="G122">
-        <v>5.95</v>
+        <v>19.22</v>
       </c>
       <c r="H122">
-        <v>18.97</v>
+        <v>19.22</v>
       </c>
       <c r="I122">
-        <v>18.97</v>
+        <v>10.68</v>
       </c>
       <c r="J122">
-        <v>11.07</v>
+        <v>13.06</v>
       </c>
       <c r="K122">
-        <v>8.49</v>
+        <v>4.77</v>
+      </c>
+      <c r="L122">
+        <v>3.02</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -5590,7 +5587,7 @@
         <v>11.14</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -5601,37 +5598,31 @@
         <v>7</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>73.49999999999999</v>
+        <v>607.85</v>
       </c>
       <c r="G124">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="H124">
-        <v>8.08</v>
+        <v>190</v>
       </c>
       <c r="I124">
-        <v>10.21</v>
+        <v>65.6</v>
       </c>
       <c r="J124">
-        <v>13.86</v>
+        <v>115</v>
       </c>
       <c r="K124">
-        <v>12.86</v>
-      </c>
-      <c r="L124">
-        <v>8.49</v>
-      </c>
-      <c r="M124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47.25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>127</v>
       </c>
@@ -5642,28 +5633,31 @@
         <v>7</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F125">
-        <v>607.85</v>
+        <v>66.01</v>
       </c>
       <c r="G125">
-        <v>190</v>
+        <v>17.17</v>
       </c>
       <c r="H125">
-        <v>190</v>
+        <v>17.17</v>
       </c>
       <c r="I125">
-        <v>65.6</v>
+        <v>6.34</v>
       </c>
       <c r="J125">
-        <v>115</v>
+        <v>11.13</v>
       </c>
       <c r="K125">
-        <v>47.25</v>
+        <v>10</v>
+      </c>
+      <c r="L125">
+        <v>4.2</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -5683,7 +5677,7 @@
         <v>2</v>
       </c>
       <c r="F126">
-        <v>76.16000000000001</v>
+        <v>76.16</v>
       </c>
       <c r="G126">
         <v>7.78</v>
@@ -5704,7 +5698,7 @@
         <v>7.51</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -5721,28 +5715,31 @@
         <v>2</v>
       </c>
       <c r="F127">
-        <v>66.01</v>
+        <v>73.5</v>
       </c>
       <c r="G127">
-        <v>17.17</v>
+        <v>20</v>
       </c>
       <c r="H127">
-        <v>17.17</v>
+        <v>8.08</v>
       </c>
       <c r="I127">
-        <v>6.34</v>
+        <v>10.21</v>
       </c>
       <c r="J127">
-        <v>11.13</v>
+        <v>13.86</v>
       </c>
       <c r="K127">
-        <v>10</v>
+        <v>12.86</v>
       </c>
       <c r="L127">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8.49</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -5759,25 +5756,22 @@
         <v>2</v>
       </c>
       <c r="F128">
-        <v>60.879999999999995</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>12.54</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="J128">
-        <v>7.49</v>
+        <v>0</v>
       </c>
       <c r="K128">
-        <v>8.13</v>
-      </c>
-      <c r="L128">
-        <v>21.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -5797,25 +5791,25 @@
         <v>2</v>
       </c>
       <c r="F129">
-        <v>55.410000000000004</v>
+        <v>897.8</v>
       </c>
       <c r="G129">
-        <v>14.19</v>
+        <v>237</v>
       </c>
       <c r="H129">
-        <v>9.83</v>
+        <v>237</v>
       </c>
       <c r="I129">
-        <v>9.07</v>
+        <v>237</v>
       </c>
       <c r="J129">
-        <v>13.2</v>
+        <v>110</v>
       </c>
       <c r="K129">
-        <v>9.12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -5832,22 +5826,25 @@
         <v>2</v>
       </c>
       <c r="F130">
-        <v>897.8</v>
+        <v>60.88</v>
       </c>
       <c r="G130">
-        <v>237</v>
+        <v>12.54</v>
       </c>
       <c r="H130">
-        <v>237</v>
+        <v>10.4</v>
       </c>
       <c r="I130">
-        <v>237</v>
+        <v>0.77</v>
       </c>
       <c r="J130">
-        <v>110</v>
+        <v>7.49</v>
       </c>
       <c r="K130">
-        <v>76.8</v>
+        <v>8.13</v>
+      </c>
+      <c r="L130">
+        <v>21.55</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -5867,25 +5864,25 @@
         <v>2</v>
       </c>
       <c r="F131">
-        <v>57.379999999999995</v>
+        <v>55.41</v>
       </c>
       <c r="G131">
-        <v>17.4</v>
+        <v>14.19</v>
       </c>
       <c r="H131">
-        <v>17.4</v>
+        <v>9.83</v>
       </c>
       <c r="I131">
-        <v>6.69</v>
+        <v>9.07</v>
       </c>
       <c r="J131">
-        <v>8.55</v>
+        <v>13.2</v>
       </c>
       <c r="K131">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9.12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>134</v>
       </c>
@@ -5896,31 +5893,34 @@
         <v>7</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E132">
         <v>2</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>52.94</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>13.28</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>7.67</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>5.02</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>13.57</v>
       </c>
       <c r="K132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6.71</v>
+      </c>
+      <c r="L132">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>135</v>
       </c>
@@ -5931,31 +5931,28 @@
         <v>7</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E133">
         <v>2</v>
       </c>
       <c r="F133">
-        <v>52.94</v>
+        <v>57.38</v>
       </c>
       <c r="G133">
-        <v>13.28</v>
+        <v>17.4</v>
       </c>
       <c r="H133">
-        <v>7.67</v>
+        <v>17.4</v>
       </c>
       <c r="I133">
-        <v>5.02</v>
+        <v>6.69</v>
       </c>
       <c r="J133">
-        <v>13.57</v>
+        <v>8.55</v>
       </c>
       <c r="K133">
-        <v>6.71</v>
-      </c>
-      <c r="L133">
-        <v>6.69</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
@@ -6057,7 +6054,7 @@
         <v>2</v>
       </c>
       <c r="F136">
-        <v>48.330000000000005</v>
+        <v>48.33</v>
       </c>
       <c r="G136">
         <v>17.17</v>
@@ -6098,25 +6095,25 @@
         <v>2</v>
       </c>
       <c r="F137">
-        <v>68.53999999999999</v>
+        <v>61.11</v>
       </c>
       <c r="G137">
-        <v>10.86</v>
+        <v>14.57</v>
       </c>
       <c r="H137">
-        <v>15.76</v>
+        <v>10.23</v>
       </c>
       <c r="I137">
-        <v>10.48</v>
+        <v>8.99</v>
       </c>
       <c r="J137">
-        <v>15.68</v>
+        <v>12.21</v>
       </c>
       <c r="K137">
-        <v>9.3</v>
+        <v>8.91</v>
       </c>
       <c r="L137">
-        <v>6.46</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -6127,37 +6124,37 @@
         <v>589000</v>
       </c>
       <c r="C138" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="D138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F138">
-        <v>55.39000000000001</v>
+        <v>61.11</v>
       </c>
       <c r="G138">
-        <v>11.62</v>
+        <v>14.57</v>
       </c>
       <c r="H138">
-        <v>8.09</v>
+        <v>10.23</v>
       </c>
       <c r="I138">
-        <v>13.27</v>
+        <v>8.99</v>
       </c>
       <c r="J138">
-        <v>10.22</v>
+        <v>12.21</v>
       </c>
       <c r="K138">
-        <v>6.7</v>
+        <v>8.91</v>
       </c>
       <c r="L138">
-        <v>5.49</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>142</v>
       </c>
@@ -6168,34 +6165,31 @@
         <v>7</v>
       </c>
       <c r="D139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E139">
         <v>2</v>
       </c>
       <c r="F139">
-        <v>80.70999999999998</v>
+        <v>87.44</v>
       </c>
       <c r="G139">
-        <v>17.65</v>
+        <v>17.09</v>
       </c>
       <c r="H139">
-        <v>11.22</v>
+        <v>22.98</v>
       </c>
       <c r="I139">
+        <v>22.98</v>
+      </c>
+      <c r="J139">
         <v>6.96</v>
       </c>
-      <c r="J139">
-        <v>15.41</v>
-      </c>
       <c r="K139">
-        <v>13.74</v>
+        <v>5.85</v>
       </c>
       <c r="L139">
-        <v>9.52</v>
-      </c>
-      <c r="M139">
-        <v>6.21</v>
+        <v>11.58</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -6206,37 +6200,37 @@
         <v>589000</v>
       </c>
       <c r="C140" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F140">
-        <v>87.43999999999998</v>
+        <v>55.39</v>
       </c>
       <c r="G140">
-        <v>17.09</v>
+        <v>11.62</v>
       </c>
       <c r="H140">
-        <v>22.98</v>
+        <v>8.09</v>
       </c>
       <c r="I140">
-        <v>22.98</v>
+        <v>13.27</v>
       </c>
       <c r="J140">
-        <v>6.96</v>
+        <v>10.22</v>
       </c>
       <c r="K140">
-        <v>5.85</v>
+        <v>6.7</v>
       </c>
       <c r="L140">
-        <v>11.58</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>144</v>
       </c>
@@ -6247,31 +6241,34 @@
         <v>7</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E141">
         <v>2</v>
       </c>
       <c r="F141">
-        <v>61.11</v>
+        <v>80.71</v>
       </c>
       <c r="G141">
-        <v>14.57</v>
+        <v>17.65</v>
       </c>
       <c r="H141">
-        <v>10.23</v>
+        <v>11.22</v>
       </c>
       <c r="I141">
-        <v>8.99</v>
+        <v>6.96</v>
       </c>
       <c r="J141">
-        <v>12.21</v>
+        <v>15.41</v>
       </c>
       <c r="K141">
-        <v>8.91</v>
+        <v>13.74</v>
       </c>
       <c r="L141">
-        <v>6.2</v>
+        <v>9.52</v>
+      </c>
+      <c r="M141">
+        <v>6.21</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -6291,25 +6288,25 @@
         <v>2</v>
       </c>
       <c r="F142">
-        <v>61.11</v>
+        <v>68.54</v>
       </c>
       <c r="G142">
-        <v>14.57</v>
+        <v>10.86</v>
       </c>
       <c r="H142">
-        <v>10.23</v>
+        <v>15.76</v>
       </c>
       <c r="I142">
-        <v>8.99</v>
+        <v>10.48</v>
       </c>
       <c r="J142">
-        <v>12.21</v>
+        <v>15.68</v>
       </c>
       <c r="K142">
-        <v>8.91</v>
+        <v>9.3</v>
       </c>
       <c r="L142">
-        <v>6.2</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -6396,34 +6393,34 @@
         <v>7</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E145">
         <v>2</v>
       </c>
       <c r="F145">
-        <v>37.21</v>
+        <v>37.12</v>
       </c>
       <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>2.79</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>13.46</v>
+      </c>
+      <c r="L145">
+        <v>5.03</v>
+      </c>
+      <c r="M145">
         <v>15.84</v>
-      </c>
-      <c r="H145">
-        <v>5.1</v>
-      </c>
-      <c r="I145">
-        <v>13.49</v>
-      </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
-      <c r="K145">
-        <v>0</v>
-      </c>
-      <c r="L145">
-        <v>2.78</v>
-      </c>
-      <c r="M145">
-        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6437,34 +6434,34 @@
         <v>7</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E146">
         <v>2</v>
       </c>
       <c r="F146">
-        <v>40496</v>
+        <v>37.21</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>15.84</v>
       </c>
       <c r="H146">
-        <v>3000</v>
+        <v>5.1</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>13.49</v>
       </c>
       <c r="J146">
         <v>0</v>
       </c>
       <c r="K146">
-        <v>14688</v>
+        <v>0</v>
       </c>
       <c r="L146">
-        <v>5544</v>
+        <v>2.78</v>
       </c>
       <c r="M146">
-        <v>17264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -6631,7 +6628,7 @@
         <v>7.09</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>154</v>
       </c>
@@ -6642,28 +6639,31 @@
         <v>7</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F151">
-        <v>137.61999999999998</v>
+        <v>67.25</v>
       </c>
       <c r="G151">
-        <v>46.48</v>
+        <v>13.94</v>
       </c>
       <c r="H151">
-        <v>46.48</v>
+        <v>10.22</v>
       </c>
       <c r="I151">
-        <v>9.3</v>
+        <v>10.22</v>
       </c>
       <c r="J151">
-        <v>21.19</v>
+        <v>13.04</v>
       </c>
       <c r="K151">
-        <v>14.17</v>
+        <v>8.19</v>
+      </c>
+      <c r="L151">
+        <v>11.64</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
@@ -6683,25 +6683,25 @@
         <v>2</v>
       </c>
       <c r="F152">
-        <v>93.80000000000001</v>
+        <v>77.09</v>
       </c>
       <c r="G152">
-        <v>28.86</v>
+        <v>23.67</v>
       </c>
       <c r="H152">
-        <v>28.86</v>
+        <v>16.24</v>
       </c>
       <c r="I152">
-        <v>6.3</v>
+        <v>11.04</v>
       </c>
       <c r="J152">
-        <v>15.12</v>
+        <v>12.64</v>
       </c>
       <c r="K152">
-        <v>9.09</v>
+        <v>11.2</v>
       </c>
       <c r="L152">
-        <v>5.57</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -6721,25 +6721,25 @@
         <v>2</v>
       </c>
       <c r="F153">
-        <v>77.08999999999999</v>
+        <v>61.11</v>
       </c>
       <c r="G153">
-        <v>23.67</v>
+        <v>14.57</v>
       </c>
       <c r="H153">
-        <v>16.24</v>
+        <v>10.23</v>
       </c>
       <c r="I153">
-        <v>11.04</v>
+        <v>8.99</v>
       </c>
       <c r="J153">
-        <v>12.64</v>
+        <v>12.21</v>
       </c>
       <c r="K153">
-        <v>11.2</v>
+        <v>8.91</v>
       </c>
       <c r="L153">
-        <v>2.3</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -6759,7 +6759,7 @@
         <v>2</v>
       </c>
       <c r="F154">
-        <v>70.00000000000001</v>
+        <v>70</v>
       </c>
       <c r="G154">
         <v>20.35</v>
@@ -6794,28 +6794,28 @@
         <v>2</v>
       </c>
       <c r="F155">
-        <v>61.11</v>
+        <v>93.8</v>
       </c>
       <c r="G155">
-        <v>14.57</v>
+        <v>28.86</v>
       </c>
       <c r="H155">
-        <v>10.23</v>
+        <v>28.86</v>
       </c>
       <c r="I155">
-        <v>8.99</v>
+        <v>6.3</v>
       </c>
       <c r="J155">
-        <v>12.21</v>
+        <v>15.12</v>
       </c>
       <c r="K155">
-        <v>8.91</v>
+        <v>9.09</v>
       </c>
       <c r="L155">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>159</v>
       </c>
@@ -6826,34 +6826,31 @@
         <v>7</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F156">
-        <v>67.25</v>
+        <v>137.62</v>
       </c>
       <c r="G156">
-        <v>13.94</v>
+        <v>46.48</v>
       </c>
       <c r="H156">
-        <v>10.22</v>
+        <v>46.48</v>
       </c>
       <c r="I156">
-        <v>10.22</v>
+        <v>9.3</v>
       </c>
       <c r="J156">
-        <v>13.04</v>
+        <v>21.19</v>
       </c>
       <c r="K156">
-        <v>8.19</v>
-      </c>
-      <c r="L156">
-        <v>11.64</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>160</v>
       </c>
@@ -6864,80 +6861,36 @@
         <v>7</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E157">
         <v>2</v>
       </c>
       <c r="F157">
-        <v>106.44</v>
+        <v>61.44</v>
       </c>
       <c r="G157">
-        <v>23.73</v>
+        <v>17.95</v>
       </c>
       <c r="H157">
-        <v>23.73</v>
+        <v>17.95</v>
       </c>
       <c r="I157">
-        <v>8.29</v>
+        <v>6</v>
       </c>
       <c r="J157">
-        <v>13.23</v>
+        <v>10.39</v>
       </c>
       <c r="K157">
-        <v>19.21</v>
+        <v>9.15</v>
       </c>
       <c r="L157">
-        <v>7.92</v>
-      </c>
-      <c r="M157">
-        <v>4.41</v>
-      </c>
-      <c r="N157">
-        <v>5.92</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>161</v>
-      </c>
-      <c r="B158">
-        <v>599900</v>
-      </c>
-      <c r="C158" t="s">
-        <v>7</v>
-      </c>
-      <c r="D158">
-        <v>2</v>
-      </c>
-      <c r="E158">
-        <v>2</v>
-      </c>
-      <c r="F158">
-        <v>61.44</v>
-      </c>
-      <c r="G158">
-        <v>17.95</v>
-      </c>
-      <c r="H158">
-        <v>17.95</v>
-      </c>
-      <c r="I158">
-        <v>6</v>
-      </c>
-      <c r="J158">
-        <v>10.39</v>
-      </c>
-      <c r="K158">
-        <v>9.15</v>
-      </c>
-      <c r="L158">
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B159">
         <v>599900</v>
@@ -6946,36 +6899,36 @@
         <v>7</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E159">
         <v>2</v>
       </c>
       <c r="F159">
-        <v>61.44</v>
+        <v>77.21</v>
       </c>
       <c r="G159">
-        <v>17.95</v>
+        <v>19.44</v>
       </c>
       <c r="H159">
-        <v>17.95</v>
+        <v>19.44</v>
       </c>
       <c r="I159">
-        <v>6</v>
+        <v>12.57</v>
       </c>
       <c r="J159">
-        <v>10.39</v>
+        <v>10.31</v>
       </c>
       <c r="K159">
-        <v>9.15</v>
+        <v>8.88</v>
       </c>
       <c r="L159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B160">
         <v>599900</v>
@@ -6984,33 +6937,36 @@
         <v>7</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E160">
         <v>2</v>
       </c>
       <c r="F160">
-        <v>70.00000000000001</v>
+        <v>74.26</v>
       </c>
       <c r="G160">
-        <v>20.35</v>
+        <v>22.04</v>
       </c>
       <c r="H160">
-        <v>20.35</v>
+        <v>10.14</v>
       </c>
       <c r="I160">
-        <v>6.23</v>
+        <v>8.94</v>
       </c>
       <c r="J160">
-        <v>13.95</v>
+        <v>17.08</v>
       </c>
       <c r="K160">
-        <v>9.12</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9.09</v>
+      </c>
+      <c r="L160">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B161">
         <v>599900</v>
@@ -7022,33 +6978,30 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F161">
-        <v>95.85</v>
+        <v>59.27</v>
       </c>
       <c r="G161">
-        <v>29.37</v>
+        <v>20.13</v>
       </c>
       <c r="H161">
-        <v>29.37</v>
+        <v>11.04</v>
       </c>
       <c r="I161">
-        <v>10.54</v>
+        <v>5.73</v>
       </c>
       <c r="J161">
-        <v>4.66</v>
+        <v>12.37</v>
       </c>
       <c r="K161">
-        <v>11.8</v>
-      </c>
-      <c r="L161">
-        <v>10.11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B162">
         <v>599900</v>
@@ -7057,36 +7010,36 @@
         <v>7</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E162">
         <v>2</v>
       </c>
       <c r="F162">
-        <v>77.21000000000001</v>
+        <v>61.44</v>
       </c>
       <c r="G162">
-        <v>19.44</v>
+        <v>17.95</v>
       </c>
       <c r="H162">
-        <v>19.44</v>
+        <v>17.95</v>
       </c>
       <c r="I162">
-        <v>12.57</v>
+        <v>6</v>
       </c>
       <c r="J162">
-        <v>10.31</v>
+        <v>10.39</v>
       </c>
       <c r="K162">
-        <v>8.88</v>
+        <v>9.15</v>
       </c>
       <c r="L162">
-        <v>6.57</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B163">
         <v>599900</v>
@@ -7095,36 +7048,33 @@
         <v>7</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E163">
         <v>2</v>
       </c>
       <c r="F163">
-        <v>74.25999999999999</v>
+        <v>70</v>
       </c>
       <c r="G163">
-        <v>22.04</v>
+        <v>20.35</v>
       </c>
       <c r="H163">
-        <v>10.14</v>
+        <v>20.35</v>
       </c>
       <c r="I163">
-        <v>8.94</v>
+        <v>6.23</v>
       </c>
       <c r="J163">
-        <v>17.08</v>
+        <v>13.95</v>
       </c>
       <c r="K163">
-        <v>9.09</v>
-      </c>
-      <c r="L163">
-        <v>6.97</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9.12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B164">
         <v>599900</v>
@@ -7133,28 +7083,75 @@
         <v>7</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E164">
         <v>2</v>
       </c>
       <c r="F164">
-        <v>59.269999999999996</v>
+        <v>70.79</v>
       </c>
       <c r="G164">
-        <v>20.13</v>
+        <v>20</v>
       </c>
       <c r="H164">
-        <v>11.04</v>
+        <v>20</v>
       </c>
       <c r="I164">
-        <v>5.73</v>
+        <v>5.9</v>
       </c>
       <c r="J164">
-        <v>12.37</v>
+        <v>10.5</v>
       </c>
       <c r="K164">
-        <v>10</v>
+        <v>8.22</v>
+      </c>
+      <c r="L164">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166">
+        <v>599900</v>
+      </c>
+      <c r="C166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
+      <c r="E166">
+        <v>2</v>
+      </c>
+      <c r="F166">
+        <v>106.44</v>
+      </c>
+      <c r="G166">
+        <v>23.73</v>
+      </c>
+      <c r="H166">
+        <v>23.73</v>
+      </c>
+      <c r="I166">
+        <v>8.29</v>
+      </c>
+      <c r="J166">
+        <v>13.23</v>
+      </c>
+      <c r="K166">
+        <v>19.21</v>
+      </c>
+      <c r="L166">
+        <v>7.92</v>
+      </c>
+      <c r="M166">
+        <v>4.41</v>
+      </c>
+      <c r="N166">
+        <v>5.92</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -7168,71 +7165,36 @@
         <v>7</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>70.79</v>
+        <v>95.85</v>
       </c>
       <c r="G167">
-        <v>20</v>
+        <v>29.37</v>
       </c>
       <c r="H167">
-        <v>20</v>
+        <v>29.37</v>
       </c>
       <c r="I167">
-        <v>5.9</v>
+        <v>10.54</v>
       </c>
       <c r="J167">
-        <v>10.5</v>
+        <v>4.66</v>
       </c>
       <c r="K167">
-        <v>8.22</v>
+        <v>11.8</v>
       </c>
       <c r="L167">
-        <v>6.17</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>169</v>
-      </c>
-      <c r="B168">
-        <v>599999</v>
-      </c>
-      <c r="C168" t="s">
-        <v>7</v>
-      </c>
-      <c r="D168">
-        <v>2</v>
-      </c>
-      <c r="E168">
-        <v>2</v>
-      </c>
-      <c r="F168">
-        <v>62.27</v>
-      </c>
-      <c r="G168">
-        <v>17.92</v>
-      </c>
-      <c r="H168">
-        <v>17.92</v>
-      </c>
-      <c r="I168">
-        <v>4.99</v>
-      </c>
-      <c r="J168">
-        <v>12.08</v>
-      </c>
-      <c r="K168">
-        <v>9.36</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>170</v>
       </c>
       <c r="B169">
         <v>599999</v>
@@ -7247,30 +7209,27 @@
         <v>2</v>
       </c>
       <c r="F169">
-        <v>NaN</v>
+        <v>62.27</v>
       </c>
       <c r="G169">
-        <v>NaN</v>
+        <v>17.92</v>
       </c>
       <c r="H169">
-        <v>NaN</v>
+        <v>17.92</v>
       </c>
       <c r="I169">
-        <v>10989</v>
+        <v>4.99</v>
       </c>
       <c r="J169">
-        <v>120</v>
+        <v>12.08</v>
       </c>
       <c r="K169">
-        <v>525</v>
-      </c>
-      <c r="L169">
-        <v>20048</v>
+        <v>9.36</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B170">
         <v>600000</v>
@@ -7305,7 +7264,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B171">
         <v>606000</v>
@@ -7343,7 +7302,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B172">
         <v>612000</v>
@@ -7358,7 +7317,7 @@
         <v>2</v>
       </c>
       <c r="F172">
-        <v>94.33999999999999</v>
+        <v>94.34</v>
       </c>
       <c r="G172">
         <v>25.74</v>
@@ -7381,7 +7340,7 @@
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B173">
         <v>615000</v>
@@ -7396,42 +7355,42 @@
         <v>2</v>
       </c>
       <c r="F173">
-        <v>9629907</v>
+        <v>150.66</v>
       </c>
       <c r="G173">
-        <v>236400</v>
+        <v>6.04</v>
       </c>
       <c r="H173">
-        <v>2302458</v>
+        <v>36.41</v>
       </c>
       <c r="I173">
-        <v>1029996</v>
+        <v>12.52</v>
       </c>
       <c r="J173">
-        <v>842886</v>
+        <v>21.3</v>
       </c>
       <c r="K173">
-        <v>573534</v>
+        <v>12.74</v>
       </c>
       <c r="L173">
         <v>0</v>
       </c>
       <c r="M173">
-        <v>2104326</v>
+        <v>27.41</v>
       </c>
       <c r="N173">
         <v>0</v>
       </c>
       <c r="O173">
-        <v>1467180</v>
+        <v>18.65</v>
       </c>
       <c r="P173">
-        <v>1073127</v>
+        <v>15.59</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B174">
         <v>615000</v>
@@ -7446,7 +7405,7 @@
         <v>2</v>
       </c>
       <c r="F174">
-        <v>88.06000000000002</v>
+        <v>88.06</v>
       </c>
       <c r="G174">
         <v>9.3</v>
@@ -7479,9 +7438,9 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B175">
         <v>619000</v>
@@ -7490,36 +7449,33 @@
         <v>7</v>
       </c>
       <c r="D175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E175">
         <v>2</v>
       </c>
       <c r="F175">
-        <v>73.28999999999999</v>
+        <v>61.3</v>
       </c>
       <c r="G175">
-        <v>19.9</v>
+        <v>16.56</v>
       </c>
       <c r="H175">
-        <v>19.9</v>
+        <v>16.56</v>
       </c>
       <c r="I175">
-        <v>6.66</v>
+        <v>8.06</v>
       </c>
       <c r="J175">
-        <v>11.65</v>
+        <v>11.03</v>
       </c>
       <c r="K175">
-        <v>8.77</v>
-      </c>
-      <c r="L175">
-        <v>6.41</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B176">
         <v>619000</v>
@@ -7528,33 +7484,36 @@
         <v>7</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E176">
         <v>2</v>
       </c>
       <c r="F176">
-        <v>61.3</v>
+        <v>73.29</v>
       </c>
       <c r="G176">
-        <v>16.56</v>
+        <v>19.9</v>
       </c>
       <c r="H176">
-        <v>16.56</v>
+        <v>19.9</v>
       </c>
       <c r="I176">
-        <v>8.06</v>
+        <v>6.66</v>
       </c>
       <c r="J176">
-        <v>11.03</v>
+        <v>11.65</v>
       </c>
       <c r="K176">
-        <v>9.09</v>
+        <v>8.77</v>
+      </c>
+      <c r="L176">
+        <v>6.41</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B177">
         <v>619900</v>
@@ -7569,7 +7528,7 @@
         <v>2</v>
       </c>
       <c r="F177">
-        <v>76.50999999999999</v>
+        <v>76.51</v>
       </c>
       <c r="G177">
         <v>19.25</v>
@@ -7592,7 +7551,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B178">
         <v>619900</v>
@@ -7630,7 +7589,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B179">
         <v>619900</v>
@@ -7666,9 +7625,9 @@
         <v>4.09</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B180">
         <v>620000</v>
@@ -7677,33 +7636,36 @@
         <v>7</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E180">
         <v>2</v>
       </c>
       <c r="F180">
-        <v>74.09</v>
+        <v>154.71</v>
       </c>
       <c r="G180">
-        <v>22.69</v>
+        <v>21.42</v>
       </c>
       <c r="H180">
-        <v>22.69</v>
+        <v>21.42</v>
       </c>
       <c r="I180">
-        <v>6.99</v>
+        <v>5.69</v>
       </c>
       <c r="J180">
-        <v>13.36</v>
+        <v>16.32</v>
       </c>
       <c r="K180">
-        <v>8.36</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="L180">
+        <v>12.86</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B181">
         <v>620000</v>
@@ -7712,36 +7674,33 @@
         <v>7</v>
       </c>
       <c r="D181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E181">
         <v>2</v>
       </c>
       <c r="F181">
-        <v>154.70999999999998</v>
+        <v>74.09</v>
       </c>
       <c r="G181">
-        <v>21.42</v>
+        <v>22.69</v>
       </c>
       <c r="H181">
-        <v>21.42</v>
+        <v>22.69</v>
       </c>
       <c r="I181">
-        <v>5.69</v>
+        <v>6.99</v>
       </c>
       <c r="J181">
-        <v>16.32</v>
+        <v>13.36</v>
       </c>
       <c r="K181">
-        <v>77</v>
-      </c>
-      <c r="L181">
-        <v>12.86</v>
+        <v>8.36</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B182">
         <v>625000</v>
@@ -7779,7 +7738,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B183">
         <v>629000</v>
@@ -7814,7 +7773,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B184">
         <v>629900</v>
@@ -7849,7 +7808,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B185">
         <v>629999</v>
@@ -7884,7 +7843,7 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B186">
         <v>632000</v>
@@ -7899,33 +7858,33 @@
         <v>2</v>
       </c>
       <c r="F186">
-        <v>4956300</v>
+        <v>73.9</v>
       </c>
       <c r="G186">
         <v>0</v>
       </c>
       <c r="H186">
-        <v>882000</v>
+        <v>13.1</v>
       </c>
       <c r="I186">
         <v>0</v>
       </c>
       <c r="J186">
-        <v>1001000</v>
+        <v>10.05</v>
       </c>
       <c r="K186">
-        <v>1150000</v>
+        <v>14.09</v>
       </c>
       <c r="L186">
-        <v>1507200</v>
+        <v>27.1</v>
       </c>
       <c r="M186">
-        <v>416100</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B187">
         <v>639000</v>
@@ -7940,7 +7899,7 @@
         <v>2</v>
       </c>
       <c r="F187">
-        <v>88.05000000000001</v>
+        <v>88.05</v>
       </c>
       <c r="G187">
         <v>23.1</v>
@@ -7966,7 +7925,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B188">
         <v>639000</v>
@@ -8004,7 +7963,7 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B189">
         <v>639999</v>
@@ -8019,7 +7978,7 @@
         <v>2</v>
       </c>
       <c r="F189">
-        <v>5491800</v>
+        <v>68.52</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -8028,24 +7987,24 @@
         <v>0</v>
       </c>
       <c r="I189">
-        <v>456000</v>
+        <v>6.69</v>
       </c>
       <c r="J189">
-        <v>960000</v>
+        <v>8.92</v>
       </c>
       <c r="K189">
-        <v>1875800</v>
+        <v>26.34</v>
       </c>
       <c r="L189">
-        <v>990000</v>
+        <v>15.33</v>
       </c>
       <c r="M189">
-        <v>1210000</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B190">
         <v>645000</v>
@@ -8060,30 +8019,33 @@
         <v>2</v>
       </c>
       <c r="F190">
-        <v>67.17999999999999</v>
+        <v>0</v>
       </c>
       <c r="G190">
-        <v>19.38</v>
+        <v>0</v>
       </c>
       <c r="H190">
-        <v>19.38</v>
+        <v>0</v>
       </c>
       <c r="I190">
-        <v>6.86</v>
+        <v>0</v>
       </c>
       <c r="J190">
-        <v>9.24</v>
+        <v>0</v>
       </c>
       <c r="K190">
-        <v>8.33</v>
+        <v>0</v>
       </c>
       <c r="L190">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B191">
         <v>645000</v>
@@ -8098,33 +8060,30 @@
         <v>2</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>67.18</v>
       </c>
       <c r="G191">
-        <v>0</v>
+        <v>19.38</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>19.38</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>6.86</v>
       </c>
       <c r="J191">
-        <v>0</v>
+        <v>9.24</v>
       </c>
       <c r="K191">
-        <v>0</v>
+        <v>8.33</v>
       </c>
       <c r="L191">
-        <v>0</v>
-      </c>
-      <c r="M191">
-        <v>0</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B192">
         <v>649000</v>
@@ -8160,9 +8119,9 @@
         <v>6.47</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B193">
         <v>649900</v>
@@ -8177,27 +8136,30 @@
         <v>2</v>
       </c>
       <c r="F193">
-        <v>54.33999999999999</v>
+        <v>67.78</v>
       </c>
       <c r="G193">
-        <v>18.79</v>
+        <v>19.22</v>
       </c>
       <c r="H193">
-        <v>6.02</v>
+        <v>19.22</v>
       </c>
       <c r="I193">
-        <v>12.93</v>
+        <v>6.29</v>
       </c>
       <c r="J193">
-        <v>10.66</v>
+        <v>3.91</v>
       </c>
       <c r="K193">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11.39</v>
+      </c>
+      <c r="L193">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B194">
         <v>649900</v>
@@ -8212,30 +8174,27 @@
         <v>2</v>
       </c>
       <c r="F194">
-        <v>76.02000000000001</v>
+        <v>54.34</v>
       </c>
       <c r="G194">
-        <v>22.88</v>
+        <v>18.79</v>
       </c>
       <c r="H194">
-        <v>22.88</v>
+        <v>6.02</v>
       </c>
       <c r="I194">
-        <v>5.95</v>
+        <v>12.93</v>
       </c>
       <c r="J194">
-        <v>11.16</v>
+        <v>10.66</v>
       </c>
       <c r="K194">
-        <v>9.01</v>
-      </c>
-      <c r="L194">
-        <v>4.14</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B195">
         <v>649900</v>
@@ -8250,30 +8209,30 @@
         <v>2</v>
       </c>
       <c r="F195">
-        <v>67.78</v>
+        <v>76.02</v>
       </c>
       <c r="G195">
-        <v>19.22</v>
+        <v>22.88</v>
       </c>
       <c r="H195">
-        <v>19.22</v>
+        <v>22.88</v>
       </c>
       <c r="I195">
-        <v>6.29</v>
+        <v>5.95</v>
       </c>
       <c r="J195">
-        <v>3.91</v>
+        <v>11.16</v>
       </c>
       <c r="K195">
-        <v>11.39</v>
+        <v>9.01</v>
       </c>
       <c r="L195">
-        <v>7.75</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B196">
         <v>649999</v>
@@ -8306,9 +8265,9 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B197">
         <v>650000</v>
@@ -8323,27 +8282,33 @@
         <v>2</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>71.98</v>
       </c>
       <c r="G197">
-        <v>0</v>
+        <v>12.97</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>10.23</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>6.77</v>
       </c>
       <c r="J197">
-        <v>0</v>
+        <v>14.02</v>
       </c>
       <c r="K197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+        <v>10.22</v>
+      </c>
+      <c r="L197">
+        <v>6.8</v>
+      </c>
+      <c r="M197">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B198">
         <v>650000</v>
@@ -8358,33 +8323,27 @@
         <v>2</v>
       </c>
       <c r="F198">
-        <v>71.98</v>
+        <v>0</v>
       </c>
       <c r="G198">
-        <v>12.97</v>
+        <v>0</v>
       </c>
       <c r="H198">
-        <v>10.23</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>6.77</v>
+        <v>0</v>
       </c>
       <c r="J198">
-        <v>14.02</v>
+        <v>0</v>
       </c>
       <c r="K198">
-        <v>10.22</v>
-      </c>
-      <c r="L198">
-        <v>6.8</v>
-      </c>
-      <c r="M198">
-        <v>10.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B199">
         <v>670000</v>
@@ -8422,7 +8381,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B200">
         <v>673900</v>
@@ -8460,7 +8419,7 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B201">
         <v>674900</v>
@@ -8475,7 +8434,7 @@
         <v>4</v>
       </c>
       <c r="F201">
-        <v>123.63000000000001</v>
+        <v>123.63</v>
       </c>
       <c r="G201">
         <v>20.94</v>
@@ -8504,7 +8463,7 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B202">
         <v>679000</v>
@@ -8545,7 +8504,7 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B203">
         <v>685000</v>
@@ -8586,7 +8545,7 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B204">
         <v>689000</v>
@@ -8627,7 +8586,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B205">
         <v>689900</v>
@@ -8665,7 +8624,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B206">
         <v>695000</v>
@@ -8701,9 +8660,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B207">
         <v>699000</v>
@@ -8718,33 +8677,36 @@
         <v>2</v>
       </c>
       <c r="F207">
-        <v>82.30000000000001</v>
+        <v>87.15</v>
       </c>
       <c r="G207">
-        <v>20.64</v>
+        <v>18.65</v>
       </c>
       <c r="H207">
-        <v>11.92</v>
+        <v>12.14</v>
       </c>
       <c r="I207">
-        <v>7.25</v>
+        <v>10.52</v>
       </c>
       <c r="J207">
-        <v>9.35</v>
+        <v>10.52</v>
       </c>
       <c r="K207">
-        <v>7.25</v>
+        <v>15.44</v>
       </c>
       <c r="L207">
-        <v>15.97</v>
+        <v>10.39</v>
       </c>
       <c r="M207">
-        <v>9.92</v>
-      </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9.49</v>
+      </c>
+      <c r="N207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B208">
         <v>699000</v>
@@ -8759,36 +8721,30 @@
         <v>2</v>
       </c>
       <c r="F208">
-        <v>87.14999999999999</v>
+        <v>75.98</v>
       </c>
       <c r="G208">
-        <v>18.65</v>
+        <v>18.13</v>
       </c>
       <c r="H208">
-        <v>12.14</v>
+        <v>12.75</v>
       </c>
       <c r="I208">
-        <v>10.52</v>
+        <v>11.5</v>
       </c>
       <c r="J208">
-        <v>10.52</v>
+        <v>13.86</v>
       </c>
       <c r="K208">
-        <v>15.44</v>
+        <v>10.32</v>
       </c>
       <c r="L208">
-        <v>10.39</v>
-      </c>
-      <c r="M208">
-        <v>9.49</v>
-      </c>
-      <c r="N208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B209">
         <v>699000</v>
@@ -8803,30 +8759,33 @@
         <v>2</v>
       </c>
       <c r="F209">
-        <v>75.98</v>
+        <v>82.3</v>
       </c>
       <c r="G209">
-        <v>18.13</v>
+        <v>20.64</v>
       </c>
       <c r="H209">
-        <v>12.75</v>
+        <v>11.92</v>
       </c>
       <c r="I209">
-        <v>11.5</v>
+        <v>7.25</v>
       </c>
       <c r="J209">
-        <v>13.86</v>
+        <v>9.35</v>
       </c>
       <c r="K209">
-        <v>10.32</v>
+        <v>7.25</v>
       </c>
       <c r="L209">
-        <v>9.42</v>
-      </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+        <v>15.97</v>
+      </c>
+      <c r="M209">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B210">
         <v>699900</v>
@@ -8835,124 +8794,124 @@
         <v>7</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E210">
         <v>2</v>
       </c>
       <c r="F210">
-        <v>55.15</v>
+        <v>94.01</v>
       </c>
       <c r="G210">
-        <v>10.16</v>
+        <v>8.98</v>
       </c>
       <c r="H210">
-        <v>8.29</v>
+        <v>16.03</v>
       </c>
       <c r="I210">
-        <v>8.09</v>
+        <v>28.52</v>
       </c>
       <c r="J210">
-        <v>11.67</v>
+        <v>14.62</v>
       </c>
       <c r="K210">
-        <v>9.33</v>
+        <v>10.33</v>
       </c>
       <c r="L210">
-        <v>3.39</v>
+        <v>9.16</v>
       </c>
       <c r="M210">
-        <v>3.39</v>
-      </c>
-      <c r="N210">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B211">
         <v>699900</v>
       </c>
       <c r="C211" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="D211">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E211">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F211">
-        <v>95.53999999999999</v>
+        <v>55.15</v>
       </c>
       <c r="G211">
-        <v>19.36</v>
+        <v>10.16</v>
       </c>
       <c r="H211">
-        <v>10.53</v>
+        <v>8.29</v>
       </c>
       <c r="I211">
-        <v>7.75</v>
+        <v>8.09</v>
       </c>
       <c r="J211">
-        <v>24.7</v>
+        <v>11.67</v>
       </c>
       <c r="K211">
-        <v>13.5</v>
+        <v>9.33</v>
       </c>
       <c r="L211">
-        <v>8.99</v>
+        <v>3.39</v>
       </c>
       <c r="M211">
-        <v>10.71</v>
+        <v>3.39</v>
+      </c>
+      <c r="N211">
+        <v>0.83</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B212">
         <v>699900</v>
       </c>
       <c r="C212" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="D212">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E212">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F212">
-        <v>94.01</v>
+        <v>95.54</v>
       </c>
       <c r="G212">
-        <v>8.98</v>
+        <v>19.36</v>
       </c>
       <c r="H212">
-        <v>16.03</v>
+        <v>10.53</v>
       </c>
       <c r="I212">
-        <v>28.52</v>
+        <v>7.75</v>
       </c>
       <c r="J212">
-        <v>14.62</v>
+        <v>24.7</v>
       </c>
       <c r="K212">
-        <v>10.33</v>
+        <v>13.5</v>
       </c>
       <c r="L212">
-        <v>9.16</v>
+        <v>8.99</v>
       </c>
       <c r="M212">
-        <v>6.37</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B213">
         <v>710000</v>
@@ -8967,7 +8926,7 @@
         <v>2</v>
       </c>
       <c r="F213">
-        <v>66.02000000000001</v>
+        <v>66.02</v>
       </c>
       <c r="G213">
         <v>18.18</v>
@@ -8990,7 +8949,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B214">
         <v>739000</v>
@@ -9028,7 +8987,7 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B215">
         <v>775000</v>
@@ -9072,7 +9031,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B216">
         <v>789000</v>
@@ -9087,7 +9046,7 @@
         <v>2</v>
       </c>
       <c r="F216">
-        <v>81.69000000000001</v>
+        <v>81.69</v>
       </c>
       <c r="G216">
         <v>23.6</v>
@@ -9110,7 +9069,7 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B217">
         <v>796800</v>
@@ -9151,7 +9110,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B218">
         <v>799000</v>
@@ -9189,13 +9148,13 @@
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B219">
         <v>799900</v>
       </c>
       <c r="C219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D219">
         <v>3</v>
@@ -9236,7 +9195,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B220">
         <v>819900</v>
@@ -9274,7 +9233,7 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B221">
         <v>848000</v>
@@ -9289,7 +9248,7 @@
         <v>3</v>
       </c>
       <c r="F221">
-        <v>88.44000000000001</v>
+        <v>88.44</v>
       </c>
       <c r="G221">
         <v>10.05</v>
@@ -9315,7 +9274,7 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B222">
         <v>849999</v>
@@ -9330,7 +9289,7 @@
         <v>2</v>
       </c>
       <c r="F222">
-        <v>90.88000000000001</v>
+        <v>90.88</v>
       </c>
       <c r="G222">
         <v>26.7</v>
@@ -9356,7 +9315,7 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B223">
         <v>880000</v>
@@ -9371,7 +9330,7 @@
         <v>3</v>
       </c>
       <c r="F223">
-        <v>84.35000000000001</v>
+        <v>84.35</v>
       </c>
       <c r="G223">
         <v>9.28</v>
@@ -9397,7 +9356,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B224">
         <v>899900</v>
@@ -9435,13 +9394,13 @@
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B225">
         <v>899999</v>
       </c>
       <c r="C225" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D225">
         <v>6</v>
@@ -9491,13 +9450,13 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B226">
         <v>929000</v>
       </c>
       <c r="C226" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D226">
         <v>4</v>
@@ -9535,13 +9494,13 @@
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B227">
         <v>939000</v>
       </c>
       <c r="C227" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D227">
         <v>3</v>
@@ -9550,7 +9509,7 @@
         <v>3</v>
       </c>
       <c r="F227">
-        <v>131.67000000000002</v>
+        <v>131.67</v>
       </c>
       <c r="G227">
         <v>24.46</v>
@@ -9582,7 +9541,7 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B228">
         <v>948800</v>
@@ -9626,13 +9585,13 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B229">
         <v>999000</v>
       </c>
       <c r="C229" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D229">
         <v>4</v>
@@ -9641,7 +9600,7 @@
         <v>3</v>
       </c>
       <c r="F229">
-        <v>95.03999999999999</v>
+        <v>95.04</v>
       </c>
       <c r="G229">
         <v>12.18</v>
@@ -9670,13 +9629,13 @@
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B230">
         <v>1098000</v>
       </c>
       <c r="C230" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D230">
         <v>4</v>
@@ -9723,13 +9682,13 @@
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B231">
         <v>1099000</v>
       </c>
       <c r="C231" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D231">
         <v>6</v>
@@ -9738,7 +9697,7 @@
         <v>3</v>
       </c>
       <c r="F231">
-        <v>134.64999999999998</v>
+        <v>134.65</v>
       </c>
       <c r="G231">
         <v>15.69</v>
@@ -9779,13 +9738,13 @@
     </row>
     <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B232">
         <v>1199900</v>
       </c>
       <c r="C232" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D232">
         <v>4</v>
@@ -9794,19 +9753,19 @@
         <v>4</v>
       </c>
       <c r="F232">
-        <v>192062</v>
+        <v>175.97</v>
       </c>
       <c r="G232">
-        <v>10058</v>
+        <v>9.18</v>
       </c>
       <c r="H232">
-        <v>18688</v>
+        <v>17.06</v>
       </c>
       <c r="I232">
         <v>0</v>
       </c>
       <c r="J232">
-        <v>19608</v>
+        <v>17.97</v>
       </c>
       <c r="K232">
         <v>0</v>
@@ -9818,45 +9777,45 @@
         <v>0</v>
       </c>
       <c r="N232">
-        <v>16758</v>
+        <v>15.39</v>
       </c>
       <c r="O232">
-        <v>26691</v>
+        <v>24.56</v>
       </c>
       <c r="P232">
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>6695</v>
+        <v>6.11</v>
       </c>
       <c r="R232">
-        <v>18585</v>
+        <v>17.02</v>
       </c>
       <c r="S232">
-        <v>7140</v>
+        <v>6.52</v>
       </c>
       <c r="T232">
-        <v>11543</v>
+        <v>10.46</v>
       </c>
       <c r="U232">
-        <v>13392</v>
+        <v>12.22</v>
       </c>
       <c r="V232">
-        <v>19012</v>
+        <v>17.36</v>
       </c>
       <c r="W232">
-        <v>23892</v>
+        <v>22.12</v>
       </c>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B233">
         <v>1200000</v>
       </c>
       <c r="C233" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D233">
         <v>8</v>
@@ -9906,7 +9865,7 @@
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B234">
         <v>1329786</v>
@@ -9921,7 +9880,7 @@
         <v>4</v>
       </c>
       <c r="F234">
-        <v>226.57000000000005</v>
+        <v>226.57</v>
       </c>
       <c r="G234">
         <v>30.53</v>
@@ -9956,7 +9915,7 @@
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B235">
         <v>1349900</v>
@@ -9971,7 +9930,7 @@
         <v>4</v>
       </c>
       <c r="F235">
-        <v>180.85999999999999</v>
+        <v>180.86</v>
       </c>
       <c r="G235">
         <v>20.02</v>
@@ -10006,13 +9965,13 @@
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B236">
         <v>1399900</v>
       </c>
       <c r="C236" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D236">
         <v>6</v>
@@ -10059,13 +10018,13 @@
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B237">
         <v>1429900</v>
       </c>
       <c r="C237" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D237">
         <v>4</v>
@@ -10112,13 +10071,13 @@
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B238">
         <v>1499800</v>
       </c>
       <c r="C238" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D238">
         <v>7</v>
@@ -10165,7 +10124,7 @@
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B239">
         <v>1549990</v>
@@ -10180,7 +10139,7 @@
         <v>3</v>
       </c>
       <c r="F239">
-        <v>141110</v>
+        <v>129.72</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -10192,22 +10151,22 @@
         <v>0</v>
       </c>
       <c r="J239">
-        <v>30798</v>
+        <v>28.31</v>
       </c>
       <c r="K239">
-        <v>16638</v>
+        <v>15.26</v>
       </c>
       <c r="L239">
-        <v>22925</v>
+        <v>21.17</v>
       </c>
       <c r="M239">
         <v>0</v>
       </c>
       <c r="N239">
-        <v>25376</v>
+        <v>23.36</v>
       </c>
       <c r="O239">
-        <v>45373</v>
+        <v>41.62</v>
       </c>
       <c r="P239">
         <v>0</v>
@@ -10215,13 +10174,13 @@
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B240">
         <v>1598000</v>
       </c>
       <c r="C240" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D240">
         <v>6</v>
@@ -10230,7 +10189,7 @@
         <v>5</v>
       </c>
       <c r="F240">
-        <v>185.82000000000002</v>
+        <v>185.82</v>
       </c>
       <c r="G240">
         <v>27.07</v>
@@ -10271,13 +10230,13 @@
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B241">
         <v>1699999</v>
       </c>
       <c r="C241" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D241">
         <v>5</v>
@@ -10324,13 +10283,13 @@
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B242">
         <v>1785800</v>
       </c>
       <c r="C242" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D242">
         <v>4</v>
@@ -10377,13 +10336,13 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B243">
         <v>2099900</v>
       </c>
       <c r="C243" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D243">
         <v>2</v>
@@ -10412,7 +10371,7 @@
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B244">
         <v>2299900</v>
@@ -10453,13 +10412,13 @@
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B245">
         <v>2345000</v>
       </c>
       <c r="C245" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D245">
         <v>4</v>
@@ -10509,13 +10468,13 @@
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B246">
         <v>2988800</v>
       </c>
       <c r="C246" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D246">
         <v>5</v>
@@ -10565,13 +10524,13 @@
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B247">
         <v>3999999</v>
       </c>
       <c r="C247" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D247">
         <v>4</v>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2312A8-8147-4570-937A-6ED3DF714E44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="test" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="231">
   <si>
     <t>Address</t>
   </si>
@@ -182,9 +178,6 @@
     <t>#2113 -135 HILLCREST AVE|Mississauga, Ontario L5B4B1</t>
   </si>
   <si>
-    <t>#1306 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
-  </si>
-  <si>
     <t>#707 -365 PRINCE OF WALES DR|Mississauga, Ontario L5B0G6</t>
   </si>
   <si>
@@ -386,9 +379,6 @@
     <t>#308 -400 WEBB DR|Mississauga, Ontario L5B3Z7</t>
   </si>
   <si>
-    <t>#3703 -3975 GRAND PARK DR|Mississauga, Ontario L5B0K4</t>
-  </si>
-  <si>
     <t>#207 -330 BURNHAMTHORPE RD W|Mississauga, Ontario L5B0E1</t>
   </si>
   <si>
@@ -401,9 +391,6 @@
     <t>#1111 -223 WEBB DR|Mississauga, Ontario L5B0E8</t>
   </si>
   <si>
-    <t>#2316 -4055 PARKSIDE DR|Mississauga, Ontario L5B0K2</t>
-  </si>
-  <si>
     <t>#2501 -4080 LIVING ARTS DR|Mississauga, Ontario L5B4N3</t>
   </si>
   <si>
@@ -614,9 +601,6 @@
     <t>#5303 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
   </si>
   <si>
-    <t>#2015 -349 RATHBURN RD|Mississauga, Ontario L5B0C8</t>
-  </si>
-  <si>
     <t>#LPH2 -220 BURNHAMTHORPE RD W|Mississauga, Ontario L5B3Y5</t>
   </si>
   <si>
@@ -717,12 +701,6 @@
   </si>
   <si>
     <t>3078 PARKERHILL RD|Mississauga, Ontario L5B1V5</t>
-  </si>
-  <si>
-    <t>#PH5503 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
-  </si>
-  <si>
-    <t>3575 JOAN DR|Mississauga, Ontario L5B1T9</t>
   </si>
   <si>
     <t>3122 GIVEN RD|Mississauga, Ontario L5A2N3</t>
@@ -731,19 +709,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1107,29 +1083,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W229"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C223" sqref="C223"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="66.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="6" bestFit="1" customWidth="1"/>
-  </cols>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W223"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1181,13 +1139,13 @@
         <v>12.14</v>
       </c>
       <c r="K2">
-        <v>9.9700000000000006</v>
+        <v>9.97</v>
       </c>
       <c r="L2">
         <v>6.54</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1219,7 +1177,7 @@
         <v>16.66</v>
       </c>
       <c r="K3">
-        <v>8.9600000000000009</v>
+        <v>8.96</v>
       </c>
       <c r="L3">
         <v>6.6</v>
@@ -1228,7 +1186,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1245,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>39.630000000000003</v>
+        <v>39.63</v>
       </c>
       <c r="G4">
         <v>14.89</v>
@@ -1260,7 +1218,7 @@
         <v>9.85</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1289,13 +1247,13 @@
         <v>15.05</v>
       </c>
       <c r="J5">
-        <v>9.8800000000000008</v>
+        <v>9.88</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1333,7 +1291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1365,7 +1323,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1397,7 +1355,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1432,7 +1390,7 @@
         <v>10.73</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1458,7 +1416,7 @@
         <v>21.44</v>
       </c>
       <c r="I10">
-        <v>8.7799999999999994</v>
+        <v>8.78</v>
       </c>
       <c r="J10">
         <v>7.77</v>
@@ -1470,7 +1428,7 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1496,7 +1454,7 @@
         <v>21.78</v>
       </c>
       <c r="I11">
-        <v>9.5299999999999994</v>
+        <v>9.53</v>
       </c>
       <c r="J11">
         <v>14.67</v>
@@ -1508,7 +1466,7 @@
         <v>7.38</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1552,7 +1510,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1578,7 +1536,7 @@
         <v>6.24</v>
       </c>
       <c r="I13">
-        <v>8.7899999999999991</v>
+        <v>8.79</v>
       </c>
       <c r="J13">
         <v>12.19</v>
@@ -1596,7 +1554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1631,7 +1589,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1666,7 +1624,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1686,10 +1644,10 @@
         <v>57.37</v>
       </c>
       <c r="G16">
-        <v>18.059999999999999</v>
+        <v>18.06</v>
       </c>
       <c r="H16">
-        <v>18.059999999999999</v>
+        <v>18.06</v>
       </c>
       <c r="I16">
         <v>5.95</v>
@@ -1698,10 +1656,10 @@
         <v>11.16</v>
       </c>
       <c r="K16">
-        <v>4.1399999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1721,10 +1679,10 @@
         <v>67.48</v>
       </c>
       <c r="G17">
-        <v>18.670000000000002</v>
+        <v>18.67</v>
       </c>
       <c r="H17">
-        <v>18.670000000000002</v>
+        <v>18.67</v>
       </c>
       <c r="I17">
         <v>5.92</v>
@@ -1739,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1780,7 +1738,7 @@
         <v>7.79</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1800,13 +1758,13 @@
         <v>61.03</v>
       </c>
       <c r="G19">
-        <v>18.079999999999998</v>
+        <v>18.08</v>
       </c>
       <c r="H19">
-        <v>8.2100000000000009</v>
+        <v>8.21</v>
       </c>
       <c r="I19">
-        <v>8.7799999999999994</v>
+        <v>8.78</v>
       </c>
       <c r="J19">
         <v>15.37</v>
@@ -1815,7 +1773,7 @@
         <v>10.59</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1844,7 +1802,7 @@
         <v>10.88</v>
       </c>
       <c r="J20">
-        <v>17.760000000000002</v>
+        <v>17.76</v>
       </c>
       <c r="K20">
         <v>7.67</v>
@@ -1856,7 +1814,7 @@
         <v>7.09</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1903,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1923,22 +1881,22 @@
         <v>57.29</v>
       </c>
       <c r="G22">
-        <v>18.239999999999998</v>
+        <v>18.24</v>
       </c>
       <c r="H22">
-        <v>18.239999999999998</v>
+        <v>18.24</v>
       </c>
       <c r="I22">
         <v>5.9</v>
       </c>
       <c r="J22">
-        <v>10.029999999999999</v>
+        <v>10.03</v>
       </c>
       <c r="K22">
         <v>4.88</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1955,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>75.099999999999994</v>
+        <v>75.1</v>
       </c>
       <c r="G23">
         <v>19.38</v>
@@ -1973,10 +1931,10 @@
         <v>12.02</v>
       </c>
       <c r="L23">
-        <v>9.2100000000000009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1996,10 +1954,10 @@
         <v>56.76</v>
       </c>
       <c r="G24">
-        <v>16.510000000000002</v>
+        <v>16.51</v>
       </c>
       <c r="H24">
-        <v>16.510000000000002</v>
+        <v>16.51</v>
       </c>
       <c r="I24">
         <v>6.68</v>
@@ -2017,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -2040,7 +1998,7 @@
         <v>17.88</v>
       </c>
       <c r="H25">
-        <v>8.6999999999999993</v>
+        <v>8.7</v>
       </c>
       <c r="I25">
         <v>6.74</v>
@@ -2058,7 +2016,7 @@
         <v>5.01</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2096,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2113,7 +2071,7 @@
         <v>2</v>
       </c>
       <c r="F27">
-        <v>77.319999999999993</v>
+        <v>77.32</v>
       </c>
       <c r="G27">
         <v>10.92</v>
@@ -2131,7 +2089,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -2166,7 +2124,7 @@
         <v>11.13</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -2201,7 +2159,7 @@
         <v>6.66</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -2239,7 +2197,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -2274,7 +2232,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -2309,7 +2267,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -2353,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -2391,7 +2349,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -2411,7 +2369,7 @@
         <v>76.38</v>
       </c>
       <c r="G35">
-        <v>19.170000000000002</v>
+        <v>19.17</v>
       </c>
       <c r="H35">
         <v>9.23</v>
@@ -2426,7 +2384,7 @@
         <v>11.84</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -2461,7 +2419,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2496,7 +2454,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -2525,7 +2483,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -2545,19 +2503,19 @@
         <v>43.27</v>
       </c>
       <c r="G39">
-        <v>9.8800000000000008</v>
+        <v>9.88</v>
       </c>
       <c r="H39">
         <v>12.57</v>
       </c>
       <c r="I39">
-        <v>9.8800000000000008</v>
+        <v>9.88</v>
       </c>
       <c r="J39">
         <v>10.94</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -2583,7 +2541,7 @@
         <v>3.72</v>
       </c>
       <c r="I40">
-        <v>2.3199999999999998</v>
+        <v>2.32</v>
       </c>
       <c r="J40">
         <v>23.78</v>
@@ -2592,7 +2550,7 @@
         <v>11.15</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -2612,10 +2570,10 @@
         <v>72.25</v>
       </c>
       <c r="G41">
-        <v>19.059999999999999</v>
+        <v>19.06</v>
       </c>
       <c r="H41">
-        <v>19.059999999999999</v>
+        <v>19.06</v>
       </c>
       <c r="I41">
         <v>8.94</v>
@@ -2627,7 +2585,7 @@
         <v>12.94</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -2653,7 +2611,7 @@
         <v>21.44</v>
       </c>
       <c r="I42">
-        <v>8.7799999999999994</v>
+        <v>8.78</v>
       </c>
       <c r="J42">
         <v>14.51</v>
@@ -2665,7 +2623,7 @@
         <v>7.77</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2700,7 +2658,7 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -2735,7 +2693,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -2770,7 +2728,7 @@
         <v>12.38</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -2802,13 +2760,13 @@
         <v>11.43</v>
       </c>
       <c r="K46">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="L46">
         <v>5.75</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -2828,7 +2786,7 @@
         <v>56.97</v>
       </c>
       <c r="G47">
-        <v>16.260000000000002</v>
+        <v>16.26</v>
       </c>
       <c r="H47">
         <v>8.36</v>
@@ -2846,7 +2804,7 @@
         <v>6.04</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -2881,10 +2839,10 @@
         <v>12.56</v>
       </c>
       <c r="L48">
-        <v>8.5299999999999994</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+        <v>8.53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -2907,7 +2865,7 @@
         <v>16.28</v>
       </c>
       <c r="H49">
-        <v>8.3800000000000008</v>
+        <v>8.38</v>
       </c>
       <c r="I49">
         <v>7.38</v>
@@ -2922,39 +2880,45 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
       <c r="B50">
-        <v>529000</v>
+        <v>529900</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>463.5</v>
+        <v>65.55</v>
       </c>
       <c r="G50">
-        <v>130.5</v>
+        <v>19.58</v>
       </c>
       <c r="H50">
-        <v>94.6</v>
+        <v>19.58</v>
       </c>
       <c r="I50">
-        <v>58.4</v>
+        <v>8.76</v>
       </c>
       <c r="J50">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+        <v>13.7</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -2965,34 +2929,31 @@
         <v>7</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51">
-        <v>65.55</v>
+        <v>50.75</v>
       </c>
       <c r="G51">
-        <v>19.579999999999998</v>
+        <v>10.22</v>
       </c>
       <c r="H51">
-        <v>19.579999999999998</v>
+        <v>10.22</v>
       </c>
       <c r="I51">
-        <v>8.76</v>
+        <v>12.08</v>
       </c>
       <c r="J51">
-        <v>13.7</v>
+        <v>9.3</v>
       </c>
       <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>3.93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -3009,30 +2970,33 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>50.75</v>
+        <v>59.37</v>
       </c>
       <c r="G52">
-        <v>10.220000000000001</v>
+        <v>17.23</v>
       </c>
       <c r="H52">
-        <v>10.220000000000001</v>
+        <v>6.97</v>
       </c>
       <c r="I52">
-        <v>12.08</v>
+        <v>11.1</v>
       </c>
       <c r="J52">
-        <v>9.3000000000000007</v>
+        <v>6.84</v>
       </c>
       <c r="K52">
-        <v>8.93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>17.23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
       <c r="B53">
-        <v>529900</v>
+        <v>530000</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -3041,31 +3005,31 @@
         <v>2</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53">
-        <v>59.37</v>
+        <v>65.78</v>
       </c>
       <c r="G53">
-        <v>17.23</v>
+        <v>14.4</v>
       </c>
       <c r="H53">
-        <v>6.97</v>
+        <v>14.18</v>
       </c>
       <c r="I53">
-        <v>11.1</v>
+        <v>10.14</v>
       </c>
       <c r="J53">
-        <v>6.84</v>
+        <v>13.6</v>
       </c>
       <c r="K53">
+        <v>13.46</v>
+      </c>
+      <c r="L53">
         <v>0</v>
       </c>
-      <c r="L53">
-        <v>17.23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -3082,33 +3046,36 @@
         <v>2</v>
       </c>
       <c r="F54">
-        <v>65.78</v>
+        <v>70.12</v>
       </c>
       <c r="G54">
-        <v>14.4</v>
+        <v>13.29</v>
       </c>
       <c r="H54">
-        <v>14.18</v>
+        <v>3.51</v>
       </c>
       <c r="I54">
-        <v>10.14</v>
+        <v>1.84</v>
       </c>
       <c r="J54">
-        <v>13.6</v>
+        <v>13.01</v>
       </c>
       <c r="K54">
-        <v>13.46</v>
+        <v>10.22</v>
       </c>
       <c r="L54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+        <v>13.94</v>
+      </c>
+      <c r="M54">
+        <v>14.31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>60</v>
       </c>
       <c r="B55">
-        <v>530000</v>
+        <v>532000</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -3120,36 +3087,33 @@
         <v>2</v>
       </c>
       <c r="F55">
-        <v>70.12</v>
+        <v>49.45</v>
       </c>
       <c r="G55">
-        <v>13.29</v>
+        <v>11.63</v>
       </c>
       <c r="H55">
-        <v>3.51</v>
+        <v>6.67</v>
       </c>
       <c r="I55">
-        <v>1.84</v>
+        <v>15.78</v>
       </c>
       <c r="J55">
-        <v>13.01</v>
+        <v>8.63</v>
       </c>
       <c r="K55">
-        <v>10.220000000000001</v>
+        <v>6.74</v>
       </c>
       <c r="L55">
-        <v>13.94</v>
-      </c>
-      <c r="M55">
-        <v>14.31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>61</v>
       </c>
       <c r="B56">
-        <v>532000</v>
+        <v>534000</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -3161,33 +3125,30 @@
         <v>2</v>
       </c>
       <c r="F56">
-        <v>49.45</v>
+        <v>56.78</v>
       </c>
       <c r="G56">
-        <v>11.63</v>
+        <v>15.8</v>
       </c>
       <c r="H56">
-        <v>6.67</v>
+        <v>15.8</v>
       </c>
       <c r="I56">
-        <v>15.78</v>
+        <v>6.86</v>
       </c>
       <c r="J56">
-        <v>8.6300000000000008</v>
+        <v>11.53</v>
       </c>
       <c r="K56">
-        <v>6.74</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>62</v>
       </c>
       <c r="B57">
-        <v>534000</v>
+        <v>534900</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -3196,33 +3157,33 @@
         <v>2</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>56.78</v>
+        <v>72.13</v>
       </c>
       <c r="G57">
-        <v>15.8</v>
+        <v>22.05</v>
       </c>
       <c r="H57">
-        <v>15.8</v>
+        <v>22.05</v>
       </c>
       <c r="I57">
-        <v>6.86</v>
+        <v>8.48</v>
       </c>
       <c r="J57">
-        <v>11.53</v>
+        <v>11.16</v>
       </c>
       <c r="K57">
-        <v>6.79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+        <v>8.39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>63</v>
       </c>
       <c r="B58">
-        <v>534900</v>
+        <v>535000</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -3231,33 +3192,39 @@
         <v>2</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58">
-        <v>72.13</v>
+        <v>84.49</v>
       </c>
       <c r="G58">
-        <v>22.05</v>
+        <v>18.33</v>
       </c>
       <c r="H58">
-        <v>22.05</v>
+        <v>11.38</v>
       </c>
       <c r="I58">
-        <v>8.48</v>
+        <v>8.25</v>
       </c>
       <c r="J58">
-        <v>11.16</v>
+        <v>1.7</v>
       </c>
       <c r="K58">
-        <v>8.39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+        <v>21.25</v>
+      </c>
+      <c r="L58">
+        <v>12.64</v>
+      </c>
+      <c r="M58">
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>64</v>
       </c>
       <c r="B59">
-        <v>535000</v>
+        <v>535900</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -3266,39 +3233,33 @@
         <v>2</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>84.49</v>
+        <v>46.59</v>
       </c>
       <c r="G59">
-        <v>18.329999999999998</v>
+        <v>11.71</v>
       </c>
       <c r="H59">
-        <v>11.38</v>
+        <v>10.13</v>
       </c>
       <c r="I59">
-        <v>8.25</v>
+        <v>10.13</v>
       </c>
       <c r="J59">
-        <v>1.7</v>
+        <v>9.3</v>
       </c>
       <c r="K59">
-        <v>21.25</v>
-      </c>
-      <c r="L59">
-        <v>12.64</v>
-      </c>
-      <c r="M59">
-        <v>10.94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>65</v>
       </c>
       <c r="B60">
-        <v>535900</v>
+        <v>538900</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -3307,33 +3268,33 @@
         <v>2</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60">
-        <v>46.59</v>
+        <v>57.6</v>
       </c>
       <c r="G60">
-        <v>11.71</v>
+        <v>14.53</v>
       </c>
       <c r="H60">
-        <v>10.130000000000001</v>
+        <v>12.21</v>
       </c>
       <c r="I60">
-        <v>10.130000000000001</v>
+        <v>5.52</v>
       </c>
       <c r="J60">
-        <v>9.3000000000000007</v>
+        <v>13.95</v>
       </c>
       <c r="K60">
-        <v>5.32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>66</v>
       </c>
       <c r="B61">
-        <v>538900</v>
+        <v>539000</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -3342,28 +3303,28 @@
         <v>2</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>57.6</v>
+        <v>52.34</v>
       </c>
       <c r="G61">
-        <v>14.53</v>
+        <v>14.22</v>
       </c>
       <c r="H61">
-        <v>12.21</v>
+        <v>14.22</v>
       </c>
       <c r="I61">
-        <v>5.52</v>
+        <v>6.73</v>
       </c>
       <c r="J61">
-        <v>13.95</v>
+        <v>11</v>
       </c>
       <c r="K61">
-        <v>11.39</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -3374,31 +3335,34 @@
         <v>7</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62">
-        <v>52.34</v>
+        <v>71.35</v>
       </c>
       <c r="G62">
-        <v>14.22</v>
+        <v>18.6</v>
       </c>
       <c r="H62">
-        <v>14.22</v>
+        <v>18.6</v>
       </c>
       <c r="I62">
-        <v>6.73</v>
+        <v>5.86</v>
       </c>
       <c r="J62">
-        <v>11</v>
+        <v>12.66</v>
       </c>
       <c r="K62">
-        <v>6.17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+        <v>8.91</v>
+      </c>
+      <c r="L62">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -3412,31 +3376,37 @@
         <v>3</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>71.349999999999994</v>
+        <v>73.87</v>
       </c>
       <c r="G63">
-        <v>18.600000000000001</v>
+        <v>17.65</v>
       </c>
       <c r="H63">
-        <v>18.600000000000001</v>
+        <v>7.32</v>
       </c>
       <c r="I63">
-        <v>5.86</v>
+        <v>7.08</v>
       </c>
       <c r="J63">
-        <v>12.66</v>
+        <v>13.69</v>
       </c>
       <c r="K63">
-        <v>8.91</v>
+        <v>12.61</v>
       </c>
       <c r="L63">
-        <v>6.72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+        <v>8.35</v>
+      </c>
+      <c r="M63">
+        <v>3.95</v>
+      </c>
+      <c r="N63">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -3450,37 +3420,31 @@
         <v>3</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64">
-        <v>73.87</v>
+        <v>85.07</v>
       </c>
       <c r="G64">
-        <v>17.649999999999999</v>
+        <v>17.06</v>
       </c>
       <c r="H64">
-        <v>7.32</v>
+        <v>19.62</v>
       </c>
       <c r="I64">
-        <v>7.08</v>
+        <v>10.43</v>
       </c>
       <c r="J64">
-        <v>13.69</v>
+        <v>15.1</v>
       </c>
       <c r="K64">
-        <v>12.61</v>
+        <v>13.13</v>
       </c>
       <c r="L64">
-        <v>8.35</v>
-      </c>
-      <c r="M64">
-        <v>3.95</v>
-      </c>
-      <c r="N64">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -3491,39 +3455,36 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E65">
         <v>2</v>
       </c>
       <c r="F65">
-        <v>85.07</v>
+        <v>51.3</v>
       </c>
       <c r="G65">
-        <v>17.059999999999999</v>
+        <v>12.63</v>
       </c>
       <c r="H65">
-        <v>19.62</v>
+        <v>12.63</v>
       </c>
       <c r="I65">
-        <v>10.43</v>
+        <v>6.53</v>
       </c>
       <c r="J65">
-        <v>15.1</v>
+        <v>9.41</v>
       </c>
       <c r="K65">
-        <v>13.13</v>
-      </c>
-      <c r="L65">
-        <v>9.73</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>71</v>
       </c>
       <c r="B66">
-        <v>539000</v>
+        <v>539500</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -3532,106 +3493,112 @@
         <v>2</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>51.3</v>
+        <v>55.01</v>
       </c>
       <c r="G66">
-        <v>12.63</v>
+        <v>14.68</v>
       </c>
       <c r="H66">
-        <v>12.63</v>
+        <v>14.68</v>
       </c>
       <c r="I66">
-        <v>6.53</v>
+        <v>7.44</v>
       </c>
       <c r="J66">
-        <v>9.41</v>
+        <v>12.57</v>
       </c>
       <c r="K66">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>72</v>
       </c>
       <c r="B67">
-        <v>539500</v>
+        <v>539800</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67">
-        <v>55.01</v>
+        <v>72.27</v>
       </c>
       <c r="G67">
-        <v>14.68</v>
+        <v>21.73</v>
       </c>
       <c r="H67">
-        <v>14.68</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>7.44</v>
+        <v>8.56</v>
       </c>
       <c r="J67">
-        <v>12.57</v>
+        <v>19.2</v>
       </c>
       <c r="K67">
-        <v>5.64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+        <v>10.18</v>
+      </c>
+      <c r="L67">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>73</v>
       </c>
       <c r="B68">
-        <v>539800</v>
+        <v>539888</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E68">
         <v>2</v>
       </c>
       <c r="F68">
-        <v>72.27</v>
+        <v>49.97</v>
       </c>
       <c r="G68">
-        <v>21.73</v>
+        <v>9.29</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>10.01</v>
       </c>
       <c r="I68">
-        <v>8.56</v>
+        <v>7.55</v>
       </c>
       <c r="J68">
-        <v>19.2</v>
+        <v>12.59</v>
       </c>
       <c r="K68">
-        <v>10.18</v>
+        <v>4.08</v>
       </c>
       <c r="L68">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4.78</v>
+      </c>
+      <c r="M68">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>74</v>
       </c>
       <c r="B69">
-        <v>539888</v>
+        <v>539900</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -3640,34 +3607,28 @@
         <v>2</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>49.97</v>
+        <v>61.49</v>
       </c>
       <c r="G69">
-        <v>9.2899999999999991</v>
+        <v>19.53</v>
       </c>
       <c r="H69">
-        <v>10.01</v>
+        <v>19.53</v>
       </c>
       <c r="I69">
-        <v>7.55</v>
+        <v>6.05</v>
       </c>
       <c r="J69">
-        <v>12.59</v>
+        <v>10.28</v>
       </c>
       <c r="K69">
-        <v>4.08</v>
-      </c>
-      <c r="L69">
-        <v>4.78</v>
-      </c>
-      <c r="M69">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -3681,28 +3642,34 @@
         <v>2</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70">
-        <v>61.49</v>
+        <v>57.85</v>
       </c>
       <c r="G70">
-        <v>19.53</v>
+        <v>22.33</v>
       </c>
       <c r="H70">
-        <v>19.53</v>
+        <v>6.7</v>
       </c>
       <c r="I70">
-        <v>6.05</v>
+        <v>8.24</v>
       </c>
       <c r="J70">
-        <v>10.28</v>
+        <v>11.37</v>
       </c>
       <c r="K70">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+        <v>9.21</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -3719,36 +3686,30 @@
         <v>2</v>
       </c>
       <c r="F71">
-        <v>57.85</v>
+        <v>60.67</v>
       </c>
       <c r="G71">
-        <v>22.33</v>
+        <v>16.28</v>
       </c>
       <c r="H71">
-        <v>6.7</v>
+        <v>8.77</v>
       </c>
       <c r="I71">
-        <v>8.24</v>
+        <v>7.57</v>
       </c>
       <c r="J71">
-        <v>11.37</v>
+        <v>13.8</v>
       </c>
       <c r="K71">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>77</v>
       </c>
       <c r="B72">
-        <v>539900</v>
+        <v>540000</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
@@ -3760,60 +3721,66 @@
         <v>2</v>
       </c>
       <c r="F72">
-        <v>60.67</v>
+        <v>64.02</v>
       </c>
       <c r="G72">
-        <v>16.28</v>
+        <v>14.74</v>
       </c>
       <c r="H72">
-        <v>8.77</v>
+        <v>14.74</v>
       </c>
       <c r="I72">
-        <v>7.57</v>
+        <v>14.74</v>
       </c>
       <c r="J72">
-        <v>13.8</v>
+        <v>11.2</v>
       </c>
       <c r="K72">
-        <v>14.25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>78</v>
       </c>
       <c r="B73">
-        <v>540000</v>
+        <v>544900</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E73">
         <v>2</v>
       </c>
       <c r="F73">
-        <v>64.02</v>
+        <v>85.8</v>
       </c>
       <c r="G73">
-        <v>14.74</v>
+        <v>26.24</v>
       </c>
       <c r="H73">
-        <v>14.74</v>
+        <v>11.69</v>
       </c>
       <c r="I73">
-        <v>14.74</v>
+        <v>11.34</v>
       </c>
       <c r="J73">
-        <v>11.2</v>
+        <v>16.09</v>
       </c>
       <c r="K73">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+        <v>8.49</v>
+      </c>
+      <c r="L73">
+        <v>10.07</v>
+      </c>
+      <c r="M73">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -3824,142 +3791,145 @@
         <v>7</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>85.8</v>
+        <v>53.78</v>
       </c>
       <c r="G74">
-        <v>26.24</v>
+        <v>18.13</v>
       </c>
       <c r="H74">
-        <v>11.69</v>
+        <v>18.13</v>
       </c>
       <c r="I74">
-        <v>11.34</v>
+        <v>10.92</v>
       </c>
       <c r="J74">
-        <v>16.09</v>
-      </c>
-      <c r="K74">
-        <v>8.49</v>
-      </c>
-      <c r="L74">
-        <v>10.07</v>
-      </c>
-      <c r="M74">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>80</v>
       </c>
       <c r="B75">
-        <v>544900</v>
+        <v>545000</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75">
-        <v>53.78</v>
+        <v>68.49</v>
       </c>
       <c r="G75">
-        <v>18.13</v>
+        <v>18.53</v>
       </c>
       <c r="H75">
-        <v>18.13</v>
+        <v>6.56</v>
       </c>
       <c r="I75">
-        <v>10.92</v>
+        <v>5.62</v>
       </c>
       <c r="J75">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+        <v>17.92</v>
+      </c>
+      <c r="K75">
+        <v>11.06</v>
+      </c>
+      <c r="L75">
+        <v>8.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>81</v>
       </c>
       <c r="B76">
-        <v>545000</v>
+        <v>548000</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76">
-        <v>68.489999999999995</v>
+        <v>57.34</v>
       </c>
       <c r="G76">
-        <v>18.53</v>
+        <v>13.6</v>
       </c>
       <c r="H76">
-        <v>6.56</v>
+        <v>13.6</v>
       </c>
       <c r="I76">
-        <v>5.62</v>
+        <v>14.26</v>
       </c>
       <c r="J76">
-        <v>17.920000000000002</v>
+        <v>9.85</v>
       </c>
       <c r="K76">
-        <v>11.06</v>
-      </c>
-      <c r="L76">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>82</v>
       </c>
       <c r="B77">
-        <v>548000</v>
+        <v>549000</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77">
-        <v>57.34</v>
+        <v>97.53</v>
       </c>
       <c r="G77">
-        <v>13.6</v>
+        <v>22.81</v>
       </c>
       <c r="H77">
-        <v>13.6</v>
+        <v>22.81</v>
       </c>
       <c r="I77">
-        <v>14.26</v>
+        <v>9.02</v>
       </c>
       <c r="J77">
-        <v>9.85</v>
+        <v>7.39</v>
       </c>
       <c r="K77">
-        <v>6.03</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+        <v>8.95</v>
+      </c>
+      <c r="L77">
+        <v>15.23</v>
+      </c>
+      <c r="M77">
+        <v>7.39</v>
+      </c>
+      <c r="N77">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -3970,40 +3940,28 @@
         <v>7</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>97.53</v>
+        <v>38.81</v>
       </c>
       <c r="G78">
-        <v>22.81</v>
+        <v>11.02</v>
       </c>
       <c r="H78">
-        <v>22.81</v>
+        <v>13.03</v>
       </c>
       <c r="I78">
-        <v>9.02</v>
+        <v>9.3</v>
       </c>
       <c r="J78">
-        <v>7.39</v>
-      </c>
-      <c r="K78">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="L78">
-        <v>15.23</v>
-      </c>
-      <c r="M78">
-        <v>7.39</v>
-      </c>
-      <c r="N78">
-        <v>3.93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -4017,25 +3975,34 @@
         <v>2</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79">
-        <v>38.81</v>
+        <v>69.89</v>
       </c>
       <c r="G79">
-        <v>11.02</v>
+        <v>2.44</v>
       </c>
       <c r="H79">
-        <v>13.03</v>
+        <v>12.12</v>
       </c>
       <c r="I79">
-        <v>9.3000000000000007</v>
+        <v>11.93</v>
       </c>
       <c r="J79">
-        <v>5.46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+        <v>12.97</v>
+      </c>
+      <c r="K79">
+        <v>14.21</v>
+      </c>
+      <c r="L79">
+        <v>9.63</v>
+      </c>
+      <c r="M79">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -4049,34 +4016,31 @@
         <v>2</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>69.89</v>
+        <v>57.94</v>
       </c>
       <c r="G80">
-        <v>2.44</v>
+        <v>13.64</v>
       </c>
       <c r="H80">
-        <v>12.12</v>
+        <v>8.4</v>
       </c>
       <c r="I80">
-        <v>11.93</v>
+        <v>9.3</v>
       </c>
       <c r="J80">
-        <v>12.97</v>
+        <v>10.8</v>
       </c>
       <c r="K80">
-        <v>14.21</v>
+        <v>9.6</v>
       </c>
       <c r="L80">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="M80">
-        <v>6.59</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -4093,66 +4057,69 @@
         <v>1</v>
       </c>
       <c r="F81">
-        <v>57.94</v>
+        <v>71.55</v>
       </c>
       <c r="G81">
-        <v>13.64</v>
+        <v>13.94</v>
       </c>
       <c r="H81">
-        <v>8.4</v>
+        <v>13.94</v>
       </c>
       <c r="I81">
-        <v>9.3000000000000007</v>
+        <v>14.51</v>
       </c>
       <c r="J81">
-        <v>10.8</v>
+        <v>11.44</v>
       </c>
       <c r="K81">
-        <v>9.6</v>
+        <v>11.68</v>
       </c>
       <c r="L81">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>87</v>
       </c>
       <c r="B82">
-        <v>549000</v>
+        <v>549900</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82">
-        <v>71.55</v>
+        <v>57.78</v>
       </c>
       <c r="G82">
-        <v>13.94</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>13.94</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>14.51</v>
+        <v>5.2</v>
       </c>
       <c r="J82">
-        <v>11.44</v>
+        <v>13.01</v>
       </c>
       <c r="K82">
-        <v>11.68</v>
+        <v>6.13</v>
       </c>
       <c r="L82">
-        <v>6.04</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+        <v>16.72</v>
+      </c>
+      <c r="M82">
+        <v>16.72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -4163,37 +4130,31 @@
         <v>7</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83">
         <v>2</v>
       </c>
       <c r="F83">
-        <v>57.78</v>
+        <v>59.1</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>17.45</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>17.45</v>
       </c>
       <c r="I83">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="J83">
-        <v>13.01</v>
+        <v>12.8</v>
       </c>
       <c r="K83">
-        <v>6.13</v>
-      </c>
-      <c r="L83">
-        <v>16.72</v>
-      </c>
-      <c r="M83">
-        <v>16.72</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -4204,31 +4165,34 @@
         <v>7</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E84">
         <v>2</v>
       </c>
       <c r="F84">
-        <v>59.1</v>
+        <v>87.73</v>
       </c>
       <c r="G84">
-        <v>17.45</v>
+        <v>25.35</v>
       </c>
       <c r="H84">
-        <v>17.45</v>
+        <v>25.35</v>
       </c>
       <c r="I84">
-        <v>6.4</v>
+        <v>5.24</v>
       </c>
       <c r="J84">
-        <v>12.8</v>
+        <v>15.36</v>
       </c>
       <c r="K84">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+        <v>10.11</v>
+      </c>
+      <c r="L84">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -4245,28 +4209,31 @@
         <v>2</v>
       </c>
       <c r="F85">
-        <v>87.73</v>
+        <v>87</v>
       </c>
       <c r="G85">
-        <v>25.35</v>
+        <v>26.01</v>
       </c>
       <c r="H85">
-        <v>25.35</v>
+        <v>11.09</v>
       </c>
       <c r="I85">
-        <v>5.24</v>
+        <v>11.88</v>
       </c>
       <c r="J85">
-        <v>15.36</v>
+        <v>15.62</v>
       </c>
       <c r="K85">
-        <v>10.11</v>
+        <v>10.17</v>
       </c>
       <c r="L85">
-        <v>6.32</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.5</v>
+      </c>
+      <c r="M85">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -4277,37 +4244,34 @@
         <v>7</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E86">
         <v>2</v>
       </c>
       <c r="F86">
-        <v>87</v>
+        <v>58.14</v>
       </c>
       <c r="G86">
-        <v>26.01</v>
+        <v>3.16</v>
       </c>
       <c r="H86">
-        <v>11.09</v>
+        <v>5.47</v>
       </c>
       <c r="I86">
-        <v>11.88</v>
+        <v>19.84</v>
       </c>
       <c r="J86">
-        <v>15.62</v>
+        <v>7.18</v>
       </c>
       <c r="K86">
-        <v>10.17</v>
+        <v>14.44</v>
       </c>
       <c r="L86">
-        <v>8.5</v>
-      </c>
-      <c r="M86">
-        <v>3.73</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.05</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -4318,77 +4282,74 @@
         <v>7</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E87">
         <v>2</v>
       </c>
       <c r="F87">
-        <v>58.14</v>
+        <v>77.84</v>
       </c>
       <c r="G87">
-        <v>3.16</v>
+        <v>20.77</v>
       </c>
       <c r="H87">
-        <v>5.47</v>
+        <v>20.77</v>
       </c>
       <c r="I87">
-        <v>19.84</v>
+        <v>5.98</v>
       </c>
       <c r="J87">
-        <v>7.18</v>
+        <v>5.98</v>
       </c>
       <c r="K87">
-        <v>14.44</v>
+        <v>14.42</v>
       </c>
       <c r="L87">
-        <v>8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>93</v>
       </c>
       <c r="B88">
-        <v>549900</v>
+        <v>550000</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E88">
         <v>2</v>
       </c>
       <c r="F88">
-        <v>77.84</v>
+        <v>41.63</v>
       </c>
       <c r="G88">
-        <v>20.77</v>
+        <v>5.49</v>
       </c>
       <c r="H88">
-        <v>20.77</v>
+        <v>17.81</v>
       </c>
       <c r="I88">
-        <v>5.98</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>5.98</v>
+        <v>12.14</v>
       </c>
       <c r="K88">
-        <v>14.42</v>
-      </c>
-      <c r="L88">
-        <v>9.92</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>94</v>
       </c>
       <c r="B89">
-        <v>550000</v>
+        <v>552800</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
@@ -4397,68 +4358,71 @@
         <v>2</v>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>41.63</v>
+        <v>46.73</v>
       </c>
       <c r="G89">
-        <v>5.49</v>
+        <v>4.74</v>
       </c>
       <c r="H89">
-        <v>17.809999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>13.11</v>
       </c>
       <c r="J89">
-        <v>12.14</v>
+        <v>13.11</v>
       </c>
       <c r="K89">
-        <v>6.19</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>95</v>
       </c>
       <c r="B90">
-        <v>552800</v>
+        <v>554988</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F90">
-        <v>46.73</v>
+        <v>65.19</v>
       </c>
       <c r="G90">
-        <v>4.74</v>
+        <v>7.2</v>
       </c>
       <c r="H90">
-        <v>6.1</v>
+        <v>17.2</v>
       </c>
       <c r="I90">
-        <v>13.11</v>
+        <v>17.2</v>
       </c>
       <c r="J90">
-        <v>13.11</v>
+        <v>4.1</v>
       </c>
       <c r="K90">
-        <v>9.67</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11.13</v>
+      </c>
+      <c r="L90">
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>96</v>
       </c>
       <c r="B91">
-        <v>554988</v>
+        <v>555000</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
@@ -4467,31 +4431,40 @@
         <v>3</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>65.19</v>
+        <v>109.96</v>
       </c>
       <c r="G91">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>17.2</v>
+        <v>32.32</v>
       </c>
       <c r="I91">
-        <v>17.2</v>
+        <v>32.32</v>
       </c>
       <c r="J91">
-        <v>4.0999999999999996</v>
+        <v>8.15</v>
       </c>
       <c r="K91">
-        <v>11.13</v>
+        <v>6.18</v>
       </c>
       <c r="L91">
-        <v>8.36</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+        <v>13.29</v>
+      </c>
+      <c r="M91">
+        <v>9.97</v>
+      </c>
+      <c r="N91">
+        <v>4.11</v>
+      </c>
+      <c r="O91">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -4502,43 +4475,37 @@
         <v>7</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92">
-        <v>109.96</v>
+        <v>60.45</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>12.72</v>
       </c>
       <c r="H92">
-        <v>32.32</v>
+        <v>8.51</v>
       </c>
       <c r="I92">
-        <v>32.32</v>
+        <v>6.81</v>
       </c>
       <c r="J92">
-        <v>8.15</v>
+        <v>2.71</v>
       </c>
       <c r="K92">
-        <v>6.18</v>
+        <v>8.69</v>
       </c>
       <c r="L92">
-        <v>13.29</v>
+        <v>1.25</v>
       </c>
       <c r="M92">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="N92">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="O92">
-        <v>3.62</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+        <v>19.76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -4555,36 +4522,30 @@
         <v>2</v>
       </c>
       <c r="F93">
-        <v>60.45</v>
+        <v>53.21</v>
       </c>
       <c r="G93">
-        <v>12.72</v>
+        <v>15.6</v>
       </c>
       <c r="H93">
-        <v>8.51</v>
+        <v>8.29</v>
       </c>
       <c r="I93">
-        <v>6.81</v>
+        <v>7.99</v>
       </c>
       <c r="J93">
-        <v>2.71</v>
+        <v>11.06</v>
       </c>
       <c r="K93">
-        <v>8.69</v>
-      </c>
-      <c r="L93">
-        <v>1.25</v>
-      </c>
-      <c r="M93">
-        <v>19.760000000000002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>99</v>
       </c>
       <c r="B94">
-        <v>555000</v>
+        <v>558800</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
@@ -4596,60 +4557,57 @@
         <v>2</v>
       </c>
       <c r="F94">
-        <v>53.21</v>
+        <v>49.37</v>
       </c>
       <c r="G94">
-        <v>15.6</v>
+        <v>14.28</v>
       </c>
       <c r="H94">
-        <v>8.2899999999999991</v>
+        <v>14.28</v>
       </c>
       <c r="I94">
-        <v>7.99</v>
+        <v>7.03</v>
       </c>
       <c r="J94">
-        <v>11.06</v>
+        <v>9.24</v>
       </c>
       <c r="K94">
-        <v>10.27</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>100</v>
       </c>
       <c r="B95">
-        <v>558800</v>
+        <v>559000</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>49.37</v>
+        <v>54.54</v>
       </c>
       <c r="G95">
-        <v>14.28</v>
+        <v>5.9</v>
       </c>
       <c r="H95">
-        <v>14.28</v>
+        <v>19.46</v>
       </c>
       <c r="I95">
-        <v>7.03</v>
+        <v>19.46</v>
       </c>
       <c r="J95">
-        <v>9.24</v>
-      </c>
-      <c r="K95">
-        <v>4.54</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -4660,28 +4618,31 @@
         <v>7</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96">
-        <v>54.54</v>
+        <v>65.17</v>
       </c>
       <c r="G96">
-        <v>5.9</v>
+        <v>19.4</v>
       </c>
       <c r="H96">
-        <v>19.46</v>
+        <v>19.4</v>
       </c>
       <c r="I96">
-        <v>19.46</v>
+        <v>8.2</v>
       </c>
       <c r="J96">
-        <v>9.7200000000000006</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+        <v>11.07</v>
+      </c>
+      <c r="K96">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -4692,66 +4653,66 @@
         <v>7</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E97">
         <v>2</v>
       </c>
       <c r="F97">
-        <v>65.17</v>
+        <v>60.15</v>
       </c>
       <c r="G97">
-        <v>19.399999999999999</v>
+        <v>20.79</v>
       </c>
       <c r="H97">
-        <v>19.399999999999999</v>
+        <v>8.24</v>
       </c>
       <c r="I97">
-        <v>8.1999999999999993</v>
+        <v>7.93</v>
       </c>
       <c r="J97">
-        <v>11.07</v>
+        <v>14.4</v>
       </c>
       <c r="K97">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.79</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>103</v>
       </c>
       <c r="B98">
-        <v>559000</v>
+        <v>559900</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E98">
         <v>2</v>
       </c>
       <c r="F98">
-        <v>60.15</v>
+        <v>57.85</v>
       </c>
       <c r="G98">
-        <v>20.79</v>
+        <v>16.4</v>
       </c>
       <c r="H98">
-        <v>8.24</v>
+        <v>8.8</v>
       </c>
       <c r="I98">
-        <v>7.93</v>
+        <v>7.25</v>
       </c>
       <c r="J98">
-        <v>14.4</v>
+        <v>14.95</v>
       </c>
       <c r="K98">
-        <v>8.7899999999999991</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -4762,36 +4723,39 @@
         <v>7</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E99">
         <v>2</v>
       </c>
       <c r="F99">
-        <v>57.85</v>
+        <v>60.97</v>
       </c>
       <c r="G99">
-        <v>16.399999999999999</v>
+        <v>12.26</v>
       </c>
       <c r="H99">
-        <v>8.8000000000000007</v>
+        <v>8.17</v>
       </c>
       <c r="I99">
-        <v>7.25</v>
+        <v>5.88</v>
       </c>
       <c r="J99">
-        <v>14.95</v>
+        <v>18.59</v>
       </c>
       <c r="K99">
-        <v>10.45</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+        <v>10.3</v>
+      </c>
+      <c r="L99">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>105</v>
       </c>
       <c r="B100">
-        <v>559900</v>
+        <v>559999</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
@@ -4803,28 +4767,28 @@
         <v>2</v>
       </c>
       <c r="F100">
-        <v>60.97</v>
+        <v>48.27</v>
       </c>
       <c r="G100">
-        <v>12.26</v>
+        <v>9.25</v>
       </c>
       <c r="H100">
-        <v>8.17</v>
+        <v>8.18</v>
       </c>
       <c r="I100">
-        <v>5.88</v>
+        <v>4.9</v>
       </c>
       <c r="J100">
-        <v>18.59</v>
+        <v>13.57</v>
       </c>
       <c r="K100">
-        <v>10.3</v>
+        <v>6.69</v>
       </c>
       <c r="L100">
-        <v>5.77</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -4841,74 +4805,74 @@
         <v>2</v>
       </c>
       <c r="F101">
-        <v>48.27</v>
+        <v>97.32</v>
       </c>
       <c r="G101">
-        <v>9.25</v>
+        <v>21.78</v>
       </c>
       <c r="H101">
-        <v>8.18</v>
+        <v>21.78</v>
       </c>
       <c r="I101">
-        <v>4.9000000000000004</v>
+        <v>14.84</v>
       </c>
       <c r="J101">
-        <v>13.57</v>
+        <v>16.54</v>
       </c>
       <c r="K101">
-        <v>6.69</v>
+        <v>11.18</v>
       </c>
       <c r="L101">
-        <v>5.68</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.58</v>
+      </c>
+      <c r="M101">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>107</v>
       </c>
       <c r="B102">
-        <v>559999</v>
+        <v>564900</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>97.32</v>
+        <v>61.76</v>
       </c>
       <c r="G102">
-        <v>21.78</v>
+        <v>11.15</v>
       </c>
       <c r="H102">
-        <v>21.78</v>
+        <v>9.63</v>
       </c>
       <c r="I102">
-        <v>14.84</v>
+        <v>8.17</v>
       </c>
       <c r="J102">
-        <v>16.54</v>
+        <v>17.54</v>
       </c>
       <c r="K102">
-        <v>11.18</v>
+        <v>10.47</v>
       </c>
       <c r="L102">
-        <v>6.58</v>
-      </c>
-      <c r="M102">
-        <v>4.62</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>108</v>
       </c>
       <c r="B103">
-        <v>564900</v>
+        <v>565000</v>
       </c>
       <c r="C103" t="s">
         <v>7</v>
@@ -4917,31 +4881,31 @@
         <v>2</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F103">
-        <v>61.76</v>
+        <v>61.75</v>
       </c>
       <c r="G103">
-        <v>11.15</v>
+        <v>17.08</v>
       </c>
       <c r="H103">
-        <v>9.6300000000000008</v>
+        <v>8.16</v>
       </c>
       <c r="I103">
-        <v>8.17</v>
+        <v>8.2</v>
       </c>
       <c r="J103">
-        <v>17.54</v>
+        <v>14</v>
       </c>
       <c r="K103">
-        <v>10.47</v>
+        <v>10.22</v>
       </c>
       <c r="L103">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -4958,142 +4922,142 @@
         <v>2</v>
       </c>
       <c r="F104">
-        <v>61.75</v>
+        <v>92.99</v>
       </c>
       <c r="G104">
-        <v>17.079999999999998</v>
+        <v>35.46</v>
       </c>
       <c r="H104">
-        <v>8.16</v>
+        <v>35.46</v>
       </c>
       <c r="I104">
-        <v>8.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>14</v>
+        <v>11.39</v>
       </c>
       <c r="K104">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="L104">
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>110</v>
       </c>
       <c r="B105">
-        <v>565000</v>
+        <v>569000</v>
       </c>
       <c r="C105" t="s">
         <v>7</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E105">
         <v>2</v>
       </c>
       <c r="F105">
-        <v>92.99</v>
+        <v>67.27</v>
       </c>
       <c r="G105">
-        <v>35.46</v>
+        <v>14.25</v>
       </c>
       <c r="H105">
-        <v>35.46</v>
+        <v>6.15</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J105">
-        <v>11.39</v>
+        <v>12.4</v>
       </c>
       <c r="K105">
-        <v>10.68</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.05</v>
+      </c>
+      <c r="L105">
+        <v>10.22</v>
+      </c>
+      <c r="M105">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>111</v>
       </c>
       <c r="B106">
-        <v>569000</v>
+        <v>569800</v>
       </c>
       <c r="C106" t="s">
         <v>7</v>
       </c>
       <c r="D106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E106">
         <v>2</v>
       </c>
       <c r="F106">
-        <v>67.27</v>
+        <v>64.92</v>
       </c>
       <c r="G106">
-        <v>14.25</v>
+        <v>16.59</v>
       </c>
       <c r="H106">
-        <v>6.15</v>
+        <v>16.59</v>
       </c>
       <c r="I106">
-        <v>9</v>
+        <v>3.81</v>
       </c>
       <c r="J106">
-        <v>12.4</v>
+        <v>7.94</v>
       </c>
       <c r="K106">
-        <v>9.0500000000000007</v>
+        <v>11.54</v>
       </c>
       <c r="L106">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="M106">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>112</v>
       </c>
       <c r="B107">
-        <v>569800</v>
+        <v>569900</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E107">
         <v>2</v>
       </c>
       <c r="F107">
-        <v>64.92</v>
+        <v>72.47</v>
       </c>
       <c r="G107">
-        <v>16.59</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>16.59</v>
+        <v>42.74</v>
       </c>
       <c r="I107">
-        <v>3.81</v>
+        <v>0</v>
       </c>
       <c r="J107">
-        <v>7.94</v>
+        <v>8.92</v>
       </c>
       <c r="K107">
-        <v>11.54</v>
+        <v>7.43</v>
       </c>
       <c r="L107">
-        <v>8.4499999999999993</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+        <v>13.38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>113</v>
       </c>
@@ -5104,34 +5068,31 @@
         <v>7</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E108">
         <v>2</v>
       </c>
       <c r="F108">
-        <v>72.47</v>
+        <v>75.25</v>
       </c>
       <c r="G108">
+        <v>13.84</v>
+      </c>
+      <c r="H108">
+        <v>7.98</v>
+      </c>
+      <c r="I108">
+        <v>10.07</v>
+      </c>
+      <c r="J108">
+        <v>43.36</v>
+      </c>
+      <c r="K108">
         <v>0</v>
       </c>
-      <c r="H108">
-        <v>42.74</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108">
-        <v>8.92</v>
-      </c>
-      <c r="K108">
-        <v>7.43</v>
-      </c>
-      <c r="L108">
-        <v>13.38</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>114</v>
       </c>
@@ -5145,28 +5106,31 @@
         <v>2</v>
       </c>
       <c r="E109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>75.25</v>
+        <v>59.42</v>
       </c>
       <c r="G109">
-        <v>13.84</v>
+        <v>4.47</v>
       </c>
       <c r="H109">
-        <v>7.98</v>
+        <v>5.95</v>
       </c>
       <c r="I109">
-        <v>10.07</v>
+        <v>18.91</v>
       </c>
       <c r="J109">
-        <v>43.36</v>
+        <v>18.91</v>
       </c>
       <c r="K109">
+        <v>11.18</v>
+      </c>
+      <c r="L109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -5180,31 +5144,31 @@
         <v>2</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F110">
-        <v>59.42</v>
+        <v>90.43</v>
       </c>
       <c r="G110">
-        <v>4.47</v>
+        <v>23.54</v>
       </c>
       <c r="H110">
-        <v>5.95</v>
+        <v>23.54</v>
       </c>
       <c r="I110">
-        <v>18.91</v>
+        <v>10.36</v>
       </c>
       <c r="J110">
-        <v>18.91</v>
+        <v>6.31</v>
       </c>
       <c r="K110">
-        <v>11.18</v>
+        <v>15.34</v>
       </c>
       <c r="L110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>116</v>
       </c>
@@ -5221,33 +5185,30 @@
         <v>2</v>
       </c>
       <c r="F111">
-        <v>90.43</v>
+        <v>53.97</v>
       </c>
       <c r="G111">
-        <v>23.54</v>
+        <v>11.18</v>
       </c>
       <c r="H111">
-        <v>23.54</v>
+        <v>11.18</v>
       </c>
       <c r="I111">
-        <v>10.36</v>
+        <v>13.1</v>
       </c>
       <c r="J111">
-        <v>6.31</v>
+        <v>11.8</v>
       </c>
       <c r="K111">
-        <v>15.34</v>
-      </c>
-      <c r="L111">
-        <v>11.34</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>117</v>
       </c>
       <c r="B112">
-        <v>569900</v>
+        <v>574900</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
@@ -5259,25 +5220,28 @@
         <v>2</v>
       </c>
       <c r="F112">
-        <v>53.97</v>
+        <v>69.97</v>
       </c>
       <c r="G112">
-        <v>11.18</v>
+        <v>19.22</v>
       </c>
       <c r="H112">
-        <v>11.18</v>
+        <v>19.22</v>
       </c>
       <c r="I112">
-        <v>13.1</v>
+        <v>10.68</v>
       </c>
       <c r="J112">
-        <v>11.8</v>
+        <v>13.06</v>
       </c>
       <c r="K112">
-        <v>6.71</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4.77</v>
+      </c>
+      <c r="L112">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>118</v>
       </c>
@@ -5294,28 +5258,31 @@
         <v>2</v>
       </c>
       <c r="F113">
-        <v>69.97</v>
+        <v>61.51</v>
       </c>
       <c r="G113">
-        <v>19.22</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>19.22</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>10.68</v>
+        <v>8.18</v>
       </c>
       <c r="J113">
-        <v>13.06</v>
+        <v>10.22</v>
       </c>
       <c r="K113">
-        <v>4.7699999999999996</v>
+        <v>18.58</v>
       </c>
       <c r="L113">
-        <v>3.02</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+        <v>18.58</v>
+      </c>
+      <c r="M113">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>119</v>
       </c>
@@ -5332,71 +5299,68 @@
         <v>2</v>
       </c>
       <c r="F114">
-        <v>61.51</v>
+        <v>63.45</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>5.95</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>18.97</v>
       </c>
       <c r="I114">
-        <v>8.18</v>
+        <v>18.97</v>
       </c>
       <c r="J114">
-        <v>10.220000000000001</v>
+        <v>11.07</v>
       </c>
       <c r="K114">
-        <v>18.579999999999998</v>
-      </c>
-      <c r="L114">
-        <v>18.579999999999998</v>
-      </c>
-      <c r="M114">
-        <v>5.95</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>120</v>
       </c>
       <c r="B115">
-        <v>574900</v>
+        <v>574999</v>
       </c>
       <c r="C115" t="s">
         <v>7</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E115">
         <v>2</v>
       </c>
       <c r="F115">
-        <v>63.45</v>
+        <v>92.58</v>
       </c>
       <c r="G115">
-        <v>5.95</v>
+        <v>26.43</v>
       </c>
       <c r="H115">
-        <v>18.97</v>
+        <v>26.43</v>
       </c>
       <c r="I115">
-        <v>18.97</v>
+        <v>7.64</v>
       </c>
       <c r="J115">
-        <v>11.07</v>
+        <v>6</v>
       </c>
       <c r="K115">
-        <v>8.49</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+        <v>14.94</v>
+      </c>
+      <c r="L115">
+        <v>11.14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>121</v>
       </c>
       <c r="B116">
-        <v>574999</v>
+        <v>575000</v>
       </c>
       <c r="C116" t="s">
         <v>7</v>
@@ -5408,28 +5372,31 @@
         <v>2</v>
       </c>
       <c r="F116">
-        <v>92.58</v>
+        <v>73.5</v>
       </c>
       <c r="G116">
-        <v>26.43</v>
+        <v>20</v>
       </c>
       <c r="H116">
-        <v>26.43</v>
+        <v>8.08</v>
       </c>
       <c r="I116">
-        <v>7.64</v>
+        <v>10.21</v>
       </c>
       <c r="J116">
-        <v>6</v>
+        <v>13.86</v>
       </c>
       <c r="K116">
-        <v>14.94</v>
+        <v>12.86</v>
       </c>
       <c r="L116">
-        <v>11.14</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.49</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>122</v>
       </c>
@@ -5446,31 +5413,28 @@
         <v>2</v>
       </c>
       <c r="F117">
-        <v>73.5</v>
+        <v>76.16</v>
       </c>
       <c r="G117">
-        <v>20</v>
+        <v>7.78</v>
       </c>
       <c r="H117">
-        <v>8.08</v>
+        <v>20.05</v>
       </c>
       <c r="I117">
-        <v>10.210000000000001</v>
+        <v>20.05</v>
       </c>
       <c r="J117">
-        <v>13.86</v>
+        <v>12.26</v>
       </c>
       <c r="K117">
-        <v>12.86</v>
+        <v>8.51</v>
       </c>
       <c r="L117">
-        <v>8.49</v>
-      </c>
-      <c r="M117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7.51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>123</v>
       </c>
@@ -5481,107 +5445,107 @@
         <v>7</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F118">
-        <v>607.85</v>
+        <v>66.01</v>
       </c>
       <c r="G118">
-        <v>190</v>
+        <v>17.17</v>
       </c>
       <c r="H118">
-        <v>190</v>
+        <v>17.17</v>
       </c>
       <c r="I118">
-        <v>65.599999999999994</v>
+        <v>6.34</v>
       </c>
       <c r="J118">
-        <v>115</v>
+        <v>11.13</v>
       </c>
       <c r="K118">
-        <v>47.25</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="L118">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>124</v>
       </c>
       <c r="B119">
-        <v>575000</v>
+        <v>579000</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E119">
         <v>2</v>
       </c>
       <c r="F119">
-        <v>76.16</v>
+        <v>60.88</v>
       </c>
       <c r="G119">
-        <v>7.78</v>
+        <v>12.54</v>
       </c>
       <c r="H119">
-        <v>20.05</v>
+        <v>10.4</v>
       </c>
       <c r="I119">
-        <v>20.05</v>
+        <v>0.77</v>
       </c>
       <c r="J119">
-        <v>12.26</v>
+        <v>7.49</v>
       </c>
       <c r="K119">
-        <v>8.51</v>
+        <v>8.13</v>
       </c>
       <c r="L119">
-        <v>7.51</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21.55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>125</v>
       </c>
       <c r="B120">
-        <v>575000</v>
+        <v>579000</v>
       </c>
       <c r="C120" t="s">
         <v>7</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E120">
         <v>2</v>
       </c>
       <c r="F120">
-        <v>66.010000000000005</v>
+        <v>55.41</v>
       </c>
       <c r="G120">
-        <v>17.170000000000002</v>
+        <v>14.19</v>
       </c>
       <c r="H120">
-        <v>17.170000000000002</v>
+        <v>9.83</v>
       </c>
       <c r="I120">
-        <v>6.34</v>
+        <v>9.07</v>
       </c>
       <c r="J120">
-        <v>11.13</v>
+        <v>13.2</v>
       </c>
       <c r="K120">
-        <v>10</v>
-      </c>
-      <c r="L120">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>126</v>
       </c>
@@ -5598,28 +5562,25 @@
         <v>2</v>
       </c>
       <c r="F121">
-        <v>60.88</v>
+        <v>57.38</v>
       </c>
       <c r="G121">
-        <v>12.54</v>
+        <v>17.4</v>
       </c>
       <c r="H121">
-        <v>10.4</v>
+        <v>17.4</v>
       </c>
       <c r="I121">
-        <v>0.77</v>
+        <v>6.69</v>
       </c>
       <c r="J121">
-        <v>7.49</v>
+        <v>8.55</v>
       </c>
       <c r="K121">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="L121">
-        <v>21.55</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>127</v>
       </c>
@@ -5630,71 +5591,86 @@
         <v>7</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E122">
         <v>2</v>
       </c>
       <c r="F122">
-        <v>55.41</v>
+        <v>52.94</v>
       </c>
       <c r="G122">
-        <v>14.19</v>
+        <v>13.28</v>
       </c>
       <c r="H122">
-        <v>9.83</v>
+        <v>7.67</v>
       </c>
       <c r="I122">
-        <v>9.07</v>
+        <v>5.02</v>
       </c>
       <c r="J122">
-        <v>13.2</v>
+        <v>13.57</v>
       </c>
       <c r="K122">
-        <v>9.1199999999999992</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+        <v>6.71</v>
+      </c>
+      <c r="L122">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>128</v>
       </c>
       <c r="B123">
-        <v>579000</v>
+        <v>579900</v>
       </c>
       <c r="C123" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E123">
         <v>2</v>
       </c>
       <c r="F123">
-        <v>897.8</v>
+        <v>138.48</v>
       </c>
       <c r="G123">
-        <v>237</v>
+        <v>23.1</v>
       </c>
       <c r="H123">
-        <v>237</v>
+        <v>19.72</v>
       </c>
       <c r="I123">
-        <v>237</v>
+        <v>11.51</v>
       </c>
       <c r="J123">
-        <v>110</v>
+        <v>21.53</v>
       </c>
       <c r="K123">
-        <v>76.8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.5</v>
+      </c>
+      <c r="L123">
+        <v>10.89</v>
+      </c>
+      <c r="M123">
+        <v>23</v>
+      </c>
+      <c r="N123">
+        <v>10.54</v>
+      </c>
+      <c r="O123">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B124">
-        <v>579000</v>
+        <v>579900</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
@@ -5706,186 +5682,183 @@
         <v>2</v>
       </c>
       <c r="F124">
-        <v>57.38</v>
+        <v>65.95</v>
       </c>
       <c r="G124">
-        <v>17.399999999999999</v>
+        <v>19.62</v>
       </c>
       <c r="H124">
-        <v>17.399999999999999</v>
+        <v>19.62</v>
       </c>
       <c r="I124">
-        <v>6.69</v>
+        <v>5.88</v>
       </c>
       <c r="J124">
-        <v>8.5500000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="K124">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+        <v>10.03</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B125">
-        <v>579000</v>
+        <v>585000</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
       </c>
       <c r="D125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E125">
         <v>2</v>
       </c>
       <c r="F125">
-        <v>52.94</v>
+        <v>48.33</v>
       </c>
       <c r="G125">
-        <v>13.28</v>
+        <v>17.17</v>
       </c>
       <c r="H125">
-        <v>7.67</v>
+        <v>17.17</v>
       </c>
       <c r="I125">
-        <v>5.0199999999999996</v>
+        <v>0</v>
       </c>
       <c r="J125">
-        <v>13.57</v>
+        <v>4.21</v>
       </c>
       <c r="K125">
-        <v>6.71</v>
+        <v>9.78</v>
       </c>
       <c r="L125">
-        <v>6.69</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B126">
-        <v>579900</v>
+        <v>589000</v>
       </c>
       <c r="C126" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E126">
         <v>2</v>
       </c>
       <c r="F126">
-        <v>138.47999999999999</v>
+        <v>68.54</v>
       </c>
       <c r="G126">
-        <v>23.1</v>
+        <v>10.86</v>
       </c>
       <c r="H126">
-        <v>19.72</v>
+        <v>15.76</v>
       </c>
       <c r="I126">
-        <v>11.51</v>
+        <v>10.48</v>
       </c>
       <c r="J126">
-        <v>21.53</v>
+        <v>15.68</v>
       </c>
       <c r="K126">
-        <v>8.5</v>
+        <v>9.3</v>
       </c>
       <c r="L126">
-        <v>10.89</v>
-      </c>
-      <c r="M126">
-        <v>23</v>
-      </c>
-      <c r="N126">
-        <v>10.54</v>
-      </c>
-      <c r="O126">
-        <v>9.69</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>133</v>
       </c>
       <c r="B127">
-        <v>579900</v>
+        <v>589000</v>
       </c>
       <c r="C127" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F127">
-        <v>65.95</v>
+        <v>55.39</v>
       </c>
       <c r="G127">
-        <v>19.62</v>
+        <v>11.62</v>
       </c>
       <c r="H127">
-        <v>19.62</v>
+        <v>8.09</v>
       </c>
       <c r="I127">
-        <v>5.88</v>
+        <v>13.27</v>
       </c>
       <c r="J127">
-        <v>10.8</v>
+        <v>10.22</v>
       </c>
       <c r="K127">
-        <v>10.029999999999999</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+        <v>6.7</v>
+      </c>
+      <c r="L127">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>134</v>
       </c>
       <c r="B128">
-        <v>585000</v>
+        <v>589000</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E128">
         <v>2</v>
       </c>
       <c r="F128">
-        <v>48.33</v>
+        <v>80.71</v>
       </c>
       <c r="G128">
-        <v>17.170000000000002</v>
+        <v>17.65</v>
       </c>
       <c r="H128">
-        <v>17.170000000000002</v>
+        <v>11.22</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>6.96</v>
       </c>
       <c r="J128">
-        <v>4.21</v>
+        <v>15.41</v>
       </c>
       <c r="K128">
-        <v>9.7799999999999994</v>
+        <v>13.74</v>
       </c>
       <c r="L128">
-        <v>0</v>
+        <v>9.52</v>
       </c>
       <c r="M128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -5902,28 +5875,28 @@
         <v>2</v>
       </c>
       <c r="F129">
-        <v>68.540000000000006</v>
+        <v>87.44</v>
       </c>
       <c r="G129">
-        <v>10.86</v>
+        <v>17.09</v>
       </c>
       <c r="H129">
-        <v>15.76</v>
+        <v>22.98</v>
       </c>
       <c r="I129">
-        <v>10.48</v>
+        <v>22.98</v>
       </c>
       <c r="J129">
-        <v>15.68</v>
+        <v>6.96</v>
       </c>
       <c r="K129">
-        <v>9.3000000000000007</v>
+        <v>5.85</v>
       </c>
       <c r="L129">
-        <v>6.46</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -5931,37 +5904,37 @@
         <v>589000</v>
       </c>
       <c r="C130" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F130">
-        <v>55.39</v>
+        <v>61.11</v>
       </c>
       <c r="G130">
-        <v>11.62</v>
+        <v>14.57</v>
       </c>
       <c r="H130">
-        <v>8.09</v>
+        <v>10.23</v>
       </c>
       <c r="I130">
-        <v>13.27</v>
+        <v>8.99</v>
       </c>
       <c r="J130">
-        <v>10.220000000000001</v>
+        <v>12.21</v>
       </c>
       <c r="K130">
-        <v>6.7</v>
+        <v>8.91</v>
       </c>
       <c r="L130">
-        <v>5.49</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -5972,37 +5945,34 @@
         <v>7</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E131">
         <v>2</v>
       </c>
       <c r="F131">
-        <v>80.709999999999994</v>
+        <v>61.11</v>
       </c>
       <c r="G131">
-        <v>17.649999999999999</v>
+        <v>14.57</v>
       </c>
       <c r="H131">
-        <v>11.22</v>
+        <v>10.23</v>
       </c>
       <c r="I131">
-        <v>6.96</v>
+        <v>8.99</v>
       </c>
       <c r="J131">
-        <v>15.41</v>
+        <v>12.21</v>
       </c>
       <c r="K131">
-        <v>13.74</v>
+        <v>8.91</v>
       </c>
       <c r="L131">
-        <v>9.52</v>
-      </c>
-      <c r="M131">
-        <v>6.21</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -6013,39 +5983,39 @@
         <v>7</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E132">
         <v>2</v>
       </c>
       <c r="F132">
-        <v>87.44</v>
+        <v>61.98</v>
       </c>
       <c r="G132">
-        <v>17.09</v>
+        <v>15.54</v>
       </c>
       <c r="H132">
-        <v>22.98</v>
+        <v>8.12</v>
       </c>
       <c r="I132">
-        <v>22.98</v>
+        <v>9.01</v>
       </c>
       <c r="J132">
-        <v>6.96</v>
+        <v>6.51</v>
       </c>
       <c r="K132">
-        <v>5.85</v>
+        <v>13.59</v>
       </c>
       <c r="L132">
-        <v>11.58</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>139</v>
       </c>
       <c r="B133">
-        <v>589000</v>
+        <v>589800</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
@@ -6057,33 +6027,30 @@
         <v>2</v>
       </c>
       <c r="F133">
-        <v>61.11</v>
+        <v>59.88</v>
       </c>
       <c r="G133">
-        <v>14.57</v>
+        <v>5.95</v>
       </c>
       <c r="H133">
-        <v>10.23</v>
+        <v>18.21</v>
       </c>
       <c r="I133">
-        <v>8.99</v>
+        <v>18.21</v>
       </c>
       <c r="J133">
-        <v>12.21</v>
+        <v>10.19</v>
       </c>
       <c r="K133">
-        <v>8.91</v>
-      </c>
-      <c r="L133">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>140</v>
       </c>
       <c r="B134">
-        <v>589000</v>
+        <v>589900</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
@@ -6095,106 +6062,115 @@
         <v>2</v>
       </c>
       <c r="F134">
-        <v>61.11</v>
+        <v>37.21</v>
       </c>
       <c r="G134">
-        <v>14.57</v>
+        <v>15.84</v>
       </c>
       <c r="H134">
-        <v>10.23</v>
+        <v>5.1</v>
       </c>
       <c r="I134">
-        <v>8.99</v>
+        <v>13.49</v>
       </c>
       <c r="J134">
-        <v>12.21</v>
+        <v>0</v>
       </c>
       <c r="K134">
-        <v>8.91</v>
+        <v>0</v>
       </c>
       <c r="L134">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2.78</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>141</v>
       </c>
       <c r="B135">
-        <v>589000</v>
+        <v>589900</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E135">
         <v>2</v>
       </c>
       <c r="F135">
-        <v>61.98</v>
+        <v>37.12</v>
       </c>
       <c r="G135">
-        <v>15.54</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>8.1199999999999992</v>
+        <v>2.79</v>
       </c>
       <c r="I135">
-        <v>9.01</v>
+        <v>0</v>
       </c>
       <c r="J135">
-        <v>6.51</v>
+        <v>0</v>
       </c>
       <c r="K135">
-        <v>13.59</v>
+        <v>13.46</v>
       </c>
       <c r="L135">
-        <v>9.2100000000000009</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+        <v>5.03</v>
+      </c>
+      <c r="M135">
+        <v>15.84</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>142</v>
       </c>
       <c r="B136">
-        <v>589800</v>
+        <v>589900</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E136">
         <v>2</v>
       </c>
       <c r="F136">
-        <v>59.88</v>
+        <v>79.2</v>
       </c>
       <c r="G136">
-        <v>5.95</v>
+        <v>23.94</v>
       </c>
       <c r="H136">
-        <v>18.21</v>
+        <v>10.05</v>
       </c>
       <c r="I136">
-        <v>18.21</v>
+        <v>13.88</v>
       </c>
       <c r="J136">
-        <v>10.19</v>
+        <v>13.7</v>
       </c>
       <c r="K136">
-        <v>7.32</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+        <v>17.63</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>143</v>
       </c>
       <c r="B137">
-        <v>589900</v>
+        <v>590000</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
@@ -6206,77 +6182,74 @@
         <v>2</v>
       </c>
       <c r="F137">
-        <v>37.21</v>
+        <v>78.67</v>
       </c>
       <c r="G137">
-        <v>15.84</v>
+        <v>20.47</v>
       </c>
       <c r="H137">
-        <v>5.0999999999999996</v>
+        <v>14.32</v>
       </c>
       <c r="I137">
-        <v>13.49</v>
+        <v>20.47</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>13.66</v>
       </c>
       <c r="K137">
-        <v>0</v>
-      </c>
-      <c r="L137">
-        <v>2.78</v>
-      </c>
-      <c r="M137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>144</v>
       </c>
       <c r="B138">
-        <v>589900</v>
+        <v>596500</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E138">
         <v>2</v>
       </c>
       <c r="F138">
-        <v>37.119999999999997</v>
+        <v>76.11</v>
       </c>
       <c r="G138">
         <v>0</v>
       </c>
       <c r="H138">
-        <v>2.79</v>
+        <v>21.33</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>28.69</v>
       </c>
       <c r="J138">
         <v>0</v>
       </c>
       <c r="K138">
-        <v>13.46</v>
+        <v>11.91</v>
       </c>
       <c r="L138">
-        <v>5.03</v>
+        <v>8.87</v>
       </c>
       <c r="M138">
-        <v>15.84</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+        <v>5.31</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>145</v>
       </c>
       <c r="B139">
-        <v>589900</v>
+        <v>598900</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
@@ -6288,33 +6261,42 @@
         <v>2</v>
       </c>
       <c r="F139">
-        <v>79.2</v>
+        <v>96.03</v>
       </c>
       <c r="G139">
-        <v>23.94</v>
+        <v>12.95</v>
       </c>
       <c r="H139">
-        <v>10.050000000000001</v>
+        <v>14.66</v>
       </c>
       <c r="I139">
-        <v>13.88</v>
+        <v>11.25</v>
       </c>
       <c r="J139">
-        <v>13.7</v>
+        <v>23.21</v>
       </c>
       <c r="K139">
-        <v>17.63</v>
+        <v>13.09</v>
       </c>
       <c r="L139">
+        <v>7.98</v>
+      </c>
+      <c r="M139">
+        <v>5.8</v>
+      </c>
+      <c r="N139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O139">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>146</v>
       </c>
       <c r="B140">
-        <v>590000</v>
+        <v>599000</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
@@ -6323,33 +6305,33 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F140">
-        <v>78.67</v>
+        <v>137.62</v>
       </c>
       <c r="G140">
-        <v>20.47</v>
+        <v>46.48</v>
       </c>
       <c r="H140">
-        <v>14.32</v>
+        <v>46.48</v>
       </c>
       <c r="I140">
-        <v>20.47</v>
+        <v>9.3</v>
       </c>
       <c r="J140">
-        <v>13.66</v>
+        <v>21.19</v>
       </c>
       <c r="K140">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>147</v>
       </c>
       <c r="B141">
-        <v>596500</v>
+        <v>599000</v>
       </c>
       <c r="C141" t="s">
         <v>7</v>
@@ -6361,39 +6343,33 @@
         <v>2</v>
       </c>
       <c r="F141">
-        <v>76.11</v>
+        <v>93.8</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>28.86</v>
       </c>
       <c r="H141">
-        <v>21.33</v>
+        <v>28.86</v>
       </c>
       <c r="I141">
-        <v>28.69</v>
+        <v>6.3</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>15.12</v>
       </c>
       <c r="K141">
-        <v>11.91</v>
+        <v>9.09</v>
       </c>
       <c r="L141">
-        <v>8.8699999999999992</v>
-      </c>
-      <c r="M141">
-        <v>5.31</v>
-      </c>
-      <c r="N141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>148</v>
       </c>
       <c r="B142">
-        <v>598900</v>
+        <v>599000</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
@@ -6405,37 +6381,28 @@
         <v>2</v>
       </c>
       <c r="F142">
-        <v>96.03</v>
+        <v>77.09</v>
       </c>
       <c r="G142">
-        <v>12.95</v>
+        <v>23.67</v>
       </c>
       <c r="H142">
-        <v>14.66</v>
+        <v>16.24</v>
       </c>
       <c r="I142">
-        <v>11.25</v>
+        <v>11.04</v>
       </c>
       <c r="J142">
-        <v>23.21</v>
+        <v>12.64</v>
       </c>
       <c r="K142">
-        <v>13.09</v>
+        <v>11.2</v>
       </c>
       <c r="L142">
-        <v>7.98</v>
-      </c>
-      <c r="M142">
-        <v>5.8</v>
-      </c>
-      <c r="N142">
-        <v>0</v>
-      </c>
-      <c r="O142">
-        <v>7.09</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -6449,28 +6416,28 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F143">
-        <v>137.62</v>
+        <v>70</v>
       </c>
       <c r="G143">
-        <v>46.48</v>
+        <v>20.35</v>
       </c>
       <c r="H143">
-        <v>46.48</v>
+        <v>20.35</v>
       </c>
       <c r="I143">
-        <v>9.3000000000000007</v>
+        <v>6.23</v>
       </c>
       <c r="J143">
-        <v>21.19</v>
+        <v>13.95</v>
       </c>
       <c r="K143">
-        <v>14.17</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -6487,28 +6454,28 @@
         <v>2</v>
       </c>
       <c r="F144">
-        <v>93.8</v>
+        <v>61.11</v>
       </c>
       <c r="G144">
-        <v>28.86</v>
+        <v>14.57</v>
       </c>
       <c r="H144">
-        <v>28.86</v>
+        <v>10.23</v>
       </c>
       <c r="I144">
-        <v>6.3</v>
+        <v>8.99</v>
       </c>
       <c r="J144">
-        <v>15.12</v>
+        <v>12.21</v>
       </c>
       <c r="K144">
-        <v>9.09</v>
+        <v>8.91</v>
       </c>
       <c r="L144">
-        <v>5.57</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>151</v>
       </c>
@@ -6525,139 +6492,148 @@
         <v>2</v>
       </c>
       <c r="F145">
-        <v>77.09</v>
+        <v>67.25</v>
       </c>
       <c r="G145">
-        <v>23.67</v>
+        <v>13.94</v>
       </c>
       <c r="H145">
-        <v>16.239999999999998</v>
+        <v>10.22</v>
       </c>
       <c r="I145">
-        <v>11.04</v>
+        <v>10.22</v>
       </c>
       <c r="J145">
-        <v>12.64</v>
+        <v>13.04</v>
       </c>
       <c r="K145">
-        <v>11.2</v>
+        <v>8.19</v>
       </c>
       <c r="L145">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+        <v>11.64</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>152</v>
       </c>
       <c r="B146">
-        <v>599000</v>
+        <v>599900</v>
       </c>
       <c r="C146" t="s">
         <v>7</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E146">
         <v>2</v>
       </c>
       <c r="F146">
-        <v>70</v>
+        <v>106.44</v>
       </c>
       <c r="G146">
-        <v>20.350000000000001</v>
+        <v>23.73</v>
       </c>
       <c r="H146">
-        <v>20.350000000000001</v>
+        <v>23.73</v>
       </c>
       <c r="I146">
-        <v>6.23</v>
+        <v>8.29</v>
       </c>
       <c r="J146">
-        <v>13.95</v>
+        <v>13.23</v>
       </c>
       <c r="K146">
-        <v>9.1199999999999992</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+        <v>19.21</v>
+      </c>
+      <c r="L146">
+        <v>7.92</v>
+      </c>
+      <c r="M146">
+        <v>4.41</v>
+      </c>
+      <c r="N146">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>153</v>
       </c>
       <c r="B147">
-        <v>599000</v>
+        <v>599900</v>
       </c>
       <c r="C147" t="s">
         <v>7</v>
       </c>
       <c r="D147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E147">
         <v>2</v>
       </c>
       <c r="F147">
-        <v>61.11</v>
+        <v>61.44</v>
       </c>
       <c r="G147">
-        <v>14.57</v>
+        <v>17.95</v>
       </c>
       <c r="H147">
-        <v>10.23</v>
+        <v>17.95</v>
       </c>
       <c r="I147">
-        <v>8.99</v>
+        <v>6</v>
       </c>
       <c r="J147">
-        <v>12.21</v>
+        <v>10.39</v>
       </c>
       <c r="K147">
-        <v>8.91</v>
+        <v>9.15</v>
       </c>
       <c r="L147">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>154</v>
       </c>
       <c r="B148">
-        <v>599000</v>
+        <v>599900</v>
       </c>
       <c r="C148" t="s">
         <v>7</v>
       </c>
       <c r="D148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E148">
         <v>2</v>
       </c>
       <c r="F148">
-        <v>67.25</v>
+        <v>61.44</v>
       </c>
       <c r="G148">
-        <v>13.94</v>
+        <v>17.95</v>
       </c>
       <c r="H148">
-        <v>10.220000000000001</v>
+        <v>17.95</v>
       </c>
       <c r="I148">
-        <v>10.220000000000001</v>
+        <v>6</v>
       </c>
       <c r="J148">
-        <v>13.04</v>
+        <v>10.39</v>
       </c>
       <c r="K148">
-        <v>8.19</v>
+        <v>9.15</v>
       </c>
       <c r="L148">
-        <v>11.64</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>155</v>
       </c>
@@ -6668,40 +6644,31 @@
         <v>7</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E149">
         <v>2</v>
       </c>
       <c r="F149">
-        <v>106.44</v>
+        <v>70</v>
       </c>
       <c r="G149">
-        <v>23.73</v>
+        <v>20.35</v>
       </c>
       <c r="H149">
-        <v>23.73</v>
+        <v>20.35</v>
       </c>
       <c r="I149">
-        <v>8.2899999999999991</v>
+        <v>6.23</v>
       </c>
       <c r="J149">
-        <v>13.23</v>
+        <v>13.95</v>
       </c>
       <c r="K149">
-        <v>19.21</v>
-      </c>
-      <c r="L149">
-        <v>7.92</v>
-      </c>
-      <c r="M149">
-        <v>4.41</v>
-      </c>
-      <c r="N149">
-        <v>5.92</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+        <v>9.12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>156</v>
       </c>
@@ -6715,31 +6682,31 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F150">
-        <v>61.44</v>
+        <v>95.85</v>
       </c>
       <c r="G150">
-        <v>17.95</v>
+        <v>29.37</v>
       </c>
       <c r="H150">
-        <v>17.95</v>
+        <v>29.37</v>
       </c>
       <c r="I150">
-        <v>6</v>
+        <v>10.54</v>
       </c>
       <c r="J150">
-        <v>10.39</v>
+        <v>4.66</v>
       </c>
       <c r="K150">
-        <v>9.15</v>
+        <v>11.8</v>
       </c>
       <c r="L150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>157</v>
       </c>
@@ -6750,34 +6717,34 @@
         <v>7</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E151">
         <v>2</v>
       </c>
       <c r="F151">
-        <v>61.44</v>
+        <v>77.21</v>
       </c>
       <c r="G151">
-        <v>17.95</v>
+        <v>19.44</v>
       </c>
       <c r="H151">
-        <v>17.95</v>
+        <v>19.44</v>
       </c>
       <c r="I151">
-        <v>6</v>
+        <v>12.57</v>
       </c>
       <c r="J151">
-        <v>10.39</v>
+        <v>10.31</v>
       </c>
       <c r="K151">
-        <v>9.15</v>
+        <v>8.88</v>
       </c>
       <c r="L151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -6788,31 +6755,34 @@
         <v>7</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E152">
         <v>2</v>
       </c>
       <c r="F152">
-        <v>70</v>
+        <v>74.26</v>
       </c>
       <c r="G152">
-        <v>20.350000000000001</v>
+        <v>22.04</v>
       </c>
       <c r="H152">
-        <v>20.350000000000001</v>
+        <v>10.14</v>
       </c>
       <c r="I152">
-        <v>6.23</v>
+        <v>8.94</v>
       </c>
       <c r="J152">
-        <v>13.95</v>
+        <v>17.08</v>
       </c>
       <c r="K152">
-        <v>9.1199999999999992</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+        <v>9.09</v>
+      </c>
+      <c r="L152">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -6826,31 +6796,28 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F153">
-        <v>95.85</v>
+        <v>59.27</v>
       </c>
       <c r="G153">
-        <v>29.37</v>
+        <v>20.13</v>
       </c>
       <c r="H153">
-        <v>29.37</v>
+        <v>11.04</v>
       </c>
       <c r="I153">
-        <v>10.54</v>
+        <v>5.73</v>
       </c>
       <c r="J153">
-        <v>4.66</v>
+        <v>12.37</v>
       </c>
       <c r="K153">
-        <v>11.8</v>
-      </c>
-      <c r="L153">
-        <v>10.11</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>160</v>
       </c>
@@ -6867,71 +6834,68 @@
         <v>2</v>
       </c>
       <c r="F154">
-        <v>77.209999999999994</v>
+        <v>70.79</v>
       </c>
       <c r="G154">
-        <v>19.440000000000001</v>
+        <v>20</v>
       </c>
       <c r="H154">
-        <v>19.440000000000001</v>
+        <v>20</v>
       </c>
       <c r="I154">
-        <v>12.57</v>
+        <v>5.9</v>
       </c>
       <c r="J154">
-        <v>10.31</v>
+        <v>10.5</v>
       </c>
       <c r="K154">
-        <v>8.8800000000000008</v>
+        <v>8.22</v>
       </c>
       <c r="L154">
-        <v>6.57</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>161</v>
       </c>
       <c r="B155">
-        <v>599900</v>
+        <v>599999</v>
       </c>
       <c r="C155" t="s">
         <v>7</v>
       </c>
       <c r="D155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E155">
         <v>2</v>
       </c>
       <c r="F155">
-        <v>74.260000000000005</v>
+        <v>62.27</v>
       </c>
       <c r="G155">
-        <v>22.04</v>
+        <v>17.92</v>
       </c>
       <c r="H155">
-        <v>10.14</v>
+        <v>17.92</v>
       </c>
       <c r="I155">
-        <v>8.94</v>
+        <v>4.99</v>
       </c>
       <c r="J155">
-        <v>17.079999999999998</v>
+        <v>12.08</v>
       </c>
       <c r="K155">
-        <v>9.09</v>
-      </c>
-      <c r="L155">
-        <v>6.97</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>162</v>
       </c>
       <c r="B156">
-        <v>599900</v>
+        <v>600000</v>
       </c>
       <c r="C156" t="s">
         <v>7</v>
@@ -6943,30 +6907,30 @@
         <v>2</v>
       </c>
       <c r="F156">
-        <v>59.27</v>
+        <v>63.08</v>
       </c>
       <c r="G156">
-        <v>20.13</v>
+        <v>17.82</v>
       </c>
       <c r="H156">
-        <v>11.04</v>
+        <v>17.82</v>
       </c>
       <c r="I156">
-        <v>5.73</v>
+        <v>5.59</v>
       </c>
       <c r="J156">
-        <v>12.37</v>
+        <v>12.08</v>
       </c>
       <c r="K156">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>163</v>
       </c>
       <c r="B157">
-        <v>599900</v>
+        <v>606000</v>
       </c>
       <c r="C157" t="s">
         <v>7</v>
@@ -6978,68 +6942,71 @@
         <v>2</v>
       </c>
       <c r="F157">
-        <v>70.790000000000006</v>
+        <v>79.23</v>
       </c>
       <c r="G157">
-        <v>20</v>
+        <v>20.9</v>
       </c>
       <c r="H157">
-        <v>20</v>
+        <v>20.9</v>
       </c>
       <c r="I157">
-        <v>5.9</v>
+        <v>11.98</v>
       </c>
       <c r="J157">
-        <v>10.5</v>
+        <v>9.57</v>
       </c>
       <c r="K157">
-        <v>8.2200000000000006</v>
+        <v>5.36</v>
       </c>
       <c r="L157">
-        <v>6.17</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+        <v>10.52</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>164</v>
       </c>
       <c r="B158">
-        <v>599999</v>
+        <v>612000</v>
       </c>
       <c r="C158" t="s">
         <v>7</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E158">
         <v>2</v>
       </c>
       <c r="F158">
-        <v>62.27</v>
+        <v>94.34</v>
       </c>
       <c r="G158">
-        <v>17.920000000000002</v>
+        <v>25.74</v>
       </c>
       <c r="H158">
-        <v>17.920000000000002</v>
+        <v>9.91</v>
       </c>
       <c r="I158">
-        <v>4.99</v>
+        <v>17.09</v>
       </c>
       <c r="J158">
-        <v>12.08</v>
+        <v>18.36</v>
       </c>
       <c r="K158">
-        <v>9.36</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14.24</v>
+      </c>
+      <c r="L158">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>165</v>
       </c>
       <c r="B159">
-        <v>600000</v>
+        <v>615000</v>
       </c>
       <c r="C159" t="s">
         <v>7</v>
@@ -7051,68 +7018,95 @@
         <v>2</v>
       </c>
       <c r="F159">
-        <v>63.08</v>
+        <v>150.66</v>
       </c>
       <c r="G159">
-        <v>17.82</v>
+        <v>6.04</v>
       </c>
       <c r="H159">
-        <v>17.82</v>
+        <v>36.41</v>
       </c>
       <c r="I159">
-        <v>5.59</v>
+        <v>12.52</v>
       </c>
       <c r="J159">
-        <v>12.08</v>
+        <v>21.3</v>
       </c>
       <c r="K159">
-        <v>9.77</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+        <v>12.74</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>27.41</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>18.65</v>
+      </c>
+      <c r="P159">
+        <v>15.59</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>166</v>
       </c>
       <c r="B160">
-        <v>606000</v>
+        <v>615000</v>
       </c>
       <c r="C160" t="s">
         <v>7</v>
       </c>
       <c r="D160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E160">
         <v>2</v>
       </c>
       <c r="F160">
-        <v>79.23</v>
+        <v>88.06</v>
       </c>
       <c r="G160">
-        <v>20.9</v>
+        <v>9.3</v>
       </c>
       <c r="H160">
-        <v>20.9</v>
+        <v>13.02</v>
       </c>
       <c r="I160">
-        <v>11.98</v>
+        <v>0</v>
       </c>
       <c r="J160">
-        <v>9.57</v>
+        <v>19.52</v>
       </c>
       <c r="K160">
-        <v>5.36</v>
+        <v>0</v>
       </c>
       <c r="L160">
-        <v>10.52</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+        <v>5.2</v>
+      </c>
+      <c r="M160">
+        <v>8.17</v>
+      </c>
+      <c r="N160">
+        <v>9.18</v>
+      </c>
+      <c r="O160">
+        <v>21.44</v>
+      </c>
+      <c r="P160">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>167</v>
       </c>
       <c r="B161">
-        <v>612000</v>
+        <v>619000</v>
       </c>
       <c r="C161" t="s">
         <v>7</v>
@@ -7124,33 +7118,33 @@
         <v>2</v>
       </c>
       <c r="F161">
-        <v>94.34</v>
+        <v>73.29</v>
       </c>
       <c r="G161">
-        <v>25.74</v>
+        <v>19.9</v>
       </c>
       <c r="H161">
-        <v>9.91</v>
+        <v>19.9</v>
       </c>
       <c r="I161">
-        <v>17.09</v>
+        <v>6.66</v>
       </c>
       <c r="J161">
-        <v>18.36</v>
+        <v>11.65</v>
       </c>
       <c r="K161">
-        <v>14.24</v>
+        <v>8.77</v>
       </c>
       <c r="L161">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>168</v>
       </c>
       <c r="B162">
-        <v>615000</v>
+        <v>619000</v>
       </c>
       <c r="C162" t="s">
         <v>7</v>
@@ -7162,95 +7156,68 @@
         <v>2</v>
       </c>
       <c r="F162">
-        <v>150.66</v>
+        <v>61.3</v>
       </c>
       <c r="G162">
-        <v>6.04</v>
+        <v>16.56</v>
       </c>
       <c r="H162">
-        <v>36.409999999999997</v>
+        <v>16.56</v>
       </c>
       <c r="I162">
-        <v>12.52</v>
+        <v>8.06</v>
       </c>
       <c r="J162">
-        <v>21.3</v>
+        <v>11.03</v>
       </c>
       <c r="K162">
-        <v>12.74</v>
-      </c>
-      <c r="L162">
-        <v>0</v>
-      </c>
-      <c r="M162">
-        <v>27.41</v>
-      </c>
-      <c r="N162">
-        <v>0</v>
-      </c>
-      <c r="O162">
-        <v>18.649999999999999</v>
-      </c>
-      <c r="P162">
-        <v>15.59</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>169</v>
       </c>
       <c r="B163">
-        <v>615000</v>
+        <v>619900</v>
       </c>
       <c r="C163" t="s">
         <v>7</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E163">
         <v>2</v>
       </c>
       <c r="F163">
-        <v>88.06</v>
+        <v>76.51</v>
       </c>
       <c r="G163">
-        <v>9.3000000000000007</v>
+        <v>19.25</v>
       </c>
       <c r="H163">
-        <v>13.02</v>
+        <v>19.25</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>12.51</v>
       </c>
       <c r="J163">
-        <v>19.52</v>
+        <v>11</v>
       </c>
       <c r="K163">
-        <v>0</v>
+        <v>9.06</v>
       </c>
       <c r="L163">
-        <v>5.2</v>
-      </c>
-      <c r="M163">
-        <v>8.17</v>
-      </c>
-      <c r="N163">
-        <v>9.18</v>
-      </c>
-      <c r="O163">
-        <v>21.44</v>
-      </c>
-      <c r="P163">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>170</v>
       </c>
       <c r="B164">
-        <v>619000</v>
+        <v>619900</v>
       </c>
       <c r="C164" t="s">
         <v>7</v>
@@ -7262,106 +7229,106 @@
         <v>2</v>
       </c>
       <c r="F164">
-        <v>73.290000000000006</v>
+        <v>64.01</v>
       </c>
       <c r="G164">
-        <v>19.899999999999999</v>
+        <v>17.7</v>
       </c>
       <c r="H164">
-        <v>19.899999999999999</v>
+        <v>17.7</v>
       </c>
       <c r="I164">
-        <v>6.66</v>
+        <v>6.95</v>
       </c>
       <c r="J164">
-        <v>11.65</v>
+        <v>9.24</v>
       </c>
       <c r="K164">
-        <v>8.77</v>
+        <v>8.33</v>
       </c>
       <c r="L164">
-        <v>6.41</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>171</v>
       </c>
       <c r="B165">
-        <v>619000</v>
+        <v>619900</v>
       </c>
       <c r="C165" t="s">
         <v>7</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E165">
         <v>2</v>
       </c>
       <c r="F165">
-        <v>61.3</v>
+        <v>64.01</v>
       </c>
       <c r="G165">
-        <v>16.559999999999999</v>
+        <v>17.7</v>
       </c>
       <c r="H165">
-        <v>16.559999999999999</v>
+        <v>17.7</v>
       </c>
       <c r="I165">
-        <v>8.06</v>
+        <v>6.95</v>
       </c>
       <c r="J165">
-        <v>11.03</v>
+        <v>9.24</v>
       </c>
       <c r="K165">
-        <v>9.09</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+        <v>8.33</v>
+      </c>
+      <c r="L165">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>172</v>
       </c>
       <c r="B166">
-        <v>619900</v>
+        <v>620000</v>
       </c>
       <c r="C166" t="s">
         <v>7</v>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E166">
         <v>2</v>
       </c>
       <c r="F166">
-        <v>76.510000000000005</v>
+        <v>74.09</v>
       </c>
       <c r="G166">
-        <v>19.25</v>
+        <v>22.69</v>
       </c>
       <c r="H166">
-        <v>19.25</v>
+        <v>22.69</v>
       </c>
       <c r="I166">
-        <v>12.51</v>
+        <v>6.99</v>
       </c>
       <c r="J166">
-        <v>11</v>
+        <v>13.36</v>
       </c>
       <c r="K166">
-        <v>9.06</v>
-      </c>
-      <c r="L166">
-        <v>5.44</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>173</v>
       </c>
       <c r="B167">
-        <v>619900</v>
+        <v>620000</v>
       </c>
       <c r="C167" t="s">
         <v>7</v>
@@ -7373,33 +7340,33 @@
         <v>2</v>
       </c>
       <c r="F167">
-        <v>64.010000000000005</v>
+        <v>154.71</v>
       </c>
       <c r="G167">
-        <v>17.7</v>
+        <v>21.42</v>
       </c>
       <c r="H167">
-        <v>17.7</v>
+        <v>21.42</v>
       </c>
       <c r="I167">
-        <v>6.95</v>
+        <v>5.69</v>
       </c>
       <c r="J167">
-        <v>9.24</v>
+        <v>16.32</v>
       </c>
       <c r="K167">
-        <v>8.33</v>
+        <v>77</v>
       </c>
       <c r="L167">
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+        <v>12.86</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>174</v>
       </c>
       <c r="B168">
-        <v>619900</v>
+        <v>625000</v>
       </c>
       <c r="C168" t="s">
         <v>7</v>
@@ -7411,7 +7378,7 @@
         <v>2</v>
       </c>
       <c r="F168">
-        <v>64.010000000000005</v>
+        <v>64.01</v>
       </c>
       <c r="G168">
         <v>17.7</v>
@@ -7432,193 +7399,196 @@
         <v>4.09</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>175</v>
       </c>
       <c r="B169">
-        <v>620000</v>
-      </c>
-      <c r="C169" t="s">
-        <v>7</v>
+        <v>629000</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E169">
         <v>2</v>
       </c>
       <c r="F169">
-        <v>74.09</v>
+        <v>71.97</v>
       </c>
       <c r="G169">
-        <v>22.69</v>
+        <v>18.43</v>
       </c>
       <c r="H169">
-        <v>22.69</v>
+        <v>18.39</v>
       </c>
       <c r="I169">
-        <v>6.99</v>
+        <v>5.95</v>
       </c>
       <c r="J169">
-        <v>13.36</v>
+        <v>13.32</v>
       </c>
       <c r="K169">
-        <v>8.36</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+        <v>8.63</v>
+      </c>
+      <c r="L169">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>176</v>
       </c>
       <c r="B170">
-        <v>620000</v>
+        <v>629999</v>
       </c>
       <c r="C170" t="s">
         <v>7</v>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E170">
         <v>2</v>
       </c>
       <c r="F170">
-        <v>154.71</v>
+        <v>57.54</v>
       </c>
       <c r="G170">
-        <v>21.42</v>
+        <v>13.53</v>
       </c>
       <c r="H170">
-        <v>21.42</v>
+        <v>13.53</v>
       </c>
       <c r="I170">
-        <v>5.69</v>
+        <v>10.8</v>
       </c>
       <c r="J170">
-        <v>16.32</v>
+        <v>8.37</v>
       </c>
       <c r="K170">
-        <v>77</v>
-      </c>
-      <c r="L170">
-        <v>12.86</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+        <v>11.31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>177</v>
       </c>
       <c r="B171">
-        <v>625000</v>
+        <v>632000</v>
       </c>
       <c r="C171" t="s">
         <v>7</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E171">
         <v>2</v>
       </c>
       <c r="F171">
-        <v>64.010000000000005</v>
+        <v>73.9</v>
       </c>
       <c r="G171">
-        <v>17.7</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>17.7</v>
+        <v>13.1</v>
       </c>
       <c r="I171">
-        <v>6.95</v>
+        <v>0</v>
       </c>
       <c r="J171">
-        <v>9.24</v>
+        <v>10.05</v>
       </c>
       <c r="K171">
-        <v>8.33</v>
+        <v>14.09</v>
       </c>
       <c r="L171">
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27.1</v>
+      </c>
+      <c r="M171">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>178</v>
       </c>
       <c r="B172">
-        <v>629000</v>
+        <v>635000</v>
+      </c>
+      <c r="C172" t="s">
+        <v>7</v>
       </c>
       <c r="D172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E172">
         <v>2</v>
       </c>
       <c r="F172">
-        <v>71.97</v>
+        <v>47.46</v>
       </c>
       <c r="G172">
-        <v>18.43</v>
+        <v>15.27</v>
       </c>
       <c r="H172">
-        <v>18.39</v>
+        <v>15.27</v>
       </c>
       <c r="I172">
-        <v>5.95</v>
+        <v>0</v>
       </c>
       <c r="J172">
-        <v>13.32</v>
+        <v>9.49</v>
       </c>
       <c r="K172">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="L172">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>179</v>
       </c>
       <c r="B173">
-        <v>629999</v>
+        <v>639000</v>
       </c>
       <c r="C173" t="s">
         <v>7</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E173">
         <v>2</v>
       </c>
       <c r="F173">
-        <v>57.54</v>
+        <v>89.45</v>
       </c>
       <c r="G173">
-        <v>13.53</v>
+        <v>19.04</v>
       </c>
       <c r="H173">
-        <v>13.53</v>
+        <v>19.04</v>
       </c>
       <c r="I173">
-        <v>10.8</v>
+        <v>6.9</v>
       </c>
       <c r="J173">
-        <v>8.3699999999999992</v>
+        <v>14.18</v>
       </c>
       <c r="K173">
-        <v>11.31</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+        <v>13.95</v>
+      </c>
+      <c r="L173">
+        <v>16.34</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>180</v>
       </c>
       <c r="B174">
-        <v>632000</v>
+        <v>639999</v>
       </c>
       <c r="C174" t="s">
         <v>7</v>
@@ -7630,71 +7600,74 @@
         <v>2</v>
       </c>
       <c r="F174">
-        <v>73.900000000000006</v>
+        <v>68.52</v>
       </c>
       <c r="G174">
         <v>0</v>
       </c>
       <c r="H174">
-        <v>13.1</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>6.69</v>
       </c>
       <c r="J174">
-        <v>10.050000000000001</v>
+        <v>8.92</v>
       </c>
       <c r="K174">
-        <v>14.09</v>
+        <v>26.34</v>
       </c>
       <c r="L174">
-        <v>27.1</v>
+        <v>15.33</v>
       </c>
       <c r="M174">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>181</v>
       </c>
       <c r="B175">
-        <v>635000</v>
+        <v>645000</v>
       </c>
       <c r="C175" t="s">
         <v>7</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E175">
         <v>2</v>
       </c>
       <c r="F175">
-        <v>47.46</v>
+        <v>67.18</v>
       </c>
       <c r="G175">
-        <v>15.27</v>
+        <v>19.38</v>
       </c>
       <c r="H175">
-        <v>15.27</v>
+        <v>19.38</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>6.86</v>
       </c>
       <c r="J175">
-        <v>9.49</v>
+        <v>9.24</v>
       </c>
       <c r="K175">
-        <v>7.43</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+        <v>8.33</v>
+      </c>
+      <c r="L175">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>182</v>
       </c>
       <c r="B176">
-        <v>639000</v>
+        <v>649000</v>
       </c>
       <c r="C176" t="s">
         <v>7</v>
@@ -7706,74 +7679,68 @@
         <v>2</v>
       </c>
       <c r="F176">
-        <v>89.45</v>
+        <v>82.28</v>
       </c>
       <c r="G176">
-        <v>19.04</v>
+        <v>23.7</v>
       </c>
       <c r="H176">
-        <v>19.04</v>
+        <v>23.7</v>
       </c>
       <c r="I176">
-        <v>6.9</v>
+        <v>8.06</v>
       </c>
       <c r="J176">
-        <v>14.18</v>
+        <v>11.69</v>
       </c>
       <c r="K176">
-        <v>13.95</v>
+        <v>8.66</v>
       </c>
       <c r="L176">
-        <v>16.34</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>183</v>
       </c>
       <c r="B177">
-        <v>639999</v>
+        <v>649900</v>
       </c>
       <c r="C177" t="s">
         <v>7</v>
       </c>
       <c r="D177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E177">
         <v>2</v>
       </c>
       <c r="F177">
-        <v>68.52</v>
+        <v>54.34</v>
       </c>
       <c r="G177">
-        <v>0</v>
+        <v>18.79</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>6.02</v>
       </c>
       <c r="I177">
-        <v>6.69</v>
+        <v>12.93</v>
       </c>
       <c r="J177">
-        <v>8.92</v>
+        <v>10.66</v>
       </c>
       <c r="K177">
-        <v>26.34</v>
-      </c>
-      <c r="L177">
-        <v>15.33</v>
-      </c>
-      <c r="M177">
-        <v>11.24</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>184</v>
       </c>
       <c r="B178">
-        <v>645000</v>
+        <v>649900</v>
       </c>
       <c r="C178" t="s">
         <v>7</v>
@@ -7785,33 +7752,33 @@
         <v>2</v>
       </c>
       <c r="F178">
-        <v>67.180000000000007</v>
+        <v>76.02</v>
       </c>
       <c r="G178">
-        <v>19.38</v>
+        <v>22.88</v>
       </c>
       <c r="H178">
-        <v>19.38</v>
+        <v>22.88</v>
       </c>
       <c r="I178">
-        <v>6.86</v>
+        <v>5.95</v>
       </c>
       <c r="J178">
-        <v>9.24</v>
+        <v>11.16</v>
       </c>
       <c r="K178">
-        <v>8.33</v>
+        <v>9.01</v>
       </c>
       <c r="L178">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>185</v>
       </c>
       <c r="B179">
-        <v>649000</v>
+        <v>649900</v>
       </c>
       <c r="C179" t="s">
         <v>7</v>
@@ -7823,68 +7790,68 @@
         <v>2</v>
       </c>
       <c r="F179">
-        <v>82.28</v>
+        <v>67.78</v>
       </c>
       <c r="G179">
-        <v>23.7</v>
+        <v>19.22</v>
       </c>
       <c r="H179">
-        <v>23.7</v>
+        <v>19.22</v>
       </c>
       <c r="I179">
-        <v>8.06</v>
+        <v>6.29</v>
       </c>
       <c r="J179">
-        <v>11.69</v>
+        <v>3.91</v>
       </c>
       <c r="K179">
-        <v>8.66</v>
+        <v>11.39</v>
       </c>
       <c r="L179">
-        <v>6.47</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>186</v>
       </c>
       <c r="B180">
-        <v>649900</v>
+        <v>649999</v>
       </c>
       <c r="C180" t="s">
         <v>7</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E180">
         <v>2</v>
       </c>
       <c r="F180">
-        <v>54.34</v>
+        <v>56.77</v>
       </c>
       <c r="G180">
-        <v>18.79</v>
+        <v>19.34</v>
       </c>
       <c r="H180">
-        <v>6.02</v>
+        <v>12.57</v>
       </c>
       <c r="I180">
-        <v>12.93</v>
+        <v>10.31</v>
       </c>
       <c r="J180">
-        <v>10.66</v>
+        <v>9.09</v>
       </c>
       <c r="K180">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>187</v>
       </c>
       <c r="B181">
-        <v>649900</v>
+        <v>650000</v>
       </c>
       <c r="C181" t="s">
         <v>7</v>
@@ -7896,352 +7863,361 @@
         <v>2</v>
       </c>
       <c r="F181">
-        <v>76.02</v>
+        <v>71.98</v>
       </c>
       <c r="G181">
-        <v>22.88</v>
+        <v>12.97</v>
       </c>
       <c r="H181">
-        <v>22.88</v>
+        <v>10.23</v>
       </c>
       <c r="I181">
-        <v>5.95</v>
+        <v>6.77</v>
       </c>
       <c r="J181">
-        <v>11.16</v>
+        <v>14.02</v>
       </c>
       <c r="K181">
-        <v>9.01</v>
+        <v>10.22</v>
       </c>
       <c r="L181">
-        <v>4.1399999999999997</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+        <v>6.8</v>
+      </c>
+      <c r="M181">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>188</v>
       </c>
       <c r="B182">
-        <v>649900</v>
+        <v>670000</v>
       </c>
       <c r="C182" t="s">
         <v>7</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E182">
         <v>2</v>
       </c>
       <c r="F182">
-        <v>67.78</v>
+        <v>67.76</v>
       </c>
       <c r="G182">
-        <v>19.22</v>
+        <v>19.6</v>
       </c>
       <c r="H182">
-        <v>19.22</v>
+        <v>6.93</v>
       </c>
       <c r="I182">
-        <v>6.29</v>
+        <v>8.5</v>
       </c>
       <c r="J182">
-        <v>3.91</v>
+        <v>3.4</v>
       </c>
       <c r="K182">
-        <v>11.39</v>
+        <v>15.05</v>
       </c>
       <c r="L182">
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>189</v>
       </c>
       <c r="B183">
-        <v>649999</v>
+        <v>673900</v>
       </c>
       <c r="C183" t="s">
         <v>7</v>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E183">
         <v>2</v>
       </c>
       <c r="F183">
-        <v>56.77</v>
+        <v>74.95</v>
       </c>
       <c r="G183">
-        <v>19.34</v>
+        <v>23.24</v>
       </c>
       <c r="H183">
-        <v>12.57</v>
+        <v>23.24</v>
       </c>
       <c r="I183">
-        <v>10.31</v>
+        <v>9.3</v>
       </c>
       <c r="J183">
-        <v>9.09</v>
+        <v>6.69</v>
       </c>
       <c r="K183">
-        <v>5.46</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+        <v>8.36</v>
+      </c>
+      <c r="L183">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>190</v>
       </c>
       <c r="B184">
-        <v>650000</v>
+        <v>674900</v>
       </c>
       <c r="C184" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="D184">
         <v>3</v>
       </c>
       <c r="E184">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F184">
-        <v>71.98</v>
+        <v>123.63</v>
       </c>
       <c r="G184">
-        <v>12.97</v>
+        <v>20.94</v>
       </c>
       <c r="H184">
-        <v>10.23</v>
+        <v>11.84</v>
       </c>
       <c r="I184">
-        <v>6.77</v>
+        <v>8.82</v>
       </c>
       <c r="J184">
-        <v>14.02</v>
+        <v>25.49</v>
       </c>
       <c r="K184">
-        <v>10.220000000000001</v>
+        <v>10.47</v>
       </c>
       <c r="L184">
-        <v>6.8</v>
+        <v>7.51</v>
       </c>
       <c r="M184">
-        <v>10.97</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+        <v>19.28</v>
+      </c>
+      <c r="N184">
+        <v>19.28</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>191</v>
       </c>
       <c r="B185">
-        <v>670000</v>
+        <v>679000</v>
       </c>
       <c r="C185" t="s">
         <v>7</v>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E185">
         <v>2</v>
       </c>
       <c r="F185">
-        <v>67.760000000000005</v>
+        <v>72.62</v>
       </c>
       <c r="G185">
-        <v>19.600000000000001</v>
+        <v>18.82</v>
       </c>
       <c r="H185">
-        <v>6.93</v>
+        <v>7.55</v>
       </c>
       <c r="I185">
-        <v>8.5</v>
+        <v>12.86</v>
       </c>
       <c r="J185">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="K185">
-        <v>15.05</v>
+        <v>14.4</v>
       </c>
       <c r="L185">
-        <v>14.28</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+        <v>9.05</v>
+      </c>
+      <c r="M185">
+        <v>5.84</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>192</v>
       </c>
       <c r="B186">
-        <v>673900</v>
+        <v>679000</v>
       </c>
       <c r="C186" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="D186">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F186">
-        <v>74.95</v>
+        <v>83.78</v>
       </c>
       <c r="G186">
-        <v>23.24</v>
+        <v>16.78</v>
       </c>
       <c r="H186">
-        <v>23.24</v>
+        <v>12.08</v>
       </c>
       <c r="I186">
-        <v>9.3000000000000007</v>
+        <v>8.98</v>
       </c>
       <c r="J186">
-        <v>6.69</v>
+        <v>12.56</v>
       </c>
       <c r="K186">
-        <v>8.36</v>
+        <v>8.92</v>
       </c>
       <c r="L186">
-        <v>4.12</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+        <v>16.52</v>
+      </c>
+      <c r="M186">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>193</v>
       </c>
       <c r="B187">
-        <v>674900</v>
+        <v>685000</v>
       </c>
       <c r="C187" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="D187">
         <v>3</v>
       </c>
       <c r="E187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F187">
-        <v>123.63</v>
+        <v>106.51</v>
       </c>
       <c r="G187">
-        <v>20.94</v>
+        <v>17.4</v>
       </c>
       <c r="H187">
-        <v>11.84</v>
+        <v>9.11</v>
       </c>
       <c r="I187">
-        <v>8.82</v>
+        <v>10.61</v>
       </c>
       <c r="J187">
-        <v>25.49</v>
+        <v>67.53</v>
       </c>
       <c r="K187">
-        <v>10.47</v>
+        <v>0</v>
       </c>
       <c r="L187">
-        <v>7.51</v>
+        <v>1.86</v>
       </c>
       <c r="M187">
-        <v>19.28</v>
-      </c>
-      <c r="N187">
-        <v>19.28</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>194</v>
       </c>
       <c r="B188">
-        <v>679000</v>
+        <v>689000</v>
       </c>
       <c r="C188" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="D188">
         <v>3</v>
       </c>
       <c r="E188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F188">
-        <v>72.62</v>
+        <v>75.66</v>
       </c>
       <c r="G188">
-        <v>18.82</v>
+        <v>11.35</v>
       </c>
       <c r="H188">
-        <v>7.55</v>
+        <v>7.59</v>
       </c>
       <c r="I188">
-        <v>12.86</v>
+        <v>12.36</v>
       </c>
       <c r="J188">
-        <v>4.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="K188">
-        <v>14.4</v>
+        <v>20.58</v>
       </c>
       <c r="L188">
-        <v>9.0500000000000007</v>
+        <v>17.4</v>
       </c>
       <c r="M188">
-        <v>5.84</v>
-      </c>
-      <c r="N188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>195</v>
       </c>
       <c r="B189">
-        <v>679000</v>
+        <v>689900</v>
       </c>
       <c r="C189" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="D189">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E189">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F189">
-        <v>83.78</v>
+        <v>72.56</v>
       </c>
       <c r="G189">
-        <v>16.78</v>
+        <v>17.26</v>
       </c>
       <c r="H189">
-        <v>12.08</v>
+        <v>17.26</v>
       </c>
       <c r="I189">
-        <v>8.98</v>
+        <v>10.14</v>
       </c>
       <c r="J189">
-        <v>12.56</v>
+        <v>4.19</v>
       </c>
       <c r="K189">
-        <v>8.92</v>
+        <v>14.62</v>
       </c>
       <c r="L189">
-        <v>16.52</v>
-      </c>
-      <c r="M189">
-        <v>7.94</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>196</v>
       </c>
       <c r="B190">
-        <v>685000</v>
+        <v>699000</v>
       </c>
       <c r="C190" t="s">
         <v>7</v>
@@ -8253,77 +8229,80 @@
         <v>2</v>
       </c>
       <c r="F190">
-        <v>106.51</v>
+        <v>82.3</v>
       </c>
       <c r="G190">
-        <v>17.399999999999999</v>
+        <v>20.64</v>
       </c>
       <c r="H190">
-        <v>9.11</v>
+        <v>11.92</v>
       </c>
       <c r="I190">
-        <v>10.61</v>
+        <v>7.25</v>
       </c>
       <c r="J190">
-        <v>67.53</v>
+        <v>9.35</v>
       </c>
       <c r="K190">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="L190">
-        <v>1.86</v>
+        <v>15.97</v>
       </c>
       <c r="M190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>197</v>
       </c>
       <c r="B191">
-        <v>689000</v>
+        <v>699000</v>
       </c>
       <c r="C191" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="D191">
         <v>3</v>
       </c>
       <c r="E191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F191">
-        <v>75.66</v>
+        <v>87.15</v>
       </c>
       <c r="G191">
-        <v>11.35</v>
+        <v>18.65</v>
       </c>
       <c r="H191">
-        <v>7.59</v>
+        <v>12.14</v>
       </c>
       <c r="I191">
-        <v>12.36</v>
+        <v>10.52</v>
       </c>
       <c r="J191">
+        <v>10.52</v>
+      </c>
+      <c r="K191">
+        <v>15.44</v>
+      </c>
+      <c r="L191">
+        <v>10.39</v>
+      </c>
+      <c r="M191">
+        <v>9.49</v>
+      </c>
+      <c r="N191">
         <v>0</v>
       </c>
-      <c r="K191">
-        <v>20.58</v>
-      </c>
-      <c r="L191">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="M191">
-        <v>6.38</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>198</v>
       </c>
       <c r="B192">
-        <v>689900</v>
+        <v>699000</v>
       </c>
       <c r="C192" t="s">
         <v>7</v>
@@ -8335,156 +8314,159 @@
         <v>2</v>
       </c>
       <c r="F192">
-        <v>72.56</v>
+        <v>75.98</v>
       </c>
       <c r="G192">
-        <v>17.260000000000002</v>
+        <v>18.13</v>
       </c>
       <c r="H192">
-        <v>17.260000000000002</v>
+        <v>12.75</v>
       </c>
       <c r="I192">
-        <v>10.14</v>
+        <v>11.5</v>
       </c>
       <c r="J192">
-        <v>4.1900000000000004</v>
+        <v>13.86</v>
       </c>
       <c r="K192">
-        <v>14.62</v>
+        <v>10.32</v>
       </c>
       <c r="L192">
-        <v>9.09</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>199</v>
       </c>
       <c r="B193">
-        <v>695000</v>
+        <v>699900</v>
       </c>
       <c r="C193" t="s">
         <v>7</v>
       </c>
       <c r="D193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E193">
         <v>2</v>
       </c>
       <c r="F193">
-        <v>819.36</v>
+        <v>55.15</v>
       </c>
       <c r="G193">
-        <v>208.08</v>
+        <v>10.16</v>
       </c>
       <c r="H193">
-        <v>208.08</v>
+        <v>8.29</v>
       </c>
       <c r="I193">
-        <v>135.19999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="J193">
-        <v>111</v>
+        <v>11.67</v>
       </c>
       <c r="K193">
-        <v>98</v>
+        <v>9.33</v>
       </c>
       <c r="L193">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3.39</v>
+      </c>
+      <c r="M193">
+        <v>3.39</v>
+      </c>
+      <c r="N193">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>200</v>
       </c>
       <c r="B194">
-        <v>699000</v>
+        <v>699900</v>
       </c>
       <c r="C194" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="D194">
         <v>3</v>
       </c>
       <c r="E194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F194">
-        <v>82.3</v>
+        <v>95.54</v>
       </c>
       <c r="G194">
-        <v>20.64</v>
+        <v>19.36</v>
       </c>
       <c r="H194">
-        <v>11.92</v>
+        <v>10.53</v>
       </c>
       <c r="I194">
-        <v>7.25</v>
+        <v>7.75</v>
       </c>
       <c r="J194">
-        <v>9.35</v>
+        <v>24.7</v>
       </c>
       <c r="K194">
-        <v>7.25</v>
+        <v>13.5</v>
       </c>
       <c r="L194">
-        <v>15.97</v>
+        <v>8.99</v>
       </c>
       <c r="M194">
-        <v>9.92</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>201</v>
       </c>
       <c r="B195">
-        <v>699000</v>
+        <v>699900</v>
       </c>
       <c r="C195" t="s">
         <v>7</v>
       </c>
       <c r="D195">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E195">
         <v>2</v>
       </c>
       <c r="F195">
-        <v>87.15</v>
+        <v>94.01</v>
       </c>
       <c r="G195">
-        <v>18.649999999999999</v>
+        <v>8.98</v>
       </c>
       <c r="H195">
-        <v>12.14</v>
+        <v>16.03</v>
       </c>
       <c r="I195">
-        <v>10.52</v>
+        <v>28.52</v>
       </c>
       <c r="J195">
-        <v>10.52</v>
+        <v>14.62</v>
       </c>
       <c r="K195">
-        <v>15.44</v>
+        <v>10.33</v>
       </c>
       <c r="L195">
-        <v>10.39</v>
+        <v>9.16</v>
       </c>
       <c r="M195">
-        <v>9.49</v>
-      </c>
-      <c r="N195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>202</v>
       </c>
       <c r="B196">
-        <v>699000</v>
+        <v>710000</v>
       </c>
       <c r="C196" t="s">
         <v>7</v>
@@ -8496,162 +8478,153 @@
         <v>2</v>
       </c>
       <c r="F196">
-        <v>75.98</v>
+        <v>66.02</v>
       </c>
       <c r="G196">
-        <v>18.13</v>
+        <v>18.18</v>
       </c>
       <c r="H196">
-        <v>12.75</v>
+        <v>18.18</v>
       </c>
       <c r="I196">
-        <v>11.5</v>
+        <v>6.68</v>
       </c>
       <c r="J196">
-        <v>13.86</v>
+        <v>9.3</v>
       </c>
       <c r="K196">
-        <v>10.32</v>
+        <v>8.42</v>
       </c>
       <c r="L196">
-        <v>9.42</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>203</v>
       </c>
       <c r="B197">
-        <v>699900</v>
+        <v>789000</v>
       </c>
       <c r="C197" t="s">
         <v>7</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E197">
         <v>2</v>
       </c>
       <c r="F197">
-        <v>55.15</v>
+        <v>81.69</v>
       </c>
       <c r="G197">
-        <v>10.16</v>
+        <v>23.6</v>
       </c>
       <c r="H197">
-        <v>8.2899999999999991</v>
+        <v>23.53</v>
       </c>
       <c r="I197">
-        <v>8.09</v>
+        <v>11.73</v>
       </c>
       <c r="J197">
-        <v>11.67</v>
+        <v>11.75</v>
       </c>
       <c r="K197">
-        <v>9.33</v>
+        <v>9.15</v>
       </c>
       <c r="L197">
-        <v>3.39</v>
-      </c>
-      <c r="M197">
-        <v>3.39</v>
-      </c>
-      <c r="N197">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>204</v>
       </c>
       <c r="B198">
-        <v>699900</v>
+        <v>796800</v>
       </c>
       <c r="C198" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D198">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E198">
         <v>3</v>
       </c>
       <c r="F198">
-        <v>95.54</v>
+        <v>98.06</v>
       </c>
       <c r="G198">
-        <v>19.36</v>
+        <v>9.7</v>
       </c>
       <c r="H198">
-        <v>10.53</v>
+        <v>9.36</v>
       </c>
       <c r="I198">
-        <v>7.75</v>
+        <v>6.56</v>
       </c>
       <c r="J198">
-        <v>24.7</v>
+        <v>29.53</v>
       </c>
       <c r="K198">
-        <v>13.5</v>
+        <v>29.53</v>
       </c>
       <c r="L198">
-        <v>8.99</v>
+        <v>6.69</v>
       </c>
       <c r="M198">
-        <v>10.71</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>205</v>
       </c>
       <c r="B199">
-        <v>699900</v>
+        <v>799000</v>
       </c>
       <c r="C199" t="s">
         <v>7</v>
       </c>
       <c r="D199">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E199">
         <v>2</v>
       </c>
       <c r="F199">
-        <v>94.01</v>
+        <v>77.25</v>
       </c>
       <c r="G199">
-        <v>8.98</v>
+        <v>21.81</v>
       </c>
       <c r="H199">
-        <v>16.03</v>
+        <v>21.81</v>
       </c>
       <c r="I199">
-        <v>28.52</v>
+        <v>8.28</v>
       </c>
       <c r="J199">
-        <v>14.62</v>
+        <v>4.34</v>
       </c>
       <c r="K199">
-        <v>10.33</v>
+        <v>11.92</v>
       </c>
       <c r="L199">
-        <v>9.16</v>
-      </c>
-      <c r="M199">
-        <v>6.37</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>206</v>
       </c>
       <c r="B200">
-        <v>710000</v>
+        <v>799900</v>
       </c>
       <c r="C200" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="D200">
         <v>3</v>
@@ -8660,282 +8633,306 @@
         <v>2</v>
       </c>
       <c r="F200">
-        <v>66.02</v>
+        <v>119.94</v>
       </c>
       <c r="G200">
-        <v>18.18</v>
+        <v>25.08</v>
       </c>
       <c r="H200">
-        <v>18.18</v>
+        <v>13.85</v>
       </c>
       <c r="I200">
-        <v>6.68</v>
+        <v>7.04</v>
       </c>
       <c r="J200">
-        <v>9.3000000000000007</v>
+        <v>13.54</v>
       </c>
       <c r="K200">
-        <v>8.42</v>
+        <v>9.72</v>
       </c>
       <c r="L200">
-        <v>5.26</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.36</v>
+      </c>
+      <c r="M200">
+        <v>15.54</v>
+      </c>
+      <c r="N200">
+        <v>10.08</v>
+      </c>
+      <c r="O200">
+        <v>15.73</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B201">
-        <v>789000</v>
+        <v>848000</v>
       </c>
       <c r="C201" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="D201">
         <v>3</v>
       </c>
       <c r="E201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F201">
-        <v>81.69</v>
+        <v>88.44</v>
       </c>
       <c r="G201">
-        <v>23.6</v>
+        <v>10.05</v>
       </c>
       <c r="H201">
-        <v>23.53</v>
+        <v>10.05</v>
       </c>
       <c r="I201">
-        <v>11.73</v>
+        <v>16.99</v>
       </c>
       <c r="J201">
-        <v>11.75</v>
+        <v>15.23</v>
       </c>
       <c r="K201">
-        <v>9.15</v>
+        <v>10.03</v>
       </c>
       <c r="L201">
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+        <v>10.03</v>
+      </c>
+      <c r="M201">
+        <v>16.06</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B202">
-        <v>796800</v>
+        <v>849999</v>
       </c>
       <c r="C202" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="D202">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E202">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F202">
-        <v>98.06</v>
+        <v>90.88</v>
       </c>
       <c r="G202">
-        <v>9.6999999999999993</v>
+        <v>26.7</v>
       </c>
       <c r="H202">
-        <v>9.36</v>
+        <v>26.7</v>
       </c>
       <c r="I202">
-        <v>6.56</v>
+        <v>7.41</v>
       </c>
       <c r="J202">
-        <v>29.53</v>
+        <v>6.53</v>
       </c>
       <c r="K202">
-        <v>29.53</v>
+        <v>11.16</v>
       </c>
       <c r="L202">
-        <v>6.69</v>
+        <v>8.45</v>
       </c>
       <c r="M202">
-        <v>6.69</v>
-      </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B203">
-        <v>799000</v>
+        <v>880000</v>
       </c>
       <c r="C203" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F203">
-        <v>77.25</v>
+        <v>84.35</v>
       </c>
       <c r="G203">
-        <v>21.81</v>
+        <v>9.28</v>
       </c>
       <c r="H203">
-        <v>21.81</v>
+        <v>9.28</v>
       </c>
       <c r="I203">
-        <v>8.2799999999999994</v>
+        <v>17.03</v>
       </c>
       <c r="J203">
-        <v>4.34</v>
+        <v>7.44</v>
       </c>
       <c r="K203">
-        <v>11.92</v>
+        <v>15.23</v>
       </c>
       <c r="L203">
-        <v>9.09</v>
-      </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+        <v>10.03</v>
+      </c>
+      <c r="M203">
+        <v>16.06</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B204">
-        <v>799900</v>
+        <v>899900</v>
       </c>
       <c r="C204" t="s">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c r="D204">
         <v>3</v>
       </c>
       <c r="E204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F204">
-        <v>119.94</v>
+        <v>68.29</v>
       </c>
       <c r="G204">
-        <v>25.08</v>
+        <v>9.28</v>
       </c>
       <c r="H204">
-        <v>13.85</v>
+        <v>9.28</v>
       </c>
       <c r="I204">
-        <v>7.04</v>
+        <v>17.03</v>
       </c>
       <c r="J204">
-        <v>13.54</v>
+        <v>7.44</v>
       </c>
       <c r="K204">
-        <v>9.7200000000000006</v>
+        <v>15.23</v>
       </c>
       <c r="L204">
-        <v>9.36</v>
-      </c>
-      <c r="M204">
-        <v>15.54</v>
-      </c>
-      <c r="N204">
-        <v>10.08</v>
-      </c>
-      <c r="O204">
-        <v>15.73</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+        <v>10.03</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>212</v>
       </c>
       <c r="B205">
-        <v>848000</v>
+        <v>899999</v>
       </c>
       <c r="C205" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="D205">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E205">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F205">
-        <v>88.44</v>
+        <v>138.57</v>
       </c>
       <c r="G205">
-        <v>10.050000000000001</v>
+        <v>15.28</v>
       </c>
       <c r="H205">
-        <v>10.050000000000001</v>
+        <v>11.66</v>
       </c>
       <c r="I205">
-        <v>16.989999999999998</v>
+        <v>9.52</v>
       </c>
       <c r="J205">
-        <v>15.23</v>
+        <v>7.44</v>
       </c>
       <c r="K205">
-        <v>10.029999999999999</v>
+        <v>21.47</v>
       </c>
       <c r="L205">
-        <v>10.029999999999999</v>
+        <v>11.22</v>
       </c>
       <c r="M205">
-        <v>16.059999999999999</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.2</v>
+      </c>
+      <c r="N205">
+        <v>5.27</v>
+      </c>
+      <c r="O205">
+        <v>16.64</v>
+      </c>
+      <c r="P205">
+        <v>7.32</v>
+      </c>
+      <c r="Q205">
+        <v>16.65</v>
+      </c>
+      <c r="R205">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>213</v>
       </c>
       <c r="B206">
-        <v>849999</v>
+        <v>929000</v>
       </c>
       <c r="C206" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="D206">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E206">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F206">
-        <v>90.88</v>
+        <v>136.78</v>
       </c>
       <c r="G206">
-        <v>26.7</v>
+        <v>19.03</v>
       </c>
       <c r="H206">
-        <v>26.7</v>
+        <v>13.06</v>
       </c>
       <c r="I206">
-        <v>7.41</v>
+        <v>8.47</v>
       </c>
       <c r="J206">
-        <v>6.53</v>
+        <v>33.7</v>
       </c>
       <c r="K206">
-        <v>11.16</v>
+        <v>14.77</v>
       </c>
       <c r="L206">
-        <v>8.4499999999999993</v>
+        <v>10.22</v>
       </c>
       <c r="M206">
-        <v>3.93</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+        <v>20.38</v>
+      </c>
+      <c r="N206">
+        <v>17.15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>214</v>
       </c>
       <c r="B207">
-        <v>880000</v>
+        <v>939000</v>
       </c>
       <c r="C207" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="D207">
         <v>3</v>
@@ -8944,39 +8941,45 @@
         <v>3</v>
       </c>
       <c r="F207">
-        <v>84.35</v>
+        <v>131.67</v>
       </c>
       <c r="G207">
-        <v>9.2799999999999994</v>
+        <v>24.46</v>
       </c>
       <c r="H207">
-        <v>9.2799999999999994</v>
+        <v>24.46</v>
       </c>
       <c r="I207">
-        <v>17.03</v>
+        <v>11.48</v>
       </c>
       <c r="J207">
-        <v>7.44</v>
+        <v>17.78</v>
       </c>
       <c r="K207">
-        <v>15.23</v>
+        <v>5.36</v>
       </c>
       <c r="L207">
-        <v>10.029999999999999</v>
+        <v>14.88</v>
       </c>
       <c r="M207">
-        <v>16.059999999999999</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11.26</v>
+      </c>
+      <c r="N207">
+        <v>8.94</v>
+      </c>
+      <c r="O207">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>215</v>
       </c>
       <c r="B208">
-        <v>899900</v>
+        <v>948800</v>
       </c>
       <c r="C208" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="D208">
         <v>3</v>
@@ -8985,1106 +8988,824 @@
         <v>3</v>
       </c>
       <c r="F208">
-        <v>68.290000000000006</v>
+        <v>146.71</v>
       </c>
       <c r="G208">
-        <v>9.2799999999999994</v>
+        <v>39.04</v>
       </c>
       <c r="H208">
-        <v>9.2799999999999994</v>
+        <v>39.04</v>
       </c>
       <c r="I208">
-        <v>17.03</v>
+        <v>10.17</v>
       </c>
       <c r="J208">
-        <v>7.44</v>
+        <v>11.74</v>
       </c>
       <c r="K208">
-        <v>15.23</v>
+        <v>19.03</v>
       </c>
       <c r="L208">
-        <v>10.029999999999999</v>
-      </c>
-    </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
+        <v>11.16</v>
+      </c>
+      <c r="M208">
+        <v>10.98</v>
+      </c>
+      <c r="N208">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>216</v>
       </c>
       <c r="B209">
-        <v>899999</v>
+        <v>999000</v>
       </c>
       <c r="C209" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D209">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E209">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F209">
-        <v>138.57</v>
+        <v>95.04</v>
       </c>
       <c r="G209">
-        <v>15.28</v>
+        <v>12.18</v>
       </c>
       <c r="H209">
-        <v>11.66</v>
+        <v>11.25</v>
       </c>
       <c r="I209">
-        <v>9.52</v>
+        <v>8.41</v>
       </c>
       <c r="J209">
-        <v>7.44</v>
+        <v>25.3</v>
       </c>
       <c r="K209">
-        <v>21.47</v>
+        <v>13.16</v>
       </c>
       <c r="L209">
-        <v>11.22</v>
+        <v>9.13</v>
       </c>
       <c r="M209">
-        <v>8.1999999999999993</v>
+        <v>3.8</v>
       </c>
       <c r="N209">
-        <v>5.27</v>
-      </c>
-      <c r="O209">
-        <v>16.64</v>
-      </c>
-      <c r="P209">
-        <v>7.32</v>
-      </c>
-      <c r="Q209">
-        <v>16.649999999999999</v>
-      </c>
-      <c r="R209">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
+        <v>11.81</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>217</v>
       </c>
       <c r="B210">
-        <v>929000</v>
+        <v>1098000</v>
       </c>
       <c r="C210" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D210">
         <v>4</v>
       </c>
       <c r="E210">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F210">
-        <v>136.78</v>
+        <v>157.93</v>
       </c>
       <c r="G210">
-        <v>19.03</v>
+        <v>12.61</v>
       </c>
       <c r="H210">
-        <v>13.06</v>
+        <v>10.99</v>
       </c>
       <c r="I210">
-        <v>8.4700000000000006</v>
+        <v>10.31</v>
       </c>
       <c r="J210">
-        <v>33.700000000000003</v>
+        <v>33.81</v>
       </c>
       <c r="K210">
-        <v>14.77</v>
+        <v>12.93</v>
       </c>
       <c r="L210">
-        <v>10.220000000000001</v>
+        <v>0</v>
       </c>
       <c r="M210">
-        <v>20.38</v>
+        <v>0</v>
       </c>
       <c r="N210">
-        <v>17.149999999999999</v>
-      </c>
-    </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
+        <v>29.7</v>
+      </c>
+      <c r="O210">
+        <v>29.7</v>
+      </c>
+      <c r="P210">
+        <v>10.41</v>
+      </c>
+      <c r="Q210">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>218</v>
       </c>
       <c r="B211">
-        <v>939000</v>
+        <v>1099000</v>
       </c>
       <c r="C211" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D211">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E211">
         <v>3</v>
       </c>
       <c r="F211">
-        <v>131.66999999999999</v>
+        <v>134.65</v>
       </c>
       <c r="G211">
-        <v>24.46</v>
+        <v>15.69</v>
       </c>
       <c r="H211">
-        <v>24.46</v>
+        <v>13.29</v>
       </c>
       <c r="I211">
-        <v>11.48</v>
+        <v>9.64</v>
       </c>
       <c r="J211">
-        <v>17.78</v>
+        <v>9.06</v>
       </c>
       <c r="K211">
-        <v>5.36</v>
+        <v>7.25</v>
       </c>
       <c r="L211">
-        <v>14.88</v>
+        <v>15.45</v>
       </c>
       <c r="M211">
-        <v>11.26</v>
+        <v>9.56</v>
       </c>
       <c r="N211">
-        <v>8.94</v>
+        <v>16.04</v>
       </c>
       <c r="O211">
-        <v>13.05</v>
-      </c>
-    </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
+        <v>8.59</v>
+      </c>
+      <c r="P211">
+        <v>9.24</v>
+      </c>
+      <c r="Q211">
+        <v>13.34</v>
+      </c>
+      <c r="R211">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>219</v>
       </c>
       <c r="B212">
-        <v>948800</v>
+        <v>1199900</v>
       </c>
       <c r="C212" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="D212">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E212">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F212">
-        <v>146.71</v>
+        <v>175.97</v>
       </c>
       <c r="G212">
-        <v>39.04</v>
+        <v>9.18</v>
       </c>
       <c r="H212">
-        <v>39.04</v>
+        <v>17.06</v>
       </c>
       <c r="I212">
-        <v>10.17</v>
+        <v>0</v>
       </c>
       <c r="J212">
-        <v>11.74</v>
+        <v>17.97</v>
       </c>
       <c r="K212">
-        <v>19.03</v>
+        <v>0</v>
       </c>
       <c r="L212">
-        <v>11.16</v>
+        <v>0</v>
       </c>
       <c r="M212">
-        <v>10.98</v>
+        <v>0</v>
       </c>
       <c r="N212">
-        <v>5.55</v>
-      </c>
-    </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
+        <v>15.39</v>
+      </c>
+      <c r="O212">
+        <v>24.56</v>
+      </c>
+      <c r="P212">
+        <v>0</v>
+      </c>
+      <c r="Q212">
+        <v>6.11</v>
+      </c>
+      <c r="R212">
+        <v>17.02</v>
+      </c>
+      <c r="S212">
+        <v>6.52</v>
+      </c>
+      <c r="T212">
+        <v>10.46</v>
+      </c>
+      <c r="U212">
+        <v>12.22</v>
+      </c>
+      <c r="V212">
+        <v>17.36</v>
+      </c>
+      <c r="W212">
+        <v>22.12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>220</v>
       </c>
       <c r="B213">
-        <v>999000</v>
+        <v>1200000</v>
       </c>
       <c r="C213" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D213">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E213">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F213">
-        <v>95.04</v>
+        <v>99.89</v>
       </c>
       <c r="G213">
-        <v>12.18</v>
+        <v>16.89</v>
       </c>
       <c r="H213">
-        <v>11.25</v>
+        <v>9.3</v>
       </c>
       <c r="I213">
-        <v>8.41</v>
+        <v>7.86</v>
       </c>
       <c r="J213">
-        <v>25.3</v>
+        <v>14.37</v>
       </c>
       <c r="K213">
-        <v>13.16</v>
+        <v>0</v>
       </c>
       <c r="L213">
-        <v>9.1300000000000008</v>
+        <v>0</v>
       </c>
       <c r="M213">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="N213">
-        <v>11.81</v>
-      </c>
-    </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
+        <v>15.5</v>
+      </c>
+      <c r="O213">
+        <v>9.06</v>
+      </c>
+      <c r="P213">
+        <v>14.43</v>
+      </c>
+      <c r="Q213">
+        <v>7.09</v>
+      </c>
+      <c r="R213">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>221</v>
       </c>
       <c r="B214">
-        <v>1098000</v>
+        <v>1329786</v>
       </c>
       <c r="C214" t="s">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c r="D214">
         <v>4</v>
       </c>
       <c r="E214">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F214">
-        <v>157.93</v>
+        <v>226.57</v>
       </c>
       <c r="G214">
-        <v>12.61</v>
+        <v>30.53</v>
       </c>
       <c r="H214">
-        <v>10.99</v>
+        <v>30.53</v>
       </c>
       <c r="I214">
-        <v>10.31</v>
+        <v>50.37</v>
       </c>
       <c r="J214">
-        <v>33.81</v>
+        <v>50.37</v>
       </c>
       <c r="K214">
-        <v>12.93</v>
+        <v>0</v>
       </c>
       <c r="L214">
+        <v>25.55</v>
+      </c>
+      <c r="M214">
+        <v>10.8</v>
+      </c>
+      <c r="N214">
+        <v>13.18</v>
+      </c>
+      <c r="O214">
+        <v>15.24</v>
+      </c>
+      <c r="P214">
         <v>0</v>
       </c>
-      <c r="M214">
-        <v>0</v>
-      </c>
-      <c r="N214">
-        <v>29.7</v>
-      </c>
-      <c r="O214">
-        <v>29.7</v>
-      </c>
-      <c r="P214">
-        <v>10.41</v>
-      </c>
-      <c r="Q214">
-        <v>7.47</v>
-      </c>
-    </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>222</v>
       </c>
       <c r="B215">
-        <v>1099000</v>
+        <v>1349900</v>
       </c>
       <c r="C215" t="s">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c r="D215">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E215">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F215">
-        <v>134.65</v>
+        <v>180.86</v>
       </c>
       <c r="G215">
-        <v>15.69</v>
+        <v>20.02</v>
       </c>
       <c r="H215">
-        <v>13.29</v>
+        <v>14.42</v>
       </c>
       <c r="I215">
-        <v>9.64</v>
+        <v>21.92</v>
       </c>
       <c r="J215">
-        <v>9.06</v>
+        <v>13.55</v>
       </c>
       <c r="K215">
-        <v>7.25</v>
+        <v>15.78</v>
       </c>
       <c r="L215">
-        <v>15.45</v>
+        <v>31.39</v>
       </c>
       <c r="M215">
-        <v>9.56</v>
+        <v>6.42</v>
       </c>
       <c r="N215">
-        <v>16.04</v>
+        <v>29.66</v>
       </c>
       <c r="O215">
-        <v>8.59</v>
+        <v>13.85</v>
       </c>
       <c r="P215">
-        <v>9.24</v>
-      </c>
-      <c r="Q215">
-        <v>13.34</v>
-      </c>
-      <c r="R215">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>223</v>
       </c>
       <c r="B216">
-        <v>1199900</v>
+        <v>1399900</v>
       </c>
       <c r="C216" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D216">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E216">
         <v>4</v>
       </c>
       <c r="F216">
-        <v>175.97</v>
+        <v>147.83</v>
       </c>
       <c r="G216">
-        <v>9.18</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>17.059999999999999</v>
+        <v>18.39</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>16.84</v>
       </c>
       <c r="J216">
-        <v>17.97</v>
+        <v>19.4</v>
       </c>
       <c r="K216">
-        <v>0</v>
+        <v>11.02</v>
       </c>
       <c r="L216">
-        <v>0</v>
+        <v>12.86</v>
       </c>
       <c r="M216">
-        <v>0</v>
+        <v>8.33</v>
       </c>
       <c r="N216">
-        <v>15.39</v>
+        <v>24.17</v>
       </c>
       <c r="O216">
-        <v>24.56</v>
+        <v>11.9</v>
       </c>
       <c r="P216">
-        <v>0</v>
+        <v>12.66</v>
       </c>
       <c r="Q216">
-        <v>6.11</v>
-      </c>
-      <c r="R216">
-        <v>17.02</v>
-      </c>
-      <c r="S216">
-        <v>6.52</v>
-      </c>
-      <c r="T216">
-        <v>10.46</v>
-      </c>
-      <c r="U216">
-        <v>12.22</v>
-      </c>
-      <c r="V216">
-        <v>17.36</v>
-      </c>
-      <c r="W216">
-        <v>22.12</v>
-      </c>
-    </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>224</v>
       </c>
       <c r="B217">
-        <v>1200000</v>
+        <v>1429900</v>
       </c>
       <c r="C217" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D217">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E217">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F217">
-        <v>99.89</v>
+        <v>196.17</v>
       </c>
       <c r="G217">
-        <v>16.89</v>
+        <v>20.46</v>
       </c>
       <c r="H217">
-        <v>9.3000000000000007</v>
+        <v>15.44</v>
       </c>
       <c r="I217">
-        <v>7.86</v>
+        <v>15.34</v>
       </c>
       <c r="J217">
-        <v>14.37</v>
+        <v>11.02</v>
       </c>
       <c r="K217">
-        <v>0</v>
+        <v>36.98</v>
       </c>
       <c r="L217">
-        <v>0</v>
+        <v>11.66</v>
       </c>
       <c r="M217">
-        <v>0</v>
+        <v>20.94</v>
       </c>
       <c r="N217">
-        <v>15.5</v>
+        <v>13.05</v>
       </c>
       <c r="O217">
-        <v>9.06</v>
+        <v>22.96</v>
       </c>
       <c r="P217">
-        <v>14.43</v>
+        <v>17.23</v>
       </c>
       <c r="Q217">
-        <v>7.09</v>
-      </c>
-      <c r="R217">
-        <v>5.39</v>
-      </c>
-    </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>225</v>
       </c>
       <c r="B218">
-        <v>1329786</v>
+        <v>1499800</v>
       </c>
       <c r="C218" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="D218">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E218">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F218">
-        <v>226.57</v>
+        <v>83.78</v>
       </c>
       <c r="G218">
-        <v>30.53</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <v>30.53</v>
+        <v>0</v>
       </c>
       <c r="I218">
-        <v>50.37</v>
+        <v>0</v>
       </c>
       <c r="J218">
-        <v>50.37</v>
+        <v>0</v>
       </c>
       <c r="K218">
         <v>0</v>
       </c>
       <c r="L218">
-        <v>25.55</v>
+        <v>15.31</v>
       </c>
       <c r="M218">
-        <v>10.8</v>
+        <v>15.31</v>
       </c>
       <c r="N218">
-        <v>13.18</v>
+        <v>16.66</v>
       </c>
       <c r="O218">
-        <v>15.24</v>
+        <v>14.96</v>
       </c>
       <c r="P218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
+        <v>11.1</v>
+      </c>
+      <c r="Q218">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>226</v>
       </c>
       <c r="B219">
-        <v>1349900</v>
+        <v>1549990</v>
       </c>
       <c r="C219" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="D219">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E219">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F219">
-        <v>180.86</v>
+        <v>129.72</v>
       </c>
       <c r="G219">
-        <v>20.02</v>
+        <v>0</v>
       </c>
       <c r="H219">
-        <v>14.42</v>
+        <v>0</v>
       </c>
       <c r="I219">
-        <v>21.92</v>
+        <v>0</v>
       </c>
       <c r="J219">
-        <v>13.55</v>
+        <v>28.31</v>
       </c>
       <c r="K219">
-        <v>15.78</v>
+        <v>15.26</v>
       </c>
       <c r="L219">
-        <v>31.39</v>
+        <v>21.17</v>
       </c>
       <c r="M219">
-        <v>6.42</v>
+        <v>0</v>
       </c>
       <c r="N219">
-        <v>29.66</v>
+        <v>23.36</v>
       </c>
       <c r="O219">
-        <v>13.85</v>
+        <v>41.62</v>
       </c>
       <c r="P219">
-        <v>13.85</v>
-      </c>
-    </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>227</v>
       </c>
       <c r="B220">
-        <v>1399900</v>
+        <v>1598000</v>
       </c>
       <c r="C220" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D220">
         <v>6</v>
       </c>
       <c r="E220">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F220">
-        <v>147.83000000000001</v>
+        <v>185.82</v>
       </c>
       <c r="G220">
-        <v>0</v>
+        <v>27.07</v>
       </c>
       <c r="H220">
-        <v>18.39</v>
+        <v>12.44</v>
       </c>
       <c r="I220">
-        <v>16.84</v>
+        <v>14.59</v>
       </c>
       <c r="J220">
-        <v>19.399999999999999</v>
+        <v>16.64</v>
       </c>
       <c r="K220">
-        <v>11.02</v>
+        <v>20.67</v>
       </c>
       <c r="L220">
-        <v>12.86</v>
+        <v>7.46</v>
       </c>
       <c r="M220">
-        <v>8.33</v>
+        <v>14.53</v>
       </c>
       <c r="N220">
-        <v>24.17</v>
+        <v>14.88</v>
       </c>
       <c r="O220">
-        <v>11.9</v>
+        <v>13.02</v>
       </c>
       <c r="P220">
-        <v>12.66</v>
+        <v>10.8</v>
       </c>
       <c r="Q220">
-        <v>12.26</v>
-      </c>
-    </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
+        <v>14.1</v>
+      </c>
+      <c r="R220">
+        <v>19.62</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>228</v>
       </c>
       <c r="B221">
-        <v>1429900</v>
+        <v>1785800</v>
       </c>
       <c r="C221" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D221">
         <v>4</v>
       </c>
       <c r="E221">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F221">
-        <v>196.17</v>
+        <v>196.92</v>
       </c>
       <c r="G221">
-        <v>20.46</v>
+        <v>11.22</v>
       </c>
       <c r="H221">
-        <v>15.44</v>
+        <v>12</v>
       </c>
       <c r="I221">
-        <v>15.34</v>
+        <v>16.5</v>
       </c>
       <c r="J221">
-        <v>11.02</v>
+        <v>16.35</v>
       </c>
       <c r="K221">
-        <v>36.979999999999997</v>
+        <v>18.23</v>
       </c>
       <c r="L221">
-        <v>11.66</v>
+        <v>11.92</v>
       </c>
       <c r="M221">
-        <v>20.94</v>
+        <v>18</v>
       </c>
       <c r="N221">
-        <v>13.05</v>
+        <v>38.86</v>
       </c>
       <c r="O221">
-        <v>22.96</v>
+        <v>38.86</v>
       </c>
       <c r="P221">
-        <v>17.23</v>
+        <v>6.7</v>
       </c>
       <c r="Q221">
-        <v>11.09</v>
-      </c>
-    </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
+        <v>8.28</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>229</v>
       </c>
       <c r="B222">
-        <v>1499800</v>
+        <v>2099900</v>
       </c>
       <c r="C222" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D222">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>83.78</v>
+        <v>62.72</v>
       </c>
       <c r="G222">
-        <v>0</v>
+        <v>18.1</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>9.21</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>9.92</v>
       </c>
       <c r="J222">
-        <v>0</v>
+        <v>14.33</v>
       </c>
       <c r="K222">
-        <v>0</v>
-      </c>
-      <c r="L222">
-        <v>15.31</v>
-      </c>
-      <c r="M222">
-        <v>15.31</v>
-      </c>
-      <c r="N222">
-        <v>16.66</v>
-      </c>
-      <c r="O222">
-        <v>14.96</v>
-      </c>
-      <c r="P222">
-        <v>11.1</v>
-      </c>
-      <c r="Q222">
-        <v>10.44</v>
-      </c>
-    </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
+        <v>11.16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>230</v>
       </c>
       <c r="B223">
-        <v>1549990</v>
+        <v>2988800</v>
       </c>
       <c r="C223" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="D223">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E223">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F223">
-        <v>129.72</v>
+        <v>281.71</v>
       </c>
       <c r="G223">
-        <v>0</v>
+        <v>30.87</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>20.61</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>15.44</v>
       </c>
       <c r="J223">
-        <v>28.31</v>
+        <v>15.21</v>
       </c>
       <c r="K223">
-        <v>15.26</v>
+        <v>55.72</v>
       </c>
       <c r="L223">
-        <v>21.17</v>
+        <v>16.86</v>
       </c>
       <c r="M223">
-        <v>0</v>
+        <v>17.8</v>
       </c>
       <c r="N223">
-        <v>23.36</v>
+        <v>15.48</v>
       </c>
       <c r="O223">
-        <v>41.62</v>
+        <v>20.21</v>
       </c>
       <c r="P223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
-        <v>231</v>
-      </c>
-      <c r="B224">
-        <v>1598000</v>
-      </c>
-      <c r="C224" t="s">
-        <v>211</v>
-      </c>
-      <c r="D224">
-        <v>6</v>
-      </c>
-      <c r="E224">
-        <v>5</v>
-      </c>
-      <c r="F224">
-        <v>185.82</v>
-      </c>
-      <c r="G224">
-        <v>27.07</v>
-      </c>
-      <c r="H224">
-        <v>12.44</v>
-      </c>
-      <c r="I224">
-        <v>14.59</v>
-      </c>
-      <c r="J224">
-        <v>16.64</v>
-      </c>
-      <c r="K224">
-        <v>20.67</v>
-      </c>
-      <c r="L224">
-        <v>7.46</v>
-      </c>
-      <c r="M224">
-        <v>14.53</v>
-      </c>
-      <c r="N224">
-        <v>14.88</v>
-      </c>
-      <c r="O224">
-        <v>13.02</v>
-      </c>
-      <c r="P224">
-        <v>10.8</v>
-      </c>
-      <c r="Q224">
-        <v>14.1</v>
-      </c>
-      <c r="R224">
-        <v>19.62</v>
-      </c>
-    </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>232</v>
-      </c>
-      <c r="B225">
-        <v>1785800</v>
-      </c>
-      <c r="C225" t="s">
-        <v>211</v>
-      </c>
-      <c r="D225">
-        <v>4</v>
-      </c>
-      <c r="E225">
-        <v>2</v>
-      </c>
-      <c r="F225">
-        <v>196.92</v>
-      </c>
-      <c r="G225">
-        <v>11.22</v>
-      </c>
-      <c r="H225">
-        <v>12</v>
-      </c>
-      <c r="I225">
-        <v>16.5</v>
-      </c>
-      <c r="J225">
-        <v>16.350000000000001</v>
-      </c>
-      <c r="K225">
-        <v>18.23</v>
-      </c>
-      <c r="L225">
-        <v>11.92</v>
-      </c>
-      <c r="M225">
-        <v>18</v>
-      </c>
-      <c r="N225">
-        <v>38.86</v>
-      </c>
-      <c r="O225">
-        <v>38.86</v>
-      </c>
-      <c r="P225">
-        <v>6.7</v>
-      </c>
-      <c r="Q225">
-        <v>8.2799999999999994</v>
-      </c>
-    </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>233</v>
-      </c>
-      <c r="B226">
-        <v>2099900</v>
-      </c>
-      <c r="C226" t="s">
-        <v>211</v>
-      </c>
-      <c r="D226">
-        <v>2</v>
-      </c>
-      <c r="E226">
-        <v>1</v>
-      </c>
-      <c r="F226">
-        <v>62.72</v>
-      </c>
-      <c r="G226">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="H226">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="I226">
-        <v>9.92</v>
-      </c>
-      <c r="J226">
-        <v>14.33</v>
-      </c>
-      <c r="K226">
-        <v>11.16</v>
-      </c>
-    </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
-        <v>234</v>
-      </c>
-      <c r="B227">
-        <v>2299900</v>
-      </c>
-      <c r="C227" t="s">
-        <v>7</v>
-      </c>
-      <c r="D227">
-        <v>4</v>
-      </c>
-      <c r="E227">
-        <v>4</v>
-      </c>
-      <c r="F227">
-        <v>2284.52</v>
-      </c>
-      <c r="G227">
-        <v>830.18</v>
-      </c>
-      <c r="H227">
-        <v>412</v>
-      </c>
-      <c r="I227">
-        <v>143</v>
-      </c>
-      <c r="J227">
-        <v>350.24</v>
-      </c>
-      <c r="K227">
-        <v>230.89</v>
-      </c>
-      <c r="L227">
-        <v>160.59</v>
-      </c>
-      <c r="M227">
-        <v>157.62</v>
-      </c>
-    </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>235</v>
-      </c>
-      <c r="B228">
-        <v>2345000</v>
-      </c>
-      <c r="C228" t="s">
-        <v>211</v>
-      </c>
-      <c r="D228">
-        <v>4</v>
-      </c>
-      <c r="E228">
-        <v>5</v>
-      </c>
-      <c r="F228">
-        <v>354.3</v>
-      </c>
-      <c r="G228">
-        <v>21.47</v>
-      </c>
-      <c r="H228">
-        <v>17.04</v>
-      </c>
-      <c r="I228">
-        <v>20.03</v>
-      </c>
-      <c r="J228">
-        <v>22.94</v>
-      </c>
-      <c r="K228">
-        <v>150.44</v>
-      </c>
-      <c r="L228">
-        <v>23.01</v>
-      </c>
-      <c r="M228">
-        <v>15.92</v>
-      </c>
-      <c r="N228">
-        <v>18.23</v>
-      </c>
-      <c r="O228">
-        <v>12.09</v>
-      </c>
-      <c r="P228">
-        <v>17.02</v>
-      </c>
-      <c r="Q228">
-        <v>18.45</v>
-      </c>
-      <c r="R228">
-        <v>17.66</v>
-      </c>
-    </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
-        <v>236</v>
-      </c>
-      <c r="B229">
-        <v>2988800</v>
-      </c>
-      <c r="C229" t="s">
-        <v>211</v>
-      </c>
-      <c r="D229">
-        <v>5</v>
-      </c>
-      <c r="E229">
-        <v>5</v>
-      </c>
-      <c r="F229">
-        <v>281.70999999999998</v>
-      </c>
-      <c r="G229">
-        <v>30.87</v>
-      </c>
-      <c r="H229">
-        <v>20.61</v>
-      </c>
-      <c r="I229">
-        <v>15.44</v>
-      </c>
-      <c r="J229">
-        <v>15.21</v>
-      </c>
-      <c r="K229">
-        <v>55.72</v>
-      </c>
-      <c r="L229">
-        <v>16.86</v>
-      </c>
-      <c r="M229">
-        <v>17.8</v>
-      </c>
-      <c r="N229">
-        <v>15.48</v>
-      </c>
-      <c r="O229">
-        <v>20.21</v>
-      </c>
-      <c r="P229">
-        <v>33.409999999999997</v>
-      </c>
-      <c r="Q229">
+        <v>33.41</v>
+      </c>
+      <c r="Q223">
         <v>13.27</v>
       </c>
-      <c r="R229">
+      <c r="R223">
         <v>26.83</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t>Address</t>
   </si>
@@ -34,9 +34,6 @@
     <t>#2501 -80 ABSOLUTE AVE|Mississauga, Ontario L4Z0A5</t>
   </si>
   <si>
-    <t>Apartment</t>
-  </si>
-  <si>
     <t>#1204 -3695 KANEFF CRES|Mississauga, Ontario L5A4B6</t>
   </si>
   <si>
@@ -55,21 +52,21 @@
     <t>#408 -360 SQUARE ONE DR|Mississauga, Ontario L5B0E6</t>
   </si>
   <si>
+    <t>#2202 -4470 TUCANA CRT|Mississauga, Ontario L5R3K8</t>
+  </si>
+  <si>
+    <t>#1902 -4470 TUCANA CRT|Mississauga, Ontario L5R3K8</t>
+  </si>
+  <si>
     <t>#2604 -360 SQUARE ONE DR|Mississauga, Ontario L5B0G7</t>
   </si>
   <si>
-    <t>#1902 -4470 TUCANA CRT|Mississauga, Ontario L5R3K8</t>
-  </si>
-  <si>
-    <t>#2202 -4470 TUCANA CRT|Mississauga, Ontario L5R3K8</t>
+    <t>#912 -115 HILLCREST AVE|Mississauga, Ontario L5B3Y9</t>
   </si>
   <si>
     <t>#1911 -1580 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3T8</t>
   </si>
   <si>
-    <t>#912 -115 HILLCREST AVE|Mississauga, Ontario L5B3Y9</t>
-  </si>
-  <si>
     <t>#410 -3985 GRAND PARK DR|Mississauga, Ontario L5B0H8</t>
   </si>
   <si>
@@ -85,15 +82,15 @@
     <t>#1604 -4470 TUCANA CRT|Mississauga, Ontario L5R3K8</t>
   </si>
   <si>
+    <t>#1804 -20 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3S1</t>
+  </si>
+  <si>
+    <t>#311 -50 ELM DR E|Mississauga, Ontario L5A3X2</t>
+  </si>
+  <si>
     <t>#205 -3700 KANEFF CRES|Mississauga, Ontario L5A4B8</t>
   </si>
   <si>
-    <t>#1804 -20 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3S1</t>
-  </si>
-  <si>
-    <t>#311 -50 ELM DR E|Mississauga, Ontario L5A3X2</t>
-  </si>
-  <si>
     <t>#1201 -4085 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
   </si>
   <si>
@@ -103,39 +100,39 @@
     <t>#801 -1 ELM DR W|Mississauga, Ontario L5B4M1</t>
   </si>
   <si>
+    <t>#611 -339 RATHBURN RD W|Mississauga, Ontario L5B0C8</t>
+  </si>
+  <si>
     <t>#1703 -50 ELM DR E|Mississauga, Ontario L5A3X2</t>
   </si>
   <si>
-    <t>#611 -339 RATHBURN RD W|Mississauga, Ontario L5B0C8</t>
-  </si>
-  <si>
     <t>#2008 -3100 KIRWIN AVE|Mississauga, Ontario L5A3S6</t>
   </si>
   <si>
+    <t>#401 -80 ABSOLUTE AVE|Mississauga, Ontario L4Z0A5</t>
+  </si>
+  <si>
     <t>#2610 -80 ABSOLUTE AVE|Mississauga, Ontario L4Z0A5</t>
   </si>
   <si>
-    <t>#401 -80 ABSOLUTE AVE|Mississauga, Ontario L4Z0A5</t>
-  </si>
-  <si>
     <t>#1212 -50 KINGSBRIDGE GARDEN CIRC|Mississauga, Ontario L5R1Y2</t>
   </si>
   <si>
+    <t>#1205 -330 RATHBURN RD|Mississauga, Ontario L5B3Y2</t>
+  </si>
+  <si>
     <t>#3805 -208 ENFIELD PL|Mississauga, Ontario L5B0B8</t>
   </si>
   <si>
+    <t>#713 -115 HILLCREST AVE|Mississauga, Ontario L5B3Y9</t>
+  </si>
+  <si>
+    <t>#1111 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
+  </si>
+  <si>
     <t>#2710 -360 SQUARE ONE DR|Mississauga, Ontario L5B0G7</t>
   </si>
   <si>
-    <t>#713 -115 HILLCREST AVE|Mississauga, Ontario L5B3Y9</t>
-  </si>
-  <si>
-    <t>#1111 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
-  </si>
-  <si>
-    <t>#1205 -330 RATHBURN RD|Mississauga, Ontario L5B3Y2</t>
-  </si>
-  <si>
     <t>#530 -4085 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
   </si>
   <si>
@@ -154,12 +151,12 @@
     <t>#508 -50 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
   </si>
   <si>
+    <t>#2201 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
+  </si>
+  <si>
     <t>#1602 -4470 TUCANA CRT|Mississauga, Ontario L5R3K8</t>
   </si>
   <si>
-    <t>#2201 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
-  </si>
-  <si>
     <t>#205 -4070 CONFEDERATION PKWY|Mississauga, Ontario</t>
   </si>
   <si>
@@ -178,21 +175,21 @@
     <t>#2113 -135 HILLCREST AVE|Mississauga, Ontario L5B4B1</t>
   </si>
   <si>
+    <t>#411 -310 BURNHAMTHORPE RD|Mississauga, Ontario L5B4P9</t>
+  </si>
+  <si>
     <t>#707 -365 PRINCE OF WALES DR|Mississauga, Ontario L5B0G6</t>
   </si>
   <si>
     <t>#1211 -4011 BRICKSTONE MEWS|Mississauga, Ontario L5B0G3</t>
   </si>
   <si>
-    <t>#411 -310 BURNHAMTHORPE RD|Mississauga, Ontario L5B4P9</t>
+    <t>810 SCOLLARD Court Unit# 808|Mississauga, Ontario L5V0A4</t>
   </si>
   <si>
     <t>#808 -810 SCOLLARD CRT|Mississauga, Ontario L5V0A2</t>
   </si>
   <si>
-    <t>810 SCOLLARD Court Unit# 808|Mississauga, Ontario L5V0A4</t>
-  </si>
-  <si>
     <t>#405 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
   </si>
   <si>
@@ -217,12 +214,12 @@
     <t>#1106 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
   </si>
   <si>
+    <t>#311 -3605 KARIYA DR|Mississauga, Ontario L5B3J4</t>
+  </si>
+  <si>
     <t>#PH13 -3590 KANEFF CRES|Mississauga, Ontario L5A3X3</t>
   </si>
   <si>
-    <t>#311 -3605 KARIYA DR|Mississauga, Ontario L5B3J4</t>
-  </si>
-  <si>
     <t>#2106 -33 ELM DR W|Mississauga, Ontario L5B4M2</t>
   </si>
   <si>
@@ -247,12 +244,12 @@
     <t>#2104 -385 PRINCE OF WALES DR|Mississauga, Ontario L5B0C6</t>
   </si>
   <si>
+    <t>#809 -360 SQUARE ONE DR|Mississauga, Ontario L5B0G7</t>
+  </si>
+  <si>
     <t>#1709 -20 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3S2</t>
   </si>
   <si>
-    <t>#809 -360 SQUARE ONE DR|Mississauga, Ontario L5B0G7</t>
-  </si>
-  <si>
     <t>#914 -550 WEBB DR|Mississauga, Ontario L5B3Y4</t>
   </si>
   <si>
@@ -274,24 +271,24 @@
     <t>#209 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
   </si>
   <si>
+    <t>#802 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
+  </si>
+  <si>
+    <t>#1408 -335 WEBB DR|Mississauga, Ontario L5B4A1</t>
+  </si>
+  <si>
+    <t>#1210 -20 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3S1</t>
+  </si>
+  <si>
     <t>220 BURNHAMTHORPE Road Unit# 1703|Mississauga, Ontario L5B4N5</t>
   </si>
   <si>
     <t>#1703 -220 BURNHAMTHORPE RD|Mississauga, Ontario L5B4N4</t>
   </si>
   <si>
-    <t>#1408 -335 WEBB DR|Mississauga, Ontario L5B4A1</t>
-  </si>
-  <si>
-    <t>#1210 -20 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3S1</t>
-  </si>
-  <si>
     <t>#208 -285 ENFIELD PL|Mississauga, Ontario L5B4L8</t>
   </si>
   <si>
-    <t>#802 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
-  </si>
-  <si>
     <t>#306 -360 SQUARE ONE DR|Mississauga, Ontario L5B0G7</t>
   </si>
   <si>
@@ -301,33 +298,33 @@
     <t>#1008 -3525 KARIYA DR|Mississauga, Ontario L5B0C2</t>
   </si>
   <si>
+    <t>#406 -90 ABSOLUTE AVE|Mississauga, Ontario L4Z0A3</t>
+  </si>
+  <si>
     <t>#PH11 -300 WEBB DR|Mississauga, Ontario L5B3W3</t>
   </si>
   <si>
-    <t>#406 -90 ABSOLUTE AVE|Mississauga, Ontario L4Z0A3</t>
-  </si>
-  <si>
     <t>#1301 -60 ABSOLUTE AVE|Mississauga, Ontario L4T0A9</t>
   </si>
   <si>
     <t>#1605 -385 PRINCE OF WALES DR|Mississauga, Ontario L5B0C6</t>
   </si>
   <si>
+    <t>#1905 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
+  </si>
+  <si>
     <t>#3903 -510 CURRAN PL|Mississauga, Ontario L5B0J8</t>
   </si>
   <si>
-    <t>#1905 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
-  </si>
-  <si>
     <t>#2312 -3605 KARIYA DR|Mississauga, Ontario L5B3J4</t>
   </si>
   <si>
+    <t>#906 -250 WEBB DR|Mississauga, Ontario L5B3Z4</t>
+  </si>
+  <si>
     <t>#303 -335 WEBB DR|Mississauga, Ontario L5B4A1</t>
   </si>
   <si>
-    <t>#906 -250 WEBB DR|Mississauga, Ontario L5B3Z4</t>
-  </si>
-  <si>
     <t>#1204 -285 ENFIELD PL|Mississauga, Ontario L5B3Y6</t>
   </si>
   <si>
@@ -349,21 +346,21 @@
     <t>#612 -3880 DUKE OF YORK BLVD|Mississauga, Ontario L5B4M7</t>
   </si>
   <si>
+    <t>#3303 -3975 GRAND PARK DR|Mississauga, Ontario L5B0K4</t>
+  </si>
+  <si>
+    <t>#2410 -550 WEBB DR|Mississauga, Ontario L5B3Y4</t>
+  </si>
+  <si>
+    <t>#1808 -1 ELM DR W|Mississauga, Ontario L5B4M1</t>
+  </si>
+  <si>
     <t>3939 DUKE OF YORK Boulevard Unit# 905|Mississauga, Ontario L5B4N2</t>
   </si>
   <si>
     <t>#905 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
   </si>
   <si>
-    <t>#3303 -3975 GRAND PARK DR|Mississauga, Ontario L5B0K4</t>
-  </si>
-  <si>
-    <t>#2410 -550 WEBB DR|Mississauga, Ontario L5B3Y4</t>
-  </si>
-  <si>
-    <t>#1808 -1 ELM DR W|Mississauga, Ontario L5B4M1</t>
-  </si>
-  <si>
     <t>#2204 -220 BURNHAMTHORPE RD W|Mississauga, Ontario L5B4N4</t>
   </si>
   <si>
@@ -391,36 +388,33 @@
     <t>#1111 -223 WEBB DR|Mississauga, Ontario L5B0E8</t>
   </si>
   <si>
+    <t>#402 -285 ENFIELD PL|Mississauga, Ontario L5B3Y6</t>
+  </si>
+  <si>
     <t>#2501 -4080 LIVING ARTS DR|Mississauga, Ontario L5B4N3</t>
   </si>
   <si>
-    <t>#402 -285 ENFIELD PL|Mississauga, Ontario L5B3Y6</t>
-  </si>
-  <si>
     <t>Address not available</t>
   </si>
   <si>
-    <t>Row / Townhouse</t>
-  </si>
-  <si>
     <t>#2909 -310 BURNHAMTHORPE RD|Mississauga, Ontario L5B4P9</t>
   </si>
   <si>
     <t>#1708 -360 SQUARE ONE DR|Mississauga, Ontario L5B0G7</t>
   </si>
   <si>
+    <t>#403 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
+  </si>
+  <si>
+    <t>#508 -1300 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3S9</t>
+  </si>
+  <si>
+    <t>#110 -90 ABSOLUTE AVE|Mississauga, Ontario L4Z0A1</t>
+  </si>
+  <si>
     <t>#911 -1 ELM DR|Mississauga, Ontario L5B4M1</t>
   </si>
   <si>
-    <t>#110 -90 ABSOLUTE AVE|Mississauga, Ontario L4Z0A1</t>
-  </si>
-  <si>
-    <t>#508 -1300 MISSISSAUGA VALLEY BLVD|Mississauga, Ontario L5A3S9</t>
-  </si>
-  <si>
-    <t>#403 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
-  </si>
-  <si>
     <t>#2212 -155 HILLCREST AVE|Mississauga, Ontario L5B3Z2</t>
   </si>
   <si>
@@ -433,12 +427,12 @@
     <t>#1802 -4065 BRICKSTONE MEWS|Mississauga, Ontario L5B0G3</t>
   </si>
   <si>
+    <t>3304 3939 DUKE OF YORK Boulevard|Mississauga, Ontario L5B4N2</t>
+  </si>
+  <si>
     <t>#3304 -3939 DUKE OF YORK BLVD|Mississauga, Ontario L5B4N2</t>
   </si>
   <si>
-    <t>3304 3939 DUKE OF YORK Boulevard|Mississauga, Ontario L5B4N2</t>
-  </si>
-  <si>
     <t>#1103 -700 CONSTELLATION DR|Mississauga, Ontario L5R3G8</t>
   </si>
   <si>
@@ -451,12 +445,12 @@
     <t>#104 -3605 KARIYA DR|Mississauga, Ontario L5B3J2</t>
   </si>
   <si>
+    <t>#402 -220 BURNHAMTHORPE RD W|Mississauga, Ontario L5B4N4</t>
+  </si>
+  <si>
     <t>#608 -200 BURNHAMTHORPE RD|Mississauga, Ontario L5A4L4</t>
   </si>
   <si>
-    <t>#402 -220 BURNHAMTHORPE RD W|Mississauga, Ontario L5B4N4</t>
-  </si>
-  <si>
     <t>#1502 -310 BURNHAMTHORPE RD W|Mississauga, Ontario L5B4P9</t>
   </si>
   <si>
@@ -508,33 +502,33 @@
     <t>#1504 -3605 KARIYA DR|Mississauga, Ontario L5B3J2</t>
   </si>
   <si>
+    <t>#209 -350 RATHBURN RD W|Mississauga, Ontario L5B3Y2</t>
+  </si>
+  <si>
     <t>350 RATHBURN Road W Unit# 209|Mississauga, Ontario L5B3Y2</t>
   </si>
   <si>
-    <t>#209 -350 RATHBURN RD W|Mississauga, Ontario L5B3Y2</t>
-  </si>
-  <si>
     <t>#3103 -4099 BRICKSTONE MEWS|Mississauga, Ontario L5B0G2</t>
   </si>
   <si>
     <t>#2102 -360 SQUARE ONE DR|Mississauga, Ontario L5B0E6</t>
   </si>
   <si>
+    <t>#2212 -4055 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
+  </si>
+  <si>
+    <t>#1512 -4055 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
+  </si>
+  <si>
     <t>#2115 -339 RATHBURN RD W|Mississauga, Ontario L5B0K6</t>
   </si>
   <si>
-    <t>#2212 -4055 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
-  </si>
-  <si>
-    <t>#1512 -4055 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
+    <t>#4102 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
   </si>
   <si>
     <t>#1808 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
   </si>
   <si>
-    <t>#4102 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
-  </si>
-  <si>
     <t>#3212 -4055 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
   </si>
   <si>
@@ -562,15 +556,15 @@
     <t>#2631 -3888 DUKE OF YORK BLVD|Mississauga, Ontario L5B4P5</t>
   </si>
   <si>
+    <t>#1402 -4070 CONFEDERATION PKWY|Mississauga, Ontario</t>
+  </si>
+  <si>
+    <t>#1606 -349 RATHBURN RD|Mississauga, Ontario L5B0C8</t>
+  </si>
+  <si>
     <t>#2701 -4080 LIVING ARTS DR|Mississauga, Ontario L5B4M8</t>
   </si>
   <si>
-    <t>#1402 -4070 CONFEDERATION PKWY|Mississauga, Ontario</t>
-  </si>
-  <si>
-    <t>#1606 -349 RATHBURN RD|Mississauga, Ontario L5B0C8</t>
-  </si>
-  <si>
     <t>349 RATHBURN  RD W|Mississauga, Ontario L5B0G9</t>
   </si>
   <si>
@@ -601,24 +595,24 @@
     <t>#5303 -60 ABSOLUTE AVE|Mississauga, Ontario L4Z0A9</t>
   </si>
   <si>
+    <t>#2306 -3880 DUKE OF YORK BLVD|Mississauga, Ontario L5B4M7</t>
+  </si>
+  <si>
+    <t>#1506 -3880 DUKE OF YORK BLVD|Mississauga, Ontario L5B4M7</t>
+  </si>
+  <si>
     <t>#LPH2 -220 BURNHAMTHORPE RD W|Mississauga, Ontario L5B3Y5</t>
   </si>
   <si>
-    <t>#2306 -3880 DUKE OF YORK BLVD|Mississauga, Ontario L5B4M7</t>
-  </si>
-  <si>
-    <t>#1506 -3880 DUKE OF YORK BLVD|Mississauga, Ontario L5B4M7</t>
-  </si>
-  <si>
     <t>#PH 3605 -3525 KARIYA DR|Mississauga, Ontario L5B0C2</t>
   </si>
   <si>
+    <t>#1107 -200 ROBERT SPECK PKWY|Mississauga, Ontario L4Z1S3</t>
+  </si>
+  <si>
     <t>#27 -3395 CLIFF RD N|Mississauga, Ontario L5A3M7</t>
   </si>
   <si>
-    <t>#1107 -200 ROBERT SPECK PKWY|Mississauga, Ontario L4Z1S3</t>
-  </si>
-  <si>
     <t>#2804 -330 BURNHAMTHORPE RD|Mississauga, Ontario L5B0E1</t>
   </si>
   <si>
@@ -632,9 +626,6 @@
   </si>
   <si>
     <t>374 LARA WOODS|Mississauga, Ontario L5A3A9</t>
-  </si>
-  <si>
-    <t>House</t>
   </si>
   <si>
     <t>#4 -4070 PARKSIDE VILLAGE DR|Mississauga, Ontario L5B0K2</t>
@@ -1114,8 +1105,8 @@
       <c r="B2">
         <v>504900</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1147,13 +1138,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>505900</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1188,13 +1179,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>508000</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1220,13 +1211,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>508800</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1255,13 +1246,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>509000</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1293,13 +1284,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>509000</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1325,13 +1316,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>509000</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1355,50 +1346,53 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>509900</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>55.66</v>
+        <v>83.56</v>
       </c>
       <c r="G9">
-        <v>15.56</v>
+        <v>21.78</v>
       </c>
       <c r="H9">
-        <v>15.56</v>
+        <v>21.78</v>
       </c>
       <c r="I9">
-        <v>7.27</v>
+        <v>9.53</v>
       </c>
       <c r="J9">
-        <v>6.54</v>
+        <v>14.67</v>
       </c>
       <c r="K9">
-        <v>10.73</v>
+        <v>8.42</v>
+      </c>
+      <c r="L9">
+        <v>7.38</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>509900</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1428,53 +1422,50 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>509900</v>
       </c>
-      <c r="C11" t="s">
-        <v>7</v>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>83.56</v>
+        <v>55.66</v>
       </c>
       <c r="G11">
-        <v>21.78</v>
+        <v>15.56</v>
       </c>
       <c r="H11">
-        <v>21.78</v>
+        <v>15.56</v>
       </c>
       <c r="I11">
-        <v>9.53</v>
+        <v>7.27</v>
       </c>
       <c r="J11">
-        <v>14.67</v>
+        <v>6.54</v>
       </c>
       <c r="K11">
-        <v>8.42</v>
-      </c>
-      <c r="L11">
-        <v>7.38</v>
+        <v>10.73</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>509990</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
+      <c r="C12">
+        <v>1</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1483,42 +1474,42 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>87.41</v>
+        <v>60.7</v>
       </c>
       <c r="G12">
-        <v>5.98</v>
+        <v>14.25</v>
       </c>
       <c r="H12">
-        <v>5.43</v>
+        <v>6.24</v>
       </c>
       <c r="I12">
-        <v>8.68</v>
+        <v>8.79</v>
       </c>
       <c r="J12">
-        <v>19.72</v>
+        <v>12.19</v>
       </c>
       <c r="K12">
-        <v>14.72</v>
+        <v>9.08</v>
       </c>
       <c r="L12">
-        <v>10.82</v>
+        <v>10.15</v>
       </c>
       <c r="M12">
-        <v>11.76</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>10.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>509990</v>
       </c>
-      <c r="C13" t="s">
-        <v>7</v>
+      <c r="C13">
+        <v>1</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1527,42 +1518,42 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>60.7</v>
+        <v>87.41</v>
       </c>
       <c r="G13">
-        <v>14.25</v>
+        <v>5.98</v>
       </c>
       <c r="H13">
-        <v>6.24</v>
+        <v>5.43</v>
       </c>
       <c r="I13">
-        <v>8.79</v>
+        <v>8.68</v>
       </c>
       <c r="J13">
-        <v>12.19</v>
+        <v>19.72</v>
       </c>
       <c r="K13">
-        <v>9.08</v>
+        <v>14.72</v>
       </c>
       <c r="L13">
-        <v>10.15</v>
+        <v>10.82</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.76</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>510000</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
+      <c r="C14">
+        <v>1</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1591,13 +1582,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>510000</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
+      <c r="C15">
+        <v>1</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1626,13 +1617,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>513000</v>
       </c>
-      <c r="C16" t="s">
-        <v>7</v>
+      <c r="C16">
+        <v>1</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1661,13 +1652,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>514900</v>
       </c>
-      <c r="C17" t="s">
-        <v>7</v>
+      <c r="C17">
+        <v>1</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1699,13 +1690,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>514900</v>
       </c>
-      <c r="C18" t="s">
-        <v>7</v>
+      <c r="C18">
+        <v>1</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1738,50 +1729,56 @@
         <v>7.79</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>515000</v>
       </c>
-      <c r="C19" t="s">
-        <v>7</v>
+      <c r="C19">
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>61.03</v>
+        <v>92.57</v>
       </c>
       <c r="G19">
-        <v>18.08</v>
+        <v>27.27</v>
       </c>
       <c r="H19">
-        <v>8.21</v>
+        <v>11.9</v>
       </c>
       <c r="I19">
-        <v>8.78</v>
+        <v>10.88</v>
       </c>
       <c r="J19">
-        <v>15.37</v>
+        <v>17.76</v>
       </c>
       <c r="K19">
-        <v>10.59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>7.67</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>515000</v>
       </c>
-      <c r="C20" t="s">
-        <v>7</v>
+      <c r="C20">
+        <v>1</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -1790,86 +1787,80 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>92.57</v>
+        <v>88.85</v>
       </c>
       <c r="G20">
-        <v>27.27</v>
+        <v>20.11</v>
       </c>
       <c r="H20">
-        <v>11.9</v>
+        <v>8.49</v>
       </c>
       <c r="I20">
-        <v>10.88</v>
+        <v>7.74</v>
       </c>
       <c r="J20">
-        <v>17.76</v>
+        <v>6.32</v>
       </c>
       <c r="K20">
-        <v>7.67</v>
+        <v>11.57</v>
       </c>
       <c r="L20">
-        <v>10</v>
+        <v>13.98</v>
       </c>
       <c r="M20">
-        <v>7.09</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11.22</v>
+      </c>
+      <c r="N20">
+        <v>9.42</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>515000</v>
       </c>
-      <c r="C21" t="s">
-        <v>7</v>
+      <c r="C21">
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>88.85</v>
+        <v>61.03</v>
       </c>
       <c r="G21">
-        <v>20.11</v>
+        <v>18.08</v>
       </c>
       <c r="H21">
-        <v>8.49</v>
+        <v>8.21</v>
       </c>
       <c r="I21">
-        <v>7.74</v>
+        <v>8.78</v>
       </c>
       <c r="J21">
-        <v>6.32</v>
+        <v>15.37</v>
       </c>
       <c r="K21">
-        <v>11.57</v>
-      </c>
-      <c r="L21">
-        <v>13.98</v>
-      </c>
-      <c r="M21">
-        <v>11.22</v>
-      </c>
-      <c r="N21">
-        <v>9.42</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>515000</v>
       </c>
-      <c r="C22" t="s">
-        <v>7</v>
+      <c r="C22">
+        <v>1</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1898,13 +1889,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>515000</v>
       </c>
-      <c r="C23" t="s">
-        <v>7</v>
+      <c r="C23">
+        <v>1</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1936,13 +1927,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>516000</v>
       </c>
-      <c r="C24" t="s">
-        <v>7</v>
+      <c r="C24">
+        <v>1</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1975,15 +1966,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>518888</v>
       </c>
-      <c r="C25" t="s">
-        <v>7</v>
+      <c r="C25">
+        <v>1</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1992,39 +1983,36 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>73.5</v>
+        <v>63.45</v>
       </c>
       <c r="G25">
-        <v>17.88</v>
+        <v>19.59</v>
       </c>
       <c r="H25">
-        <v>8.7</v>
+        <v>19.59</v>
       </c>
       <c r="I25">
-        <v>6.74</v>
+        <v>6.69</v>
       </c>
       <c r="J25">
-        <v>5.01</v>
+        <v>11.02</v>
       </c>
       <c r="K25">
-        <v>15.08</v>
+        <v>6.56</v>
       </c>
       <c r="L25">
-        <v>15.08</v>
-      </c>
-      <c r="M25">
-        <v>5.01</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>518888</v>
       </c>
-      <c r="C26" t="s">
-        <v>7</v>
+      <c r="C26">
+        <v>1</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2033,36 +2021,39 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>63.45</v>
+        <v>73.5</v>
       </c>
       <c r="G26">
-        <v>19.59</v>
+        <v>17.88</v>
       </c>
       <c r="H26">
-        <v>19.59</v>
+        <v>8.7</v>
       </c>
       <c r="I26">
-        <v>6.69</v>
+        <v>6.74</v>
       </c>
       <c r="J26">
-        <v>11.02</v>
+        <v>5.01</v>
       </c>
       <c r="K26">
-        <v>6.56</v>
+        <v>15.08</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>15.08</v>
+      </c>
+      <c r="M26">
+        <v>5.01</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>518900</v>
       </c>
-      <c r="C27" t="s">
-        <v>7</v>
+      <c r="C27">
+        <v>1</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -2091,13 +2082,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>519000</v>
       </c>
-      <c r="C28" t="s">
-        <v>7</v>
+      <c r="C28">
+        <v>1</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2106,33 +2097,33 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>64.03</v>
+        <v>57.96</v>
       </c>
       <c r="G28">
-        <v>17.18</v>
+        <v>16.96</v>
       </c>
       <c r="H28">
-        <v>17.18</v>
+        <v>16.96</v>
       </c>
       <c r="I28">
-        <v>5.74</v>
+        <v>6.8</v>
       </c>
       <c r="J28">
-        <v>12.8</v>
+        <v>10.58</v>
       </c>
       <c r="K28">
-        <v>11.13</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>519000</v>
       </c>
-      <c r="C29" t="s">
-        <v>7</v>
+      <c r="C29">
+        <v>1</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2141,33 +2132,33 @@
         <v>2</v>
       </c>
       <c r="F29">
-        <v>57.96</v>
+        <v>64.03</v>
       </c>
       <c r="G29">
-        <v>16.96</v>
+        <v>17.18</v>
       </c>
       <c r="H29">
-        <v>16.96</v>
+        <v>17.18</v>
       </c>
       <c r="I29">
-        <v>6.8</v>
+        <v>5.74</v>
       </c>
       <c r="J29">
-        <v>10.58</v>
+        <v>12.8</v>
       </c>
       <c r="K29">
-        <v>6.66</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>519700</v>
       </c>
-      <c r="C30" t="s">
-        <v>7</v>
+      <c r="C30">
+        <v>1</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -2199,48 +2190,48 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>519900</v>
       </c>
-      <c r="C31" t="s">
-        <v>7</v>
+      <c r="C31">
+        <v>1</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>63.24</v>
+        <v>76.38</v>
       </c>
       <c r="G31">
-        <v>21.19</v>
+        <v>19.17</v>
       </c>
       <c r="H31">
-        <v>21.19</v>
+        <v>9.23</v>
       </c>
       <c r="I31">
-        <v>2.6</v>
+        <v>12.91</v>
       </c>
       <c r="J31">
-        <v>13.27</v>
+        <v>23.23</v>
       </c>
       <c r="K31">
-        <v>4.99</v>
+        <v>11.84</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>519900</v>
       </c>
-      <c r="C32" t="s">
-        <v>7</v>
+      <c r="C32">
+        <v>1</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2249,33 +2240,33 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>56.24</v>
+        <v>63.24</v>
       </c>
       <c r="G32">
-        <v>15.58</v>
+        <v>21.19</v>
       </c>
       <c r="H32">
-        <v>15.58</v>
+        <v>21.19</v>
       </c>
       <c r="I32">
-        <v>8.33</v>
+        <v>2.6</v>
       </c>
       <c r="J32">
-        <v>12.71</v>
+        <v>13.27</v>
       </c>
       <c r="K32">
-        <v>4.04</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>519900</v>
       </c>
-      <c r="C33" t="s">
-        <v>7</v>
+      <c r="C33">
+        <v>1</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2313,13 +2304,13 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>519900</v>
       </c>
-      <c r="C34" t="s">
-        <v>7</v>
+      <c r="C34">
+        <v>1</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -2351,48 +2342,48 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>519900</v>
       </c>
-      <c r="C35" t="s">
-        <v>7</v>
+      <c r="C35">
+        <v>1</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>76.38</v>
+        <v>56.24</v>
       </c>
       <c r="G35">
-        <v>19.17</v>
+        <v>15.58</v>
       </c>
       <c r="H35">
-        <v>9.23</v>
+        <v>15.58</v>
       </c>
       <c r="I35">
-        <v>12.91</v>
+        <v>8.33</v>
       </c>
       <c r="J35">
-        <v>23.23</v>
+        <v>12.71</v>
       </c>
       <c r="K35">
-        <v>11.84</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>520000</v>
       </c>
-      <c r="C36" t="s">
-        <v>7</v>
+      <c r="C36">
+        <v>1</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2421,13 +2412,13 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>520000</v>
       </c>
-      <c r="C37" t="s">
-        <v>7</v>
+      <c r="C37">
+        <v>1</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2456,13 +2447,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>520000</v>
       </c>
-      <c r="C38" t="s">
-        <v>7</v>
+      <c r="C38">
+        <v>1</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -2485,13 +2476,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>520000</v>
       </c>
-      <c r="C39" t="s">
-        <v>7</v>
+      <c r="C39">
+        <v>1</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2517,13 +2508,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>521999</v>
       </c>
-      <c r="C40" t="s">
-        <v>7</v>
+      <c r="C40">
+        <v>1</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2552,13 +2543,13 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>524000</v>
       </c>
-      <c r="C41" t="s">
-        <v>7</v>
+      <c r="C41">
+        <v>1</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -2585,88 +2576,88 @@
         <v>12.94</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>524900</v>
       </c>
-      <c r="C42" t="s">
-        <v>7</v>
+      <c r="C42">
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
       <c r="F42">
-        <v>83.1</v>
+        <v>55.79</v>
       </c>
       <c r="G42">
-        <v>21.44</v>
+        <v>16.37</v>
       </c>
       <c r="H42">
-        <v>21.44</v>
+        <v>16.37</v>
       </c>
       <c r="I42">
-        <v>8.78</v>
+        <v>5.78</v>
       </c>
       <c r="J42">
-        <v>14.51</v>
+        <v>12.2</v>
       </c>
       <c r="K42">
-        <v>9.16</v>
-      </c>
-      <c r="L42">
-        <v>7.77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <v>524900</v>
       </c>
-      <c r="C43" t="s">
-        <v>7</v>
+      <c r="C43">
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="F43">
-        <v>55.79</v>
+        <v>83.1</v>
       </c>
       <c r="G43">
-        <v>16.37</v>
+        <v>21.44</v>
       </c>
       <c r="H43">
-        <v>16.37</v>
+        <v>21.44</v>
       </c>
       <c r="I43">
-        <v>5.78</v>
+        <v>8.78</v>
       </c>
       <c r="J43">
-        <v>12.2</v>
+        <v>14.51</v>
       </c>
       <c r="K43">
-        <v>5.07</v>
+        <v>9.16</v>
+      </c>
+      <c r="L43">
+        <v>7.77</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>524999</v>
       </c>
-      <c r="C44" t="s">
-        <v>7</v>
+      <c r="C44">
+        <v>1</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -2695,13 +2686,13 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>525000</v>
       </c>
-      <c r="C45" t="s">
-        <v>7</v>
+      <c r="C45">
+        <v>1</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -2730,13 +2721,13 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46">
         <v>525000</v>
       </c>
-      <c r="C46" t="s">
-        <v>7</v>
+      <c r="C46">
+        <v>1</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -2768,13 +2759,13 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <v>525000</v>
       </c>
-      <c r="C47" t="s">
-        <v>7</v>
+      <c r="C47">
+        <v>1</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -2806,13 +2797,13 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48">
         <v>525000</v>
       </c>
-      <c r="C48" t="s">
-        <v>7</v>
+      <c r="C48">
+        <v>1</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -2844,13 +2835,13 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>528800</v>
       </c>
-      <c r="C49" t="s">
-        <v>7</v>
+      <c r="C49">
+        <v>1</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -2882,86 +2873,89 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50">
         <v>529900</v>
       </c>
-      <c r="C50" t="s">
-        <v>7</v>
+      <c r="C50">
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>65.55</v>
+        <v>59.37</v>
       </c>
       <c r="G50">
-        <v>19.58</v>
+        <v>17.23</v>
       </c>
       <c r="H50">
-        <v>19.58</v>
+        <v>6.97</v>
       </c>
       <c r="I50">
-        <v>8.76</v>
+        <v>11.1</v>
       </c>
       <c r="J50">
-        <v>13.7</v>
+        <v>6.84</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>3.93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17.23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>529900</v>
       </c>
-      <c r="C51" t="s">
-        <v>7</v>
+      <c r="C51">
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51">
-        <v>50.75</v>
+        <v>65.55</v>
       </c>
       <c r="G51">
-        <v>10.22</v>
+        <v>19.58</v>
       </c>
       <c r="H51">
-        <v>10.22</v>
+        <v>19.58</v>
       </c>
       <c r="I51">
-        <v>12.08</v>
+        <v>8.76</v>
       </c>
       <c r="J51">
-        <v>9.3</v>
+        <v>13.7</v>
       </c>
       <c r="K51">
-        <v>8.93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>529900</v>
       </c>
-      <c r="C52" t="s">
-        <v>7</v>
+      <c r="C52">
+        <v>1</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -2970,36 +2964,33 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>59.37</v>
+        <v>50.75</v>
       </c>
       <c r="G52">
-        <v>17.23</v>
+        <v>10.22</v>
       </c>
       <c r="H52">
-        <v>6.97</v>
+        <v>10.22</v>
       </c>
       <c r="I52">
-        <v>11.1</v>
+        <v>12.08</v>
       </c>
       <c r="J52">
-        <v>6.84</v>
+        <v>9.3</v>
       </c>
       <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>17.23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>530000</v>
       </c>
-      <c r="C53" t="s">
-        <v>7</v>
+      <c r="C53">
+        <v>1</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -3008,36 +2999,39 @@
         <v>2</v>
       </c>
       <c r="F53">
-        <v>65.78</v>
+        <v>70.12</v>
       </c>
       <c r="G53">
-        <v>14.4</v>
+        <v>13.29</v>
       </c>
       <c r="H53">
-        <v>14.18</v>
+        <v>3.51</v>
       </c>
       <c r="I53">
-        <v>10.14</v>
+        <v>1.84</v>
       </c>
       <c r="J53">
-        <v>13.6</v>
+        <v>13.01</v>
       </c>
       <c r="K53">
-        <v>13.46</v>
+        <v>10.22</v>
       </c>
       <c r="L53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+        <v>13.94</v>
+      </c>
+      <c r="M53">
+        <v>14.31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>530000</v>
       </c>
-      <c r="C54" t="s">
-        <v>7</v>
+      <c r="C54">
+        <v>1</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3046,39 +3040,36 @@
         <v>2</v>
       </c>
       <c r="F54">
-        <v>70.12</v>
+        <v>65.78</v>
       </c>
       <c r="G54">
-        <v>13.29</v>
+        <v>14.4</v>
       </c>
       <c r="H54">
-        <v>3.51</v>
+        <v>14.18</v>
       </c>
       <c r="I54">
-        <v>1.84</v>
+        <v>10.14</v>
       </c>
       <c r="J54">
-        <v>13.01</v>
+        <v>13.6</v>
       </c>
       <c r="K54">
-        <v>10.22</v>
+        <v>13.46</v>
       </c>
       <c r="L54">
-        <v>13.94</v>
-      </c>
-      <c r="M54">
-        <v>14.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>532000</v>
       </c>
-      <c r="C55" t="s">
-        <v>7</v>
+      <c r="C55">
+        <v>1</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -3110,13 +3101,13 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>534000</v>
       </c>
-      <c r="C56" t="s">
-        <v>7</v>
+      <c r="C56">
+        <v>1</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -3145,13 +3136,13 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>534900</v>
       </c>
-      <c r="C57" t="s">
-        <v>7</v>
+      <c r="C57">
+        <v>1</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -3180,13 +3171,13 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58">
         <v>535000</v>
       </c>
-      <c r="C58" t="s">
-        <v>7</v>
+      <c r="C58">
+        <v>1</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -3221,13 +3212,13 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59">
         <v>535900</v>
       </c>
-      <c r="C59" t="s">
-        <v>7</v>
+      <c r="C59">
+        <v>1</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -3256,13 +3247,13 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60">
         <v>538900</v>
       </c>
-      <c r="C60" t="s">
-        <v>7</v>
+      <c r="C60">
+        <v>1</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -3291,13 +3282,13 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>539000</v>
       </c>
-      <c r="C61" t="s">
-        <v>7</v>
+      <c r="C61">
+        <v>1</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -3326,13 +3317,13 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>539000</v>
       </c>
-      <c r="C62" t="s">
-        <v>7</v>
+      <c r="C62">
+        <v>1</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -3362,97 +3353,97 @@
         <v>6.72</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63">
         <v>539000</v>
       </c>
-      <c r="C63" t="s">
-        <v>7</v>
+      <c r="C63">
+        <v>1</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63">
-        <v>73.87</v>
+        <v>85.07</v>
       </c>
       <c r="G63">
-        <v>17.65</v>
+        <v>17.06</v>
       </c>
       <c r="H63">
-        <v>7.32</v>
+        <v>19.62</v>
       </c>
       <c r="I63">
-        <v>7.08</v>
+        <v>10.43</v>
       </c>
       <c r="J63">
-        <v>13.69</v>
+        <v>15.1</v>
       </c>
       <c r="K63">
-        <v>12.61</v>
+        <v>13.13</v>
       </c>
       <c r="L63">
-        <v>8.35</v>
-      </c>
-      <c r="M63">
-        <v>3.95</v>
-      </c>
-      <c r="N63">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64">
         <v>539000</v>
       </c>
-      <c r="C64" t="s">
-        <v>7</v>
+      <c r="C64">
+        <v>1</v>
       </c>
       <c r="D64">
         <v>3</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>85.07</v>
+        <v>73.87</v>
       </c>
       <c r="G64">
-        <v>17.06</v>
+        <v>17.65</v>
       </c>
       <c r="H64">
-        <v>19.62</v>
+        <v>7.32</v>
       </c>
       <c r="I64">
-        <v>10.43</v>
+        <v>7.08</v>
       </c>
       <c r="J64">
-        <v>15.1</v>
+        <v>13.69</v>
       </c>
       <c r="K64">
-        <v>13.13</v>
+        <v>12.61</v>
       </c>
       <c r="L64">
-        <v>9.73</v>
+        <v>8.35</v>
+      </c>
+      <c r="M64">
+        <v>3.95</v>
+      </c>
+      <c r="N64">
+        <v>3.22</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65">
         <v>539000</v>
       </c>
-      <c r="C65" t="s">
-        <v>7</v>
+      <c r="C65">
+        <v>1</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -3481,13 +3472,13 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66">
         <v>539500</v>
       </c>
-      <c r="C66" t="s">
-        <v>7</v>
+      <c r="C66">
+        <v>1</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -3516,13 +3507,13 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67">
         <v>539800</v>
       </c>
-      <c r="C67" t="s">
-        <v>7</v>
+      <c r="C67">
+        <v>1</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -3554,13 +3545,13 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68">
         <v>539888</v>
       </c>
-      <c r="C68" t="s">
-        <v>7</v>
+      <c r="C68">
+        <v>1</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -3595,13 +3586,13 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69">
         <v>539900</v>
       </c>
-      <c r="C69" t="s">
-        <v>7</v>
+      <c r="C69">
+        <v>1</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -3630,13 +3621,13 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>539900</v>
       </c>
-      <c r="C70" t="s">
-        <v>7</v>
+      <c r="C70">
+        <v>1</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -3671,13 +3662,13 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71">
         <v>539900</v>
       </c>
-      <c r="C71" t="s">
-        <v>7</v>
+      <c r="C71">
+        <v>1</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -3706,13 +3697,13 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72">
         <v>540000</v>
       </c>
-      <c r="C72" t="s">
-        <v>7</v>
+      <c r="C72">
+        <v>1</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -3739,88 +3730,88 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73">
         <v>544900</v>
       </c>
-      <c r="C73" t="s">
-        <v>7</v>
+      <c r="C73">
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>85.8</v>
+        <v>53.78</v>
       </c>
       <c r="G73">
-        <v>26.24</v>
+        <v>18.13</v>
       </c>
       <c r="H73">
-        <v>11.69</v>
+        <v>18.13</v>
       </c>
       <c r="I73">
-        <v>11.34</v>
+        <v>10.92</v>
       </c>
       <c r="J73">
-        <v>16.09</v>
-      </c>
-      <c r="K73">
-        <v>8.49</v>
-      </c>
-      <c r="L73">
-        <v>10.07</v>
-      </c>
-      <c r="M73">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74">
         <v>544900</v>
       </c>
-      <c r="C74" t="s">
-        <v>7</v>
+      <c r="C74">
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74">
-        <v>53.78</v>
+        <v>85.8</v>
       </c>
       <c r="G74">
-        <v>18.13</v>
+        <v>26.24</v>
       </c>
       <c r="H74">
-        <v>18.13</v>
+        <v>11.69</v>
       </c>
       <c r="I74">
-        <v>10.92</v>
+        <v>11.34</v>
       </c>
       <c r="J74">
-        <v>6.6</v>
+        <v>16.09</v>
+      </c>
+      <c r="K74">
+        <v>8.49</v>
+      </c>
+      <c r="L74">
+        <v>10.07</v>
+      </c>
+      <c r="M74">
+        <v>1.88</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75">
         <v>545000</v>
       </c>
-      <c r="C75" t="s">
-        <v>7</v>
+      <c r="C75">
+        <v>1</v>
       </c>
       <c r="D75">
         <v>3</v>
@@ -3852,13 +3843,13 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>548000</v>
       </c>
-      <c r="C76" t="s">
-        <v>7</v>
+      <c r="C76">
+        <v>1</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -3887,13 +3878,13 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77">
         <v>549000</v>
       </c>
-      <c r="C77" t="s">
-        <v>7</v>
+      <c r="C77">
+        <v>1</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -3931,13 +3922,13 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78">
         <v>549000</v>
       </c>
-      <c r="C78" t="s">
-        <v>7</v>
+      <c r="C78">
+        <v>1</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -3963,13 +3954,13 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>549000</v>
       </c>
-      <c r="C79" t="s">
-        <v>7</v>
+      <c r="C79">
+        <v>1</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -4004,13 +3995,13 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B80">
         <v>549000</v>
       </c>
-      <c r="C80" t="s">
-        <v>7</v>
+      <c r="C80">
+        <v>1</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -4042,13 +4033,13 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B81">
         <v>549000</v>
       </c>
-      <c r="C81" t="s">
-        <v>7</v>
+      <c r="C81">
+        <v>1</v>
       </c>
       <c r="D81">
         <v>2</v>
@@ -4078,91 +4069,91 @@
         <v>6.04</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B82">
         <v>549900</v>
       </c>
-      <c r="C82" t="s">
-        <v>7</v>
+      <c r="C82">
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E82">
         <v>2</v>
       </c>
       <c r="F82">
-        <v>57.78</v>
+        <v>77.84</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>20.77</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>20.77</v>
       </c>
       <c r="I82">
-        <v>5.2</v>
+        <v>5.98</v>
       </c>
       <c r="J82">
-        <v>13.01</v>
+        <v>5.98</v>
       </c>
       <c r="K82">
-        <v>6.13</v>
+        <v>14.42</v>
       </c>
       <c r="L82">
-        <v>16.72</v>
-      </c>
-      <c r="M82">
-        <v>16.72</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83">
         <v>549900</v>
       </c>
-      <c r="C83" t="s">
-        <v>7</v>
+      <c r="C83">
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E83">
         <v>2</v>
       </c>
       <c r="F83">
-        <v>59.1</v>
+        <v>87.73</v>
       </c>
       <c r="G83">
-        <v>17.45</v>
+        <v>25.35</v>
       </c>
       <c r="H83">
-        <v>17.45</v>
+        <v>25.35</v>
       </c>
       <c r="I83">
-        <v>6.4</v>
+        <v>5.24</v>
       </c>
       <c r="J83">
-        <v>12.8</v>
+        <v>15.36</v>
       </c>
       <c r="K83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10.11</v>
+      </c>
+      <c r="L83">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>549900</v>
       </c>
-      <c r="C84" t="s">
-        <v>7</v>
+      <c r="C84">
+        <v>1</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -4171,77 +4162,80 @@
         <v>2</v>
       </c>
       <c r="F84">
-        <v>87.73</v>
+        <v>87</v>
       </c>
       <c r="G84">
-        <v>25.35</v>
+        <v>26.01</v>
       </c>
       <c r="H84">
-        <v>25.35</v>
+        <v>11.09</v>
       </c>
       <c r="I84">
-        <v>5.24</v>
+        <v>11.88</v>
       </c>
       <c r="J84">
-        <v>15.36</v>
+        <v>15.62</v>
       </c>
       <c r="K84">
-        <v>10.11</v>
+        <v>10.17</v>
       </c>
       <c r="L84">
-        <v>6.32</v>
+        <v>8.5</v>
+      </c>
+      <c r="M84">
+        <v>3.73</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B85">
         <v>549900</v>
       </c>
-      <c r="C85" t="s">
-        <v>7</v>
+      <c r="C85">
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E85">
         <v>2</v>
       </c>
       <c r="F85">
-        <v>87</v>
+        <v>57.78</v>
       </c>
       <c r="G85">
-        <v>26.01</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>11.09</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>11.88</v>
+        <v>5.2</v>
       </c>
       <c r="J85">
-        <v>15.62</v>
+        <v>13.01</v>
       </c>
       <c r="K85">
-        <v>10.17</v>
+        <v>6.13</v>
       </c>
       <c r="L85">
-        <v>8.5</v>
+        <v>16.72</v>
       </c>
       <c r="M85">
-        <v>3.73</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>16.72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B86">
         <v>549900</v>
       </c>
-      <c r="C86" t="s">
-        <v>7</v>
+      <c r="C86">
+        <v>1</v>
       </c>
       <c r="D86">
         <v>2</v>
@@ -4250,74 +4244,71 @@
         <v>2</v>
       </c>
       <c r="F86">
-        <v>58.14</v>
+        <v>59.1</v>
       </c>
       <c r="G86">
-        <v>3.16</v>
+        <v>17.45</v>
       </c>
       <c r="H86">
-        <v>5.47</v>
+        <v>17.45</v>
       </c>
       <c r="I86">
-        <v>19.84</v>
+        <v>6.4</v>
       </c>
       <c r="J86">
-        <v>7.18</v>
+        <v>12.8</v>
       </c>
       <c r="K86">
-        <v>14.44</v>
-      </c>
-      <c r="L86">
-        <v>8.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87">
         <v>549900</v>
       </c>
-      <c r="C87" t="s">
-        <v>7</v>
+      <c r="C87">
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E87">
         <v>2</v>
       </c>
       <c r="F87">
-        <v>77.84</v>
+        <v>58.14</v>
       </c>
       <c r="G87">
-        <v>20.77</v>
+        <v>3.16</v>
       </c>
       <c r="H87">
-        <v>20.77</v>
+        <v>5.47</v>
       </c>
       <c r="I87">
-        <v>5.98</v>
+        <v>19.84</v>
       </c>
       <c r="J87">
-        <v>5.98</v>
+        <v>7.18</v>
       </c>
       <c r="K87">
-        <v>14.42</v>
+        <v>14.44</v>
       </c>
       <c r="L87">
-        <v>9.92</v>
+        <v>8.05</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B88">
         <v>550000</v>
       </c>
-      <c r="C88" t="s">
-        <v>7</v>
+      <c r="C88">
+        <v>1</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -4346,13 +4337,13 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B89">
         <v>552800</v>
       </c>
-      <c r="C89" t="s">
-        <v>7</v>
+      <c r="C89">
+        <v>1</v>
       </c>
       <c r="D89">
         <v>2</v>
@@ -4381,13 +4372,13 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B90">
         <v>554988</v>
       </c>
-      <c r="C90" t="s">
-        <v>7</v>
+      <c r="C90">
+        <v>1</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -4417,103 +4408,103 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B91">
         <v>555000</v>
       </c>
-      <c r="C91" t="s">
-        <v>7</v>
+      <c r="C91">
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91">
-        <v>109.96</v>
+        <v>60.45</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>12.72</v>
       </c>
       <c r="H91">
-        <v>32.32</v>
+        <v>8.51</v>
       </c>
       <c r="I91">
-        <v>32.32</v>
+        <v>6.81</v>
       </c>
       <c r="J91">
-        <v>8.15</v>
+        <v>2.71</v>
       </c>
       <c r="K91">
-        <v>6.18</v>
+        <v>8.69</v>
       </c>
       <c r="L91">
-        <v>13.29</v>
+        <v>1.25</v>
       </c>
       <c r="M91">
-        <v>9.97</v>
-      </c>
-      <c r="N91">
-        <v>4.11</v>
-      </c>
-      <c r="O91">
-        <v>3.62</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19.76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B92">
         <v>555000</v>
       </c>
-      <c r="C92" t="s">
-        <v>7</v>
+      <c r="C92">
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>60.45</v>
+        <v>109.96</v>
       </c>
       <c r="G92">
-        <v>12.72</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>8.51</v>
+        <v>32.32</v>
       </c>
       <c r="I92">
-        <v>6.81</v>
+        <v>32.32</v>
       </c>
       <c r="J92">
-        <v>2.71</v>
+        <v>8.15</v>
       </c>
       <c r="K92">
-        <v>8.69</v>
+        <v>6.18</v>
       </c>
       <c r="L92">
-        <v>1.25</v>
+        <v>13.29</v>
       </c>
       <c r="M92">
-        <v>19.76</v>
+        <v>9.97</v>
+      </c>
+      <c r="N92">
+        <v>4.11</v>
+      </c>
+      <c r="O92">
+        <v>3.62</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B93">
         <v>555000</v>
       </c>
-      <c r="C93" t="s">
-        <v>7</v>
+      <c r="C93">
+        <v>1</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -4542,13 +4533,13 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B94">
         <v>558800</v>
       </c>
-      <c r="C94" t="s">
-        <v>7</v>
+      <c r="C94">
+        <v>1</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -4575,82 +4566,82 @@
         <v>4.54</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B95">
         <v>559000</v>
       </c>
-      <c r="C95" t="s">
-        <v>7</v>
+      <c r="C95">
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95">
-        <v>54.54</v>
+        <v>65.17</v>
       </c>
       <c r="G95">
-        <v>5.9</v>
+        <v>19.4</v>
       </c>
       <c r="H95">
-        <v>19.46</v>
+        <v>19.4</v>
       </c>
       <c r="I95">
-        <v>19.46</v>
+        <v>8.2</v>
       </c>
       <c r="J95">
-        <v>9.72</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11.07</v>
+      </c>
+      <c r="K95">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>559000</v>
       </c>
-      <c r="C96" t="s">
-        <v>7</v>
+      <c r="C96">
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>65.17</v>
+        <v>54.54</v>
       </c>
       <c r="G96">
-        <v>19.4</v>
+        <v>5.9</v>
       </c>
       <c r="H96">
-        <v>19.4</v>
+        <v>19.46</v>
       </c>
       <c r="I96">
-        <v>8.2</v>
+        <v>19.46</v>
       </c>
       <c r="J96">
-        <v>11.07</v>
-      </c>
-      <c r="K96">
-        <v>7.1</v>
+        <v>9.72</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>559000</v>
       </c>
-      <c r="C97" t="s">
-        <v>7</v>
+      <c r="C97">
+        <v>1</v>
       </c>
       <c r="D97">
         <v>3</v>
@@ -4677,88 +4668,88 @@
         <v>8.79</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B98">
         <v>559900</v>
       </c>
-      <c r="C98" t="s">
-        <v>7</v>
+      <c r="C98">
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E98">
         <v>2</v>
       </c>
       <c r="F98">
-        <v>57.85</v>
+        <v>60.97</v>
       </c>
       <c r="G98">
-        <v>16.4</v>
+        <v>12.26</v>
       </c>
       <c r="H98">
-        <v>8.8</v>
+        <v>8.17</v>
       </c>
       <c r="I98">
-        <v>7.25</v>
+        <v>5.88</v>
       </c>
       <c r="J98">
-        <v>14.95</v>
+        <v>18.59</v>
       </c>
       <c r="K98">
-        <v>10.45</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10.3</v>
+      </c>
+      <c r="L98">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>559900</v>
       </c>
-      <c r="C99" t="s">
-        <v>7</v>
+      <c r="C99">
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E99">
         <v>2</v>
       </c>
       <c r="F99">
-        <v>60.97</v>
+        <v>57.85</v>
       </c>
       <c r="G99">
-        <v>12.26</v>
+        <v>16.4</v>
       </c>
       <c r="H99">
-        <v>8.17</v>
+        <v>8.8</v>
       </c>
       <c r="I99">
-        <v>5.88</v>
+        <v>7.25</v>
       </c>
       <c r="J99">
-        <v>18.59</v>
+        <v>14.95</v>
       </c>
       <c r="K99">
-        <v>10.3</v>
-      </c>
-      <c r="L99">
-        <v>5.77</v>
+        <v>10.45</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>559999</v>
       </c>
-      <c r="C100" t="s">
-        <v>7</v>
+      <c r="C100">
+        <v>1</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -4790,13 +4781,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101">
         <v>559999</v>
       </c>
-      <c r="C101" t="s">
-        <v>7</v>
+      <c r="C101">
+        <v>1</v>
       </c>
       <c r="D101">
         <v>3</v>
@@ -4831,13 +4822,13 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>564900</v>
       </c>
-      <c r="C102" t="s">
-        <v>7</v>
+      <c r="C102">
+        <v>1</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -4869,13 +4860,13 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>565000</v>
       </c>
-      <c r="C103" t="s">
-        <v>7</v>
+      <c r="C103">
+        <v>1</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -4907,13 +4898,13 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>565000</v>
       </c>
-      <c r="C104" t="s">
-        <v>7</v>
+      <c r="C104">
+        <v>1</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -4942,13 +4933,13 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B105">
         <v>569000</v>
       </c>
-      <c r="C105" t="s">
-        <v>7</v>
+      <c r="C105">
+        <v>1</v>
       </c>
       <c r="D105">
         <v>4</v>
@@ -4983,13 +4974,13 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B106">
         <v>569800</v>
       </c>
-      <c r="C106" t="s">
-        <v>7</v>
+      <c r="C106">
+        <v>1</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -5021,51 +5012,51 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B107">
         <v>569900</v>
       </c>
-      <c r="C107" t="s">
-        <v>7</v>
+      <c r="C107">
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>72.47</v>
+        <v>59.42</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>4.47</v>
       </c>
       <c r="H107">
-        <v>42.74</v>
+        <v>5.95</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>18.91</v>
       </c>
       <c r="J107">
-        <v>8.92</v>
+        <v>18.91</v>
       </c>
       <c r="K107">
-        <v>7.43</v>
+        <v>11.18</v>
       </c>
       <c r="L107">
-        <v>13.38</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B108">
         <v>569900</v>
       </c>
-      <c r="C108" t="s">
-        <v>7</v>
+      <c r="C108">
+        <v>1</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -5074,109 +5065,109 @@
         <v>2</v>
       </c>
       <c r="F108">
-        <v>75.25</v>
+        <v>90.43</v>
       </c>
       <c r="G108">
-        <v>13.84</v>
+        <v>23.54</v>
       </c>
       <c r="H108">
-        <v>7.98</v>
+        <v>23.54</v>
       </c>
       <c r="I108">
-        <v>10.07</v>
+        <v>10.36</v>
       </c>
       <c r="J108">
-        <v>43.36</v>
+        <v>6.31</v>
       </c>
       <c r="K108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+        <v>15.34</v>
+      </c>
+      <c r="L108">
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B109">
         <v>569900</v>
       </c>
-      <c r="C109" t="s">
-        <v>7</v>
+      <c r="C109">
+        <v>1</v>
       </c>
       <c r="D109">
         <v>2</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F109">
-        <v>59.42</v>
+        <v>53.97</v>
       </c>
       <c r="G109">
-        <v>4.47</v>
+        <v>11.18</v>
       </c>
       <c r="H109">
-        <v>5.95</v>
+        <v>11.18</v>
       </c>
       <c r="I109">
-        <v>18.91</v>
+        <v>13.1</v>
       </c>
       <c r="J109">
-        <v>18.91</v>
+        <v>11.8</v>
       </c>
       <c r="K109">
-        <v>11.18</v>
-      </c>
-      <c r="L109">
-        <v>0</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B110">
         <v>569900</v>
       </c>
-      <c r="C110" t="s">
-        <v>7</v>
+      <c r="C110">
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110">
         <v>2</v>
       </c>
       <c r="F110">
-        <v>90.43</v>
+        <v>72.47</v>
       </c>
       <c r="G110">
-        <v>23.54</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>23.54</v>
+        <v>42.74</v>
       </c>
       <c r="I110">
-        <v>10.36</v>
+        <v>0</v>
       </c>
       <c r="J110">
-        <v>6.31</v>
+        <v>8.92</v>
       </c>
       <c r="K110">
-        <v>15.34</v>
+        <v>7.43</v>
       </c>
       <c r="L110">
-        <v>11.34</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B111">
         <v>569900</v>
       </c>
-      <c r="C111" t="s">
-        <v>7</v>
+      <c r="C111">
+        <v>1</v>
       </c>
       <c r="D111">
         <v>2</v>
@@ -5185,33 +5176,33 @@
         <v>2</v>
       </c>
       <c r="F111">
-        <v>53.97</v>
+        <v>75.25</v>
       </c>
       <c r="G111">
-        <v>11.18</v>
+        <v>13.84</v>
       </c>
       <c r="H111">
-        <v>11.18</v>
+        <v>7.98</v>
       </c>
       <c r="I111">
-        <v>13.1</v>
+        <v>10.07</v>
       </c>
       <c r="J111">
-        <v>11.8</v>
+        <v>43.36</v>
       </c>
       <c r="K111">
-        <v>6.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B112">
         <v>574900</v>
       </c>
-      <c r="C112" t="s">
-        <v>7</v>
+      <c r="C112">
+        <v>1</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -5243,13 +5234,13 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B113">
         <v>574900</v>
       </c>
-      <c r="C113" t="s">
-        <v>7</v>
+      <c r="C113">
+        <v>1</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -5284,13 +5275,13 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B114">
         <v>574900</v>
       </c>
-      <c r="C114" t="s">
-        <v>7</v>
+      <c r="C114">
+        <v>1</v>
       </c>
       <c r="D114">
         <v>2</v>
@@ -5319,13 +5310,13 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B115">
         <v>574999</v>
       </c>
-      <c r="C115" t="s">
-        <v>7</v>
+      <c r="C115">
+        <v>1</v>
       </c>
       <c r="D115">
         <v>3</v>
@@ -5357,13 +5348,13 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B116">
         <v>575000</v>
       </c>
-      <c r="C116" t="s">
-        <v>7</v>
+      <c r="C116">
+        <v>1</v>
       </c>
       <c r="D116">
         <v>3</v>
@@ -5398,13 +5389,13 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B117">
         <v>575000</v>
       </c>
-      <c r="C117" t="s">
-        <v>7</v>
+      <c r="C117">
+        <v>1</v>
       </c>
       <c r="D117">
         <v>3</v>
@@ -5436,13 +5427,13 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B118">
         <v>575000</v>
       </c>
-      <c r="C118" t="s">
-        <v>7</v>
+      <c r="C118">
+        <v>1</v>
       </c>
       <c r="D118">
         <v>3</v>
@@ -5474,13 +5465,13 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B119">
         <v>579000</v>
       </c>
-      <c r="C119" t="s">
-        <v>7</v>
+      <c r="C119">
+        <v>1</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -5512,13 +5503,13 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B120">
         <v>579000</v>
       </c>
-      <c r="C120" t="s">
-        <v>7</v>
+      <c r="C120">
+        <v>1</v>
       </c>
       <c r="D120">
         <v>2</v>
@@ -5545,88 +5536,88 @@
         <v>9.12</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B121">
         <v>579000</v>
       </c>
-      <c r="C121" t="s">
-        <v>7</v>
+      <c r="C121">
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E121">
         <v>2</v>
       </c>
       <c r="F121">
-        <v>57.38</v>
+        <v>52.94</v>
       </c>
       <c r="G121">
-        <v>17.4</v>
+        <v>13.28</v>
       </c>
       <c r="H121">
-        <v>17.4</v>
+        <v>7.67</v>
       </c>
       <c r="I121">
+        <v>5.02</v>
+      </c>
+      <c r="J121">
+        <v>13.57</v>
+      </c>
+      <c r="K121">
+        <v>6.71</v>
+      </c>
+      <c r="L121">
         <v>6.69</v>
       </c>
-      <c r="J121">
-        <v>8.55</v>
-      </c>
-      <c r="K121">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B122">
         <v>579000</v>
       </c>
-      <c r="C122" t="s">
-        <v>7</v>
+      <c r="C122">
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E122">
         <v>2</v>
       </c>
       <c r="F122">
-        <v>52.94</v>
+        <v>57.38</v>
       </c>
       <c r="G122">
-        <v>13.28</v>
+        <v>17.4</v>
       </c>
       <c r="H122">
-        <v>7.67</v>
+        <v>17.4</v>
       </c>
       <c r="I122">
-        <v>5.02</v>
+        <v>6.69</v>
       </c>
       <c r="J122">
-        <v>13.57</v>
+        <v>8.55</v>
       </c>
       <c r="K122">
-        <v>6.71</v>
-      </c>
-      <c r="L122">
-        <v>6.69</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B123">
         <v>579900</v>
       </c>
-      <c r="C123" t="s">
-        <v>129</v>
+      <c r="C123">
+        <v>0</v>
       </c>
       <c r="D123">
         <v>3</v>
@@ -5667,13 +5658,13 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B124">
         <v>579900</v>
       </c>
-      <c r="C124" t="s">
-        <v>7</v>
+      <c r="C124">
+        <v>1</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -5702,13 +5693,13 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B125">
         <v>585000</v>
       </c>
-      <c r="C125" t="s">
-        <v>7</v>
+      <c r="C125">
+        <v>1</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -5743,13 +5734,13 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B126">
         <v>589000</v>
       </c>
-      <c r="C126" t="s">
-        <v>7</v>
+      <c r="C126">
+        <v>1</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -5758,115 +5749,115 @@
         <v>2</v>
       </c>
       <c r="F126">
-        <v>68.54</v>
+        <v>87.44</v>
       </c>
       <c r="G126">
-        <v>10.86</v>
+        <v>17.09</v>
       </c>
       <c r="H126">
-        <v>15.76</v>
+        <v>22.98</v>
       </c>
       <c r="I126">
-        <v>10.48</v>
+        <v>22.98</v>
       </c>
       <c r="J126">
-        <v>15.68</v>
+        <v>6.96</v>
       </c>
       <c r="K126">
-        <v>9.3</v>
+        <v>5.85</v>
       </c>
       <c r="L126">
-        <v>6.46</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B127">
         <v>589000</v>
       </c>
-      <c r="C127" t="s">
-        <v>129</v>
+      <c r="C127">
+        <v>1</v>
       </c>
       <c r="D127">
         <v>3</v>
       </c>
       <c r="E127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F127">
-        <v>55.39</v>
+        <v>80.71</v>
       </c>
       <c r="G127">
-        <v>11.62</v>
+        <v>17.65</v>
       </c>
       <c r="H127">
-        <v>8.09</v>
+        <v>11.22</v>
       </c>
       <c r="I127">
-        <v>13.27</v>
+        <v>6.96</v>
       </c>
       <c r="J127">
-        <v>10.22</v>
+        <v>15.41</v>
       </c>
       <c r="K127">
-        <v>6.7</v>
+        <v>13.74</v>
       </c>
       <c r="L127">
-        <v>5.49</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9.52</v>
+      </c>
+      <c r="M127">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B128">
         <v>589000</v>
       </c>
-      <c r="C128" t="s">
-        <v>7</v>
+      <c r="C128">
+        <v>0</v>
       </c>
       <c r="D128">
         <v>3</v>
       </c>
       <c r="E128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F128">
-        <v>80.71</v>
+        <v>55.39</v>
       </c>
       <c r="G128">
-        <v>17.65</v>
+        <v>11.62</v>
       </c>
       <c r="H128">
-        <v>11.22</v>
+        <v>8.09</v>
       </c>
       <c r="I128">
-        <v>6.96</v>
+        <v>13.27</v>
       </c>
       <c r="J128">
-        <v>15.41</v>
+        <v>10.22</v>
       </c>
       <c r="K128">
-        <v>13.74</v>
+        <v>6.7</v>
       </c>
       <c r="L128">
-        <v>9.52</v>
-      </c>
-      <c r="M128">
-        <v>6.21</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B129">
         <v>589000</v>
       </c>
-      <c r="C129" t="s">
-        <v>7</v>
+      <c r="C129">
+        <v>1</v>
       </c>
       <c r="D129">
         <v>2</v>
@@ -5875,36 +5866,36 @@
         <v>2</v>
       </c>
       <c r="F129">
-        <v>87.44</v>
+        <v>68.54</v>
       </c>
       <c r="G129">
-        <v>17.09</v>
+        <v>10.86</v>
       </c>
       <c r="H129">
-        <v>22.98</v>
+        <v>15.76</v>
       </c>
       <c r="I129">
-        <v>22.98</v>
+        <v>10.48</v>
       </c>
       <c r="J129">
-        <v>6.96</v>
+        <v>15.68</v>
       </c>
       <c r="K129">
-        <v>5.85</v>
+        <v>9.3</v>
       </c>
       <c r="L129">
-        <v>11.58</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B130">
         <v>589000</v>
       </c>
-      <c r="C130" t="s">
-        <v>7</v>
+      <c r="C130">
+        <v>1</v>
       </c>
       <c r="D130">
         <v>2</v>
@@ -5936,13 +5927,13 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B131">
         <v>589000</v>
       </c>
-      <c r="C131" t="s">
-        <v>7</v>
+      <c r="C131">
+        <v>1</v>
       </c>
       <c r="D131">
         <v>2</v>
@@ -5974,13 +5965,13 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B132">
         <v>589000</v>
       </c>
-      <c r="C132" t="s">
-        <v>7</v>
+      <c r="C132">
+        <v>1</v>
       </c>
       <c r="D132">
         <v>3</v>
@@ -6012,13 +6003,13 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B133">
         <v>589800</v>
       </c>
-      <c r="C133" t="s">
-        <v>7</v>
+      <c r="C133">
+        <v>1</v>
       </c>
       <c r="D133">
         <v>2</v>
@@ -6047,95 +6038,95 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B134">
         <v>589900</v>
       </c>
-      <c r="C134" t="s">
-        <v>7</v>
+      <c r="C134">
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E134">
         <v>2</v>
       </c>
       <c r="F134">
-        <v>37.21</v>
+        <v>37.12</v>
       </c>
       <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>2.79</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>13.46</v>
+      </c>
+      <c r="L134">
+        <v>5.03</v>
+      </c>
+      <c r="M134">
         <v>15.84</v>
-      </c>
-      <c r="H134">
-        <v>5.1</v>
-      </c>
-      <c r="I134">
-        <v>13.49</v>
-      </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
-      <c r="K134">
-        <v>0</v>
-      </c>
-      <c r="L134">
-        <v>2.78</v>
-      </c>
-      <c r="M134">
-        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B135">
         <v>589900</v>
       </c>
-      <c r="C135" t="s">
-        <v>7</v>
+      <c r="C135">
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E135">
         <v>2</v>
       </c>
       <c r="F135">
-        <v>37.12</v>
+        <v>37.21</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>15.84</v>
       </c>
       <c r="H135">
-        <v>2.79</v>
+        <v>5.1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>13.49</v>
       </c>
       <c r="J135">
         <v>0</v>
       </c>
       <c r="K135">
-        <v>13.46</v>
+        <v>0</v>
       </c>
       <c r="L135">
-        <v>5.03</v>
+        <v>2.78</v>
       </c>
       <c r="M135">
-        <v>15.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B136">
         <v>589900</v>
       </c>
-      <c r="C136" t="s">
-        <v>7</v>
+      <c r="C136">
+        <v>1</v>
       </c>
       <c r="D136">
         <v>3</v>
@@ -6167,13 +6158,13 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B137">
         <v>590000</v>
       </c>
-      <c r="C137" t="s">
-        <v>7</v>
+      <c r="C137">
+        <v>1</v>
       </c>
       <c r="D137">
         <v>2</v>
@@ -6202,13 +6193,13 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B138">
         <v>596500</v>
       </c>
-      <c r="C138" t="s">
-        <v>7</v>
+      <c r="C138">
+        <v>1</v>
       </c>
       <c r="D138">
         <v>3</v>
@@ -6246,13 +6237,13 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B139">
         <v>598900</v>
       </c>
-      <c r="C139" t="s">
-        <v>7</v>
+      <c r="C139">
+        <v>1</v>
       </c>
       <c r="D139">
         <v>3</v>
@@ -6291,88 +6282,88 @@
         <v>7.09</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B140">
         <v>599000</v>
       </c>
-      <c r="C140" t="s">
-        <v>7</v>
+      <c r="C140">
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F140">
-        <v>137.62</v>
+        <v>93.8</v>
       </c>
       <c r="G140">
-        <v>46.48</v>
+        <v>28.86</v>
       </c>
       <c r="H140">
-        <v>46.48</v>
+        <v>28.86</v>
       </c>
       <c r="I140">
-        <v>9.3</v>
+        <v>6.3</v>
       </c>
       <c r="J140">
-        <v>21.19</v>
+        <v>15.12</v>
       </c>
       <c r="K140">
-        <v>14.17</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9.09</v>
+      </c>
+      <c r="L140">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B141">
         <v>599000</v>
       </c>
-      <c r="C141" t="s">
-        <v>7</v>
+      <c r="C141">
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F141">
-        <v>93.8</v>
+        <v>137.62</v>
       </c>
       <c r="G141">
-        <v>28.86</v>
+        <v>46.48</v>
       </c>
       <c r="H141">
-        <v>28.86</v>
+        <v>46.48</v>
       </c>
       <c r="I141">
-        <v>6.3</v>
+        <v>9.3</v>
       </c>
       <c r="J141">
-        <v>15.12</v>
+        <v>21.19</v>
       </c>
       <c r="K141">
-        <v>9.09</v>
-      </c>
-      <c r="L141">
-        <v>5.57</v>
+        <v>14.17</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B142">
         <v>599000</v>
       </c>
-      <c r="C142" t="s">
-        <v>7</v>
+      <c r="C142">
+        <v>1</v>
       </c>
       <c r="D142">
         <v>3</v>
@@ -6404,13 +6395,13 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B143">
         <v>599000</v>
       </c>
-      <c r="C143" t="s">
-        <v>7</v>
+      <c r="C143">
+        <v>1</v>
       </c>
       <c r="D143">
         <v>2</v>
@@ -6439,13 +6430,13 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B144">
         <v>599000</v>
       </c>
-      <c r="C144" t="s">
-        <v>7</v>
+      <c r="C144">
+        <v>1</v>
       </c>
       <c r="D144">
         <v>3</v>
@@ -6477,13 +6468,13 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B145">
         <v>599000</v>
       </c>
-      <c r="C145" t="s">
-        <v>7</v>
+      <c r="C145">
+        <v>1</v>
       </c>
       <c r="D145">
         <v>3</v>
@@ -6515,13 +6506,13 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B146">
         <v>599900</v>
       </c>
-      <c r="C146" t="s">
-        <v>7</v>
+      <c r="C146">
+        <v>1</v>
       </c>
       <c r="D146">
         <v>3</v>
@@ -6559,13 +6550,13 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B147">
         <v>599900</v>
       </c>
-      <c r="C147" t="s">
-        <v>7</v>
+      <c r="C147">
+        <v>1</v>
       </c>
       <c r="D147">
         <v>2</v>
@@ -6597,13 +6588,13 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B148">
         <v>599900</v>
       </c>
-      <c r="C148" t="s">
-        <v>7</v>
+      <c r="C148">
+        <v>1</v>
       </c>
       <c r="D148">
         <v>2</v>
@@ -6635,13 +6626,13 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B149">
         <v>599900</v>
       </c>
-      <c r="C149" t="s">
-        <v>7</v>
+      <c r="C149">
+        <v>1</v>
       </c>
       <c r="D149">
         <v>2</v>
@@ -6670,13 +6661,13 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B150">
         <v>599900</v>
       </c>
-      <c r="C150" t="s">
-        <v>7</v>
+      <c r="C150">
+        <v>1</v>
       </c>
       <c r="D150">
         <v>2</v>
@@ -6708,13 +6699,13 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B151">
         <v>599900</v>
       </c>
-      <c r="C151" t="s">
-        <v>7</v>
+      <c r="C151">
+        <v>1</v>
       </c>
       <c r="D151">
         <v>3</v>
@@ -6746,13 +6737,13 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B152">
         <v>599900</v>
       </c>
-      <c r="C152" t="s">
-        <v>7</v>
+      <c r="C152">
+        <v>1</v>
       </c>
       <c r="D152">
         <v>3</v>
@@ -6784,13 +6775,13 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B153">
         <v>599900</v>
       </c>
-      <c r="C153" t="s">
-        <v>7</v>
+      <c r="C153">
+        <v>1</v>
       </c>
       <c r="D153">
         <v>2</v>
@@ -6819,13 +6810,13 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B154">
         <v>599900</v>
       </c>
-      <c r="C154" t="s">
-        <v>7</v>
+      <c r="C154">
+        <v>1</v>
       </c>
       <c r="D154">
         <v>3</v>
@@ -6857,13 +6848,13 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B155">
         <v>599999</v>
       </c>
-      <c r="C155" t="s">
-        <v>7</v>
+      <c r="C155">
+        <v>1</v>
       </c>
       <c r="D155">
         <v>2</v>
@@ -6892,13 +6883,13 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B156">
         <v>600000</v>
       </c>
-      <c r="C156" t="s">
-        <v>7</v>
+      <c r="C156">
+        <v>1</v>
       </c>
       <c r="D156">
         <v>2</v>
@@ -6927,13 +6918,13 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B157">
         <v>606000</v>
       </c>
-      <c r="C157" t="s">
-        <v>7</v>
+      <c r="C157">
+        <v>1</v>
       </c>
       <c r="D157">
         <v>3</v>
@@ -6965,13 +6956,13 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B158">
         <v>612000</v>
       </c>
-      <c r="C158" t="s">
-        <v>7</v>
+      <c r="C158">
+        <v>1</v>
       </c>
       <c r="D158">
         <v>3</v>
@@ -7003,13 +6994,13 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B159">
         <v>615000</v>
       </c>
-      <c r="C159" t="s">
-        <v>7</v>
+      <c r="C159">
+        <v>1</v>
       </c>
       <c r="D159">
         <v>2</v>
@@ -7018,48 +7009,48 @@
         <v>2</v>
       </c>
       <c r="F159">
-        <v>150.66</v>
+        <v>88.06</v>
       </c>
       <c r="G159">
-        <v>6.04</v>
+        <v>9.3</v>
       </c>
       <c r="H159">
-        <v>36.41</v>
+        <v>13.02</v>
       </c>
       <c r="I159">
-        <v>12.52</v>
+        <v>0</v>
       </c>
       <c r="J159">
-        <v>21.3</v>
+        <v>19.52</v>
       </c>
       <c r="K159">
-        <v>12.74</v>
+        <v>0</v>
       </c>
       <c r="L159">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="M159">
-        <v>27.41</v>
+        <v>8.17</v>
       </c>
       <c r="N159">
-        <v>0</v>
+        <v>9.18</v>
       </c>
       <c r="O159">
-        <v>18.65</v>
+        <v>21.44</v>
       </c>
       <c r="P159">
-        <v>15.59</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B160">
         <v>615000</v>
       </c>
-      <c r="C160" t="s">
-        <v>7</v>
+      <c r="C160">
+        <v>1</v>
       </c>
       <c r="D160">
         <v>2</v>
@@ -7068,48 +7059,48 @@
         <v>2</v>
       </c>
       <c r="F160">
-        <v>88.06</v>
+        <v>150.66</v>
       </c>
       <c r="G160">
-        <v>9.3</v>
+        <v>6.04</v>
       </c>
       <c r="H160">
-        <v>13.02</v>
+        <v>36.41</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>12.52</v>
       </c>
       <c r="J160">
-        <v>19.52</v>
+        <v>21.3</v>
       </c>
       <c r="K160">
-        <v>0</v>
+        <v>12.74</v>
       </c>
       <c r="L160">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="M160">
-        <v>8.17</v>
+        <v>27.41</v>
       </c>
       <c r="N160">
-        <v>9.18</v>
+        <v>0</v>
       </c>
       <c r="O160">
-        <v>21.44</v>
+        <v>18.65</v>
       </c>
       <c r="P160">
-        <v>2.23</v>
+        <v>15.59</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B161">
         <v>619000</v>
       </c>
-      <c r="C161" t="s">
-        <v>7</v>
+      <c r="C161">
+        <v>1</v>
       </c>
       <c r="D161">
         <v>3</v>
@@ -7141,13 +7132,13 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B162">
         <v>619000</v>
       </c>
-      <c r="C162" t="s">
-        <v>7</v>
+      <c r="C162">
+        <v>1</v>
       </c>
       <c r="D162">
         <v>2</v>
@@ -7176,13 +7167,13 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B163">
         <v>619900</v>
       </c>
-      <c r="C163" t="s">
-        <v>7</v>
+      <c r="C163">
+        <v>1</v>
       </c>
       <c r="D163">
         <v>3</v>
@@ -7191,36 +7182,36 @@
         <v>2</v>
       </c>
       <c r="F163">
-        <v>76.51</v>
+        <v>64.01</v>
       </c>
       <c r="G163">
-        <v>19.25</v>
+        <v>17.7</v>
       </c>
       <c r="H163">
-        <v>19.25</v>
+        <v>17.7</v>
       </c>
       <c r="I163">
-        <v>12.51</v>
+        <v>6.95</v>
       </c>
       <c r="J163">
-        <v>11</v>
+        <v>9.24</v>
       </c>
       <c r="K163">
-        <v>9.06</v>
+        <v>8.33</v>
       </c>
       <c r="L163">
-        <v>5.44</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B164">
         <v>619900</v>
       </c>
-      <c r="C164" t="s">
-        <v>7</v>
+      <c r="C164">
+        <v>1</v>
       </c>
       <c r="D164">
         <v>3</v>
@@ -7252,13 +7243,13 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B165">
         <v>619900</v>
       </c>
-      <c r="C165" t="s">
-        <v>7</v>
+      <c r="C165">
+        <v>1</v>
       </c>
       <c r="D165">
         <v>3</v>
@@ -7267,109 +7258,109 @@
         <v>2</v>
       </c>
       <c r="F165">
-        <v>64.01</v>
+        <v>76.51</v>
       </c>
       <c r="G165">
-        <v>17.7</v>
+        <v>19.25</v>
       </c>
       <c r="H165">
-        <v>17.7</v>
+        <v>19.25</v>
       </c>
       <c r="I165">
-        <v>6.95</v>
+        <v>12.51</v>
       </c>
       <c r="J165">
-        <v>9.24</v>
+        <v>11</v>
       </c>
       <c r="K165">
-        <v>8.33</v>
+        <v>9.06</v>
       </c>
       <c r="L165">
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B166">
         <v>620000</v>
       </c>
-      <c r="C166" t="s">
-        <v>7</v>
+      <c r="C166">
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E166">
         <v>2</v>
       </c>
       <c r="F166">
-        <v>74.09</v>
+        <v>154.71</v>
       </c>
       <c r="G166">
-        <v>22.69</v>
+        <v>21.42</v>
       </c>
       <c r="H166">
-        <v>22.69</v>
+        <v>21.42</v>
       </c>
       <c r="I166">
-        <v>6.99</v>
+        <v>5.69</v>
       </c>
       <c r="J166">
-        <v>13.36</v>
+        <v>16.32</v>
       </c>
       <c r="K166">
-        <v>8.36</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="L166">
+        <v>12.86</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B167">
         <v>620000</v>
       </c>
-      <c r="C167" t="s">
-        <v>7</v>
+      <c r="C167">
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E167">
         <v>2</v>
       </c>
       <c r="F167">
-        <v>154.71</v>
+        <v>74.09</v>
       </c>
       <c r="G167">
-        <v>21.42</v>
+        <v>22.69</v>
       </c>
       <c r="H167">
-        <v>21.42</v>
+        <v>22.69</v>
       </c>
       <c r="I167">
-        <v>5.69</v>
+        <v>6.99</v>
       </c>
       <c r="J167">
-        <v>16.32</v>
+        <v>13.36</v>
       </c>
       <c r="K167">
-        <v>77</v>
-      </c>
-      <c r="L167">
-        <v>12.86</v>
+        <v>8.36</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B168">
         <v>625000</v>
       </c>
-      <c r="C168" t="s">
-        <v>7</v>
+      <c r="C168">
+        <v>1</v>
       </c>
       <c r="D168">
         <v>3</v>
@@ -7401,11 +7392,14 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B169">
         <v>629000</v>
       </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
       <c r="D169">
         <v>3</v>
       </c>
@@ -7436,13 +7430,13 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B170">
         <v>629999</v>
       </c>
-      <c r="C170" t="s">
-        <v>7</v>
+      <c r="C170">
+        <v>1</v>
       </c>
       <c r="D170">
         <v>2</v>
@@ -7471,13 +7465,13 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B171">
         <v>632000</v>
       </c>
-      <c r="C171" t="s">
-        <v>7</v>
+      <c r="C171">
+        <v>1</v>
       </c>
       <c r="D171">
         <v>2</v>
@@ -7512,13 +7506,13 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B172">
         <v>635000</v>
       </c>
-      <c r="C172" t="s">
-        <v>7</v>
+      <c r="C172">
+        <v>1</v>
       </c>
       <c r="D172">
         <v>2</v>
@@ -7547,13 +7541,13 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B173">
         <v>639000</v>
       </c>
-      <c r="C173" t="s">
-        <v>7</v>
+      <c r="C173">
+        <v>1</v>
       </c>
       <c r="D173">
         <v>3</v>
@@ -7585,13 +7579,13 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B174">
         <v>639999</v>
       </c>
-      <c r="C174" t="s">
-        <v>7</v>
+      <c r="C174">
+        <v>1</v>
       </c>
       <c r="D174">
         <v>2</v>
@@ -7626,13 +7620,13 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B175">
         <v>645000</v>
       </c>
-      <c r="C175" t="s">
-        <v>7</v>
+      <c r="C175">
+        <v>1</v>
       </c>
       <c r="D175">
         <v>3</v>
@@ -7664,13 +7658,13 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B176">
         <v>649000</v>
       </c>
-      <c r="C176" t="s">
-        <v>7</v>
+      <c r="C176">
+        <v>1</v>
       </c>
       <c r="D176">
         <v>3</v>
@@ -7700,15 +7694,15 @@
         <v>6.47</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B177">
         <v>649900</v>
       </c>
-      <c r="C177" t="s">
-        <v>7</v>
+      <c r="C177">
+        <v>1</v>
       </c>
       <c r="D177">
         <v>3</v>
@@ -7717,33 +7711,36 @@
         <v>2</v>
       </c>
       <c r="F177">
-        <v>54.34</v>
+        <v>76.02</v>
       </c>
       <c r="G177">
-        <v>18.79</v>
+        <v>22.88</v>
       </c>
       <c r="H177">
-        <v>6.02</v>
+        <v>22.88</v>
       </c>
       <c r="I177">
-        <v>12.93</v>
+        <v>5.95</v>
       </c>
       <c r="J177">
-        <v>10.66</v>
+        <v>11.16</v>
       </c>
       <c r="K177">
-        <v>5.94</v>
+        <v>9.01</v>
+      </c>
+      <c r="L177">
+        <v>4.14</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B178">
         <v>649900</v>
       </c>
-      <c r="C178" t="s">
-        <v>7</v>
+      <c r="C178">
+        <v>1</v>
       </c>
       <c r="D178">
         <v>3</v>
@@ -7752,36 +7749,36 @@
         <v>2</v>
       </c>
       <c r="F178">
-        <v>76.02</v>
+        <v>67.78</v>
       </c>
       <c r="G178">
-        <v>22.88</v>
+        <v>19.22</v>
       </c>
       <c r="H178">
-        <v>22.88</v>
+        <v>19.22</v>
       </c>
       <c r="I178">
-        <v>5.95</v>
+        <v>6.29</v>
       </c>
       <c r="J178">
-        <v>11.16</v>
+        <v>3.91</v>
       </c>
       <c r="K178">
-        <v>9.01</v>
+        <v>11.39</v>
       </c>
       <c r="L178">
-        <v>4.14</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B179">
         <v>649900</v>
       </c>
-      <c r="C179" t="s">
-        <v>7</v>
+      <c r="C179">
+        <v>1</v>
       </c>
       <c r="D179">
         <v>3</v>
@@ -7790,36 +7787,33 @@
         <v>2</v>
       </c>
       <c r="F179">
-        <v>67.78</v>
+        <v>54.34</v>
       </c>
       <c r="G179">
-        <v>19.22</v>
+        <v>18.79</v>
       </c>
       <c r="H179">
-        <v>19.22</v>
+        <v>6.02</v>
       </c>
       <c r="I179">
-        <v>6.29</v>
+        <v>12.93</v>
       </c>
       <c r="J179">
-        <v>3.91</v>
+        <v>10.66</v>
       </c>
       <c r="K179">
-        <v>11.39</v>
-      </c>
-      <c r="L179">
-        <v>7.75</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B180">
         <v>649999</v>
       </c>
-      <c r="C180" t="s">
-        <v>7</v>
+      <c r="C180">
+        <v>1</v>
       </c>
       <c r="D180">
         <v>2</v>
@@ -7848,13 +7842,13 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B181">
         <v>650000</v>
       </c>
-      <c r="C181" t="s">
-        <v>7</v>
+      <c r="C181">
+        <v>1</v>
       </c>
       <c r="D181">
         <v>3</v>
@@ -7889,13 +7883,13 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B182">
         <v>670000</v>
       </c>
-      <c r="C182" t="s">
-        <v>7</v>
+      <c r="C182">
+        <v>1</v>
       </c>
       <c r="D182">
         <v>2</v>
@@ -7927,13 +7921,13 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B183">
         <v>673900</v>
       </c>
-      <c r="C183" t="s">
-        <v>7</v>
+      <c r="C183">
+        <v>1</v>
       </c>
       <c r="D183">
         <v>3</v>
@@ -7965,13 +7959,13 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B184">
         <v>674900</v>
       </c>
-      <c r="C184" t="s">
-        <v>129</v>
+      <c r="C184">
+        <v>0</v>
       </c>
       <c r="D184">
         <v>3</v>
@@ -8009,13 +8003,13 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B185">
         <v>679000</v>
       </c>
-      <c r="C185" t="s">
-        <v>7</v>
+      <c r="C185">
+        <v>1</v>
       </c>
       <c r="D185">
         <v>3</v>
@@ -8053,13 +8047,13 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B186">
         <v>679000</v>
       </c>
-      <c r="C186" t="s">
-        <v>129</v>
+      <c r="C186">
+        <v>0</v>
       </c>
       <c r="D186">
         <v>4</v>
@@ -8094,13 +8088,13 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B187">
         <v>685000</v>
       </c>
-      <c r="C187" t="s">
-        <v>7</v>
+      <c r="C187">
+        <v>1</v>
       </c>
       <c r="D187">
         <v>3</v>
@@ -8135,13 +8129,13 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B188">
         <v>689000</v>
       </c>
-      <c r="C188" t="s">
-        <v>129</v>
+      <c r="C188">
+        <v>0</v>
       </c>
       <c r="D188">
         <v>3</v>
@@ -8176,13 +8170,13 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B189">
         <v>689900</v>
       </c>
-      <c r="C189" t="s">
-        <v>7</v>
+      <c r="C189">
+        <v>1</v>
       </c>
       <c r="D189">
         <v>3</v>
@@ -8212,15 +8206,15 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B190">
         <v>699000</v>
       </c>
-      <c r="C190" t="s">
-        <v>7</v>
+      <c r="C190">
+        <v>1</v>
       </c>
       <c r="D190">
         <v>3</v>
@@ -8229,39 +8223,42 @@
         <v>2</v>
       </c>
       <c r="F190">
-        <v>82.3</v>
+        <v>87.15</v>
       </c>
       <c r="G190">
-        <v>20.64</v>
+        <v>18.65</v>
       </c>
       <c r="H190">
-        <v>11.92</v>
+        <v>12.14</v>
       </c>
       <c r="I190">
-        <v>7.25</v>
+        <v>10.52</v>
       </c>
       <c r="J190">
-        <v>9.35</v>
+        <v>10.52</v>
       </c>
       <c r="K190">
-        <v>7.25</v>
+        <v>15.44</v>
       </c>
       <c r="L190">
-        <v>15.97</v>
+        <v>10.39</v>
       </c>
       <c r="M190">
-        <v>9.92</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9.49</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B191">
         <v>699000</v>
       </c>
-      <c r="C191" t="s">
-        <v>7</v>
+      <c r="C191">
+        <v>1</v>
       </c>
       <c r="D191">
         <v>3</v>
@@ -8270,42 +8267,36 @@
         <v>2</v>
       </c>
       <c r="F191">
-        <v>87.15</v>
+        <v>75.98</v>
       </c>
       <c r="G191">
-        <v>18.65</v>
+        <v>18.13</v>
       </c>
       <c r="H191">
-        <v>12.14</v>
+        <v>12.75</v>
       </c>
       <c r="I191">
-        <v>10.52</v>
+        <v>11.5</v>
       </c>
       <c r="J191">
-        <v>10.52</v>
+        <v>13.86</v>
       </c>
       <c r="K191">
-        <v>15.44</v>
+        <v>10.32</v>
       </c>
       <c r="L191">
-        <v>10.39</v>
-      </c>
-      <c r="M191">
-        <v>9.49</v>
-      </c>
-      <c r="N191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B192">
         <v>699000</v>
       </c>
-      <c r="C192" t="s">
-        <v>7</v>
+      <c r="C192">
+        <v>1</v>
       </c>
       <c r="D192">
         <v>3</v>
@@ -8314,36 +8305,39 @@
         <v>2</v>
       </c>
       <c r="F192">
-        <v>75.98</v>
+        <v>82.3</v>
       </c>
       <c r="G192">
-        <v>18.13</v>
+        <v>20.64</v>
       </c>
       <c r="H192">
-        <v>12.75</v>
+        <v>11.92</v>
       </c>
       <c r="I192">
-        <v>11.5</v>
+        <v>7.25</v>
       </c>
       <c r="J192">
-        <v>13.86</v>
+        <v>9.35</v>
       </c>
       <c r="K192">
-        <v>10.32</v>
+        <v>7.25</v>
       </c>
       <c r="L192">
-        <v>9.42</v>
+        <v>15.97</v>
+      </c>
+      <c r="M192">
+        <v>9.92</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B193">
         <v>699900</v>
       </c>
-      <c r="C193" t="s">
-        <v>7</v>
+      <c r="C193">
+        <v>1</v>
       </c>
       <c r="D193">
         <v>2</v>
@@ -8381,95 +8375,95 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B194">
         <v>699900</v>
       </c>
-      <c r="C194" t="s">
-        <v>129</v>
+      <c r="C194">
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F194">
-        <v>95.54</v>
+        <v>94.01</v>
       </c>
       <c r="G194">
-        <v>19.36</v>
+        <v>8.98</v>
       </c>
       <c r="H194">
-        <v>10.53</v>
+        <v>16.03</v>
       </c>
       <c r="I194">
-        <v>7.75</v>
+        <v>28.52</v>
       </c>
       <c r="J194">
-        <v>24.7</v>
+        <v>14.62</v>
       </c>
       <c r="K194">
-        <v>13.5</v>
+        <v>10.33</v>
       </c>
       <c r="L194">
-        <v>8.99</v>
+        <v>9.16</v>
       </c>
       <c r="M194">
-        <v>10.71</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B195">
         <v>699900</v>
       </c>
-      <c r="C195" t="s">
-        <v>7</v>
+      <c r="C195">
+        <v>0</v>
       </c>
       <c r="D195">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F195">
-        <v>94.01</v>
+        <v>95.54</v>
       </c>
       <c r="G195">
-        <v>8.98</v>
+        <v>19.36</v>
       </c>
       <c r="H195">
-        <v>16.03</v>
+        <v>10.53</v>
       </c>
       <c r="I195">
-        <v>28.52</v>
+        <v>7.75</v>
       </c>
       <c r="J195">
-        <v>14.62</v>
+        <v>24.7</v>
       </c>
       <c r="K195">
-        <v>10.33</v>
+        <v>13.5</v>
       </c>
       <c r="L195">
-        <v>9.16</v>
+        <v>8.99</v>
       </c>
       <c r="M195">
-        <v>6.37</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B196">
         <v>710000</v>
       </c>
-      <c r="C196" t="s">
-        <v>7</v>
+      <c r="C196">
+        <v>1</v>
       </c>
       <c r="D196">
         <v>3</v>
@@ -8501,13 +8495,13 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B197">
         <v>789000</v>
       </c>
-      <c r="C197" t="s">
-        <v>7</v>
+      <c r="C197">
+        <v>1</v>
       </c>
       <c r="D197">
         <v>3</v>
@@ -8539,13 +8533,13 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B198">
         <v>796800</v>
       </c>
-      <c r="C198" t="s">
-        <v>129</v>
+      <c r="C198">
+        <v>0</v>
       </c>
       <c r="D198">
         <v>4</v>
@@ -8580,13 +8574,13 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B199">
         <v>799000</v>
       </c>
-      <c r="C199" t="s">
-        <v>7</v>
+      <c r="C199">
+        <v>1</v>
       </c>
       <c r="D199">
         <v>2</v>
@@ -8618,13 +8612,13 @@
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B200">
         <v>799900</v>
       </c>
-      <c r="C200" t="s">
-        <v>207</v>
+      <c r="C200">
+        <v>0</v>
       </c>
       <c r="D200">
         <v>3</v>
@@ -8665,13 +8659,13 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B201">
         <v>848000</v>
       </c>
-      <c r="C201" t="s">
-        <v>129</v>
+      <c r="C201">
+        <v>0</v>
       </c>
       <c r="D201">
         <v>3</v>
@@ -8706,13 +8700,13 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B202">
         <v>849999</v>
       </c>
-      <c r="C202" t="s">
-        <v>7</v>
+      <c r="C202">
+        <v>1</v>
       </c>
       <c r="D202">
         <v>3</v>
@@ -8747,13 +8741,13 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B203">
         <v>880000</v>
       </c>
-      <c r="C203" t="s">
-        <v>129</v>
+      <c r="C203">
+        <v>0</v>
       </c>
       <c r="D203">
         <v>3</v>
@@ -8788,13 +8782,13 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B204">
         <v>899900</v>
       </c>
-      <c r="C204" t="s">
-        <v>129</v>
+      <c r="C204">
+        <v>0</v>
       </c>
       <c r="D204">
         <v>3</v>
@@ -8826,13 +8820,13 @@
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B205">
         <v>899999</v>
       </c>
-      <c r="C205" t="s">
-        <v>207</v>
+      <c r="C205">
+        <v>0</v>
       </c>
       <c r="D205">
         <v>6</v>
@@ -8882,13 +8876,13 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B206">
         <v>929000</v>
       </c>
-      <c r="C206" t="s">
-        <v>207</v>
+      <c r="C206">
+        <v>0</v>
       </c>
       <c r="D206">
         <v>4</v>
@@ -8926,13 +8920,13 @@
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B207">
         <v>939000</v>
       </c>
-      <c r="C207" t="s">
-        <v>207</v>
+      <c r="C207">
+        <v>0</v>
       </c>
       <c r="D207">
         <v>3</v>
@@ -8973,13 +8967,13 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B208">
         <v>948800</v>
       </c>
-      <c r="C208" t="s">
-        <v>7</v>
+      <c r="C208">
+        <v>1</v>
       </c>
       <c r="D208">
         <v>3</v>
@@ -9017,13 +9011,13 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B209">
         <v>999000</v>
       </c>
-      <c r="C209" t="s">
-        <v>207</v>
+      <c r="C209">
+        <v>0</v>
       </c>
       <c r="D209">
         <v>4</v>
@@ -9061,13 +9055,13 @@
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B210">
         <v>1098000</v>
       </c>
-      <c r="C210" t="s">
-        <v>207</v>
+      <c r="C210">
+        <v>0</v>
       </c>
       <c r="D210">
         <v>4</v>
@@ -9114,13 +9108,13 @@
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B211">
         <v>1099000</v>
       </c>
-      <c r="C211" t="s">
-        <v>207</v>
+      <c r="C211">
+        <v>0</v>
       </c>
       <c r="D211">
         <v>6</v>
@@ -9170,13 +9164,13 @@
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B212">
         <v>1199900</v>
       </c>
-      <c r="C212" t="s">
-        <v>207</v>
+      <c r="C212">
+        <v>0</v>
       </c>
       <c r="D212">
         <v>4</v>
@@ -9241,13 +9235,13 @@
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B213">
         <v>1200000</v>
       </c>
-      <c r="C213" t="s">
-        <v>207</v>
+      <c r="C213">
+        <v>0</v>
       </c>
       <c r="D213">
         <v>8</v>
@@ -9297,13 +9291,13 @@
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B214">
         <v>1329786</v>
       </c>
-      <c r="C214" t="s">
-        <v>129</v>
+      <c r="C214">
+        <v>0</v>
       </c>
       <c r="D214">
         <v>4</v>
@@ -9347,13 +9341,13 @@
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B215">
         <v>1349900</v>
       </c>
-      <c r="C215" t="s">
-        <v>129</v>
+      <c r="C215">
+        <v>0</v>
       </c>
       <c r="D215">
         <v>4</v>
@@ -9397,13 +9391,13 @@
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B216">
         <v>1399900</v>
       </c>
-      <c r="C216" t="s">
-        <v>207</v>
+      <c r="C216">
+        <v>0</v>
       </c>
       <c r="D216">
         <v>6</v>
@@ -9450,13 +9444,13 @@
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B217">
         <v>1429900</v>
       </c>
-      <c r="C217" t="s">
-        <v>207</v>
+      <c r="C217">
+        <v>0</v>
       </c>
       <c r="D217">
         <v>4</v>
@@ -9503,13 +9497,13 @@
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B218">
         <v>1499800</v>
       </c>
-      <c r="C218" t="s">
-        <v>207</v>
+      <c r="C218">
+        <v>0</v>
       </c>
       <c r="D218">
         <v>7</v>
@@ -9556,13 +9550,13 @@
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B219">
         <v>1549990</v>
       </c>
-      <c r="C219" t="s">
-        <v>7</v>
+      <c r="C219">
+        <v>1</v>
       </c>
       <c r="D219">
         <v>3</v>
@@ -9606,13 +9600,13 @@
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B220">
         <v>1598000</v>
       </c>
-      <c r="C220" t="s">
-        <v>207</v>
+      <c r="C220">
+        <v>0</v>
       </c>
       <c r="D220">
         <v>6</v>
@@ -9662,13 +9656,13 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B221">
         <v>1785800</v>
       </c>
-      <c r="C221" t="s">
-        <v>207</v>
+      <c r="C221">
+        <v>0</v>
       </c>
       <c r="D221">
         <v>4</v>
@@ -9715,13 +9709,13 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B222">
         <v>2099900</v>
       </c>
-      <c r="C222" t="s">
-        <v>207</v>
+      <c r="C222">
+        <v>0</v>
       </c>
       <c r="D222">
         <v>2</v>
@@ -9750,13 +9744,13 @@
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B223">
         <v>2988800</v>
       </c>
-      <c r="C223" t="s">
-        <v>207</v>
+      <c r="C223">
+        <v>0</v>
       </c>
       <c r="D223">
         <v>5</v>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,50 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2BDD9F-5D82-49C3-BE32-76CD89DFAA37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="test" state="visible" r:id="rId4"/>
+    <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Address</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Bedrooms</t>
+  </si>
+  <si>
+    <t>Badrooms</t>
+  </si>
+  <si>
+    <t>Total size</t>
   </si>
   <si>
     <t>Price</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>Bedrooms</t>
-  </si>
-  <si>
-    <t>Bathrooms</t>
-  </si>
-  <si>
-    <t>Total Size</t>
+    <t>Predicted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -408,11 +424,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F223"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H223"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -445,8 +466,22 @@
       <c r="D2">
         <v>62.69</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>504900</v>
+      </c>
+      <c r="F2">
+        <v>547896.43000000005</v>
+      </c>
+      <c r="G2">
+        <f>ABS(E2-F2)</f>
+        <v>42996.430000000051</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(G2:G223)</f>
+        <v>90436.160000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -459,8 +494,18 @@
       <c r="D3">
         <v>93.67</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>505900</v>
+      </c>
+      <c r="F3">
+        <v>689838.33</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="0">ABS(E3-F3)</f>
+        <v>183938.32999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -471,10 +516,20 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>39.63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39.630000000000003</v>
+      </c>
+      <c r="E4">
+        <v>508000</v>
+      </c>
+      <c r="F4">
+        <v>428196.61</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>79803.390000000014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -487,8 +542,18 @@
       <c r="D5">
         <v>54.87</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>508800</v>
+      </c>
+      <c r="F5">
+        <v>508114.67</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>685.3300000000163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -501,8 +566,18 @@
       <c r="D6">
         <v>88.19</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>509000</v>
+      </c>
+      <c r="F6">
+        <v>668244.26</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>159244.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -515,8 +590,18 @@
       <c r="D7">
         <v>57.31</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>509000</v>
+      </c>
+      <c r="F7">
+        <v>497865.08</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>11134.919999999984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -529,8 +614,18 @@
       <c r="D8">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>509000</v>
+      </c>
+      <c r="F8">
+        <v>496643.52</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>12356.479999999981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -543,8 +638,18 @@
       <c r="D9">
         <v>55.66</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>509900</v>
+      </c>
+      <c r="F9">
+        <v>511227.68</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1327.679999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -557,8 +662,18 @@
       <c r="D10">
         <v>83.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>509900</v>
+      </c>
+      <c r="F10">
+        <v>648186.99</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>138286.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -571,8 +686,18 @@
       <c r="D11">
         <v>83.56</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>509900</v>
+      </c>
+      <c r="F11">
+        <v>649999.63</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>140099.63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -585,8 +710,18 @@
       <c r="D12">
         <v>87.41</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>509990</v>
+      </c>
+      <c r="F12">
+        <v>665170.65</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>155180.65000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -599,8 +734,18 @@
       <c r="D13">
         <v>60.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>509990</v>
+      </c>
+      <c r="F13">
+        <v>559919.25</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>49929.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -613,8 +758,18 @@
       <c r="D14">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>510000</v>
+      </c>
+      <c r="F14">
+        <v>453459.6</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>56540.400000000023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -627,8 +782,18 @@
       <c r="D15">
         <v>56.72</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>510000</v>
+      </c>
+      <c r="F15">
+        <v>495540.17</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>14459.830000000016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -641,8 +806,18 @@
       <c r="D16">
         <v>57.37</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>513000</v>
+      </c>
+      <c r="F16">
+        <v>517965.98</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>4965.9799999999814</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -655,8 +830,18 @@
       <c r="D17">
         <v>67.48</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>514900</v>
+      </c>
+      <c r="F17">
+        <v>586636.01</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>71736.010000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -669,8 +854,18 @@
       <c r="D18">
         <v>96.82</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>514900</v>
+      </c>
+      <c r="F18">
+        <v>702250.98</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>187350.97999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -683,8 +878,18 @@
       <c r="D19">
         <v>61.03</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>515000</v>
+      </c>
+      <c r="F19">
+        <v>532388.30000000005</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>17388.300000000047</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -697,8 +902,18 @@
       <c r="D20">
         <v>92.57</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>515000</v>
+      </c>
+      <c r="F20">
+        <v>685503.76</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>170503.76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -711,8 +926,18 @@
       <c r="D21">
         <v>88.85</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>515000</v>
+      </c>
+      <c r="F21">
+        <v>670845.01</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>155845.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -725,8 +950,18 @@
       <c r="D22">
         <v>57.29</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>515000</v>
+      </c>
+      <c r="F22">
+        <v>517650.74</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>2650.7399999999907</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -737,10 +972,20 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>75.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="E23">
+        <v>515000</v>
+      </c>
+      <c r="F23">
+        <v>587831.47</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>72831.469999999972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -753,8 +998,18 @@
       <c r="D24">
         <v>56.76</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>516000</v>
+      </c>
+      <c r="F24">
+        <v>524529.12</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>8529.1199999999953</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -767,8 +1022,18 @@
       <c r="D25">
         <v>73.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>518888</v>
+      </c>
+      <c r="F25">
+        <v>581526.63</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>62638.630000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -781,8 +1046,18 @@
       <c r="D26">
         <v>63.45</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>518888</v>
+      </c>
+      <c r="F26">
+        <v>541924.36</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>23036.359999999986</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -793,10 +1068,20 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>77.32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77.319999999999993</v>
+      </c>
+      <c r="E27">
+        <v>518900</v>
+      </c>
+      <c r="F27">
+        <v>625410.76</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>106510.76000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -809,8 +1094,18 @@
       <c r="D28">
         <v>64.03</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>519000</v>
+      </c>
+      <c r="F28">
+        <v>553176.73</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>34176.729999999981</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -823,8 +1118,18 @@
       <c r="D29">
         <v>57.96</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>519000</v>
+      </c>
+      <c r="F29">
+        <v>529257.75</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>10257.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -837,8 +1142,18 @@
       <c r="D30">
         <v>54.9</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>519700</v>
+      </c>
+      <c r="F30">
+        <v>537064.21</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>17364.209999999963</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -851,8 +1166,18 @@
       <c r="D31">
         <v>63.24</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>519900</v>
+      </c>
+      <c r="F31">
+        <v>541096.85</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>21196.849999999977</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -865,8 +1190,18 @@
       <c r="D32">
         <v>56.24</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>519900</v>
+      </c>
+      <c r="F32">
+        <v>513513.19</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>6386.8099999999977</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -879,8 +1214,18 @@
       <c r="D33">
         <v>59.83</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>519900</v>
+      </c>
+      <c r="F33">
+        <v>536626.53</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>16726.530000000028</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -893,8 +1238,18 @@
       <c r="D34">
         <v>60.9</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>519900</v>
+      </c>
+      <c r="F34">
+        <v>560707.36</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>40807.359999999986</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -907,8 +1262,18 @@
       <c r="D35">
         <v>76.38</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>519900</v>
+      </c>
+      <c r="F35">
+        <v>601842.19999999995</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>81942.199999999953</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -921,8 +1286,18 @@
       <c r="D36">
         <v>61.14</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>520000</v>
+      </c>
+      <c r="F36">
+        <v>532821.75</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>12821.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -935,8 +1310,18 @@
       <c r="D37">
         <v>54.78</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>520000</v>
+      </c>
+      <c r="F37">
+        <v>507760.02</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>12239.979999999981</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -949,8 +1334,18 @@
       <c r="D38">
         <v>34.25</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>520000</v>
+      </c>
+      <c r="F38">
+        <v>426861.06</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>93138.94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
@@ -963,8 +1358,18 @@
       <c r="D39">
         <v>43.27</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>520000</v>
+      </c>
+      <c r="F39">
+        <v>442540.12</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>77459.88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -977,8 +1382,18 @@
       <c r="D40">
         <v>44.69</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>521999</v>
+      </c>
+      <c r="F40">
+        <v>457102.53</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>64896.469999999972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -991,8 +1406,18 @@
       <c r="D41">
         <v>72.25</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>524000</v>
+      </c>
+      <c r="F41">
+        <v>585567.84</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>61567.839999999967</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1005,8 +1430,18 @@
       <c r="D42">
         <v>83.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>524900</v>
+      </c>
+      <c r="F42">
+        <v>648186.99</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>123286.98999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1019,8 +1454,18 @@
       <c r="D43">
         <v>55.79</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>524900</v>
+      </c>
+      <c r="F43">
+        <v>520706.81</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>4193.1900000000023</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1033,8 +1478,18 @@
       <c r="D44">
         <v>53.27</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>524999</v>
+      </c>
+      <c r="F44">
+        <v>501809.83</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>23189.169999999984</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1047,8 +1502,18 @@
       <c r="D45">
         <v>54.56</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>525000</v>
+      </c>
+      <c r="F45">
+        <v>506893.11</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>18106.890000000014</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1061,8 +1526,18 @@
       <c r="D46">
         <v>58.69</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>525000</v>
+      </c>
+      <c r="F46">
+        <v>523167.47</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>1832.5300000000279</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
@@ -1075,8 +1550,18 @@
       <c r="D47">
         <v>56.97</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>525000</v>
+      </c>
+      <c r="F47">
+        <v>516389.77</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>8610.2299999999814</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
@@ -1089,8 +1574,18 @@
       <c r="D48">
         <v>79.14</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>525000</v>
+      </c>
+      <c r="F48">
+        <v>632582.52</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>107582.52000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -1103,8 +1598,18 @@
       <c r="D49">
         <v>60.53</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>528800</v>
+      </c>
+      <c r="F49">
+        <v>539384.9</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>10584.900000000023</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -1117,8 +1622,18 @@
       <c r="D50">
         <v>65.55</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>529900</v>
+      </c>
+      <c r="F50">
+        <v>530335</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1</v>
       </c>
@@ -1131,8 +1646,18 @@
       <c r="D51">
         <v>50.75</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>529900</v>
+      </c>
+      <c r="F51">
+        <v>491879.71</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>38020.289999999979</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1</v>
       </c>
@@ -1145,8 +1670,18 @@
       <c r="D52">
         <v>59.37</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>529900</v>
+      </c>
+      <c r="F52">
+        <v>525847.03</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>4052.9699999999721</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
@@ -1159,8 +1694,18 @@
       <c r="D53">
         <v>65.78</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>530000</v>
+      </c>
+      <c r="F53">
+        <v>560072.65</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>30072.650000000023</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -1173,8 +1718,18 @@
       <c r="D54">
         <v>70.12</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>530000</v>
+      </c>
+      <c r="F54">
+        <v>577174.52</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>47174.520000000019</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -1187,8 +1742,18 @@
       <c r="D55">
         <v>49.45</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>532000</v>
+      </c>
+      <c r="F55">
+        <v>495723.89</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>36276.109999999986</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1</v>
       </c>
@@ -1201,8 +1766,18 @@
       <c r="D56">
         <v>56.78</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>534000</v>
+      </c>
+      <c r="F56">
+        <v>524607.93000000005</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>9392.0699999999488</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1</v>
       </c>
@@ -1215,8 +1790,18 @@
       <c r="D57">
         <v>72.13</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>534900</v>
+      </c>
+      <c r="F57">
+        <v>576128.11</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>41228.109999999986</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -1229,8 +1814,18 @@
       <c r="D58">
         <v>84.49</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>535000</v>
+      </c>
+      <c r="F58">
+        <v>633799.85</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>98799.849999999977</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -1243,8 +1838,18 @@
       <c r="D59">
         <v>46.59</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>535900</v>
+      </c>
+      <c r="F59">
+        <v>475487.13</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>60412.869999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -1257,8 +1862,18 @@
       <c r="D60">
         <v>57.6</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>538900</v>
+      </c>
+      <c r="F60">
+        <v>527839.16</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>11060.839999999967</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
@@ -1271,8 +1886,18 @@
       <c r="D61">
         <v>52.34</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>539000</v>
+      </c>
+      <c r="F61">
+        <v>498145.14</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>40854.859999999986</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
@@ -1283,10 +1908,20 @@
         <v>2</v>
       </c>
       <c r="D62">
-        <v>71.35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71.349999999999994</v>
+      </c>
+      <c r="E62">
+        <v>539000</v>
+      </c>
+      <c r="F62">
+        <v>601885.84</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>62885.839999999967</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1</v>
       </c>
@@ -1299,8 +1934,18 @@
       <c r="D63">
         <v>73.87</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>539000</v>
+      </c>
+      <c r="F63">
+        <v>602849.09</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>63849.089999999967</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1</v>
       </c>
@@ -1313,8 +1958,18 @@
       <c r="D64">
         <v>85.07</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>539000</v>
+      </c>
+      <c r="F64">
+        <v>655949.82999999996</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>116949.82999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
@@ -1327,8 +1982,18 @@
       <c r="D65">
         <v>51.3</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>539000</v>
+      </c>
+      <c r="F65">
+        <v>503013.86</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>35986.140000000014</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
@@ -1341,8 +2006,18 @@
       <c r="D66">
         <v>55.01</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>539500</v>
+      </c>
+      <c r="F66">
+        <v>508666.34</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>30833.659999999974</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1</v>
       </c>
@@ -1355,8 +2030,18 @@
       <c r="D67">
         <v>72.27</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>539800</v>
+      </c>
+      <c r="F67">
+        <v>605511.12</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G130" si="1">ABS(E67-F67)</f>
+        <v>65711.12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1</v>
       </c>
@@ -1369,8 +2054,18 @@
       <c r="D68">
         <v>49.97</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>539888</v>
+      </c>
+      <c r="F68">
+        <v>497772.96</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>42115.039999999979</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1</v>
       </c>
@@ -1383,8 +2078,18 @@
       <c r="D69">
         <v>61.49</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>539900</v>
+      </c>
+      <c r="F69">
+        <v>534200.93999999994</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>5699.0600000000559</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -1397,8 +2102,18 @@
       <c r="D70">
         <v>57.85</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>539900</v>
+      </c>
+      <c r="F70">
+        <v>528824.29</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>11075.709999999963</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1</v>
       </c>
@@ -1411,8 +2126,18 @@
       <c r="D71">
         <v>60.67</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>539900</v>
+      </c>
+      <c r="F71">
+        <v>539936.56999999995</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>36.569999999948777</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1</v>
       </c>
@@ -1425,8 +2150,18 @@
       <c r="D72">
         <v>64.02</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>540000</v>
+      </c>
+      <c r="F72">
+        <v>553137.32999999996</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="1"/>
+        <v>13137.329999999958</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1</v>
       </c>
@@ -1439,8 +2174,18 @@
       <c r="D73">
         <v>85.8</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>544900</v>
+      </c>
+      <c r="F73">
+        <v>658826.41</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="1"/>
+        <v>113926.41000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1</v>
       </c>
@@ -1453,8 +2198,18 @@
       <c r="D74">
         <v>53.78</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>544900</v>
+      </c>
+      <c r="F74">
+        <v>483955.03</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="1"/>
+        <v>60944.969999999972</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -1465,10 +2220,20 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>68.49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="E75">
+        <v>545000</v>
+      </c>
+      <c r="F75">
+        <v>581649.06999999995</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="1"/>
+        <v>36649.069999999949</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1</v>
       </c>
@@ -1481,8 +2246,18 @@
       <c r="D76">
         <v>57.34</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>548000</v>
+      </c>
+      <c r="F76">
+        <v>517847.76</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="1"/>
+        <v>30152.239999999991</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1</v>
       </c>
@@ -1495,8 +2270,18 @@
       <c r="D77">
         <v>97.53</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>549000</v>
+      </c>
+      <c r="F77">
+        <v>705048.76</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="1"/>
+        <v>156048.76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1</v>
       </c>
@@ -1509,8 +2294,18 @@
       <c r="D78">
         <v>38.81</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>549000</v>
+      </c>
+      <c r="F78">
+        <v>444829.85</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="1"/>
+        <v>104170.15000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1</v>
       </c>
@@ -1523,8 +2318,18 @@
       <c r="D79">
         <v>69.89</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>549000</v>
+      </c>
+      <c r="F79">
+        <v>576268.19999999995</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="1"/>
+        <v>27268.199999999953</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1</v>
       </c>
@@ -1537,8 +2342,18 @@
       <c r="D80">
         <v>57.94</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>549000</v>
+      </c>
+      <c r="F80">
+        <v>520212.08</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="1"/>
+        <v>28787.919999999984</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1</v>
       </c>
@@ -1551,8 +2366,18 @@
       <c r="D81">
         <v>71.55</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>549000</v>
+      </c>
+      <c r="F81">
+        <v>573842.61</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="1"/>
+        <v>24842.609999999986</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1</v>
       </c>
@@ -1565,8 +2390,18 @@
       <c r="D82">
         <v>57.78</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>549900</v>
+      </c>
+      <c r="F82">
+        <v>508683.99</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="1"/>
+        <v>41216.010000000009</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1</v>
       </c>
@@ -1579,8 +2414,18 @@
       <c r="D83">
         <v>59.1</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>549900</v>
+      </c>
+      <c r="F83">
+        <v>533749.94999999995</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="1"/>
+        <v>16150.050000000047</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1</v>
       </c>
@@ -1593,8 +2438,18 @@
       <c r="D84">
         <v>87.73</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>549900</v>
+      </c>
+      <c r="F84">
+        <v>666431.62</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="1"/>
+        <v>116531.62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1</v>
       </c>
@@ -1607,8 +2462,18 @@
       <c r="D85">
         <v>87</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>549900</v>
+      </c>
+      <c r="F85">
+        <v>663555.04</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="1"/>
+        <v>113655.04000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1</v>
       </c>
@@ -1621,8 +2486,18 @@
       <c r="D86">
         <v>58.14</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>549900</v>
+      </c>
+      <c r="F86">
+        <v>529967.04</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="1"/>
+        <v>19932.959999999963</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1</v>
       </c>
@@ -1635,8 +2510,18 @@
       <c r="D87">
         <v>77.84</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>549900</v>
+      </c>
+      <c r="F87">
+        <v>627459.83999999997</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="1"/>
+        <v>77559.839999999967</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1</v>
       </c>
@@ -1649,8 +2534,18 @@
       <c r="D88">
         <v>41.63</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>550000</v>
+      </c>
+      <c r="F88">
+        <v>464908.99</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="1"/>
+        <v>85091.010000000009</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1</v>
       </c>
@@ -1663,8 +2558,18 @@
       <c r="D89">
         <v>46.73</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>552800</v>
+      </c>
+      <c r="F89">
+        <v>476038.8</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="1"/>
+        <v>76761.200000000012</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1</v>
       </c>
@@ -1677,8 +2582,18 @@
       <c r="D90">
         <v>65.19</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>554988</v>
+      </c>
+      <c r="F90">
+        <v>577612.21</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="1"/>
+        <v>22624.209999999963</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1</v>
       </c>
@@ -1691,8 +2606,18 @@
       <c r="D91">
         <v>109.96</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>555000</v>
+      </c>
+      <c r="F91">
+        <v>745062.61</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="1"/>
+        <v>190062.61</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1</v>
       </c>
@@ -1705,8 +2630,18 @@
       <c r="D92">
         <v>60.45</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>555000</v>
+      </c>
+      <c r="F92">
+        <v>539069.65</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="1"/>
+        <v>15930.349999999977</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1</v>
       </c>
@@ -1719,8 +2654,18 @@
       <c r="D93">
         <v>53.21</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>555000</v>
+      </c>
+      <c r="F93">
+        <v>510540.26</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="1"/>
+        <v>44459.739999999991</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1</v>
       </c>
@@ -1733,8 +2678,18 @@
       <c r="D94">
         <v>49.37</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>558800</v>
+      </c>
+      <c r="F94">
+        <v>495408.65</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="1"/>
+        <v>63391.349999999977</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1</v>
       </c>
@@ -1747,8 +2702,18 @@
       <c r="D95">
         <v>54.54</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>559000</v>
+      </c>
+      <c r="F95">
+        <v>486949.83</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="1"/>
+        <v>72050.169999999984</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1</v>
       </c>
@@ -1761,8 +2726,18 @@
       <c r="D96">
         <v>65.17</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>559000</v>
+      </c>
+      <c r="F96">
+        <v>557668.93000000005</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="1"/>
+        <v>1331.0699999999488</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1</v>
       </c>
@@ -1775,8 +2750,18 @@
       <c r="D97">
         <v>60.15</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>559000</v>
+      </c>
+      <c r="F97">
+        <v>557751.97</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="1"/>
+        <v>1248.0300000000279</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1</v>
       </c>
@@ -1789,8 +2774,18 @@
       <c r="D98">
         <v>57.85</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>559900</v>
+      </c>
+      <c r="F98">
+        <v>528824.29</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="1"/>
+        <v>31075.709999999963</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1</v>
       </c>
@@ -1803,8 +2798,18 @@
       <c r="D99">
         <v>60.97</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>559900</v>
+      </c>
+      <c r="F99">
+        <v>560983.18999999994</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="1"/>
+        <v>1083.1899999999441</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1</v>
       </c>
@@ -1817,8 +2822,18 @@
       <c r="D100">
         <v>48.27</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>559999</v>
+      </c>
+      <c r="F100">
+        <v>510938.54</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="1"/>
+        <v>49060.460000000021</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1</v>
       </c>
@@ -1831,8 +2846,18 @@
       <c r="D101">
         <v>97.32</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>559999</v>
+      </c>
+      <c r="F101">
+        <v>704221.25</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="1"/>
+        <v>144222.25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1</v>
       </c>
@@ -1845,8 +2870,18 @@
       <c r="D102">
         <v>61.76</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>564900</v>
+      </c>
+      <c r="F102">
+        <v>535264.88</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="1"/>
+        <v>29635.119999999995</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1</v>
       </c>
@@ -1859,8 +2894,18 @@
       <c r="D103">
         <v>61.75</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>565000</v>
+      </c>
+      <c r="F103">
+        <v>544192.34</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="1"/>
+        <v>20807.660000000033</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1</v>
       </c>
@@ -1873,8 +2918,18 @@
       <c r="D104">
         <v>92.99</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>565000</v>
+      </c>
+      <c r="F104">
+        <v>667294.31000000006</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="1"/>
+        <v>102294.31000000006</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1</v>
       </c>
@@ -1887,8 +2942,18 @@
       <c r="D105">
         <v>67.27</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>569000</v>
+      </c>
+      <c r="F105">
+        <v>605672.95999999996</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="1"/>
+        <v>36672.959999999963</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1</v>
       </c>
@@ -1901,8 +2966,18 @@
       <c r="D106">
         <v>64.92</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>569800</v>
+      </c>
+      <c r="F106">
+        <v>576548.27</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="1"/>
+        <v>6748.2700000000186</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1</v>
       </c>
@@ -1915,8 +2990,18 @@
       <c r="D107">
         <v>72.47</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <v>569900</v>
+      </c>
+      <c r="F107">
+        <v>566570.29</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="1"/>
+        <v>3329.7099999999627</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1</v>
       </c>
@@ -1929,8 +3014,18 @@
       <c r="D108">
         <v>75.25</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>569900</v>
+      </c>
+      <c r="F108">
+        <v>597389.41</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="1"/>
+        <v>27489.410000000033</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1</v>
       </c>
@@ -1943,8 +3038,18 @@
       <c r="D109">
         <v>59.42</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>569900</v>
+      </c>
+      <c r="F109">
+        <v>526044.05000000005</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="1"/>
+        <v>43855.949999999953</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1</v>
       </c>
@@ -1957,8 +3062,18 @@
       <c r="D110">
         <v>90.43</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>569900</v>
+      </c>
+      <c r="F110">
+        <v>657206.56999999995</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="1"/>
+        <v>87306.569999999949</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1</v>
       </c>
@@ -1971,8 +3086,18 @@
       <c r="D111">
         <v>53.97</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>569900</v>
+      </c>
+      <c r="F111">
+        <v>513535.06</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="1"/>
+        <v>56364.94</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1</v>
       </c>
@@ -1985,8 +3110,18 @@
       <c r="D112">
         <v>69.97</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>574900</v>
+      </c>
+      <c r="F112">
+        <v>576583.43999999994</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="1"/>
+        <v>1683.4399999999441</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1</v>
       </c>
@@ -1999,8 +3134,18 @@
       <c r="D113">
         <v>61.51</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <v>574900</v>
+      </c>
+      <c r="F113">
+        <v>543246.61</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="1"/>
+        <v>31653.390000000014</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1</v>
       </c>
@@ -2013,8 +3158,18 @@
       <c r="D114">
         <v>63.45</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <v>574900</v>
+      </c>
+      <c r="F114">
+        <v>550891.23</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="1"/>
+        <v>24008.770000000019</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1</v>
       </c>
@@ -2027,8 +3182,18 @@
       <c r="D115">
         <v>92.58</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>574999</v>
+      </c>
+      <c r="F115">
+        <v>685543.16</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="1"/>
+        <v>110544.16000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1</v>
       </c>
@@ -2041,8 +3206,18 @@
       <c r="D116">
         <v>73.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <v>575000</v>
+      </c>
+      <c r="F116">
+        <v>610357.96</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="1"/>
+        <v>35357.959999999963</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1</v>
       </c>
@@ -2055,8 +3230,18 @@
       <c r="D117">
         <v>76.16</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <v>575000</v>
+      </c>
+      <c r="F117">
+        <v>620839.76</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="1"/>
+        <v>45839.760000000009</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1</v>
       </c>
@@ -2067,10 +3252,20 @@
         <v>2</v>
       </c>
       <c r="D118">
-        <v>66.01</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66.010000000000005</v>
+      </c>
+      <c r="E118">
+        <v>575000</v>
+      </c>
+      <c r="F118">
+        <v>580843.43999999994</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="1"/>
+        <v>5843.4399999999441</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1</v>
       </c>
@@ -2083,8 +3278,18 @@
       <c r="D119">
         <v>60.88</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>579000</v>
+      </c>
+      <c r="F119">
+        <v>540764.07999999996</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="1"/>
+        <v>38235.920000000042</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1</v>
       </c>
@@ -2097,8 +3302,18 @@
       <c r="D120">
         <v>55.41</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <v>579000</v>
+      </c>
+      <c r="F120">
+        <v>519209.41</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="1"/>
+        <v>59790.590000000026</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1</v>
       </c>
@@ -2111,8 +3326,18 @@
       <c r="D121">
         <v>57.38</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <v>579000</v>
+      </c>
+      <c r="F121">
+        <v>526972.25</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="1"/>
+        <v>52027.75</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1</v>
       </c>
@@ -2125,8 +3350,18 @@
       <c r="D122">
         <v>52.94</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <v>579000</v>
+      </c>
+      <c r="F122">
+        <v>529340.79</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="1"/>
+        <v>49659.209999999963</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>0</v>
       </c>
@@ -2137,10 +3372,20 @@
         <v>2</v>
       </c>
       <c r="D123">
-        <v>138.48</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>138.47999999999999</v>
+      </c>
+      <c r="E123">
+        <v>579900</v>
+      </c>
+      <c r="F123">
+        <v>1128209.08</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="1"/>
+        <v>548309.08000000007</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1</v>
       </c>
@@ -2153,8 +3398,18 @@
       <c r="D124">
         <v>65.95</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <v>579900</v>
+      </c>
+      <c r="F124">
+        <v>560742.54</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="1"/>
+        <v>19157.459999999963</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1</v>
       </c>
@@ -2167,8 +3422,18 @@
       <c r="D125">
         <v>48.33</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <v>585000</v>
+      </c>
+      <c r="F125">
+        <v>491310.5</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="1"/>
+        <v>93689.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1</v>
       </c>
@@ -2179,10 +3444,20 @@
         <v>2</v>
       </c>
       <c r="D126">
-        <v>68.54</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68.540000000000006</v>
+      </c>
+      <c r="E126">
+        <v>589000</v>
+      </c>
+      <c r="F126">
+        <v>570948.49</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="1"/>
+        <v>18051.510000000009</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>0</v>
       </c>
@@ -2195,8 +3470,18 @@
       <c r="D127">
         <v>55.39</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <v>589000</v>
+      </c>
+      <c r="F127">
+        <v>809757.8</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="1"/>
+        <v>220757.80000000005</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1</v>
       </c>
@@ -2207,10 +3492,20 @@
         <v>2</v>
       </c>
       <c r="D128">
-        <v>80.71</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80.709999999999994</v>
+      </c>
+      <c r="E128">
+        <v>589000</v>
+      </c>
+      <c r="F128">
+        <v>638769.14</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="1"/>
+        <v>49769.140000000014</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1</v>
       </c>
@@ -2223,8 +3518,18 @@
       <c r="D129">
         <v>87.44</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <v>589000</v>
+      </c>
+      <c r="F129">
+        <v>645424.4</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="1"/>
+        <v>56424.400000000023</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1</v>
       </c>
@@ -2237,8 +3542,18 @@
       <c r="D130">
         <v>61.11</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <v>589000</v>
+      </c>
+      <c r="F130">
+        <v>541670.40000000002</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="1"/>
+        <v>47329.599999999977</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1</v>
       </c>
@@ -2251,8 +3566,18 @@
       <c r="D131">
         <v>61.11</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <v>589000</v>
+      </c>
+      <c r="F131">
+        <v>541670.40000000002</v>
+      </c>
+      <c r="G131">
+        <f t="shared" ref="G131:G194" si="2">ABS(E131-F131)</f>
+        <v>47329.599999999977</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1</v>
       </c>
@@ -2265,8 +3590,18 @@
       <c r="D132">
         <v>61.98</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <v>589000</v>
+      </c>
+      <c r="F132">
+        <v>564963.12</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="2"/>
+        <v>24036.880000000005</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -2279,8 +3614,18 @@
       <c r="D133">
         <v>59.88</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133">
+        <v>589800</v>
+      </c>
+      <c r="F133">
+        <v>536823.56000000006</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="2"/>
+        <v>52976.439999999944</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1</v>
       </c>
@@ -2293,8 +3638,18 @@
       <c r="D134">
         <v>37.21</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <v>589900</v>
+      </c>
+      <c r="F134">
+        <v>447491.87</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="2"/>
+        <v>142408.13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1</v>
       </c>
@@ -2305,10 +3660,20 @@
         <v>2</v>
       </c>
       <c r="D135">
-        <v>37.12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37.119999999999997</v>
+      </c>
+      <c r="E135">
+        <v>589900</v>
+      </c>
+      <c r="F135">
+        <v>427272.76</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="2"/>
+        <v>162627.24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1</v>
       </c>
@@ -2321,8 +3686,18 @@
       <c r="D136">
         <v>79.2</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136">
+        <v>589900</v>
+      </c>
+      <c r="F136">
+        <v>632818.94999999995</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="2"/>
+        <v>42918.949999999953</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1</v>
       </c>
@@ -2335,8 +3710,18 @@
       <c r="D137">
         <v>78.67</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <v>590000</v>
+      </c>
+      <c r="F137">
+        <v>610866</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="2"/>
+        <v>20866</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1</v>
       </c>
@@ -2349,8 +3734,18 @@
       <c r="D138">
         <v>76.11</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138">
+        <v>596500</v>
+      </c>
+      <c r="F138">
+        <v>620642.73</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="2"/>
+        <v>24142.729999999981</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1</v>
       </c>
@@ -2363,8 +3758,18 @@
       <c r="D139">
         <v>96.03</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <v>598900</v>
+      </c>
+      <c r="F139">
+        <v>699137.97</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="2"/>
+        <v>100237.96999999997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1</v>
       </c>
@@ -2377,8 +3782,18 @@
       <c r="D140">
         <v>137.62</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <v>599000</v>
+      </c>
+      <c r="F140">
+        <v>852126.76</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="2"/>
+        <v>253126.76</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1</v>
       </c>
@@ -2391,8 +3806,18 @@
       <c r="D141">
         <v>93.8</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <v>599000</v>
+      </c>
+      <c r="F141">
+        <v>690350.6</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="2"/>
+        <v>91350.599999999977</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1</v>
       </c>
@@ -2405,8 +3830,18 @@
       <c r="D142">
         <v>77.09</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142">
+        <v>599000</v>
+      </c>
+      <c r="F142">
+        <v>624504.43999999994</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="2"/>
+        <v>25504.439999999944</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1</v>
       </c>
@@ -2419,8 +3854,18 @@
       <c r="D143">
         <v>70</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143">
+        <v>599000</v>
+      </c>
+      <c r="F143">
+        <v>576701.66</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="2"/>
+        <v>22298.339999999967</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1</v>
       </c>
@@ -2433,8 +3878,18 @@
       <c r="D144">
         <v>61.11</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <v>599000</v>
+      </c>
+      <c r="F144">
+        <v>561534.87</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="2"/>
+        <v>37465.130000000005</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1</v>
       </c>
@@ -2447,8 +3902,18 @@
       <c r="D145">
         <v>67.25</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <v>599000</v>
+      </c>
+      <c r="F145">
+        <v>585729.68999999994</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="2"/>
+        <v>13270.310000000056</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1</v>
       </c>
@@ -2461,8 +3926,18 @@
       <c r="D146">
         <v>106.44</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <v>599900</v>
+      </c>
+      <c r="F146">
+        <v>740158.83</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="2"/>
+        <v>140258.82999999996</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1</v>
       </c>
@@ -2475,8 +3950,18 @@
       <c r="D147">
         <v>61.44</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <v>599900</v>
+      </c>
+      <c r="F147">
+        <v>542970.77</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="2"/>
+        <v>56929.229999999981</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1</v>
       </c>
@@ -2489,8 +3974,18 @@
       <c r="D148">
         <v>61.44</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <v>599900</v>
+      </c>
+      <c r="F148">
+        <v>542970.77</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="2"/>
+        <v>56929.229999999981</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1</v>
       </c>
@@ -2503,8 +3998,18 @@
       <c r="D149">
         <v>70</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <v>599900</v>
+      </c>
+      <c r="F149">
+        <v>576701.66</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="2"/>
+        <v>23198.339999999967</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1</v>
       </c>
@@ -2517,8 +4022,18 @@
       <c r="D150">
         <v>95.85</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <v>599900</v>
+      </c>
+      <c r="F150">
+        <v>669597.35</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="2"/>
+        <v>69697.349999999977</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1</v>
       </c>
@@ -2529,10 +4044,20 @@
         <v>2</v>
       </c>
       <c r="D151">
-        <v>77.21</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77.209999999999994</v>
+      </c>
+      <c r="E151">
+        <v>599900</v>
+      </c>
+      <c r="F151">
+        <v>624977.31000000006</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="2"/>
+        <v>25077.310000000056</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1</v>
       </c>
@@ -2543,10 +4068,20 @@
         <v>2</v>
       </c>
       <c r="D152">
-        <v>74.26</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74.260000000000005</v>
+      </c>
+      <c r="E152">
+        <v>599900</v>
+      </c>
+      <c r="F152">
+        <v>613352.76</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="2"/>
+        <v>13452.760000000009</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1</v>
       </c>
@@ -2559,8 +4094,18 @@
       <c r="D153">
         <v>59.27</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153">
+        <v>599900</v>
+      </c>
+      <c r="F153">
+        <v>534419.84</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="2"/>
+        <v>65480.160000000033</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1</v>
       </c>
@@ -2571,10 +4116,20 @@
         <v>2</v>
       </c>
       <c r="D154">
-        <v>70.79</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70.790000000000006</v>
+      </c>
+      <c r="E154">
+        <v>599900</v>
+      </c>
+      <c r="F154">
+        <v>599679.14</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="2"/>
+        <v>220.85999999998603</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1</v>
       </c>
@@ -2587,8 +4142,18 @@
       <c r="D155">
         <v>62.27</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155">
+        <v>599999</v>
+      </c>
+      <c r="F155">
+        <v>546241.41</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="2"/>
+        <v>53757.589999999967</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1</v>
       </c>
@@ -2601,8 +4166,18 @@
       <c r="D156">
         <v>63.08</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <v>600000</v>
+      </c>
+      <c r="F156">
+        <v>549433.23</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="2"/>
+        <v>50566.770000000019</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1</v>
       </c>
@@ -2615,8 +4190,18 @@
       <c r="D157">
         <v>79.23</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <v>606000</v>
+      </c>
+      <c r="F157">
+        <v>632937.17000000004</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="2"/>
+        <v>26937.170000000042</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1</v>
       </c>
@@ -2629,8 +4214,18 @@
       <c r="D158">
         <v>94.34</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158">
+        <v>612000</v>
+      </c>
+      <c r="F158">
+        <v>692478.48</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="2"/>
+        <v>80478.479999999981</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1</v>
       </c>
@@ -2643,8 +4238,18 @@
       <c r="D159">
         <v>150.66</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159">
+        <v>615000</v>
+      </c>
+      <c r="F159">
+        <v>894544.33</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="2"/>
+        <v>279544.32999999996</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1</v>
       </c>
@@ -2657,8 +4262,18 @@
       <c r="D160">
         <v>88.06</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160">
+        <v>615000</v>
+      </c>
+      <c r="F160">
+        <v>647867.52</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="2"/>
+        <v>32867.520000000019</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1</v>
       </c>
@@ -2669,10 +4284,20 @@
         <v>2</v>
       </c>
       <c r="D161">
-        <v>73.29</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73.290000000000006</v>
+      </c>
+      <c r="E161">
+        <v>619000</v>
+      </c>
+      <c r="F161">
+        <v>609530.44999999995</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="2"/>
+        <v>9469.5500000000466</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1</v>
       </c>
@@ -2685,8 +4310,18 @@
       <c r="D162">
         <v>61.3</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162">
+        <v>619000</v>
+      </c>
+      <c r="F162">
+        <v>542419.1</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="2"/>
+        <v>76580.900000000023</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1</v>
       </c>
@@ -2697,10 +4332,20 @@
         <v>2</v>
       </c>
       <c r="D163">
-        <v>76.51</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76.510000000000005</v>
+      </c>
+      <c r="E163">
+        <v>619900</v>
+      </c>
+      <c r="F163">
+        <v>622218.93999999994</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="2"/>
+        <v>2318.9399999999441</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1</v>
       </c>
@@ -2711,10 +4356,20 @@
         <v>2</v>
       </c>
       <c r="D164">
-        <v>64.01</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64.010000000000005</v>
+      </c>
+      <c r="E164">
+        <v>619900</v>
+      </c>
+      <c r="F164">
+        <v>572962.39</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="2"/>
+        <v>46937.609999999986</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1</v>
       </c>
@@ -2725,10 +4380,20 @@
         <v>2</v>
       </c>
       <c r="D165">
-        <v>64.01</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64.010000000000005</v>
+      </c>
+      <c r="E165">
+        <v>619900</v>
+      </c>
+      <c r="F165">
+        <v>572962.39</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="2"/>
+        <v>46937.609999999986</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1</v>
       </c>
@@ -2741,8 +4406,18 @@
       <c r="D166">
         <v>74.09</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166">
+        <v>620000</v>
+      </c>
+      <c r="F166">
+        <v>592818.4</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="2"/>
+        <v>27181.599999999977</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1</v>
       </c>
@@ -2755,8 +4430,18 @@
       <c r="D167">
         <v>154.71</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167">
+        <v>620000</v>
+      </c>
+      <c r="F167">
+        <v>930367.92</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="2"/>
+        <v>310367.92000000004</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1</v>
       </c>
@@ -2767,10 +4452,20 @@
         <v>2</v>
       </c>
       <c r="D168">
-        <v>64.01</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64.010000000000005</v>
+      </c>
+      <c r="E168">
+        <v>625000</v>
+      </c>
+      <c r="F168">
+        <v>572962.39</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="2"/>
+        <v>52037.609999999986</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>0</v>
       </c>
@@ -2783,8 +4478,18 @@
       <c r="D169">
         <v>71.97</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169">
+        <v>629000</v>
+      </c>
+      <c r="F169">
+        <v>866124.83</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="2"/>
+        <v>237124.82999999996</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1</v>
       </c>
@@ -2797,8 +4502,18 @@
       <c r="D170">
         <v>57.54</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170">
+        <v>629999</v>
+      </c>
+      <c r="F170">
+        <v>527602.73</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="2"/>
+        <v>102396.27000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1</v>
       </c>
@@ -2809,10 +4524,20 @@
         <v>2</v>
       </c>
       <c r="D171">
-        <v>73.9</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="E171">
+        <v>632000</v>
+      </c>
+      <c r="F171">
+        <v>592069.69999999995</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="2"/>
+        <v>39930.300000000047</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1</v>
       </c>
@@ -2825,8 +4550,18 @@
       <c r="D172">
         <v>47.46</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172">
+        <v>635000</v>
+      </c>
+      <c r="F172">
+        <v>487882.25</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="2"/>
+        <v>147117.75</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1</v>
       </c>
@@ -2839,8 +4574,18 @@
       <c r="D173">
         <v>89.45</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173">
+        <v>639000</v>
+      </c>
+      <c r="F173">
+        <v>673209.32</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="2"/>
+        <v>34209.319999999949</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1</v>
       </c>
@@ -2853,8 +4598,18 @@
       <c r="D174">
         <v>68.52</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174">
+        <v>639999</v>
+      </c>
+      <c r="F174">
+        <v>570869.68000000005</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="2"/>
+        <v>69129.319999999949</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1</v>
       </c>
@@ -2865,10 +4620,20 @@
         <v>2</v>
       </c>
       <c r="D175">
-        <v>67.18</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67.180000000000007</v>
+      </c>
+      <c r="E175">
+        <v>645000</v>
+      </c>
+      <c r="F175">
+        <v>585453.85</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="2"/>
+        <v>59546.150000000023</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1</v>
       </c>
@@ -2881,8 +4646,18 @@
       <c r="D176">
         <v>82.28</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <v>649000</v>
+      </c>
+      <c r="F176">
+        <v>644955.76</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="2"/>
+        <v>4044.2399999999907</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1</v>
       </c>
@@ -2895,8 +4670,18 @@
       <c r="D177">
         <v>54.34</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177">
+        <v>649900</v>
+      </c>
+      <c r="F177">
+        <v>534857.52</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="2"/>
+        <v>115042.47999999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1</v>
       </c>
@@ -2909,8 +4694,18 @@
       <c r="D178">
         <v>76.02</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178">
+        <v>649900</v>
+      </c>
+      <c r="F178">
+        <v>620288.07999999996</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="2"/>
+        <v>29611.920000000042</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1</v>
       </c>
@@ -2923,8 +4718,18 @@
       <c r="D179">
         <v>67.78</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179">
+        <v>649900</v>
+      </c>
+      <c r="F179">
+        <v>587818.16</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="2"/>
+        <v>62081.839999999967</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1</v>
       </c>
@@ -2937,8 +4742,18 @@
       <c r="D180">
         <v>56.77</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180">
+        <v>649999</v>
+      </c>
+      <c r="F180">
+        <v>524568.53</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="2"/>
+        <v>125430.46999999997</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1</v>
       </c>
@@ -2951,8 +4766,18 @@
       <c r="D181">
         <v>71.98</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181">
+        <v>650000</v>
+      </c>
+      <c r="F181">
+        <v>604368.37</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="2"/>
+        <v>45631.630000000005</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1</v>
       </c>
@@ -2963,10 +4788,20 @@
         <v>2</v>
       </c>
       <c r="D182">
-        <v>67.76</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67.760000000000005</v>
+      </c>
+      <c r="E182">
+        <v>670000</v>
+      </c>
+      <c r="F182">
+        <v>567874.89</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="2"/>
+        <v>102125.10999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1</v>
       </c>
@@ -2979,8 +4814,18 @@
       <c r="D183">
         <v>74.95</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183">
+        <v>673900</v>
+      </c>
+      <c r="F183">
+        <v>616071.72</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="2"/>
+        <v>57828.280000000028</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>0</v>
       </c>
@@ -2993,8 +4838,18 @@
       <c r="D184">
         <v>123.63</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184">
+        <v>674900</v>
+      </c>
+      <c r="F184">
+        <v>1087626.02</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="2"/>
+        <v>412726.02</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1</v>
       </c>
@@ -3007,8 +4862,18 @@
       <c r="D185">
         <v>72.62</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185">
+        <v>679000</v>
+      </c>
+      <c r="F185">
+        <v>606890.30000000005</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="2"/>
+        <v>72109.699999999953</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>0</v>
       </c>
@@ -3021,8 +4886,18 @@
       <c r="D186">
         <v>83.78</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186">
+        <v>679000</v>
+      </c>
+      <c r="F186">
+        <v>950460.61</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="2"/>
+        <v>271460.61</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1</v>
       </c>
@@ -3035,8 +4910,18 @@
       <c r="D187">
         <v>106.51</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187">
+        <v>685000</v>
+      </c>
+      <c r="F187">
+        <v>740434.66</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="2"/>
+        <v>55434.660000000033</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>0</v>
       </c>
@@ -3049,8 +4934,18 @@
       <c r="D188">
         <v>75.66</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188">
+        <v>689000</v>
+      </c>
+      <c r="F188">
+        <v>889632.22</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="2"/>
+        <v>200632.21999999997</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1</v>
       </c>
@@ -3063,8 +4958,18 @@
       <c r="D189">
         <v>72.56</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189">
+        <v>689900</v>
+      </c>
+      <c r="F189">
+        <v>606653.87</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="2"/>
+        <v>83246.13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1</v>
       </c>
@@ -3077,8 +4982,18 @@
       <c r="D190">
         <v>82.3</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190">
+        <v>699000</v>
+      </c>
+      <c r="F190">
+        <v>645034.56999999995</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="2"/>
+        <v>53965.430000000051</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1</v>
       </c>
@@ -3091,8 +5006,18 @@
       <c r="D191">
         <v>87.15</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191">
+        <v>699000</v>
+      </c>
+      <c r="F191">
+        <v>664146.12</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="2"/>
+        <v>34853.880000000005</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1</v>
       </c>
@@ -3105,8 +5030,18 @@
       <c r="D192">
         <v>75.98</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192">
+        <v>699000</v>
+      </c>
+      <c r="F192">
+        <v>620130.46</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="2"/>
+        <v>78869.540000000037</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1</v>
       </c>
@@ -3119,8 +5054,18 @@
       <c r="D193">
         <v>55.15</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193">
+        <v>699900</v>
+      </c>
+      <c r="F193">
+        <v>518184.88</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="2"/>
+        <v>181715.12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>0</v>
       </c>
@@ -3133,8 +5078,18 @@
       <c r="D194">
         <v>95.54</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194">
+        <v>699900</v>
+      </c>
+      <c r="F194">
+        <v>967969.84</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="2"/>
+        <v>268069.83999999997</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1</v>
       </c>
@@ -3147,8 +5102,18 @@
       <c r="D195">
         <v>94.01</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195">
+        <v>699900</v>
+      </c>
+      <c r="F195">
+        <v>711042.58</v>
+      </c>
+      <c r="G195">
+        <f t="shared" ref="G195:G223" si="3">ABS(E195-F195)</f>
+        <v>11142.579999999958</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1</v>
       </c>
@@ -3161,8 +5126,18 @@
       <c r="D196">
         <v>66.02</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196">
+        <v>710000</v>
+      </c>
+      <c r="F196">
+        <v>580882.84</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="3"/>
+        <v>129117.16000000003</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1</v>
       </c>
@@ -3175,8 +5150,18 @@
       <c r="D197">
         <v>81.69</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197">
+        <v>789000</v>
+      </c>
+      <c r="F197">
+        <v>642630.85</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="3"/>
+        <v>146369.15000000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>0</v>
       </c>
@@ -3189,8 +5174,18 @@
       <c r="D198">
         <v>98.06</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198">
+        <v>796800</v>
+      </c>
+      <c r="F198">
+        <v>997764.43</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="3"/>
+        <v>200964.43000000005</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1</v>
       </c>
@@ -3203,8 +5198,18 @@
       <c r="D199">
         <v>77.25</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199">
+        <v>799000</v>
+      </c>
+      <c r="F199">
+        <v>605270.46</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="3"/>
+        <v>193729.54000000004</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>0</v>
       </c>
@@ -3217,8 +5222,18 @@
       <c r="D200">
         <v>119.94</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200">
+        <v>799900</v>
+      </c>
+      <c r="F200">
+        <v>1055151.77</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="3"/>
+        <v>255251.77000000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>0</v>
       </c>
@@ -3231,8 +5246,18 @@
       <c r="D201">
         <v>88.44</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201">
+        <v>848000</v>
+      </c>
+      <c r="F201">
+        <v>939992.12</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="3"/>
+        <v>91992.12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1</v>
       </c>
@@ -3245,8 +5270,18 @@
       <c r="D202">
         <v>90.88</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202">
+        <v>849999</v>
+      </c>
+      <c r="F202">
+        <v>678844.27</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="3"/>
+        <v>171154.72999999998</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>0</v>
       </c>
@@ -3259,8 +5294,18 @@
       <c r="D203">
         <v>84.35</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203">
+        <v>880000</v>
+      </c>
+      <c r="F203">
+        <v>923875.38</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="3"/>
+        <v>43875.380000000005</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>0</v>
       </c>
@@ -3271,10 +5316,20 @@
         <v>3</v>
       </c>
       <c r="D204">
-        <v>68.29</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="E204">
+        <v>899900</v>
+      </c>
+      <c r="F204">
+        <v>860590.56</v>
+      </c>
+      <c r="G204">
+        <f t="shared" si="3"/>
+        <v>39309.439999999944</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>0</v>
       </c>
@@ -3287,8 +5342,18 @@
       <c r="D205">
         <v>138.57</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205">
+        <v>899999</v>
+      </c>
+      <c r="F205">
+        <v>1206090.8600000001</v>
+      </c>
+      <c r="G205">
+        <f t="shared" si="3"/>
+        <v>306091.8600000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>0</v>
       </c>
@@ -3301,8 +5366,18 @@
       <c r="D206">
         <v>136.78</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206">
+        <v>929000</v>
+      </c>
+      <c r="F206">
+        <v>1159308.3799999999</v>
+      </c>
+      <c r="G206">
+        <f t="shared" si="3"/>
+        <v>230308.37999999989</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>0</v>
       </c>
@@ -3313,10 +5388,20 @@
         <v>3</v>
       </c>
       <c r="D207">
-        <v>131.67</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131.66999999999999</v>
+      </c>
+      <c r="E207">
+        <v>939000</v>
+      </c>
+      <c r="F207">
+        <v>1110340.98</v>
+      </c>
+      <c r="G207">
+        <f t="shared" si="3"/>
+        <v>171340.97999999998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1</v>
       </c>
@@ -3329,8 +5414,18 @@
       <c r="D208">
         <v>146.71</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208">
+        <v>948800</v>
+      </c>
+      <c r="F208">
+        <v>907810.59</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="3"/>
+        <v>40989.410000000033</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>0</v>
       </c>
@@ -3343,8 +5438,18 @@
       <c r="D209">
         <v>95.04</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209">
+        <v>999000</v>
+      </c>
+      <c r="F209">
+        <v>985864.05</v>
+      </c>
+      <c r="G209">
+        <f t="shared" si="3"/>
+        <v>13135.949999999953</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>0</v>
       </c>
@@ -3357,8 +5462,18 @@
       <c r="D210">
         <v>157.93</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210">
+        <v>1098000</v>
+      </c>
+      <c r="F210">
+        <v>1233683.6100000001</v>
+      </c>
+      <c r="G210">
+        <f t="shared" si="3"/>
+        <v>135683.6100000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>0</v>
       </c>
@@ -3371,8 +5486,18 @@
       <c r="D211">
         <v>134.65</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211">
+        <v>1099000</v>
+      </c>
+      <c r="F211">
+        <v>1181677.1399999999</v>
+      </c>
+      <c r="G211">
+        <f t="shared" si="3"/>
+        <v>82677.139999999898</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>0</v>
       </c>
@@ -3385,8 +5510,18 @@
       <c r="D212">
         <v>175.97</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212">
+        <v>1199900</v>
+      </c>
+      <c r="F212">
+        <v>1313737.52</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="3"/>
+        <v>113837.52000000002</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>0</v>
       </c>
@@ -3399,8 +5534,18 @@
       <c r="D213">
         <v>99.89</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213">
+        <v>1200000</v>
+      </c>
+      <c r="F213">
+        <v>1120300.9099999999</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="3"/>
+        <v>79699.090000000084</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>0</v>
       </c>
@@ -3413,8 +5558,18 @@
       <c r="D214">
         <v>226.57</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214">
+        <v>1329786</v>
+      </c>
+      <c r="F214">
+        <v>1513128.04</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="3"/>
+        <v>183342.04000000004</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>0</v>
       </c>
@@ -3427,8 +5582,18 @@
       <c r="D215">
         <v>180.86</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215">
+        <v>1349900</v>
+      </c>
+      <c r="F215">
+        <v>1333006.69</v>
+      </c>
+      <c r="G215">
+        <f t="shared" si="3"/>
+        <v>16893.310000000056</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>0</v>
       </c>
@@ -3439,10 +5604,20 @@
         <v>4</v>
       </c>
       <c r="D216">
-        <v>147.83</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147.83000000000001</v>
+      </c>
+      <c r="E216">
+        <v>1399900</v>
+      </c>
+      <c r="F216">
+        <v>1242580.1100000001</v>
+      </c>
+      <c r="G216">
+        <f t="shared" si="3"/>
+        <v>157319.8899999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>0</v>
       </c>
@@ -3455,8 +5630,18 @@
       <c r="D217">
         <v>196.17</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217">
+        <v>1429900</v>
+      </c>
+      <c r="F217">
+        <v>1393336.11</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="3"/>
+        <v>36563.889999999898</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>0</v>
       </c>
@@ -3469,8 +5654,18 @@
       <c r="D218">
         <v>83.78</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218">
+        <v>1499800</v>
+      </c>
+      <c r="F218">
+        <v>1001087.15</v>
+      </c>
+      <c r="G218">
+        <f t="shared" si="3"/>
+        <v>498712.85</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1</v>
       </c>
@@ -3483,8 +5678,18 @@
       <c r="D219">
         <v>129.72</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219">
+        <v>1549990</v>
+      </c>
+      <c r="F219">
+        <v>840861.09</v>
+      </c>
+      <c r="G219">
+        <f t="shared" si="3"/>
+        <v>709128.91</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>0</v>
       </c>
@@ -3497,8 +5702,18 @@
       <c r="D220">
         <v>185.82</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220">
+        <v>1598000</v>
+      </c>
+      <c r="F220">
+        <v>1401247.48</v>
+      </c>
+      <c r="G220">
+        <f t="shared" si="3"/>
+        <v>196752.52000000002</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>0</v>
       </c>
@@ -3511,8 +5726,18 @@
       <c r="D221">
         <v>196.92</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221">
+        <v>1785800</v>
+      </c>
+      <c r="F221">
+        <v>1378357.78</v>
+      </c>
+      <c r="G221">
+        <f t="shared" si="3"/>
+        <v>407442.22</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>0</v>
       </c>
@@ -3525,8 +5750,18 @@
       <c r="D222">
         <v>62.72</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222">
+        <v>2099900</v>
+      </c>
+      <c r="F222">
+        <v>800843.65</v>
+      </c>
+      <c r="G222">
+        <f t="shared" si="3"/>
+        <v>1299056.3500000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>0</v>
       </c>
@@ -3537,11 +5772,21 @@
         <v>5</v>
       </c>
       <c r="D223">
-        <v>281.71</v>
+        <v>281.70999999999998</v>
+      </c>
+      <c r="E223">
+        <v>2988800</v>
+      </c>
+      <c r="F223">
+        <v>1759239.87</v>
+      </c>
+      <c r="G223">
+        <f t="shared" si="3"/>
+        <v>1229560.1299999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>